--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684E40FC-5A66-4E9B-A7C7-5F06CEB63C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B869A0F6-B067-4875-BE1B-DD72CD749040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3764" yWindow="3764" windowWidth="36784" windowHeight="14642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10479" yWindow="4691" windowWidth="20987" windowHeight="14642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="4008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="4085">
   <si>
     <t>keys</t>
   </si>
@@ -10499,9 +10499,6 @@
     <t>Visita https://slideshow.digital/documentation per suggerimenti su come utilizzare più funzioni di Slideshow.</t>
   </si>
   <si>
-    <t>Odwiedź https://slideshow.digital/documentation, aby uzyskać wskazówki, jak korzystać z większej liczby funkcji pokazu slajdów.</t>
-  </si>
-  <si>
     <t>Tipy ako využiť viac funkcií Slideshow môžete nájsť na https://slideshow.digital/documentation.</t>
   </si>
   <si>
@@ -12072,6 +12069,240 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>weather_text</t>
+  </si>
+  <si>
+    <t>weather_text_help</t>
+  </si>
+  <si>
+    <t>Text template</t>
+  </si>
+  <si>
+    <t>Template for weather information text. Must contain 2x "%d" placeholder for temperature range. All characters except date formatting have to be enclosed within single quotes (').&lt;br&gt;See &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt; for date format specification.</t>
+  </si>
+  <si>
+    <t>Šablóna textu</t>
+  </si>
+  <si>
+    <t>Textvorlage</t>
+  </si>
+  <si>
+    <t>Vorlage für Wetterinformationstext. Muss 2x Platzhalter "%d" für den Temperaturbereich enthalten. Alle Zeichen außer der Datumsformatierung müssen in einfache Anführungszeichen (') gesetzt werden.&lt;br&gt;Siehe &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt; für die Angabe des Datumsformats.</t>
+  </si>
+  <si>
+    <t>Szablon tekstowy</t>
+  </si>
+  <si>
+    <t>Szablon tekstu informacji o pogodzie. Musi zawierać symbol zastępczy 2x "%d" dla zakresu temperatur. Wszystkie znaki poza formatowaniem daty muszą być ujęte w pojedyncze cudzysłowy ('). &lt;br&gt; Zobacz &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt; https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt; w celu uzyskania specyfikacji formatu daty.</t>
+  </si>
+  <si>
+    <t>Modello di testo</t>
+  </si>
+  <si>
+    <t>Modello per il testo delle informazioni meteorologiche. Deve contenere 2x segnaposto "%d" per l'intervallo di temperatura. Tutti i caratteri tranne la formattazione della data devono essere racchiusi tra virgolette singole (').&lt;br&gt;Vedere &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt; per la specifica del formato della data.</t>
+  </si>
+  <si>
+    <t>Šablóna pre informácie o počasí. Musí obsahovať 2x zástupný symbol "%d", ktorý bude nahradený teplotou. Všetky znaky okrem formátovania dátumu musia byť uzavreté v apostofoch ('). Špecifikácia formátu dátumu je dostupná na &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt; https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Šablona textu</t>
+  </si>
+  <si>
+    <t>Šablona pro informace o počasí. Musí obsahovat 2x zástupný symbol "%d", který bude nahrazen teplotou. Všechny znaky kromě formátování data musí být uzavřeny v apostofoch ('). Specifikace formátu data je dostupná na &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Zrušiť nastavenie Slideshow ako Launcher aplikácie</t>
+  </si>
+  <si>
+    <t>Deaktivierte Slideshow als Launcher-App</t>
+  </si>
+  <si>
+    <t>Annulla impostazione Slideshow come app di avvio</t>
+  </si>
+  <si>
+    <t>Usuń Slideshow jako aplikację uruchamiającą</t>
+  </si>
+  <si>
+    <t>Zrušit nastavení Slideshow jako Launcher aplikace</t>
+  </si>
+  <si>
+    <t>Odwiedź https://slideshow.digital/documentation, aby uzyskać wskazówki, jak korzystać z większej liczby funkcji Slideshow.</t>
+  </si>
+  <si>
+    <t>Zrušenie Launcher aplikácie bolo úspešné</t>
+  </si>
+  <si>
+    <t>Disinserimento dell'applicazione Launcher è riuscito</t>
+  </si>
+  <si>
+    <t>Rozbrajanie aplikacji Launcher powiodło się</t>
+  </si>
+  <si>
+    <t>Das Deaktivieren der Launcher-Anwendung war erfolgreich</t>
+  </si>
+  <si>
+    <t>Zrušení Launcher aplikace bylo úspěšné</t>
+  </si>
+  <si>
+    <t>android_settings</t>
+  </si>
+  <si>
+    <t>Android settings</t>
+  </si>
+  <si>
+    <t>Nastavenia Androidu</t>
+  </si>
+  <si>
+    <t>Nastavení Androidu</t>
+  </si>
+  <si>
+    <t>Android-Einstellungen</t>
+  </si>
+  <si>
+    <t>Ustawienia Androida</t>
+  </si>
+  <si>
+    <t>Impostazioni Android</t>
+  </si>
+  <si>
+    <t>launcher_clear</t>
+  </si>
+  <si>
+    <t>launcher_clear_success</t>
+  </si>
+  <si>
+    <t>launcher_set</t>
+  </si>
+  <si>
+    <t>launcher_set_help</t>
+  </si>
+  <si>
+    <t>Nastaviť Slideshow ako Launcher aplikáciu</t>
+  </si>
+  <si>
+    <t>Nastavit Slideshow jako Launcher aplikaci</t>
+  </si>
+  <si>
+    <t>Zobrazí seznam aplikací, kde můžete vybrat Slideshow jako Launcher aplikaci tohoto zařízení. Použijte pouze pokud toto zařízení bude určeno převážně pro Slideshow.</t>
+  </si>
+  <si>
+    <t>Imposta Slideshow come applicazione di avvio</t>
+  </si>
+  <si>
+    <t>Apre un elenco di app, in cui è possibile impostare Slideshow come app Launcher di questo dispositivo. Utilizzare solo dispositivi dedicati alla Slideshow.</t>
+  </si>
+  <si>
+    <t>Ustaw Slideshow jako aplikację uruchamiającą</t>
+  </si>
+  <si>
+    <t>Otwiera listę aplikacji, w których możesz ustawić Slideshow jako aplikację uruchamiającą na tym urządzeniu. Używaj tylko urządzeń przeznaczonych do Slideshow.</t>
+  </si>
+  <si>
+    <t>Set Slideshow als Launcher-Anwendung</t>
+  </si>
+  <si>
+    <t>Öffnet eine Liste von Apps, in der Sie die Slideshow als Launcher-App dieses Geräts festlegen können. Verwenden Sie nur Geräte, die für die Slideshow vorgesehen sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opens a dialog with list of apps, where you can set Slideshow as this device's Launcher / Home app. If no dialog is displayed, please change the Home app via Android settings. Use only of devices dedicated to Slideshow. </t>
+  </si>
+  <si>
+    <t>Zobrazí zoznam aplikácií, kde môžete vybrať Slideshow ako Launcher aplikáciu tohto zariadenia. Ak sa nezobrazí zoznam, zmenu môžete spraviť cez nastavenia Androidu. Použite len ak toto zariadenie bude určené prevažne pre Slideshow.</t>
+  </si>
+  <si>
+    <t>Set Slideshow as Launcher / Home application</t>
+  </si>
+  <si>
+    <t>Unsetting Launcher / Home application was successful</t>
+  </si>
+  <si>
+    <t>Unset Slideshow as Launcher / Home application</t>
+  </si>
+  <si>
+    <t>screen_login_required</t>
+  </si>
+  <si>
+    <t>screen_login_required_help</t>
+  </si>
+  <si>
+    <t>Login is required for this action</t>
+  </si>
+  <si>
+    <t>Please enter username and password (the same as for the web interface) or contact your administrator</t>
+  </si>
+  <si>
+    <t>Do wykonania tej czynności wymagane jest logowanie</t>
+  </si>
+  <si>
+    <t>Wprowadź nazwę użytkownika i hasło (takie same jak w przypadku interfejsu internetowego) lub skontaktuj się z administratorem</t>
+  </si>
+  <si>
+    <t>L'accesso è richiesto per questa azione</t>
+  </si>
+  <si>
+    <t>Inserisci nome utente e password (la stessa dell'interfaccia web) o contatta l'amministratore</t>
+  </si>
+  <si>
+    <t>Für diese Aktion ist ein Login erforderlich</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie den Benutzernamen und das Passwort ein (wie für die Weboberfläche) oder wenden Sie sich an Ihren Administrator</t>
+  </si>
+  <si>
+    <t>Pre vykonanie tejto akcie je potrebné prihlásenie</t>
+  </si>
+  <si>
+    <t>Prosím zadajte meno a heslo (rovnaké ako na webové rozhranie), alebo kontaktujte svojho administrátora</t>
+  </si>
+  <si>
+    <t>Pro provedení této akce je třeba přihlášení</t>
+  </si>
+  <si>
+    <t>Prosím zadejte jméno a heslo (stejné jako na webové rozhraní) nebo kontaktujte svého administrátora</t>
+  </si>
+  <si>
+    <t>password_protect_screen</t>
+  </si>
+  <si>
+    <t>password_protect_screen_help</t>
+  </si>
+  <si>
+    <t>Protect screen with password</t>
+  </si>
+  <si>
+    <t>Entering password will be required for any action on the devices's screen (opening on-screen menu, opening settings, etc.). Use the same username and password as for the web interface.</t>
+  </si>
+  <si>
+    <t>Bildschirm mit Passwort schützen</t>
+  </si>
+  <si>
+    <t>Die Eingabe eines Kennworts ist für alle Aktionen auf dem Bildschirm des Geräts erforderlich (Öffnen des Bildschirmmenüs, Öffnen der Einstellungen usw.). Verwenden Sie denselben Benutzernamen und dasselbe Passwort wie für die Weboberfläche.</t>
+  </si>
+  <si>
+    <t>Proteggi lo schermo con una password</t>
+  </si>
+  <si>
+    <t>L'inserimento della password sarà richiesto per qualsiasi azione sullo schermo del dispositivo (apertura del menu su schermo, apertura delle impostazioni, ecc.). Utilizza lo stesso nome utente e password dell'interfaccia web.</t>
+  </si>
+  <si>
+    <t>Chroń ekran hasłem</t>
+  </si>
+  <si>
+    <t>Podanie hasła będzie wymagane przy każdej czynności na ekranie urządzeń (otwieranie menu ekranowego, otwieranie ustawień itp.). Użyj tej samej nazwy użytkownika i hasła, co w przypadku interfejsu internetowego.</t>
+  </si>
+  <si>
+    <t>Zabezpečiť obrazovku heslom</t>
+  </si>
+  <si>
+    <t>Na akciu na obrazovke zariadenia (otvorenie menu, otvorenie nastavení, atď.) bude vyžadované heslo. Použite rovnaké heslo ako do webového rozhrania.</t>
+  </si>
+  <si>
+    <t>Zajistit obrazovku heslem</t>
+  </si>
+  <si>
+    <t>Na akci na obrazovce zařízení (otevření menu, otevření nastavení atd.) dude vyžadováno heslo. Použijte stejné heslo jako do webového rozhraní.</t>
   </si>
 </sst>
 </file>
@@ -12118,11 +12349,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12437,13 +12669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G598"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B582" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
+      <selection pane="bottomRight" activeCell="E606" sqref="E606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12549,22 +12781,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="C5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3798</v>
+      </c>
+      <c r="G5" t="s">
         <v>3796</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3798</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3800</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3799</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3797</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12785,7 +13017,7 @@
         <v>1028</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="E15" t="s">
         <v>1954</v>
@@ -12894,7 +13126,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="C20" t="s">
         <v>1032</v>
@@ -13170,7 +13402,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="C32" t="s">
         <v>1044</v>
@@ -13377,13 +13609,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="C41" t="s">
         <v>1052</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="E41" t="s">
         <v>1980</v>
@@ -13544,7 +13776,7 @@
         <v>1059</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="E48" t="s">
         <v>1987</v>
@@ -13567,7 +13799,7 @@
         <v>1060</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="E49" t="s">
         <v>1988</v>
@@ -13584,7 +13816,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="C50" t="s">
         <v>1061</v>
@@ -13774,7 +14006,7 @@
         <v>1069</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="E58" t="s">
         <v>1997</v>
@@ -14044,7 +14276,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="C70" t="s">
         <v>1081</v>
@@ -14090,7 +14322,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="C72" t="s">
         <v>1083</v>
@@ -14136,7 +14368,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="C74" t="s">
         <v>1085</v>
@@ -14211,7 +14443,7 @@
         <v>1088</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="E77" t="s">
         <v>2015</v>
@@ -14579,7 +14811,7 @@
         <v>1102</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="E93" t="s">
         <v>2029</v>
@@ -14665,7 +14897,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="C97" t="s">
         <v>1106</v>
@@ -15007,7 +15239,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="B112" t="s">
         <v>640</v>
@@ -15030,7 +15262,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="B113" t="s">
         <v>641</v>
@@ -15053,7 +15285,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="B114" t="s">
         <v>642</v>
@@ -15076,7 +15308,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B115" t="s">
         <v>642</v>
@@ -15148,7 +15380,7 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="C118" t="s">
         <v>1125</v>
@@ -15171,7 +15403,7 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="C119" t="s">
         <v>1126</v>
@@ -15269,7 +15501,7 @@
         <v>1130</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="E123" t="s">
         <v>2056</v>
@@ -15292,7 +15524,7 @@
         <v>1059</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="E124" t="s">
         <v>1987</v>
@@ -15309,7 +15541,7 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="C125" t="s">
         <v>1131</v>
@@ -15700,7 +15932,7 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="C142" t="s">
         <v>1148</v>
@@ -15746,7 +15978,7 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="C144" t="s">
         <v>3419</v>
@@ -15792,7 +16024,7 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="C146" t="s">
         <v>1151</v>
@@ -15815,7 +16047,7 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="C147" t="s">
         <v>1152</v>
@@ -15982,7 +16214,7 @@
         <v>1159</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="E154" t="s">
         <v>2085</v>
@@ -16005,7 +16237,7 @@
         <v>1160</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="E155" t="s">
         <v>2086</v>
@@ -16022,7 +16254,7 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="C156" t="s">
         <v>1161</v>
@@ -16074,7 +16306,7 @@
         <v>1163</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="E158" t="s">
         <v>2089</v>
@@ -16206,7 +16438,7 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="C164" t="s">
         <v>1169</v>
@@ -16304,7 +16536,7 @@
         <v>1173</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="E168" t="s">
         <v>2099</v>
@@ -16551,22 +16783,22 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="C179" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E179" t="s">
         <v>3894</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>3897</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>3895</v>
       </c>
-      <c r="F179" t="s">
-        <v>3896</v>
-      </c>
       <c r="G179" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -16574,10 +16806,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="C180" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>1656</v>
@@ -16589,7 +16821,7 @@
         <v>2612</v>
       </c>
       <c r="G180" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -16603,7 +16835,7 @@
         <v>1183</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="E181" t="s">
         <v>2109</v>
@@ -16626,7 +16858,7 @@
         <v>1184</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="E182" t="s">
         <v>2110</v>
@@ -16649,10 +16881,10 @@
         <v>1185</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E183" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="F183" t="s">
         <v>2615</v>
@@ -16689,7 +16921,7 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C185" t="s">
         <v>1187</v>
@@ -16804,7 +17036,7 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="C190" t="s">
         <v>1192</v>
@@ -16873,7 +17105,7 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="C193" t="s">
         <v>1194</v>
@@ -16942,7 +17174,7 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="C196" t="s">
         <v>1197</v>
@@ -16957,7 +17189,7 @@
         <v>2627</v>
       </c>
       <c r="G196" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -16988,7 +17220,7 @@
         <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C198" t="s">
         <v>1199</v>
@@ -17155,7 +17387,7 @@
         <v>1206</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="E205" t="s">
         <v>2130</v>
@@ -17287,7 +17519,7 @@
         <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C211" t="s">
         <v>1212</v>
@@ -17310,7 +17542,7 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="C212" t="s">
         <v>1213</v>
@@ -17494,7 +17726,7 @@
         <v>215</v>
       </c>
       <c r="B220" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="C220" t="s">
         <v>1221</v>
@@ -17747,7 +17979,7 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="C231" t="s">
         <v>1232</v>
@@ -17756,7 +17988,7 @@
         <v>1697</v>
       </c>
       <c r="E231" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F231" t="s">
         <v>2662</v>
@@ -18075,7 +18307,7 @@
         <v>1245</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="E245" t="s">
         <v>2167</v>
@@ -18167,7 +18399,7 @@
         <v>1249</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E249" t="s">
         <v>2171</v>
@@ -18506,7 +18738,7 @@
         <v>259</v>
       </c>
       <c r="B264" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="C264" t="s">
         <v>1264</v>
@@ -18529,7 +18761,7 @@
         <v>260</v>
       </c>
       <c r="B265" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="C265" t="s">
         <v>1265</v>
@@ -18690,45 +18922,45 @@
         <v>267</v>
       </c>
       <c r="B272" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="C272" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>3568</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="E272" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F272" t="s">
         <v>3569</v>
       </c>
-      <c r="E272" t="s">
+      <c r="G272" t="s">
         <v>3571</v>
-      </c>
-      <c r="F272" t="s">
-        <v>3570</v>
-      </c>
-      <c r="G272" t="s">
-        <v>3572</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B273" t="s">
         <v>3574</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>3575</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" s="2" t="s">
         <v>3576</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="E273" t="s">
         <v>3577</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
+        <v>3569</v>
+      </c>
+      <c r="G273" t="s">
         <v>3578</v>
-      </c>
-      <c r="F273" t="s">
-        <v>3570</v>
-      </c>
-      <c r="G273" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -18897,7 +19129,7 @@
         <v>275</v>
       </c>
       <c r="B281" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="C281" t="s">
         <v>1279</v>
@@ -19018,7 +19250,7 @@
         <v>1284</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="E286" t="s">
         <v>2204</v>
@@ -19064,7 +19296,7 @@
         <v>1286</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="E288" t="s">
         <v>2206</v>
@@ -19150,7 +19382,7 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="C292" t="s">
         <v>1290</v>
@@ -19219,7 +19451,7 @@
         <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="C295" t="s">
         <v>1292</v>
@@ -19311,7 +19543,7 @@
         <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="C299" t="s">
         <v>1295</v>
@@ -19495,7 +19727,7 @@
         <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="C307" t="s">
         <v>1302</v>
@@ -19564,7 +19796,7 @@
         <v>304</v>
       </c>
       <c r="B310" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="C310" t="s">
         <v>1305</v>
@@ -19708,7 +19940,7 @@
         <v>813</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="E316" t="s">
         <v>2234</v>
@@ -19731,7 +19963,7 @@
         <v>814</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="E317" t="s">
         <v>2235</v>
@@ -19754,7 +19986,7 @@
         <v>1311</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="E318" t="s">
         <v>2236</v>
@@ -19777,7 +20009,7 @@
         <v>816</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="E319" t="s">
         <v>2237</v>
@@ -19840,7 +20072,7 @@
         <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="C322" t="s">
         <v>1314</v>
@@ -19863,7 +20095,7 @@
         <v>317</v>
       </c>
       <c r="B323" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="C323" t="s">
         <v>1315</v>
@@ -19886,22 +20118,22 @@
         <v>318</v>
       </c>
       <c r="B324" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="C324" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E324" t="s">
         <v>3878</v>
       </c>
-      <c r="D324" s="2" t="s">
-        <v>3881</v>
-      </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
         <v>3879</v>
       </c>
-      <c r="F324" t="s">
-        <v>3880</v>
-      </c>
       <c r="G324" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -20185,13 +20417,13 @@
         <v>331</v>
       </c>
       <c r="B337" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="C337" t="s">
         <v>1328</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="E337" t="s">
         <v>2254</v>
@@ -20214,7 +20446,7 @@
         <v>1329</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="E338" t="s">
         <v>2255</v>
@@ -20251,7 +20483,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="B340" t="s">
         <v>834</v>
@@ -20260,7 +20492,7 @@
         <v>1331</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="E340" t="s">
         <v>2257</v>
@@ -20274,10 +20506,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B341" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="C341" t="s">
         <v>1332</v>
@@ -20467,7 +20699,7 @@
         <v>1340</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="E349" t="s">
         <v>2266</v>
@@ -20513,7 +20745,7 @@
         <v>1342</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="E351" t="s">
         <v>2268</v>
@@ -20559,7 +20791,7 @@
         <v>1344</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="E353" t="s">
         <v>2270</v>
@@ -20582,7 +20814,7 @@
         <v>1345</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="E354" t="s">
         <v>2271</v>
@@ -20622,7 +20854,7 @@
         <v>348</v>
       </c>
       <c r="B356" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="C356" t="s">
         <v>1346</v>
@@ -20651,7 +20883,7 @@
         <v>1347</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="E357" t="s">
         <v>2274</v>
@@ -20720,7 +20952,7 @@
         <v>1350</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="E360" t="s">
         <v>2277</v>
@@ -20743,7 +20975,7 @@
         <v>1351</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="E361" t="s">
         <v>2278</v>
@@ -20921,7 +21153,7 @@
         <v>361</v>
       </c>
       <c r="B369" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="C369" t="s">
         <v>1359</v>
@@ -20950,7 +21182,7 @@
         <v>1360</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="E370" t="s">
         <v>2287</v>
@@ -20967,7 +21199,7 @@
         <v>363</v>
       </c>
       <c r="B371" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="C371" t="s">
         <v>1361</v>
@@ -21019,7 +21251,7 @@
         <v>1363</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="E373" t="s">
         <v>2290</v>
@@ -21059,22 +21291,22 @@
         <v>367</v>
       </c>
       <c r="B375" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>3873</v>
       </c>
-      <c r="C375" t="s">
+      <c r="E375" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F375" t="s">
+        <v>3874</v>
+      </c>
+      <c r="G375" t="s">
         <v>3871</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>3874</v>
-      </c>
-      <c r="E375" t="s">
-        <v>3876</v>
-      </c>
-      <c r="F375" t="s">
-        <v>3875</v>
-      </c>
-      <c r="G375" t="s">
-        <v>3872</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -21151,22 +21383,22 @@
         <v>371</v>
       </c>
       <c r="B379" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="C379" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E379" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F379" t="s">
+        <v>3867</v>
+      </c>
+      <c r="G379" t="s">
         <v>3865</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>3869</v>
-      </c>
-      <c r="E379" t="s">
-        <v>3867</v>
-      </c>
-      <c r="F379" t="s">
-        <v>3868</v>
-      </c>
-      <c r="G379" t="s">
-        <v>3866</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -21335,22 +21567,22 @@
         <v>379</v>
       </c>
       <c r="B387" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C387" t="s">
         <v>3911</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387" s="2" t="s">
         <v>3912</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="E387" t="s">
         <v>3913</v>
       </c>
-      <c r="E387" t="s">
+      <c r="F387" t="s">
         <v>3914</v>
       </c>
-      <c r="F387" t="s">
-        <v>3915</v>
-      </c>
       <c r="G387" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -21473,7 +21705,7 @@
         <v>385</v>
       </c>
       <c r="B393" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="C393" t="s">
         <v>1379</v>
@@ -21565,7 +21797,7 @@
         <v>389</v>
       </c>
       <c r="B397" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="C397" t="s">
         <v>1383</v>
@@ -21749,7 +21981,7 @@
         <v>397</v>
       </c>
       <c r="B405" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="C405" t="s">
         <v>1391</v>
@@ -21795,7 +22027,7 @@
         <v>399</v>
       </c>
       <c r="B407" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C407" t="s">
         <v>1393</v>
@@ -21910,7 +22142,7 @@
         <v>404</v>
       </c>
       <c r="B412" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C412" t="s">
         <v>1398</v>
@@ -22160,25 +22392,25 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B423" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C423" t="s">
         <v>3587</v>
       </c>
-      <c r="B423" t="s">
+      <c r="D423" s="2" t="s">
         <v>3590</v>
       </c>
-      <c r="C423" t="s">
+      <c r="E423" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F423" t="s">
+        <v>3592</v>
+      </c>
+      <c r="G423" t="s">
         <v>3588</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>3591</v>
-      </c>
-      <c r="E423" t="s">
-        <v>3592</v>
-      </c>
-      <c r="F423" t="s">
-        <v>3593</v>
-      </c>
-      <c r="G423" t="s">
-        <v>3589</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -22186,13 +22418,13 @@
         <v>415</v>
       </c>
       <c r="B424" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="C424" t="s">
         <v>1409</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="E424" t="s">
         <v>2336</v>
@@ -22396,7 +22628,7 @@
         <v>912</v>
       </c>
       <c r="C433" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>1850</v>
@@ -22439,13 +22671,13 @@
         <v>426</v>
       </c>
       <c r="B435" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C435" t="s">
         <v>1419</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="E435" t="s">
         <v>2346</v>
@@ -22508,13 +22740,13 @@
         <v>429</v>
       </c>
       <c r="B438" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="C438" t="s">
         <v>1422</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E438" t="s">
         <v>2349</v>
@@ -22623,7 +22855,7 @@
         <v>434</v>
       </c>
       <c r="B443" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C443" t="s">
         <v>1427</v>
@@ -22807,22 +23039,22 @@
         <v>442</v>
       </c>
       <c r="B451" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C451" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E451" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F451" t="s">
+        <v>3507</v>
+      </c>
+      <c r="G451" t="s">
         <v>3506</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>3510</v>
-      </c>
-      <c r="E451" t="s">
-        <v>3509</v>
-      </c>
-      <c r="F451" t="s">
-        <v>3508</v>
-      </c>
-      <c r="G451" t="s">
-        <v>3507</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -22853,7 +23085,7 @@
         <v>444</v>
       </c>
       <c r="B453" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="C453" t="s">
         <v>1435</v>
@@ -23066,7 +23298,7 @@
         <v>1444</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="E462" t="s">
         <v>2370</v>
@@ -23520,7 +23752,7 @@
         <v>473</v>
       </c>
       <c r="B482" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="C482" t="s">
         <v>1464</v>
@@ -23641,7 +23873,7 @@
         <v>1469</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="E487" t="s">
         <v>2393</v>
@@ -23658,7 +23890,7 @@
         <v>479</v>
       </c>
       <c r="B488" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C488" t="s">
         <v>1470</v>
@@ -23802,7 +24034,7 @@
         <v>1476</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E494" t="s">
         <v>2400</v>
@@ -23825,16 +24057,16 @@
         <v>3481</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E495" t="s">
         <v>3482</v>
       </c>
       <c r="F495" t="s">
+        <v>4026</v>
+      </c>
+      <c r="G495" t="s">
         <v>3483</v>
-      </c>
-      <c r="G495" t="s">
-        <v>3484</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -24046,168 +24278,168 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B505" t="s">
         <v>3981</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>3982</v>
       </c>
-      <c r="C505" t="s">
+      <c r="D505" s="2" t="s">
         <v>3983</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="E505" t="s">
         <v>3984</v>
       </c>
-      <c r="E505" t="s">
+      <c r="F505" t="s">
         <v>3985</v>
       </c>
-      <c r="F505" t="s">
+      <c r="G505" t="s">
         <v>3986</v>
-      </c>
-      <c r="G505" t="s">
-        <v>3987</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B506" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C506" t="s">
         <v>3974</v>
       </c>
-      <c r="C506" t="s">
+      <c r="D506" s="2" t="s">
         <v>3975</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="E506" t="s">
         <v>3976</v>
       </c>
-      <c r="E506" t="s">
+      <c r="F506" t="s">
         <v>3977</v>
       </c>
-      <c r="F506" t="s">
+      <c r="G506" t="s">
         <v>3978</v>
-      </c>
-      <c r="G506" t="s">
-        <v>3979</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B507" t="s">
         <v>3946</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
         <v>3947</v>
       </c>
-      <c r="C507" t="s">
+      <c r="D507" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="E507" t="s">
         <v>3948</v>
       </c>
-      <c r="D507" s="2" t="s">
-        <v>3955</v>
-      </c>
-      <c r="E507" t="s">
+      <c r="F507" t="s">
         <v>3949</v>
       </c>
-      <c r="F507" t="s">
+      <c r="G507" t="s">
         <v>3950</v>
-      </c>
-      <c r="G507" t="s">
-        <v>3951</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B508" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C508" t="s">
         <v>3952</v>
       </c>
-      <c r="C508" t="s">
+      <c r="D508" s="2" t="s">
         <v>3953</v>
       </c>
-      <c r="D508" s="2" t="s">
-        <v>3954</v>
-      </c>
       <c r="E508" t="s">
+        <v>3955</v>
+      </c>
+      <c r="F508" t="s">
         <v>3956</v>
       </c>
-      <c r="F508" t="s">
+      <c r="G508" t="s">
         <v>3957</v>
-      </c>
-      <c r="G508" t="s">
-        <v>3958</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B509" t="s">
         <v>3994</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>3995</v>
       </c>
-      <c r="C509" t="s">
+      <c r="D509" s="2" t="s">
         <v>3996</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="E509" t="s">
         <v>3997</v>
       </c>
-      <c r="E509" t="s">
+      <c r="F509" t="s">
         <v>3998</v>
       </c>
-      <c r="F509" t="s">
+      <c r="G509" t="s">
         <v>3999</v>
-      </c>
-      <c r="G509" t="s">
-        <v>4000</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B510" t="s">
         <v>3967</v>
       </c>
-      <c r="B510" t="s">
+      <c r="C510" t="s">
         <v>3968</v>
       </c>
-      <c r="C510" t="s">
+      <c r="D510" s="2" t="s">
         <v>3969</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="E510" t="s">
         <v>3970</v>
       </c>
-      <c r="E510" t="s">
+      <c r="F510" t="s">
         <v>3971</v>
       </c>
-      <c r="F510" t="s">
+      <c r="G510" t="s">
         <v>3972</v>
-      </c>
-      <c r="G510" t="s">
-        <v>3973</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B511" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C511" t="s">
         <v>3960</v>
       </c>
-      <c r="C511" t="s">
+      <c r="D511" s="2" t="s">
         <v>3961</v>
       </c>
-      <c r="D511" s="2" t="s">
+      <c r="E511" t="s">
         <v>3962</v>
       </c>
-      <c r="E511" t="s">
+      <c r="F511" t="s">
         <v>3963</v>
       </c>
-      <c r="F511" t="s">
+      <c r="G511" t="s">
         <v>3964</v>
-      </c>
-      <c r="G511" t="s">
-        <v>3965</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="B512" t="s">
         <v>976</v>
@@ -24230,94 +24462,94 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B513" t="s">
         <v>3938</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
         <v>3939</v>
       </c>
-      <c r="C513" t="s">
+      <c r="D513" s="2" t="s">
         <v>3940</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="E513" t="s">
         <v>3941</v>
       </c>
-      <c r="E513" t="s">
+      <c r="F513" t="s">
         <v>3942</v>
       </c>
-      <c r="F513" t="s">
+      <c r="G513" t="s">
         <v>3943</v>
-      </c>
-      <c r="G513" t="s">
-        <v>3944</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B514" t="s">
         <v>3931</v>
       </c>
-      <c r="B514" t="s">
+      <c r="C514" t="s">
         <v>3932</v>
       </c>
-      <c r="C514" t="s">
+      <c r="D514" s="2" t="s">
         <v>3933</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="E514" t="s">
         <v>3934</v>
       </c>
-      <c r="E514" t="s">
+      <c r="F514" t="s">
         <v>3935</v>
       </c>
-      <c r="F514" t="s">
+      <c r="G514" t="s">
         <v>3936</v>
-      </c>
-      <c r="G514" t="s">
-        <v>3937</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B515" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C515" t="s">
         <v>3924</v>
       </c>
-      <c r="C515" t="s">
+      <c r="D515" s="2" t="s">
         <v>3925</v>
       </c>
-      <c r="D515" s="2" t="s">
+      <c r="E515" t="s">
         <v>3926</v>
       </c>
-      <c r="E515" t="s">
+      <c r="F515" t="s">
         <v>3927</v>
       </c>
-      <c r="F515" t="s">
+      <c r="G515" t="s">
         <v>3928</v>
-      </c>
-      <c r="G515" t="s">
-        <v>3929</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B516" t="s">
         <v>3917</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>3918</v>
       </c>
-      <c r="C516" t="s">
+      <c r="D516" s="2" t="s">
         <v>3919</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="E516" t="s">
         <v>3920</v>
       </c>
-      <c r="E516" t="s">
+      <c r="F516" t="s">
         <v>3921</v>
       </c>
-      <c r="F516" t="s">
+      <c r="G516" t="s">
         <v>3922</v>
-      </c>
-      <c r="G516" t="s">
-        <v>3923</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -24377,7 +24609,7 @@
         <v>1485</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E519" t="s">
         <v>2413</v>
@@ -24400,7 +24632,7 @@
         <v>1486</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E520" t="s">
         <v>2414</v>
@@ -24423,7 +24655,7 @@
         <v>1487</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E521" t="s">
         <v>2415</v>
@@ -24446,7 +24678,7 @@
         <v>1488</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E522" t="s">
         <v>2416</v>
@@ -24509,22 +24741,22 @@
         <v>504</v>
       </c>
       <c r="B525" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C525" t="s">
         <v>3988</v>
       </c>
-      <c r="C525" t="s">
+      <c r="D525" s="2" t="s">
         <v>3989</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="E525" t="s">
         <v>3990</v>
       </c>
-      <c r="E525" t="s">
+      <c r="F525" t="s">
         <v>3991</v>
       </c>
-      <c r="F525" t="s">
+      <c r="G525" t="s">
         <v>3992</v>
-      </c>
-      <c r="G525" t="s">
-        <v>3993</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -24670,22 +24902,22 @@
         <v>511</v>
       </c>
       <c r="B532" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C532" t="s">
         <v>4001</v>
       </c>
-      <c r="C532" t="s">
+      <c r="D532" s="2" t="s">
         <v>4002</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="E532" t="s">
         <v>4003</v>
       </c>
-      <c r="E532" t="s">
+      <c r="F532" t="s">
         <v>4004</v>
       </c>
-      <c r="F532" t="s">
+      <c r="G532" t="s">
         <v>4005</v>
-      </c>
-      <c r="G532" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -25334,367 +25566,367 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B561" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="C561" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="D561" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="E561" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F561" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="G561" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="B562" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="C562" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="D562" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="E562" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F562" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="G562" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B563" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C563" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="D563" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="E563" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="F563" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="G563" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B564" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C564" t="s">
         <v>3561</v>
       </c>
-      <c r="B564" t="s">
-        <v>3567</v>
-      </c>
-      <c r="C564" t="s">
+      <c r="D564" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E564" t="s">
         <v>3562</v>
       </c>
-      <c r="D564" t="s">
+      <c r="F564" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G564" t="s">
         <v>3565</v>
-      </c>
-      <c r="E564" t="s">
-        <v>3563</v>
-      </c>
-      <c r="F564" t="s">
-        <v>3564</v>
-      </c>
-      <c r="G564" t="s">
-        <v>3566</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B565" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C565" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D565" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E565" t="s">
+        <v>3583</v>
+      </c>
+      <c r="F565" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G565" t="s">
         <v>3580</v>
-      </c>
-      <c r="B565" t="s">
-        <v>3583</v>
-      </c>
-      <c r="C565" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D565" t="s">
-        <v>3586</v>
-      </c>
-      <c r="E565" t="s">
-        <v>3584</v>
-      </c>
-      <c r="F565" t="s">
-        <v>3585</v>
-      </c>
-      <c r="G565" t="s">
-        <v>3581</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="B566" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="C566" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="D566" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="E566" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="F566" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="G566" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B567" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="C567" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="D567" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="E567" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="F567" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="G567" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="B568" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="C568" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D568" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="E568" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="F568" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="G568" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="B569" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="C569" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="D569" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E569" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="F569" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="G569" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="B570" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="C570" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="D570" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="E570" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="F570" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="G570" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="B571" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="C571" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="D571" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="E571" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="F571" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="G571" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="B572" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="C572" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="D572" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="E572" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="F572" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="G572" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="B573" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="C573" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="D573" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="E573" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="F573" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="G573" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="B574" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="C574" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="D574" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E574" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="F574" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="G574" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B575" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="C575" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="D575" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="E575" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="F575" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="G575" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B576" t="s">
         <v>608</v>
       </c>
       <c r="C576" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="D576" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E576" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="F576" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="G576" t="s">
         <v>3021</v>
@@ -25702,508 +25934,761 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="B577" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="C577" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="D577" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="E577" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="F577" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="G577" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="B578" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="C578" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="D578" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="E578" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="F578" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="G578" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="B579" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C579" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="D579" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="E579" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="F579" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="G579" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="B580" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="C580" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D580" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="E580" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="F580" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="G580" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="B581" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="C581" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="D581" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="E581" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F581" t="s">
         <v>3726</v>
       </c>
-      <c r="F581" t="s">
-        <v>3727</v>
-      </c>
       <c r="G581" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="B582" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="C582" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="D582" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="E582" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="F582" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="G582" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B583" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C583" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="D583" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="E583" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="F583" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="G583" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="B584" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C584" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="D584" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="E584" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="F584" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="G584" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="B585" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="C585" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="D585" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E585" t="s">
         <v>3724</v>
       </c>
-      <c r="E585" t="s">
-        <v>3725</v>
-      </c>
       <c r="F585" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="G585" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B586" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="C586" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="D586" t="s">
+        <v>3718</v>
+      </c>
+      <c r="E586" t="s">
         <v>3719</v>
       </c>
-      <c r="E586" t="s">
-        <v>3720</v>
-      </c>
       <c r="F586" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="G586" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="B587" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="C587" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="D587" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="E587" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="F587" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="G587" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="B588" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="C588" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="D588" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="E588" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="F588" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="G588" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="B589" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="C589" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="D589" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="E589" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="F589" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="G589" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="B590" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="C590" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D590" t="s">
+        <v>3752</v>
+      </c>
+      <c r="E590" t="s">
+        <v>3756</v>
+      </c>
+      <c r="F590" t="s">
+        <v>3748</v>
+      </c>
+      <c r="G590" t="s">
         <v>3735</v>
-      </c>
-      <c r="D590" t="s">
-        <v>3753</v>
-      </c>
-      <c r="E590" t="s">
-        <v>3757</v>
-      </c>
-      <c r="F590" t="s">
-        <v>3749</v>
-      </c>
-      <c r="G590" t="s">
-        <v>3736</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B591" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C591" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D591" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E591" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F591" t="s">
+        <v>3762</v>
+      </c>
+      <c r="G591" t="s">
         <v>3760</v>
-      </c>
-      <c r="B591" t="s">
-        <v>3766</v>
-      </c>
-      <c r="C591" t="s">
-        <v>3762</v>
-      </c>
-      <c r="D591" t="s">
-        <v>3764</v>
-      </c>
-      <c r="E591" t="s">
-        <v>3765</v>
-      </c>
-      <c r="F591" t="s">
-        <v>3763</v>
-      </c>
-      <c r="G591" t="s">
-        <v>3761</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B592" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C592" t="s">
         <v>3767</v>
       </c>
-      <c r="B592" t="s">
+      <c r="D592" t="s">
+        <v>3771</v>
+      </c>
+      <c r="E592" t="s">
         <v>3769</v>
       </c>
-      <c r="C592" t="s">
+      <c r="F592" t="s">
+        <v>3770</v>
+      </c>
+      <c r="G592" t="s">
         <v>3768</v>
-      </c>
-      <c r="D592" t="s">
-        <v>3772</v>
-      </c>
-      <c r="E592" t="s">
-        <v>3770</v>
-      </c>
-      <c r="F592" t="s">
-        <v>3771</v>
-      </c>
-      <c r="G592" t="s">
-        <v>3769</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="B593" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="C593" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="D593" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="E593" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="F593" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="G593" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="B594" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="C594" t="s">
+        <v>3785</v>
+      </c>
+      <c r="D594" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E594" t="s">
+        <v>3792</v>
+      </c>
+      <c r="F594" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G594" t="s">
         <v>3786</v>
-      </c>
-      <c r="D594" t="s">
-        <v>3789</v>
-      </c>
-      <c r="E594" t="s">
-        <v>3793</v>
-      </c>
-      <c r="F594" t="s">
-        <v>3791</v>
-      </c>
-      <c r="G594" t="s">
-        <v>3787</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B595" t="s">
         <v>3851</v>
       </c>
-      <c r="B595" t="s">
+      <c r="C595" t="s">
         <v>3852</v>
       </c>
-      <c r="C595" t="s">
+      <c r="D595" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E595" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F595" t="s">
+        <v>3860</v>
+      </c>
+      <c r="G595" t="s">
         <v>3853</v>
-      </c>
-      <c r="D595" t="s">
-        <v>3859</v>
-      </c>
-      <c r="E595" t="s">
-        <v>3863</v>
-      </c>
-      <c r="F595" t="s">
-        <v>3861</v>
-      </c>
-      <c r="G595" t="s">
-        <v>3854</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B596" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C596" t="s">
         <v>3855</v>
       </c>
-      <c r="B596" t="s">
-        <v>3858</v>
-      </c>
-      <c r="C596" t="s">
+      <c r="D596" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E596" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F596" t="s">
+        <v>3861</v>
+      </c>
+      <c r="G596" t="s">
         <v>3856</v>
-      </c>
-      <c r="D596" t="s">
-        <v>3860</v>
-      </c>
-      <c r="E596" t="s">
-        <v>3864</v>
-      </c>
-      <c r="F596" t="s">
-        <v>3862</v>
-      </c>
-      <c r="G596" t="s">
-        <v>3857</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B597" t="s">
         <v>3886</v>
       </c>
-      <c r="B597" t="s">
+      <c r="C597" t="s">
         <v>3887</v>
       </c>
-      <c r="C597" t="s">
+      <c r="D597" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E597" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F597" t="s">
+        <v>3890</v>
+      </c>
+      <c r="G597" t="s">
         <v>3888</v>
-      </c>
-      <c r="D597" t="s">
-        <v>3890</v>
-      </c>
-      <c r="E597" t="s">
-        <v>3892</v>
-      </c>
-      <c r="F597" t="s">
-        <v>3891</v>
-      </c>
-      <c r="G597" t="s">
-        <v>3889</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B598" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C598" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D598" t="s">
+        <v>3905</v>
+      </c>
+      <c r="E598" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F598" t="s">
+        <v>3906</v>
+      </c>
+      <c r="G598" t="s">
         <v>3902</v>
       </c>
-      <c r="B598" t="s">
-        <v>3905</v>
-      </c>
-      <c r="C598" t="s">
-        <v>3904</v>
-      </c>
-      <c r="D598" t="s">
-        <v>3906</v>
-      </c>
-      <c r="E598" t="s">
-        <v>3908</v>
-      </c>
-      <c r="F598" t="s">
-        <v>3907</v>
-      </c>
-      <c r="G598" t="s">
-        <v>3903</v>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B599" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C599" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D599" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E599" t="s">
+        <v>4016</v>
+      </c>
+      <c r="F599" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G599" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B600" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C600" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D600" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E600" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F600" t="s">
+        <v>4015</v>
+      </c>
+      <c r="G600" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B601" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C601" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D601" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E601" t="s">
+        <v>4023</v>
+      </c>
+      <c r="F601" t="s">
+        <v>4024</v>
+      </c>
+      <c r="G601" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B602" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C602" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D602" s="4" t="s">
+        <v>4030</v>
+      </c>
+      <c r="E602" t="s">
+        <v>4028</v>
+      </c>
+      <c r="F602" t="s">
+        <v>4029</v>
+      </c>
+      <c r="G602" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B603" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C603" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E603" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="F603" t="s">
+        <v>4037</v>
+      </c>
+      <c r="G603" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B604" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C604" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D604" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E604" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F604" t="s">
+        <v>4048</v>
+      </c>
+      <c r="G604" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B605" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C605" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D605" t="s">
+        <v>4051</v>
+      </c>
+      <c r="E605" t="s">
+        <v>4047</v>
+      </c>
+      <c r="F605" t="s">
+        <v>4049</v>
+      </c>
+      <c r="G605" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B606" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C606" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D606" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E606" t="s">
+        <v>4063</v>
+      </c>
+      <c r="F606" t="s">
+        <v>4061</v>
+      </c>
+      <c r="G606" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B607" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C607" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D607" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E607" t="s">
+        <v>4064</v>
+      </c>
+      <c r="F607" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G607" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B608" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C608" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D608" t="s">
+        <v>4075</v>
+      </c>
+      <c r="E608" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F608" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G608" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B609" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C609" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D609" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E609" t="s">
+        <v>4078</v>
+      </c>
+      <c r="F609" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G609" t="s">
+        <v>4082</v>
       </c>
     </row>
   </sheetData>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF97D9-A63A-4D63-B79C-3181315A02B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0371E1-1E2B-4CF8-BE50-B53F692A78BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3992" yWindow="4477" windowWidth="19319" windowHeight="13188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7428" yWindow="1212" windowWidth="19319" windowHeight="13188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -13274,9 +13274,6 @@
     <t>Rotação</t>
   </si>
   <si>
-    <t>Nenhuma conta% s foi associada ainda.</t>
-  </si>
-  <si>
     <t>para a pasta interna</t>
   </si>
   <si>
@@ -16653,6 +16650,9 @@
   </si>
   <si>
     <t>Commencez</t>
+  </si>
+  <si>
+    <t>Nenhuma conta %s foi associada ainda.</t>
   </si>
 </sst>
 </file>
@@ -17023,10 +17023,10 @@
   <dimension ref="A1:I641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B599" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B483" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D631" sqref="D631"/>
+      <selection pane="bottomRight" activeCell="F504" sqref="F504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -17052,7 +17052,7 @@
         <v>990</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1449</v>
@@ -17064,7 +17064,7 @@
         <v>2326</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2814</v>
@@ -17081,7 +17081,7 @@
         <v>991</v>
       </c>
       <c r="D2" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1450</v>
@@ -17110,7 +17110,7 @@
         <v>992</v>
       </c>
       <c r="D3" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1451</v>
@@ -17168,7 +17168,7 @@
         <v>3614</v>
       </c>
       <c r="D5" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="E5" t="s">
         <v>3616</v>
@@ -17226,7 +17226,7 @@
         <v>995</v>
       </c>
       <c r="D7" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1454</v>
@@ -17255,7 +17255,7 @@
         <v>996</v>
       </c>
       <c r="D8" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1455</v>
@@ -17284,7 +17284,7 @@
         <v>997</v>
       </c>
       <c r="D9" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1456</v>
@@ -17313,7 +17313,7 @@
         <v>998</v>
       </c>
       <c r="D10" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1457</v>
@@ -17342,7 +17342,7 @@
         <v>999</v>
       </c>
       <c r="D11" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1458</v>
@@ -17371,7 +17371,7 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1459</v>
@@ -17400,7 +17400,7 @@
         <v>1001</v>
       </c>
       <c r="D13" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1001</v>
@@ -17429,7 +17429,7 @@
         <v>1001</v>
       </c>
       <c r="D14" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1001</v>
@@ -17458,7 +17458,7 @@
         <v>1002</v>
       </c>
       <c r="D15" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>3335</v>
@@ -17487,7 +17487,7 @@
         <v>1003</v>
       </c>
       <c r="D16" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1460</v>
@@ -17516,7 +17516,7 @@
         <v>1004</v>
       </c>
       <c r="D17" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1461</v>
@@ -17545,7 +17545,7 @@
         <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1462</v>
@@ -17574,7 +17574,7 @@
         <v>1005</v>
       </c>
       <c r="D19" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1463</v>
@@ -17603,7 +17603,7 @@
         <v>1006</v>
       </c>
       <c r="D20" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3249</v>
@@ -17632,7 +17632,7 @@
         <v>1007</v>
       </c>
       <c r="D21" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1464</v>
@@ -17661,7 +17661,7 @@
         <v>1008</v>
       </c>
       <c r="D22" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1465</v>
@@ -17690,7 +17690,7 @@
         <v>1009</v>
       </c>
       <c r="D23" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1466</v>
@@ -17702,7 +17702,7 @@
         <v>2345</v>
       </c>
       <c r="H23" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="I23" t="s">
         <v>2831</v>
@@ -17719,7 +17719,7 @@
         <v>1010</v>
       </c>
       <c r="D24" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1467</v>
@@ -17748,7 +17748,7 @@
         <v>1011</v>
       </c>
       <c r="D25" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1468</v>
@@ -17777,7 +17777,7 @@
         <v>1012</v>
       </c>
       <c r="D26" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1469</v>
@@ -17806,7 +17806,7 @@
         <v>1013</v>
       </c>
       <c r="D27" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1470</v>
@@ -17835,7 +17835,7 @@
         <v>1014</v>
       </c>
       <c r="D28" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>3250</v>
@@ -17864,7 +17864,7 @@
         <v>1015</v>
       </c>
       <c r="D29" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1471</v>
@@ -17893,7 +17893,7 @@
         <v>1016</v>
       </c>
       <c r="D30" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>1472</v>
@@ -17922,7 +17922,7 @@
         <v>1017</v>
       </c>
       <c r="D31" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>3251</v>
@@ -17951,7 +17951,7 @@
         <v>1018</v>
       </c>
       <c r="D32" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>1473</v>
@@ -17977,10 +17977,10 @@
         <v>559</v>
       </c>
       <c r="C33" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="D33" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>3252</v>
@@ -18038,7 +18038,7 @@
         <v>1019</v>
       </c>
       <c r="D35" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>1475</v>
@@ -18096,7 +18096,7 @@
         <v>1021</v>
       </c>
       <c r="D37" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>1476</v>
@@ -18125,7 +18125,7 @@
         <v>1022</v>
       </c>
       <c r="D38" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>1477</v>
@@ -18154,7 +18154,7 @@
         <v>1023</v>
       </c>
       <c r="D39" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>1478</v>
@@ -18183,7 +18183,7 @@
         <v>1024</v>
       </c>
       <c r="D40" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>1479</v>
@@ -18212,7 +18212,7 @@
         <v>1025</v>
       </c>
       <c r="D41" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>3336</v>
@@ -18241,7 +18241,7 @@
         <v>1026</v>
       </c>
       <c r="D42" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>1480</v>
@@ -18270,7 +18270,7 @@
         <v>1027</v>
       </c>
       <c r="D43" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>1481</v>
@@ -18299,7 +18299,7 @@
         <v>1028</v>
       </c>
       <c r="D44" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>1482</v>
@@ -18328,7 +18328,7 @@
         <v>1029</v>
       </c>
       <c r="D45" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>1483</v>
@@ -18357,7 +18357,7 @@
         <v>1030</v>
       </c>
       <c r="D46" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>1484</v>
@@ -18386,7 +18386,7 @@
         <v>1031</v>
       </c>
       <c r="D47" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>1485</v>
@@ -18415,7 +18415,7 @@
         <v>1032</v>
       </c>
       <c r="D48" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>3337</v>
@@ -18444,7 +18444,7 @@
         <v>1033</v>
       </c>
       <c r="D49" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>3338</v>
@@ -18473,7 +18473,7 @@
         <v>1034</v>
       </c>
       <c r="D50" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>1486</v>
@@ -18502,7 +18502,7 @@
         <v>1035</v>
       </c>
       <c r="D51" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>1487</v>
@@ -18531,7 +18531,7 @@
         <v>1036</v>
       </c>
       <c r="D52" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1488</v>
@@ -18560,7 +18560,7 @@
         <v>1037</v>
       </c>
       <c r="D53" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>1489</v>
@@ -18589,7 +18589,7 @@
         <v>1038</v>
       </c>
       <c r="D54" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>1490</v>
@@ -18618,7 +18618,7 @@
         <v>1039</v>
       </c>
       <c r="D55" t="s">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>1491</v>
@@ -18647,7 +18647,7 @@
         <v>1040</v>
       </c>
       <c r="D56" t="s">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>1492</v>
@@ -18676,7 +18676,7 @@
         <v>1041</v>
       </c>
       <c r="D57" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>1493</v>
@@ -18705,7 +18705,7 @@
         <v>1042</v>
       </c>
       <c r="D58" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>3339</v>
@@ -18734,7 +18734,7 @@
         <v>1043</v>
       </c>
       <c r="D59" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>1494</v>
@@ -18763,7 +18763,7 @@
         <v>1044</v>
       </c>
       <c r="D60" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>1495</v>
@@ -18792,7 +18792,7 @@
         <v>1045</v>
       </c>
       <c r="D61" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>1496</v>
@@ -18821,7 +18821,7 @@
         <v>1046</v>
       </c>
       <c r="D62" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>1497</v>
@@ -18850,7 +18850,7 @@
         <v>1047</v>
       </c>
       <c r="D63" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>3253</v>
@@ -18879,7 +18879,7 @@
         <v>1048</v>
       </c>
       <c r="D64" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>1498</v>
@@ -18908,7 +18908,7 @@
         <v>1049</v>
       </c>
       <c r="D65" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>1499</v>
@@ -18937,7 +18937,7 @@
         <v>1050</v>
       </c>
       <c r="D66" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>3254</v>
@@ -18966,7 +18966,7 @@
         <v>1051</v>
       </c>
       <c r="D67" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>1500</v>
@@ -18995,7 +18995,7 @@
         <v>1052</v>
       </c>
       <c r="D68" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>1501</v>
@@ -19024,7 +19024,7 @@
         <v>1053</v>
       </c>
       <c r="D69" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>1502</v>
@@ -19053,7 +19053,7 @@
         <v>1054</v>
       </c>
       <c r="D70" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>3255</v>
@@ -19082,7 +19082,7 @@
         <v>1055</v>
       </c>
       <c r="D71" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>1503</v>
@@ -19111,7 +19111,7 @@
         <v>1056</v>
       </c>
       <c r="D72" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>3256</v>
@@ -19140,7 +19140,7 @@
         <v>1057</v>
       </c>
       <c r="D73" t="s">
-        <v>4884</v>
+        <v>4883</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>1504</v>
@@ -19169,7 +19169,7 @@
         <v>1058</v>
       </c>
       <c r="D74" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>1505</v>
@@ -19198,7 +19198,7 @@
         <v>1059</v>
       </c>
       <c r="D75" t="s">
-        <v>4886</v>
+        <v>4885</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>1506</v>
@@ -19213,7 +19213,7 @@
         <v>4034</v>
       </c>
       <c r="I75" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -19227,7 +19227,7 @@
         <v>1060</v>
       </c>
       <c r="D76" t="s">
-        <v>4887</v>
+        <v>4886</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>1507</v>
@@ -19256,7 +19256,7 @@
         <v>1061</v>
       </c>
       <c r="D77" t="s">
-        <v>4888</v>
+        <v>4887</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>3340</v>
@@ -19285,7 +19285,7 @@
         <v>1062</v>
       </c>
       <c r="D78" t="s">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>1508</v>
@@ -19314,7 +19314,7 @@
         <v>1063</v>
       </c>
       <c r="D79" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>1509</v>
@@ -19372,7 +19372,7 @@
         <v>1065</v>
       </c>
       <c r="D81" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>1511</v>
@@ -19401,7 +19401,7 @@
         <v>1066</v>
       </c>
       <c r="D82" t="s">
-        <v>4892</v>
+        <v>4891</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>1512</v>
@@ -19430,7 +19430,7 @@
         <v>1067</v>
       </c>
       <c r="D83" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>1513</v>
@@ -19459,7 +19459,7 @@
         <v>1068</v>
       </c>
       <c r="D84" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>1514</v>
@@ -19488,7 +19488,7 @@
         <v>1069</v>
       </c>
       <c r="D85" t="s">
-        <v>4895</v>
+        <v>4894</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>1475</v>
@@ -19517,7 +19517,7 @@
         <v>1070</v>
       </c>
       <c r="D86" t="s">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>1491</v>
@@ -19546,7 +19546,7 @@
         <v>1071</v>
       </c>
       <c r="D87" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>1515</v>
@@ -19575,7 +19575,7 @@
         <v>610</v>
       </c>
       <c r="D88" t="s">
-        <v>4898</v>
+        <v>4897</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>610</v>
@@ -19604,7 +19604,7 @@
         <v>611</v>
       </c>
       <c r="D89" t="s">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>1516</v>
@@ -19633,7 +19633,7 @@
         <v>1072</v>
       </c>
       <c r="D90" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>1517</v>
@@ -19662,7 +19662,7 @@
         <v>1073</v>
       </c>
       <c r="D91" t="s">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>1518</v>
@@ -19691,7 +19691,7 @@
         <v>1074</v>
       </c>
       <c r="D92" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>1519</v>
@@ -19720,7 +19720,7 @@
         <v>1075</v>
       </c>
       <c r="D93" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>3341</v>
@@ -19749,7 +19749,7 @@
         <v>1076</v>
       </c>
       <c r="D94" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>1520</v>
@@ -19775,10 +19775,10 @@
         <v>617</v>
       </c>
       <c r="C95" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="D95" t="s">
-        <v>4905</v>
+        <v>4904</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>3257</v>
@@ -19807,7 +19807,7 @@
         <v>1077</v>
       </c>
       <c r="D96" t="s">
-        <v>4906</v>
+        <v>4905</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>1521</v>
@@ -19836,7 +19836,7 @@
         <v>1078</v>
       </c>
       <c r="D97" t="s">
-        <v>4907</v>
+        <v>4906</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>1522</v>
@@ -19865,7 +19865,7 @@
         <v>1079</v>
       </c>
       <c r="D98" t="s">
-        <v>4908</v>
+        <v>4907</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>1523</v>
@@ -19894,7 +19894,7 @@
         <v>1080</v>
       </c>
       <c r="D99" t="s">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>1524</v>
@@ -19923,7 +19923,7 @@
         <v>1081</v>
       </c>
       <c r="D100" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>1525</v>
@@ -19952,7 +19952,7 @@
         <v>1082</v>
       </c>
       <c r="D101" t="s">
-        <v>4911</v>
+        <v>4910</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>1526</v>
@@ -19981,7 +19981,7 @@
         <v>1083</v>
       </c>
       <c r="D102" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>1527</v>
@@ -20010,7 +20010,7 @@
         <v>1084</v>
       </c>
       <c r="D103" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>1528</v>
@@ -20039,7 +20039,7 @@
         <v>1085</v>
       </c>
       <c r="D104" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>1085</v>
@@ -20068,7 +20068,7 @@
         <v>1086</v>
       </c>
       <c r="D105" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>1529</v>
@@ -20097,7 +20097,7 @@
         <v>1087</v>
       </c>
       <c r="D106" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>627</v>
@@ -20155,7 +20155,7 @@
         <v>1089</v>
       </c>
       <c r="D108" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>1530</v>
@@ -20184,7 +20184,7 @@
         <v>1090</v>
       </c>
       <c r="D109" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>1531</v>
@@ -20213,7 +20213,7 @@
         <v>3240</v>
       </c>
       <c r="D110" t="s">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>3241</v>
@@ -20242,7 +20242,7 @@
         <v>1091</v>
       </c>
       <c r="D111" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>1532</v>
@@ -20271,7 +20271,7 @@
         <v>1092</v>
       </c>
       <c r="D112" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>1092</v>
@@ -20300,7 +20300,7 @@
         <v>1093</v>
       </c>
       <c r="D113" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>1533</v>
@@ -20329,7 +20329,7 @@
         <v>1094</v>
       </c>
       <c r="D114" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>1534</v>
@@ -20358,7 +20358,7 @@
         <v>1094</v>
       </c>
       <c r="D115" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>1534</v>
@@ -20387,7 +20387,7 @@
         <v>1095</v>
       </c>
       <c r="D116" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>1535</v>
@@ -20416,7 +20416,7 @@
         <v>1096</v>
       </c>
       <c r="D117" t="s">
-        <v>4925</v>
+        <v>4924</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>1536</v>
@@ -20445,7 +20445,7 @@
         <v>1097</v>
       </c>
       <c r="D118" t="s">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>1537</v>
@@ -20474,7 +20474,7 @@
         <v>1098</v>
       </c>
       <c r="D119" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>1538</v>
@@ -20503,7 +20503,7 @@
         <v>1099</v>
       </c>
       <c r="D120" t="s">
-        <v>4928</v>
+        <v>4927</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>1539</v>
@@ -20532,7 +20532,7 @@
         <v>1100</v>
       </c>
       <c r="D121" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>1540</v>
@@ -20561,7 +20561,7 @@
         <v>1101</v>
       </c>
       <c r="D122" t="s">
-        <v>4930</v>
+        <v>4929</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>3258</v>
@@ -20590,7 +20590,7 @@
         <v>1102</v>
       </c>
       <c r="D123" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>3342</v>
@@ -20619,7 +20619,7 @@
         <v>1032</v>
       </c>
       <c r="D124" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>3337</v>
@@ -20648,7 +20648,7 @@
         <v>1103</v>
       </c>
       <c r="D125" t="s">
-        <v>4932</v>
+        <v>4931</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>1534</v>
@@ -20677,7 +20677,7 @@
         <v>1104</v>
       </c>
       <c r="D126" t="s">
-        <v>4933</v>
+        <v>4932</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>1541</v>
@@ -20706,7 +20706,7 @@
         <v>1105</v>
       </c>
       <c r="D127" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>1542</v>
@@ -20735,7 +20735,7 @@
         <v>1106</v>
       </c>
       <c r="D128" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>1543</v>
@@ -20764,7 +20764,7 @@
         <v>1107</v>
       </c>
       <c r="D129" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>3259</v>
@@ -20793,7 +20793,7 @@
         <v>1108</v>
       </c>
       <c r="D130" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>1544</v>
@@ -20822,7 +20822,7 @@
         <v>1109</v>
       </c>
       <c r="D131" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>3260</v>
@@ -20851,7 +20851,7 @@
         <v>1110</v>
       </c>
       <c r="D132" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>1545</v>
@@ -20880,7 +20880,7 @@
         <v>1111</v>
       </c>
       <c r="D133" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>1546</v>
@@ -20909,7 +20909,7 @@
         <v>1112</v>
       </c>
       <c r="D134" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>3261</v>
@@ -20938,7 +20938,7 @@
         <v>1113</v>
       </c>
       <c r="D135" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>1547</v>
@@ -20967,7 +20967,7 @@
         <v>1114</v>
       </c>
       <c r="D136" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>1548</v>
@@ -20996,7 +20996,7 @@
         <v>1115</v>
       </c>
       <c r="D137" t="s">
-        <v>4944</v>
+        <v>4943</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>1549</v>
@@ -21025,7 +21025,7 @@
         <v>1116</v>
       </c>
       <c r="D138" t="s">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>1550</v>
@@ -21054,7 +21054,7 @@
         <v>1117</v>
       </c>
       <c r="D139" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>1551</v>
@@ -21083,7 +21083,7 @@
         <v>1118</v>
       </c>
       <c r="D140" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>1552</v>
@@ -21112,7 +21112,7 @@
         <v>1119</v>
       </c>
       <c r="D141" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>1553</v>
@@ -21141,7 +21141,7 @@
         <v>1120</v>
       </c>
       <c r="D142" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>1554</v>
@@ -21167,10 +21167,10 @@
         <v>658</v>
       </c>
       <c r="C143" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="D143" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>1555</v>
@@ -21199,7 +21199,7 @@
         <v>3246</v>
       </c>
       <c r="D144" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>3262</v>
@@ -21228,19 +21228,19 @@
         <v>1121</v>
       </c>
       <c r="D145" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>1556</v>
       </c>
       <c r="F145" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="G145" t="s">
         <v>2453</v>
       </c>
       <c r="H145" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="I145" t="s">
         <v>2923</v>
@@ -21257,7 +21257,7 @@
         <v>1122</v>
       </c>
       <c r="D146" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>1557</v>
@@ -21286,7 +21286,7 @@
         <v>1123</v>
       </c>
       <c r="D147" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>1558</v>
@@ -21315,7 +21315,7 @@
         <v>1124</v>
       </c>
       <c r="D148" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>1559</v>
@@ -21344,7 +21344,7 @@
         <v>1125</v>
       </c>
       <c r="D149" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>3263</v>
@@ -21373,7 +21373,7 @@
         <v>1126</v>
       </c>
       <c r="D150" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>1560</v>
@@ -21402,7 +21402,7 @@
         <v>1127</v>
       </c>
       <c r="D151" t="s">
-        <v>4957</v>
+        <v>4956</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>1561</v>
@@ -21431,7 +21431,7 @@
         <v>1128</v>
       </c>
       <c r="D152" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>1562</v>
@@ -21460,7 +21460,7 @@
         <v>1129</v>
       </c>
       <c r="D153" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>1563</v>
@@ -21489,7 +21489,7 @@
         <v>1130</v>
       </c>
       <c r="D154" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>3343</v>
@@ -21518,7 +21518,7 @@
         <v>1131</v>
       </c>
       <c r="D155" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>3344</v>
@@ -21544,10 +21544,10 @@
         <v>3636</v>
       </c>
       <c r="C156" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="D156" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>1564</v>
@@ -21576,7 +21576,7 @@
         <v>1132</v>
       </c>
       <c r="D157" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>1565</v>
@@ -21605,7 +21605,7 @@
         <v>1133</v>
       </c>
       <c r="D158" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>3345</v>
@@ -21634,7 +21634,7 @@
         <v>1134</v>
       </c>
       <c r="D159" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>3264</v>
@@ -21663,7 +21663,7 @@
         <v>1135</v>
       </c>
       <c r="D160" t="s">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>1566</v>
@@ -21692,7 +21692,7 @@
         <v>1136</v>
       </c>
       <c r="D161" t="s">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>1567</v>
@@ -21721,7 +21721,7 @@
         <v>1137</v>
       </c>
       <c r="D162" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>1568</v>
@@ -21750,7 +21750,7 @@
         <v>1138</v>
       </c>
       <c r="D163" t="s">
-        <v>4969</v>
+        <v>4968</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>1569</v>
@@ -21779,7 +21779,7 @@
         <v>1139</v>
       </c>
       <c r="D164" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>1570</v>
@@ -21808,7 +21808,7 @@
         <v>1140</v>
       </c>
       <c r="D165" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>1571</v>
@@ -21837,7 +21837,7 @@
         <v>1141</v>
       </c>
       <c r="D166" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>1572</v>
@@ -21866,7 +21866,7 @@
         <v>1142</v>
       </c>
       <c r="D167" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1573</v>
@@ -21895,7 +21895,7 @@
         <v>1143</v>
       </c>
       <c r="D168" t="s">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>3346</v>
@@ -21924,7 +21924,7 @@
         <v>1144</v>
       </c>
       <c r="D169" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>1574</v>
@@ -21953,7 +21953,7 @@
         <v>1145</v>
       </c>
       <c r="D170" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1575</v>
@@ -21968,7 +21968,7 @@
         <v>4123</v>
       </c>
       <c r="I170" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -21982,7 +21982,7 @@
         <v>1146</v>
       </c>
       <c r="D171" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1576</v>
@@ -22011,7 +22011,7 @@
         <v>1147</v>
       </c>
       <c r="D172" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>1577</v>
@@ -22040,7 +22040,7 @@
         <v>1148</v>
       </c>
       <c r="D173" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>1578</v>
@@ -22069,7 +22069,7 @@
         <v>1008</v>
       </c>
       <c r="D174" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>1465</v>
@@ -22098,7 +22098,7 @@
         <v>1149</v>
       </c>
       <c r="D175" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>1579</v>
@@ -22127,7 +22127,7 @@
         <v>1150</v>
       </c>
       <c r="D176" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>3265</v>
@@ -22156,7 +22156,7 @@
         <v>1151</v>
       </c>
       <c r="D177" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>1580</v>
@@ -22168,7 +22168,7 @@
         <v>2485</v>
       </c>
       <c r="H177" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="I177" t="s">
         <v>2952</v>
@@ -22185,7 +22185,7 @@
         <v>1152</v>
       </c>
       <c r="D178" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>1581</v>
@@ -22214,7 +22214,7 @@
         <v>3705</v>
       </c>
       <c r="D179" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>3708</v>
@@ -22243,7 +22243,7 @@
         <v>3710</v>
       </c>
       <c r="D180" t="s">
-        <v>4985</v>
+        <v>4984</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>1582</v>
@@ -22272,7 +22272,7 @@
         <v>1153</v>
       </c>
       <c r="D181" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>3347</v>
@@ -22301,7 +22301,7 @@
         <v>1154</v>
       </c>
       <c r="D182" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>3348</v>
@@ -22330,7 +22330,7 @@
         <v>1155</v>
       </c>
       <c r="D183" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>1583</v>
@@ -22359,7 +22359,7 @@
         <v>1156</v>
       </c>
       <c r="D184" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>1584</v>
@@ -22388,7 +22388,7 @@
         <v>1157</v>
       </c>
       <c r="D185" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>1585</v>
@@ -22417,7 +22417,7 @@
         <v>1158</v>
       </c>
       <c r="D186" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>1586</v>
@@ -22443,10 +22443,10 @@
         <v>693</v>
       </c>
       <c r="C187" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="D187" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>3266</v>
@@ -22475,7 +22475,7 @@
         <v>1048</v>
       </c>
       <c r="D188" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>1498</v>
@@ -22504,7 +22504,7 @@
         <v>1159</v>
       </c>
       <c r="D189" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>1587</v>
@@ -22533,7 +22533,7 @@
         <v>1160</v>
       </c>
       <c r="D190" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>1588</v>
@@ -22562,7 +22562,7 @@
         <v>1161</v>
       </c>
       <c r="D191" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>1589</v>
@@ -22591,7 +22591,7 @@
         <v>3962</v>
       </c>
       <c r="D192" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>3964</v>
@@ -22617,13 +22617,13 @@
         <v>3639</v>
       </c>
       <c r="C193" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="D193" t="s">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="F193" t="s">
         <v>2021</v>
@@ -22632,10 +22632,10 @@
         <v>2498</v>
       </c>
       <c r="H193" t="s">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="I193" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -22649,7 +22649,7 @@
         <v>1162</v>
       </c>
       <c r="D194" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>1590</v>
@@ -22678,7 +22678,7 @@
         <v>1163</v>
       </c>
       <c r="D195" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>1591</v>
@@ -22707,7 +22707,7 @@
         <v>1164</v>
       </c>
       <c r="D196" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>1592</v>
@@ -22736,7 +22736,7 @@
         <v>1165</v>
       </c>
       <c r="D197" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>1593</v>
@@ -22765,7 +22765,7 @@
         <v>1166</v>
       </c>
       <c r="D198" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>1594</v>
@@ -22794,7 +22794,7 @@
         <v>1167</v>
       </c>
       <c r="D199" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>1595</v>
@@ -22823,7 +22823,7 @@
         <v>1168</v>
       </c>
       <c r="D200" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>1596</v>
@@ -22852,7 +22852,7 @@
         <v>1169</v>
       </c>
       <c r="D201" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>1597</v>
@@ -22881,7 +22881,7 @@
         <v>1170</v>
       </c>
       <c r="D202" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>3349</v>
@@ -22910,7 +22910,7 @@
         <v>1171</v>
       </c>
       <c r="D203" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>1598</v>
@@ -22939,7 +22939,7 @@
         <v>1172</v>
       </c>
       <c r="D204" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>1599</v>
@@ -22968,7 +22968,7 @@
         <v>1173</v>
       </c>
       <c r="D205" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>1600</v>
@@ -22980,7 +22980,7 @@
         <v>2510</v>
       </c>
       <c r="H205" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="I205" t="s">
         <v>2975</v>
@@ -22997,7 +22997,7 @@
         <v>1174</v>
       </c>
       <c r="D206" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>1601</v>
@@ -23009,7 +23009,7 @@
         <v>2511</v>
       </c>
       <c r="H206" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="I206" t="s">
         <v>2976</v>
@@ -23026,7 +23026,7 @@
         <v>1175</v>
       </c>
       <c r="D207" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>1602</v>
@@ -23055,7 +23055,7 @@
         <v>3956</v>
       </c>
       <c r="D208" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="E208" t="s">
         <v>3957</v>
@@ -23084,7 +23084,7 @@
         <v>3954</v>
       </c>
       <c r="D209" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>3267</v>
@@ -23113,7 +23113,7 @@
         <v>1176</v>
       </c>
       <c r="D210" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>3268</v>
@@ -23142,7 +23142,7 @@
         <v>1177</v>
       </c>
       <c r="D211" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>3269</v>
@@ -23171,7 +23171,7 @@
         <v>1178</v>
       </c>
       <c r="D212" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>1603</v>
@@ -23183,7 +23183,7 @@
         <v>2516</v>
       </c>
       <c r="H212" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="I212" t="s">
         <v>2980</v>
@@ -23200,7 +23200,7 @@
         <v>1179</v>
       </c>
       <c r="D213" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>1604</v>
@@ -23223,28 +23223,28 @@
         <v>208</v>
       </c>
       <c r="B214" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="C214" t="s">
+        <v>4780</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5421</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>4790</v>
+      </c>
+      <c r="F214" t="s">
+        <v>4788</v>
+      </c>
+      <c r="G214" t="s">
+        <v>4792</v>
+      </c>
+      <c r="H214" t="s">
+        <v>4786</v>
+      </c>
+      <c r="I214" t="s">
         <v>4781</v>
-      </c>
-      <c r="D214" t="s">
-        <v>5422</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>4791</v>
-      </c>
-      <c r="F214" t="s">
-        <v>4789</v>
-      </c>
-      <c r="G214" t="s">
-        <v>4793</v>
-      </c>
-      <c r="H214" t="s">
-        <v>4787</v>
-      </c>
-      <c r="I214" t="s">
-        <v>4782</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -23252,28 +23252,28 @@
         <v>209</v>
       </c>
       <c r="B215" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="C215" t="s">
+        <v>4782</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5422</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>4791</v>
+      </c>
+      <c r="F215" t="s">
+        <v>4789</v>
+      </c>
+      <c r="G215" t="s">
+        <v>4793</v>
+      </c>
+      <c r="H215" t="s">
+        <v>4787</v>
+      </c>
+      <c r="I215" t="s">
         <v>4783</v>
-      </c>
-      <c r="D215" t="s">
-        <v>5423</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>4792</v>
-      </c>
-      <c r="F215" t="s">
-        <v>4790</v>
-      </c>
-      <c r="G215" t="s">
-        <v>4794</v>
-      </c>
-      <c r="H215" t="s">
-        <v>4788</v>
-      </c>
-      <c r="I215" t="s">
-        <v>4784</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -23287,7 +23287,7 @@
         <v>1180</v>
       </c>
       <c r="D216" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>1605</v>
@@ -23316,7 +23316,7 @@
         <v>1181</v>
       </c>
       <c r="D217" t="s">
-        <v>5408</v>
+        <v>5407</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>1606</v>
@@ -23328,7 +23328,7 @@
         <v>2519</v>
       </c>
       <c r="H217" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="I217" t="s">
         <v>2983</v>
@@ -23345,7 +23345,7 @@
         <v>1182</v>
       </c>
       <c r="D218" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>1607</v>
@@ -23374,7 +23374,7 @@
         <v>1183</v>
       </c>
       <c r="D219" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>1608</v>
@@ -23397,28 +23397,28 @@
         <v>214</v>
       </c>
       <c r="B220" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="C220" t="s">
+        <v>4751</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5423</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>4752</v>
       </c>
-      <c r="D220" t="s">
-        <v>5424</v>
-      </c>
-      <c r="E220" s="2" t="s">
+      <c r="F220" t="s">
         <v>4753</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>4754</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>4755</v>
       </c>
-      <c r="H220" t="s">
+      <c r="I220" t="s">
         <v>4756</v>
-      </c>
-      <c r="I220" t="s">
-        <v>4757</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -23426,28 +23426,28 @@
         <v>215</v>
       </c>
       <c r="B221" t="s">
+        <v>4759</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4815</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5424</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>4762</v>
+      </c>
+      <c r="F221" t="s">
+        <v>4761</v>
+      </c>
+      <c r="G221" t="s">
+        <v>4763</v>
+      </c>
+      <c r="H221" t="s">
         <v>4760</v>
       </c>
-      <c r="C221" t="s">
-        <v>4816</v>
-      </c>
-      <c r="D221" t="s">
-        <v>5425</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>4763</v>
-      </c>
-      <c r="F221" t="s">
-        <v>4762</v>
-      </c>
-      <c r="G221" t="s">
-        <v>4764</v>
-      </c>
-      <c r="H221" t="s">
-        <v>4761</v>
-      </c>
       <c r="I221" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -23461,7 +23461,7 @@
         <v>1184</v>
       </c>
       <c r="D222" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1609</v>
@@ -23487,22 +23487,22 @@
         <v>718</v>
       </c>
       <c r="C223" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="D223" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>1610</v>
       </c>
       <c r="F223" t="s">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="G223" t="s">
         <v>2523</v>
       </c>
       <c r="H223" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="I223" t="s">
         <v>2986</v>
@@ -23519,7 +23519,7 @@
         <v>1185</v>
       </c>
       <c r="D224" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>1611</v>
@@ -23548,7 +23548,7 @@
         <v>1186</v>
       </c>
       <c r="D225" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>1612</v>
@@ -23577,7 +23577,7 @@
         <v>1187</v>
       </c>
       <c r="D226" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>1613</v>
@@ -23606,7 +23606,7 @@
         <v>1188</v>
       </c>
       <c r="D227" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>1614</v>
@@ -23621,7 +23621,7 @@
         <v>4166</v>
       </c>
       <c r="I227" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -23632,10 +23632,10 @@
         <v>3642</v>
       </c>
       <c r="C228" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="D228" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>1615</v>
@@ -23664,7 +23664,7 @@
         <v>1189</v>
       </c>
       <c r="D229" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>3270</v>
@@ -23693,7 +23693,7 @@
         <v>1189</v>
       </c>
       <c r="D230" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>3270</v>
@@ -23722,7 +23722,7 @@
         <v>1190</v>
       </c>
       <c r="D231" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>1616</v>
@@ -23751,7 +23751,7 @@
         <v>1191</v>
       </c>
       <c r="D232" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>1617</v>
@@ -23780,7 +23780,7 @@
         <v>1192</v>
       </c>
       <c r="D233" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1618</v>
@@ -23809,7 +23809,7 @@
         <v>1193</v>
       </c>
       <c r="D234" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>1619</v>
@@ -23838,7 +23838,7 @@
         <v>1194</v>
       </c>
       <c r="D235" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>3271</v>
@@ -23867,7 +23867,7 @@
         <v>1195</v>
       </c>
       <c r="D236" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>1620</v>
@@ -23896,7 +23896,7 @@
         <v>1196</v>
       </c>
       <c r="D237" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>1621</v>
@@ -23925,7 +23925,7 @@
         <v>1197</v>
       </c>
       <c r="D238" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>1622</v>
@@ -23940,7 +23940,7 @@
         <v>4176</v>
       </c>
       <c r="I238" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -23954,7 +23954,7 @@
         <v>1198</v>
       </c>
       <c r="D239" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>3272</v>
@@ -23983,7 +23983,7 @@
         <v>1199</v>
       </c>
       <c r="D240" t="s">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>1623</v>
@@ -24012,7 +24012,7 @@
         <v>1200</v>
       </c>
       <c r="D241" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>1624</v>
@@ -24041,7 +24041,7 @@
         <v>1201</v>
       </c>
       <c r="D242" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>3350</v>
@@ -24070,7 +24070,7 @@
         <v>1202</v>
       </c>
       <c r="D243" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>1625</v>
@@ -24099,7 +24099,7 @@
         <v>1203</v>
       </c>
       <c r="D244" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>1626</v>
@@ -24128,7 +24128,7 @@
         <v>1204</v>
       </c>
       <c r="D245" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>1627</v>
@@ -24157,7 +24157,7 @@
         <v>1205</v>
       </c>
       <c r="D246" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>3351</v>
@@ -24186,7 +24186,7 @@
         <v>1206</v>
       </c>
       <c r="D247" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>1628</v>
@@ -24215,7 +24215,7 @@
         <v>1207</v>
       </c>
       <c r="D248" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>1629</v>
@@ -24244,7 +24244,7 @@
         <v>1208</v>
       </c>
       <c r="D249" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>1630</v>
@@ -24273,7 +24273,7 @@
         <v>1209</v>
       </c>
       <c r="D250" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>1631</v>
@@ -24302,7 +24302,7 @@
         <v>1210</v>
       </c>
       <c r="D251" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>1632</v>
@@ -24331,7 +24331,7 @@
         <v>1211</v>
       </c>
       <c r="D252" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>3273</v>
@@ -24360,7 +24360,7 @@
         <v>1212</v>
       </c>
       <c r="D253" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>1212</v>
@@ -24389,7 +24389,7 @@
         <v>1213</v>
       </c>
       <c r="D254" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>1633</v>
@@ -24418,7 +24418,7 @@
         <v>1214</v>
       </c>
       <c r="D255" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>1634</v>
@@ -24447,7 +24447,7 @@
         <v>1215</v>
       </c>
       <c r="D256" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>1635</v>
@@ -24476,7 +24476,7 @@
         <v>1216</v>
       </c>
       <c r="D257" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>1636</v>
@@ -24505,7 +24505,7 @@
         <v>1217</v>
       </c>
       <c r="D258" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>1637</v>
@@ -24534,7 +24534,7 @@
         <v>1218</v>
       </c>
       <c r="D259" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>1638</v>
@@ -24563,7 +24563,7 @@
         <v>1219</v>
       </c>
       <c r="D260" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>1639</v>
@@ -24592,7 +24592,7 @@
         <v>1220</v>
       </c>
       <c r="D261" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>1640</v>
@@ -24621,7 +24621,7 @@
         <v>1221</v>
       </c>
       <c r="D262" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>1641</v>
@@ -24650,7 +24650,7 @@
         <v>1222</v>
       </c>
       <c r="D263" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>1642</v>
@@ -24676,10 +24676,10 @@
         <v>757</v>
       </c>
       <c r="C264" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="D264" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>1643</v>
@@ -24694,36 +24694,36 @@
         <v>4202</v>
       </c>
       <c r="I264" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="B265" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5060</v>
+      </c>
+      <c r="E265" t="s">
+        <v>4720</v>
+      </c>
+      <c r="F265" t="s">
+        <v>4719</v>
+      </c>
+      <c r="G265" t="s">
+        <v>4722</v>
+      </c>
+      <c r="H265" t="s">
+        <v>4721</v>
+      </c>
+      <c r="I265" t="s">
         <v>4717</v>
-      </c>
-      <c r="C265" t="s">
-        <v>4719</v>
-      </c>
-      <c r="D265" t="s">
-        <v>5061</v>
-      </c>
-      <c r="E265" t="s">
-        <v>4721</v>
-      </c>
-      <c r="F265" t="s">
-        <v>4720</v>
-      </c>
-      <c r="G265" t="s">
-        <v>4723</v>
-      </c>
-      <c r="H265" t="s">
-        <v>4722</v>
-      </c>
-      <c r="I265" t="s">
-        <v>4718</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -24737,7 +24737,7 @@
         <v>1223</v>
       </c>
       <c r="D266" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>3274</v>
@@ -24766,7 +24766,7 @@
         <v>3386</v>
       </c>
       <c r="D267" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>3387</v>
@@ -24795,7 +24795,7 @@
         <v>3394</v>
       </c>
       <c r="D268" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>3395</v>
@@ -24824,7 +24824,7 @@
         <v>1224</v>
       </c>
       <c r="D269" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>1644</v>
@@ -24853,7 +24853,7 @@
         <v>1225</v>
       </c>
       <c r="D270" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>1645</v>
@@ -24882,7 +24882,7 @@
         <v>1226</v>
       </c>
       <c r="D271" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>3275</v>
@@ -24911,7 +24911,7 @@
         <v>1227</v>
       </c>
       <c r="D272" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>1646</v>
@@ -24940,7 +24940,7 @@
         <v>1228</v>
       </c>
       <c r="D273" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>1647</v>
@@ -24969,7 +24969,7 @@
         <v>1229</v>
       </c>
       <c r="D274" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>1648</v>
@@ -25024,10 +25024,10 @@
         <v>3645</v>
       </c>
       <c r="C276" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="D276" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>3276</v>
@@ -25056,7 +25056,7 @@
         <v>1231</v>
       </c>
       <c r="D277" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>1650</v>
@@ -25082,10 +25082,10 @@
         <v>767</v>
       </c>
       <c r="C278" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="D278" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>1651</v>
@@ -25114,7 +25114,7 @@
         <v>1232</v>
       </c>
       <c r="D279" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>1652</v>
@@ -25143,7 +25143,7 @@
         <v>1233</v>
       </c>
       <c r="D280" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>1653</v>
@@ -25172,7 +25172,7 @@
         <v>1234</v>
       </c>
       <c r="D281" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>3352</v>
@@ -25201,7 +25201,7 @@
         <v>1235</v>
       </c>
       <c r="D282" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>1654</v>
@@ -25230,7 +25230,7 @@
         <v>1236</v>
       </c>
       <c r="D283" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>3353</v>
@@ -25259,7 +25259,7 @@
         <v>1237</v>
       </c>
       <c r="D284" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>1655</v>
@@ -25288,7 +25288,7 @@
         <v>1238</v>
       </c>
       <c r="D285" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>1656</v>
@@ -25317,7 +25317,7 @@
         <v>1239</v>
       </c>
       <c r="D286" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>1657</v>
@@ -25346,7 +25346,7 @@
         <v>1240</v>
       </c>
       <c r="D287" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>1658</v>
@@ -25375,7 +25375,7 @@
         <v>776</v>
       </c>
       <c r="D288" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>1659</v>
@@ -25404,7 +25404,7 @@
         <v>1241</v>
       </c>
       <c r="D289" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>1660</v>
@@ -25433,7 +25433,7 @@
         <v>1242</v>
       </c>
       <c r="D290" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>1661</v>
@@ -25462,7 +25462,7 @@
         <v>778</v>
       </c>
       <c r="D291" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>1662</v>
@@ -25491,7 +25491,7 @@
         <v>1243</v>
       </c>
       <c r="D292" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>1663</v>
@@ -25520,7 +25520,7 @@
         <v>1244</v>
       </c>
       <c r="D293" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>1664</v>
@@ -25546,10 +25546,10 @@
         <v>3648</v>
       </c>
       <c r="C294" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="D294" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>1665</v>
@@ -25561,7 +25561,7 @@
         <v>2590</v>
       </c>
       <c r="H294" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="I294" t="s">
         <v>3042</v>
@@ -25578,7 +25578,7 @@
         <v>1245</v>
       </c>
       <c r="D295" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>1666</v>
@@ -25601,28 +25601,28 @@
         <v>288</v>
       </c>
       <c r="B296" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C296" t="s">
         <v>4598</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
+        <v>5090</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>4601</v>
+      </c>
+      <c r="F296" t="s">
+        <v>4602</v>
+      </c>
+      <c r="G296" t="s">
+        <v>4600</v>
+      </c>
+      <c r="H296" t="s">
         <v>4599</v>
       </c>
-      <c r="D296" t="s">
-        <v>5091</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>4602</v>
-      </c>
-      <c r="F296" t="s">
-        <v>4603</v>
-      </c>
-      <c r="G296" t="s">
-        <v>4601</v>
-      </c>
-      <c r="H296" t="s">
-        <v>4600</v>
-      </c>
       <c r="I296" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -25636,7 +25636,7 @@
         <v>1246</v>
       </c>
       <c r="D297" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>3277</v>
@@ -25659,28 +25659,28 @@
         <v>290</v>
       </c>
       <c r="B298" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="C298" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
       <c r="D298" t="s">
-        <v>5409</v>
+        <v>5408</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="F298" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="G298" t="s">
         <v>2593</v>
       </c>
       <c r="H298" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="I298" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -25694,7 +25694,7 @@
         <v>291</v>
       </c>
       <c r="D299" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>1668</v>
@@ -25723,7 +25723,7 @@
         <v>1247</v>
       </c>
       <c r="D300" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>1669</v>
@@ -25752,7 +25752,7 @@
         <v>1248</v>
       </c>
       <c r="D301" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>1670</v>
@@ -25781,7 +25781,7 @@
         <v>1249</v>
       </c>
       <c r="D302" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>1671</v>
@@ -25810,7 +25810,7 @@
         <v>1250</v>
       </c>
       <c r="D303" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>1672</v>
@@ -25833,28 +25833,28 @@
         <v>296</v>
       </c>
       <c r="B304" t="s">
+        <v>4616</v>
+      </c>
+      <c r="C304" t="s">
         <v>4617</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
+        <v>5402</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>4618</v>
       </c>
-      <c r="D304" t="s">
-        <v>5403</v>
-      </c>
-      <c r="E304" s="2" t="s">
+      <c r="F304" t="s">
         <v>4619</v>
       </c>
-      <c r="F304" t="s">
+      <c r="G304" t="s">
         <v>4620</v>
-      </c>
-      <c r="G304" t="s">
-        <v>4621</v>
       </c>
       <c r="H304" t="s">
         <v>4238</v>
       </c>
       <c r="I304" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -25868,7 +25868,7 @@
         <v>1251</v>
       </c>
       <c r="D305" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>1673</v>
@@ -25897,7 +25897,7 @@
         <v>1252</v>
       </c>
       <c r="D306" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>1674</v>
@@ -25955,7 +25955,7 @@
         <v>1254</v>
       </c>
       <c r="D308" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>1676</v>
@@ -25981,22 +25981,22 @@
         <v>791</v>
       </c>
       <c r="C309" t="s">
+        <v>4622</v>
+      </c>
+      <c r="D309" t="s">
+        <v>5409</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>4623</v>
       </c>
-      <c r="D309" t="s">
-        <v>5410</v>
-      </c>
-      <c r="E309" s="2" t="s">
+      <c r="F309" t="s">
         <v>4624</v>
-      </c>
-      <c r="F309" t="s">
-        <v>4625</v>
       </c>
       <c r="G309" t="s">
         <v>2603</v>
       </c>
       <c r="H309" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="I309" t="s">
         <v>3051</v>
@@ -26013,7 +26013,7 @@
         <v>792</v>
       </c>
       <c r="D310" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>3354</v>
@@ -26042,7 +26042,7 @@
         <v>793</v>
       </c>
       <c r="D311" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>3355</v>
@@ -26071,7 +26071,7 @@
         <v>1255</v>
       </c>
       <c r="D312" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>3356</v>
@@ -26100,7 +26100,7 @@
         <v>795</v>
       </c>
       <c r="D313" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>3357</v>
@@ -26129,7 +26129,7 @@
         <v>1256</v>
       </c>
       <c r="D314" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>1677</v>
@@ -26158,7 +26158,7 @@
         <v>1257</v>
       </c>
       <c r="D315" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>1678</v>
@@ -26187,7 +26187,7 @@
         <v>1258</v>
       </c>
       <c r="D316" t="s">
-        <v>5417</v>
+        <v>5416</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>1679</v>
@@ -26199,7 +26199,7 @@
         <v>2610</v>
       </c>
       <c r="H316" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="I316" t="s">
         <v>3055</v>
@@ -26216,7 +26216,7 @@
         <v>1259</v>
       </c>
       <c r="D317" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>1680</v>
@@ -26245,7 +26245,7 @@
         <v>3690</v>
       </c>
       <c r="D318" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>3693</v>
@@ -26274,7 +26274,7 @@
         <v>1260</v>
       </c>
       <c r="D319" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>1681</v>
@@ -26303,7 +26303,7 @@
         <v>1261</v>
       </c>
       <c r="D320" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>1682</v>
@@ -26332,7 +26332,7 @@
         <v>1262</v>
       </c>
       <c r="D321" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>1683</v>
@@ -26361,7 +26361,7 @@
         <v>1263</v>
       </c>
       <c r="D322" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>1684</v>
@@ -26390,7 +26390,7 @@
         <v>1264</v>
       </c>
       <c r="D323" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>1685</v>
@@ -26419,7 +26419,7 @@
         <v>1265</v>
       </c>
       <c r="D324" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>1686</v>
@@ -26448,7 +26448,7 @@
         <v>1266</v>
       </c>
       <c r="D325" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>1687</v>
@@ -26477,7 +26477,7 @@
         <v>1267</v>
       </c>
       <c r="D326" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>1688</v>
@@ -26506,7 +26506,7 @@
         <v>1268</v>
       </c>
       <c r="D327" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>1689</v>
@@ -26535,7 +26535,7 @@
         <v>1269</v>
       </c>
       <c r="D328" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>1690</v>
@@ -26564,7 +26564,7 @@
         <v>1270</v>
       </c>
       <c r="D329" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>1691</v>
@@ -26593,7 +26593,7 @@
         <v>1271</v>
       </c>
       <c r="D330" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>1692</v>
@@ -26622,7 +26622,7 @@
         <v>1272</v>
       </c>
       <c r="D331" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>3358</v>
@@ -26674,28 +26674,28 @@
         <v>325</v>
       </c>
       <c r="B333" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C333" t="s">
         <v>4626</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
+        <v>5410</v>
+      </c>
+      <c r="E333" s="2" t="s">
         <v>4627</v>
       </c>
-      <c r="D333" t="s">
-        <v>5411</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>4628</v>
-      </c>
       <c r="F333" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="G333" t="s">
         <v>2626</v>
       </c>
       <c r="H333" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="I333" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -26709,7 +26709,7 @@
         <v>1274</v>
       </c>
       <c r="D334" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>3360</v>
@@ -26735,10 +26735,10 @@
         <v>3653</v>
       </c>
       <c r="C335" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="D335" t="s">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>1693</v>
@@ -26750,10 +26750,10 @@
         <v>2628</v>
       </c>
       <c r="H335" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="I335" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -26767,7 +26767,7 @@
         <v>1275</v>
       </c>
       <c r="D336" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>1694</v>
@@ -26796,7 +26796,7 @@
         <v>1276</v>
       </c>
       <c r="D337" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>1695</v>
@@ -26825,7 +26825,7 @@
         <v>1277</v>
       </c>
       <c r="D338" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>1696</v>
@@ -26854,7 +26854,7 @@
         <v>1278</v>
       </c>
       <c r="D339" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>1697</v>
@@ -26883,19 +26883,19 @@
         <v>1279</v>
       </c>
       <c r="D340" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>1698</v>
       </c>
       <c r="F340" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="G340" t="s">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="H340" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="I340" t="s">
         <v>3073</v>
@@ -26912,7 +26912,7 @@
         <v>1280</v>
       </c>
       <c r="D341" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>1699</v>
@@ -26941,19 +26941,19 @@
         <v>1281</v>
       </c>
       <c r="D342" t="s">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>1700</v>
       </c>
       <c r="F342" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="G342" t="s">
         <v>2634</v>
       </c>
       <c r="H342" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="I342" t="s">
         <v>3074</v>
@@ -26970,7 +26970,7 @@
         <v>1282</v>
       </c>
       <c r="D343" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>3361</v>
@@ -26999,7 +26999,7 @@
         <v>1283</v>
       </c>
       <c r="D344" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>1701</v>
@@ -27028,7 +27028,7 @@
         <v>1284</v>
       </c>
       <c r="D345" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>3362</v>
@@ -27057,7 +27057,7 @@
         <v>1285</v>
       </c>
       <c r="D346" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>1702</v>
@@ -27086,7 +27086,7 @@
         <v>1286</v>
       </c>
       <c r="D347" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>3363</v>
@@ -27115,7 +27115,7 @@
         <v>1287</v>
       </c>
       <c r="D348" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>3364</v>
@@ -27144,7 +27144,7 @@
         <v>992</v>
       </c>
       <c r="D349" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>1451</v>
@@ -27173,7 +27173,7 @@
         <v>1288</v>
       </c>
       <c r="D350" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>1703</v>
@@ -27202,7 +27202,7 @@
         <v>1289</v>
       </c>
       <c r="D351" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>3365</v>
@@ -27231,7 +27231,7 @@
         <v>1290</v>
       </c>
       <c r="D352" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>1704</v>
@@ -27260,7 +27260,7 @@
         <v>1291</v>
       </c>
       <c r="D353" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>1705</v>
@@ -27289,7 +27289,7 @@
         <v>1292</v>
       </c>
       <c r="D354" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>3367</v>
@@ -27318,7 +27318,7 @@
         <v>1293</v>
       </c>
       <c r="D355" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>3366</v>
@@ -27347,7 +27347,7 @@
         <v>1294</v>
       </c>
       <c r="D356" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>1706</v>
@@ -27376,7 +27376,7 @@
         <v>1295</v>
       </c>
       <c r="D357" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>1707</v>
@@ -27402,10 +27402,10 @@
         <v>833</v>
       </c>
       <c r="C358" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="D358" t="s">
-        <v>5142</v>
+        <v>5141</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>1708</v>
@@ -27434,7 +27434,7 @@
         <v>1296</v>
       </c>
       <c r="D359" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>1709</v>
@@ -27463,7 +27463,7 @@
         <v>1297</v>
       </c>
       <c r="D360" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>1710</v>
@@ -27492,7 +27492,7 @@
         <v>1298</v>
       </c>
       <c r="D361" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>1711</v>
@@ -27521,7 +27521,7 @@
         <v>1299</v>
       </c>
       <c r="D362" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>1712</v>
@@ -27547,10 +27547,10 @@
         <v>3622</v>
       </c>
       <c r="C363" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="D363" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>1713</v>
@@ -27579,7 +27579,7 @@
         <v>1300</v>
       </c>
       <c r="D364" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>3368</v>
@@ -27605,10 +27605,10 @@
         <v>3911</v>
       </c>
       <c r="C365" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="D365" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>3910</v>
@@ -27637,7 +27637,7 @@
         <v>1301</v>
       </c>
       <c r="D366" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>1714</v>
@@ -27666,7 +27666,7 @@
         <v>1302</v>
       </c>
       <c r="D367" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>3369</v>
@@ -27695,7 +27695,7 @@
         <v>1303</v>
       </c>
       <c r="D368" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>1715</v>
@@ -27724,7 +27724,7 @@
         <v>3683</v>
       </c>
       <c r="D369" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>3686</v>
@@ -27736,7 +27736,7 @@
         <v>3687</v>
       </c>
       <c r="H369" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="I369" t="s">
         <v>3684</v>
@@ -27753,7 +27753,7 @@
         <v>1304</v>
       </c>
       <c r="D370" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>1716</v>
@@ -27782,7 +27782,7 @@
         <v>1305</v>
       </c>
       <c r="D371" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>1717</v>
@@ -27811,7 +27811,7 @@
         <v>1306</v>
       </c>
       <c r="D372" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>1718</v>
@@ -27840,7 +27840,7 @@
         <v>3677</v>
       </c>
       <c r="D373" t="s">
-        <v>5407</v>
+        <v>5406</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>3681</v>
@@ -27852,7 +27852,7 @@
         <v>3680</v>
       </c>
       <c r="H373" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="I373" t="s">
         <v>3678</v>
@@ -27869,7 +27869,7 @@
         <v>1304</v>
       </c>
       <c r="D374" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>1716</v>
@@ -27898,7 +27898,7 @@
         <v>1307</v>
       </c>
       <c r="D375" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>1719</v>
@@ -27927,7 +27927,7 @@
         <v>1308</v>
       </c>
       <c r="D376" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>1720</v>
@@ -27956,7 +27956,7 @@
         <v>1309</v>
       </c>
       <c r="D377" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>1721</v>
@@ -27985,7 +27985,7 @@
         <v>1310</v>
       </c>
       <c r="D378" t="s">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>1722</v>
@@ -28014,7 +28014,7 @@
         <v>1311</v>
       </c>
       <c r="D379" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>1723</v>
@@ -28043,7 +28043,7 @@
         <v>1312</v>
       </c>
       <c r="D380" t="s">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>1724</v>
@@ -28055,7 +28055,7 @@
         <v>2668</v>
       </c>
       <c r="H380" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="I380" t="s">
         <v>3105</v>
@@ -28072,7 +28072,7 @@
         <v>3723</v>
       </c>
       <c r="D381" t="s">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>3724</v>
@@ -28101,7 +28101,7 @@
         <v>1313</v>
       </c>
       <c r="D382" t="s">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>1725</v>
@@ -28130,7 +28130,7 @@
         <v>1314</v>
       </c>
       <c r="D383" t="s">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>1726</v>
@@ -28159,7 +28159,7 @@
         <v>1315</v>
       </c>
       <c r="D384" t="s">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>1727</v>
@@ -28188,7 +28188,7 @@
         <v>1316</v>
       </c>
       <c r="D385" t="s">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>1728</v>
@@ -28217,7 +28217,7 @@
         <v>1317</v>
       </c>
       <c r="D386" t="s">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>3278</v>
@@ -28246,7 +28246,7 @@
         <v>1318</v>
       </c>
       <c r="D387" t="s">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>1729</v>
@@ -28272,10 +28272,10 @@
         <v>857</v>
       </c>
       <c r="C388" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="D388" t="s">
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>1730</v>
@@ -28304,7 +28304,7 @@
         <v>1319</v>
       </c>
       <c r="D389" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>3279</v>
@@ -28333,7 +28333,7 @@
         <v>1320</v>
       </c>
       <c r="D390" t="s">
-        <v>5172</v>
+        <v>5171</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>1731</v>
@@ -28362,19 +28362,19 @@
         <v>1321</v>
       </c>
       <c r="D391" t="s">
+        <v>5411</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>5418</v>
+      </c>
+      <c r="F391" t="s">
         <v>5412</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>5419</v>
-      </c>
-      <c r="F391" t="s">
-        <v>5413</v>
       </c>
       <c r="G391" t="s">
         <v>2677</v>
       </c>
       <c r="H391" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="I391" t="s">
         <v>3115</v>
@@ -28420,7 +28420,7 @@
         <v>1323</v>
       </c>
       <c r="D393" t="s">
-        <v>5173</v>
+        <v>5172</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>1733</v>
@@ -28449,7 +28449,7 @@
         <v>1324</v>
       </c>
       <c r="D394" t="s">
-        <v>5174</v>
+        <v>5173</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>1734</v>
@@ -28478,7 +28478,7 @@
         <v>1325</v>
       </c>
       <c r="D395" t="s">
-        <v>5175</v>
+        <v>5174</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>1735</v>
@@ -28507,7 +28507,7 @@
         <v>1326</v>
       </c>
       <c r="D396" t="s">
-        <v>5176</v>
+        <v>5175</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>3280</v>
@@ -28536,7 +28536,7 @@
         <v>1327</v>
       </c>
       <c r="D397" t="s">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>3281</v>
@@ -28565,7 +28565,7 @@
         <v>1328</v>
       </c>
       <c r="D398" t="s">
-        <v>5178</v>
+        <v>5177</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>3282</v>
@@ -28591,10 +28591,10 @@
         <v>3657</v>
       </c>
       <c r="C399" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="D399" t="s">
-        <v>5179</v>
+        <v>5178</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>1736</v>
@@ -28606,7 +28606,7 @@
         <v>2685</v>
       </c>
       <c r="H399" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="I399" t="s">
         <v>3121</v>
@@ -28623,7 +28623,7 @@
         <v>1329</v>
       </c>
       <c r="D400" t="s">
-        <v>5180</v>
+        <v>5179</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>1737</v>
@@ -28652,7 +28652,7 @@
         <v>1330</v>
       </c>
       <c r="D401" t="s">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>1738</v>
@@ -28681,7 +28681,7 @@
         <v>1331</v>
       </c>
       <c r="D402" t="s">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>3283</v>
@@ -28710,7 +28710,7 @@
         <v>1332</v>
       </c>
       <c r="D403" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>1739</v>
@@ -28739,7 +28739,7 @@
         <v>1333</v>
       </c>
       <c r="D404" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>1740</v>
@@ -28768,7 +28768,7 @@
         <v>1334</v>
       </c>
       <c r="D405" t="s">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>1741</v>
@@ -28780,7 +28780,7 @@
         <v>2691</v>
       </c>
       <c r="H405" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="I405" t="s">
         <v>871</v>
@@ -28797,7 +28797,7 @@
         <v>1335</v>
       </c>
       <c r="D406" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>1742</v>
@@ -28826,7 +28826,7 @@
         <v>1336</v>
       </c>
       <c r="D407" t="s">
-        <v>5187</v>
+        <v>5186</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>1743</v>
@@ -28855,7 +28855,7 @@
         <v>1337</v>
       </c>
       <c r="D408" t="s">
-        <v>5188</v>
+        <v>5187</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>1744</v>
@@ -28884,7 +28884,7 @@
         <v>1338</v>
       </c>
       <c r="D409" t="s">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>1745</v>
@@ -28913,7 +28913,7 @@
         <v>1339</v>
       </c>
       <c r="D410" t="s">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>1746</v>
@@ -28942,7 +28942,7 @@
         <v>1340</v>
       </c>
       <c r="D411" t="s">
-        <v>5191</v>
+        <v>5190</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>1747</v>
@@ -28971,7 +28971,7 @@
         <v>1341</v>
       </c>
       <c r="D412" t="s">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>1748</v>
@@ -29000,7 +29000,7 @@
         <v>1342</v>
       </c>
       <c r="D413" t="s">
-        <v>5193</v>
+        <v>5192</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>1749</v>
@@ -29029,7 +29029,7 @@
         <v>1343</v>
       </c>
       <c r="D414" t="s">
-        <v>5194</v>
+        <v>5193</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>1750</v>
@@ -29058,7 +29058,7 @@
         <v>1344</v>
       </c>
       <c r="D415" t="s">
-        <v>5195</v>
+        <v>5194</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>3284</v>
@@ -29087,7 +29087,7 @@
         <v>1345</v>
       </c>
       <c r="D416" t="s">
-        <v>5196</v>
+        <v>5195</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>1751</v>
@@ -29116,7 +29116,7 @@
         <v>3406</v>
       </c>
       <c r="D417" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>3409</v>
@@ -29145,7 +29145,7 @@
         <v>1346</v>
       </c>
       <c r="D418" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>3370</v>
@@ -29174,7 +29174,7 @@
         <v>1347</v>
       </c>
       <c r="D419" t="s">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>1752</v>
@@ -29203,7 +29203,7 @@
         <v>1348</v>
       </c>
       <c r="D420" t="s">
-        <v>5200</v>
+        <v>5199</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>1753</v>
@@ -29232,7 +29232,7 @@
         <v>1349</v>
       </c>
       <c r="D421" t="s">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>1754</v>
@@ -29258,10 +29258,10 @@
         <v>885</v>
       </c>
       <c r="C422" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="D422" t="s">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>1755</v>
@@ -29290,7 +29290,7 @@
         <v>1350</v>
       </c>
       <c r="D423" t="s">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>1756</v>
@@ -29319,7 +29319,7 @@
         <v>1351</v>
       </c>
       <c r="D424" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>1757</v>
@@ -29348,7 +29348,7 @@
         <v>1352</v>
       </c>
       <c r="D425" t="s">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>1758</v>
@@ -29406,7 +29406,7 @@
         <v>3720</v>
       </c>
       <c r="D427" t="s">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>1759</v>
@@ -29435,7 +29435,7 @@
         <v>1354</v>
       </c>
       <c r="D428" t="s">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>1760</v>
@@ -29464,7 +29464,7 @@
         <v>1355</v>
       </c>
       <c r="D429" t="s">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>3371</v>
@@ -29487,28 +29487,28 @@
         <v>419</v>
       </c>
       <c r="B430" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="C430" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="D430" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="E430" s="2" t="s">
+        <v>4747</v>
+      </c>
+      <c r="F430" t="s">
+        <v>4746</v>
+      </c>
+      <c r="G430" t="s">
+        <v>4745</v>
+      </c>
+      <c r="H430" t="s">
+        <v>4744</v>
+      </c>
+      <c r="I430" t="s">
         <v>4748</v>
-      </c>
-      <c r="F430" t="s">
-        <v>4747</v>
-      </c>
-      <c r="G430" t="s">
-        <v>4746</v>
-      </c>
-      <c r="H430" t="s">
-        <v>4745</v>
-      </c>
-      <c r="I430" t="s">
-        <v>4749</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -29522,7 +29522,7 @@
         <v>1356</v>
       </c>
       <c r="D431" t="s">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>1761</v>
@@ -29551,19 +29551,19 @@
         <v>1357</v>
       </c>
       <c r="D432" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="F432" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="G432" t="s">
         <v>2715</v>
       </c>
       <c r="H432" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="I432" t="s">
         <v>3149</v>
@@ -29580,7 +29580,7 @@
         <v>1358</v>
       </c>
       <c r="D433" t="s">
-        <v>5211</v>
+        <v>5210</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>1762</v>
@@ -29609,7 +29609,7 @@
         <v>1359</v>
       </c>
       <c r="D434" t="s">
-        <v>5212</v>
+        <v>5211</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>3285</v>
@@ -29638,7 +29638,7 @@
         <v>1360</v>
       </c>
       <c r="D435" t="s">
-        <v>5213</v>
+        <v>5212</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>1763</v>
@@ -29667,7 +29667,7 @@
         <v>1361</v>
       </c>
       <c r="D436" t="s">
-        <v>5214</v>
+        <v>5213</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>1764</v>
@@ -29696,7 +29696,7 @@
         <v>1362</v>
       </c>
       <c r="D437" t="s">
-        <v>5215</v>
+        <v>5214</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>1765</v>
@@ -29725,7 +29725,7 @@
         <v>1363</v>
       </c>
       <c r="D438" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>3286</v>
@@ -29754,7 +29754,7 @@
         <v>1364</v>
       </c>
       <c r="D439" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>1766</v>
@@ -29774,31 +29774,31 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B440" t="s">
+        <v>4810</v>
+      </c>
+      <c r="C440" t="s">
         <v>4808</v>
       </c>
-      <c r="B440" t="s">
+      <c r="D440" t="s">
+        <v>5395</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>4814</v>
+      </c>
+      <c r="F440" t="s">
+        <v>4813</v>
+      </c>
+      <c r="G440" t="s">
         <v>4811</v>
       </c>
-      <c r="C440" t="s">
+      <c r="H440" t="s">
+        <v>4812</v>
+      </c>
+      <c r="I440" t="s">
         <v>4809</v>
-      </c>
-      <c r="D440" t="s">
-        <v>5396</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>4815</v>
-      </c>
-      <c r="F440" t="s">
-        <v>4814</v>
-      </c>
-      <c r="G440" t="s">
-        <v>4812</v>
-      </c>
-      <c r="H440" t="s">
-        <v>4813</v>
-      </c>
-      <c r="I440" t="s">
-        <v>4810</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -29841,7 +29841,7 @@
         <v>1366</v>
       </c>
       <c r="D442" t="s">
-        <v>5218</v>
+        <v>5217</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>1768</v>
@@ -29870,7 +29870,7 @@
         <v>1367</v>
       </c>
       <c r="D443" t="s">
-        <v>5219</v>
+        <v>5218</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>3287</v>
@@ -29899,7 +29899,7 @@
         <v>1368</v>
       </c>
       <c r="D444" t="s">
-        <v>5220</v>
+        <v>5219</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>1769</v>
@@ -29928,7 +29928,7 @@
         <v>1369</v>
       </c>
       <c r="D445" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>1770</v>
@@ -29954,10 +29954,10 @@
         <v>3334</v>
       </c>
       <c r="C446" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="D446" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>3333</v>
@@ -29986,7 +29986,7 @@
         <v>904</v>
       </c>
       <c r="D447" t="s">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>1771</v>
@@ -30012,10 +30012,10 @@
         <v>3660</v>
       </c>
       <c r="C448" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="D448" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>1772</v>
@@ -30027,7 +30027,7 @@
         <v>2729</v>
       </c>
       <c r="H448" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="I448" t="s">
         <v>3160</v>
@@ -30044,7 +30044,7 @@
         <v>1370</v>
       </c>
       <c r="D449" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>1773</v>
@@ -30073,7 +30073,7 @@
         <v>1371</v>
       </c>
       <c r="D450" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>1774</v>
@@ -30102,7 +30102,7 @@
         <v>1372</v>
       </c>
       <c r="D451" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>1593</v>
@@ -30131,7 +30131,7 @@
         <v>1373</v>
       </c>
       <c r="D452" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>1775</v>
@@ -30160,7 +30160,7 @@
         <v>1374</v>
       </c>
       <c r="D453" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>1776</v>
@@ -30189,7 +30189,7 @@
         <v>1375</v>
       </c>
       <c r="D454" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>1777</v>
@@ -30218,7 +30218,7 @@
         <v>1376</v>
       </c>
       <c r="D455" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>1778</v>
@@ -30247,7 +30247,7 @@
         <v>1377</v>
       </c>
       <c r="D456" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>1779</v>
@@ -30276,7 +30276,7 @@
         <v>1378</v>
       </c>
       <c r="D457" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>3372</v>
@@ -30305,7 +30305,7 @@
         <v>1379</v>
       </c>
       <c r="D458" t="s">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>1780</v>
@@ -30331,10 +30331,10 @@
         <v>915</v>
       </c>
       <c r="C459" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="D459" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>1781</v>
@@ -30363,7 +30363,7 @@
         <v>1380</v>
       </c>
       <c r="D460" t="s">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>1782</v>
@@ -30392,7 +30392,7 @@
         <v>1381</v>
       </c>
       <c r="D461" t="s">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>1783</v>
@@ -30418,10 +30418,10 @@
         <v>918</v>
       </c>
       <c r="C462" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="D462" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>1784</v>
@@ -30450,7 +30450,7 @@
         <v>1382</v>
       </c>
       <c r="D463" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>1785</v>
@@ -30476,10 +30476,10 @@
         <v>920</v>
       </c>
       <c r="C464" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="D464" t="s">
-        <v>5240</v>
+        <v>5239</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>1786</v>
@@ -30508,7 +30508,7 @@
         <v>1383</v>
       </c>
       <c r="D465" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>1787</v>
@@ -30537,7 +30537,7 @@
         <v>1384</v>
       </c>
       <c r="D466" t="s">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>1788</v>
@@ -30566,7 +30566,7 @@
         <v>1385</v>
       </c>
       <c r="D467" t="s">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>1789</v>
@@ -30595,7 +30595,7 @@
         <v>1386</v>
       </c>
       <c r="D468" t="s">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>1790</v>
@@ -30624,7 +30624,7 @@
         <v>1387</v>
       </c>
       <c r="D469" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>1791</v>
@@ -30653,10 +30653,10 @@
         <v>1388</v>
       </c>
       <c r="D470" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="F470" t="s">
         <v>2260</v>
@@ -30665,7 +30665,7 @@
         <v>2750</v>
       </c>
       <c r="H470" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="I470" t="s">
         <v>3181</v>
@@ -30682,7 +30682,7 @@
         <v>1389</v>
       </c>
       <c r="D471" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>1792</v>
@@ -30711,10 +30711,10 @@
         <v>1390</v>
       </c>
       <c r="D472" t="s">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="F472" t="s">
         <v>2262</v>
@@ -30723,7 +30723,7 @@
         <v>2752</v>
       </c>
       <c r="H472" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="I472" t="s">
         <v>3182</v>
@@ -30740,7 +30740,7 @@
         <v>1391</v>
       </c>
       <c r="D473" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>1793</v>
@@ -30769,10 +30769,10 @@
         <v>1392</v>
       </c>
       <c r="D474" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="F474" t="s">
         <v>2264</v>
@@ -30781,7 +30781,7 @@
         <v>2754</v>
       </c>
       <c r="H474" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="I474" t="s">
         <v>3183</v>
@@ -30798,7 +30798,7 @@
         <v>1393</v>
       </c>
       <c r="D475" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>1794</v>
@@ -30827,7 +30827,7 @@
         <v>1394</v>
       </c>
       <c r="D476" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>1795</v>
@@ -30856,7 +30856,7 @@
         <v>1395</v>
       </c>
       <c r="D477" t="s">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>1796</v>
@@ -30885,7 +30885,7 @@
         <v>1396</v>
       </c>
       <c r="D478" t="s">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>1797</v>
@@ -30914,7 +30914,7 @@
         <v>1397</v>
       </c>
       <c r="D479" t="s">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>1798</v>
@@ -30943,7 +30943,7 @@
         <v>1398</v>
       </c>
       <c r="D480" t="s">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>1799</v>
@@ -30972,7 +30972,7 @@
         <v>1399</v>
       </c>
       <c r="D481" t="s">
-        <v>5253</v>
+        <v>5252</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>1800</v>
@@ -31001,7 +31001,7 @@
         <v>1400</v>
       </c>
       <c r="D482" t="s">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>3373</v>
@@ -31027,10 +31027,10 @@
         <v>3595</v>
       </c>
       <c r="C483" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="D483" t="s">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>1801</v>
@@ -31059,7 +31059,7 @@
         <v>1401</v>
       </c>
       <c r="D484" t="s">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>1802</v>
@@ -31088,7 +31088,7 @@
         <v>1402</v>
       </c>
       <c r="D485" t="s">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>1803</v>
@@ -31117,7 +31117,7 @@
         <v>1403</v>
       </c>
       <c r="D486" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>1804</v>
@@ -31129,7 +31129,7 @@
         <v>2765</v>
       </c>
       <c r="H486" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="I486" t="s">
         <v>3195</v>
@@ -31146,7 +31146,7 @@
         <v>1404</v>
       </c>
       <c r="D487" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>1805</v>
@@ -31175,7 +31175,7 @@
         <v>1405</v>
       </c>
       <c r="D488" t="s">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>1806</v>
@@ -31204,7 +31204,7 @@
         <v>1406</v>
       </c>
       <c r="D489" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>3374</v>
@@ -31233,10 +31233,10 @@
         <v>3306</v>
       </c>
       <c r="D490" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="F490" t="s">
         <v>3307</v>
@@ -31262,7 +31262,7 @@
         <v>479</v>
       </c>
       <c r="D491" t="s">
-        <v>5262</v>
+        <v>5261</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>1807</v>
@@ -31291,7 +31291,7 @@
         <v>480</v>
       </c>
       <c r="D492" t="s">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>1808</v>
@@ -31320,7 +31320,7 @@
         <v>481</v>
       </c>
       <c r="D493" t="s">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>3288</v>
@@ -31346,10 +31346,10 @@
         <v>947</v>
       </c>
       <c r="C494" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="D494" t="s">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>1809</v>
@@ -31378,7 +31378,7 @@
         <v>1407</v>
       </c>
       <c r="D495" t="s">
-        <v>5266</v>
+        <v>5265</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>1810</v>
@@ -31407,7 +31407,7 @@
         <v>3932</v>
       </c>
       <c r="D496" t="s">
-        <v>5267</v>
+        <v>5266</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>3935</v>
@@ -31419,7 +31419,7 @@
         <v>3937</v>
       </c>
       <c r="H496" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="I496" t="s">
         <v>3933</v>
@@ -31436,7 +31436,7 @@
         <v>1408</v>
       </c>
       <c r="D497" t="s">
-        <v>5268</v>
+        <v>5267</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>1811</v>
@@ -31494,7 +31494,7 @@
         <v>1410</v>
       </c>
       <c r="D499" t="s">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>1813</v>
@@ -31506,7 +31506,7 @@
         <v>2776</v>
       </c>
       <c r="H499" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="I499" t="s">
         <v>3204</v>
@@ -31523,7 +31523,7 @@
         <v>3792</v>
       </c>
       <c r="D500" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>3793</v>
@@ -31535,7 +31535,7 @@
         <v>3795</v>
       </c>
       <c r="H500" t="s">
-        <v>4408</v>
+        <v>5534</v>
       </c>
       <c r="I500" t="s">
         <v>3796</v>
@@ -31552,7 +31552,7 @@
         <v>3784</v>
       </c>
       <c r="D501" t="s">
-        <v>5271</v>
+        <v>5270</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>3785</v>
@@ -31564,7 +31564,7 @@
         <v>3787</v>
       </c>
       <c r="H501" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="I501" t="s">
         <v>3788</v>
@@ -31578,13 +31578,13 @@
         <v>3758</v>
       </c>
       <c r="C502" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="D502" t="s">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="F502" t="s">
         <v>3759</v>
@@ -31593,7 +31593,7 @@
         <v>3760</v>
       </c>
       <c r="H502" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="I502" t="s">
         <v>3761</v>
@@ -31610,7 +31610,7 @@
         <v>3763</v>
       </c>
       <c r="D503" t="s">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>3764</v>
@@ -31622,7 +31622,7 @@
         <v>3766</v>
       </c>
       <c r="H503" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="I503" t="s">
         <v>3767</v>
@@ -31639,7 +31639,7 @@
         <v>3804</v>
       </c>
       <c r="D504" t="s">
-        <v>5273</v>
+        <v>5272</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>3805</v>
@@ -31651,7 +31651,7 @@
         <v>3807</v>
       </c>
       <c r="H504" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="I504" t="s">
         <v>3808</v>
@@ -31668,7 +31668,7 @@
         <v>3778</v>
       </c>
       <c r="D505" t="s">
-        <v>5274</v>
+        <v>5273</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>3779</v>
@@ -31680,7 +31680,7 @@
         <v>3781</v>
       </c>
       <c r="H505" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="I505" t="s">
         <v>3782</v>
@@ -31697,7 +31697,7 @@
         <v>3770</v>
       </c>
       <c r="D506" t="s">
-        <v>5275</v>
+        <v>5274</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>3771</v>
@@ -31709,7 +31709,7 @@
         <v>3773</v>
       </c>
       <c r="H506" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="I506" t="s">
         <v>3774</v>
@@ -31726,7 +31726,7 @@
         <v>1411</v>
       </c>
       <c r="D507" t="s">
-        <v>5276</v>
+        <v>5275</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>1814</v>
@@ -31738,7 +31738,7 @@
         <v>2777</v>
       </c>
       <c r="H507" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="I507" t="s">
         <v>3205</v>
@@ -31755,7 +31755,7 @@
         <v>3751</v>
       </c>
       <c r="D508" t="s">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>3752</v>
@@ -31767,7 +31767,7 @@
         <v>3754</v>
       </c>
       <c r="H508" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="I508" t="s">
         <v>3755</v>
@@ -31784,7 +31784,7 @@
         <v>3744</v>
       </c>
       <c r="D509" t="s">
-        <v>5278</v>
+        <v>5277</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>3745</v>
@@ -31796,7 +31796,7 @@
         <v>3747</v>
       </c>
       <c r="H509" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="I509" t="s">
         <v>3748</v>
@@ -31813,7 +31813,7 @@
         <v>3736</v>
       </c>
       <c r="D510" t="s">
-        <v>5279</v>
+        <v>5278</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>3737</v>
@@ -31825,7 +31825,7 @@
         <v>3739</v>
       </c>
       <c r="H510" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="I510" t="s">
         <v>3740</v>
@@ -31842,7 +31842,7 @@
         <v>3730</v>
       </c>
       <c r="D511" t="s">
-        <v>5280</v>
+        <v>5279</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>3731</v>
@@ -31854,7 +31854,7 @@
         <v>3733</v>
       </c>
       <c r="H511" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="I511" t="s">
         <v>3734</v>
@@ -31871,7 +31871,7 @@
         <v>488</v>
       </c>
       <c r="D512" t="s">
-        <v>5281</v>
+        <v>5280</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>1815</v>
@@ -31883,7 +31883,7 @@
         <v>2778</v>
       </c>
       <c r="H512" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="I512" t="s">
         <v>3206</v>
@@ -31900,7 +31900,7 @@
         <v>3919</v>
       </c>
       <c r="D513" t="s">
-        <v>5282</v>
+        <v>5281</v>
       </c>
       <c r="E513" t="s">
         <v>3927</v>
@@ -31912,7 +31912,7 @@
         <v>3923</v>
       </c>
       <c r="H513" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="I513" t="s">
         <v>3920</v>
@@ -31929,7 +31929,7 @@
         <v>3921</v>
       </c>
       <c r="D514" t="s">
-        <v>5283</v>
+        <v>5282</v>
       </c>
       <c r="E514" t="s">
         <v>3928</v>
@@ -31941,7 +31941,7 @@
         <v>3924</v>
       </c>
       <c r="H514" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="I514" t="s">
         <v>3922</v>
@@ -31958,7 +31958,7 @@
         <v>1412</v>
       </c>
       <c r="D515" t="s">
-        <v>5284</v>
+        <v>5283</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>3375</v>
@@ -31970,7 +31970,7 @@
         <v>2779</v>
       </c>
       <c r="H515" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="I515" t="s">
         <v>3207</v>
@@ -31987,7 +31987,7 @@
         <v>1413</v>
       </c>
       <c r="D516" t="s">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="E516" s="3" t="s">
         <v>3376</v>
@@ -31999,7 +31999,7 @@
         <v>2780</v>
       </c>
       <c r="H516" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="I516" t="s">
         <v>3208</v>
@@ -32016,7 +32016,7 @@
         <v>1414</v>
       </c>
       <c r="D517" t="s">
-        <v>5286</v>
+        <v>5285</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>3377</v>
@@ -32028,7 +32028,7 @@
         <v>2781</v>
       </c>
       <c r="H517" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="I517" t="s">
         <v>3209</v>
@@ -32045,7 +32045,7 @@
         <v>1415</v>
       </c>
       <c r="D518" t="s">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>1816</v>
@@ -32057,7 +32057,7 @@
         <v>2782</v>
       </c>
       <c r="H518" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="I518" t="s">
         <v>3210</v>
@@ -32074,7 +32074,7 @@
         <v>1416</v>
       </c>
       <c r="D519" t="s">
-        <v>5288</v>
+        <v>5287</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>1817</v>
@@ -32086,7 +32086,7 @@
         <v>2783</v>
       </c>
       <c r="H519" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="I519" t="s">
         <v>3211</v>
@@ -32103,7 +32103,7 @@
         <v>3931</v>
       </c>
       <c r="D520" t="s">
-        <v>5289</v>
+        <v>5288</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>3798</v>
@@ -32115,7 +32115,7 @@
         <v>3800</v>
       </c>
       <c r="H520" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="I520" t="s">
         <v>3801</v>
@@ -32132,7 +32132,7 @@
         <v>1417</v>
       </c>
       <c r="D521" t="s">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>1818</v>
@@ -32144,7 +32144,7 @@
         <v>2784</v>
       </c>
       <c r="H521" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="I521" t="s">
         <v>3212</v>
@@ -32161,7 +32161,7 @@
         <v>1418</v>
       </c>
       <c r="D522" t="s">
-        <v>5291</v>
+        <v>5290</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>1819</v>
@@ -32173,7 +32173,7 @@
         <v>2785</v>
       </c>
       <c r="H522" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="I522" t="s">
         <v>3213</v>
@@ -32190,7 +32190,7 @@
         <v>1419</v>
       </c>
       <c r="D523" t="s">
-        <v>5292</v>
+        <v>5291</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>1820</v>
@@ -32202,7 +32202,7 @@
         <v>2786</v>
       </c>
       <c r="H523" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="I523" t="s">
         <v>3214</v>
@@ -32219,7 +32219,7 @@
         <v>1420</v>
       </c>
       <c r="D524" t="s">
-        <v>5293</v>
+        <v>5292</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>3289</v>
@@ -32231,7 +32231,7 @@
         <v>2787</v>
       </c>
       <c r="H524" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="I524" t="s">
         <v>3215</v>
@@ -32248,7 +32248,7 @@
         <v>1421</v>
       </c>
       <c r="D525" t="s">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>1821</v>
@@ -32260,7 +32260,7 @@
         <v>2788</v>
       </c>
       <c r="H525" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="I525" t="s">
         <v>3216</v>
@@ -32277,7 +32277,7 @@
         <v>1422</v>
       </c>
       <c r="D526" t="s">
-        <v>5295</v>
+        <v>5294</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>1822</v>
@@ -32289,7 +32289,7 @@
         <v>2789</v>
       </c>
       <c r="H526" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="I526" t="s">
         <v>3217</v>
@@ -32300,28 +32300,28 @@
         <v>503</v>
       </c>
       <c r="B527" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="C527" t="s">
+        <v>4734</v>
+      </c>
+      <c r="D527" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>4737</v>
+      </c>
+      <c r="F527" t="s">
+        <v>4736</v>
+      </c>
+      <c r="G527" t="s">
+        <v>4738</v>
+      </c>
+      <c r="H527" t="s">
+        <v>4739</v>
+      </c>
+      <c r="I527" t="s">
         <v>4735</v>
-      </c>
-      <c r="D527" t="s">
-        <v>5296</v>
-      </c>
-      <c r="E527" s="2" t="s">
-        <v>4738</v>
-      </c>
-      <c r="F527" t="s">
-        <v>4737</v>
-      </c>
-      <c r="G527" t="s">
-        <v>4739</v>
-      </c>
-      <c r="H527" t="s">
-        <v>4740</v>
-      </c>
-      <c r="I527" t="s">
-        <v>4736</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
@@ -32335,7 +32335,7 @@
         <v>1423</v>
       </c>
       <c r="D528" t="s">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>1823</v>
@@ -32347,7 +32347,7 @@
         <v>2790</v>
       </c>
       <c r="H528" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="I528" t="s">
         <v>965</v>
@@ -32364,7 +32364,7 @@
         <v>1424</v>
       </c>
       <c r="D529" t="s">
-        <v>5298</v>
+        <v>5297</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>1824</v>
@@ -32376,7 +32376,7 @@
         <v>2791</v>
       </c>
       <c r="H529" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="I529" t="s">
         <v>3218</v>
@@ -32393,7 +32393,7 @@
         <v>1425</v>
       </c>
       <c r="D530" t="s">
-        <v>5299</v>
+        <v>5298</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>1825</v>
@@ -32405,7 +32405,7 @@
         <v>2792</v>
       </c>
       <c r="H530" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="I530" t="s">
         <v>3219</v>
@@ -32422,7 +32422,7 @@
         <v>1426</v>
       </c>
       <c r="D531" t="s">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>3290</v>
@@ -32434,7 +32434,7 @@
         <v>2793</v>
       </c>
       <c r="H531" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="I531" t="s">
         <v>3220</v>
@@ -32451,7 +32451,7 @@
         <v>1427</v>
       </c>
       <c r="D532" t="s">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>1826</v>
@@ -32463,7 +32463,7 @@
         <v>2794</v>
       </c>
       <c r="H532" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="I532" t="s">
         <v>3221</v>
@@ -32480,7 +32480,7 @@
         <v>1428</v>
       </c>
       <c r="D533" t="s">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>1827</v>
@@ -32492,7 +32492,7 @@
         <v>2795</v>
       </c>
       <c r="H533" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="I533" t="s">
         <v>3222</v>
@@ -32509,7 +32509,7 @@
         <v>1429</v>
       </c>
       <c r="D534" t="s">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>1828</v>
@@ -32521,7 +32521,7 @@
         <v>2796</v>
       </c>
       <c r="H534" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="I534" t="s">
         <v>3223</v>
@@ -32538,7 +32538,7 @@
         <v>1430</v>
       </c>
       <c r="D535" t="s">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>1829</v>
@@ -32550,7 +32550,7 @@
         <v>2797</v>
       </c>
       <c r="H535" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="I535" t="s">
         <v>3224</v>
@@ -32567,7 +32567,7 @@
         <v>1431</v>
       </c>
       <c r="D536" t="s">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1830</v>
@@ -32579,7 +32579,7 @@
         <v>2798</v>
       </c>
       <c r="H536" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="I536" t="s">
         <v>3225</v>
@@ -32596,7 +32596,7 @@
         <v>1432</v>
       </c>
       <c r="D537" t="s">
-        <v>5306</v>
+        <v>5305</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1831</v>
@@ -32608,7 +32608,7 @@
         <v>2799</v>
       </c>
       <c r="H537" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="I537" t="s">
         <v>974</v>
@@ -32625,7 +32625,7 @@
         <v>1433</v>
       </c>
       <c r="D538" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1832</v>
@@ -32637,7 +32637,7 @@
         <v>651</v>
       </c>
       <c r="H538" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="I538" t="s">
         <v>2915</v>
@@ -32654,7 +32654,7 @@
         <v>1434</v>
       </c>
       <c r="D539" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>1833</v>
@@ -32666,7 +32666,7 @@
         <v>2800</v>
       </c>
       <c r="H539" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="I539" t="s">
         <v>3226</v>
@@ -32683,7 +32683,7 @@
         <v>1435</v>
       </c>
       <c r="D540" t="s">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>1834</v>
@@ -32695,7 +32695,7 @@
         <v>2801</v>
       </c>
       <c r="H540" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="I540" t="s">
         <v>3227</v>
@@ -32712,7 +32712,7 @@
         <v>1436</v>
       </c>
       <c r="D541" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1835</v>
@@ -32724,7 +32724,7 @@
         <v>2802</v>
       </c>
       <c r="H541" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="I541" t="s">
         <v>3228</v>
@@ -32741,7 +32741,7 @@
         <v>1437</v>
       </c>
       <c r="D542" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>1836</v>
@@ -32753,7 +32753,7 @@
         <v>2803</v>
       </c>
       <c r="H542" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="I542" t="s">
         <v>3229</v>
@@ -32770,7 +32770,7 @@
         <v>1438</v>
       </c>
       <c r="D543" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>1837</v>
@@ -32799,7 +32799,7 @@
         <v>1439</v>
       </c>
       <c r="D544" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>1838</v>
@@ -32811,7 +32811,7 @@
         <v>2804</v>
       </c>
       <c r="H544" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="I544" t="s">
         <v>3231</v>
@@ -32828,7 +32828,7 @@
         <v>1440</v>
       </c>
       <c r="D545" t="s">
-        <v>5314</v>
+        <v>5313</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>1839</v>
@@ -32840,7 +32840,7 @@
         <v>2805</v>
       </c>
       <c r="H545" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="I545" t="s">
         <v>3232</v>
@@ -32857,7 +32857,7 @@
         <v>1441</v>
       </c>
       <c r="D546" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>1696</v>
@@ -32869,7 +32869,7 @@
         <v>2806</v>
       </c>
       <c r="H546" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="I546" t="s">
         <v>3233</v>
@@ -32886,7 +32886,7 @@
         <v>1442</v>
       </c>
       <c r="D547" t="s">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>1840</v>
@@ -32898,7 +32898,7 @@
         <v>2807</v>
       </c>
       <c r="H547" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="I547" t="s">
         <v>3234</v>
@@ -32915,7 +32915,7 @@
         <v>1443</v>
       </c>
       <c r="D548" t="s">
-        <v>5317</v>
+        <v>5316</v>
       </c>
       <c r="E548" t="s">
         <v>1841</v>
@@ -32927,7 +32927,7 @@
         <v>2808</v>
       </c>
       <c r="H548" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="I548" t="s">
         <v>3235</v>
@@ -32944,7 +32944,7 @@
         <v>1444</v>
       </c>
       <c r="D549" t="s">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="E549" t="s">
         <v>1842</v>
@@ -32956,7 +32956,7 @@
         <v>2809</v>
       </c>
       <c r="H549" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="I549" t="s">
         <v>3236</v>
@@ -32973,7 +32973,7 @@
         <v>1445</v>
       </c>
       <c r="D550" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="E550" t="s">
         <v>1843</v>
@@ -32985,7 +32985,7 @@
         <v>2810</v>
       </c>
       <c r="H550" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="I550" t="s">
         <v>3237</v>
@@ -33002,7 +33002,7 @@
         <v>1446</v>
       </c>
       <c r="D551" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="E551" t="s">
         <v>1844</v>
@@ -33014,7 +33014,7 @@
         <v>2811</v>
       </c>
       <c r="H551" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="I551" t="s">
         <v>987</v>
@@ -33022,31 +33022,31 @@
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B552" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C552" t="s">
         <v>4724</v>
       </c>
-      <c r="B552" t="s">
-        <v>4731</v>
-      </c>
-      <c r="C552" t="s">
+      <c r="D552" t="s">
+        <v>5320</v>
+      </c>
+      <c r="E552" t="s">
+        <v>4727</v>
+      </c>
+      <c r="F552" t="s">
+        <v>4728</v>
+      </c>
+      <c r="G552" t="s">
+        <v>4726</v>
+      </c>
+      <c r="H552" t="s">
+        <v>4729</v>
+      </c>
+      <c r="I552" t="s">
         <v>4725</v>
-      </c>
-      <c r="D552" t="s">
-        <v>5321</v>
-      </c>
-      <c r="E552" t="s">
-        <v>4728</v>
-      </c>
-      <c r="F552" t="s">
-        <v>4729</v>
-      </c>
-      <c r="G552" t="s">
-        <v>4727</v>
-      </c>
-      <c r="H552" t="s">
-        <v>4730</v>
-      </c>
-      <c r="I552" t="s">
-        <v>4726</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
@@ -33060,7 +33060,7 @@
         <v>1447</v>
       </c>
       <c r="D553" t="s">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="E553" t="s">
         <v>1845</v>
@@ -33072,7 +33072,7 @@
         <v>2812</v>
       </c>
       <c r="H553" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="I553" t="s">
         <v>3238</v>
@@ -33089,7 +33089,7 @@
         <v>1448</v>
       </c>
       <c r="D554" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="E554" t="s">
         <v>1846</v>
@@ -33101,7 +33101,7 @@
         <v>2813</v>
       </c>
       <c r="H554" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="I554" t="s">
         <v>989</v>
@@ -33118,7 +33118,7 @@
         <v>3293</v>
       </c>
       <c r="D555" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="E555" t="s">
         <v>3298</v>
@@ -33130,7 +33130,7 @@
         <v>3297</v>
       </c>
       <c r="H555" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="I555" t="s">
         <v>3294</v>
@@ -33147,7 +33147,7 @@
         <v>3295</v>
       </c>
       <c r="D556" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="E556" t="s">
         <v>3299</v>
@@ -33159,7 +33159,7 @@
         <v>3300</v>
       </c>
       <c r="H556" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="I556" t="s">
         <v>3296</v>
@@ -33176,7 +33176,7 @@
         <v>3312</v>
       </c>
       <c r="D557" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="E557" t="s">
         <v>3321</v>
@@ -33188,7 +33188,7 @@
         <v>3327</v>
       </c>
       <c r="H557" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="I557" t="s">
         <v>3315</v>
@@ -33205,7 +33205,7 @@
         <v>3313</v>
       </c>
       <c r="D558" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="E558" t="s">
         <v>3322</v>
@@ -33217,7 +33217,7 @@
         <v>3328</v>
       </c>
       <c r="H558" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="I558" t="s">
         <v>3317</v>
@@ -33234,7 +33234,7 @@
         <v>3314</v>
       </c>
       <c r="D559" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="E559" t="s">
         <v>3323</v>
@@ -33246,7 +33246,7 @@
         <v>3329</v>
       </c>
       <c r="H559" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="I559" t="s">
         <v>3316</v>
@@ -33263,7 +33263,7 @@
         <v>3380</v>
       </c>
       <c r="D560" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="E560" t="s">
         <v>3383</v>
@@ -33275,7 +33275,7 @@
         <v>3382</v>
       </c>
       <c r="H560" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="I560" t="s">
         <v>3384</v>
@@ -33292,7 +33292,7 @@
         <v>3400</v>
       </c>
       <c r="D561" t="s">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="E561" t="s">
         <v>3404</v>
@@ -33304,7 +33304,7 @@
         <v>3403</v>
       </c>
       <c r="H561" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="I561" t="s">
         <v>3399</v>
@@ -33321,7 +33321,7 @@
         <v>3433</v>
       </c>
       <c r="D562" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="E562" t="s">
         <v>3505</v>
@@ -33333,7 +33333,7 @@
         <v>3487</v>
       </c>
       <c r="H562" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="I562" t="s">
         <v>3454</v>
@@ -33350,7 +33350,7 @@
         <v>3434</v>
       </c>
       <c r="D563" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="E563" t="s">
         <v>3506</v>
@@ -33362,7 +33362,7 @@
         <v>3488</v>
       </c>
       <c r="H563" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="I563" t="s">
         <v>3591</v>
@@ -33379,7 +33379,7 @@
         <v>3435</v>
       </c>
       <c r="D564" t="s">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="E564" t="s">
         <v>3507</v>
@@ -33391,7 +33391,7 @@
         <v>3489</v>
       </c>
       <c r="H564" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="I564" t="s">
         <v>3455</v>
@@ -33408,7 +33408,7 @@
         <v>3438</v>
       </c>
       <c r="D565" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="E565" t="s">
         <v>3508</v>
@@ -33420,7 +33420,7 @@
         <v>3490</v>
       </c>
       <c r="H565" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="I565" t="s">
         <v>3456</v>
@@ -33437,7 +33437,7 @@
         <v>3439</v>
       </c>
       <c r="D566" t="s">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="E566" t="s">
         <v>3509</v>
@@ -33449,7 +33449,7 @@
         <v>3491</v>
       </c>
       <c r="H566" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="I566" t="s">
         <v>3457</v>
@@ -33466,7 +33466,7 @@
         <v>3440</v>
       </c>
       <c r="D567" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="E567" t="s">
         <v>3510</v>
@@ -33478,7 +33478,7 @@
         <v>3492</v>
       </c>
       <c r="H567" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="I567" t="s">
         <v>3458</v>
@@ -33495,7 +33495,7 @@
         <v>3436</v>
       </c>
       <c r="D568" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="E568" t="s">
         <v>3511</v>
@@ -33507,7 +33507,7 @@
         <v>3493</v>
       </c>
       <c r="H568" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="I568" t="s">
         <v>3463</v>
@@ -33524,7 +33524,7 @@
         <v>3437</v>
       </c>
       <c r="D569" t="s">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="E569" t="s">
         <v>3512</v>
@@ -33536,7 +33536,7 @@
         <v>3494</v>
       </c>
       <c r="H569" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="I569" t="s">
         <v>3459</v>
@@ -33553,7 +33553,7 @@
         <v>3441</v>
       </c>
       <c r="D570" t="s">
-        <v>5339</v>
+        <v>5338</v>
       </c>
       <c r="E570" t="s">
         <v>3513</v>
@@ -33565,7 +33565,7 @@
         <v>3495</v>
       </c>
       <c r="H570" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="I570" t="s">
         <v>3466</v>
@@ -33582,7 +33582,7 @@
         <v>3445</v>
       </c>
       <c r="D571" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
       <c r="E571" t="s">
         <v>3514</v>
@@ -33594,7 +33594,7 @@
         <v>3496</v>
       </c>
       <c r="H571" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="I571" t="s">
         <v>3467</v>
@@ -33611,7 +33611,7 @@
         <v>3444</v>
       </c>
       <c r="D572" t="s">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="E572" t="s">
         <v>3515</v>
@@ -33623,7 +33623,7 @@
         <v>3497</v>
       </c>
       <c r="H572" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="I572" t="s">
         <v>2875</v>
@@ -33640,7 +33640,7 @@
         <v>3443</v>
       </c>
       <c r="D573" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="E573" t="s">
         <v>3443</v>
@@ -33698,7 +33698,7 @@
         <v>3447</v>
       </c>
       <c r="D575" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="E575" t="s">
         <v>3539</v>
@@ -33710,7 +33710,7 @@
         <v>3546</v>
       </c>
       <c r="H575" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="I575" t="s">
         <v>3460</v>
@@ -33727,7 +33727,7 @@
         <v>3446</v>
       </c>
       <c r="D576" t="s">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="E576" t="s">
         <v>3516</v>
@@ -33739,7 +33739,7 @@
         <v>3500</v>
       </c>
       <c r="H576" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="I576" t="s">
         <v>3592</v>
@@ -33756,7 +33756,7 @@
         <v>3448</v>
       </c>
       <c r="D577" t="s">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="E577" t="s">
         <v>3540</v>
@@ -33768,7 +33768,7 @@
         <v>3545</v>
       </c>
       <c r="H577" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="I577" t="s">
         <v>3593</v>
@@ -33785,7 +33785,7 @@
         <v>3451</v>
       </c>
       <c r="D578" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="E578" t="s">
         <v>3517</v>
@@ -33797,7 +33797,7 @@
         <v>3501</v>
       </c>
       <c r="H578" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I578" t="s">
         <v>3594</v>
@@ -33814,7 +33814,7 @@
         <v>3449</v>
       </c>
       <c r="D579" t="s">
-        <v>5347</v>
+        <v>5346</v>
       </c>
       <c r="E579" t="s">
         <v>3541</v>
@@ -33826,7 +33826,7 @@
         <v>3502</v>
       </c>
       <c r="H579" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="I579" t="s">
         <v>3461</v>
@@ -33843,7 +33843,7 @@
         <v>3452</v>
       </c>
       <c r="D580" t="s">
-        <v>5348</v>
+        <v>5347</v>
       </c>
       <c r="E580" t="s">
         <v>3518</v>
@@ -33855,7 +33855,7 @@
         <v>3503</v>
       </c>
       <c r="H580" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="I580" t="s">
         <v>3468</v>
@@ -33872,7 +33872,7 @@
         <v>3450</v>
       </c>
       <c r="D581" t="s">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="E581" t="s">
         <v>3542</v>
@@ -33884,7 +33884,7 @@
         <v>3547</v>
       </c>
       <c r="H581" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="I581" t="s">
         <v>3462</v>
@@ -33901,7 +33901,7 @@
         <v>3453</v>
       </c>
       <c r="D582" t="s">
-        <v>5350</v>
+        <v>5349</v>
       </c>
       <c r="E582" t="s">
         <v>3537</v>
@@ -33913,7 +33913,7 @@
         <v>3504</v>
       </c>
       <c r="H582" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="I582" t="s">
         <v>3469</v>
@@ -33930,7 +33930,7 @@
         <v>3552</v>
       </c>
       <c r="D583" t="s">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="E583" t="s">
         <v>3568</v>
@@ -33942,7 +33942,7 @@
         <v>3564</v>
       </c>
       <c r="H583" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="I583" t="s">
         <v>3556</v>
@@ -33959,7 +33959,7 @@
         <v>3562</v>
       </c>
       <c r="D584" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="E584" t="s">
         <v>3569</v>
@@ -33971,7 +33971,7 @@
         <v>3565</v>
       </c>
       <c r="H584" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="I584" t="s">
         <v>3555</v>
@@ -33988,7 +33988,7 @@
         <v>3563</v>
       </c>
       <c r="D585" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="E585" t="s">
         <v>3570</v>
@@ -34000,7 +34000,7 @@
         <v>3566</v>
       </c>
       <c r="H585" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="I585" t="s">
         <v>3557</v>
@@ -34017,7 +34017,7 @@
         <v>3553</v>
       </c>
       <c r="D586" t="s">
-        <v>5354</v>
+        <v>5353</v>
       </c>
       <c r="E586" t="s">
         <v>3571</v>
@@ -34029,7 +34029,7 @@
         <v>3567</v>
       </c>
       <c r="H586" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="I586" t="s">
         <v>3554</v>
@@ -34046,7 +34046,7 @@
         <v>3580</v>
       </c>
       <c r="D587" t="s">
-        <v>5355</v>
+        <v>5354</v>
       </c>
       <c r="E587" t="s">
         <v>3582</v>
@@ -34058,7 +34058,7 @@
         <v>3581</v>
       </c>
       <c r="H587" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="I587" t="s">
         <v>3579</v>
@@ -34075,7 +34075,7 @@
         <v>3586</v>
       </c>
       <c r="D588" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="E588" t="s">
         <v>3590</v>
@@ -34087,7 +34087,7 @@
         <v>3589</v>
       </c>
       <c r="H588" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="I588" t="s">
         <v>3587</v>
@@ -34104,7 +34104,7 @@
         <v>3603</v>
       </c>
       <c r="D589" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="E589" t="s">
         <v>3606</v>
@@ -34116,7 +34116,7 @@
         <v>3608</v>
       </c>
       <c r="H589" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="I589" t="s">
         <v>3602</v>
@@ -34133,7 +34133,7 @@
         <v>3604</v>
       </c>
       <c r="D590" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="E590" t="s">
         <v>3607</v>
@@ -34145,7 +34145,7 @@
         <v>3609</v>
       </c>
       <c r="H590" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="I590" t="s">
         <v>3605</v>
@@ -34162,7 +34162,7 @@
         <v>3665</v>
       </c>
       <c r="D591" t="s">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="E591" t="s">
         <v>3671</v>
@@ -34174,7 +34174,7 @@
         <v>3673</v>
       </c>
       <c r="H591" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="I591" t="s">
         <v>3666</v>
@@ -34191,7 +34191,7 @@
         <v>3668</v>
       </c>
       <c r="D592" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="E592" t="s">
         <v>3672</v>
@@ -34203,7 +34203,7 @@
         <v>3674</v>
       </c>
       <c r="H592" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="I592" t="s">
         <v>3669</v>
@@ -34220,7 +34220,7 @@
         <v>3700</v>
       </c>
       <c r="D593" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="E593" t="s">
         <v>3701</v>
@@ -34232,10 +34232,10 @@
         <v>3702</v>
       </c>
       <c r="H593" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="I593" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
@@ -34249,7 +34249,7 @@
         <v>3715</v>
       </c>
       <c r="D594" t="s">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="E594" t="s">
         <v>3717</v>
@@ -34261,7 +34261,7 @@
         <v>3718</v>
       </c>
       <c r="H594" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="I594" t="s">
         <v>3714</v>
@@ -34278,7 +34278,7 @@
         <v>3812</v>
       </c>
       <c r="D595" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="E595" t="s">
         <v>3815</v>
@@ -34290,7 +34290,7 @@
         <v>3817</v>
       </c>
       <c r="H595" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="I595" t="s">
         <v>3814</v>
@@ -34307,7 +34307,7 @@
         <v>3813</v>
       </c>
       <c r="D596" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="E596" t="s">
         <v>3816</v>
@@ -34316,10 +34316,10 @@
         <v>3819</v>
       </c>
       <c r="G596" t="s">
+        <v>4611</v>
+      </c>
+      <c r="H596" t="s">
         <v>4612</v>
-      </c>
-      <c r="H596" t="s">
-        <v>4613</v>
       </c>
       <c r="I596" t="s">
         <v>3820</v>
@@ -34336,7 +34336,7 @@
         <v>3857</v>
       </c>
       <c r="D597" t="s">
-        <v>5364</v>
+        <v>5363</v>
       </c>
       <c r="E597" t="s">
         <v>3824</v>
@@ -34348,7 +34348,7 @@
         <v>3826</v>
       </c>
       <c r="H597" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="I597" t="s">
         <v>3823</v>
@@ -34365,7 +34365,7 @@
         <v>3856</v>
       </c>
       <c r="D598" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="E598" s="4" t="s">
         <v>3832</v>
@@ -34377,7 +34377,7 @@
         <v>3831</v>
       </c>
       <c r="H598" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="I598" t="s">
         <v>3829</v>
@@ -34394,7 +34394,7 @@
         <v>3835</v>
       </c>
       <c r="D599" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="E599" s="4" t="s">
         <v>3838</v>
@@ -34406,7 +34406,7 @@
         <v>3839</v>
       </c>
       <c r="H599" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="I599" t="s">
         <v>3836</v>
@@ -34423,7 +34423,7 @@
         <v>3855</v>
       </c>
       <c r="D600" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="E600" t="s">
         <v>3852</v>
@@ -34435,7 +34435,7 @@
         <v>3850</v>
       </c>
       <c r="H600" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="I600" t="s">
         <v>3845</v>
@@ -34449,10 +34449,10 @@
         <v>3847</v>
       </c>
       <c r="C601" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="D601" t="s">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="E601" t="s">
         <v>3853</v>
@@ -34464,7 +34464,7 @@
         <v>3851</v>
       </c>
       <c r="H601" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="I601" t="s">
         <v>3854</v>
@@ -34481,7 +34481,7 @@
         <v>3860</v>
       </c>
       <c r="D602" t="s">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="E602" t="s">
         <v>3866</v>
@@ -34493,7 +34493,7 @@
         <v>3862</v>
       </c>
       <c r="H602" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="I602" t="s">
         <v>3868</v>
@@ -34510,7 +34510,7 @@
         <v>3861</v>
       </c>
       <c r="D603" t="s">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="E603" t="s">
         <v>3867</v>
@@ -34522,7 +34522,7 @@
         <v>3863</v>
       </c>
       <c r="H603" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="I603" t="s">
         <v>3869</v>
@@ -34539,7 +34539,7 @@
         <v>3874</v>
       </c>
       <c r="D604" t="s">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="E604" t="s">
         <v>3875</v>
@@ -34551,7 +34551,7 @@
         <v>3879</v>
       </c>
       <c r="H604" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="I604" t="s">
         <v>3881</v>
@@ -34565,10 +34565,10 @@
         <v>3884</v>
       </c>
       <c r="C605" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="D605" t="s">
-        <v>5372</v>
+        <v>5371</v>
       </c>
       <c r="E605" t="s">
         <v>3876</v>
@@ -34580,7 +34580,7 @@
         <v>3880</v>
       </c>
       <c r="H605" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="I605" t="s">
         <v>3882</v>
@@ -34597,7 +34597,7 @@
         <v>3892</v>
       </c>
       <c r="D606" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="E606" t="s">
         <v>3900</v>
@@ -34609,7 +34609,7 @@
         <v>3896</v>
       </c>
       <c r="H606" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="I606" t="s">
         <v>3892</v>
@@ -34620,13 +34620,13 @@
         <v>3886</v>
       </c>
       <c r="B607" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="C607" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="D607" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="E607" t="s">
         <v>3903</v>
@@ -34638,10 +34638,10 @@
         <v>3898</v>
       </c>
       <c r="H607" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="I607" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -34655,7 +34655,7 @@
         <v>3889</v>
       </c>
       <c r="D608" t="s">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="E608" t="s">
         <v>3902</v>
@@ -34667,7 +34667,7 @@
         <v>3899</v>
       </c>
       <c r="H608" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="I608" t="s">
         <v>3890</v>
@@ -34684,7 +34684,7 @@
         <v>3891</v>
       </c>
       <c r="D609" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="E609" t="s">
         <v>3901</v>
@@ -34696,7 +34696,7 @@
         <v>3897</v>
       </c>
       <c r="H609" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="I609" t="s">
         <v>3893</v>
@@ -34713,7 +34713,7 @@
         <v>3918</v>
       </c>
       <c r="D610" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="E610" t="s">
         <v>3915</v>
@@ -34725,7 +34725,7 @@
         <v>3917</v>
       </c>
       <c r="H610" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="I610" t="s">
         <v>3913</v>
@@ -34742,7 +34742,7 @@
         <v>3940</v>
       </c>
       <c r="D611" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="E611" t="s">
         <v>3948</v>
@@ -34754,7 +34754,7 @@
         <v>3946</v>
       </c>
       <c r="H611" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="I611" t="s">
         <v>3943</v>
@@ -34771,7 +34771,7 @@
         <v>3941</v>
       </c>
       <c r="D612" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="E612" t="s">
         <v>3949</v>
@@ -34783,7 +34783,7 @@
         <v>3947</v>
       </c>
       <c r="H612" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="I612" t="s">
         <v>3942</v>
@@ -34791,727 +34791,727 @@
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B613" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C613" t="s">
         <v>4538</v>
       </c>
-      <c r="B613" t="s">
+      <c r="D613" t="s">
+        <v>5378</v>
+      </c>
+      <c r="E613" t="s">
+        <v>4544</v>
+      </c>
+      <c r="F613" t="s">
+        <v>4543</v>
+      </c>
+      <c r="G613" t="s">
+        <v>4542</v>
+      </c>
+      <c r="H613" t="s">
         <v>4541</v>
       </c>
-      <c r="C613" t="s">
+      <c r="I613" t="s">
         <v>4539</v>
-      </c>
-      <c r="D613" t="s">
-        <v>5379</v>
-      </c>
-      <c r="E613" t="s">
-        <v>4545</v>
-      </c>
-      <c r="F613" t="s">
-        <v>4544</v>
-      </c>
-      <c r="G613" t="s">
-        <v>4543</v>
-      </c>
-      <c r="H613" t="s">
-        <v>4542</v>
-      </c>
-      <c r="I613" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="B614" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="C614" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="D614" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="E614" t="s">
+        <v>4558</v>
+      </c>
+      <c r="F614" t="s">
         <v>4559</v>
       </c>
-      <c r="F614" t="s">
-        <v>4560</v>
-      </c>
       <c r="G614" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="H614" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="I614" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B615" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C615" t="s">
         <v>4547</v>
       </c>
-      <c r="B615" t="s">
-        <v>4573</v>
-      </c>
-      <c r="C615" t="s">
-        <v>4548</v>
-      </c>
       <c r="D615" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="E615" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="F615" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="G615" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="H615" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="I615" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B616" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C616" t="s">
         <v>4549</v>
       </c>
-      <c r="B616" t="s">
-        <v>4574</v>
-      </c>
-      <c r="C616" t="s">
-        <v>4550</v>
-      </c>
       <c r="D616" t="s">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="E616" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="F616" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="G616" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="H616" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="I616" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B617" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C617" t="s">
         <v>4554</v>
       </c>
-      <c r="B617" t="s">
-        <v>4576</v>
-      </c>
-      <c r="C617" t="s">
+      <c r="D617" t="s">
+        <v>5382</v>
+      </c>
+      <c r="E617" t="s">
         <v>4555</v>
       </c>
-      <c r="D617" t="s">
-        <v>5383</v>
-      </c>
-      <c r="E617" t="s">
-        <v>4556</v>
-      </c>
       <c r="F617" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="G617" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="H617" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="I617" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B618" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C618" t="s">
         <v>4643</v>
       </c>
-      <c r="B618" t="s">
+      <c r="D618" t="s">
+        <v>5383</v>
+      </c>
+      <c r="E618" t="s">
+        <v>4648</v>
+      </c>
+      <c r="F618" t="s">
         <v>4646</v>
       </c>
-      <c r="C618" t="s">
+      <c r="G618" t="s">
+        <v>4647</v>
+      </c>
+      <c r="H618" t="s">
+        <v>4649</v>
+      </c>
+      <c r="I618" t="s">
         <v>4644</v>
-      </c>
-      <c r="D618" t="s">
-        <v>5384</v>
-      </c>
-      <c r="E618" t="s">
-        <v>4649</v>
-      </c>
-      <c r="F618" t="s">
-        <v>4647</v>
-      </c>
-      <c r="G618" t="s">
-        <v>4648</v>
-      </c>
-      <c r="H618" t="s">
-        <v>4650</v>
-      </c>
-      <c r="I618" t="s">
-        <v>4645</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="B619" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="C619" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D619" t="s">
+        <v>5384</v>
+      </c>
+      <c r="E619" t="s">
         <v>4662</v>
       </c>
-      <c r="D619" t="s">
-        <v>5385</v>
-      </c>
-      <c r="E619" t="s">
-        <v>4663</v>
-      </c>
       <c r="F619" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="G619" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="H619" t="s">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="I619" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
       <c r="B620" t="s">
-        <v>4676</v>
+        <v>4675</v>
       </c>
       <c r="C620" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D620" t="s">
+        <v>5385</v>
+      </c>
+      <c r="E620" t="s">
+        <v>4663</v>
+      </c>
+      <c r="F620" t="s">
+        <v>4671</v>
+      </c>
+      <c r="G620" t="s">
+        <v>4675</v>
+      </c>
+      <c r="H620" t="s">
+        <v>4667</v>
+      </c>
+      <c r="I620" t="s">
         <v>4655</v>
-      </c>
-      <c r="D620" t="s">
-        <v>5386</v>
-      </c>
-      <c r="E620" t="s">
-        <v>4664</v>
-      </c>
-      <c r="F620" t="s">
-        <v>4672</v>
-      </c>
-      <c r="G620" t="s">
-        <v>4676</v>
-      </c>
-      <c r="H620" t="s">
-        <v>4668</v>
-      </c>
-      <c r="I620" t="s">
-        <v>4656</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
       <c r="B621" t="s">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="C621" t="s">
+        <v>4656</v>
+      </c>
+      <c r="D621" t="s">
+        <v>5386</v>
+      </c>
+      <c r="E621" t="s">
+        <v>4664</v>
+      </c>
+      <c r="F621" t="s">
+        <v>4672</v>
+      </c>
+      <c r="G621" t="s">
+        <v>4676</v>
+      </c>
+      <c r="H621" t="s">
+        <v>4668</v>
+      </c>
+      <c r="I621" t="s">
         <v>4657</v>
-      </c>
-      <c r="D621" t="s">
-        <v>5387</v>
-      </c>
-      <c r="E621" t="s">
-        <v>4665</v>
-      </c>
-      <c r="F621" t="s">
-        <v>4673</v>
-      </c>
-      <c r="G621" t="s">
-        <v>4677</v>
-      </c>
-      <c r="H621" t="s">
-        <v>4669</v>
-      </c>
-      <c r="I621" t="s">
-        <v>4658</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="B622" t="s">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="C622" t="s">
+        <v>4658</v>
+      </c>
+      <c r="D622" t="s">
+        <v>5387</v>
+      </c>
+      <c r="E622" t="s">
+        <v>4665</v>
+      </c>
+      <c r="F622" t="s">
+        <v>4673</v>
+      </c>
+      <c r="G622" t="s">
+        <v>4677</v>
+      </c>
+      <c r="H622" t="s">
+        <v>4669</v>
+      </c>
+      <c r="I622" t="s">
         <v>4659</v>
-      </c>
-      <c r="D622" t="s">
-        <v>5388</v>
-      </c>
-      <c r="E622" t="s">
-        <v>4666</v>
-      </c>
-      <c r="F622" t="s">
-        <v>4674</v>
-      </c>
-      <c r="G622" t="s">
-        <v>4678</v>
-      </c>
-      <c r="H622" t="s">
-        <v>4670</v>
-      </c>
-      <c r="I622" t="s">
-        <v>4660</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="B623" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="C623" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="D623" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="E623" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="F623" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="G623" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="H623" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="I623" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="B624" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="C624" t="s">
-        <v>4686</v>
+        <v>4685</v>
       </c>
       <c r="D624" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="E624" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="F624" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="G624" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="H624" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="I624" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
       <c r="B625" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="C625" t="s">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="D625" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
       <c r="E625" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="F625" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="G625" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="H625" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="I625" t="s">
-        <v>4690</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="B626" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="C626" t="s">
+        <v>4690</v>
+      </c>
+      <c r="D626" t="s">
+        <v>5391</v>
+      </c>
+      <c r="E626" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F626" t="s">
+        <v>4703</v>
+      </c>
+      <c r="G626" t="s">
+        <v>4715</v>
+      </c>
+      <c r="H626" t="s">
+        <v>4711</v>
+      </c>
+      <c r="I626" t="s">
         <v>4691</v>
-      </c>
-      <c r="D626" t="s">
-        <v>5392</v>
-      </c>
-      <c r="E626" t="s">
-        <v>4708</v>
-      </c>
-      <c r="F626" t="s">
-        <v>4704</v>
-      </c>
-      <c r="G626" t="s">
-        <v>4716</v>
-      </c>
-      <c r="H626" t="s">
-        <v>4712</v>
-      </c>
-      <c r="I626" t="s">
-        <v>4692</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="B627" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="C627" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="D627" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="E627" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="F627" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="G627" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="H627" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="I627" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="B628" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="C628" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="D628" t="s">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="E628" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="F628" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="G628" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="H628" t="s">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="I628" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B629" t="s">
+        <v>5427</v>
+      </c>
+      <c r="C629" t="s">
         <v>5426</v>
       </c>
-      <c r="B629" t="s">
+      <c r="D629" t="s">
         <v>5428</v>
       </c>
-      <c r="C629" t="s">
+      <c r="E629" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F629" t="s">
+        <v>5432</v>
+      </c>
+      <c r="G629" t="s">
+        <v>5430</v>
+      </c>
+      <c r="H629" t="s">
+        <v>5431</v>
+      </c>
+      <c r="I629" t="s">
         <v>5427</v>
-      </c>
-      <c r="D629" t="s">
-        <v>5429</v>
-      </c>
-      <c r="E629" t="s">
-        <v>5430</v>
-      </c>
-      <c r="F629" t="s">
-        <v>5433</v>
-      </c>
-      <c r="G629" t="s">
-        <v>5431</v>
-      </c>
-      <c r="H629" t="s">
-        <v>5432</v>
-      </c>
-      <c r="I629" t="s">
-        <v>5428</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="B630" t="s">
-        <v>5450</v>
+        <v>5449</v>
       </c>
       <c r="C630" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="D630" t="s">
-        <v>5448</v>
+        <v>5447</v>
       </c>
       <c r="E630" t="s">
-        <v>5447</v>
+        <v>5446</v>
       </c>
       <c r="F630" t="s">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="G630" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="H630" t="s">
-        <v>5442</v>
+        <v>5441</v>
       </c>
       <c r="I630" t="s">
-        <v>5438</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
       <c r="B631" t="s">
-        <v>5451</v>
+        <v>5450</v>
       </c>
       <c r="C631" t="s">
-        <v>5437</v>
+        <v>5436</v>
       </c>
       <c r="D631" t="s">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="E631" t="s">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="F631" t="s">
-        <v>5441</v>
+        <v>5440</v>
       </c>
       <c r="G631" t="s">
-        <v>5445</v>
+        <v>5444</v>
       </c>
       <c r="H631" t="s">
-        <v>5443</v>
+        <v>5442</v>
       </c>
       <c r="I631" t="s">
-        <v>5439</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B632" t="s">
+        <v>5454</v>
+      </c>
+      <c r="C632" t="s">
+        <v>5453</v>
+      </c>
+      <c r="D632" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E632" t="s">
+        <v>5456</v>
+      </c>
+      <c r="F632" t="s">
+        <v>5459</v>
+      </c>
+      <c r="G632" t="s">
+        <v>5457</v>
+      </c>
+      <c r="H632" t="s">
+        <v>5458</v>
+      </c>
+      <c r="I632" t="s">
         <v>5452</v>
-      </c>
-      <c r="B632" t="s">
-        <v>5455</v>
-      </c>
-      <c r="C632" t="s">
-        <v>5454</v>
-      </c>
-      <c r="D632" t="s">
-        <v>5456</v>
-      </c>
-      <c r="E632" t="s">
-        <v>5457</v>
-      </c>
-      <c r="F632" t="s">
-        <v>5460</v>
-      </c>
-      <c r="G632" t="s">
-        <v>5458</v>
-      </c>
-      <c r="H632" t="s">
-        <v>5459</v>
-      </c>
-      <c r="I632" t="s">
-        <v>5453</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
       <c r="B633" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="C633" t="s">
-        <v>5463</v>
+        <v>5462</v>
       </c>
       <c r="D633" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="E633" t="s">
-        <v>5510</v>
+        <v>5509</v>
       </c>
       <c r="F633" t="s">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="G633" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="H633" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="I633" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="B634" t="s">
+        <v>5491</v>
+      </c>
+      <c r="C634" t="s">
+        <v>5463</v>
+      </c>
+      <c r="D634" t="s">
+        <v>5527</v>
+      </c>
+      <c r="E634" t="s">
+        <v>5510</v>
+      </c>
+      <c r="F634" t="s">
+        <v>5494</v>
+      </c>
+      <c r="G634" t="s">
+        <v>5519</v>
+      </c>
+      <c r="H634" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I634" t="s">
         <v>5492</v>
-      </c>
-      <c r="C634" t="s">
-        <v>5464</v>
-      </c>
-      <c r="D634" t="s">
-        <v>5528</v>
-      </c>
-      <c r="E634" t="s">
-        <v>5511</v>
-      </c>
-      <c r="F634" t="s">
-        <v>5495</v>
-      </c>
-      <c r="G634" t="s">
-        <v>5520</v>
-      </c>
-      <c r="H634" t="s">
-        <v>5503</v>
-      </c>
-      <c r="I634" t="s">
-        <v>5493</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>5465</v>
+        <v>5464</v>
       </c>
       <c r="B635" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="C635" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
       <c r="D635" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="E635" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
       <c r="F635" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="G635" t="s">
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="H635" t="s">
-        <v>5504</v>
+        <v>5503</v>
       </c>
       <c r="I635" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>5465</v>
+      </c>
+      <c r="B636" t="s">
+        <v>5485</v>
+      </c>
+      <c r="C636" t="s">
         <v>5466</v>
       </c>
-      <c r="B636" t="s">
-        <v>5486</v>
-      </c>
-      <c r="C636" t="s">
-        <v>5467</v>
-      </c>
       <c r="D636" t="s">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="E636" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="F636" t="s">
-        <v>5497</v>
+        <v>5496</v>
       </c>
       <c r="G636" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="H636" t="s">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="I636" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>5469</v>
+        <v>5468</v>
       </c>
       <c r="B637" t="s">
-        <v>5487</v>
+        <v>5486</v>
       </c>
       <c r="C637" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="D637" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="E637" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
       <c r="F637" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="G637" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="H637" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="I637" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
@@ -35519,16 +35519,16 @@
         <v>271</v>
       </c>
       <c r="B638" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="C638" t="s">
         <v>1232</v>
       </c>
       <c r="D638" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="E638" t="s">
-        <v>5515</v>
+        <v>5514</v>
       </c>
       <c r="F638" t="s">
         <v>2092</v>
@@ -35545,89 +35545,89 @@
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
       <c r="B639" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
       <c r="C639" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
       <c r="D639" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="E639" t="s">
-        <v>5516</v>
+        <v>5515</v>
       </c>
       <c r="F639" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="G639" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="H639" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="I639" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>5471</v>
+        <v>5470</v>
       </c>
       <c r="B640" t="s">
-        <v>5490</v>
+        <v>5489</v>
       </c>
       <c r="C640" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="D640" t="s">
-        <v>5533</v>
+        <v>5532</v>
       </c>
       <c r="E640" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="F640" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="G640" t="s">
-        <v>5525</v>
+        <v>5524</v>
       </c>
       <c r="H640" t="s">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="I640" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
       <c r="B641" t="s">
-        <v>5491</v>
+        <v>5490</v>
       </c>
       <c r="C641" t="s">
+        <v>5475</v>
+      </c>
+      <c r="D641" t="s">
+        <v>5533</v>
+      </c>
+      <c r="E641" t="s">
+        <v>5517</v>
+      </c>
+      <c r="F641" t="s">
+        <v>5500</v>
+      </c>
+      <c r="G641" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H641" t="s">
+        <v>5508</v>
+      </c>
+      <c r="I641" t="s">
         <v>5476</v>
-      </c>
-      <c r="D641" t="s">
-        <v>5534</v>
-      </c>
-      <c r="E641" t="s">
-        <v>5518</v>
-      </c>
-      <c r="F641" t="s">
-        <v>5501</v>
-      </c>
-      <c r="G641" t="s">
-        <v>5526</v>
-      </c>
-      <c r="H641" t="s">
-        <v>5509</v>
-      </c>
-      <c r="I641" t="s">
-        <v>5477</v>
       </c>
     </row>
   </sheetData>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B8D5A-2B6B-41F7-AE14-39F23B0F8C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DAD6F2-7135-4C3F-BEC5-F79BC45A60C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3208" yWindow="1839" windowWidth="36784" windowHeight="14643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6910" uniqueCount="6630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6950" uniqueCount="6670">
   <si>
     <t>keys</t>
   </si>
@@ -19938,6 +19938,126 @@
   </si>
   <si>
     <t>Whether the time part should be displayed in bold font.</t>
+  </si>
+  <si>
+    <t>reboot_on_hdmi_plug_in</t>
+  </si>
+  <si>
+    <t>reboot_on_hdmi_plug_in_help</t>
+  </si>
+  <si>
+    <t>Reboot on HDMI plug in</t>
+  </si>
+  <si>
+    <t>After detecting the HDMI cable was plugged in, the app will automatically reboot the device. Usable on some devices with video decoding problems when no HDMI device is plugged in.</t>
+  </si>
+  <si>
+    <t>Reštartovať zariadenie pri pripojení HDMI kábla</t>
+  </si>
+  <si>
+    <t>Po zapojení HDMI kábla sa zariadenie automaticky reštartuje. Vhodné pre niektoré zariadenia s problémami pri dekódovaní videa, ak nie je zapojené žiadne HDMI zariadenie.</t>
+  </si>
+  <si>
+    <t>Restartovat zařízení při připojení HDMI kabelu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po zapojení kabelu HDMI se zařízení automaticky restartuje. Vhodné pro některá zařízení s problémy při dekódování videa, pokud není zapojeno žádné HDMI zařízení. </t>
+  </si>
+  <si>
+    <t>Reinicie no plug-in HDMI</t>
+  </si>
+  <si>
+    <t>Depois de detectar que o cabo HDMI foi conectado, o aplicativo irá reiniciar automaticamente o dispositivo. Pode ser usado em alguns dispositivos com problemas de decodificação de vídeo quando nenhum dispositivo HDMI está conectado.</t>
+  </si>
+  <si>
+    <t>Ponovo pokrenite na HDMI priključku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakon što otkrije da je HDMI kabel priključen, aplikacija će automatski ponovno pokrenuti uređaj. Koristi se na nekim uređajima s problemima dekodiranja videa ako nije priključen HDMI uređaj. </t>
+  </si>
+  <si>
+    <t>Neustart über HDMI-Plug-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem das HDMI-Kabel eingesteckt wurde, startet die App das Gerät automatisch neu. Verwendbar auf einigen Geräten mit Videodecodierungsproblemen, wenn kein HDMI-Gerät angeschlossen ist. </t>
+  </si>
+  <si>
+    <t>Redémarrer sur prise HDMI</t>
+  </si>
+  <si>
+    <t>Après avoir détecté que le câble HDMI était branché, l'application redémarrera automatiquement l'appareil. Utilisable sur certains appareils ayant des problèmes de décodage vidéo lorsqu'aucun appareil HDMI n'est branché.</t>
+  </si>
+  <si>
+    <t>Riavvia sulla presa HDMI</t>
+  </si>
+  <si>
+    <t>Dopo aver rilevato che il cavo HDMI è stato collegato, l'app riavvierà automaticamente il dispositivo. Utilizzabile su alcuni dispositivi con problemi di decodifica video quando non è collegato alcun dispositivo HDMI.</t>
+  </si>
+  <si>
+    <t>Uruchom ponownie po wtyczce HDMI</t>
+  </si>
+  <si>
+    <t>Po wykryciu, że kabel HDMI został podłączony, aplikacja automatycznie zrestartuje urządzenie. Można używać na niektórych urządzeniach z problemami z dekodowaniem wideo, gdy żadne urządzenie HDMI nie jest podłączone.</t>
+  </si>
+  <si>
+    <t>preload_items_in_playlist</t>
+  </si>
+  <si>
+    <t>preload_items_in_playlist_help</t>
+  </si>
+  <si>
+    <t>Preload items in playlist</t>
+  </si>
+  <si>
+    <t>Prednačítať položky v playliste</t>
+  </si>
+  <si>
+    <t>Allow loading some of the items (e.g. video files) in advance, so the delay between items is shorter.</t>
+  </si>
+  <si>
+    <t>Povoliť načítanie niektorých položiek (napr. video súbory) dopredu, aby bola pauza medzi položkami kratšia.</t>
+  </si>
+  <si>
+    <t>Pré-carregar itens na lista de reprodução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o carregamento de alguns dos itens (por exemplo, arquivos de vídeo) com antecedência, para que o atraso entre os itens seja menor. </t>
+  </si>
+  <si>
+    <t>Precarica elementi nella playlist</t>
+  </si>
+  <si>
+    <t>Consenti il caricamento anticipato di alcuni elementi (ad es. file video), in modo che il ritardo tra gli elementi sia più breve.</t>
+  </si>
+  <si>
+    <t>Wstępnie wczytuj elementy z listy odtwarzania</t>
+  </si>
+  <si>
+    <t>Zezwól na wczytanie niektórych elementów (np. plików wideo) z wyprzedzeniem, aby opóźnienie między elementami było krótsze.</t>
+  </si>
+  <si>
+    <t>Elemente in Playlist vorladen</t>
+  </si>
+  <si>
+    <t>Lassen Sie einige der Elemente (z. B. Videodateien) im Voraus laden, damit die Verzögerung zwischen den Elementen kürzer ist.</t>
+  </si>
+  <si>
+    <t>Précharger des éléments dans la liste de lecture</t>
+  </si>
+  <si>
+    <t>Autorisez le chargement de certains éléments (par exemple, des fichiers vidéo) à l'avance, afin que le délai entre les éléments soit plus court.</t>
+  </si>
+  <si>
+    <t>Unaprijed učitajte stavke na popisu za reprodukciju</t>
+  </si>
+  <si>
+    <t>Dopustite unaprijed učitavanje nekih stavki (npr. Video datoteka) kako bi kašnjenje između stavki bilo kraće.</t>
+  </si>
+  <si>
+    <t>Povolit načítání některých položek (např. video soubory) dopředu, aby byla pauza mezi položkami kratší.</t>
+  </si>
+  <si>
+    <t>Prednačítat položky v playlistu</t>
   </si>
 </sst>
 </file>
@@ -20306,13 +20426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J691"/>
+  <dimension ref="A1:J695"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B676" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D691" sqref="D691"/>
+      <selection pane="bottomRight" activeCell="C695" sqref="C695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -42441,6 +42561,134 @@
         <v>6614</v>
       </c>
     </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>6630</v>
+      </c>
+      <c r="B692" t="s">
+        <v>6640</v>
+      </c>
+      <c r="C692" t="s">
+        <v>6636</v>
+      </c>
+      <c r="D692" t="s">
+        <v>6632</v>
+      </c>
+      <c r="E692" t="s">
+        <v>6644</v>
+      </c>
+      <c r="F692" t="s">
+        <v>6642</v>
+      </c>
+      <c r="G692" t="s">
+        <v>6646</v>
+      </c>
+      <c r="H692" t="s">
+        <v>6648</v>
+      </c>
+      <c r="I692" t="s">
+        <v>6638</v>
+      </c>
+      <c r="J692" s="6" t="s">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>6631</v>
+      </c>
+      <c r="B693" t="s">
+        <v>6641</v>
+      </c>
+      <c r="C693" t="s">
+        <v>6637</v>
+      </c>
+      <c r="D693" t="s">
+        <v>6633</v>
+      </c>
+      <c r="E693" t="s">
+        <v>6645</v>
+      </c>
+      <c r="F693" t="s">
+        <v>6643</v>
+      </c>
+      <c r="G693" t="s">
+        <v>6647</v>
+      </c>
+      <c r="H693" t="s">
+        <v>6649</v>
+      </c>
+      <c r="I693" t="s">
+        <v>6639</v>
+      </c>
+      <c r="J693" s="6" t="s">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>6650</v>
+      </c>
+      <c r="B694" t="s">
+        <v>6666</v>
+      </c>
+      <c r="C694" t="s">
+        <v>6669</v>
+      </c>
+      <c r="D694" t="s">
+        <v>6652</v>
+      </c>
+      <c r="E694" t="s">
+        <v>6664</v>
+      </c>
+      <c r="F694" t="s">
+        <v>6662</v>
+      </c>
+      <c r="G694" t="s">
+        <v>6658</v>
+      </c>
+      <c r="H694" t="s">
+        <v>6660</v>
+      </c>
+      <c r="I694" t="s">
+        <v>6656</v>
+      </c>
+      <c r="J694" s="6" t="s">
+        <v>6653</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>6651</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6667</v>
+      </c>
+      <c r="C695" t="s">
+        <v>6668</v>
+      </c>
+      <c r="D695" t="s">
+        <v>6654</v>
+      </c>
+      <c r="E695" t="s">
+        <v>6665</v>
+      </c>
+      <c r="F695" t="s">
+        <v>6663</v>
+      </c>
+      <c r="G695" t="s">
+        <v>6659</v>
+      </c>
+      <c r="H695" t="s">
+        <v>6661</v>
+      </c>
+      <c r="I695" t="s">
+        <v>6657</v>
+      </c>
+      <c r="J695" s="6" t="s">
+        <v>6655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B1ACC-6F22-4E67-9080-3B3F08A23AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DE67F-2B5E-4E9C-8536-8D4BC1BAD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="49274" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4234" windowWidth="49046" windowHeight="9995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8424" uniqueCount="8090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8438" uniqueCount="8104">
   <si>
     <t>keys</t>
   </si>
@@ -24290,6 +24290,48 @@
   </si>
   <si>
     <t>Нажмите кнопку выше, чтобы войти в свою учетную запись %s. Браузер откроется на &lt;b&gt;экране устройства&lt;/b&gt; с формой входа (это означает, что вам потребуется прямой доступ к устройству). После входа в систему вернитесь в приложение, чтобы продолжить. Прежде чем продолжить, ознакомьтесь с политикой конфиденциальности на странице &lt;a href="https://slideshow.digital/privacy-policy/" target="_blank"&gt;https://slideshow.digital/privacy-policy&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Can't open settings directly. Please try navigating to Android Settings - Apps - this app - Permissions and allow "Appear on top" or "Display over other apps" permission.</t>
+  </si>
+  <si>
+    <t>permission_start_at_boot_error</t>
+  </si>
+  <si>
+    <t>Не могу открыть настройки напрямую. Попробуйте перейти в Настройки Android - Приложения - Это приложение - Разрешения и разрешите «Отображать поверх других приложений» или «Отображать поверх других приложений».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nastavení nelze otevřít přímo. Zkuste prosím přejít do Nastavení Androidu – Aplikace – tato aplikace – Oprávnění a povolte oprávnění „Zobrazovat nahoře“ nebo „Zobrazovat přes jiné aplikace“. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nastavenia nie je možné otvoriť priamo. Skúste prejsť do časti Nastavenia systému Android – Aplikácie – táto aplikácia – Povolenia a povoľte „Zobraziť navrchu“ alebo „Zobraziť cez iné aplikácie“. </t>
+  </si>
+  <si>
+    <t>Ne mogu izravno otvoriti postavke. Pokušajte prijeći na Postavke Androida - Aplikacije - ova aplikacija - Dopuštenja i dopustite "Pojavi se na vrhu" ili "Prikaz preko drugih aplikacija".</t>
+  </si>
+  <si>
+    <t>Impossible d'ouvrir les paramètres directement. Veuillez essayer de naviguer vers Paramètres Android - Applications - cette application - Autorisations et autorisez "Apparaître en haut" ou "Afficher sur d'autres applications".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellungen können nicht direkt geöffnet werden. Bitte versuchen Sie, zu Android-Einstellungen - Apps - Diese App - Berechtigungen zu navigieren und "Oben anzeigen" oder "Über anderen Apps anzeigen" zuzulassen. </t>
+  </si>
+  <si>
+    <t>Impossibile aprire le impostazioni direttamente. Prova a navigare in Impostazioni Android - App - questa app - Autorizzazioni e consenti "Appari in primo piano" o "Visualizza su altre app".</t>
+  </si>
+  <si>
+    <t>Nie można bezpośrednio otworzyć ustawień. Spróbuj przejść do Ustawienia Androida – Aplikacje – ta aplikacja – Uprawnienia i zezwól na „Wyświetlaj na wierzchu” lub „Wyświetlaj nad innymi aplikacjami”.</t>
+  </si>
+  <si>
+    <t>Não é possível abrir as configurações diretamente. Tente navegar para Configurações do Android - Aplicativos - este aplicativo - Permissões e permitir "Aparecer na parte superior" ou "Exibir sobre outros aplicativos".</t>
+  </si>
+  <si>
+    <t>No se puede abrir la configuración directamente. Intente navegar a Configuración de Android - Aplicaciones - esta aplicación - Permisos y permita "Aparecer en la parte superior" o "Mostrar sobre otras aplicaciones".</t>
+  </si>
+  <si>
+    <t>storage_permissions</t>
+  </si>
+  <si>
+    <t>Storage permissions</t>
   </si>
 </sst>
 </file>
@@ -24647,13 +24689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L702"/>
+  <dimension ref="A1:L704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B476" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B677" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J503" sqref="J503"/>
+      <selection pane="bottomRight" activeCell="D705" sqref="D705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -51342,6 +51384,52 @@
         <v>7386</v>
       </c>
     </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>8091</v>
+      </c>
+      <c r="B703" t="s">
+        <v>8095</v>
+      </c>
+      <c r="C703" t="s">
+        <v>8093</v>
+      </c>
+      <c r="D703" t="s">
+        <v>8090</v>
+      </c>
+      <c r="E703" t="s">
+        <v>8096</v>
+      </c>
+      <c r="F703" t="s">
+        <v>8097</v>
+      </c>
+      <c r="G703" t="s">
+        <v>8098</v>
+      </c>
+      <c r="H703" t="s">
+        <v>8099</v>
+      </c>
+      <c r="I703" t="s">
+        <v>8100</v>
+      </c>
+      <c r="J703" t="s">
+        <v>8092</v>
+      </c>
+      <c r="K703" t="s">
+        <v>8094</v>
+      </c>
+      <c r="L703" t="s">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>8102</v>
+      </c>
+      <c r="D704" t="s">
+        <v>8103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\slideshow-localization-master (1)\slideshow-localization-master\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCV-DELL0010\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063BD5E5-408A-4FAD-98F4-5DFF65D37FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14589A3-B163-40EB-9732-D934CD6BD305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1755" windowWidth="28800" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -26390,15 +26390,6 @@
     <t>前のテキスト</t>
   </si>
   <si>
-    <t>今日の祝日</t>
-  </si>
-  <si>
-    <t>祝日は</t>
-  </si>
-  <si>
-    <t>祝日カレンダー</t>
-  </si>
-  <si>
     <t>バックアップXMLファイルのXSDスキーマ</t>
   </si>
   <si>
@@ -26772,7 +26763,7 @@
   </si>
   <si>
     <t>Remember login</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Japanese</t>
@@ -26845,18 +26836,38 @@
   </si>
   <si>
     <t>&lt;p&gt;スライドショーアプリが正常に新しいバージョンに更新されました。次の新機能があります。&lt;/p&gt;&lt;ul&gt; &lt;li&gt; MQTT：WebSocketのサポートの追加、オプションの自動統計送信、カスタムトピック設定&lt;/li&gt; &lt;li&gt;ファイルマネージャー：特定のファイルの長さやミュートを設定する機能が追加されましたプロパティ経由&lt;/li&gt;&lt;li&gt;ホームページ：ウェルカムメッセージを追加（更新後の最初の起動時のみ）&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;機能のドキュメントは、&lt;a href = "https：// slideshow.digital/documentation/ "target =" _ blank "&gt;https://slideshow.digital/documentation/&lt;/a&gt;および&lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ"のチュートリアルをご覧くださいtarget = "_ blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;スライドショーアプリが気に入った場合は、&lt;a hrefでアプリを評価することで開発をサポートできます。 = "https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target = "_ blank"&gt; GooglePlay&lt;/a&gt;または&lt;a href="https://ko-fi.com/slideshow" target =" _blank"&gt;コーヒーを購入してください&lt;/a&gt;。&lt;/p&gt;&lt;span style ='float：right'&gt;-開発チーム-&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>今日のname_day</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>name_dayは</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>name_dayカレンダー</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26899,16 +26910,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27229,10 +27243,10 @@
   <dimension ref="A1:M714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C694" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C567" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M714"/>
+      <selection pane="bottomRight" activeCell="M579" sqref="M579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27324,7 +27338,7 @@
         <v>6485</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>8914</v>
+        <v>8911</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -28103,7 +28117,7 @@
         <v>6500</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>8915</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -28144,7 +28158,7 @@
         <v>6501</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>8916</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -34868,7 +34882,7 @@
         <v>6647</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>8917</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
@@ -37656,7 +37670,7 @@
         <v>6713</v>
       </c>
       <c r="M254" s="4" t="s">
-        <v>8918</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
@@ -40772,7 +40786,7 @@
         <v>6783</v>
       </c>
       <c r="M330" s="4" t="s">
-        <v>8919</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.4">
@@ -43191,7 +43205,7 @@
         <v>6837</v>
       </c>
       <c r="M389" s="4" t="s">
-        <v>8920</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.4">
@@ -45077,7 +45091,7 @@
         <v>6881</v>
       </c>
       <c r="M435" s="4" t="s">
-        <v>8921</v>
+        <v>8918</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.4">
@@ -45569,7 +45583,7 @@
         <v>6893</v>
       </c>
       <c r="M447" s="4" t="s">
-        <v>8922</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.4">
@@ -45692,7 +45706,7 @@
         <v>6896</v>
       </c>
       <c r="M450" s="4" t="s">
-        <v>8923</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.4">
@@ -45897,7 +45911,7 @@
         <v>6814</v>
       </c>
       <c r="M455" s="4" t="s">
-        <v>8924</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.4">
@@ -45979,7 +45993,7 @@
         <v>6902</v>
       </c>
       <c r="M457" s="4" t="s">
-        <v>8925</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.4">
@@ -46020,7 +46034,7 @@
         <v>6903</v>
       </c>
       <c r="M458" s="4" t="s">
-        <v>8926</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.4">
@@ -46389,7 +46403,7 @@
         <v>6911</v>
       </c>
       <c r="M467" s="4" t="s">
-        <v>8927</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.4">
@@ -46444,7 +46458,7 @@
         <v>1794</v>
       </c>
       <c r="D469" t="s">
-        <v>8913</v>
+        <v>8910</v>
       </c>
       <c r="E469" t="s">
         <v>3082</v>
@@ -46922,7 +46936,7 @@
         <v>6922</v>
       </c>
       <c r="M480" s="4" t="s">
-        <v>8928</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.4">
@@ -50898,8 +50912,8 @@
       <c r="L577" t="s">
         <v>7002</v>
       </c>
-      <c r="M577" s="4" t="s">
-        <v>8786</v>
+      <c r="M577" s="5" t="s">
+        <v>8935</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.4">
@@ -50939,8 +50953,8 @@
       <c r="L578" t="s">
         <v>7003</v>
       </c>
-      <c r="M578" s="4" t="s">
-        <v>8787</v>
+      <c r="M578" s="5" t="s">
+        <v>8936</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.4">
@@ -50980,8 +50994,8 @@
       <c r="L579" t="s">
         <v>7004</v>
       </c>
-      <c r="M579" s="4" t="s">
-        <v>8788</v>
+      <c r="M579" s="5" t="s">
+        <v>8937</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.4">
@@ -51022,7 +51036,7 @@
         <v>7005</v>
       </c>
       <c r="M580" s="4" t="s">
-        <v>8789</v>
+        <v>8786</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.4">
@@ -51063,7 +51077,7 @@
         <v>7006</v>
       </c>
       <c r="M581" s="4" t="s">
-        <v>8790</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.4">
@@ -51104,7 +51118,7 @@
         <v>7007</v>
       </c>
       <c r="M582" s="4" t="s">
-        <v>8791</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.4">
@@ -51145,7 +51159,7 @@
         <v>7008</v>
       </c>
       <c r="M583" s="4" t="s">
-        <v>8792</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.4">
@@ -51186,7 +51200,7 @@
         <v>7924</v>
       </c>
       <c r="M584" s="4" t="s">
-        <v>8793</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.4">
@@ -51227,7 +51241,7 @@
         <v>2536</v>
       </c>
       <c r="M585" s="4" t="s">
-        <v>8794</v>
+        <v>8791</v>
       </c>
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.4">
@@ -51268,7 +51282,7 @@
         <v>7009</v>
       </c>
       <c r="M586" s="4" t="s">
-        <v>8795</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.4">
@@ -51309,7 +51323,7 @@
         <v>7010</v>
       </c>
       <c r="M587" s="4" t="s">
-        <v>8796</v>
+        <v>8793</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.4">
@@ -51350,7 +51364,7 @@
         <v>7011</v>
       </c>
       <c r="M588" s="4" t="s">
-        <v>8797</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.4">
@@ -51391,7 +51405,7 @@
         <v>7012</v>
       </c>
       <c r="M589" s="4" t="s">
-        <v>8798</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.4">
@@ -51432,7 +51446,7 @@
         <v>7013</v>
       </c>
       <c r="M590" s="4" t="s">
-        <v>8799</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.4">
@@ -51473,7 +51487,7 @@
         <v>7014</v>
       </c>
       <c r="M591" s="4" t="s">
-        <v>8800</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.4">
@@ -51514,7 +51528,7 @@
         <v>7015</v>
       </c>
       <c r="M592" s="4" t="s">
-        <v>8801</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.4">
@@ -51555,7 +51569,7 @@
         <v>7016</v>
       </c>
       <c r="M593" s="4" t="s">
-        <v>8802</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.4">
@@ -51596,7 +51610,7 @@
         <v>7017</v>
       </c>
       <c r="M594" s="4" t="s">
-        <v>8803</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.4">
@@ -51637,7 +51651,7 @@
         <v>7018</v>
       </c>
       <c r="M595" s="4" t="s">
-        <v>8804</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.4">
@@ -51678,7 +51692,7 @@
         <v>7019</v>
       </c>
       <c r="M596" s="4" t="s">
-        <v>8805</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.4">
@@ -51719,7 +51733,7 @@
         <v>7020</v>
       </c>
       <c r="M597" s="4" t="s">
-        <v>8806</v>
+        <v>8803</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.4">
@@ -51760,7 +51774,7 @@
         <v>7021</v>
       </c>
       <c r="M598" s="4" t="s">
-        <v>8807</v>
+        <v>8804</v>
       </c>
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.4">
@@ -51801,7 +51815,7 @@
         <v>7022</v>
       </c>
       <c r="M599" s="4" t="s">
-        <v>8808</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.4">
@@ -51842,7 +51856,7 @@
         <v>5803</v>
       </c>
       <c r="M600" s="4" t="s">
-        <v>8809</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.4">
@@ -51883,7 +51897,7 @@
         <v>7023</v>
       </c>
       <c r="M601" s="4" t="s">
-        <v>8810</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.4">
@@ -51924,7 +51938,7 @@
         <v>7024</v>
       </c>
       <c r="M602" s="4" t="s">
-        <v>8811</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.4">
@@ -51965,7 +51979,7 @@
         <v>7025</v>
       </c>
       <c r="M603" s="4" t="s">
-        <v>8812</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.4">
@@ -52006,7 +52020,7 @@
         <v>7026</v>
       </c>
       <c r="M604" s="4" t="s">
-        <v>8813</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.4">
@@ -52047,7 +52061,7 @@
         <v>7027</v>
       </c>
       <c r="M605" s="4" t="s">
-        <v>8814</v>
+        <v>8811</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.4">
@@ -52088,7 +52102,7 @@
         <v>7028</v>
       </c>
       <c r="M606" s="4" t="s">
-        <v>8815</v>
+        <v>8812</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.4">
@@ -52129,7 +52143,7 @@
         <v>7029</v>
       </c>
       <c r="M607" s="4" t="s">
-        <v>8816</v>
+        <v>8813</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.4">
@@ -52170,7 +52184,7 @@
         <v>7030</v>
       </c>
       <c r="M608" s="4" t="s">
-        <v>8817</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.4">
@@ -52211,7 +52225,7 @@
         <v>7031</v>
       </c>
       <c r="M609" s="4" t="s">
-        <v>8818</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.4">
@@ -52252,7 +52266,7 @@
         <v>7032</v>
       </c>
       <c r="M610" s="4" t="s">
-        <v>8819</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.4">
@@ -52293,7 +52307,7 @@
         <v>7033</v>
       </c>
       <c r="M611" s="4" t="s">
-        <v>8820</v>
+        <v>8817</v>
       </c>
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.4">
@@ -52334,7 +52348,7 @@
         <v>7034</v>
       </c>
       <c r="M612" s="4" t="s">
-        <v>8821</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.4">
@@ -52375,7 +52389,7 @@
         <v>7035</v>
       </c>
       <c r="M613" s="4" t="s">
-        <v>8822</v>
+        <v>8819</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.4">
@@ -52416,7 +52430,7 @@
         <v>7036</v>
       </c>
       <c r="M614" s="4" t="s">
-        <v>8823</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.4">
@@ -52457,7 +52471,7 @@
         <v>7037</v>
       </c>
       <c r="M615" s="4" t="s">
-        <v>8824</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.4">
@@ -52498,7 +52512,7 @@
         <v>7038</v>
       </c>
       <c r="M616" s="4" t="s">
-        <v>8825</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.4">
@@ -52539,7 +52553,7 @@
         <v>7039</v>
       </c>
       <c r="M617" s="4" t="s">
-        <v>8826</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.4">
@@ -52580,7 +52594,7 @@
         <v>7040</v>
       </c>
       <c r="M618" s="4" t="s">
-        <v>8827</v>
+        <v>8824</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.4">
@@ -52621,7 +52635,7 @@
         <v>7041</v>
       </c>
       <c r="M619" s="4" t="s">
-        <v>8828</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.4">
@@ -52662,7 +52676,7 @@
         <v>7042</v>
       </c>
       <c r="M620" s="4" t="s">
-        <v>8829</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.4">
@@ -52703,7 +52717,7 @@
         <v>7043</v>
       </c>
       <c r="M621" s="4" t="s">
-        <v>8830</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.4">
@@ -52744,7 +52758,7 @@
         <v>7044</v>
       </c>
       <c r="M622" s="4" t="s">
-        <v>8831</v>
+        <v>8828</v>
       </c>
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.4">
@@ -52785,7 +52799,7 @@
         <v>7045</v>
       </c>
       <c r="M623" s="4" t="s">
-        <v>8832</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.4">
@@ -52826,7 +52840,7 @@
         <v>7046</v>
       </c>
       <c r="M624" s="4" t="s">
-        <v>8833</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.4">
@@ -52867,7 +52881,7 @@
         <v>7047</v>
       </c>
       <c r="M625" s="4" t="s">
-        <v>8834</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.4">
@@ -52908,7 +52922,7 @@
         <v>7048</v>
       </c>
       <c r="M626" s="4" t="s">
-        <v>8835</v>
+        <v>8832</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.4">
@@ -52949,7 +52963,7 @@
         <v>7049</v>
       </c>
       <c r="M627" s="4" t="s">
-        <v>8836</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.4">
@@ -52990,7 +53004,7 @@
         <v>7050</v>
       </c>
       <c r="M628" s="4" t="s">
-        <v>8837</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.4">
@@ -53031,7 +53045,7 @@
         <v>7051</v>
       </c>
       <c r="M629" s="4" t="s">
-        <v>8838</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.4">
@@ -53072,7 +53086,7 @@
         <v>7052</v>
       </c>
       <c r="M630" s="4" t="s">
-        <v>8839</v>
+        <v>8836</v>
       </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.4">
@@ -53113,7 +53127,7 @@
         <v>7053</v>
       </c>
       <c r="M631" s="4" t="s">
-        <v>8840</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.4">
@@ -53154,7 +53168,7 @@
         <v>7054</v>
       </c>
       <c r="M632" s="4" t="s">
-        <v>8841</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.4">
@@ -53195,7 +53209,7 @@
         <v>7055</v>
       </c>
       <c r="M633" s="4" t="s">
-        <v>8842</v>
+        <v>8839</v>
       </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.4">
@@ -53236,7 +53250,7 @@
         <v>6723</v>
       </c>
       <c r="M634" s="4" t="s">
-        <v>8843</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.4">
@@ -53277,7 +53291,7 @@
         <v>7056</v>
       </c>
       <c r="M635" s="4" t="s">
-        <v>8844</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.4">
@@ -53318,7 +53332,7 @@
         <v>7057</v>
       </c>
       <c r="M636" s="4" t="s">
-        <v>8845</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.4">
@@ -53359,7 +53373,7 @@
         <v>7058</v>
       </c>
       <c r="M637" s="4" t="s">
-        <v>8846</v>
+        <v>8843</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.4">
@@ -53400,7 +53414,7 @@
         <v>7059</v>
       </c>
       <c r="M638" s="4" t="s">
-        <v>8847</v>
+        <v>8844</v>
       </c>
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.4">
@@ -53441,7 +53455,7 @@
         <v>7060</v>
       </c>
       <c r="M639" s="4" t="s">
-        <v>8848</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.4">
@@ -53482,7 +53496,7 @@
         <v>7061</v>
       </c>
       <c r="M640" s="4" t="s">
-        <v>8849</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.4">
@@ -53523,7 +53537,7 @@
         <v>7062</v>
       </c>
       <c r="M641" s="4" t="s">
-        <v>8850</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.4">
@@ -53564,7 +53578,7 @@
         <v>7063</v>
       </c>
       <c r="M642" s="4" t="s">
-        <v>8851</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.4">
@@ -53605,7 +53619,7 @@
         <v>7064</v>
       </c>
       <c r="M643" s="4" t="s">
-        <v>8852</v>
+        <v>8849</v>
       </c>
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.4">
@@ -53646,7 +53660,7 @@
         <v>7065</v>
       </c>
       <c r="M644" s="4" t="s">
-        <v>8853</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.4">
@@ -53687,7 +53701,7 @@
         <v>7066</v>
       </c>
       <c r="M645" s="4" t="s">
-        <v>8854</v>
+        <v>8851</v>
       </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.4">
@@ -53728,7 +53742,7 @@
         <v>7067</v>
       </c>
       <c r="M646" s="4" t="s">
-        <v>8855</v>
+        <v>8852</v>
       </c>
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.4">
@@ -53769,7 +53783,7 @@
         <v>7068</v>
       </c>
       <c r="M647" s="4" t="s">
-        <v>8856</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.4">
@@ -53810,7 +53824,7 @@
         <v>7069</v>
       </c>
       <c r="M648" s="4" t="s">
-        <v>8857</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.4">
@@ -53851,7 +53865,7 @@
         <v>7070</v>
       </c>
       <c r="M649" s="4" t="s">
-        <v>8858</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.4">
@@ -53892,7 +53906,7 @@
         <v>7071</v>
       </c>
       <c r="M650" s="4" t="s">
-        <v>8859</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.4">
@@ -53933,7 +53947,7 @@
         <v>7072</v>
       </c>
       <c r="M651" s="4" t="s">
-        <v>8860</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.4">
@@ -53974,7 +53988,7 @@
         <v>7073</v>
       </c>
       <c r="M652" s="4" t="s">
-        <v>8861</v>
+        <v>8858</v>
       </c>
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.4">
@@ -54015,7 +54029,7 @@
         <v>7074</v>
       </c>
       <c r="M653" s="4" t="s">
-        <v>8862</v>
+        <v>8859</v>
       </c>
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.4">
@@ -54056,7 +54070,7 @@
         <v>7075</v>
       </c>
       <c r="M654" s="4" t="s">
-        <v>8863</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.4">
@@ -54097,7 +54111,7 @@
         <v>7076</v>
       </c>
       <c r="M655" s="4" t="s">
-        <v>8864</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="656" spans="1:13" x14ac:dyDescent="0.4">
@@ -54138,7 +54152,7 @@
         <v>7077</v>
       </c>
       <c r="M656" s="4" t="s">
-        <v>8865</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.4">
@@ -54179,7 +54193,7 @@
         <v>7078</v>
       </c>
       <c r="M657" s="4" t="s">
-        <v>8866</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.4">
@@ -54220,7 +54234,7 @@
         <v>7079</v>
       </c>
       <c r="M658" s="4" t="s">
-        <v>8867</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.4">
@@ -54261,7 +54275,7 @@
         <v>6492</v>
       </c>
       <c r="M659" s="4" t="s">
-        <v>8866</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.4">
@@ -54302,7 +54316,7 @@
         <v>7080</v>
       </c>
       <c r="M660" s="4" t="s">
-        <v>8868</v>
+        <v>8865</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.4">
@@ -54343,7 +54357,7 @@
         <v>7081</v>
       </c>
       <c r="M661" s="4" t="s">
-        <v>8869</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.4">
@@ -54384,7 +54398,7 @@
         <v>7116</v>
       </c>
       <c r="M662" s="4" t="s">
-        <v>8870</v>
+        <v>8867</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.4">
@@ -54425,7 +54439,7 @@
         <v>7082</v>
       </c>
       <c r="M663" s="4" t="s">
-        <v>8871</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.4">
@@ -54466,7 +54480,7 @@
         <v>7083</v>
       </c>
       <c r="M664" s="4" t="s">
-        <v>8872</v>
+        <v>8869</v>
       </c>
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.4">
@@ -54507,7 +54521,7 @@
         <v>7084</v>
       </c>
       <c r="M665" s="4" t="s">
-        <v>8873</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.4">
@@ -54548,7 +54562,7 @@
         <v>7085</v>
       </c>
       <c r="M666" s="4" t="s">
-        <v>8874</v>
+        <v>8871</v>
       </c>
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.4">
@@ -54589,7 +54603,7 @@
         <v>7086</v>
       </c>
       <c r="M667" s="4" t="s">
-        <v>8875</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.4">
@@ -54630,7 +54644,7 @@
         <v>7087</v>
       </c>
       <c r="M668" s="4" t="s">
-        <v>8876</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="669" spans="1:13" x14ac:dyDescent="0.4">
@@ -54671,7 +54685,7 @@
         <v>7088</v>
       </c>
       <c r="M669" s="4" t="s">
-        <v>8877</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.4">
@@ -54712,7 +54726,7 @@
         <v>7089</v>
       </c>
       <c r="M670" s="4" t="s">
-        <v>8878</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="671" spans="1:13" x14ac:dyDescent="0.4">
@@ -54753,7 +54767,7 @@
         <v>7090</v>
       </c>
       <c r="M671" s="4" t="s">
-        <v>8879</v>
+        <v>8876</v>
       </c>
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.4">
@@ -54794,7 +54808,7 @@
         <v>7091</v>
       </c>
       <c r="M672" s="4" t="s">
-        <v>8880</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="673" spans="1:13" x14ac:dyDescent="0.4">
@@ -54835,7 +54849,7 @@
         <v>7092</v>
       </c>
       <c r="M673" s="4" t="s">
-        <v>8881</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="674" spans="1:13" x14ac:dyDescent="0.4">
@@ -54876,7 +54890,7 @@
         <v>5876</v>
       </c>
       <c r="M674" s="4" t="s">
-        <v>8882</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.4">
@@ -54917,7 +54931,7 @@
         <v>7053</v>
       </c>
       <c r="M675" s="4" t="s">
-        <v>8840</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.4">
@@ -54958,7 +54972,7 @@
         <v>7093</v>
       </c>
       <c r="M676" s="4" t="s">
-        <v>8883</v>
+        <v>8880</v>
       </c>
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.4">
@@ -54999,7 +55013,7 @@
         <v>7094</v>
       </c>
       <c r="M677" s="4" t="s">
-        <v>8884</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="678" spans="1:13" x14ac:dyDescent="0.4">
@@ -55040,7 +55054,7 @@
         <v>7095</v>
       </c>
       <c r="M678" s="4" t="s">
-        <v>8885</v>
+        <v>8882</v>
       </c>
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.4">
@@ -55081,7 +55095,7 @@
         <v>7096</v>
       </c>
       <c r="M679" s="4" t="s">
-        <v>8886</v>
+        <v>8883</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.4">
@@ -55122,7 +55136,7 @@
         <v>7097</v>
       </c>
       <c r="M680" s="4" t="s">
-        <v>8887</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.4">
@@ -55163,7 +55177,7 @@
         <v>7098</v>
       </c>
       <c r="M681" s="4" t="s">
-        <v>8888</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.4">
@@ -55204,7 +55218,7 @@
         <v>7099</v>
       </c>
       <c r="M682" s="4" t="s">
-        <v>8889</v>
+        <v>8886</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.4">
@@ -55245,7 +55259,7 @@
         <v>7100</v>
       </c>
       <c r="M683" s="4" t="s">
-        <v>8890</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.4">
@@ -55286,7 +55300,7 @@
         <v>7101</v>
       </c>
       <c r="M684" s="4" t="s">
-        <v>8891</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.4">
@@ -55327,7 +55341,7 @@
         <v>7102</v>
       </c>
       <c r="M685" s="4" t="s">
-        <v>8892</v>
+        <v>8889</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.4">
@@ -55368,7 +55382,7 @@
         <v>7103</v>
       </c>
       <c r="M686" s="4" t="s">
-        <v>8893</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.4">
@@ -55409,7 +55423,7 @@
         <v>7104</v>
       </c>
       <c r="M687" s="4" t="s">
-        <v>8929</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.4">
@@ -55450,7 +55464,7 @@
         <v>7105</v>
       </c>
       <c r="M688" s="4" t="s">
-        <v>8894</v>
+        <v>8891</v>
       </c>
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.4">
@@ -55491,7 +55505,7 @@
         <v>7106</v>
       </c>
       <c r="M689" s="4" t="s">
-        <v>8895</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.4">
@@ -55532,7 +55546,7 @@
         <v>7107</v>
       </c>
       <c r="M690" s="4" t="s">
-        <v>8896</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.4">
@@ -55573,7 +55587,7 @@
         <v>7108</v>
       </c>
       <c r="M691" s="4" t="s">
-        <v>8897</v>
+        <v>8894</v>
       </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.4">
@@ -55614,7 +55628,7 @@
         <v>7109</v>
       </c>
       <c r="M692" s="4" t="s">
-        <v>8898</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.4">
@@ -55655,7 +55669,7 @@
         <v>7133</v>
       </c>
       <c r="M693" s="4" t="s">
-        <v>8930</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.4">
@@ -55696,7 +55710,7 @@
         <v>7136</v>
       </c>
       <c r="M694" s="4" t="s">
-        <v>8899</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.4">
@@ -55737,7 +55751,7 @@
         <v>7155</v>
       </c>
       <c r="M695" s="4" t="s">
-        <v>8931</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.4">
@@ -55778,7 +55792,7 @@
         <v>7849</v>
       </c>
       <c r="M696" s="4" t="s">
-        <v>8900</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.4">
@@ -55819,7 +55833,7 @@
         <v>7948</v>
       </c>
       <c r="M697" s="4" t="s">
-        <v>8901</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.4">
@@ -55860,7 +55874,7 @@
         <v>7949</v>
       </c>
       <c r="M698" s="4" t="s">
-        <v>8902</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.4">
@@ -55901,7 +55915,7 @@
         <v>8030</v>
       </c>
       <c r="M699" s="4" t="s">
-        <v>8903</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.4">
@@ -55942,7 +55956,7 @@
         <v>8052</v>
       </c>
       <c r="M700" s="4" t="s">
-        <v>8904</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.4">
@@ -55983,7 +55997,7 @@
         <v>8053</v>
       </c>
       <c r="M701" s="4" t="s">
-        <v>8905</v>
+        <v>8902</v>
       </c>
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.4">
@@ -56024,7 +56038,7 @@
         <v>8063</v>
       </c>
       <c r="M702" s="4" t="s">
-        <v>8906</v>
+        <v>8903</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.4">
@@ -56065,7 +56079,7 @@
         <v>8064</v>
       </c>
       <c r="M703" s="4" t="s">
-        <v>8932</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.4">
@@ -56106,7 +56120,7 @@
         <v>8065</v>
       </c>
       <c r="M704" s="4" t="s">
-        <v>8907</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.4">
@@ -56147,7 +56161,7 @@
         <v>8107</v>
       </c>
       <c r="M705" s="4" t="s">
-        <v>8933</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.4">
@@ -56188,7 +56202,7 @@
         <v>8123</v>
       </c>
       <c r="M706" s="4" t="s">
-        <v>8934</v>
+        <v>8931</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.4">
@@ -56229,7 +56243,7 @@
         <v>8133</v>
       </c>
       <c r="M707" s="4" t="s">
-        <v>8935</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.4">
@@ -56270,7 +56284,7 @@
         <v>8146</v>
       </c>
       <c r="M708" s="4" t="s">
-        <v>8936</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.4">
@@ -56311,7 +56325,7 @@
         <v>8165</v>
       </c>
       <c r="M709" s="4" t="s">
-        <v>8937</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.4">
@@ -56352,7 +56366,7 @@
         <v>8145</v>
       </c>
       <c r="M710" s="4" t="s">
-        <v>8908</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.4">
@@ -56393,7 +56407,7 @@
         <v>8186</v>
       </c>
       <c r="M711" s="4" t="s">
-        <v>8909</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.4">
@@ -56434,7 +56448,7 @@
         <v>8187</v>
       </c>
       <c r="M712" s="4" t="s">
-        <v>8910</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.4">
@@ -56475,7 +56489,7 @@
         <v>8188</v>
       </c>
       <c r="M713" s="4" t="s">
-        <v>8911</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.4">
@@ -56516,11 +56530,11 @@
         <v>8189</v>
       </c>
       <c r="M714" s="4" t="s">
-        <v>8912</v>
+        <v>8909</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCV-DELL0010\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14589A3-B163-40EB-9732-D934CD6BD305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B43034-66F0-493D-95DF-91AABCD1E1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="975" windowWidth="28800" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9282" uniqueCount="8938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9282" uniqueCount="8937">
   <si>
     <t>keys</t>
   </si>
@@ -24752,9 +24752,6 @@
     <t>&lt;p&gt;Slideshow app has been successfully updated to a newer version. There are following new features:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;MQTT: added support for WebSockets, optional automatic statistics sending and custom topic setting&lt;/li&gt;&lt;li&gt;File Manager: added possibility to set particular file length or mute via Properties&lt;/li&gt;&lt;li&gt;Home page: added welcome message (only on first start after update)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
   </si>
   <si>
-    <t>japanese</t>
-  </si>
-  <si>
     <t>言語</t>
   </si>
   <si>
@@ -24782,9 +24779,6 @@
     <t>編集</t>
   </si>
   <si>
-    <t>音</t>
-  </si>
-  <si>
     <t>名前</t>
   </si>
   <si>
@@ -25463,15 +25457,9 @@
     <t>デバイスのUSBポートに</t>
   </si>
   <si>
-    <t>住所を入力してください</t>
-  </si>
-  <si>
     <t>ヘルプ</t>
   </si>
   <si>
-    <t>あなたはを通して新しいファイルを追加することができます</t>
-  </si>
-  <si>
     <t>オンスクリーンメニュー-左からスワイプし、[ストレージからファイルを追加]を選択します</t>
   </si>
   <si>
@@ -25982,9 +25970,6 @@
     <t>バグまたは拡張機能の詳細</t>
   </si>
   <si>
-    <t>あなたのメール</t>
-  </si>
-  <si>
     <t>返信をご希望の場合はメールにご連絡ください</t>
   </si>
   <si>
@@ -26298,9 +26283,6 @@
   </si>
   <si>
     <t>隠れる</t>
-  </si>
-  <si>
-    <t>プレイ</t>
   </si>
   <si>
     <t>一時停止</t>
@@ -26781,9 +26763,6 @@
     <t>コンピュータのブラウザ（デフォルトのユーザー名/パスワードはadmin/admin）に移動し、[ファイル]メニューの[ファイルのアップロード]を選択します</t>
   </si>
   <si>
-    <t>表示される日付の形式、いくつかの例：&lt;br&gt; "EEEE、dd.M.yyyy"-2019年2月3日水曜日&lt;br&gt; "EEEE、mm/dd/yyyy"-2019年3月20日水曜日&lt;br&gt;" MMM dd、yyyy"-2019年3月20日&lt;br&gt;&lt;i&gt;詳細については、&lt;a href ="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.htmlを参照してください。&lt;/a&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>メインパネルには、日付と時刻、RSSニュース、天気、ロゴが表示されたサイドパネルとともに、サイクル内のすべてのファイルが表示されます。このサンプルを追加した後、ロゴをlogo/logo.pngファイルとしてアップロードし（または「ロゴファイル」項目を調整し）、天気APIキーを設定に設定します。横向きのディスプレイに適しています。</t>
   </si>
   <si>
@@ -26838,16 +26817,31 @@
     <t>&lt;p&gt;スライドショーアプリが正常に新しいバージョンに更新されました。次の新機能があります。&lt;/p&gt;&lt;ul&gt; &lt;li&gt; MQTT：WebSocketのサポートの追加、オプションの自動統計送信、カスタムトピック設定&lt;/li&gt; &lt;li&gt;ファイルマネージャー：特定のファイルの長さやミュートを設定する機能が追加されましたプロパティ経由&lt;/li&gt;&lt;li&gt;ホームページ：ウェルカムメッセージを追加（更新後の最初の起動時のみ）&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;機能のドキュメントは、&lt;a href = "https：// slideshow.digital/documentation/ "target =" _ blank "&gt;https://slideshow.digital/documentation/&lt;/a&gt;および&lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ"のチュートリアルをご覧くださいtarget = "_ blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;スライドショーアプリが気に入った場合は、&lt;a hrefでアプリを評価することで開発をサポートできます。 = "https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target = "_ blank"&gt; GooglePlay&lt;/a&gt;または&lt;a href="https://ko-fi.com/slideshow" target =" _blank"&gt;コーヒーを購入してください&lt;/a&gt;。&lt;/p&gt;&lt;span style ='float：right'&gt;-開発チーム-&lt;/span&gt;</t>
   </si>
   <si>
-    <t>今日のname_day</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>name_dayは</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>name_dayカレンダー</t>
-    <phoneticPr fontId="4"/>
+    <t>サウンド</t>
+  </si>
+  <si>
+    <t>アドレスを入力してください</t>
+  </si>
+  <si>
+    <t>新しいファイルを追加することができます</t>
+  </si>
+  <si>
+    <t>表示される日付の形式、いくつかの例：&lt;br&gt; "EEEE, dd.M.yyyy" - Wednesday, 20.3.2019&lt;br&gt;"EEEE, mm/dd/yyyy" - Wednesday, 03/20/2019&lt;br&gt;"MMM dd, yyyy" - Mar 20, 2019&lt;br&gt;&lt;i&gt;詳細については、&lt;a href ="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.htmlを参照してください。&lt;/a&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>再生中</t>
+  </si>
+  <si>
+    <t>今日のName Days</t>
+  </si>
+  <si>
+    <t>Name Daysは</t>
+  </si>
+  <si>
+    <t>Name Daysカレンダー</t>
   </si>
 </sst>
 </file>
@@ -26908,9 +26902,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26919,16 +26916,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{8F77E8D0-DE69-42B5-A276-761221066E72}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{94A53D70-731E-4F89-9CFC-945C3DD795E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -27243,10 +27241,10 @@
   <dimension ref="A1:M714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C567" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B694" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M579" sqref="M579"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:M714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27296,8 +27294,8 @@
       <c r="L1" s="1" t="s">
         <v>6484</v>
       </c>
-      <c r="M1" t="s">
-        <v>8240</v>
+      <c r="M1" s="4" t="s">
+        <v>8905</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -27337,8 +27335,8 @@
       <c r="L2" t="s">
         <v>6485</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>8911</v>
+      <c r="M2" s="5" t="s">
+        <v>8905</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -27378,8 +27376,8 @@
       <c r="L3" t="s">
         <v>6486</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>8241</v>
+      <c r="M3" s="5" t="s">
+        <v>8240</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -27419,8 +27417,8 @@
       <c r="L4" t="s">
         <v>6487</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>8242</v>
+      <c r="M4" s="5" t="s">
+        <v>8241</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -27460,8 +27458,8 @@
       <c r="L5" t="s">
         <v>6488</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>8243</v>
+      <c r="M5" s="5" t="s">
+        <v>8242</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -27501,8 +27499,8 @@
       <c r="L6" t="s">
         <v>2006</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>8244</v>
+      <c r="M6" s="5" t="s">
+        <v>8243</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -27542,8 +27540,8 @@
       <c r="L7" t="s">
         <v>6489</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>8245</v>
+      <c r="M7" s="5" t="s">
+        <v>8244</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -27583,8 +27581,8 @@
       <c r="L8" t="s">
         <v>6490</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>8246</v>
+      <c r="M8" s="5" t="s">
+        <v>8245</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -27624,8 +27622,8 @@
       <c r="L9" t="s">
         <v>6491</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>8247</v>
+      <c r="M9" s="5" t="s">
+        <v>8246</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -27665,8 +27663,8 @@
       <c r="L10" t="s">
         <v>6492</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>8248</v>
+      <c r="M10" s="5" t="s">
+        <v>8247</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -27706,8 +27704,8 @@
       <c r="L11" t="s">
         <v>5248</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>8249</v>
+      <c r="M11" s="5" t="s">
+        <v>8248</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -27747,8 +27745,8 @@
       <c r="L12" t="s">
         <v>6493</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>8250</v>
+      <c r="M12" s="5" t="s">
+        <v>8928</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -27788,8 +27786,8 @@
       <c r="L13" t="s">
         <v>2744</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>8251</v>
+      <c r="M13" s="5" t="s">
+        <v>8249</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -27829,8 +27827,8 @@
       <c r="L14" t="s">
         <v>2744</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>8251</v>
+      <c r="M14" s="5" t="s">
+        <v>8249</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -27870,8 +27868,8 @@
       <c r="L15" t="s">
         <v>6494</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>8252</v>
+      <c r="M15" s="5" t="s">
+        <v>8250</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -27911,8 +27909,8 @@
       <c r="L16" t="s">
         <v>6495</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>8253</v>
+      <c r="M16" s="5" t="s">
+        <v>8251</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -27952,8 +27950,8 @@
       <c r="L17" t="s">
         <v>6496</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>8254</v>
+      <c r="M17" s="5" t="s">
+        <v>8252</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -27993,8 +27991,8 @@
       <c r="L18" t="s">
         <v>6497</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>8255</v>
+      <c r="M18" s="5" t="s">
+        <v>8253</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -28034,8 +28032,8 @@
       <c r="L19" t="s">
         <v>6498</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>8256</v>
+      <c r="M19" s="5" t="s">
+        <v>8254</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -28075,8 +28073,8 @@
       <c r="L20" t="s">
         <v>6499</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>8257</v>
+      <c r="M20" s="5" t="s">
+        <v>8255</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -28116,8 +28114,8 @@
       <c r="L21" t="s">
         <v>6500</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>8912</v>
+      <c r="M21" s="5" t="s">
+        <v>8906</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -28157,8 +28155,8 @@
       <c r="L22" t="s">
         <v>6501</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>8913</v>
+      <c r="M22" s="5" t="s">
+        <v>8907</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -28198,8 +28196,8 @@
       <c r="L23" t="s">
         <v>6502</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>8259</v>
+      <c r="M23" s="5" t="s">
+        <v>8257</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -28239,8 +28237,8 @@
       <c r="L24" t="s">
         <v>6503</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>8260</v>
+      <c r="M24" s="5" t="s">
+        <v>8258</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -28280,8 +28278,8 @@
       <c r="L25" t="s">
         <v>6504</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>8261</v>
+      <c r="M25" s="5" t="s">
+        <v>8259</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -28321,8 +28319,8 @@
       <c r="L26" t="s">
         <v>6505</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>8262</v>
+      <c r="M26" s="5" t="s">
+        <v>8260</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -28362,8 +28360,8 @@
       <c r="L27" t="s">
         <v>6506</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>8263</v>
+      <c r="M27" s="5" t="s">
+        <v>8261</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -28403,8 +28401,8 @@
       <c r="L28" t="s">
         <v>6507</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>8264</v>
+      <c r="M28" s="5" t="s">
+        <v>8262</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -28444,8 +28442,8 @@
       <c r="L29" t="s">
         <v>6508</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>8265</v>
+      <c r="M29" s="5" t="s">
+        <v>8263</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -28485,8 +28483,8 @@
       <c r="L30" t="s">
         <v>6509</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>8266</v>
+      <c r="M30" s="5" t="s">
+        <v>8264</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -28526,8 +28524,8 @@
       <c r="L31" t="s">
         <v>6510</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>8267</v>
+      <c r="M31" s="5" t="s">
+        <v>8265</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -28567,8 +28565,8 @@
       <c r="L32" t="s">
         <v>6511</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>8268</v>
+      <c r="M32" s="5" t="s">
+        <v>8266</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -28608,8 +28606,8 @@
       <c r="L33" t="s">
         <v>6512</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>8269</v>
+      <c r="M33" s="5" t="s">
+        <v>8267</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -28649,8 +28647,8 @@
       <c r="L34" t="s">
         <v>1368</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>8244</v>
+      <c r="M34" s="5" t="s">
+        <v>8243</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -28690,8 +28688,8 @@
       <c r="L35" t="s">
         <v>6513</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>8270</v>
+      <c r="M35" s="5" t="s">
+        <v>8268</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -28731,8 +28729,8 @@
       <c r="L36" t="s">
         <v>5269</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>8271</v>
+      <c r="M36" s="5" t="s">
+        <v>8269</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -28772,8 +28770,8 @@
       <c r="L37" t="s">
         <v>6514</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>8272</v>
+      <c r="M37" s="5" t="s">
+        <v>8270</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -28813,8 +28811,8 @@
       <c r="L38" t="s">
         <v>6515</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>8273</v>
+      <c r="M38" s="5" t="s">
+        <v>8271</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -28854,8 +28852,8 @@
       <c r="L39" t="s">
         <v>6516</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>8274</v>
+      <c r="M39" s="5" t="s">
+        <v>8272</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -28895,8 +28893,8 @@
       <c r="L40" t="s">
         <v>6517</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>8275</v>
+      <c r="M40" s="5" t="s">
+        <v>8273</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -28936,8 +28934,8 @@
       <c r="L41" t="s">
         <v>6518</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>8276</v>
+      <c r="M41" s="5" t="s">
+        <v>8274</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -28977,8 +28975,8 @@
       <c r="L42" t="s">
         <v>6519</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>8277</v>
+      <c r="M42" s="5" t="s">
+        <v>8275</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -29018,8 +29016,8 @@
       <c r="L43" t="s">
         <v>6520</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>8278</v>
+      <c r="M43" s="5" t="s">
+        <v>8276</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -29059,8 +29057,8 @@
       <c r="L44" t="s">
         <v>6521</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>8279</v>
+      <c r="M44" s="5" t="s">
+        <v>8277</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -29100,8 +29098,8 @@
       <c r="L45" t="s">
         <v>6522</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>8280</v>
+      <c r="M45" s="5" t="s">
+        <v>8278</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -29141,8 +29139,8 @@
       <c r="L46" t="s">
         <v>6523</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>8281</v>
+      <c r="M46" s="5" t="s">
+        <v>8279</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -29182,8 +29180,8 @@
       <c r="L47" t="s">
         <v>6524</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>8282</v>
+      <c r="M47" s="5" t="s">
+        <v>8280</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -29223,8 +29221,8 @@
       <c r="L48" t="s">
         <v>6525</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>8283</v>
+      <c r="M48" s="5" t="s">
+        <v>8281</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -29264,8 +29262,8 @@
       <c r="L49" t="s">
         <v>6526</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>8284</v>
+      <c r="M49" s="5" t="s">
+        <v>8282</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
@@ -29305,8 +29303,8 @@
       <c r="L50" t="s">
         <v>6527</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>8285</v>
+      <c r="M50" s="5" t="s">
+        <v>8283</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -29346,8 +29344,8 @@
       <c r="L51" t="s">
         <v>6528</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>8286</v>
+      <c r="M51" s="5" t="s">
+        <v>8284</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
@@ -29387,8 +29385,8 @@
       <c r="L52" t="s">
         <v>6529</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>8287</v>
+      <c r="M52" s="5" t="s">
+        <v>8285</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
@@ -29428,8 +29426,8 @@
       <c r="L53" t="s">
         <v>6530</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>8288</v>
+      <c r="M53" s="5" t="s">
+        <v>8286</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
@@ -29469,8 +29467,8 @@
       <c r="L54" t="s">
         <v>6531</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>8289</v>
+      <c r="M54" s="5" t="s">
+        <v>8287</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
@@ -29510,8 +29508,8 @@
       <c r="L55" t="s">
         <v>6532</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>8290</v>
+      <c r="M55" s="5" t="s">
+        <v>8288</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -29551,8 +29549,8 @@
       <c r="L56" t="s">
         <v>6533</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>8291</v>
+      <c r="M56" s="5" t="s">
+        <v>8289</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
@@ -29592,8 +29590,8 @@
       <c r="L57" t="s">
         <v>6534</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>8292</v>
+      <c r="M57" s="5" t="s">
+        <v>8290</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -29633,8 +29631,8 @@
       <c r="L58" t="s">
         <v>6535</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>8293</v>
+      <c r="M58" s="5" t="s">
+        <v>8291</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
@@ -29674,8 +29672,8 @@
       <c r="L59" t="s">
         <v>6536</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>8294</v>
+      <c r="M59" s="5" t="s">
+        <v>8292</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
@@ -29715,8 +29713,8 @@
       <c r="L60" t="s">
         <v>6537</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>8295</v>
+      <c r="M60" s="5" t="s">
+        <v>8293</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
@@ -29756,8 +29754,8 @@
       <c r="L61" t="s">
         <v>6538</v>
       </c>
-      <c r="M61" s="4" t="s">
-        <v>8296</v>
+      <c r="M61" s="5" t="s">
+        <v>8294</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
@@ -29797,8 +29795,8 @@
       <c r="L62" t="s">
         <v>6539</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>8297</v>
+      <c r="M62" s="5" t="s">
+        <v>8295</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
@@ -29838,8 +29836,8 @@
       <c r="L63" t="s">
         <v>6540</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>8298</v>
+      <c r="M63" s="5" t="s">
+        <v>8296</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
@@ -29879,8 +29877,8 @@
       <c r="L64" t="s">
         <v>5297</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>8299</v>
+      <c r="M64" s="5" t="s">
+        <v>8297</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
@@ -29920,8 +29918,8 @@
       <c r="L65" t="s">
         <v>6541</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>8300</v>
+      <c r="M65" s="5" t="s">
+        <v>8298</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
@@ -29961,8 +29959,8 @@
       <c r="L66" t="s">
         <v>6542</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>8301</v>
+      <c r="M66" s="5" t="s">
+        <v>8299</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
@@ -30002,8 +30000,8 @@
       <c r="L67" t="s">
         <v>6543</v>
       </c>
-      <c r="M67" s="4" t="s">
-        <v>8302</v>
+      <c r="M67" s="5" t="s">
+        <v>8300</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
@@ -30043,8 +30041,8 @@
       <c r="L68" t="s">
         <v>6544</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>8303</v>
+      <c r="M68" s="5" t="s">
+        <v>8301</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
@@ -30084,8 +30082,8 @@
       <c r="L69" t="s">
         <v>6545</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>8304</v>
+      <c r="M69" s="5" t="s">
+        <v>8302</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
@@ -30125,8 +30123,8 @@
       <c r="L70" t="s">
         <v>6546</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>8305</v>
+      <c r="M70" s="5" t="s">
+        <v>8303</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
@@ -30166,8 +30164,8 @@
       <c r="L71" t="s">
         <v>6547</v>
       </c>
-      <c r="M71" s="4" t="s">
-        <v>8306</v>
+      <c r="M71" s="5" t="s">
+        <v>8304</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
@@ -30207,8 +30205,8 @@
       <c r="L72" t="s">
         <v>6548</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>8307</v>
+      <c r="M72" s="5" t="s">
+        <v>8305</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
@@ -30248,8 +30246,8 @@
       <c r="L73" t="s">
         <v>6549</v>
       </c>
-      <c r="M73" s="4" t="s">
-        <v>8308</v>
+      <c r="M73" s="5" t="s">
+        <v>8306</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
@@ -30289,8 +30287,8 @@
       <c r="L74" t="s">
         <v>6550</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>8309</v>
+      <c r="M74" s="5" t="s">
+        <v>8307</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
@@ -30330,8 +30328,8 @@
       <c r="L75" t="s">
         <v>6551</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>8310</v>
+      <c r="M75" s="5" t="s">
+        <v>8308</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
@@ -30371,8 +30369,8 @@
       <c r="L76" t="s">
         <v>6552</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>8311</v>
+      <c r="M76" s="5" t="s">
+        <v>8309</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
@@ -30412,8 +30410,8 @@
       <c r="L77" t="s">
         <v>7850</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>8312</v>
+      <c r="M77" s="5" t="s">
+        <v>8310</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
@@ -30453,8 +30451,8 @@
       <c r="L78" t="s">
         <v>6553</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>8313</v>
+      <c r="M78" s="5" t="s">
+        <v>8311</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
@@ -30494,8 +30492,8 @@
       <c r="L79" t="s">
         <v>6554</v>
       </c>
-      <c r="M79" s="4" t="s">
-        <v>8314</v>
+      <c r="M79" s="5" t="s">
+        <v>8312</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
@@ -30535,8 +30533,8 @@
       <c r="L80" t="s">
         <v>6555</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>8315</v>
+      <c r="M80" s="5" t="s">
+        <v>8313</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
@@ -30576,8 +30574,8 @@
       <c r="L81" t="s">
         <v>6556</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>8270</v>
+      <c r="M81" s="5" t="s">
+        <v>8268</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
@@ -30617,8 +30615,8 @@
       <c r="L82" t="s">
         <v>6557</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>8290</v>
+      <c r="M82" s="5" t="s">
+        <v>8288</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
@@ -30658,8 +30656,8 @@
       <c r="L83" t="s">
         <v>6558</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>8316</v>
+      <c r="M83" s="5" t="s">
+        <v>8314</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
@@ -30699,8 +30697,8 @@
       <c r="L84" t="s">
         <v>1418</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>8317</v>
+      <c r="M84" s="5" t="s">
+        <v>8315</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
@@ -30740,8 +30738,8 @@
       <c r="L85" t="s">
         <v>1419</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>8318</v>
+      <c r="M85" s="5" t="s">
+        <v>8316</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
@@ -30781,8 +30779,8 @@
       <c r="L86" t="s">
         <v>6559</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>8319</v>
+      <c r="M86" s="5" t="s">
+        <v>8317</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
@@ -30822,8 +30820,8 @@
       <c r="L87" t="s">
         <v>6560</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>8320</v>
+      <c r="M87" s="5" t="s">
+        <v>8318</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
@@ -30863,8 +30861,8 @@
       <c r="L88" t="s">
         <v>6561</v>
       </c>
-      <c r="M88" s="4" t="s">
-        <v>8321</v>
+      <c r="M88" s="5" t="s">
+        <v>8319</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
@@ -30904,8 +30902,8 @@
       <c r="L89" t="s">
         <v>6562</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>8322</v>
+      <c r="M89" s="5" t="s">
+        <v>8320</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
@@ -30945,8 +30943,8 @@
       <c r="L90" t="s">
         <v>6563</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>8323</v>
+      <c r="M90" s="5" t="s">
+        <v>8321</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
@@ -30986,8 +30984,8 @@
       <c r="L91" t="s">
         <v>6564</v>
       </c>
-      <c r="M91" s="4" t="s">
-        <v>8324</v>
+      <c r="M91" s="5" t="s">
+        <v>8322</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
@@ -31027,8 +31025,8 @@
       <c r="L92" t="s">
         <v>6565</v>
       </c>
-      <c r="M92" s="4" t="s">
-        <v>8325</v>
+      <c r="M92" s="5" t="s">
+        <v>8323</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
@@ -31068,8 +31066,8 @@
       <c r="L93" t="s">
         <v>6566</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>8326</v>
+      <c r="M93" s="5" t="s">
+        <v>8324</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
@@ -31109,8 +31107,8 @@
       <c r="L94" t="s">
         <v>6567</v>
       </c>
-      <c r="M94" s="4" t="s">
-        <v>8327</v>
+      <c r="M94" s="5" t="s">
+        <v>8325</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
@@ -31150,8 +31148,8 @@
       <c r="L95" t="s">
         <v>6568</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>8328</v>
+      <c r="M95" s="5" t="s">
+        <v>8326</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -31191,8 +31189,8 @@
       <c r="L96" t="s">
         <v>4027</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>8329</v>
+      <c r="M96" s="5" t="s">
+        <v>8327</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
@@ -31232,8 +31230,8 @@
       <c r="L97" t="s">
         <v>4028</v>
       </c>
-      <c r="M97" s="4" t="s">
-        <v>8330</v>
+      <c r="M97" s="5" t="s">
+        <v>8328</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
@@ -31273,8 +31271,8 @@
       <c r="L98" t="s">
         <v>6569</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>8331</v>
+      <c r="M98" s="5" t="s">
+        <v>8329</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
@@ -31314,8 +31312,8 @@
       <c r="L99" t="s">
         <v>6570</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>8332</v>
+      <c r="M99" s="5" t="s">
+        <v>8330</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
@@ -31355,8 +31353,8 @@
       <c r="L100" t="s">
         <v>6571</v>
       </c>
-      <c r="M100" s="4" t="s">
-        <v>8333</v>
+      <c r="M100" s="5" t="s">
+        <v>8331</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
@@ -31396,8 +31394,8 @@
       <c r="L101" t="s">
         <v>6572</v>
       </c>
-      <c r="M101" s="4" t="s">
-        <v>8334</v>
+      <c r="M101" s="5" t="s">
+        <v>8332</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
@@ -31437,8 +31435,8 @@
       <c r="L102" t="s">
         <v>768</v>
       </c>
-      <c r="M102" s="4" t="s">
-        <v>8335</v>
+      <c r="M102" s="5" t="s">
+        <v>8333</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
@@ -31478,8 +31476,8 @@
       <c r="L103" t="s">
         <v>6573</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>8336</v>
+      <c r="M103" s="5" t="s">
+        <v>8334</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
@@ -31519,8 +31517,8 @@
       <c r="L104" t="s">
         <v>6574</v>
       </c>
-      <c r="M104" s="4" t="s">
-        <v>8337</v>
+      <c r="M104" s="5" t="s">
+        <v>8335</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
@@ -31560,8 +31558,8 @@
       <c r="L105" t="s">
         <v>6575</v>
       </c>
-      <c r="M105" s="4" t="s">
-        <v>8338</v>
+      <c r="M105" s="5" t="s">
+        <v>8336</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
@@ -31601,8 +31599,8 @@
       <c r="L106" t="s">
         <v>6576</v>
       </c>
-      <c r="M106" s="4" t="s">
-        <v>8339</v>
+      <c r="M106" s="5" t="s">
+        <v>8337</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
@@ -31642,8 +31640,8 @@
       <c r="L107" t="s">
         <v>6577</v>
       </c>
-      <c r="M107" s="4" t="s">
-        <v>8340</v>
+      <c r="M107" s="5" t="s">
+        <v>8338</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
@@ -31683,8 +31681,8 @@
       <c r="L108" t="s">
         <v>5338</v>
       </c>
-      <c r="M108" s="4" t="s">
-        <v>8341</v>
+      <c r="M108" s="5" t="s">
+        <v>8339</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
@@ -31724,8 +31722,8 @@
       <c r="L109" t="s">
         <v>6578</v>
       </c>
-      <c r="M109" s="4" t="s">
-        <v>8342</v>
+      <c r="M109" s="5" t="s">
+        <v>8340</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
@@ -31765,8 +31763,8 @@
       <c r="L110" t="s">
         <v>6579</v>
       </c>
-      <c r="M110" s="4" t="s">
-        <v>8343</v>
+      <c r="M110" s="5" t="s">
+        <v>8341</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
@@ -31806,8 +31804,8 @@
       <c r="L111" t="s">
         <v>6579</v>
       </c>
-      <c r="M111" s="4" t="s">
-        <v>8343</v>
+      <c r="M111" s="5" t="s">
+        <v>8341</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
@@ -31847,8 +31845,8 @@
       <c r="L112" t="s">
         <v>6580</v>
       </c>
-      <c r="M112" s="4" t="s">
-        <v>8344</v>
+      <c r="M112" s="5" t="s">
+        <v>8342</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
@@ -31888,8 +31886,8 @@
       <c r="L113" t="s">
         <v>6581</v>
       </c>
-      <c r="M113" s="4" t="s">
-        <v>8345</v>
+      <c r="M113" s="5" t="s">
+        <v>8343</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
@@ -31929,8 +31927,8 @@
       <c r="L114" t="s">
         <v>6582</v>
       </c>
-      <c r="M114" s="4" t="s">
-        <v>8346</v>
+      <c r="M114" s="5" t="s">
+        <v>8344</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
@@ -31970,8 +31968,8 @@
       <c r="L115" t="s">
         <v>6583</v>
       </c>
-      <c r="M115" s="4" t="s">
-        <v>8347</v>
+      <c r="M115" s="5" t="s">
+        <v>8345</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
@@ -32011,8 +32009,8 @@
       <c r="L116" t="s">
         <v>6584</v>
       </c>
-      <c r="M116" s="4" t="s">
-        <v>8348</v>
+      <c r="M116" s="5" t="s">
+        <v>8346</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
@@ -32052,8 +32050,8 @@
       <c r="L117" t="s">
         <v>5346</v>
       </c>
-      <c r="M117" s="4" t="s">
-        <v>8349</v>
+      <c r="M117" s="5" t="s">
+        <v>8347</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
@@ -32093,8 +32091,8 @@
       <c r="L118" t="s">
         <v>6585</v>
       </c>
-      <c r="M118" s="4" t="s">
-        <v>8350</v>
+      <c r="M118" s="5" t="s">
+        <v>8348</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
@@ -32134,8 +32132,8 @@
       <c r="L119" t="s">
         <v>6586</v>
       </c>
-      <c r="M119" s="4" t="s">
-        <v>8351</v>
+      <c r="M119" s="5" t="s">
+        <v>8349</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
@@ -32175,8 +32173,8 @@
       <c r="L120" t="s">
         <v>6525</v>
       </c>
-      <c r="M120" s="4" t="s">
-        <v>8283</v>
+      <c r="M120" s="5" t="s">
+        <v>8281</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
@@ -32216,8 +32214,8 @@
       <c r="L121" t="s">
         <v>6587</v>
       </c>
-      <c r="M121" s="4" t="s">
-        <v>8343</v>
+      <c r="M121" s="5" t="s">
+        <v>8341</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
@@ -32257,8 +32255,8 @@
       <c r="L122" t="s">
         <v>6588</v>
       </c>
-      <c r="M122" s="4" t="s">
-        <v>8352</v>
+      <c r="M122" s="5" t="s">
+        <v>8350</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
@@ -32298,8 +32296,8 @@
       <c r="L123" t="s">
         <v>6589</v>
       </c>
-      <c r="M123" s="4" t="s">
-        <v>8353</v>
+      <c r="M123" s="5" t="s">
+        <v>8351</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
@@ -32339,8 +32337,8 @@
       <c r="L124" t="s">
         <v>6590</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>8354</v>
+      <c r="M124" s="5" t="s">
+        <v>8352</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
@@ -32380,8 +32378,8 @@
       <c r="L125" t="s">
         <v>6591</v>
       </c>
-      <c r="M125" s="4" t="s">
-        <v>8355</v>
+      <c r="M125" s="5" t="s">
+        <v>8353</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
@@ -32421,8 +32419,8 @@
       <c r="L126" t="s">
         <v>6592</v>
       </c>
-      <c r="M126" s="4" t="s">
-        <v>8356</v>
+      <c r="M126" s="5" t="s">
+        <v>8354</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
@@ -32462,8 +32460,8 @@
       <c r="L127" t="s">
         <v>6593</v>
       </c>
-      <c r="M127" s="4" t="s">
-        <v>8357</v>
+      <c r="M127" s="5" t="s">
+        <v>8355</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
@@ -32503,8 +32501,8 @@
       <c r="L128" t="s">
         <v>6594</v>
       </c>
-      <c r="M128" s="4" t="s">
-        <v>8358</v>
+      <c r="M128" s="5" t="s">
+        <v>8356</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
@@ -32544,8 +32542,8 @@
       <c r="L129" t="s">
         <v>6595</v>
       </c>
-      <c r="M129" s="4" t="s">
-        <v>8359</v>
+      <c r="M129" s="5" t="s">
+        <v>8357</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
@@ -32585,8 +32583,8 @@
       <c r="L130" t="s">
         <v>5745</v>
       </c>
-      <c r="M130" s="4" t="s">
-        <v>8360</v>
+      <c r="M130" s="5" t="s">
+        <v>8358</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
@@ -32626,8 +32624,8 @@
       <c r="L131" t="s">
         <v>6596</v>
       </c>
-      <c r="M131" s="4" t="s">
-        <v>8361</v>
+      <c r="M131" s="5" t="s">
+        <v>8359</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
@@ -32667,8 +32665,8 @@
       <c r="L132" t="s">
         <v>6597</v>
       </c>
-      <c r="M132" s="4" t="s">
-        <v>8362</v>
+      <c r="M132" s="5" t="s">
+        <v>8360</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
@@ -32708,8 +32706,8 @@
       <c r="L133" t="s">
         <v>6598</v>
       </c>
-      <c r="M133" s="4" t="s">
-        <v>8363</v>
+      <c r="M133" s="5" t="s">
+        <v>8361</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
@@ -32749,8 +32747,8 @@
       <c r="L134" t="s">
         <v>6599</v>
       </c>
-      <c r="M134" s="4" t="s">
-        <v>8364</v>
+      <c r="M134" s="5" t="s">
+        <v>8362</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
@@ -32790,8 +32788,8 @@
       <c r="L135" t="s">
         <v>6600</v>
       </c>
-      <c r="M135" s="4" t="s">
-        <v>8365</v>
+      <c r="M135" s="5" t="s">
+        <v>8363</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
@@ -32831,8 +32829,8 @@
       <c r="L136" t="s">
         <v>5364</v>
       </c>
-      <c r="M136" s="4" t="s">
-        <v>8366</v>
+      <c r="M136" s="5" t="s">
+        <v>8364</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
@@ -32872,8 +32870,8 @@
       <c r="L137" t="s">
         <v>6601</v>
       </c>
-      <c r="M137" s="4" t="s">
-        <v>8367</v>
+      <c r="M137" s="5" t="s">
+        <v>8365</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
@@ -32913,8 +32911,8 @@
       <c r="L138" t="s">
         <v>6602</v>
       </c>
-      <c r="M138" s="4" t="s">
-        <v>8368</v>
+      <c r="M138" s="5" t="s">
+        <v>8366</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
@@ -32954,8 +32952,8 @@
       <c r="L139" t="s">
         <v>6603</v>
       </c>
-      <c r="M139" s="4" t="s">
-        <v>8369</v>
+      <c r="M139" s="5" t="s">
+        <v>8367</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
@@ -32995,8 +32993,8 @@
       <c r="L140" t="s">
         <v>6604</v>
       </c>
-      <c r="M140" s="4" t="s">
-        <v>8370</v>
+      <c r="M140" s="5" t="s">
+        <v>8368</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
@@ -33036,8 +33034,8 @@
       <c r="L141" t="s">
         <v>6605</v>
       </c>
-      <c r="M141" s="4" t="s">
-        <v>8371</v>
+      <c r="M141" s="5" t="s">
+        <v>8369</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
@@ -33077,8 +33075,8 @@
       <c r="L142" t="s">
         <v>6606</v>
       </c>
-      <c r="M142" s="4" t="s">
-        <v>8372</v>
+      <c r="M142" s="5" t="s">
+        <v>8370</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
@@ -33118,8 +33116,8 @@
       <c r="L143" t="s">
         <v>6607</v>
       </c>
-      <c r="M143" s="4" t="s">
-        <v>8373</v>
+      <c r="M143" s="5" t="s">
+        <v>8371</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
@@ -33159,8 +33157,8 @@
       <c r="L144" t="s">
         <v>6608</v>
       </c>
-      <c r="M144" s="4" t="s">
-        <v>8374</v>
+      <c r="M144" s="5" t="s">
+        <v>8372</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
@@ -33200,8 +33198,8 @@
       <c r="L145" t="s">
         <v>6609</v>
       </c>
-      <c r="M145" s="4" t="s">
-        <v>8375</v>
+      <c r="M145" s="5" t="s">
+        <v>8373</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
@@ -33241,7 +33239,7 @@
       <c r="L146" t="s">
         <v>6610</v>
       </c>
-      <c r="M146" s="4" t="s">
+      <c r="M146" s="5" t="s">
         <v>2136</v>
       </c>
     </row>
@@ -33282,7 +33280,7 @@
       <c r="L147" t="s">
         <v>6611</v>
       </c>
-      <c r="M147" s="4" t="s">
+      <c r="M147" s="5" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -33323,8 +33321,8 @@
       <c r="L148" t="s">
         <v>6612</v>
       </c>
-      <c r="M148" s="4" t="s">
-        <v>8376</v>
+      <c r="M148" s="5" t="s">
+        <v>8374</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
@@ -33364,8 +33362,8 @@
       <c r="L149" t="s">
         <v>6613</v>
       </c>
-      <c r="M149" s="4" t="s">
-        <v>8377</v>
+      <c r="M149" s="5" t="s">
+        <v>8375</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
@@ -33405,8 +33403,8 @@
       <c r="L150" t="s">
         <v>6614</v>
       </c>
-      <c r="M150" s="4" t="s">
-        <v>8378</v>
+      <c r="M150" s="5" t="s">
+        <v>8376</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
@@ -33446,8 +33444,8 @@
       <c r="L151" t="s">
         <v>6615</v>
       </c>
-      <c r="M151" s="4" t="s">
-        <v>8379</v>
+      <c r="M151" s="5" t="s">
+        <v>8377</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
@@ -33487,8 +33485,8 @@
       <c r="L152" t="s">
         <v>6616</v>
       </c>
-      <c r="M152" s="4" t="s">
-        <v>8380</v>
+      <c r="M152" s="5" t="s">
+        <v>8378</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
@@ -33528,8 +33526,8 @@
       <c r="L153" t="s">
         <v>6617</v>
       </c>
-      <c r="M153" s="4" t="s">
-        <v>8381</v>
+      <c r="M153" s="5" t="s">
+        <v>8379</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
@@ -33569,8 +33567,8 @@
       <c r="L154" t="s">
         <v>6618</v>
       </c>
-      <c r="M154" s="4" t="s">
-        <v>8382</v>
+      <c r="M154" s="5" t="s">
+        <v>8380</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
@@ -33610,8 +33608,8 @@
       <c r="L155" t="s">
         <v>6619</v>
       </c>
-      <c r="M155" s="4" t="s">
-        <v>8314</v>
+      <c r="M155" s="5" t="s">
+        <v>8312</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
@@ -33651,8 +33649,8 @@
       <c r="L156" t="s">
         <v>6620</v>
       </c>
-      <c r="M156" s="4" t="s">
-        <v>8383</v>
+      <c r="M156" s="5" t="s">
+        <v>8381</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
@@ -33692,8 +33690,8 @@
       <c r="L157" t="s">
         <v>6621</v>
       </c>
-      <c r="M157" s="4" t="s">
-        <v>8384</v>
+      <c r="M157" s="5" t="s">
+        <v>8382</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
@@ -33733,8 +33731,8 @@
       <c r="L158" t="s">
         <v>6622</v>
       </c>
-      <c r="M158" s="4" t="s">
-        <v>8385</v>
+      <c r="M158" s="5" t="s">
+        <v>8383</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
@@ -33774,8 +33772,8 @@
       <c r="L159" t="s">
         <v>6623</v>
       </c>
-      <c r="M159" s="4" t="s">
-        <v>8386</v>
+      <c r="M159" s="5" t="s">
+        <v>8384</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
@@ -33815,8 +33813,8 @@
       <c r="L160" t="s">
         <v>6624</v>
       </c>
-      <c r="M160" s="4" t="s">
-        <v>8387</v>
+      <c r="M160" s="5" t="s">
+        <v>8385</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
@@ -33856,8 +33854,8 @@
       <c r="L161" t="s">
         <v>6625</v>
       </c>
-      <c r="M161" s="4" t="s">
-        <v>8388</v>
+      <c r="M161" s="5" t="s">
+        <v>8386</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
@@ -33897,8 +33895,8 @@
       <c r="L162" t="s">
         <v>6626</v>
       </c>
-      <c r="M162" s="4" t="s">
-        <v>8389</v>
+      <c r="M162" s="5" t="s">
+        <v>8387</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
@@ -33938,8 +33936,8 @@
       <c r="L163" t="s">
         <v>6627</v>
       </c>
-      <c r="M163" s="4" t="s">
-        <v>8390</v>
+      <c r="M163" s="5" t="s">
+        <v>8388</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
@@ -33979,8 +33977,8 @@
       <c r="L164" t="s">
         <v>6628</v>
       </c>
-      <c r="M164" s="4" t="s">
-        <v>8391</v>
+      <c r="M164" s="5" t="s">
+        <v>8389</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
@@ -34020,8 +34018,8 @@
       <c r="L165" t="s">
         <v>6629</v>
       </c>
-      <c r="M165" s="4" t="s">
-        <v>8392</v>
+      <c r="M165" s="5" t="s">
+        <v>8390</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
@@ -34061,8 +34059,8 @@
       <c r="L166" t="s">
         <v>6630</v>
       </c>
-      <c r="M166" s="4" t="s">
-        <v>8393</v>
+      <c r="M166" s="5" t="s">
+        <v>8391</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
@@ -34102,8 +34100,8 @@
       <c r="L167" t="s">
         <v>6631</v>
       </c>
-      <c r="M167" s="4" t="s">
-        <v>8394</v>
+      <c r="M167" s="5" t="s">
+        <v>8392</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
@@ -34143,8 +34141,8 @@
       <c r="L168" t="s">
         <v>6501</v>
       </c>
-      <c r="M168" s="4" t="s">
-        <v>8258</v>
+      <c r="M168" s="5" t="s">
+        <v>8256</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
@@ -34184,8 +34182,8 @@
       <c r="L169" t="s">
         <v>6632</v>
       </c>
-      <c r="M169" s="4" t="s">
-        <v>8395</v>
+      <c r="M169" s="5" t="s">
+        <v>8393</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
@@ -34225,8 +34223,8 @@
       <c r="L170" t="s">
         <v>6633</v>
       </c>
-      <c r="M170" s="4" t="s">
-        <v>8396</v>
+      <c r="M170" s="5" t="s">
+        <v>8394</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
@@ -34266,8 +34264,8 @@
       <c r="L171" t="s">
         <v>6634</v>
       </c>
-      <c r="M171" s="4" t="s">
-        <v>8397</v>
+      <c r="M171" s="5" t="s">
+        <v>8395</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
@@ -34307,8 +34305,8 @@
       <c r="L172" t="s">
         <v>2161</v>
       </c>
-      <c r="M172" s="4" t="s">
-        <v>8398</v>
+      <c r="M172" s="5" t="s">
+        <v>8396</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
@@ -34348,8 +34346,8 @@
       <c r="L173" t="s">
         <v>6635</v>
       </c>
-      <c r="M173" s="4" t="s">
-        <v>8399</v>
+      <c r="M173" s="5" t="s">
+        <v>8397</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
@@ -34389,8 +34387,8 @@
       <c r="L174" t="s">
         <v>6636</v>
       </c>
-      <c r="M174" s="4" t="s">
-        <v>8400</v>
+      <c r="M174" s="5" t="s">
+        <v>8398</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
@@ -34430,8 +34428,8 @@
       <c r="L175" t="s">
         <v>6637</v>
       </c>
-      <c r="M175" s="4" t="s">
-        <v>8401</v>
+      <c r="M175" s="5" t="s">
+        <v>8399</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
@@ -34471,8 +34469,8 @@
       <c r="L176" t="s">
         <v>6638</v>
       </c>
-      <c r="M176" s="4" t="s">
-        <v>8402</v>
+      <c r="M176" s="5" t="s">
+        <v>8400</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
@@ -34512,8 +34510,8 @@
       <c r="L177" t="s">
         <v>6639</v>
       </c>
-      <c r="M177" s="4" t="s">
-        <v>8403</v>
+      <c r="M177" s="5" t="s">
+        <v>8401</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
@@ -34553,8 +34551,8 @@
       <c r="L178" t="s">
         <v>6640</v>
       </c>
-      <c r="M178" s="4" t="s">
-        <v>8404</v>
+      <c r="M178" s="5" t="s">
+        <v>8402</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
@@ -34594,8 +34592,8 @@
       <c r="L179" t="s">
         <v>6641</v>
       </c>
-      <c r="M179" s="4" t="s">
-        <v>8405</v>
+      <c r="M179" s="5" t="s">
+        <v>8403</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
@@ -34635,8 +34633,8 @@
       <c r="L180" t="s">
         <v>6642</v>
       </c>
-      <c r="M180" s="4" t="s">
-        <v>8406</v>
+      <c r="M180" s="5" t="s">
+        <v>8404</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
@@ -34676,8 +34674,8 @@
       <c r="L181" t="s">
         <v>6643</v>
       </c>
-      <c r="M181" s="4" t="s">
-        <v>8407</v>
+      <c r="M181" s="5" t="s">
+        <v>8405</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
@@ -34717,8 +34715,8 @@
       <c r="L182" t="s">
         <v>5409</v>
       </c>
-      <c r="M182" s="4" t="s">
-        <v>8408</v>
+      <c r="M182" s="5" t="s">
+        <v>8406</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
@@ -34758,8 +34756,8 @@
       <c r="L183" t="s">
         <v>6644</v>
       </c>
-      <c r="M183" s="4" t="s">
-        <v>8409</v>
+      <c r="M183" s="5" t="s">
+        <v>8407</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
@@ -34799,8 +34797,8 @@
       <c r="L184" t="s">
         <v>6645</v>
       </c>
-      <c r="M184" s="4" t="s">
-        <v>8410</v>
+      <c r="M184" s="5" t="s">
+        <v>8408</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
@@ -34840,8 +34838,8 @@
       <c r="L185" t="s">
         <v>6646</v>
       </c>
-      <c r="M185" s="4" t="s">
-        <v>8411</v>
+      <c r="M185" s="5" t="s">
+        <v>8409</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
@@ -34881,8 +34879,8 @@
       <c r="L186" t="s">
         <v>6647</v>
       </c>
-      <c r="M186" s="4" t="s">
-        <v>8914</v>
+      <c r="M186" s="5" t="s">
+        <v>8908</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
@@ -34922,8 +34920,8 @@
       <c r="L187" t="s">
         <v>6648</v>
       </c>
-      <c r="M187" s="4" t="s">
-        <v>8412</v>
+      <c r="M187" s="5" t="s">
+        <v>8410</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
@@ -34963,8 +34961,8 @@
       <c r="L188" t="s">
         <v>6649</v>
       </c>
-      <c r="M188" s="4" t="s">
-        <v>8413</v>
+      <c r="M188" s="5" t="s">
+        <v>8411</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
@@ -35004,8 +35002,8 @@
       <c r="L189" t="s">
         <v>6650</v>
       </c>
-      <c r="M189" s="4" t="s">
-        <v>8414</v>
+      <c r="M189" s="5" t="s">
+        <v>8412</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
@@ -35045,8 +35043,8 @@
       <c r="L190" t="s">
         <v>6651</v>
       </c>
-      <c r="M190" s="4" t="s">
-        <v>8415</v>
+      <c r="M190" s="5" t="s">
+        <v>8413</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
@@ -35086,8 +35084,8 @@
       <c r="L191" t="s">
         <v>6652</v>
       </c>
-      <c r="M191" s="4" t="s">
-        <v>8416</v>
+      <c r="M191" s="5" t="s">
+        <v>8414</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
@@ -35127,8 +35125,8 @@
       <c r="L192" t="s">
         <v>6653</v>
       </c>
-      <c r="M192" s="4" t="s">
-        <v>8417</v>
+      <c r="M192" s="5" t="s">
+        <v>8415</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
@@ -35168,8 +35166,8 @@
       <c r="L193" t="s">
         <v>6654</v>
       </c>
-      <c r="M193" s="4" t="s">
-        <v>8418</v>
+      <c r="M193" s="5" t="s">
+        <v>8416</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
@@ -35209,8 +35207,8 @@
       <c r="L194" t="s">
         <v>6655</v>
       </c>
-      <c r="M194" s="4" t="s">
-        <v>8419</v>
+      <c r="M194" s="5" t="s">
+        <v>8417</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
@@ -35250,8 +35248,8 @@
       <c r="L195" t="s">
         <v>6656</v>
       </c>
-      <c r="M195" s="4" t="s">
-        <v>8420</v>
+      <c r="M195" s="5" t="s">
+        <v>8418</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
@@ -35291,8 +35289,8 @@
       <c r="L196" t="s">
         <v>6657</v>
       </c>
-      <c r="M196" s="4" t="s">
-        <v>8421</v>
+      <c r="M196" s="5" t="s">
+        <v>8419</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
@@ -35332,8 +35330,8 @@
       <c r="L197" t="s">
         <v>6658</v>
       </c>
-      <c r="M197" s="4" t="s">
-        <v>8422</v>
+      <c r="M197" s="5" t="s">
+        <v>8420</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
@@ -35373,8 +35371,8 @@
       <c r="L198" t="s">
         <v>6659</v>
       </c>
-      <c r="M198" s="4" t="s">
-        <v>8423</v>
+      <c r="M198" s="5" t="s">
+        <v>8421</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
@@ -35414,8 +35412,8 @@
       <c r="L199" t="s">
         <v>6660</v>
       </c>
-      <c r="M199" s="4" t="s">
-        <v>8424</v>
+      <c r="M199" s="5" t="s">
+        <v>8422</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
@@ -35455,8 +35453,8 @@
       <c r="L200" t="s">
         <v>6661</v>
       </c>
-      <c r="M200" s="4" t="s">
-        <v>8425</v>
+      <c r="M200" s="5" t="s">
+        <v>8423</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
@@ -35496,8 +35494,8 @@
       <c r="L201" t="s">
         <v>6662</v>
       </c>
-      <c r="M201" s="4" t="s">
-        <v>8426</v>
+      <c r="M201" s="5" t="s">
+        <v>8424</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
@@ -35537,8 +35535,8 @@
       <c r="L202" t="s">
         <v>6663</v>
       </c>
-      <c r="M202" s="4" t="s">
-        <v>8427</v>
+      <c r="M202" s="5" t="s">
+        <v>8425</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
@@ -35578,8 +35576,8 @@
       <c r="L203" t="s">
         <v>6664</v>
       </c>
-      <c r="M203" s="4" t="s">
-        <v>8428</v>
+      <c r="M203" s="5" t="s">
+        <v>8426</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
@@ -35619,8 +35617,8 @@
       <c r="L204" t="s">
         <v>6665</v>
       </c>
-      <c r="M204" s="4" t="s">
-        <v>8429</v>
+      <c r="M204" s="5" t="s">
+        <v>8427</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
@@ -35660,8 +35658,8 @@
       <c r="L205" t="s">
         <v>8099</v>
       </c>
-      <c r="M205" s="4" t="s">
-        <v>8430</v>
+      <c r="M205" s="5" t="s">
+        <v>8428</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
@@ -35701,8 +35699,8 @@
       <c r="L206" t="s">
         <v>6666</v>
       </c>
-      <c r="M206" s="4" t="s">
-        <v>8431</v>
+      <c r="M206" s="5" t="s">
+        <v>8429</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
@@ -35742,8 +35740,8 @@
       <c r="L207" t="s">
         <v>6667</v>
       </c>
-      <c r="M207" s="4" t="s">
-        <v>8432</v>
+      <c r="M207" s="5" t="s">
+        <v>8430</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
@@ -35783,8 +35781,8 @@
       <c r="L208" t="s">
         <v>6668</v>
       </c>
-      <c r="M208" s="4" t="s">
-        <v>8433</v>
+      <c r="M208" s="5" t="s">
+        <v>8431</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
@@ -35824,8 +35822,8 @@
       <c r="L209" t="s">
         <v>6669</v>
       </c>
-      <c r="M209" s="4" t="s">
-        <v>8434</v>
+      <c r="M209" s="5" t="s">
+        <v>8432</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
@@ -35865,8 +35863,8 @@
       <c r="L210" t="s">
         <v>6670</v>
       </c>
-      <c r="M210" s="4" t="s">
-        <v>8435</v>
+      <c r="M210" s="5" t="s">
+        <v>8433</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
@@ -35906,8 +35904,8 @@
       <c r="L211" t="s">
         <v>6671</v>
       </c>
-      <c r="M211" s="4" t="s">
-        <v>8436</v>
+      <c r="M211" s="5" t="s">
+        <v>8434</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
@@ -35947,8 +35945,8 @@
       <c r="L212" t="s">
         <v>6672</v>
       </c>
-      <c r="M212" s="4" t="s">
-        <v>8437</v>
+      <c r="M212" s="5" t="s">
+        <v>8435</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
@@ -35988,8 +35986,8 @@
       <c r="L213" t="s">
         <v>6673</v>
       </c>
-      <c r="M213" s="4" t="s">
-        <v>8438</v>
+      <c r="M213" s="5" t="s">
+        <v>8436</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
@@ -36029,8 +36027,8 @@
       <c r="L214" t="s">
         <v>6674</v>
       </c>
-      <c r="M214" s="4" t="s">
-        <v>8439</v>
+      <c r="M214" s="5" t="s">
+        <v>8437</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
@@ -36070,8 +36068,8 @@
       <c r="L215" t="s">
         <v>6675</v>
       </c>
-      <c r="M215" s="4" t="s">
-        <v>8440</v>
+      <c r="M215" s="5" t="s">
+        <v>8438</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
@@ -36111,8 +36109,8 @@
       <c r="L216" t="s">
         <v>6676</v>
       </c>
-      <c r="M216" s="4" t="s">
-        <v>8441</v>
+      <c r="M216" s="5" t="s">
+        <v>8439</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
@@ -36152,8 +36150,8 @@
       <c r="L217" t="s">
         <v>6677</v>
       </c>
-      <c r="M217" s="4" t="s">
-        <v>8442</v>
+      <c r="M217" s="5" t="s">
+        <v>8440</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
@@ -36193,8 +36191,8 @@
       <c r="L218" t="s">
         <v>6678</v>
       </c>
-      <c r="M218" s="4" t="s">
-        <v>8443</v>
+      <c r="M218" s="5" t="s">
+        <v>8441</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
@@ -36234,8 +36232,8 @@
       <c r="L219" t="s">
         <v>6679</v>
       </c>
-      <c r="M219" s="4" t="s">
-        <v>8444</v>
+      <c r="M219" s="5" t="s">
+        <v>8442</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
@@ -36275,8 +36273,8 @@
       <c r="L220" t="s">
         <v>6680</v>
       </c>
-      <c r="M220" s="4" t="s">
-        <v>8445</v>
+      <c r="M220" s="5" t="s">
+        <v>8443</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
@@ -36316,8 +36314,8 @@
       <c r="L221" t="s">
         <v>6681</v>
       </c>
-      <c r="M221" s="4" t="s">
-        <v>8446</v>
+      <c r="M221" s="5" t="s">
+        <v>8444</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
@@ -36357,8 +36355,8 @@
       <c r="L222" t="s">
         <v>6682</v>
       </c>
-      <c r="M222" s="4" t="s">
-        <v>8447</v>
+      <c r="M222" s="5" t="s">
+        <v>8445</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
@@ -36398,8 +36396,8 @@
       <c r="L223" t="s">
         <v>6683</v>
       </c>
-      <c r="M223" s="4" t="s">
-        <v>8447</v>
+      <c r="M223" s="5" t="s">
+        <v>8445</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
@@ -36439,8 +36437,8 @@
       <c r="L224" t="s">
         <v>6684</v>
       </c>
-      <c r="M224" s="4" t="s">
-        <v>8448</v>
+      <c r="M224" s="5" t="s">
+        <v>8446</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
@@ -36480,8 +36478,8 @@
       <c r="L225" t="s">
         <v>6685</v>
       </c>
-      <c r="M225" s="4" t="s">
-        <v>8449</v>
+      <c r="M225" s="5" t="s">
+        <v>8447</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
@@ -36521,8 +36519,8 @@
       <c r="L226" t="s">
         <v>6686</v>
       </c>
-      <c r="M226" s="4" t="s">
-        <v>8450</v>
+      <c r="M226" s="5" t="s">
+        <v>8448</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
@@ -36562,8 +36560,8 @@
       <c r="L227" t="s">
         <v>6687</v>
       </c>
-      <c r="M227" s="4" t="s">
-        <v>8451</v>
+      <c r="M227" s="5" t="s">
+        <v>8449</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
@@ -36603,8 +36601,8 @@
       <c r="L228" t="s">
         <v>6688</v>
       </c>
-      <c r="M228" s="4" t="s">
-        <v>8452</v>
+      <c r="M228" s="5" t="s">
+        <v>8450</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
@@ -36644,8 +36642,8 @@
       <c r="L229" t="s">
         <v>6689</v>
       </c>
-      <c r="M229" s="4" t="s">
-        <v>8453</v>
+      <c r="M229" s="5" t="s">
+        <v>8451</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
@@ -36685,8 +36683,8 @@
       <c r="L230" t="s">
         <v>6690</v>
       </c>
-      <c r="M230" s="4" t="s">
-        <v>8454</v>
+      <c r="M230" s="5" t="s">
+        <v>8452</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
@@ -36726,8 +36724,8 @@
       <c r="L231" t="s">
         <v>6691</v>
       </c>
-      <c r="M231" s="4" t="s">
-        <v>8455</v>
+      <c r="M231" s="5" t="s">
+        <v>8453</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
@@ -36767,8 +36765,8 @@
       <c r="L232" t="s">
         <v>5456</v>
       </c>
-      <c r="M232" s="4" t="s">
-        <v>8456</v>
+      <c r="M232" s="5" t="s">
+        <v>8454</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
@@ -36808,8 +36806,8 @@
       <c r="L233" t="s">
         <v>6692</v>
       </c>
-      <c r="M233" s="4" t="s">
-        <v>8457</v>
+      <c r="M233" s="5" t="s">
+        <v>8455</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
@@ -36849,8 +36847,8 @@
       <c r="L234" t="s">
         <v>6693</v>
       </c>
-      <c r="M234" s="4" t="s">
-        <v>8458</v>
+      <c r="M234" s="5" t="s">
+        <v>8456</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
@@ -36890,8 +36888,8 @@
       <c r="L235" t="s">
         <v>6694</v>
       </c>
-      <c r="M235" s="4" t="s">
-        <v>8459</v>
+      <c r="M235" s="5" t="s">
+        <v>8457</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
@@ -36931,8 +36929,8 @@
       <c r="L236" t="s">
         <v>6695</v>
       </c>
-      <c r="M236" s="4" t="s">
-        <v>8460</v>
+      <c r="M236" s="5" t="s">
+        <v>8458</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
@@ -36972,8 +36970,8 @@
       <c r="L237" t="s">
         <v>6696</v>
       </c>
-      <c r="M237" s="4" t="s">
-        <v>8461</v>
+      <c r="M237" s="5" t="s">
+        <v>8459</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
@@ -37013,8 +37011,8 @@
       <c r="L238" t="s">
         <v>6697</v>
       </c>
-      <c r="M238" s="4" t="s">
-        <v>8462</v>
+      <c r="M238" s="5" t="s">
+        <v>8460</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
@@ -37054,8 +37052,8 @@
       <c r="L239" t="s">
         <v>6698</v>
       </c>
-      <c r="M239" s="4" t="s">
-        <v>8463</v>
+      <c r="M239" s="5" t="s">
+        <v>8461</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
@@ -37095,8 +37093,8 @@
       <c r="L240" t="s">
         <v>6699</v>
       </c>
-      <c r="M240" s="4" t="s">
-        <v>8464</v>
+      <c r="M240" s="5" t="s">
+        <v>8462</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
@@ -37136,8 +37134,8 @@
       <c r="L241" t="s">
         <v>6700</v>
       </c>
-      <c r="M241" s="4" t="s">
-        <v>8465</v>
+      <c r="M241" s="5" t="s">
+        <v>8463</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
@@ -37177,8 +37175,8 @@
       <c r="L242" t="s">
         <v>6701</v>
       </c>
-      <c r="M242" s="4" t="s">
-        <v>8466</v>
+      <c r="M242" s="5" t="s">
+        <v>8464</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
@@ -37218,8 +37216,8 @@
       <c r="L243" t="s">
         <v>6702</v>
       </c>
-      <c r="M243" s="4" t="s">
-        <v>8467</v>
+      <c r="M243" s="5" t="s">
+        <v>8465</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
@@ -37259,8 +37257,8 @@
       <c r="L244" t="s">
         <v>6703</v>
       </c>
-      <c r="M244" s="4" t="s">
-        <v>8468</v>
+      <c r="M244" s="5" t="s">
+        <v>8466</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
@@ -37300,8 +37298,8 @@
       <c r="L245" t="s">
         <v>6704</v>
       </c>
-      <c r="M245" s="4" t="s">
-        <v>8469</v>
+      <c r="M245" s="5" t="s">
+        <v>8467</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
@@ -37341,8 +37339,8 @@
       <c r="L246" t="s">
         <v>6705</v>
       </c>
-      <c r="M246" s="4" t="s">
-        <v>8470</v>
+      <c r="M246" s="5" t="s">
+        <v>8468</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
@@ -37382,8 +37380,8 @@
       <c r="L247" t="s">
         <v>6706</v>
       </c>
-      <c r="M247" s="4" t="s">
-        <v>8471</v>
+      <c r="M247" s="5" t="s">
+        <v>8469</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
@@ -37423,8 +37421,8 @@
       <c r="L248" t="s">
         <v>6707</v>
       </c>
-      <c r="M248" s="4" t="s">
-        <v>8472</v>
+      <c r="M248" s="5" t="s">
+        <v>8470</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
@@ -37464,8 +37462,8 @@
       <c r="L249" t="s">
         <v>6708</v>
       </c>
-      <c r="M249" s="4" t="s">
-        <v>8473</v>
+      <c r="M249" s="5" t="s">
+        <v>8471</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
@@ -37505,8 +37503,8 @@
       <c r="L250" t="s">
         <v>6709</v>
       </c>
-      <c r="M250" s="4" t="s">
-        <v>8474</v>
+      <c r="M250" s="5" t="s">
+        <v>8472</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
@@ -37546,8 +37544,8 @@
       <c r="L251" t="s">
         <v>6710</v>
       </c>
-      <c r="M251" s="4" t="s">
-        <v>8475</v>
+      <c r="M251" s="5" t="s">
+        <v>8473</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
@@ -37587,8 +37585,8 @@
       <c r="L252" t="s">
         <v>6711</v>
       </c>
-      <c r="M252" s="4" t="s">
-        <v>8476</v>
+      <c r="M252" s="5" t="s">
+        <v>8474</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
@@ -37628,8 +37626,8 @@
       <c r="L253" t="s">
         <v>6712</v>
       </c>
-      <c r="M253" s="4" t="s">
-        <v>8477</v>
+      <c r="M253" s="5" t="s">
+        <v>8929</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
@@ -37669,8 +37667,8 @@
       <c r="L254" t="s">
         <v>6713</v>
       </c>
-      <c r="M254" s="4" t="s">
-        <v>8915</v>
+      <c r="M254" s="5" t="s">
+        <v>8909</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
@@ -37710,8 +37708,8 @@
       <c r="L255" t="s">
         <v>6714</v>
       </c>
-      <c r="M255" s="4" t="s">
-        <v>8478</v>
+      <c r="M255" s="5" t="s">
+        <v>8475</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
@@ -37751,8 +37749,8 @@
       <c r="L256" t="s">
         <v>6715</v>
       </c>
-      <c r="M256" s="4" t="s">
-        <v>8479</v>
+      <c r="M256" s="5" t="s">
+        <v>8930</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
@@ -37792,8 +37790,8 @@
       <c r="L257" t="s">
         <v>6716</v>
       </c>
-      <c r="M257" s="4" t="s">
-        <v>8480</v>
+      <c r="M257" s="5" t="s">
+        <v>8476</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
@@ -37833,8 +37831,8 @@
       <c r="L258" t="s">
         <v>6717</v>
       </c>
-      <c r="M258" s="4" t="s">
-        <v>8481</v>
+      <c r="M258" s="5" t="s">
+        <v>8477</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
@@ -37874,8 +37872,8 @@
       <c r="L259" t="s">
         <v>6718</v>
       </c>
-      <c r="M259" s="4" t="s">
-        <v>8482</v>
+      <c r="M259" s="5" t="s">
+        <v>8478</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
@@ -37915,8 +37913,8 @@
       <c r="L260" t="s">
         <v>6719</v>
       </c>
-      <c r="M260" s="4" t="s">
-        <v>8483</v>
+      <c r="M260" s="5" t="s">
+        <v>8479</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
@@ -37956,8 +37954,8 @@
       <c r="L261" t="s">
         <v>6720</v>
       </c>
-      <c r="M261" s="4" t="s">
-        <v>8484</v>
+      <c r="M261" s="5" t="s">
+        <v>8480</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
@@ -37997,8 +37995,8 @@
       <c r="L262" t="s">
         <v>6721</v>
       </c>
-      <c r="M262" s="4" t="s">
-        <v>8485</v>
+      <c r="M262" s="5" t="s">
+        <v>8481</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
@@ -38038,8 +38036,8 @@
       <c r="L263" t="s">
         <v>6722</v>
       </c>
-      <c r="M263" s="4" t="s">
-        <v>8486</v>
+      <c r="M263" s="5" t="s">
+        <v>8482</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
@@ -38079,8 +38077,8 @@
       <c r="L264" t="s">
         <v>6723</v>
       </c>
-      <c r="M264" s="4" t="s">
-        <v>8487</v>
+      <c r="M264" s="5" t="s">
+        <v>8483</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
@@ -38120,8 +38118,8 @@
       <c r="L265" t="s">
         <v>6724</v>
       </c>
-      <c r="M265" s="4" t="s">
-        <v>8488</v>
+      <c r="M265" s="5" t="s">
+        <v>8484</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.4">
@@ -38161,8 +38159,8 @@
       <c r="L266" t="s">
         <v>6725</v>
       </c>
-      <c r="M266" s="4" t="s">
-        <v>8489</v>
+      <c r="M266" s="5" t="s">
+        <v>8485</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.4">
@@ -38202,8 +38200,8 @@
       <c r="L267" t="s">
         <v>6726</v>
       </c>
-      <c r="M267" s="4" t="s">
-        <v>8490</v>
+      <c r="M267" s="5" t="s">
+        <v>8486</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
@@ -38243,8 +38241,8 @@
       <c r="L268" t="s">
         <v>6727</v>
       </c>
-      <c r="M268" s="4" t="s">
-        <v>8491</v>
+      <c r="M268" s="5" t="s">
+        <v>8487</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
@@ -38284,8 +38282,8 @@
       <c r="L269" t="s">
         <v>6728</v>
       </c>
-      <c r="M269" s="4" t="s">
-        <v>8492</v>
+      <c r="M269" s="5" t="s">
+        <v>8488</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
@@ -38325,8 +38323,8 @@
       <c r="L270" t="s">
         <v>6729</v>
       </c>
-      <c r="M270" s="4" t="s">
-        <v>8493</v>
+      <c r="M270" s="5" t="s">
+        <v>8489</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
@@ -38366,8 +38364,8 @@
       <c r="L271" t="s">
         <v>6730</v>
       </c>
-      <c r="M271" s="4" t="s">
-        <v>8494</v>
+      <c r="M271" s="5" t="s">
+        <v>8490</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
@@ -38407,8 +38405,8 @@
       <c r="L272" t="s">
         <v>5496</v>
       </c>
-      <c r="M272" s="4" t="s">
-        <v>8495</v>
+      <c r="M272" s="5" t="s">
+        <v>8491</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
@@ -38448,8 +38446,8 @@
       <c r="L273" t="s">
         <v>6731</v>
       </c>
-      <c r="M273" s="4" t="s">
-        <v>8496</v>
+      <c r="M273" s="5" t="s">
+        <v>8492</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
@@ -38489,8 +38487,8 @@
       <c r="L274" t="s">
         <v>6732</v>
       </c>
-      <c r="M274" s="4" t="s">
-        <v>8497</v>
+      <c r="M274" s="5" t="s">
+        <v>8493</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
@@ -38530,8 +38528,8 @@
       <c r="L275" t="s">
         <v>6733</v>
       </c>
-      <c r="M275" s="4" t="s">
-        <v>8498</v>
+      <c r="M275" s="5" t="s">
+        <v>8494</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
@@ -38571,8 +38569,8 @@
       <c r="L276" t="s">
         <v>6734</v>
       </c>
-      <c r="M276" s="4" t="s">
-        <v>8499</v>
+      <c r="M276" s="5" t="s">
+        <v>8495</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
@@ -38612,8 +38610,8 @@
       <c r="L277" t="s">
         <v>6735</v>
       </c>
-      <c r="M277" s="4" t="s">
-        <v>8500</v>
+      <c r="M277" s="5" t="s">
+        <v>8496</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
@@ -38653,8 +38651,8 @@
       <c r="L278" t="s">
         <v>6736</v>
       </c>
-      <c r="M278" s="4" t="s">
-        <v>8501</v>
+      <c r="M278" s="5" t="s">
+        <v>8497</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
@@ -38694,8 +38692,8 @@
       <c r="L279" t="s">
         <v>6737</v>
       </c>
-      <c r="M279" s="4" t="s">
-        <v>8502</v>
+      <c r="M279" s="5" t="s">
+        <v>8498</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
@@ -38735,8 +38733,8 @@
       <c r="L280" t="s">
         <v>6738</v>
       </c>
-      <c r="M280" s="4" t="s">
-        <v>8503</v>
+      <c r="M280" s="5" t="s">
+        <v>8499</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
@@ -38776,8 +38774,8 @@
       <c r="L281" t="s">
         <v>6739</v>
       </c>
-      <c r="M281" s="4" t="s">
-        <v>8504</v>
+      <c r="M281" s="5" t="s">
+        <v>8500</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
@@ -38817,8 +38815,8 @@
       <c r="L282" t="s">
         <v>6740</v>
       </c>
-      <c r="M282" s="4" t="s">
-        <v>8505</v>
+      <c r="M282" s="5" t="s">
+        <v>8501</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
@@ -38858,8 +38856,8 @@
       <c r="L283" t="s">
         <v>5507</v>
       </c>
-      <c r="M283" s="4" t="s">
-        <v>8506</v>
+      <c r="M283" s="5" t="s">
+        <v>8502</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
@@ -38899,8 +38897,8 @@
       <c r="L284" t="s">
         <v>6741</v>
       </c>
-      <c r="M284" s="4" t="s">
-        <v>8507</v>
+      <c r="M284" s="5" t="s">
+        <v>8503</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
@@ -38940,8 +38938,8 @@
       <c r="L285" t="s">
         <v>6742</v>
       </c>
-      <c r="M285" s="4" t="s">
-        <v>8508</v>
+      <c r="M285" s="5" t="s">
+        <v>8504</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
@@ -38981,8 +38979,8 @@
       <c r="L286" t="s">
         <v>6743</v>
       </c>
-      <c r="M286" s="4" t="s">
-        <v>8509</v>
+      <c r="M286" s="5" t="s">
+        <v>8505</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
@@ -39022,8 +39020,8 @@
       <c r="L287" t="s">
         <v>6744</v>
       </c>
-      <c r="M287" s="4" t="s">
-        <v>8510</v>
+      <c r="M287" s="5" t="s">
+        <v>8506</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
@@ -39063,8 +39061,8 @@
       <c r="L288" t="s">
         <v>6745</v>
       </c>
-      <c r="M288" s="4" t="s">
-        <v>8511</v>
+      <c r="M288" s="5" t="s">
+        <v>8507</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.4">
@@ -39104,8 +39102,8 @@
       <c r="L289" t="s">
         <v>6746</v>
       </c>
-      <c r="M289" s="4" t="s">
-        <v>8512</v>
+      <c r="M289" s="5" t="s">
+        <v>8508</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
@@ -39145,8 +39143,8 @@
       <c r="L290" t="s">
         <v>7164</v>
       </c>
-      <c r="M290" s="4" t="s">
-        <v>8513</v>
+      <c r="M290" s="5" t="s">
+        <v>8509</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
@@ -39186,8 +39184,8 @@
       <c r="L291" t="s">
         <v>5514</v>
       </c>
-      <c r="M291" s="4" t="s">
-        <v>8514</v>
+      <c r="M291" s="5" t="s">
+        <v>8510</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.4">
@@ -39227,8 +39225,8 @@
       <c r="L292" t="s">
         <v>6747</v>
       </c>
-      <c r="M292" s="4" t="s">
-        <v>8515</v>
+      <c r="M292" s="5" t="s">
+        <v>8511</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.4">
@@ -39268,8 +39266,8 @@
       <c r="L293" t="s">
         <v>6748</v>
       </c>
-      <c r="M293" s="4" t="s">
-        <v>8516</v>
+      <c r="M293" s="5" t="s">
+        <v>8512</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.4">
@@ -39309,8 +39307,8 @@
       <c r="L294" t="s">
         <v>6749</v>
       </c>
-      <c r="M294" s="4" t="s">
-        <v>8517</v>
+      <c r="M294" s="5" t="s">
+        <v>8513</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.4">
@@ -39350,8 +39348,8 @@
       <c r="L295" t="s">
         <v>6750</v>
       </c>
-      <c r="M295" s="4" t="s">
-        <v>8518</v>
+      <c r="M295" s="5" t="s">
+        <v>8514</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.4">
@@ -39391,8 +39389,8 @@
       <c r="L296" t="s">
         <v>6751</v>
       </c>
-      <c r="M296" s="4" t="s">
-        <v>8519</v>
+      <c r="M296" s="5" t="s">
+        <v>8515</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.4">
@@ -39432,8 +39430,8 @@
       <c r="L297" t="s">
         <v>6752</v>
       </c>
-      <c r="M297" s="4" t="s">
-        <v>8520</v>
+      <c r="M297" s="5" t="s">
+        <v>8516</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.4">
@@ -39473,8 +39471,8 @@
       <c r="L298" t="s">
         <v>6753</v>
       </c>
-      <c r="M298" s="4" t="s">
-        <v>8520</v>
+      <c r="M298" s="5" t="s">
+        <v>8516</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.4">
@@ -39514,8 +39512,8 @@
       <c r="L299" t="s">
         <v>6754</v>
       </c>
-      <c r="M299" s="4" t="s">
-        <v>8521</v>
+      <c r="M299" s="5" t="s">
+        <v>8517</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.4">
@@ -39555,8 +39553,8 @@
       <c r="L300" t="s">
         <v>6755</v>
       </c>
-      <c r="M300" s="4" t="s">
-        <v>8522</v>
+      <c r="M300" s="5" t="s">
+        <v>8518</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.4">
@@ -39596,8 +39594,8 @@
       <c r="L301" t="s">
         <v>6756</v>
       </c>
-      <c r="M301" s="4" t="s">
-        <v>8523</v>
+      <c r="M301" s="5" t="s">
+        <v>8519</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.4">
@@ -39637,8 +39635,8 @@
       <c r="L302" t="s">
         <v>6757</v>
       </c>
-      <c r="M302" s="4" t="s">
-        <v>8524</v>
+      <c r="M302" s="5" t="s">
+        <v>8520</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.4">
@@ -39678,8 +39676,8 @@
       <c r="L303" t="s">
         <v>6758</v>
       </c>
-      <c r="M303" s="4" t="s">
-        <v>8525</v>
+      <c r="M303" s="5" t="s">
+        <v>8521</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.4">
@@ -39719,8 +39717,8 @@
       <c r="L304" t="s">
         <v>6759</v>
       </c>
-      <c r="M304" s="4" t="s">
-        <v>8526</v>
+      <c r="M304" s="5" t="s">
+        <v>8522</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.4">
@@ -39760,8 +39758,8 @@
       <c r="L305" t="s">
         <v>6760</v>
       </c>
-      <c r="M305" s="4" t="s">
-        <v>8527</v>
+      <c r="M305" s="5" t="s">
+        <v>8523</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.4">
@@ -39801,8 +39799,8 @@
       <c r="L306" t="s">
         <v>6761</v>
       </c>
-      <c r="M306" s="4" t="s">
-        <v>8528</v>
+      <c r="M306" s="5" t="s">
+        <v>8524</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.4">
@@ -39842,8 +39840,8 @@
       <c r="L307" t="s">
         <v>6762</v>
       </c>
-      <c r="M307" s="4" t="s">
-        <v>8529</v>
+      <c r="M307" s="5" t="s">
+        <v>8525</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.4">
@@ -39883,8 +39881,8 @@
       <c r="L308" t="s">
         <v>6763</v>
       </c>
-      <c r="M308" s="4" t="s">
-        <v>8530</v>
+      <c r="M308" s="5" t="s">
+        <v>8526</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.4">
@@ -39924,8 +39922,8 @@
       <c r="L309" t="s">
         <v>6764</v>
       </c>
-      <c r="M309" s="4" t="s">
-        <v>8531</v>
+      <c r="M309" s="5" t="s">
+        <v>8527</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.4">
@@ -39965,8 +39963,8 @@
       <c r="L310" t="s">
         <v>6765</v>
       </c>
-      <c r="M310" s="4" t="s">
-        <v>8532</v>
+      <c r="M310" s="5" t="s">
+        <v>8528</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.4">
@@ -40006,8 +40004,8 @@
       <c r="L311" t="s">
         <v>6766</v>
       </c>
-      <c r="M311" s="4" t="s">
-        <v>8533</v>
+      <c r="M311" s="5" t="s">
+        <v>8529</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.4">
@@ -40047,8 +40045,8 @@
       <c r="L312" t="s">
         <v>6767</v>
       </c>
-      <c r="M312" s="4" t="s">
-        <v>8534</v>
+      <c r="M312" s="5" t="s">
+        <v>8530</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.4">
@@ -40088,8 +40086,8 @@
       <c r="L313" t="s">
         <v>6768</v>
       </c>
-      <c r="M313" s="4" t="s">
-        <v>8535</v>
+      <c r="M313" s="5" t="s">
+        <v>8531</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.4">
@@ -40129,8 +40127,8 @@
       <c r="L314" t="s">
         <v>5537</v>
       </c>
-      <c r="M314" s="4" t="s">
-        <v>8536</v>
+      <c r="M314" s="5" t="s">
+        <v>8532</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.4">
@@ -40170,8 +40168,8 @@
       <c r="L315" t="s">
         <v>6769</v>
       </c>
-      <c r="M315" s="4" t="s">
-        <v>8537</v>
+      <c r="M315" s="5" t="s">
+        <v>8533</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.4">
@@ -40211,8 +40209,8 @@
       <c r="L316" t="s">
         <v>6770</v>
       </c>
-      <c r="M316" s="4" t="s">
-        <v>8538</v>
+      <c r="M316" s="5" t="s">
+        <v>8534</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.4">
@@ -40252,8 +40250,8 @@
       <c r="L317" t="s">
         <v>6771</v>
       </c>
-      <c r="M317" s="4" t="s">
-        <v>8539</v>
+      <c r="M317" s="5" t="s">
+        <v>8535</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.4">
@@ -40293,8 +40291,8 @@
       <c r="L318" t="s">
         <v>6642</v>
       </c>
-      <c r="M318" s="4" t="s">
-        <v>8540</v>
+      <c r="M318" s="5" t="s">
+        <v>8536</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.4">
@@ -40334,8 +40332,8 @@
       <c r="L319" t="s">
         <v>6772</v>
       </c>
-      <c r="M319" s="4" t="s">
-        <v>8541</v>
+      <c r="M319" s="5" t="s">
+        <v>8537</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.4">
@@ -40375,8 +40373,8 @@
       <c r="L320" t="s">
         <v>6773</v>
       </c>
-      <c r="M320" s="4" t="s">
-        <v>8542</v>
+      <c r="M320" s="5" t="s">
+        <v>8538</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.4">
@@ -40416,8 +40414,8 @@
       <c r="L321" t="s">
         <v>6774</v>
       </c>
-      <c r="M321" s="4" t="s">
-        <v>8543</v>
+      <c r="M321" s="5" t="s">
+        <v>8539</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.4">
@@ -40457,8 +40455,8 @@
       <c r="L322" t="s">
         <v>6775</v>
       </c>
-      <c r="M322" s="4" t="s">
-        <v>8544</v>
+      <c r="M322" s="5" t="s">
+        <v>8540</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.4">
@@ -40498,8 +40496,8 @@
       <c r="L323" t="s">
         <v>6776</v>
       </c>
-      <c r="M323" s="4" t="s">
-        <v>8545</v>
+      <c r="M323" s="5" t="s">
+        <v>8541</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.4">
@@ -40539,8 +40537,8 @@
       <c r="L324" t="s">
         <v>6777</v>
       </c>
-      <c r="M324" s="4" t="s">
-        <v>8546</v>
+      <c r="M324" s="5" t="s">
+        <v>8542</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.4">
@@ -40580,8 +40578,8 @@
       <c r="L325" t="s">
         <v>6778</v>
       </c>
-      <c r="M325" s="4" t="s">
-        <v>8547</v>
+      <c r="M325" s="5" t="s">
+        <v>8543</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.4">
@@ -40621,8 +40619,8 @@
       <c r="L326" t="s">
         <v>6779</v>
       </c>
-      <c r="M326" s="4" t="s">
-        <v>8548</v>
+      <c r="M326" s="5" t="s">
+        <v>8544</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.4">
@@ -40662,8 +40660,8 @@
       <c r="L327" t="s">
         <v>6780</v>
       </c>
-      <c r="M327" s="4" t="s">
-        <v>8549</v>
+      <c r="M327" s="5" t="s">
+        <v>8545</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.4">
@@ -40703,8 +40701,8 @@
       <c r="L328" t="s">
         <v>6781</v>
       </c>
-      <c r="M328" s="4" t="s">
-        <v>8550</v>
+      <c r="M328" s="5" t="s">
+        <v>8546</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.4">
@@ -40744,8 +40742,8 @@
       <c r="L329" t="s">
         <v>6782</v>
       </c>
-      <c r="M329" s="4" t="s">
-        <v>8551</v>
+      <c r="M329" s="5" t="s">
+        <v>8547</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.4">
@@ -40785,8 +40783,8 @@
       <c r="L330" t="s">
         <v>6783</v>
       </c>
-      <c r="M330" s="4" t="s">
-        <v>8916</v>
+      <c r="M330" s="5" t="s">
+        <v>8931</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.4">
@@ -40826,8 +40824,8 @@
       <c r="L331" t="s">
         <v>5553</v>
       </c>
-      <c r="M331" s="4" t="s">
-        <v>8552</v>
+      <c r="M331" s="5" t="s">
+        <v>8548</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.4">
@@ -40867,8 +40865,8 @@
       <c r="L332" t="s">
         <v>6784</v>
       </c>
-      <c r="M332" s="4" t="s">
-        <v>8553</v>
+      <c r="M332" s="5" t="s">
+        <v>8549</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.4">
@@ -40908,8 +40906,8 @@
       <c r="L333" t="s">
         <v>6785</v>
       </c>
-      <c r="M333" s="4" t="s">
-        <v>8554</v>
+      <c r="M333" s="5" t="s">
+        <v>8550</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.4">
@@ -40949,8 +40947,8 @@
       <c r="L334" t="s">
         <v>6786</v>
       </c>
-      <c r="M334" s="4" t="s">
-        <v>8555</v>
+      <c r="M334" s="5" t="s">
+        <v>8551</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.4">
@@ -40990,8 +40988,8 @@
       <c r="L335" t="s">
         <v>6787</v>
       </c>
-      <c r="M335" s="4" t="s">
-        <v>8556</v>
+      <c r="M335" s="5" t="s">
+        <v>8552</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.4">
@@ -41031,8 +41029,8 @@
       <c r="L336" t="s">
         <v>6788</v>
       </c>
-      <c r="M336" s="4" t="s">
-        <v>8557</v>
+      <c r="M336" s="5" t="s">
+        <v>8553</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.4">
@@ -41072,8 +41070,8 @@
       <c r="L337" t="s">
         <v>6789</v>
       </c>
-      <c r="M337" s="4" t="s">
-        <v>8558</v>
+      <c r="M337" s="5" t="s">
+        <v>8554</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.4">
@@ -41113,8 +41111,8 @@
       <c r="L338" t="s">
         <v>6790</v>
       </c>
-      <c r="M338" s="4" t="s">
-        <v>8559</v>
+      <c r="M338" s="5" t="s">
+        <v>8555</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.4">
@@ -41154,8 +41152,8 @@
       <c r="L339" t="s">
         <v>6486</v>
       </c>
-      <c r="M339" s="4" t="s">
-        <v>8241</v>
+      <c r="M339" s="5" t="s">
+        <v>8240</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.4">
@@ -41195,8 +41193,8 @@
       <c r="L340" t="s">
         <v>6791</v>
       </c>
-      <c r="M340" s="4" t="s">
-        <v>8560</v>
+      <c r="M340" s="5" t="s">
+        <v>8556</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.4">
@@ -41236,8 +41234,8 @@
       <c r="L341" t="s">
         <v>6792</v>
       </c>
-      <c r="M341" s="4" t="s">
-        <v>8561</v>
+      <c r="M341" s="5" t="s">
+        <v>8557</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.4">
@@ -41277,8 +41275,8 @@
       <c r="L342" t="s">
         <v>6793</v>
       </c>
-      <c r="M342" s="4" t="s">
-        <v>8562</v>
+      <c r="M342" s="5" t="s">
+        <v>8558</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.4">
@@ -41318,8 +41316,8 @@
       <c r="L343" t="s">
         <v>6794</v>
       </c>
-      <c r="M343" s="4" t="s">
-        <v>8563</v>
+      <c r="M343" s="5" t="s">
+        <v>8559</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.4">
@@ -41359,8 +41357,8 @@
       <c r="L344" t="s">
         <v>6795</v>
       </c>
-      <c r="M344" s="4" t="s">
-        <v>8564</v>
+      <c r="M344" s="5" t="s">
+        <v>8560</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.4">
@@ -41400,8 +41398,8 @@
       <c r="L345" t="s">
         <v>6796</v>
       </c>
-      <c r="M345" s="4" t="s">
-        <v>8565</v>
+      <c r="M345" s="5" t="s">
+        <v>8561</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.4">
@@ -41441,8 +41439,8 @@
       <c r="L346" t="s">
         <v>6797</v>
       </c>
-      <c r="M346" s="4" t="s">
-        <v>8566</v>
+      <c r="M346" s="5" t="s">
+        <v>8562</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.4">
@@ -41482,8 +41480,8 @@
       <c r="L347" t="s">
         <v>6798</v>
       </c>
-      <c r="M347" s="4" t="s">
-        <v>8567</v>
+      <c r="M347" s="5" t="s">
+        <v>8563</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.4">
@@ -41523,8 +41521,8 @@
       <c r="L348" t="s">
         <v>6799</v>
       </c>
-      <c r="M348" s="4" t="s">
-        <v>8568</v>
+      <c r="M348" s="5" t="s">
+        <v>8564</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.4">
@@ -41564,8 +41562,8 @@
       <c r="L349" t="s">
         <v>6800</v>
       </c>
-      <c r="M349" s="4" t="s">
-        <v>8569</v>
+      <c r="M349" s="5" t="s">
+        <v>8565</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.4">
@@ -41605,8 +41603,8 @@
       <c r="L350" t="s">
         <v>6801</v>
       </c>
-      <c r="M350" s="4" t="s">
-        <v>8570</v>
+      <c r="M350" s="5" t="s">
+        <v>8566</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.4">
@@ -41646,8 +41644,8 @@
       <c r="L351" t="s">
         <v>6802</v>
       </c>
-      <c r="M351" s="4" t="s">
-        <v>8571</v>
+      <c r="M351" s="5" t="s">
+        <v>8567</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.4">
@@ -41687,8 +41685,8 @@
       <c r="L352" t="s">
         <v>6803</v>
       </c>
-      <c r="M352" s="4" t="s">
-        <v>8572</v>
+      <c r="M352" s="5" t="s">
+        <v>8568</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.4">
@@ -41728,8 +41726,8 @@
       <c r="L353" t="s">
         <v>6804</v>
       </c>
-      <c r="M353" s="4" t="s">
-        <v>8573</v>
+      <c r="M353" s="5" t="s">
+        <v>8569</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.4">
@@ -41769,8 +41767,8 @@
       <c r="L354" t="s">
         <v>6805</v>
       </c>
-      <c r="M354" s="4" t="s">
-        <v>8574</v>
+      <c r="M354" s="5" t="s">
+        <v>8570</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.4">
@@ -41810,8 +41808,8 @@
       <c r="L355" t="s">
         <v>6806</v>
       </c>
-      <c r="M355" s="4" t="s">
-        <v>8575</v>
+      <c r="M355" s="5" t="s">
+        <v>8571</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.4">
@@ -41851,8 +41849,8 @@
       <c r="L356" t="s">
         <v>6807</v>
       </c>
-      <c r="M356" s="4" t="s">
-        <v>8576</v>
+      <c r="M356" s="5" t="s">
+        <v>8572</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.4">
@@ -41892,8 +41890,8 @@
       <c r="L357" t="s">
         <v>6808</v>
       </c>
-      <c r="M357" s="4" t="s">
-        <v>8577</v>
+      <c r="M357" s="5" t="s">
+        <v>8573</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.4">
@@ -41933,8 +41931,8 @@
       <c r="L358" t="s">
         <v>6809</v>
       </c>
-      <c r="M358" s="4" t="s">
-        <v>8578</v>
+      <c r="M358" s="5" t="s">
+        <v>8574</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.4">
@@ -41974,8 +41972,8 @@
       <c r="L359" t="s">
         <v>6810</v>
       </c>
-      <c r="M359" s="4" t="s">
-        <v>8579</v>
+      <c r="M359" s="5" t="s">
+        <v>8575</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.4">
@@ -42015,8 +42013,8 @@
       <c r="L360" t="s">
         <v>6811</v>
       </c>
-      <c r="M360" s="4" t="s">
-        <v>8580</v>
+      <c r="M360" s="5" t="s">
+        <v>8576</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.4">
@@ -42056,8 +42054,8 @@
       <c r="L361" t="s">
         <v>6812</v>
       </c>
-      <c r="M361" s="4" t="s">
-        <v>8581</v>
+      <c r="M361" s="5" t="s">
+        <v>8577</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.4">
@@ -42097,8 +42095,8 @@
       <c r="L362" t="s">
         <v>5584</v>
       </c>
-      <c r="M362" s="4" t="s">
-        <v>8582</v>
+      <c r="M362" s="5" t="s">
+        <v>8578</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.4">
@@ -42138,8 +42136,8 @@
       <c r="L363" t="s">
         <v>6813</v>
       </c>
-      <c r="M363" s="4" t="s">
-        <v>8583</v>
+      <c r="M363" s="5" t="s">
+        <v>8579</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.4">
@@ -42179,8 +42177,8 @@
       <c r="L364" t="s">
         <v>6811</v>
       </c>
-      <c r="M364" s="4" t="s">
-        <v>8580</v>
+      <c r="M364" s="5" t="s">
+        <v>8576</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.4">
@@ -42220,8 +42218,8 @@
       <c r="L365" t="s">
         <v>5586</v>
       </c>
-      <c r="M365" s="4" t="s">
-        <v>8584</v>
+      <c r="M365" s="5" t="s">
+        <v>8580</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.4">
@@ -42261,8 +42259,8 @@
       <c r="L366" t="s">
         <v>6814</v>
       </c>
-      <c r="M366" s="4" t="s">
-        <v>8585</v>
+      <c r="M366" s="5" t="s">
+        <v>8581</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.4">
@@ -42302,8 +42300,8 @@
       <c r="L367" t="s">
         <v>6815</v>
       </c>
-      <c r="M367" s="4" t="s">
-        <v>8586</v>
+      <c r="M367" s="5" t="s">
+        <v>8582</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.4">
@@ -42343,8 +42341,8 @@
       <c r="L368" t="s">
         <v>6816</v>
       </c>
-      <c r="M368" s="4" t="s">
-        <v>8587</v>
+      <c r="M368" s="5" t="s">
+        <v>8583</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.4">
@@ -42384,8 +42382,8 @@
       <c r="L369" t="s">
         <v>6817</v>
       </c>
-      <c r="M369" s="4" t="s">
-        <v>8588</v>
+      <c r="M369" s="5" t="s">
+        <v>8584</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.4">
@@ -42425,8 +42423,8 @@
       <c r="L370" t="s">
         <v>6818</v>
       </c>
-      <c r="M370" s="4" t="s">
-        <v>8589</v>
+      <c r="M370" s="5" t="s">
+        <v>8585</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.4">
@@ -42466,8 +42464,8 @@
       <c r="L371" t="s">
         <v>6819</v>
       </c>
-      <c r="M371" s="4" t="s">
-        <v>8590</v>
+      <c r="M371" s="5" t="s">
+        <v>8586</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.4">
@@ -42507,8 +42505,8 @@
       <c r="L372" t="s">
         <v>6820</v>
       </c>
-      <c r="M372" s="4" t="s">
-        <v>8591</v>
+      <c r="M372" s="5" t="s">
+        <v>8587</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.4">
@@ -42548,8 +42546,8 @@
       <c r="L373" t="s">
         <v>6821</v>
       </c>
-      <c r="M373" s="4" t="s">
-        <v>8592</v>
+      <c r="M373" s="5" t="s">
+        <v>8588</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.4">
@@ -42589,8 +42587,8 @@
       <c r="L374" t="s">
         <v>6822</v>
       </c>
-      <c r="M374" s="4" t="s">
-        <v>8593</v>
+      <c r="M374" s="5" t="s">
+        <v>8589</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.4">
@@ -42630,8 +42628,8 @@
       <c r="L375" t="s">
         <v>6823</v>
       </c>
-      <c r="M375" s="4" t="s">
-        <v>8594</v>
+      <c r="M375" s="5" t="s">
+        <v>8590</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.4">
@@ -42671,8 +42669,8 @@
       <c r="L376" t="s">
         <v>6824</v>
       </c>
-      <c r="M376" s="4" t="s">
-        <v>8595</v>
+      <c r="M376" s="5" t="s">
+        <v>8591</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.4">
@@ -42712,8 +42710,8 @@
       <c r="L377" t="s">
         <v>6825</v>
       </c>
-      <c r="M377" s="4" t="s">
-        <v>8596</v>
+      <c r="M377" s="5" t="s">
+        <v>8592</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.4">
@@ -42753,8 +42751,8 @@
       <c r="L378" t="s">
         <v>6826</v>
       </c>
-      <c r="M378" s="4" t="s">
-        <v>8597</v>
+      <c r="M378" s="5" t="s">
+        <v>8593</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.4">
@@ -42794,8 +42792,8 @@
       <c r="L379" t="s">
         <v>6827</v>
       </c>
-      <c r="M379" s="4" t="s">
-        <v>8598</v>
+      <c r="M379" s="5" t="s">
+        <v>8594</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.4">
@@ -42835,8 +42833,8 @@
       <c r="L380" t="s">
         <v>6828</v>
       </c>
-      <c r="M380" s="4" t="s">
-        <v>8599</v>
+      <c r="M380" s="5" t="s">
+        <v>8595</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.4">
@@ -42876,8 +42874,8 @@
       <c r="L381" t="s">
         <v>6829</v>
       </c>
-      <c r="M381" s="4" t="s">
-        <v>8600</v>
+      <c r="M381" s="5" t="s">
+        <v>8596</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.4">
@@ -42917,8 +42915,8 @@
       <c r="L382" t="s">
         <v>6830</v>
       </c>
-      <c r="M382" s="4" t="s">
-        <v>8601</v>
+      <c r="M382" s="5" t="s">
+        <v>8597</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.4">
@@ -42958,8 +42956,8 @@
       <c r="L383" t="s">
         <v>6831</v>
       </c>
-      <c r="M383" s="4" t="s">
-        <v>8602</v>
+      <c r="M383" s="5" t="s">
+        <v>8598</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.4">
@@ -42999,8 +42997,8 @@
       <c r="L384" t="s">
         <v>6832</v>
       </c>
-      <c r="M384" s="4" t="s">
-        <v>8603</v>
+      <c r="M384" s="5" t="s">
+        <v>8599</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.4">
@@ -43040,8 +43038,8 @@
       <c r="L385" t="s">
         <v>6833</v>
       </c>
-      <c r="M385" s="4" t="s">
-        <v>8604</v>
+      <c r="M385" s="5" t="s">
+        <v>8600</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.4">
@@ -43081,8 +43079,8 @@
       <c r="L386" t="s">
         <v>6834</v>
       </c>
-      <c r="M386" s="4" t="s">
-        <v>8605</v>
+      <c r="M386" s="5" t="s">
+        <v>8601</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.4">
@@ -43122,8 +43120,8 @@
       <c r="L387" t="s">
         <v>6835</v>
       </c>
-      <c r="M387" s="4" t="s">
-        <v>8606</v>
+      <c r="M387" s="5" t="s">
+        <v>8602</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.4">
@@ -43163,8 +43161,8 @@
       <c r="L388" t="s">
         <v>6836</v>
       </c>
-      <c r="M388" s="4" t="s">
-        <v>8607</v>
+      <c r="M388" s="5" t="s">
+        <v>8603</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.4">
@@ -43204,8 +43202,8 @@
       <c r="L389" t="s">
         <v>6837</v>
       </c>
-      <c r="M389" s="4" t="s">
-        <v>8917</v>
+      <c r="M389" s="5" t="s">
+        <v>8910</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.4">
@@ -43245,8 +43243,8 @@
       <c r="L390" t="s">
         <v>6838</v>
       </c>
-      <c r="M390" s="4" t="s">
-        <v>8608</v>
+      <c r="M390" s="5" t="s">
+        <v>8604</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.4">
@@ -43286,8 +43284,8 @@
       <c r="L391" t="s">
         <v>6839</v>
       </c>
-      <c r="M391" s="4" t="s">
-        <v>8609</v>
+      <c r="M391" s="5" t="s">
+        <v>8605</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.4">
@@ -43327,8 +43325,8 @@
       <c r="L392" t="s">
         <v>6840</v>
       </c>
-      <c r="M392" s="4" t="s">
-        <v>8610</v>
+      <c r="M392" s="5" t="s">
+        <v>8606</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.4">
@@ -43368,8 +43366,8 @@
       <c r="L393" t="s">
         <v>6841</v>
       </c>
-      <c r="M393" s="4" t="s">
-        <v>8611</v>
+      <c r="M393" s="5" t="s">
+        <v>8607</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.4">
@@ -43409,8 +43407,8 @@
       <c r="L394" t="s">
         <v>6842</v>
       </c>
-      <c r="M394" s="4" t="s">
-        <v>8612</v>
+      <c r="M394" s="5" t="s">
+        <v>8608</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.4">
@@ -43450,8 +43448,8 @@
       <c r="L395" t="s">
         <v>6843</v>
       </c>
-      <c r="M395" s="4" t="s">
-        <v>8613</v>
+      <c r="M395" s="5" t="s">
+        <v>8609</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.4">
@@ -43491,8 +43489,8 @@
       <c r="L396" t="s">
         <v>6844</v>
       </c>
-      <c r="M396" s="4" t="s">
-        <v>8614</v>
+      <c r="M396" s="5" t="s">
+        <v>8610</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.4">
@@ -43532,8 +43530,8 @@
       <c r="L397" t="s">
         <v>6845</v>
       </c>
-      <c r="M397" s="4" t="s">
-        <v>8615</v>
+      <c r="M397" s="5" t="s">
+        <v>8611</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.4">
@@ -43573,8 +43571,8 @@
       <c r="L398" t="s">
         <v>6846</v>
       </c>
-      <c r="M398" s="4" t="s">
-        <v>8616</v>
+      <c r="M398" s="5" t="s">
+        <v>8612</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.4">
@@ -43614,8 +43612,8 @@
       <c r="L399" t="s">
         <v>6847</v>
       </c>
-      <c r="M399" s="4" t="s">
-        <v>8617</v>
+      <c r="M399" s="5" t="s">
+        <v>8613</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.4">
@@ -43655,8 +43653,8 @@
       <c r="L400" t="s">
         <v>5620</v>
       </c>
-      <c r="M400" s="4" t="s">
-        <v>8618</v>
+      <c r="M400" s="5" t="s">
+        <v>8614</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.4">
@@ -43696,8 +43694,8 @@
       <c r="L401" t="s">
         <v>6848</v>
       </c>
-      <c r="M401" s="4" t="s">
-        <v>8619</v>
+      <c r="M401" s="5" t="s">
+        <v>8615</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.4">
@@ -43737,8 +43735,8 @@
       <c r="L402" t="s">
         <v>6849</v>
       </c>
-      <c r="M402" s="4" t="s">
-        <v>8620</v>
+      <c r="M402" s="5" t="s">
+        <v>8616</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.4">
@@ -43778,8 +43776,8 @@
       <c r="L403" t="s">
         <v>6850</v>
       </c>
-      <c r="M403" s="4" t="s">
-        <v>8621</v>
+      <c r="M403" s="5" t="s">
+        <v>8617</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.4">
@@ -43819,8 +43817,8 @@
       <c r="L404" t="s">
         <v>6851</v>
       </c>
-      <c r="M404" s="4" t="s">
-        <v>8622</v>
+      <c r="M404" s="5" t="s">
+        <v>8618</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.4">
@@ -43860,8 +43858,8 @@
       <c r="L405" t="s">
         <v>6852</v>
       </c>
-      <c r="M405" s="4" t="s">
-        <v>8623</v>
+      <c r="M405" s="5" t="s">
+        <v>8619</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.4">
@@ -43901,8 +43899,8 @@
       <c r="L406" t="s">
         <v>6853</v>
       </c>
-      <c r="M406" s="4" t="s">
-        <v>8624</v>
+      <c r="M406" s="5" t="s">
+        <v>8620</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.4">
@@ -43942,8 +43940,8 @@
       <c r="L407" t="s">
         <v>6854</v>
       </c>
-      <c r="M407" s="4" t="s">
-        <v>8625</v>
+      <c r="M407" s="5" t="s">
+        <v>8621</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.4">
@@ -43983,8 +43981,8 @@
       <c r="L408" t="s">
         <v>6855</v>
       </c>
-      <c r="M408" s="4" t="s">
-        <v>8626</v>
+      <c r="M408" s="5" t="s">
+        <v>8622</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.4">
@@ -44024,8 +44022,8 @@
       <c r="L409" t="s">
         <v>6856</v>
       </c>
-      <c r="M409" s="4" t="s">
-        <v>8627</v>
+      <c r="M409" s="5" t="s">
+        <v>8623</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.4">
@@ -44065,8 +44063,8 @@
       <c r="L410" t="s">
         <v>6857</v>
       </c>
-      <c r="M410" s="4" t="s">
-        <v>8628</v>
+      <c r="M410" s="5" t="s">
+        <v>8624</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.4">
@@ -44106,8 +44104,8 @@
       <c r="L411" t="s">
         <v>6858</v>
       </c>
-      <c r="M411" s="4" t="s">
-        <v>8629</v>
+      <c r="M411" s="5" t="s">
+        <v>8625</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.4">
@@ -44147,8 +44145,8 @@
       <c r="L412" t="s">
         <v>6859</v>
       </c>
-      <c r="M412" s="4" t="s">
-        <v>8630</v>
+      <c r="M412" s="5" t="s">
+        <v>8626</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.4">
@@ -44188,8 +44186,8 @@
       <c r="L413" t="s">
         <v>6860</v>
       </c>
-      <c r="M413" s="4" t="s">
-        <v>8631</v>
+      <c r="M413" s="5" t="s">
+        <v>8627</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.4">
@@ -44229,8 +44227,8 @@
       <c r="L414" t="s">
         <v>6861</v>
       </c>
-      <c r="M414" s="4" t="s">
-        <v>8632</v>
+      <c r="M414" s="5" t="s">
+        <v>8628</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.4">
@@ -44270,8 +44268,8 @@
       <c r="L415" t="s">
         <v>6862</v>
       </c>
-      <c r="M415" s="4" t="s">
-        <v>8633</v>
+      <c r="M415" s="5" t="s">
+        <v>8629</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.4">
@@ -44311,8 +44309,8 @@
       <c r="L416" t="s">
         <v>6863</v>
       </c>
-      <c r="M416" s="4" t="s">
-        <v>8634</v>
+      <c r="M416" s="5" t="s">
+        <v>8630</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.4">
@@ -44352,7 +44350,7 @@
       <c r="L417" t="s">
         <v>1076</v>
       </c>
-      <c r="M417" s="4" t="s">
+      <c r="M417" s="5" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -44393,8 +44391,8 @@
       <c r="L418" t="s">
         <v>6864</v>
       </c>
-      <c r="M418" s="4" t="s">
-        <v>8635</v>
+      <c r="M418" s="5" t="s">
+        <v>8631</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.4">
@@ -44434,8 +44432,8 @@
       <c r="L419" t="s">
         <v>6865</v>
       </c>
-      <c r="M419" s="4" t="s">
-        <v>8636</v>
+      <c r="M419" s="5" t="s">
+        <v>8632</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.4">
@@ -44475,8 +44473,8 @@
       <c r="L420" t="s">
         <v>6866</v>
       </c>
-      <c r="M420" s="4" t="s">
-        <v>8637</v>
+      <c r="M420" s="5" t="s">
+        <v>8633</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.4">
@@ -44516,8 +44514,8 @@
       <c r="L421" t="s">
         <v>6867</v>
       </c>
-      <c r="M421" s="4" t="s">
-        <v>8638</v>
+      <c r="M421" s="5" t="s">
+        <v>8634</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.4">
@@ -44557,8 +44555,8 @@
       <c r="L422" t="s">
         <v>6868</v>
       </c>
-      <c r="M422" s="4" t="s">
-        <v>8639</v>
+      <c r="M422" s="5" t="s">
+        <v>8635</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.4">
@@ -44598,8 +44596,8 @@
       <c r="L423" t="s">
         <v>6869</v>
       </c>
-      <c r="M423" s="4" t="s">
-        <v>8640</v>
+      <c r="M423" s="5" t="s">
+        <v>8636</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.4">
@@ -44639,8 +44637,8 @@
       <c r="L424" t="s">
         <v>6870</v>
       </c>
-      <c r="M424" s="4" t="s">
-        <v>8641</v>
+      <c r="M424" s="5" t="s">
+        <v>8637</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.4">
@@ -44680,8 +44678,8 @@
       <c r="L425" t="s">
         <v>6871</v>
       </c>
-      <c r="M425" s="4" t="s">
-        <v>8642</v>
+      <c r="M425" s="5" t="s">
+        <v>8638</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.4">
@@ -44721,8 +44719,8 @@
       <c r="L426" t="s">
         <v>6872</v>
       </c>
-      <c r="M426" s="4" t="s">
-        <v>8643</v>
+      <c r="M426" s="5" t="s">
+        <v>8639</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.4">
@@ -44762,8 +44760,8 @@
       <c r="L427" t="s">
         <v>6873</v>
       </c>
-      <c r="M427" s="4" t="s">
-        <v>8644</v>
+      <c r="M427" s="5" t="s">
+        <v>8640</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.4">
@@ -44803,8 +44801,8 @@
       <c r="L428" t="s">
         <v>6874</v>
       </c>
-      <c r="M428" s="4" t="s">
-        <v>8645</v>
+      <c r="M428" s="5" t="s">
+        <v>8641</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.4">
@@ -44844,8 +44842,8 @@
       <c r="L429" t="s">
         <v>6875</v>
       </c>
-      <c r="M429" s="4" t="s">
-        <v>8646</v>
+      <c r="M429" s="5" t="s">
+        <v>8642</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.4">
@@ -44885,8 +44883,8 @@
       <c r="L430" t="s">
         <v>6876</v>
       </c>
-      <c r="M430" s="4" t="s">
-        <v>8647</v>
+      <c r="M430" s="5" t="s">
+        <v>8643</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.4">
@@ -44926,8 +44924,8 @@
       <c r="L431" t="s">
         <v>6877</v>
       </c>
-      <c r="M431" s="4" t="s">
-        <v>8648</v>
+      <c r="M431" s="5" t="s">
+        <v>8644</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.4">
@@ -44967,8 +44965,8 @@
       <c r="L432" t="s">
         <v>6878</v>
       </c>
-      <c r="M432" s="4" t="s">
-        <v>8649</v>
+      <c r="M432" s="5" t="s">
+        <v>8645</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.4">
@@ -45008,8 +45006,8 @@
       <c r="L433" t="s">
         <v>6879</v>
       </c>
-      <c r="M433" s="4" t="s">
-        <v>8650</v>
+      <c r="M433" s="5" t="s">
+        <v>8932</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.4">
@@ -45049,8 +45047,8 @@
       <c r="L434" t="s">
         <v>6880</v>
       </c>
-      <c r="M434" s="4" t="s">
-        <v>8651</v>
+      <c r="M434" s="5" t="s">
+        <v>8646</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.4">
@@ -45090,8 +45088,8 @@
       <c r="L435" t="s">
         <v>6881</v>
       </c>
-      <c r="M435" s="4" t="s">
-        <v>8918</v>
+      <c r="M435" s="5" t="s">
+        <v>8911</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.4">
@@ -45131,8 +45129,8 @@
       <c r="L436" t="s">
         <v>6882</v>
       </c>
-      <c r="M436" s="4" t="s">
-        <v>8652</v>
+      <c r="M436" s="5" t="s">
+        <v>8647</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.4">
@@ -45172,8 +45170,8 @@
       <c r="L437" t="s">
         <v>6883</v>
       </c>
-      <c r="M437" s="4" t="s">
-        <v>8653</v>
+      <c r="M437" s="5" t="s">
+        <v>8648</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.4">
@@ -45213,8 +45211,8 @@
       <c r="L438" t="s">
         <v>6884</v>
       </c>
-      <c r="M438" s="4" t="s">
-        <v>8654</v>
+      <c r="M438" s="5" t="s">
+        <v>8649</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.4">
@@ -45254,8 +45252,8 @@
       <c r="L439" t="s">
         <v>6885</v>
       </c>
-      <c r="M439" s="4" t="s">
-        <v>8655</v>
+      <c r="M439" s="5" t="s">
+        <v>8650</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.4">
@@ -45295,8 +45293,8 @@
       <c r="L440" t="s">
         <v>6886</v>
       </c>
-      <c r="M440" s="4" t="s">
-        <v>8656</v>
+      <c r="M440" s="5" t="s">
+        <v>8651</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.4">
@@ -45336,8 +45334,8 @@
       <c r="L441" t="s">
         <v>6887</v>
       </c>
-      <c r="M441" s="4" t="s">
-        <v>8657</v>
+      <c r="M441" s="5" t="s">
+        <v>8652</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.4">
@@ -45377,8 +45375,8 @@
       <c r="L442" t="s">
         <v>6888</v>
       </c>
-      <c r="M442" s="4" t="s">
-        <v>8658</v>
+      <c r="M442" s="5" t="s">
+        <v>8653</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.4">
@@ -45418,8 +45416,8 @@
       <c r="L443" t="s">
         <v>6889</v>
       </c>
-      <c r="M443" s="4" t="s">
-        <v>8659</v>
+      <c r="M443" s="5" t="s">
+        <v>8654</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.4">
@@ -45459,8 +45457,8 @@
       <c r="L444" t="s">
         <v>6890</v>
       </c>
-      <c r="M444" s="4" t="s">
-        <v>8660</v>
+      <c r="M444" s="5" t="s">
+        <v>8655</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.4">
@@ -45500,8 +45498,8 @@
       <c r="L445" t="s">
         <v>6891</v>
       </c>
-      <c r="M445" s="4" t="s">
-        <v>8661</v>
+      <c r="M445" s="5" t="s">
+        <v>8656</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.4">
@@ -45541,8 +45539,8 @@
       <c r="L446" t="s">
         <v>6892</v>
       </c>
-      <c r="M446" s="4" t="s">
-        <v>8662</v>
+      <c r="M446" s="5" t="s">
+        <v>8657</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.4">
@@ -45582,8 +45580,8 @@
       <c r="L447" t="s">
         <v>6893</v>
       </c>
-      <c r="M447" s="4" t="s">
-        <v>8919</v>
+      <c r="M447" s="5" t="s">
+        <v>8912</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.4">
@@ -45623,8 +45621,8 @@
       <c r="L448" t="s">
         <v>6894</v>
       </c>
-      <c r="M448" s="4" t="s">
-        <v>8663</v>
+      <c r="M448" s="5" t="s">
+        <v>8658</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.4">
@@ -45664,8 +45662,8 @@
       <c r="L449" t="s">
         <v>6895</v>
       </c>
-      <c r="M449" s="4" t="s">
-        <v>8664</v>
+      <c r="M449" s="5" t="s">
+        <v>8659</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.4">
@@ -45705,8 +45703,8 @@
       <c r="L450" t="s">
         <v>6896</v>
       </c>
-      <c r="M450" s="4" t="s">
-        <v>8920</v>
+      <c r="M450" s="5" t="s">
+        <v>8913</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.4">
@@ -45746,8 +45744,8 @@
       <c r="L451" t="s">
         <v>6897</v>
       </c>
-      <c r="M451" s="4" t="s">
-        <v>8665</v>
+      <c r="M451" s="5" t="s">
+        <v>8660</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.4">
@@ -45787,8 +45785,8 @@
       <c r="L452" t="s">
         <v>6898</v>
       </c>
-      <c r="M452" s="4" t="s">
-        <v>8666</v>
+      <c r="M452" s="5" t="s">
+        <v>8661</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.4">
@@ -45828,8 +45826,8 @@
       <c r="L453" t="s">
         <v>6899</v>
       </c>
-      <c r="M453" s="4" t="s">
-        <v>8667</v>
+      <c r="M453" s="5" t="s">
+        <v>8662</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.4">
@@ -45869,8 +45867,8 @@
       <c r="L454" t="s">
         <v>6900</v>
       </c>
-      <c r="M454" s="4" t="s">
-        <v>8668</v>
+      <c r="M454" s="5" t="s">
+        <v>8663</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.4">
@@ -45910,8 +45908,8 @@
       <c r="L455" t="s">
         <v>6814</v>
       </c>
-      <c r="M455" s="4" t="s">
-        <v>8921</v>
+      <c r="M455" s="5" t="s">
+        <v>8914</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.4">
@@ -45951,8 +45949,8 @@
       <c r="L456" t="s">
         <v>6901</v>
       </c>
-      <c r="M456" s="4" t="s">
-        <v>8669</v>
+      <c r="M456" s="5" t="s">
+        <v>8664</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.4">
@@ -45992,8 +45990,8 @@
       <c r="L457" t="s">
         <v>6902</v>
       </c>
-      <c r="M457" s="4" t="s">
-        <v>8922</v>
+      <c r="M457" s="5" t="s">
+        <v>8915</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.4">
@@ -46033,8 +46031,8 @@
       <c r="L458" t="s">
         <v>6903</v>
       </c>
-      <c r="M458" s="4" t="s">
-        <v>8923</v>
+      <c r="M458" s="5" t="s">
+        <v>8916</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.4">
@@ -46074,8 +46072,8 @@
       <c r="L459" t="s">
         <v>6904</v>
       </c>
-      <c r="M459" s="4" t="s">
-        <v>8670</v>
+      <c r="M459" s="5" t="s">
+        <v>8665</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.4">
@@ -46115,8 +46113,8 @@
       <c r="L460" t="s">
         <v>6905</v>
       </c>
-      <c r="M460" s="4" t="s">
-        <v>8671</v>
+      <c r="M460" s="5" t="s">
+        <v>8666</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.4">
@@ -46156,8 +46154,8 @@
       <c r="L461" t="s">
         <v>6906</v>
       </c>
-      <c r="M461" s="4" t="s">
-        <v>8672</v>
+      <c r="M461" s="5" t="s">
+        <v>8667</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.4">
@@ -46197,8 +46195,8 @@
       <c r="L462" t="s">
         <v>6907</v>
       </c>
-      <c r="M462" s="4" t="s">
-        <v>8673</v>
+      <c r="M462" s="5" t="s">
+        <v>8668</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.4">
@@ -46238,8 +46236,8 @@
       <c r="L463" t="s">
         <v>6908</v>
       </c>
-      <c r="M463" s="4" t="s">
-        <v>8674</v>
+      <c r="M463" s="5" t="s">
+        <v>8669</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.4">
@@ -46279,8 +46277,8 @@
       <c r="L464" t="s">
         <v>6909</v>
       </c>
-      <c r="M464" s="4" t="s">
-        <v>8675</v>
+      <c r="M464" s="5" t="s">
+        <v>8670</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.4">
@@ -46320,8 +46318,8 @@
       <c r="L465" t="s">
         <v>2436</v>
       </c>
-      <c r="M465" s="4" t="s">
-        <v>8676</v>
+      <c r="M465" s="5" t="s">
+        <v>8671</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.4">
@@ -46361,8 +46359,8 @@
       <c r="L466" t="s">
         <v>6910</v>
       </c>
-      <c r="M466" s="4" t="s">
-        <v>8677</v>
+      <c r="M466" s="5" t="s">
+        <v>8672</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.4">
@@ -46402,8 +46400,8 @@
       <c r="L467" t="s">
         <v>6911</v>
       </c>
-      <c r="M467" s="4" t="s">
-        <v>8924</v>
+      <c r="M467" s="5" t="s">
+        <v>8917</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.4">
@@ -46443,8 +46441,8 @@
       <c r="L468" t="s">
         <v>2439</v>
       </c>
-      <c r="M468" s="4" t="s">
-        <v>8678</v>
+      <c r="M468" s="5" t="s">
+        <v>8673</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.4">
@@ -46458,7 +46456,7 @@
         <v>1794</v>
       </c>
       <c r="D469" t="s">
-        <v>8910</v>
+        <v>8904</v>
       </c>
       <c r="E469" t="s">
         <v>3082</v>
@@ -46484,8 +46482,8 @@
       <c r="L469" t="s">
         <v>6912</v>
       </c>
-      <c r="M469" s="4" t="s">
-        <v>8679</v>
+      <c r="M469" s="5" t="s">
+        <v>8674</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.4">
@@ -46525,8 +46523,8 @@
       <c r="L470" t="s">
         <v>6913</v>
       </c>
-      <c r="M470" s="4" t="s">
-        <v>8680</v>
+      <c r="M470" s="5" t="s">
+        <v>8675</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.4">
@@ -46566,8 +46564,8 @@
       <c r="L471" t="s">
         <v>6914</v>
       </c>
-      <c r="M471" s="4" t="s">
-        <v>8681</v>
+      <c r="M471" s="5" t="s">
+        <v>8676</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.4">
@@ -46607,8 +46605,8 @@
       <c r="L472" t="s">
         <v>6915</v>
       </c>
-      <c r="M472" s="4" t="s">
-        <v>8682</v>
+      <c r="M472" s="5" t="s">
+        <v>8677</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.4">
@@ -46648,8 +46646,8 @@
       <c r="L473" t="s">
         <v>6916</v>
       </c>
-      <c r="M473" s="4" t="s">
-        <v>8683</v>
+      <c r="M473" s="5" t="s">
+        <v>8678</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.4">
@@ -46689,8 +46687,8 @@
       <c r="L474" t="s">
         <v>6917</v>
       </c>
-      <c r="M474" s="4" t="s">
-        <v>8684</v>
+      <c r="M474" s="5" t="s">
+        <v>8679</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.4">
@@ -46730,8 +46728,8 @@
       <c r="L475" t="s">
         <v>6918</v>
       </c>
-      <c r="M475" s="4" t="s">
-        <v>8685</v>
+      <c r="M475" s="5" t="s">
+        <v>8680</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.4">
@@ -46771,8 +46769,8 @@
       <c r="L476" t="s">
         <v>8232</v>
       </c>
-      <c r="M476" s="4" t="s">
-        <v>8686</v>
+      <c r="M476" s="5" t="s">
+        <v>8681</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.4">
@@ -46812,8 +46810,8 @@
       <c r="L477" t="s">
         <v>6919</v>
       </c>
-      <c r="M477" s="4" t="s">
-        <v>8687</v>
+      <c r="M477" s="5" t="s">
+        <v>8682</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.4">
@@ -46853,8 +46851,8 @@
       <c r="L478" t="s">
         <v>6920</v>
       </c>
-      <c r="M478" s="4" t="s">
-        <v>8688</v>
+      <c r="M478" s="5" t="s">
+        <v>8683</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.4">
@@ -46894,8 +46892,8 @@
       <c r="L479" t="s">
         <v>6921</v>
       </c>
-      <c r="M479" s="4" t="s">
-        <v>8689</v>
+      <c r="M479" s="5" t="s">
+        <v>8684</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.4">
@@ -46935,8 +46933,8 @@
       <c r="L480" t="s">
         <v>6922</v>
       </c>
-      <c r="M480" s="4" t="s">
-        <v>8925</v>
+      <c r="M480" s="5" t="s">
+        <v>8918</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.4">
@@ -46976,8 +46974,8 @@
       <c r="L481" t="s">
         <v>5698</v>
       </c>
-      <c r="M481" s="4" t="s">
-        <v>8690</v>
+      <c r="M481" s="5" t="s">
+        <v>8685</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.4">
@@ -47017,8 +47015,8 @@
       <c r="L482" t="s">
         <v>6923</v>
       </c>
-      <c r="M482" s="4" t="s">
-        <v>8691</v>
+      <c r="M482" s="5" t="s">
+        <v>8686</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.4">
@@ -47058,8 +47056,8 @@
       <c r="L483" t="s">
         <v>6924</v>
       </c>
-      <c r="M483" s="4" t="s">
-        <v>8692</v>
+      <c r="M483" s="5" t="s">
+        <v>8687</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.4">
@@ -47099,8 +47097,8 @@
       <c r="L484" t="s">
         <v>6925</v>
       </c>
-      <c r="M484" s="4" t="s">
-        <v>8693</v>
+      <c r="M484" s="5" t="s">
+        <v>8688</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.4">
@@ -47140,8 +47138,8 @@
       <c r="L485" t="s">
         <v>6926</v>
       </c>
-      <c r="M485" s="4" t="s">
-        <v>8694</v>
+      <c r="M485" s="5" t="s">
+        <v>8689</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.4">
@@ -47181,8 +47179,8 @@
       <c r="L486" t="s">
         <v>6927</v>
       </c>
-      <c r="M486" s="4" t="s">
-        <v>8695</v>
+      <c r="M486" s="5" t="s">
+        <v>8690</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.4">
@@ -47222,8 +47220,8 @@
       <c r="L487" t="s">
         <v>6928</v>
       </c>
-      <c r="M487" s="4" t="s">
-        <v>8696</v>
+      <c r="M487" s="5" t="s">
+        <v>8691</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.4">
@@ -47263,8 +47261,8 @@
       <c r="L488" t="s">
         <v>6929</v>
       </c>
-      <c r="M488" s="4" t="s">
-        <v>8697</v>
+      <c r="M488" s="5" t="s">
+        <v>8692</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.4">
@@ -47304,8 +47302,8 @@
       <c r="L489" t="s">
         <v>6930</v>
       </c>
-      <c r="M489" s="4" t="s">
-        <v>8698</v>
+      <c r="M489" s="5" t="s">
+        <v>8693</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.4">
@@ -47345,8 +47343,8 @@
       <c r="L490" t="s">
         <v>6931</v>
       </c>
-      <c r="M490" s="4" t="s">
-        <v>8699</v>
+      <c r="M490" s="5" t="s">
+        <v>8694</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.4">
@@ -47386,8 +47384,8 @@
       <c r="L491" t="s">
         <v>6932</v>
       </c>
-      <c r="M491" s="4" t="s">
-        <v>8700</v>
+      <c r="M491" s="5" t="s">
+        <v>8695</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.4">
@@ -47427,8 +47425,8 @@
       <c r="L492" t="s">
         <v>6933</v>
       </c>
-      <c r="M492" s="4" t="s">
-        <v>8701</v>
+      <c r="M492" s="5" t="s">
+        <v>8696</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.4">
@@ -47468,8 +47466,8 @@
       <c r="L493" t="s">
         <v>6934</v>
       </c>
-      <c r="M493" s="4" t="s">
-        <v>8702</v>
+      <c r="M493" s="5" t="s">
+        <v>8697</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.4">
@@ -47509,8 +47507,8 @@
       <c r="L494" t="s">
         <v>6935</v>
       </c>
-      <c r="M494" s="4" t="s">
-        <v>8703</v>
+      <c r="M494" s="5" t="s">
+        <v>8698</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.4">
@@ -47550,8 +47548,8 @@
       <c r="L495" t="s">
         <v>6936</v>
       </c>
-      <c r="M495" s="4" t="s">
-        <v>8704</v>
+      <c r="M495" s="5" t="s">
+        <v>8699</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.4">
@@ -47591,8 +47589,8 @@
       <c r="L496" t="s">
         <v>6937</v>
       </c>
-      <c r="M496" s="4" t="s">
-        <v>8705</v>
+      <c r="M496" s="5" t="s">
+        <v>8700</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.4">
@@ -47632,8 +47630,8 @@
       <c r="L497" t="s">
         <v>6938</v>
       </c>
-      <c r="M497" s="4" t="s">
-        <v>8706</v>
+      <c r="M497" s="5" t="s">
+        <v>8701</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.4">
@@ -47673,8 +47671,8 @@
       <c r="L498" t="s">
         <v>6939</v>
       </c>
-      <c r="M498" s="4" t="s">
-        <v>8707</v>
+      <c r="M498" s="5" t="s">
+        <v>8702</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.4">
@@ -47714,8 +47712,8 @@
       <c r="L499" t="s">
         <v>6940</v>
       </c>
-      <c r="M499" s="4" t="s">
-        <v>8708</v>
+      <c r="M499" s="5" t="s">
+        <v>8703</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.4">
@@ -47755,8 +47753,8 @@
       <c r="L500" t="s">
         <v>6941</v>
       </c>
-      <c r="M500" s="4" t="s">
-        <v>8709</v>
+      <c r="M500" s="5" t="s">
+        <v>8704</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.4">
@@ -47796,8 +47794,8 @@
       <c r="L501" t="s">
         <v>6942</v>
       </c>
-      <c r="M501" s="4" t="s">
-        <v>8710</v>
+      <c r="M501" s="5" t="s">
+        <v>8705</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.4">
@@ -47837,8 +47835,8 @@
       <c r="L502" t="s">
         <v>6943</v>
       </c>
-      <c r="M502" s="4" t="s">
-        <v>8711</v>
+      <c r="M502" s="5" t="s">
+        <v>8706</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.4">
@@ -47878,8 +47876,8 @@
       <c r="L503" t="s">
         <v>6944</v>
       </c>
-      <c r="M503" s="4" t="s">
-        <v>8712</v>
+      <c r="M503" s="5" t="s">
+        <v>8707</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.4">
@@ -47919,8 +47917,8 @@
       <c r="L504" t="s">
         <v>6945</v>
       </c>
-      <c r="M504" s="4" t="s">
-        <v>8713</v>
+      <c r="M504" s="5" t="s">
+        <v>8708</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.4">
@@ -47960,8 +47958,8 @@
       <c r="L505" t="s">
         <v>6946</v>
       </c>
-      <c r="M505" s="4" t="s">
-        <v>8714</v>
+      <c r="M505" s="5" t="s">
+        <v>8709</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.4">
@@ -48001,8 +47999,8 @@
       <c r="L506" t="s">
         <v>6947</v>
       </c>
-      <c r="M506" s="4" t="s">
-        <v>8715</v>
+      <c r="M506" s="5" t="s">
+        <v>8710</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.4">
@@ -48042,8 +48040,8 @@
       <c r="L507" t="s">
         <v>6948</v>
       </c>
-      <c r="M507" s="4" t="s">
-        <v>8716</v>
+      <c r="M507" s="5" t="s">
+        <v>8711</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.4">
@@ -48083,8 +48081,8 @@
       <c r="L508" t="s">
         <v>5725</v>
       </c>
-      <c r="M508" s="4" t="s">
-        <v>8717</v>
+      <c r="M508" s="5" t="s">
+        <v>8712</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.4">
@@ -48124,8 +48122,8 @@
       <c r="L509" t="s">
         <v>6949</v>
       </c>
-      <c r="M509" s="4" t="s">
-        <v>8718</v>
+      <c r="M509" s="5" t="s">
+        <v>8713</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.4">
@@ -48165,8 +48163,8 @@
       <c r="L510" t="s">
         <v>6950</v>
       </c>
-      <c r="M510" s="4" t="s">
-        <v>8719</v>
+      <c r="M510" s="5" t="s">
+        <v>8714</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.4">
@@ -48206,8 +48204,8 @@
       <c r="L511" t="s">
         <v>6951</v>
       </c>
-      <c r="M511" s="4" t="s">
-        <v>8720</v>
+      <c r="M511" s="5" t="s">
+        <v>8715</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.4">
@@ -48247,8 +48245,8 @@
       <c r="L512" t="s">
         <v>6952</v>
       </c>
-      <c r="M512" s="4" t="s">
-        <v>8721</v>
+      <c r="M512" s="5" t="s">
+        <v>8716</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.4">
@@ -48288,8 +48286,8 @@
       <c r="L513" t="s">
         <v>6953</v>
       </c>
-      <c r="M513" s="4" t="s">
-        <v>8722</v>
+      <c r="M513" s="5" t="s">
+        <v>8717</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.4">
@@ -48329,8 +48327,8 @@
       <c r="L514" t="s">
         <v>6954</v>
       </c>
-      <c r="M514" s="4" t="s">
-        <v>8723</v>
+      <c r="M514" s="5" t="s">
+        <v>8718</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.4">
@@ -48370,8 +48368,8 @@
       <c r="L515" t="s">
         <v>6955</v>
       </c>
-      <c r="M515" s="4" t="s">
-        <v>8724</v>
+      <c r="M515" s="5" t="s">
+        <v>8719</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.4">
@@ -48411,8 +48409,8 @@
       <c r="L516" t="s">
         <v>6956</v>
       </c>
-      <c r="M516" s="4" t="s">
-        <v>8725</v>
+      <c r="M516" s="5" t="s">
+        <v>8720</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.4">
@@ -48452,8 +48450,8 @@
       <c r="L517" t="s">
         <v>6957</v>
       </c>
-      <c r="M517" s="4" t="s">
-        <v>8726</v>
+      <c r="M517" s="5" t="s">
+        <v>8721</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.4">
@@ -48493,8 +48491,8 @@
       <c r="L518" t="s">
         <v>6958</v>
       </c>
-      <c r="M518" s="4" t="s">
-        <v>8727</v>
+      <c r="M518" s="5" t="s">
+        <v>8722</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.4">
@@ -48534,8 +48532,8 @@
       <c r="L519" t="s">
         <v>6959</v>
       </c>
-      <c r="M519" s="4" t="s">
-        <v>8728</v>
+      <c r="M519" s="5" t="s">
+        <v>8723</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.4">
@@ -48575,8 +48573,8 @@
       <c r="L520" t="s">
         <v>6960</v>
       </c>
-      <c r="M520" s="4" t="s">
-        <v>8729</v>
+      <c r="M520" s="5" t="s">
+        <v>8724</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.4">
@@ -48616,8 +48614,8 @@
       <c r="L521" t="s">
         <v>6961</v>
       </c>
-      <c r="M521" s="4" t="s">
-        <v>8730</v>
+      <c r="M521" s="5" t="s">
+        <v>8725</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.4">
@@ -48657,8 +48655,8 @@
       <c r="L522" t="s">
         <v>6962</v>
       </c>
-      <c r="M522" s="4" t="s">
-        <v>8731</v>
+      <c r="M522" s="5" t="s">
+        <v>8726</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.4">
@@ -48698,8 +48696,8 @@
       <c r="L523" t="s">
         <v>6963</v>
       </c>
-      <c r="M523" s="4" t="s">
-        <v>8732</v>
+      <c r="M523" s="5" t="s">
+        <v>8727</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.4">
@@ -48739,8 +48737,8 @@
       <c r="L524" t="s">
         <v>6964</v>
       </c>
-      <c r="M524" s="4" t="s">
-        <v>8733</v>
+      <c r="M524" s="5" t="s">
+        <v>8728</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.4">
@@ -48780,8 +48778,8 @@
       <c r="L525" t="s">
         <v>6965</v>
       </c>
-      <c r="M525" s="4" t="s">
-        <v>8734</v>
+      <c r="M525" s="5" t="s">
+        <v>8729</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.4">
@@ -48821,8 +48819,8 @@
       <c r="L526" t="s">
         <v>6966</v>
       </c>
-      <c r="M526" s="4" t="s">
-        <v>8735</v>
+      <c r="M526" s="5" t="s">
+        <v>8730</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.4">
@@ -48862,8 +48860,8 @@
       <c r="L527" t="s">
         <v>6967</v>
       </c>
-      <c r="M527" s="4" t="s">
-        <v>8736</v>
+      <c r="M527" s="5" t="s">
+        <v>8731</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.4">
@@ -48903,8 +48901,8 @@
       <c r="L528" t="s">
         <v>5745</v>
       </c>
-      <c r="M528" s="4" t="s">
-        <v>8737</v>
+      <c r="M528" s="5" t="s">
+        <v>8732</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.4">
@@ -48944,8 +48942,8 @@
       <c r="L529" t="s">
         <v>6968</v>
       </c>
-      <c r="M529" s="4" t="s">
-        <v>8738</v>
+      <c r="M529" s="5" t="s">
+        <v>8733</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.4">
@@ -48985,8 +48983,8 @@
       <c r="L530" t="s">
         <v>6969</v>
       </c>
-      <c r="M530" s="4" t="s">
-        <v>8739</v>
+      <c r="M530" s="5" t="s">
+        <v>8734</v>
       </c>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.4">
@@ -49026,8 +49024,8 @@
       <c r="L531" t="s">
         <v>6970</v>
       </c>
-      <c r="M531" s="4" t="s">
-        <v>8740</v>
+      <c r="M531" s="5" t="s">
+        <v>8735</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.4">
@@ -49067,8 +49065,8 @@
       <c r="L532" t="s">
         <v>6971</v>
       </c>
-      <c r="M532" s="4" t="s">
-        <v>8741</v>
+      <c r="M532" s="5" t="s">
+        <v>8736</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.4">
@@ -49108,8 +49106,8 @@
       <c r="L533" t="s">
         <v>6972</v>
       </c>
-      <c r="M533" s="4" t="s">
-        <v>8742</v>
+      <c r="M533" s="5" t="s">
+        <v>8737</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.4">
@@ -49149,8 +49147,8 @@
       <c r="L534" t="s">
         <v>6973</v>
       </c>
-      <c r="M534" s="4" t="s">
-        <v>8743</v>
+      <c r="M534" s="5" t="s">
+        <v>8738</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.4">
@@ -49190,8 +49188,8 @@
       <c r="L535" t="s">
         <v>6974</v>
       </c>
-      <c r="M535" s="4" t="s">
-        <v>8744</v>
+      <c r="M535" s="5" t="s">
+        <v>8739</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.4">
@@ -49231,8 +49229,8 @@
       <c r="L536" t="s">
         <v>6781</v>
       </c>
-      <c r="M536" s="4" t="s">
-        <v>8745</v>
+      <c r="M536" s="5" t="s">
+        <v>8740</v>
       </c>
     </row>
     <row r="537" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49272,8 +49270,8 @@
       <c r="L537" s="2" t="s">
         <v>6975</v>
       </c>
-      <c r="M537" s="4" t="s">
-        <v>8746</v>
+      <c r="M537" s="5" t="s">
+        <v>8741</v>
       </c>
     </row>
     <row r="538" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49313,8 +49311,8 @@
       <c r="L538" s="2" t="s">
         <v>6976</v>
       </c>
-      <c r="M538" s="4" t="s">
-        <v>8747</v>
+      <c r="M538" s="5" t="s">
+        <v>8742</v>
       </c>
     </row>
     <row r="539" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49354,8 +49352,8 @@
       <c r="L539" s="2" t="s">
         <v>6977</v>
       </c>
-      <c r="M539" s="4" t="s">
-        <v>8748</v>
+      <c r="M539" s="5" t="s">
+        <v>8743</v>
       </c>
     </row>
     <row r="540" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49395,8 +49393,8 @@
       <c r="L540" s="2" t="s">
         <v>6978</v>
       </c>
-      <c r="M540" s="4" t="s">
-        <v>8749</v>
+      <c r="M540" s="5" t="s">
+        <v>8744</v>
       </c>
     </row>
     <row r="541" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49436,8 +49434,8 @@
       <c r="L541" s="2" t="s">
         <v>6979</v>
       </c>
-      <c r="M541" s="4" t="s">
-        <v>8750</v>
+      <c r="M541" s="5" t="s">
+        <v>8745</v>
       </c>
     </row>
     <row r="542" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49477,8 +49475,8 @@
       <c r="L542" s="2" t="s">
         <v>8003</v>
       </c>
-      <c r="M542" s="4" t="s">
-        <v>8751</v>
+      <c r="M542" s="5" t="s">
+        <v>8746</v>
       </c>
     </row>
     <row r="543" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49518,8 +49516,8 @@
       <c r="L543" s="2" t="s">
         <v>8004</v>
       </c>
-      <c r="M543" s="4" t="s">
-        <v>8752</v>
+      <c r="M543" s="5" t="s">
+        <v>8747</v>
       </c>
     </row>
     <row r="544" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49559,8 +49557,8 @@
       <c r="L544" s="2" t="s">
         <v>8005</v>
       </c>
-      <c r="M544" s="4" t="s">
-        <v>8753</v>
+      <c r="M544" s="5" t="s">
+        <v>8748</v>
       </c>
     </row>
     <row r="545" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49600,8 +49598,8 @@
       <c r="L545" s="2" t="s">
         <v>8006</v>
       </c>
-      <c r="M545" s="4" t="s">
-        <v>8754</v>
+      <c r="M545" s="5" t="s">
+        <v>8749</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.4">
@@ -49641,8 +49639,8 @@
       <c r="L546" t="s">
         <v>5758</v>
       </c>
-      <c r="M546" s="4" t="s">
-        <v>8755</v>
+      <c r="M546" s="5" t="s">
+        <v>8750</v>
       </c>
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.4">
@@ -49682,8 +49680,8 @@
       <c r="L547" t="s">
         <v>6980</v>
       </c>
-      <c r="M547" s="4" t="s">
-        <v>8756</v>
+      <c r="M547" s="5" t="s">
+        <v>8933</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.4">
@@ -49723,8 +49721,8 @@
       <c r="L548" t="s">
         <v>6981</v>
       </c>
-      <c r="M548" s="4" t="s">
-        <v>8757</v>
+      <c r="M548" s="5" t="s">
+        <v>8751</v>
       </c>
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.4">
@@ -49764,8 +49762,8 @@
       <c r="L549" t="s">
         <v>6982</v>
       </c>
-      <c r="M549" s="4" t="s">
-        <v>8758</v>
+      <c r="M549" s="5" t="s">
+        <v>8752</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.4">
@@ -49805,8 +49803,8 @@
       <c r="L550" t="s">
         <v>6983</v>
       </c>
-      <c r="M550" s="4" t="s">
-        <v>8759</v>
+      <c r="M550" s="5" t="s">
+        <v>8753</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.4">
@@ -49846,8 +49844,8 @@
       <c r="L551" t="s">
         <v>6984</v>
       </c>
-      <c r="M551" s="4" t="s">
-        <v>8760</v>
+      <c r="M551" s="5" t="s">
+        <v>8754</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.4">
@@ -49887,8 +49885,8 @@
       <c r="L552" t="s">
         <v>6985</v>
       </c>
-      <c r="M552" s="4" t="s">
-        <v>8761</v>
+      <c r="M552" s="5" t="s">
+        <v>8755</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.4">
@@ -49928,8 +49926,8 @@
       <c r="L553" t="s">
         <v>6986</v>
       </c>
-      <c r="M553" s="4" t="s">
-        <v>8762</v>
+      <c r="M553" s="5" t="s">
+        <v>8756</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.4">
@@ -49969,8 +49967,8 @@
       <c r="L554" t="s">
         <v>6987</v>
       </c>
-      <c r="M554" s="4" t="s">
-        <v>8763</v>
+      <c r="M554" s="5" t="s">
+        <v>8757</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.4">
@@ -50010,8 +50008,8 @@
       <c r="L555" t="s">
         <v>6988</v>
       </c>
-      <c r="M555" s="4" t="s">
-        <v>8764</v>
+      <c r="M555" s="5" t="s">
+        <v>8758</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.4">
@@ -50051,8 +50049,8 @@
       <c r="L556" t="s">
         <v>6989</v>
       </c>
-      <c r="M556" s="4" t="s">
-        <v>8765</v>
+      <c r="M556" s="5" t="s">
+        <v>8759</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.4">
@@ -50092,8 +50090,8 @@
       <c r="L557" t="s">
         <v>7913</v>
       </c>
-      <c r="M557" s="4" t="s">
-        <v>8766</v>
+      <c r="M557" s="5" t="s">
+        <v>8760</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.4">
@@ -50133,8 +50131,8 @@
       <c r="L558" t="s">
         <v>7914</v>
       </c>
-      <c r="M558" s="4" t="s">
-        <v>8767</v>
+      <c r="M558" s="5" t="s">
+        <v>8761</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.4">
@@ -50174,8 +50172,8 @@
       <c r="L559" t="s">
         <v>7915</v>
       </c>
-      <c r="M559" s="4" t="s">
-        <v>8768</v>
+      <c r="M559" s="5" t="s">
+        <v>8762</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.4">
@@ -50215,8 +50213,8 @@
       <c r="L560" t="s">
         <v>7916</v>
       </c>
-      <c r="M560" s="4" t="s">
-        <v>8769</v>
+      <c r="M560" s="5" t="s">
+        <v>8763</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.4">
@@ -50256,8 +50254,8 @@
       <c r="L561" t="s">
         <v>6990</v>
       </c>
-      <c r="M561" s="4" t="s">
-        <v>8770</v>
+      <c r="M561" s="5" t="s">
+        <v>8764</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.4">
@@ -50297,8 +50295,8 @@
       <c r="L562" t="s">
         <v>6991</v>
       </c>
-      <c r="M562" s="4" t="s">
-        <v>8771</v>
+      <c r="M562" s="5" t="s">
+        <v>8765</v>
       </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.4">
@@ -50338,8 +50336,8 @@
       <c r="L563" t="s">
         <v>7857</v>
       </c>
-      <c r="M563" s="4" t="s">
-        <v>8772</v>
+      <c r="M563" s="5" t="s">
+        <v>8766</v>
       </c>
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.4">
@@ -50379,8 +50377,8 @@
       <c r="L564" t="s">
         <v>7858</v>
       </c>
-      <c r="M564" s="4" t="s">
-        <v>8773</v>
+      <c r="M564" s="5" t="s">
+        <v>8767</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.4">
@@ -50420,8 +50418,8 @@
       <c r="L565" t="s">
         <v>6992</v>
       </c>
-      <c r="M565" s="4" t="s">
-        <v>8774</v>
+      <c r="M565" s="5" t="s">
+        <v>8768</v>
       </c>
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.4">
@@ -50461,8 +50459,8 @@
       <c r="L566" t="s">
         <v>6993</v>
       </c>
-      <c r="M566" s="4" t="s">
-        <v>8775</v>
+      <c r="M566" s="5" t="s">
+        <v>8769</v>
       </c>
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.4">
@@ -50502,8 +50500,8 @@
       <c r="L567" t="s">
         <v>2519</v>
       </c>
-      <c r="M567" s="4" t="s">
-        <v>8776</v>
+      <c r="M567" s="5" t="s">
+        <v>8770</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.4">
@@ -50543,8 +50541,8 @@
       <c r="L568" t="s">
         <v>6994</v>
       </c>
-      <c r="M568" s="4" t="s">
-        <v>8777</v>
+      <c r="M568" s="5" t="s">
+        <v>8771</v>
       </c>
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.4">
@@ -50584,8 +50582,8 @@
       <c r="L569" t="s">
         <v>6995</v>
       </c>
-      <c r="M569" s="4" t="s">
-        <v>8778</v>
+      <c r="M569" s="5" t="s">
+        <v>8772</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.4">
@@ -50625,8 +50623,8 @@
       <c r="L570" t="s">
         <v>6996</v>
       </c>
-      <c r="M570" s="4" t="s">
-        <v>8779</v>
+      <c r="M570" s="5" t="s">
+        <v>8773</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.4">
@@ -50666,8 +50664,8 @@
       <c r="L571" t="s">
         <v>6997</v>
       </c>
-      <c r="M571" s="4" t="s">
-        <v>8780</v>
+      <c r="M571" s="5" t="s">
+        <v>8774</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.4">
@@ -50707,8 +50705,8 @@
       <c r="L572" t="s">
         <v>6998</v>
       </c>
-      <c r="M572" s="4" t="s">
-        <v>8781</v>
+      <c r="M572" s="5" t="s">
+        <v>8775</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.4">
@@ -50748,8 +50746,8 @@
       <c r="L573" t="s">
         <v>6999</v>
       </c>
-      <c r="M573" s="4" t="s">
-        <v>8782</v>
+      <c r="M573" s="5" t="s">
+        <v>8776</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.4">
@@ -50789,8 +50787,8 @@
       <c r="L574" t="s">
         <v>7000</v>
       </c>
-      <c r="M574" s="4" t="s">
-        <v>8783</v>
+      <c r="M574" s="5" t="s">
+        <v>8777</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.4">
@@ -50830,8 +50828,8 @@
       <c r="L575" t="s">
         <v>7001</v>
       </c>
-      <c r="M575" s="4" t="s">
-        <v>8784</v>
+      <c r="M575" s="5" t="s">
+        <v>8778</v>
       </c>
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.4">
@@ -50871,8 +50869,8 @@
       <c r="L576" t="s">
         <v>5780</v>
       </c>
-      <c r="M576" s="4" t="s">
-        <v>8785</v>
+      <c r="M576" s="5" t="s">
+        <v>8779</v>
       </c>
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.4">
@@ -50913,7 +50911,7 @@
         <v>7002</v>
       </c>
       <c r="M577" s="5" t="s">
-        <v>8935</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.4">
@@ -50954,7 +50952,7 @@
         <v>7003</v>
       </c>
       <c r="M578" s="5" t="s">
-        <v>8936</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.4">
@@ -50995,7 +50993,7 @@
         <v>7004</v>
       </c>
       <c r="M579" s="5" t="s">
-        <v>8937</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.4">
@@ -51035,8 +51033,8 @@
       <c r="L580" t="s">
         <v>7005</v>
       </c>
-      <c r="M580" s="4" t="s">
-        <v>8786</v>
+      <c r="M580" s="5" t="s">
+        <v>8780</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.4">
@@ -51076,8 +51074,8 @@
       <c r="L581" t="s">
         <v>7006</v>
       </c>
-      <c r="M581" s="4" t="s">
-        <v>8787</v>
+      <c r="M581" s="5" t="s">
+        <v>8781</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.4">
@@ -51117,8 +51115,8 @@
       <c r="L582" t="s">
         <v>7007</v>
       </c>
-      <c r="M582" s="4" t="s">
-        <v>8788</v>
+      <c r="M582" s="5" t="s">
+        <v>8782</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.4">
@@ -51158,8 +51156,8 @@
       <c r="L583" t="s">
         <v>7008</v>
       </c>
-      <c r="M583" s="4" t="s">
-        <v>8789</v>
+      <c r="M583" s="5" t="s">
+        <v>8783</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.4">
@@ -51199,8 +51197,8 @@
       <c r="L584" t="s">
         <v>7924</v>
       </c>
-      <c r="M584" s="4" t="s">
-        <v>8790</v>
+      <c r="M584" s="5" t="s">
+        <v>8784</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.4">
@@ -51240,8 +51238,8 @@
       <c r="L585" t="s">
         <v>2536</v>
       </c>
-      <c r="M585" s="4" t="s">
-        <v>8791</v>
+      <c r="M585" s="5" t="s">
+        <v>8785</v>
       </c>
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.4">
@@ -51281,8 +51279,8 @@
       <c r="L586" t="s">
         <v>7009</v>
       </c>
-      <c r="M586" s="4" t="s">
-        <v>8792</v>
+      <c r="M586" s="5" t="s">
+        <v>8786</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.4">
@@ -51322,8 +51320,8 @@
       <c r="L587" t="s">
         <v>7010</v>
       </c>
-      <c r="M587" s="4" t="s">
-        <v>8793</v>
+      <c r="M587" s="5" t="s">
+        <v>8787</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.4">
@@ -51363,8 +51361,8 @@
       <c r="L588" t="s">
         <v>7011</v>
       </c>
-      <c r="M588" s="4" t="s">
-        <v>8794</v>
+      <c r="M588" s="5" t="s">
+        <v>8788</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.4">
@@ -51404,8 +51402,8 @@
       <c r="L589" t="s">
         <v>7012</v>
       </c>
-      <c r="M589" s="4" t="s">
-        <v>8795</v>
+      <c r="M589" s="5" t="s">
+        <v>8789</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.4">
@@ -51445,8 +51443,8 @@
       <c r="L590" t="s">
         <v>7013</v>
       </c>
-      <c r="M590" s="4" t="s">
-        <v>8796</v>
+      <c r="M590" s="5" t="s">
+        <v>8790</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.4">
@@ -51486,8 +51484,8 @@
       <c r="L591" t="s">
         <v>7014</v>
       </c>
-      <c r="M591" s="4" t="s">
-        <v>8797</v>
+      <c r="M591" s="5" t="s">
+        <v>8791</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.4">
@@ -51527,8 +51525,8 @@
       <c r="L592" t="s">
         <v>7015</v>
       </c>
-      <c r="M592" s="4" t="s">
-        <v>8798</v>
+      <c r="M592" s="5" t="s">
+        <v>8792</v>
       </c>
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.4">
@@ -51568,8 +51566,8 @@
       <c r="L593" t="s">
         <v>7016</v>
       </c>
-      <c r="M593" s="4" t="s">
-        <v>8799</v>
+      <c r="M593" s="5" t="s">
+        <v>8793</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.4">
@@ -51609,8 +51607,8 @@
       <c r="L594" t="s">
         <v>7017</v>
       </c>
-      <c r="M594" s="4" t="s">
-        <v>8800</v>
+      <c r="M594" s="5" t="s">
+        <v>8794</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.4">
@@ -51650,8 +51648,8 @@
       <c r="L595" t="s">
         <v>7018</v>
       </c>
-      <c r="M595" s="4" t="s">
-        <v>8801</v>
+      <c r="M595" s="5" t="s">
+        <v>8795</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.4">
@@ -51691,8 +51689,8 @@
       <c r="L596" t="s">
         <v>7019</v>
       </c>
-      <c r="M596" s="4" t="s">
-        <v>8802</v>
+      <c r="M596" s="5" t="s">
+        <v>8796</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.4">
@@ -51732,8 +51730,8 @@
       <c r="L597" t="s">
         <v>7020</v>
       </c>
-      <c r="M597" s="4" t="s">
-        <v>8803</v>
+      <c r="M597" s="5" t="s">
+        <v>8797</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.4">
@@ -51773,8 +51771,8 @@
       <c r="L598" t="s">
         <v>7021</v>
       </c>
-      <c r="M598" s="4" t="s">
-        <v>8804</v>
+      <c r="M598" s="5" t="s">
+        <v>8798</v>
       </c>
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.4">
@@ -51814,8 +51812,8 @@
       <c r="L599" t="s">
         <v>7022</v>
       </c>
-      <c r="M599" s="4" t="s">
-        <v>8805</v>
+      <c r="M599" s="5" t="s">
+        <v>8799</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.4">
@@ -51855,8 +51853,8 @@
       <c r="L600" t="s">
         <v>5803</v>
       </c>
-      <c r="M600" s="4" t="s">
-        <v>8806</v>
+      <c r="M600" s="5" t="s">
+        <v>8800</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.4">
@@ -51896,8 +51894,8 @@
       <c r="L601" t="s">
         <v>7023</v>
       </c>
-      <c r="M601" s="4" t="s">
-        <v>8807</v>
+      <c r="M601" s="5" t="s">
+        <v>8801</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.4">
@@ -51937,8 +51935,8 @@
       <c r="L602" t="s">
         <v>7024</v>
       </c>
-      <c r="M602" s="4" t="s">
-        <v>8808</v>
+      <c r="M602" s="5" t="s">
+        <v>8802</v>
       </c>
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.4">
@@ -51978,8 +51976,8 @@
       <c r="L603" t="s">
         <v>7025</v>
       </c>
-      <c r="M603" s="4" t="s">
-        <v>8809</v>
+      <c r="M603" s="5" t="s">
+        <v>8803</v>
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.4">
@@ -52019,8 +52017,8 @@
       <c r="L604" t="s">
         <v>7026</v>
       </c>
-      <c r="M604" s="4" t="s">
-        <v>8810</v>
+      <c r="M604" s="5" t="s">
+        <v>8804</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.4">
@@ -52060,8 +52058,8 @@
       <c r="L605" t="s">
         <v>7027</v>
       </c>
-      <c r="M605" s="4" t="s">
-        <v>8811</v>
+      <c r="M605" s="5" t="s">
+        <v>8805</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.4">
@@ -52101,8 +52099,8 @@
       <c r="L606" t="s">
         <v>7028</v>
       </c>
-      <c r="M606" s="4" t="s">
-        <v>8812</v>
+      <c r="M606" s="5" t="s">
+        <v>8806</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.4">
@@ -52142,8 +52140,8 @@
       <c r="L607" t="s">
         <v>7029</v>
       </c>
-      <c r="M607" s="4" t="s">
-        <v>8813</v>
+      <c r="M607" s="5" t="s">
+        <v>8807</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.4">
@@ -52183,8 +52181,8 @@
       <c r="L608" t="s">
         <v>7030</v>
       </c>
-      <c r="M608" s="4" t="s">
-        <v>8814</v>
+      <c r="M608" s="5" t="s">
+        <v>8808</v>
       </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.4">
@@ -52224,8 +52222,8 @@
       <c r="L609" t="s">
         <v>7031</v>
       </c>
-      <c r="M609" s="4" t="s">
-        <v>8815</v>
+      <c r="M609" s="5" t="s">
+        <v>8809</v>
       </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.4">
@@ -52265,8 +52263,8 @@
       <c r="L610" t="s">
         <v>7032</v>
       </c>
-      <c r="M610" s="4" t="s">
-        <v>8816</v>
+      <c r="M610" s="5" t="s">
+        <v>8810</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.4">
@@ -52306,8 +52304,8 @@
       <c r="L611" t="s">
         <v>7033</v>
       </c>
-      <c r="M611" s="4" t="s">
-        <v>8817</v>
+      <c r="M611" s="5" t="s">
+        <v>8811</v>
       </c>
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.4">
@@ -52347,8 +52345,8 @@
       <c r="L612" t="s">
         <v>7034</v>
       </c>
-      <c r="M612" s="4" t="s">
-        <v>8818</v>
+      <c r="M612" s="5" t="s">
+        <v>8812</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.4">
@@ -52388,8 +52386,8 @@
       <c r="L613" t="s">
         <v>7035</v>
       </c>
-      <c r="M613" s="4" t="s">
-        <v>8819</v>
+      <c r="M613" s="5" t="s">
+        <v>8813</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.4">
@@ -52429,8 +52427,8 @@
       <c r="L614" t="s">
         <v>7036</v>
       </c>
-      <c r="M614" s="4" t="s">
-        <v>8820</v>
+      <c r="M614" s="5" t="s">
+        <v>8814</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.4">
@@ -52470,8 +52468,8 @@
       <c r="L615" t="s">
         <v>7037</v>
       </c>
-      <c r="M615" s="4" t="s">
-        <v>8821</v>
+      <c r="M615" s="5" t="s">
+        <v>8815</v>
       </c>
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.4">
@@ -52511,8 +52509,8 @@
       <c r="L616" t="s">
         <v>7038</v>
       </c>
-      <c r="M616" s="4" t="s">
-        <v>8822</v>
+      <c r="M616" s="5" t="s">
+        <v>8816</v>
       </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.4">
@@ -52552,8 +52550,8 @@
       <c r="L617" t="s">
         <v>7039</v>
       </c>
-      <c r="M617" s="4" t="s">
-        <v>8823</v>
+      <c r="M617" s="5" t="s">
+        <v>8817</v>
       </c>
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.4">
@@ -52593,8 +52591,8 @@
       <c r="L618" t="s">
         <v>7040</v>
       </c>
-      <c r="M618" s="4" t="s">
-        <v>8824</v>
+      <c r="M618" s="5" t="s">
+        <v>8818</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.4">
@@ -52634,8 +52632,8 @@
       <c r="L619" t="s">
         <v>7041</v>
       </c>
-      <c r="M619" s="4" t="s">
-        <v>8825</v>
+      <c r="M619" s="5" t="s">
+        <v>8819</v>
       </c>
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.4">
@@ -52675,8 +52673,8 @@
       <c r="L620" t="s">
         <v>7042</v>
       </c>
-      <c r="M620" s="4" t="s">
-        <v>8826</v>
+      <c r="M620" s="5" t="s">
+        <v>8820</v>
       </c>
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.4">
@@ -52716,8 +52714,8 @@
       <c r="L621" t="s">
         <v>7043</v>
       </c>
-      <c r="M621" s="4" t="s">
-        <v>8827</v>
+      <c r="M621" s="5" t="s">
+        <v>8821</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.4">
@@ -52757,8 +52755,8 @@
       <c r="L622" t="s">
         <v>7044</v>
       </c>
-      <c r="M622" s="4" t="s">
-        <v>8828</v>
+      <c r="M622" s="5" t="s">
+        <v>8822</v>
       </c>
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.4">
@@ -52798,8 +52796,8 @@
       <c r="L623" t="s">
         <v>7045</v>
       </c>
-      <c r="M623" s="4" t="s">
-        <v>8829</v>
+      <c r="M623" s="5" t="s">
+        <v>8823</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.4">
@@ -52839,8 +52837,8 @@
       <c r="L624" t="s">
         <v>7046</v>
       </c>
-      <c r="M624" s="4" t="s">
-        <v>8830</v>
+      <c r="M624" s="5" t="s">
+        <v>8824</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.4">
@@ -52880,8 +52878,8 @@
       <c r="L625" t="s">
         <v>7047</v>
       </c>
-      <c r="M625" s="4" t="s">
-        <v>8831</v>
+      <c r="M625" s="5" t="s">
+        <v>8825</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.4">
@@ -52921,8 +52919,8 @@
       <c r="L626" t="s">
         <v>7048</v>
       </c>
-      <c r="M626" s="4" t="s">
-        <v>8832</v>
+      <c r="M626" s="5" t="s">
+        <v>8826</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.4">
@@ -52962,8 +52960,8 @@
       <c r="L627" t="s">
         <v>7049</v>
       </c>
-      <c r="M627" s="4" t="s">
-        <v>8833</v>
+      <c r="M627" s="5" t="s">
+        <v>8827</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.4">
@@ -53003,8 +53001,8 @@
       <c r="L628" t="s">
         <v>7050</v>
       </c>
-      <c r="M628" s="4" t="s">
-        <v>8834</v>
+      <c r="M628" s="5" t="s">
+        <v>8828</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.4">
@@ -53044,8 +53042,8 @@
       <c r="L629" t="s">
         <v>7051</v>
       </c>
-      <c r="M629" s="4" t="s">
-        <v>8835</v>
+      <c r="M629" s="5" t="s">
+        <v>8829</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.4">
@@ -53085,8 +53083,8 @@
       <c r="L630" t="s">
         <v>7052</v>
       </c>
-      <c r="M630" s="4" t="s">
-        <v>8836</v>
+      <c r="M630" s="5" t="s">
+        <v>8830</v>
       </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.4">
@@ -53126,8 +53124,8 @@
       <c r="L631" t="s">
         <v>7053</v>
       </c>
-      <c r="M631" s="4" t="s">
-        <v>8837</v>
+      <c r="M631" s="5" t="s">
+        <v>8831</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.4">
@@ -53167,8 +53165,8 @@
       <c r="L632" t="s">
         <v>7054</v>
       </c>
-      <c r="M632" s="4" t="s">
-        <v>8838</v>
+      <c r="M632" s="5" t="s">
+        <v>8832</v>
       </c>
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.4">
@@ -53208,8 +53206,8 @@
       <c r="L633" t="s">
         <v>7055</v>
       </c>
-      <c r="M633" s="4" t="s">
-        <v>8839</v>
+      <c r="M633" s="5" t="s">
+        <v>8833</v>
       </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.4">
@@ -53249,8 +53247,8 @@
       <c r="L634" t="s">
         <v>6723</v>
       </c>
-      <c r="M634" s="4" t="s">
-        <v>8840</v>
+      <c r="M634" s="5" t="s">
+        <v>8834</v>
       </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.4">
@@ -53290,8 +53288,8 @@
       <c r="L635" t="s">
         <v>7056</v>
       </c>
-      <c r="M635" s="4" t="s">
-        <v>8841</v>
+      <c r="M635" s="5" t="s">
+        <v>8835</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.4">
@@ -53331,8 +53329,8 @@
       <c r="L636" t="s">
         <v>7057</v>
       </c>
-      <c r="M636" s="4" t="s">
-        <v>8842</v>
+      <c r="M636" s="5" t="s">
+        <v>8836</v>
       </c>
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.4">
@@ -53372,8 +53370,8 @@
       <c r="L637" t="s">
         <v>7058</v>
       </c>
-      <c r="M637" s="4" t="s">
-        <v>8843</v>
+      <c r="M637" s="5" t="s">
+        <v>8837</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.4">
@@ -53413,8 +53411,8 @@
       <c r="L638" t="s">
         <v>7059</v>
       </c>
-      <c r="M638" s="4" t="s">
-        <v>8844</v>
+      <c r="M638" s="5" t="s">
+        <v>8838</v>
       </c>
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.4">
@@ -53454,8 +53452,8 @@
       <c r="L639" t="s">
         <v>7060</v>
       </c>
-      <c r="M639" s="4" t="s">
-        <v>8845</v>
+      <c r="M639" s="5" t="s">
+        <v>8839</v>
       </c>
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.4">
@@ -53495,8 +53493,8 @@
       <c r="L640" t="s">
         <v>7061</v>
       </c>
-      <c r="M640" s="4" t="s">
-        <v>8846</v>
+      <c r="M640" s="5" t="s">
+        <v>8840</v>
       </c>
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.4">
@@ -53536,8 +53534,8 @@
       <c r="L641" t="s">
         <v>7062</v>
       </c>
-      <c r="M641" s="4" t="s">
-        <v>8847</v>
+      <c r="M641" s="5" t="s">
+        <v>8841</v>
       </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.4">
@@ -53577,8 +53575,8 @@
       <c r="L642" t="s">
         <v>7063</v>
       </c>
-      <c r="M642" s="4" t="s">
-        <v>8848</v>
+      <c r="M642" s="5" t="s">
+        <v>8842</v>
       </c>
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.4">
@@ -53618,8 +53616,8 @@
       <c r="L643" t="s">
         <v>7064</v>
       </c>
-      <c r="M643" s="4" t="s">
-        <v>8849</v>
+      <c r="M643" s="5" t="s">
+        <v>8843</v>
       </c>
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.4">
@@ -53659,8 +53657,8 @@
       <c r="L644" t="s">
         <v>7065</v>
       </c>
-      <c r="M644" s="4" t="s">
-        <v>8850</v>
+      <c r="M644" s="5" t="s">
+        <v>8844</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.4">
@@ -53700,8 +53698,8 @@
       <c r="L645" t="s">
         <v>7066</v>
       </c>
-      <c r="M645" s="4" t="s">
-        <v>8851</v>
+      <c r="M645" s="5" t="s">
+        <v>8845</v>
       </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.4">
@@ -53741,8 +53739,8 @@
       <c r="L646" t="s">
         <v>7067</v>
       </c>
-      <c r="M646" s="4" t="s">
-        <v>8852</v>
+      <c r="M646" s="5" t="s">
+        <v>8846</v>
       </c>
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.4">
@@ -53782,8 +53780,8 @@
       <c r="L647" t="s">
         <v>7068</v>
       </c>
-      <c r="M647" s="4" t="s">
-        <v>8853</v>
+      <c r="M647" s="5" t="s">
+        <v>8847</v>
       </c>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.4">
@@ -53823,8 +53821,8 @@
       <c r="L648" t="s">
         <v>7069</v>
       </c>
-      <c r="M648" s="4" t="s">
-        <v>8854</v>
+      <c r="M648" s="5" t="s">
+        <v>8848</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.4">
@@ -53864,8 +53862,8 @@
       <c r="L649" t="s">
         <v>7070</v>
       </c>
-      <c r="M649" s="4" t="s">
-        <v>8855</v>
+      <c r="M649" s="5" t="s">
+        <v>8849</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.4">
@@ -53905,8 +53903,8 @@
       <c r="L650" t="s">
         <v>7071</v>
       </c>
-      <c r="M650" s="4" t="s">
-        <v>8856</v>
+      <c r="M650" s="5" t="s">
+        <v>8850</v>
       </c>
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.4">
@@ -53946,8 +53944,8 @@
       <c r="L651" t="s">
         <v>7072</v>
       </c>
-      <c r="M651" s="4" t="s">
-        <v>8857</v>
+      <c r="M651" s="5" t="s">
+        <v>8851</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.4">
@@ -53987,8 +53985,8 @@
       <c r="L652" t="s">
         <v>7073</v>
       </c>
-      <c r="M652" s="4" t="s">
-        <v>8858</v>
+      <c r="M652" s="5" t="s">
+        <v>8852</v>
       </c>
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.4">
@@ -54028,8 +54026,8 @@
       <c r="L653" t="s">
         <v>7074</v>
       </c>
-      <c r="M653" s="4" t="s">
-        <v>8859</v>
+      <c r="M653" s="5" t="s">
+        <v>8853</v>
       </c>
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.4">
@@ -54069,8 +54067,8 @@
       <c r="L654" t="s">
         <v>7075</v>
       </c>
-      <c r="M654" s="4" t="s">
-        <v>8860</v>
+      <c r="M654" s="5" t="s">
+        <v>8854</v>
       </c>
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.4">
@@ -54110,8 +54108,8 @@
       <c r="L655" t="s">
         <v>7076</v>
       </c>
-      <c r="M655" s="4" t="s">
-        <v>8861</v>
+      <c r="M655" s="5" t="s">
+        <v>8855</v>
       </c>
     </row>
     <row r="656" spans="1:13" x14ac:dyDescent="0.4">
@@ -54151,8 +54149,8 @@
       <c r="L656" t="s">
         <v>7077</v>
       </c>
-      <c r="M656" s="4" t="s">
-        <v>8862</v>
+      <c r="M656" s="5" t="s">
+        <v>8856</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.4">
@@ -54192,8 +54190,8 @@
       <c r="L657" t="s">
         <v>7078</v>
       </c>
-      <c r="M657" s="4" t="s">
-        <v>8863</v>
+      <c r="M657" s="5" t="s">
+        <v>8857</v>
       </c>
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.4">
@@ -54233,8 +54231,8 @@
       <c r="L658" t="s">
         <v>7079</v>
       </c>
-      <c r="M658" s="4" t="s">
-        <v>8864</v>
+      <c r="M658" s="5" t="s">
+        <v>8858</v>
       </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.4">
@@ -54274,8 +54272,8 @@
       <c r="L659" t="s">
         <v>6492</v>
       </c>
-      <c r="M659" s="4" t="s">
-        <v>8863</v>
+      <c r="M659" s="5" t="s">
+        <v>8857</v>
       </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.4">
@@ -54315,8 +54313,8 @@
       <c r="L660" t="s">
         <v>7080</v>
       </c>
-      <c r="M660" s="4" t="s">
-        <v>8865</v>
+      <c r="M660" s="5" t="s">
+        <v>8859</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.4">
@@ -54356,8 +54354,8 @@
       <c r="L661" t="s">
         <v>7081</v>
       </c>
-      <c r="M661" s="4" t="s">
-        <v>8866</v>
+      <c r="M661" s="5" t="s">
+        <v>8860</v>
       </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.4">
@@ -54397,8 +54395,8 @@
       <c r="L662" t="s">
         <v>7116</v>
       </c>
-      <c r="M662" s="4" t="s">
-        <v>8867</v>
+      <c r="M662" s="5" t="s">
+        <v>8861</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.4">
@@ -54438,8 +54436,8 @@
       <c r="L663" t="s">
         <v>7082</v>
       </c>
-      <c r="M663" s="4" t="s">
-        <v>8868</v>
+      <c r="M663" s="5" t="s">
+        <v>8862</v>
       </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.4">
@@ -54479,8 +54477,8 @@
       <c r="L664" t="s">
         <v>7083</v>
       </c>
-      <c r="M664" s="4" t="s">
-        <v>8869</v>
+      <c r="M664" s="5" t="s">
+        <v>8863</v>
       </c>
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.4">
@@ -54520,8 +54518,8 @@
       <c r="L665" t="s">
         <v>7084</v>
       </c>
-      <c r="M665" s="4" t="s">
-        <v>8870</v>
+      <c r="M665" s="5" t="s">
+        <v>8864</v>
       </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.4">
@@ -54561,8 +54559,8 @@
       <c r="L666" t="s">
         <v>7085</v>
       </c>
-      <c r="M666" s="4" t="s">
-        <v>8871</v>
+      <c r="M666" s="5" t="s">
+        <v>8865</v>
       </c>
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.4">
@@ -54602,8 +54600,8 @@
       <c r="L667" t="s">
         <v>7086</v>
       </c>
-      <c r="M667" s="4" t="s">
-        <v>8872</v>
+      <c r="M667" s="5" t="s">
+        <v>8866</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.4">
@@ -54643,8 +54641,8 @@
       <c r="L668" t="s">
         <v>7087</v>
       </c>
-      <c r="M668" s="4" t="s">
-        <v>8873</v>
+      <c r="M668" s="5" t="s">
+        <v>8867</v>
       </c>
     </row>
     <row r="669" spans="1:13" x14ac:dyDescent="0.4">
@@ -54684,8 +54682,8 @@
       <c r="L669" t="s">
         <v>7088</v>
       </c>
-      <c r="M669" s="4" t="s">
-        <v>8874</v>
+      <c r="M669" s="5" t="s">
+        <v>8868</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.4">
@@ -54725,8 +54723,8 @@
       <c r="L670" t="s">
         <v>7089</v>
       </c>
-      <c r="M670" s="4" t="s">
-        <v>8875</v>
+      <c r="M670" s="5" t="s">
+        <v>8869</v>
       </c>
     </row>
     <row r="671" spans="1:13" x14ac:dyDescent="0.4">
@@ -54766,8 +54764,8 @@
       <c r="L671" t="s">
         <v>7090</v>
       </c>
-      <c r="M671" s="4" t="s">
-        <v>8876</v>
+      <c r="M671" s="5" t="s">
+        <v>8870</v>
       </c>
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.4">
@@ -54807,8 +54805,8 @@
       <c r="L672" t="s">
         <v>7091</v>
       </c>
-      <c r="M672" s="4" t="s">
-        <v>8877</v>
+      <c r="M672" s="5" t="s">
+        <v>8871</v>
       </c>
     </row>
     <row r="673" spans="1:13" x14ac:dyDescent="0.4">
@@ -54848,8 +54846,8 @@
       <c r="L673" t="s">
         <v>7092</v>
       </c>
-      <c r="M673" s="4" t="s">
-        <v>8878</v>
+      <c r="M673" s="5" t="s">
+        <v>8872</v>
       </c>
     </row>
     <row r="674" spans="1:13" x14ac:dyDescent="0.4">
@@ -54889,8 +54887,8 @@
       <c r="L674" t="s">
         <v>5876</v>
       </c>
-      <c r="M674" s="4" t="s">
-        <v>8879</v>
+      <c r="M674" s="5" t="s">
+        <v>8873</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.4">
@@ -54930,8 +54928,8 @@
       <c r="L675" t="s">
         <v>7053</v>
       </c>
-      <c r="M675" s="4" t="s">
-        <v>8837</v>
+      <c r="M675" s="5" t="s">
+        <v>8831</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.4">
@@ -54971,8 +54969,8 @@
       <c r="L676" t="s">
         <v>7093</v>
       </c>
-      <c r="M676" s="4" t="s">
-        <v>8880</v>
+      <c r="M676" s="5" t="s">
+        <v>8874</v>
       </c>
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.4">
@@ -55012,8 +55010,8 @@
       <c r="L677" t="s">
         <v>7094</v>
       </c>
-      <c r="M677" s="4" t="s">
-        <v>8881</v>
+      <c r="M677" s="5" t="s">
+        <v>8875</v>
       </c>
     </row>
     <row r="678" spans="1:13" x14ac:dyDescent="0.4">
@@ -55053,8 +55051,8 @@
       <c r="L678" t="s">
         <v>7095</v>
       </c>
-      <c r="M678" s="4" t="s">
-        <v>8882</v>
+      <c r="M678" s="5" t="s">
+        <v>8876</v>
       </c>
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.4">
@@ -55094,8 +55092,8 @@
       <c r="L679" t="s">
         <v>7096</v>
       </c>
-      <c r="M679" s="4" t="s">
-        <v>8883</v>
+      <c r="M679" s="5" t="s">
+        <v>8877</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.4">
@@ -55135,8 +55133,8 @@
       <c r="L680" t="s">
         <v>7097</v>
       </c>
-      <c r="M680" s="4" t="s">
-        <v>8884</v>
+      <c r="M680" s="5" t="s">
+        <v>8878</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.4">
@@ -55176,8 +55174,8 @@
       <c r="L681" t="s">
         <v>7098</v>
       </c>
-      <c r="M681" s="4" t="s">
-        <v>8885</v>
+      <c r="M681" s="5" t="s">
+        <v>8879</v>
       </c>
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.4">
@@ -55217,8 +55215,8 @@
       <c r="L682" t="s">
         <v>7099</v>
       </c>
-      <c r="M682" s="4" t="s">
-        <v>8886</v>
+      <c r="M682" s="5" t="s">
+        <v>8880</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.4">
@@ -55258,8 +55256,8 @@
       <c r="L683" t="s">
         <v>7100</v>
       </c>
-      <c r="M683" s="4" t="s">
-        <v>8887</v>
+      <c r="M683" s="5" t="s">
+        <v>8881</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.4">
@@ -55299,8 +55297,8 @@
       <c r="L684" t="s">
         <v>7101</v>
       </c>
-      <c r="M684" s="4" t="s">
-        <v>8888</v>
+      <c r="M684" s="5" t="s">
+        <v>8882</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.4">
@@ -55340,8 +55338,8 @@
       <c r="L685" t="s">
         <v>7102</v>
       </c>
-      <c r="M685" s="4" t="s">
-        <v>8889</v>
+      <c r="M685" s="5" t="s">
+        <v>8883</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.4">
@@ -55381,8 +55379,8 @@
       <c r="L686" t="s">
         <v>7103</v>
       </c>
-      <c r="M686" s="4" t="s">
-        <v>8890</v>
+      <c r="M686" s="5" t="s">
+        <v>8884</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.4">
@@ -55422,8 +55420,8 @@
       <c r="L687" t="s">
         <v>7104</v>
       </c>
-      <c r="M687" s="4" t="s">
-        <v>8926</v>
+      <c r="M687" s="5" t="s">
+        <v>8919</v>
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.4">
@@ -55463,8 +55461,8 @@
       <c r="L688" t="s">
         <v>7105</v>
       </c>
-      <c r="M688" s="4" t="s">
-        <v>8891</v>
+      <c r="M688" s="5" t="s">
+        <v>8885</v>
       </c>
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.4">
@@ -55504,8 +55502,8 @@
       <c r="L689" t="s">
         <v>7106</v>
       </c>
-      <c r="M689" s="4" t="s">
-        <v>8892</v>
+      <c r="M689" s="5" t="s">
+        <v>8886</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.4">
@@ -55545,8 +55543,8 @@
       <c r="L690" t="s">
         <v>7107</v>
       </c>
-      <c r="M690" s="4" t="s">
-        <v>8893</v>
+      <c r="M690" s="5" t="s">
+        <v>8887</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.4">
@@ -55586,8 +55584,8 @@
       <c r="L691" t="s">
         <v>7108</v>
       </c>
-      <c r="M691" s="4" t="s">
-        <v>8894</v>
+      <c r="M691" s="5" t="s">
+        <v>8888</v>
       </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.4">
@@ -55627,8 +55625,8 @@
       <c r="L692" t="s">
         <v>7109</v>
       </c>
-      <c r="M692" s="4" t="s">
-        <v>8895</v>
+      <c r="M692" s="5" t="s">
+        <v>8889</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.4">
@@ -55668,8 +55666,8 @@
       <c r="L693" t="s">
         <v>7133</v>
       </c>
-      <c r="M693" s="4" t="s">
-        <v>8927</v>
+      <c r="M693" s="5" t="s">
+        <v>8920</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.4">
@@ -55709,8 +55707,8 @@
       <c r="L694" t="s">
         <v>7136</v>
       </c>
-      <c r="M694" s="4" t="s">
-        <v>8896</v>
+      <c r="M694" s="5" t="s">
+        <v>8890</v>
       </c>
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.4">
@@ -55750,8 +55748,8 @@
       <c r="L695" t="s">
         <v>7155</v>
       </c>
-      <c r="M695" s="4" t="s">
-        <v>8928</v>
+      <c r="M695" s="5" t="s">
+        <v>8921</v>
       </c>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.4">
@@ -55791,8 +55789,8 @@
       <c r="L696" t="s">
         <v>7849</v>
       </c>
-      <c r="M696" s="4" t="s">
-        <v>8897</v>
+      <c r="M696" s="5" t="s">
+        <v>8891</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.4">
@@ -55832,8 +55830,8 @@
       <c r="L697" t="s">
         <v>7948</v>
       </c>
-      <c r="M697" s="4" t="s">
-        <v>8898</v>
+      <c r="M697" s="5" t="s">
+        <v>8892</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.4">
@@ -55873,8 +55871,8 @@
       <c r="L698" t="s">
         <v>7949</v>
       </c>
-      <c r="M698" s="4" t="s">
-        <v>8899</v>
+      <c r="M698" s="5" t="s">
+        <v>8893</v>
       </c>
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.4">
@@ -55914,8 +55912,8 @@
       <c r="L699" t="s">
         <v>8030</v>
       </c>
-      <c r="M699" s="4" t="s">
-        <v>8900</v>
+      <c r="M699" s="5" t="s">
+        <v>8894</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.4">
@@ -55955,8 +55953,8 @@
       <c r="L700" t="s">
         <v>8052</v>
       </c>
-      <c r="M700" s="4" t="s">
-        <v>8901</v>
+      <c r="M700" s="5" t="s">
+        <v>8895</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.4">
@@ -55996,8 +55994,8 @@
       <c r="L701" t="s">
         <v>8053</v>
       </c>
-      <c r="M701" s="4" t="s">
-        <v>8902</v>
+      <c r="M701" s="5" t="s">
+        <v>8896</v>
       </c>
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.4">
@@ -56037,8 +56035,8 @@
       <c r="L702" t="s">
         <v>8063</v>
       </c>
-      <c r="M702" s="4" t="s">
-        <v>8903</v>
+      <c r="M702" s="5" t="s">
+        <v>8897</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.4">
@@ -56078,8 +56076,8 @@
       <c r="L703" t="s">
         <v>8064</v>
       </c>
-      <c r="M703" s="4" t="s">
-        <v>8929</v>
+      <c r="M703" s="5" t="s">
+        <v>8922</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.4">
@@ -56119,8 +56117,8 @@
       <c r="L704" t="s">
         <v>8065</v>
       </c>
-      <c r="M704" s="4" t="s">
-        <v>8904</v>
+      <c r="M704" s="5" t="s">
+        <v>8898</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.4">
@@ -56160,8 +56158,8 @@
       <c r="L705" t="s">
         <v>8107</v>
       </c>
-      <c r="M705" s="4" t="s">
-        <v>8930</v>
+      <c r="M705" s="5" t="s">
+        <v>8923</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.4">
@@ -56201,8 +56199,8 @@
       <c r="L706" t="s">
         <v>8123</v>
       </c>
-      <c r="M706" s="4" t="s">
-        <v>8931</v>
+      <c r="M706" s="5" t="s">
+        <v>8924</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.4">
@@ -56242,8 +56240,8 @@
       <c r="L707" t="s">
         <v>8133</v>
       </c>
-      <c r="M707" s="4" t="s">
-        <v>8932</v>
+      <c r="M707" s="5" t="s">
+        <v>8925</v>
       </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.4">
@@ -56283,8 +56281,8 @@
       <c r="L708" t="s">
         <v>8146</v>
       </c>
-      <c r="M708" s="4" t="s">
-        <v>8933</v>
+      <c r="M708" s="5" t="s">
+        <v>8926</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.4">
@@ -56324,8 +56322,8 @@
       <c r="L709" t="s">
         <v>8165</v>
       </c>
-      <c r="M709" s="4" t="s">
-        <v>8934</v>
+      <c r="M709" s="5" t="s">
+        <v>8927</v>
       </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.4">
@@ -56365,8 +56363,8 @@
       <c r="L710" t="s">
         <v>8145</v>
       </c>
-      <c r="M710" s="4" t="s">
-        <v>8905</v>
+      <c r="M710" s="5" t="s">
+        <v>8899</v>
       </c>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.4">
@@ -56406,8 +56404,8 @@
       <c r="L711" t="s">
         <v>8186</v>
       </c>
-      <c r="M711" s="4" t="s">
-        <v>8906</v>
+      <c r="M711" s="5" t="s">
+        <v>8900</v>
       </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.4">
@@ -56447,8 +56445,8 @@
       <c r="L712" t="s">
         <v>8187</v>
       </c>
-      <c r="M712" s="4" t="s">
-        <v>8907</v>
+      <c r="M712" s="5" t="s">
+        <v>8901</v>
       </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.4">
@@ -56488,8 +56486,8 @@
       <c r="L713" t="s">
         <v>8188</v>
       </c>
-      <c r="M713" s="4" t="s">
-        <v>8908</v>
+      <c r="M713" s="5" t="s">
+        <v>8902</v>
       </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.4">
@@ -56529,8 +56527,8 @@
       <c r="L714" t="s">
         <v>8189</v>
       </c>
-      <c r="M714" s="4" t="s">
-        <v>8909</v>
+      <c r="M714" s="5" t="s">
+        <v>8903</v>
       </c>
     </row>
   </sheetData>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCV-DELL0010\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B43034-66F0-493D-95DF-91AABCD1E1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7B976-303C-4D4D-B5FB-81A78AA551DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="975" windowWidth="28800" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1110" windowWidth="28800" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9282" uniqueCount="8937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9282" uniqueCount="8934">
   <si>
     <t>keys</t>
   </si>
@@ -24758,15 +24758,9 @@
     <t>ボリューム</t>
   </si>
   <si>
-    <t>スライドショーのWebインターフェース-デジタルサイネージプレーヤー</t>
-  </si>
-  <si>
     <t>プレイリスト</t>
   </si>
   <si>
-    <t>新しいプレイリストを追加する</t>
-  </si>
-  <si>
     <t>プレイリストはまだ作成されていません。</t>
   </si>
   <si>
@@ -24911,9 +24905,6 @@
     <t>ユーザー名は既に存在します</t>
   </si>
   <si>
-    <t>新しいユーザーを追加する</t>
-  </si>
-  <si>
     <t>ユーザーの編集</t>
   </si>
   <si>
@@ -24956,15 +24947,9 @@
     <t>ミュート</t>
   </si>
   <si>
-    <t>ビデオから</t>
-  </si>
-  <si>
     <t>オーディオプレイリスト</t>
   </si>
   <si>
-    <t>新しいファイルをアップロードする。</t>
-  </si>
-  <si>
     <t>ファイルをアップロードする。</t>
   </si>
   <si>
@@ -24983,9 +24968,6 @@
     <t>オーディオ/ビデオストリーム</t>
   </si>
   <si>
-    <t>ランダムにファイル</t>
-  </si>
-  <si>
     <t>アルファベット順のファイル</t>
   </si>
   <si>
@@ -25028,9 +25010,6 @@
     <t>から</t>
   </si>
   <si>
-    <t>前回のスタートから</t>
-  </si>
-  <si>
     <t>著者</t>
   </si>
   <si>
@@ -25154,21 +25133,9 @@
     <t>のアイテムのリスト</t>
   </si>
   <si>
-    <t>壁紙を設定する</t>
-  </si>
-  <si>
-    <t>壁紙が正常に設定されました</t>
-  </si>
-  <si>
     <t>クリックして、このアプリケーションの壁紙をデフォルトに設定します。システムの起動中に壁紙が数秒間表示されます。</t>
   </si>
   <si>
-    <t>bootanimationを設定します</t>
-  </si>
-  <si>
-    <t>Bootanimationは正常に設定されました</t>
-  </si>
-  <si>
     <t>クリックして、このアプリケーションの起動画面アニメーションをデフォルトに設定します。</t>
   </si>
   <si>
@@ -25184,9 +25151,6 @@
     <t>ブラウザとFTPを介したリモートコントロールを許可します。 LANネットワーク（同じ有線/無線ネットワーク）内でのみ機能します。</t>
   </si>
   <si>
-    <t>メッセージを表示</t>
-  </si>
-  <si>
     <t>画面上のテキストメッセージ</t>
   </si>
   <si>
@@ -25208,9 +25172,6 @@
     <t>以降のデータ</t>
   </si>
   <si>
-    <t>プレイリストのアイテムを編集する</t>
-  </si>
-  <si>
     <t>現在のファイルを削除する</t>
   </si>
   <si>
@@ -25229,18 +25190,12 @@
     <t>ユーザーの役割</t>
   </si>
   <si>
-    <t>表示の長さは変更できません</t>
-  </si>
-  <si>
     <t>表示の現在の長さ</t>
   </si>
   <si>
     <t>アプリケーションの更新</t>
   </si>
   <si>
-    <t>現行版</t>
-  </si>
-  <si>
     <t>新しいAPKファイル</t>
   </si>
   <si>
@@ -25250,81 +25205,36 @@
     <t>間違ったファイルで更新すると、アプリケーションがブリックする可能性があります。</t>
   </si>
   <si>
-    <t>デバイスを再起動します</t>
-  </si>
-  <si>
     <t>再起動を押すと、画面が空白になり、デバイスが応答を停止します。約2分で再度ログインできます。</t>
   </si>
   <si>
     <t>このデバイスを再起動しますか？</t>
   </si>
   <si>
-    <t>アプリケーションをリロードして、更新を適用します</t>
-  </si>
-  <si>
-    <t>このファイルタイプはサポートされていません</t>
-  </si>
-  <si>
-    <t>前回の起動以降、ファイルがダウンロードされていません</t>
-  </si>
-  <si>
     <t>ダウンロードキューの長さ</t>
   </si>
   <si>
     <t>ファイルのダウンロードを開始</t>
   </si>
   <si>
-    <t>インターネットからファイルをダウンロードする</t>
-  </si>
-  <si>
-    <t>ダウンロード用のURL</t>
-  </si>
-  <si>
     <t>エンキュー</t>
   </si>
   <si>
     <t>ファイル名</t>
   </si>
   <si>
-    <t>ファイル名を空にすることはできません</t>
-  </si>
-  <si>
-    <t>ファイルはダウンロードのためにキューに入れられました</t>
-  </si>
-  <si>
     <t>URLが無効です</t>
   </si>
   <si>
-    <t>ファイル＆quot;%s＆quot;正常にダウンロードされました</t>
-  </si>
-  <si>
-    <t>ファイル＆quot;%s＆quot;のダウンロード中にエラーが発生しました</t>
-  </si>
-  <si>
-    <t>ファイルは1分間表示されます</t>
-  </si>
-  <si>
     <t>更新が正常に開始されました。アプリケーションが自動的に再ロードされるまでお待ちください（約1分）</t>
   </si>
   <si>
-    <t>アプリケーションを更新できません</t>
-  </si>
-  <si>
     <t>元のプレイリストを戻す</t>
   </si>
   <si>
     <t>元の画面レイアウトに戻す</t>
   </si>
   <si>
-    <t>フルスクリーン/ウィンドウを切り替える</t>
-  </si>
-  <si>
-    <t>プレイリストが空です</t>
-  </si>
-  <si>
-    <t>外部ストレージを使用する</t>
-  </si>
-  <si>
     <t>オンにすると、再生するファイルは、内部メモリではなく、外部ストレージ（SDカードまたはUSBドライブ）に保存されます。このアプリの起動時には外部ストレージが存在する必要があります。&lt;br&gt;&lt;i&gt;この変更を適用するには、リロードが必要です。&lt;/i&gt;</t>
   </si>
   <si>
@@ -25334,12 +25244,6 @@
     <t>秒単位の頻度、設定された時間に削除する必要があるファイルをチェックする頻度。この機能には時間同期が必要なため、この設定にはインターネットへの接続が必要です。&lt;br&gt;&lt;i&gt;この変更を適用するにはリロードが必要です。&lt;/i&gt;</t>
   </si>
   <si>
-    <t>ファイルはに削除されます</t>
-  </si>
-  <si>
-    <t>アップロードしたファイルを編集する</t>
-  </si>
-  <si>
     <t>再起動時間（ウォッチドッグ）</t>
   </si>
   <si>
@@ -25355,12 +25259,6 @@
     <t>証明書のパスワード</t>
   </si>
   <si>
-    <t>証明書をファイルする</t>
-  </si>
-  <si>
-    <t>証明書のチェックに失敗しました</t>
-  </si>
-  <si>
     <t>証明書が正常にアップロードされました。デバイスを再起動してください</t>
   </si>
   <si>
@@ -25379,21 +25277,6 @@
     <t>バックアップ付きのファイルを選択</t>
   </si>
   <si>
-    <t>バックアップは正常に復元されました</t>
-  </si>
-  <si>
-    <t>バックアップを復元できません</t>
-  </si>
-  <si>
-    <t>構成のどの部分をバックアップするかを選択します</t>
-  </si>
-  <si>
-    <t>復元するバックアップファイルから構成のどの部分を選択します</t>
-  </si>
-  <si>
-    <t>ファイルが正常にアップロードされました。以下で復元するパーツを選択してください</t>
-  </si>
-  <si>
     <t>ロード</t>
   </si>
   <si>
@@ -25403,24 +25286,9 @@
     <t>手動で選択されたプレイリスト（キーボードまたはWebインターフェイスを介して）が表示される秒数</t>
   </si>
   <si>
-    <t>番号が設定されている場合は、キーボードの設定番号を押すと、このプレイリストをアクティブにできます</t>
-  </si>
-  <si>
     <t>間違った数値形式</t>
   </si>
   <si>
-    <t>ファイルが存在しません</t>
-  </si>
-  <si>
-    <t>タイプを空にすることはできません</t>
-  </si>
-  <si>
-    <t>ファイルは正常に表示されました</t>
-  </si>
-  <si>
-    <t>メッセージは正常に表示されました</t>
-  </si>
-  <si>
     <t>基本設定</t>
   </si>
   <si>
@@ -25430,9 +25298,6 @@
     <t>デバイス情報</t>
   </si>
   <si>
-    <t>デバイスはおそらくルート化されていません。この機能は正しく機能しない可能性があります</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
@@ -25448,9 +25313,6 @@
     <t>基本設定でUSBドライブからのコピーを有効にする（メニューまたはEnterキーを押す）</t>
   </si>
   <si>
-    <t>アップロードしたいファイルでUSBドライブを挿入します</t>
-  </si>
-  <si>
     <t>フォルダ内</t>
   </si>
   <si>
@@ -25460,84 +25322,39 @@
     <t>ヘルプ</t>
   </si>
   <si>
-    <t>オンスクリーンメニュー-左からスワイプし、[ストレージからファイルを追加]を選択します</t>
-  </si>
-  <si>
     <t>システムの起動時に開始</t>
   </si>
   <si>
     <t>Androidの起動後にこのアプリケーションを自動的に起動します。 Android 10以降では特別な許可が必要なため、この設定にはオンスクリーンメニュー（基本設定）からのみアクセスできる場合があります。</t>
   </si>
   <si>
-    <t>このアプリケーションを起動します</t>
-  </si>
-  <si>
-    <t>接続されていません</t>
-  </si>
-  <si>
-    <t>WiFiまたはローカルネットワークに接続して、Webインターフェイスアクセスを有効にします</t>
-  </si>
-  <si>
-    <t>戻るか、ここをクリックして戻る</t>
-  </si>
-  <si>
     <t>ホーム</t>
   </si>
   <si>
     <t>ツール</t>
   </si>
   <si>
-    <t>デバイスの設定</t>
-  </si>
-  <si>
     <t>情報</t>
   </si>
   <si>
     <t>設定にアクセスするには、メニューまたはEnterボタンを押すか、左からスワイプするか、画面を長押しします。</t>
   </si>
   <si>
-    <t>詳細設定（カスタマイズされたレイアウト、プレイリストなど）については、アドレスを開きます</t>
-  </si>
-  <si>
-    <t>コンピュータのブラウザで。</t>
-  </si>
-  <si>
     <t>RSSメッセージ</t>
   </si>
   <si>
     <t>タイトル</t>
   </si>
   <si>
-    <t>タイトルを空にすることはできません</t>
-  </si>
-  <si>
     <t>コンテンツ</t>
   </si>
   <si>
-    <t>コンテンツを空にすることはできません</t>
-  </si>
-  <si>
-    <t>RSSメッセージはまだ追加されていません</t>
-  </si>
-  <si>
-    <t>RSSメッセージは正常に削除されました</t>
-  </si>
-  <si>
-    <t>RSSメッセージが正常に追加されました</t>
-  </si>
-  <si>
     <t>このページでは、画面に表示されるRSSメッセージを追加できます。このリストのRSSメッセージを表示する場合は、RSSアイテムの設定でRSSURLを「ローカル」に設定してください。</t>
   </si>
   <si>
     <t>FTPサーバー</t>
   </si>
   <si>
-    <t>FTPサーバーに接続します</t>
-  </si>
-  <si>
-    <t>ファイルをアップロードします</t>
-  </si>
-  <si>
     <t>NTPサーバー</t>
   </si>
   <si>
@@ -25568,9 +25385,6 @@
     <t>このアプリケーションをリロードしますか？</t>
   </si>
   <si>
-    <t>アプリケーションをリロードします</t>
-  </si>
-  <si>
     <t>リロードを押すと、デバイス上のアプリケーションが閉じて再起動します。約20秒で再度ログインできます。</t>
   </si>
   <si>
@@ -25607,9 +25421,6 @@
     <t>このバージョンは無料で提供されます。 このソフトウェアの変更またはブランドのホワイトラベルバージョンに興味がある場合は、&lt;a href='https://slideshow.digital/branding/'&gt;https://slideshow.digital/branding/にアクセスしてください。&lt;/a&gt;または&lt;a href='mailto:slideshow@milanfabian.com'&gt;slideshow@milanfabian.com&lt;/a&gt;に連絡してください。</t>
   </si>
   <si>
-    <t>プレイリストは、サイクルで再生されるアイテムのセットです。 1日の一部で、さまざまなプレイリストをさまざまなパネルに設定できます。</t>
-  </si>
-  <si>
     <t>アイテムには、アップロードされた1つ以上のファイル（ファイル名に基づいて選択）、天気予報、RSSニュース、日時などが含まれます。画面でアイテムを再生する場合は、そのアイテムをプレイリストに割り当てます。</t>
   </si>
   <si>
@@ -25634,9 +25445,6 @@
     <t>画面レイアウトは正常に保存されました</t>
   </si>
   <si>
-    <t>新しい画面レイアウトを追加する</t>
-  </si>
-  <si>
     <t>画面レイアウトの編集</t>
   </si>
   <si>
@@ -25733,9 +25541,6 @@
     <t>パネル名</t>
   </si>
   <si>
-    <t>パネルに使用</t>
-  </si>
-  <si>
     <t>このプレイリストは、次のパネルで使用されます。パネル名をクリックして、そのパネルのプレイリスト割り当てを変更します。</t>
   </si>
   <si>
@@ -25796,9 +25601,6 @@
     <t>ファイルをフォルダにアップロードする</t>
   </si>
   <si>
-    <t>フォルダに</t>
-  </si>
-  <si>
     <t>フォルダ</t>
   </si>
   <si>
@@ -25838,21 +25640,12 @@
     <t>シングルパネル</t>
   </si>
   <si>
-    <t>すべてのファイルがサイクルで表示される単一のパネル。</t>
-  </si>
-  <si>
     <t>サイドパネル付き</t>
   </si>
   <si>
-    <t>消去</t>
-  </si>
-  <si>
     <t>ここで画面に表示されるファイルを追加できます。大きなファイルの場合は、FTP経由でアップロードすることを検討してください。</t>
   </si>
   <si>
-    <t>プレイリストで使用</t>
-  </si>
-  <si>
     <t>このアイテムは、次のプレイリストで使用されます。プレイリスト名をクリックして、そのプレイリストのアイテムを変更します。</t>
   </si>
   <si>
@@ -25889,9 +25682,6 @@
     <t>3行</t>
   </si>
   <si>
-    <t>単線</t>
-  </si>
-  <si>
     <t>1行の移動テキスト</t>
   </si>
   <si>
@@ -25928,9 +25718,6 @@
     <t>エントリはまだ追加されていません</t>
   </si>
   <si>
-    <t>定期的なダウンロード</t>
-  </si>
-  <si>
     <t>このページでインターネットからのファイルの定期的なダウンロードを設定できます。間隔は、メニュー[設定]-[デバイス設定]、[ダウンロード間隔]で設定できます。</t>
   </si>
   <si>
@@ -26048,15 +25835,9 @@
     <t>ログイン</t>
   </si>
   <si>
-    <t>ログインしてWebインターフェイスを使用してください。</t>
-  </si>
-  <si>
     <t>ログアウト</t>
   </si>
   <si>
-    <t>ログインを忘れないでください</t>
-  </si>
-  <si>
     <t>送信、お待ちください...</t>
   </si>
   <si>
@@ -26108,9 +25889,6 @@
     <t>ファイルのダウンロードに失敗しました。詳細についてはログを参照してください</t>
   </si>
   <si>
-    <t>回転</t>
-  </si>
-  <si>
     <t>画面レイアウトの度単位の回転（0度、90度、180度、または270属度。回転が設定されている場合、ビデオの再生には拡張ビデオプレーヤーを使用します（デバイス設定を参照）。</t>
   </si>
   <si>
@@ -26144,9 +25922,6 @@
     <t>%sに正常にログインしました</t>
   </si>
   <si>
-    <t>%sに正常にログインしました。続行するには、スライドショーアプリケーションに戻ってください。</t>
-  </si>
-  <si>
     <t>%sへの接続中にエラーが発生しました</t>
   </si>
   <si>
@@ -26156,9 +25931,6 @@
     <t>From（サーバー上のURLアドレス）</t>
   </si>
   <si>
-    <t>To（スライドショーのファイル名）</t>
-  </si>
-  <si>
     <t>定期的なダウンロードのリスト</t>
   </si>
   <si>
@@ -26189,9 +25961,6 @@
     <t>ファイルデータ</t>
   </si>
   <si>
-    <t>読み込み中</t>
-  </si>
-  <si>
     <t>外部構成のインポートを許可する</t>
   </si>
   <si>
@@ -26207,9 +25976,6 @@
     <t>アップロードされたフォントのリスト</t>
   </si>
   <si>
-    <t>新しいフォントをアップロードする</t>
-  </si>
-  <si>
     <t>フォントファイル（TTFまたはOTF形式）</t>
   </si>
   <si>
@@ -26228,9 +25994,6 @@
     <t>プレーンテキスト</t>
   </si>
   <si>
-    <t>何もない</t>
-  </si>
-  <si>
     <t>表示するテキストを空にすることはできません</t>
   </si>
   <si>
@@ -26246,15 +26009,9 @@
     <t>クロスフェード</t>
   </si>
   <si>
-    <t>右に</t>
-  </si>
-  <si>
     <t>左へ</t>
   </si>
   <si>
-    <t>トップに</t>
-  </si>
-  <si>
     <t>下へ</t>
   </si>
   <si>
@@ -26270,9 +26027,6 @@
     <t>ランダム</t>
   </si>
   <si>
-    <t>爆発する</t>
-  </si>
-  <si>
     <t>折り畳み</t>
   </si>
   <si>
@@ -26282,21 +26036,9 @@
     <t>垂直フリップ</t>
   </si>
   <si>
-    <t>隠れる</t>
-  </si>
-  <si>
     <t>一時停止</t>
   </si>
   <si>
-    <t>長い時間で</t>
-  </si>
-  <si>
-    <t>現在の日付と時刻を含む大きなパネルの半透明のオーバーレイを使用して、サイクル内のすべてのファイルを表示するメインパネル</t>
-  </si>
-  <si>
-    <t>サンプル画像を追加する</t>
-  </si>
-  <si>
     <t>サンプル画像の追加中にエラーが発生しました</t>
   </si>
   <si>
@@ -26342,9 +26084,6 @@
     <t>線形</t>
   </si>
   <si>
-    <t>放射状の</t>
-  </si>
-  <si>
     <t>上-下</t>
   </si>
   <si>
@@ -26396,30 +26135,18 @@
     <t>このWebインターフェイスにアクセスできるユーザーのリスト。</t>
   </si>
   <si>
-    <t>現在ログに記録されているユーザーのWebインターフェイスのパスワードを変更します。</t>
-  </si>
-  <si>
     <t>テキストテンプレート</t>
   </si>
   <si>
     <t>天気情報テキストのテンプレート。 温度範囲の2x"%.0f"プレースホルダーを含めることができます。 日付の書式設定を除くすべての文字は、一重引用符（'）で囲む必要があります。&lt;br&gt; &lt;a href="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt; 日付形式の指定については、https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html&lt;/a&gt;を参照してください。</t>
   </si>
   <si>
-    <t>スライドショーをランチャー/ホームアプリケーションとして設定解除</t>
-  </si>
-  <si>
     <t>ランチャー/ホームアプリケーションの設定解除が成功しました</t>
   </si>
   <si>
     <t>Androidの設定</t>
   </si>
   <si>
-    <t>スライドショーをランチャー/ホームアプリケーションとして設定する</t>
-  </si>
-  <si>
-    <t>アプリのリストを含むダイアログを開きます。このダイアログで、スライドショーをこのデバイスのランチャー/ホームアプリとして設定できます。ダイアログが表示されない場合は、Androidの設定でホームアプリを変更してください。スライドショー専用のデバイスでのみ使用してください。</t>
-  </si>
-  <si>
     <t>このアクションにはログインが必要です</t>
   </si>
   <si>
@@ -26492,9 +26219,6 @@
     <t>ファイルをコピーできません</t>
   </si>
   <si>
-    <t>ストレージからファイルを追加する</t>
-  </si>
-  <si>
     <t>SSL以外のネットワークインターフェイスをすべて無効にする</t>
   </si>
   <si>
@@ -26513,9 +26237,6 @@
     <t>パネルのコンテンツの上または前に表示されるテキスト</t>
   </si>
   <si>
-    <t>画像の向きを尊重する</t>
-  </si>
-  <si>
     <t>JPEG EFIX属性から画像の向きを読み取り、それに応じて画面上の画像を回転させます。パフォーマンスがわずかに低下します。</t>
   </si>
   <si>
@@ -26621,9 +26342,6 @@
     <t>デバイス管理者</t>
   </si>
   <si>
-    <t>ロックタスクアプリケーションを設定する</t>
-  </si>
-  <si>
     <t>タスクモードのロック（画面の固定/キオスクモード）</t>
   </si>
   <si>
@@ -26745,7 +26463,7 @@
   </si>
   <si>
     <t>Remember login</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Japanese</t>
@@ -26754,18 +26472,6 @@
     <t>設定を保存できません。</t>
   </si>
   <si>
-    <t>プレイリストを編集する。</t>
-  </si>
-  <si>
-    <t>タイプに応じて：&lt;br&gt; &lt;b&gt;単一ファイル：&lt;/b&gt;アップロードされたファイルの名前。&lt;br&gt;&lt;b&gt;オーディオ/ビデオストリーム：&lt;/b&gt;「http：//」を含むストリームのURLアドレスまたは「https：//」。&lt;br&gt; &lt;b&gt;アルファベット順/ランダムにファイル：&lt;/b&gt;ワイルドカード（*）を使用して複数のファイルまたはフォルダを選択できます。たとえば、拡張子がjpgのすべてのファイルを「*」として追加できます。 jpg」の場合、「sales」という名前のサブフォルダー内のすべてのファイルを「sale/*」として追加するか、「promotion」で始まるサブフォルダー内のすべてのPDFファイルを「promotion*/*.pdf」として追加できます（引用符なし）。</t>
-  </si>
-  <si>
-    <t>コンピュータのブラウザ（デフォルトのユーザー名/パスワードはadmin/admin）に移動し、[ファイル]メニューの[ファイルのアップロード]を選択します</t>
-  </si>
-  <si>
-    <t>メインパネルには、日付と時刻、RSSニュース、天気、ロゴが表示されたサイドパネルとともに、サイクル内のすべてのファイルが表示されます。このサンプルを追加した後、ロゴをlogo/logo.pngファイルとしてアップロードし（または「ロゴファイル」項目を調整し）、天気APIキーを設定に設定します。横向きのディスプレイに適しています。</t>
-  </si>
-  <si>
     <t>レポートの送信中にエラーが発生しました。slideshow@milanfabian.comで開発者に連絡することができます。</t>
   </si>
   <si>
@@ -26787,21 +26493,12 @@
     <t>ユーザー名またはパスワードが正しくありません。もう一度お試しください。</t>
   </si>
   <si>
-    <t>スライドショーのその他の機能を使用するためのヒントについては、https://slideshow.digital/documentationにアクセスしてください。</t>
-  </si>
-  <si>
     <t>プレイリストにアイテムをプリロードする。</t>
   </si>
   <si>
-    <t>この画面レイアウトのクローンを作成します。</t>
-  </si>
-  <si>
     <t>画面レイアウトは正常に複製されました。編集できます。</t>
   </si>
   <si>
-    <t>ステータスを変更する。</t>
-  </si>
-  <si>
     <t>WiFiをオンにしてください。</t>
   </si>
   <si>
@@ -26814,18 +26511,9 @@
     <t>&lt;p&gt; Slideshow-DigitalSignageplayerをインストールしていただきありがとうございます。気に入っていただければ幸いです。&lt;/p&gt;&lt;p&gt;機能のドキュメントは、&lt;a href="https://slideshow.digital/documentation/" target = "_ blank"&gt; https://slideshow.digital/documentation/にある &lt;/a&gt;で、&lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https：//www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQのチュートリアルをご覧ください。&lt;/a&gt;。&lt;/p&gt; &lt;span style ='float：right'&gt;-開発チーム-&lt;/ span&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;スライドショーアプリが正常に新しいバージョンに更新されました。次の新機能があります。&lt;/p&gt;&lt;ul&gt; &lt;li&gt; MQTT：WebSocketのサポートの追加、オプションの自動統計送信、カスタムトピック設定&lt;/li&gt; &lt;li&gt;ファイルマネージャー：特定のファイルの長さやミュートを設定する機能が追加されましたプロパティ経由&lt;/li&gt;&lt;li&gt;ホームページ：ウェルカムメッセージを追加（更新後の最初の起動時のみ）&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;機能のドキュメントは、&lt;a href = "https：// slideshow.digital/documentation/ "target =" _ blank "&gt;https://slideshow.digital/documentation/&lt;/a&gt;および&lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ"のチュートリアルをご覧くださいtarget = "_ blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;スライドショーアプリが気に入った場合は、&lt;a hrefでアプリを評価することで開発をサポートできます。 = "https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target = "_ blank"&gt; GooglePlay&lt;/a&gt;または&lt;a href="https://ko-fi.com/slideshow" target =" _blank"&gt;コーヒーを購入してください&lt;/a&gt;。&lt;/p&gt;&lt;span style ='float：right'&gt;-開発チーム-&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>サウンド</t>
   </si>
   <si>
-    <t>アドレスを入力してください</t>
-  </si>
-  <si>
-    <t>新しいファイルを追加することができます</t>
-  </si>
-  <si>
     <t>表示される日付の形式、いくつかの例：&lt;br&gt; "EEEE, dd.M.yyyy" - Wednesday, 20.3.2019&lt;br&gt;"EEEE, mm/dd/yyyy" - Wednesday, 03/20/2019&lt;br&gt;"MMM dd, yyyy" - Mar 20, 2019&lt;br&gt;&lt;i&gt;詳細については、&lt;a href ="https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.html"&gt;https://docs.oracle.com/javase/7/docs/api/java/text/SimpleDateFormat.htmlを参照してください。&lt;/a&gt;&lt;/i&gt;</t>
   </si>
   <si>
@@ -26842,18 +26530,329 @@
   </si>
   <si>
     <t>Name Daysカレンダー</t>
+  </si>
+  <si>
+    <t>SlideshowのWebインターフェース-デジタルサイネージプレーヤー</t>
+  </si>
+  <si>
+    <t>新しいプレイリストを追加</t>
+  </si>
+  <si>
+    <t>プレイリストを編集</t>
+  </si>
+  <si>
+    <t>ユーザー追加</t>
+  </si>
+  <si>
+    <t>ビデオ</t>
+  </si>
+  <si>
+    <t>新しいファイルをアップロード</t>
+  </si>
+  <si>
+    <t>ランダムファイル</t>
+  </si>
+  <si>
+    <t>前回の起動から</t>
+  </si>
+  <si>
+    <t>壁紙設定</t>
+  </si>
+  <si>
+    <t>壁紙が正常に設定されました。</t>
+  </si>
+  <si>
+    <t>bootanimation設定</t>
+  </si>
+  <si>
+    <t>Bootanimationは正常に設定されました。</t>
+  </si>
+  <si>
+    <t>メッセージ表示</t>
+  </si>
+  <si>
+    <t>プレイリストのアイテムを編集</t>
+  </si>
+  <si>
+    <t>表示の長さは変更できません。</t>
+  </si>
+  <si>
+    <t>現在のバージョン</t>
+  </si>
+  <si>
+    <t>デバイス再起動</t>
+  </si>
+  <si>
+    <t>アプリケーションをリロードして、更新を適用します。</t>
+  </si>
+  <si>
+    <t>タイプに応じて：&lt;br&gt; &lt;b&gt;単一ファイル：&lt;/b&gt;アップロードされたファイルの名前。&lt;br&gt;&lt;b&gt;オーディオ/ビデオストリーム：&lt;/b&gt;「http：//」を含むストリームのURLアドレスまたは「https：//」。&lt;br&gt; &lt;b&gt;アルファベット順/ランダムファイル：&lt;/b&gt;ワイルドカード（*）を使用して複数のファイルまたはフォルダを選択できます。たとえば、拡張子がjpgのすべてのファイルを「*」として追加できます。 jpg」の場合、「sales」という名前のサブフォルダー内のすべてのファイルを「sale/*」として追加するか、「promotion」で始まるサブフォルダー内のすべてのPDFファイルを「promotion*/*.pdf」として追加できます（引用符なし）。</t>
+  </si>
+  <si>
+    <t>このファイルタイプはサポートされていません。</t>
+  </si>
+  <si>
+    <t>前回の起動以降、ファイルがダウンロードされていません。</t>
+  </si>
+  <si>
+    <t>インターネットからファイルをダウンロード</t>
+  </si>
+  <si>
+    <t>ダウンロード用URL</t>
+  </si>
+  <si>
+    <t>ファイル名を空にすることはできません。</t>
+  </si>
+  <si>
+    <t>ファイルはダウンロードのためにキューに入れられました。</t>
+  </si>
+  <si>
+    <t>ファイル＆quot;%s＆quot;正常にダウンロードされました。</t>
+  </si>
+  <si>
+    <t>ファイル＆quot;%s＆quot;のダウンロード中にエラーが発生しました。</t>
+  </si>
+  <si>
+    <t>ファイルは1分間表示されます。</t>
+  </si>
+  <si>
+    <t>アプリケーションを更新できません。</t>
+  </si>
+  <si>
+    <t>フルスクリーン/ウィンドウ切替</t>
+  </si>
+  <si>
+    <t>プレイリストが空です。</t>
+  </si>
+  <si>
+    <t>外部ストレージを使用する。</t>
+  </si>
+  <si>
+    <t>ファイルはに削除されます。</t>
+  </si>
+  <si>
+    <t>アップロードしたファイルを編集する。</t>
+  </si>
+  <si>
+    <t>証明書をファイルする。</t>
+  </si>
+  <si>
+    <t>証明書のチェックに失敗しました。</t>
+  </si>
+  <si>
+    <t>バックアップは正常に復元されました。</t>
+  </si>
+  <si>
+    <t>バックアップを復元できません。</t>
+  </si>
+  <si>
+    <t>構成のどの部分をバックアップするかを選択します。</t>
+  </si>
+  <si>
+    <t>復元するバックアップファイルから構成のどの部分を選択します。</t>
+  </si>
+  <si>
+    <t>ファイルが正常にアップロードされました。以下で復元するパーツを選択してください。</t>
+  </si>
+  <si>
+    <t>番号が設定されている場合は、キーボードの設定番号を押すと、このプレイリストをアクティブにできます。</t>
+  </si>
+  <si>
+    <t>ファイルが存在しません。</t>
+  </si>
+  <si>
+    <t>タイプを空にすることはできません。</t>
+  </si>
+  <si>
+    <t>ファイルは正常に表示されました。</t>
+  </si>
+  <si>
+    <t>メッセージは正常に表示されました。</t>
+  </si>
+  <si>
+    <t>デバイスはおそらくルート化されていません。この機能は正しく機能しない可能性があります。</t>
+  </si>
+  <si>
+    <t>アップロードしたいファイルでUSBドライブを挿入します。</t>
+  </si>
+  <si>
+    <t>アドレスを入力してください。</t>
+  </si>
+  <si>
+    <t>をコンピュータのブラウザ（デフォルトのユーザー名/パスワードはadmin/admin）で入力して、[ファイル]メニューの[ファイルのアップロード]を選択します。</t>
+  </si>
+  <si>
+    <t>新しいファイルを追加することができます。</t>
+  </si>
+  <si>
+    <t>オンスクリーンメニュー-左からスワイプし、[ストレージからファイルを追加]を選択します。</t>
+  </si>
+  <si>
+    <t>このアプリケーションを起動します。</t>
+  </si>
+  <si>
+    <t>接続されていません。</t>
+  </si>
+  <si>
+    <t>WiFiまたはローカルネットワークに接続して、Webインターフェイスアクセスを有効にします。</t>
+  </si>
+  <si>
+    <t>戻る場合はここをクリック</t>
+  </si>
+  <si>
+    <t>デバイス設定</t>
+  </si>
+  <si>
+    <t>詳細設定（カスタマイズされたレイアウト、プレイリストなど）については、アドレスを開きます。</t>
+  </si>
+  <si>
+    <t>をコンピュータのブラウザで入力してください。</t>
+  </si>
+  <si>
+    <t>タイトルを空にすることはできません。</t>
+  </si>
+  <si>
+    <t>コンテンツを空にすることはできません。</t>
+  </si>
+  <si>
+    <t>RSSメッセージはまだ追加されていません。</t>
+  </si>
+  <si>
+    <t>RSSメッセージは正常に削除されました。</t>
+  </si>
+  <si>
+    <t>RSSメッセージが正常に追加されました。</t>
+  </si>
+  <si>
+    <t>FTPサーバーに接続します。</t>
+  </si>
+  <si>
+    <t>に接続してファイルをアップロードします。</t>
+  </si>
+  <si>
+    <t>アプリケーションリロード</t>
+  </si>
+  <si>
+    <t>プレイリストは、一定周期で再生されるアイテムのセットです。 1日の一部で、さまざまなプレイリストをさまざまなパネルに設定できます。</t>
+  </si>
+  <si>
+    <t>新しい画面レイアウトを追加</t>
+  </si>
+  <si>
+    <t>使用パネル</t>
+  </si>
+  <si>
+    <t>すべてのファイルが一定周期で表示される単一のパネル。</t>
+  </si>
+  <si>
+    <t>メインパネルには、日付と時刻、RSSニュース、天気、ロゴが表示されたサイドパネルとともに、一定周期内のすべてのファイルが表示されます。このサンプルを追加した後、ロゴをlogo/logo.pngファイルとしてアップロードし（または「ロゴファイル」項目を調整し）、天気APIキーを設定に設定します。横向きのディスプレイに適しています。</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>使用プレイリスト</t>
+  </si>
+  <si>
+    <t>1行</t>
+  </si>
+  <si>
+    <t>定期的ダウンロード</t>
+  </si>
+  <si>
+    <t>Webインターフェイスを使用するには、ログインしてください。</t>
+  </si>
+  <si>
+    <t>ログイン状態を保持する。</t>
+  </si>
+  <si>
+    <t>Slideshowのその他の機能を使用するためのヒントについては、https://slideshow.digital/documentationにアクセスしてください。</t>
+  </si>
+  <si>
+    <t>%sに正常にログインしました。続行するには、Slideshowアプリケーションに戻ってください。</t>
+  </si>
+  <si>
+    <t>To（Slideshowのファイル名）</t>
+  </si>
+  <si>
+    <t>新しいフォントをアップロード</t>
+  </si>
+  <si>
+    <t>指定なし</t>
+  </si>
+  <si>
+    <t>右へ</t>
+  </si>
+  <si>
+    <t>上へ</t>
+  </si>
+  <si>
+    <t>爆発</t>
+  </si>
+  <si>
+    <t>隠す</t>
+  </si>
+  <si>
+    <t>日付・時間</t>
+  </si>
+  <si>
+    <t>現在の日付と時刻を含む大きなパネルの半透明のオーバーレイを使用して、一定周期内のすべてのファイルを表示するメインパネル</t>
+  </si>
+  <si>
+    <t>サンプル画像を追加</t>
+  </si>
+  <si>
+    <t>放射状</t>
+  </si>
+  <si>
+    <t>現在ログインしているユーザーのWebインターフェイスのパスワードを変更します。</t>
+  </si>
+  <si>
+    <t>Slideshowをランチャー/ホームアプリケーションとして設定解除</t>
+  </si>
+  <si>
+    <t>Slideshowをランチャー/ホームアプリケーションとして設定する</t>
+  </si>
+  <si>
+    <t>アプリのリストを含むダイアログを開きます。このダイアログで、Slideshowをこのデバイスのランチャー/ホームアプリとして設定できます。ダイアログが表示されない場合は、Androidの設定でホームアプリを変更してください。Slideshow専用のデバイスでのみ使用してください。</t>
+  </si>
+  <si>
+    <t>ストレージからファイルを追加</t>
+  </si>
+  <si>
+    <t>オリジナル画像の向きを優先する</t>
+  </si>
+  <si>
+    <t>ロックタスクアプリケーションを設定</t>
+  </si>
+  <si>
+    <t>この画面レイアウトのクローンを作成</t>
+  </si>
+  <si>
+    <t>ステータス変更</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Slideshowアプリが正常に新しいバージョンに更新されました。次の新機能があります。&lt;/p&gt;&lt;ul&gt; &lt;li&gt; MQTT：WebSocketのサポートの追加、オプションの自動統計送信、カスタムトピック設定&lt;/li&gt; &lt;li&gt;ファイルマネージャー：特定のファイルの長さやミュートを設定する機能が追加されましたプロパティ経由&lt;/li&gt;&lt;li&gt;ホームページ：ウェルカムメッセージを追加（更新後の最初の起動時のみ）&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;機能のドキュメントは、&lt;a href = "https：// slideshow.digital/documentation/ "target =" _ blank "&gt;https://slideshow.digital/documentation/&lt;/a&gt;および&lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ"のチュートリアルをご覧くださいtarget = "_ blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;Slideshowアプリが気に入った場合は、&lt;a hrefでアプリを評価することで開発をサポートできます。 = "https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target = "_ blank"&gt; GooglePlay&lt;/a&gt;または&lt;a href="https://ko-fi.com/slideshow" target =" _blank"&gt;コーヒーを購入してください&lt;/a&gt;。&lt;/p&gt;&lt;span style ='float：right'&gt;-開発チーム-&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26902,8 +26901,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -26913,20 +26915,21 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{8F77E8D0-DE69-42B5-A276-761221066E72}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{94A53D70-731E-4F89-9CFC-945C3DD795E4}"/>
+    <cellStyle name="標準 4" xfId="3" xr:uid="{174C3134-8C07-4D9A-9F94-D1636F3889E1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -27241,7 +27244,7 @@
   <dimension ref="A1:M714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B694" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="M2" sqref="M2:M714"/>
@@ -27295,7 +27298,7 @@
         <v>6484</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>8905</v>
+        <v>8811</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -27336,7 +27339,7 @@
         <v>6485</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>8905</v>
+        <v>8811</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -27459,7 +27462,7 @@
         <v>6488</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>8242</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -27500,7 +27503,7 @@
         <v>2006</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>8243</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -27541,7 +27544,7 @@
         <v>6489</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>8244</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -27582,7 +27585,7 @@
         <v>6490</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>8245</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -27623,7 +27626,7 @@
         <v>6491</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>8246</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -27664,7 +27667,7 @@
         <v>6492</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>8247</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -27705,7 +27708,7 @@
         <v>5248</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>8248</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -27746,7 +27749,7 @@
         <v>6493</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>8928</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -27787,7 +27790,7 @@
         <v>2744</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>8249</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -27828,7 +27831,7 @@
         <v>2744</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>8249</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -27869,7 +27872,7 @@
         <v>6494</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>8250</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -27910,7 +27913,7 @@
         <v>6495</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>8251</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -27951,7 +27954,7 @@
         <v>6496</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>8252</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -27992,7 +27995,7 @@
         <v>6497</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>8253</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -28033,7 +28036,7 @@
         <v>6498</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>8254</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -28074,7 +28077,7 @@
         <v>6499</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>8255</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -28115,7 +28118,7 @@
         <v>6500</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>8906</v>
+        <v>8812</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -28156,7 +28159,7 @@
         <v>6501</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>8907</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -28197,7 +28200,7 @@
         <v>6502</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>8257</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -28238,7 +28241,7 @@
         <v>6503</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>8258</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -28279,7 +28282,7 @@
         <v>6504</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>8259</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -28320,7 +28323,7 @@
         <v>6505</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>8260</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -28361,7 +28364,7 @@
         <v>6506</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>8261</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -28402,7 +28405,7 @@
         <v>6507</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>8262</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -28443,7 +28446,7 @@
         <v>6508</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>8263</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -28484,7 +28487,7 @@
         <v>6509</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>8264</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -28525,7 +28528,7 @@
         <v>6510</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>8265</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -28566,7 +28569,7 @@
         <v>6511</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>8266</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -28607,7 +28610,7 @@
         <v>6512</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>8267</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -28648,7 +28651,7 @@
         <v>1368</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>8243</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -28689,7 +28692,7 @@
         <v>6513</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>8268</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -28730,7 +28733,7 @@
         <v>5269</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>8269</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -28771,7 +28774,7 @@
         <v>6514</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>8270</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -28812,7 +28815,7 @@
         <v>6515</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>8271</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -28853,7 +28856,7 @@
         <v>6516</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>8272</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -28894,7 +28897,7 @@
         <v>6517</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>8273</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -28935,7 +28938,7 @@
         <v>6518</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>8274</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -28976,7 +28979,7 @@
         <v>6519</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>8275</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -29017,7 +29020,7 @@
         <v>6520</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>8276</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -29058,7 +29061,7 @@
         <v>6521</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>8277</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -29099,7 +29102,7 @@
         <v>6522</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>8278</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -29140,7 +29143,7 @@
         <v>6523</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>8279</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -29181,7 +29184,7 @@
         <v>6524</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>8280</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -29222,7 +29225,7 @@
         <v>6525</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>8281</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -29263,7 +29266,7 @@
         <v>6526</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>8282</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
@@ -29304,7 +29307,7 @@
         <v>6527</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>8283</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -29345,7 +29348,7 @@
         <v>6528</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>8284</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
@@ -29386,7 +29389,7 @@
         <v>6529</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>8285</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
@@ -29427,7 +29430,7 @@
         <v>6530</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>8286</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
@@ -29468,7 +29471,7 @@
         <v>6531</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>8287</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
@@ -29509,7 +29512,7 @@
         <v>6532</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>8288</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -29550,7 +29553,7 @@
         <v>6533</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>8289</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
@@ -29591,7 +29594,7 @@
         <v>6534</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>8290</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -29632,7 +29635,7 @@
         <v>6535</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>8291</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
@@ -29673,7 +29676,7 @@
         <v>6536</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>8292</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
@@ -29714,7 +29717,7 @@
         <v>6537</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>8293</v>
+        <v>8836</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
@@ -29755,7 +29758,7 @@
         <v>6538</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>8294</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
@@ -29796,7 +29799,7 @@
         <v>6539</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>8295</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
@@ -29837,7 +29840,7 @@
         <v>6540</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>8296</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
@@ -29878,7 +29881,7 @@
         <v>5297</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>8297</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
@@ -29919,7 +29922,7 @@
         <v>6541</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>8298</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
@@ -29960,7 +29963,7 @@
         <v>6542</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>8299</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
@@ -30001,7 +30004,7 @@
         <v>6543</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>8300</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
@@ -30042,7 +30045,7 @@
         <v>6544</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>8301</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
@@ -30083,7 +30086,7 @@
         <v>6545</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>8302</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
@@ -30124,7 +30127,7 @@
         <v>6546</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>8303</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
@@ -30165,7 +30168,7 @@
         <v>6547</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>8304</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
@@ -30206,7 +30209,7 @@
         <v>6548</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>8305</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
@@ -30247,7 +30250,7 @@
         <v>6549</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>8306</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
@@ -30288,7 +30291,7 @@
         <v>6550</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>8307</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
@@ -30329,7 +30332,7 @@
         <v>6551</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>8308</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
@@ -30370,7 +30373,7 @@
         <v>6552</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>8309</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
@@ -30411,7 +30414,7 @@
         <v>7850</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>8310</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
@@ -30452,7 +30455,7 @@
         <v>6553</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>8311</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
@@ -30493,7 +30496,7 @@
         <v>6554</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>8312</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
@@ -30534,7 +30537,7 @@
         <v>6555</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>8313</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
@@ -30575,7 +30578,7 @@
         <v>6556</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>8268</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
@@ -30616,7 +30619,7 @@
         <v>6557</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>8288</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
@@ -30657,7 +30660,7 @@
         <v>6558</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>8314</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
@@ -30698,7 +30701,7 @@
         <v>1418</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>8315</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
@@ -30739,7 +30742,7 @@
         <v>1419</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>8316</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
@@ -30780,7 +30783,7 @@
         <v>6559</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>8317</v>
+        <v>8839</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
@@ -30821,7 +30824,7 @@
         <v>6560</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>8318</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
@@ -30862,7 +30865,7 @@
         <v>6561</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>8319</v>
+        <v>8313</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
@@ -30903,7 +30906,7 @@
         <v>6562</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>8320</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
@@ -30944,7 +30947,7 @@
         <v>6563</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>8321</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
@@ -30985,7 +30988,7 @@
         <v>6564</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>8322</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
@@ -31026,7 +31029,7 @@
         <v>6565</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>8323</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
@@ -31067,7 +31070,7 @@
         <v>6566</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>8324</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
@@ -31108,7 +31111,7 @@
         <v>6567</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>8325</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
@@ -31149,7 +31152,7 @@
         <v>6568</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>8326</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -31190,7 +31193,7 @@
         <v>4027</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>8327</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
@@ -31231,7 +31234,7 @@
         <v>4028</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>8328</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
@@ -31272,7 +31275,7 @@
         <v>6569</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>8329</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
@@ -31313,7 +31316,7 @@
         <v>6570</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>8330</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
@@ -31354,7 +31357,7 @@
         <v>6571</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>8331</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
@@ -31395,7 +31398,7 @@
         <v>6572</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>8332</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
@@ -31436,7 +31439,7 @@
         <v>768</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>8333</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
@@ -31477,7 +31480,7 @@
         <v>6573</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>8334</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
@@ -31518,7 +31521,7 @@
         <v>6574</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>8335</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
@@ -31559,7 +31562,7 @@
         <v>6575</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>8336</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
@@ -31600,7 +31603,7 @@
         <v>6576</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>8337</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
@@ -31641,7 +31644,7 @@
         <v>6577</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>8338</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
@@ -31682,7 +31685,7 @@
         <v>5338</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>8339</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
@@ -31723,7 +31726,7 @@
         <v>6578</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>8340</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
@@ -31764,7 +31767,7 @@
         <v>6579</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>8341</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
@@ -31805,7 +31808,7 @@
         <v>6579</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>8341</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
@@ -31846,7 +31849,7 @@
         <v>6580</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>8342</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
@@ -31887,7 +31890,7 @@
         <v>6581</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>8343</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
@@ -31928,7 +31931,7 @@
         <v>6582</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>8344</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
@@ -31969,7 +31972,7 @@
         <v>6583</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>8345</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
@@ -32010,7 +32013,7 @@
         <v>6584</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>8346</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
@@ -32051,7 +32054,7 @@
         <v>5346</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>8347</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
@@ -32092,7 +32095,7 @@
         <v>6585</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>8348</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
@@ -32133,7 +32136,7 @@
         <v>6586</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>8349</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
@@ -32174,7 +32177,7 @@
         <v>6525</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>8281</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
@@ -32215,7 +32218,7 @@
         <v>6587</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>8341</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
@@ -32256,7 +32259,7 @@
         <v>6588</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>8350</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
@@ -32297,7 +32300,7 @@
         <v>6589</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>8351</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
@@ -32338,7 +32341,7 @@
         <v>6590</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>8352</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
@@ -32379,7 +32382,7 @@
         <v>6591</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>8353</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
@@ -32420,7 +32423,7 @@
         <v>6592</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>8354</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
@@ -32461,7 +32464,7 @@
         <v>6593</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>8355</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
@@ -32502,7 +32505,7 @@
         <v>6594</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>8356</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
@@ -32543,7 +32546,7 @@
         <v>6595</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>8357</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
@@ -32584,7 +32587,7 @@
         <v>5745</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>8358</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
@@ -32625,7 +32628,7 @@
         <v>6596</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>8359</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
@@ -32666,7 +32669,7 @@
         <v>6597</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>8360</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
@@ -32707,7 +32710,7 @@
         <v>6598</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>8361</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
@@ -32748,7 +32751,7 @@
         <v>6599</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>8362</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
@@ -32789,7 +32792,7 @@
         <v>6600</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>8363</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
@@ -32830,7 +32833,7 @@
         <v>5364</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>8364</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
@@ -32871,7 +32874,7 @@
         <v>6601</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>8365</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
@@ -32912,7 +32915,7 @@
         <v>6602</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>8366</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
@@ -32953,7 +32956,7 @@
         <v>6603</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>8367</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
@@ -32994,7 +32997,7 @@
         <v>6604</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>8368</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
@@ -33035,7 +33038,7 @@
         <v>6605</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>8369</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
@@ -33076,7 +33079,7 @@
         <v>6606</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>8370</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
@@ -33117,7 +33120,7 @@
         <v>6607</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>8371</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
@@ -33158,7 +33161,7 @@
         <v>6608</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>8372</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
@@ -33199,7 +33202,7 @@
         <v>6609</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>8373</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
@@ -33322,7 +33325,7 @@
         <v>6612</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>8374</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
@@ -33363,7 +33366,7 @@
         <v>6613</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>8375</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
@@ -33404,7 +33407,7 @@
         <v>6614</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>8376</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
@@ -33445,7 +33448,7 @@
         <v>6615</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>8377</v>
+        <v>8843</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
@@ -33486,7 +33489,7 @@
         <v>6616</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>8378</v>
+        <v>8844</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
@@ -33527,7 +33530,7 @@
         <v>6617</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>8379</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
@@ -33568,7 +33571,7 @@
         <v>6618</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>8380</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
@@ -33609,7 +33612,7 @@
         <v>6619</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>8312</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
@@ -33650,7 +33653,7 @@
         <v>6620</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>8381</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
@@ -33691,7 +33694,7 @@
         <v>6621</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>8382</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
@@ -33732,7 +33735,7 @@
         <v>6622</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>8383</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
@@ -33773,7 +33776,7 @@
         <v>6623</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>8384</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
@@ -33814,7 +33817,7 @@
         <v>6624</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>8385</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
@@ -33855,7 +33858,7 @@
         <v>6625</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>8386</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
@@ -33896,7 +33899,7 @@
         <v>6626</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>8387</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
@@ -33937,7 +33940,7 @@
         <v>6627</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>8388</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
@@ -33978,7 +33981,7 @@
         <v>6628</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>8389</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
@@ -34019,7 +34022,7 @@
         <v>6629</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>8390</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
@@ -34060,7 +34063,7 @@
         <v>6630</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>8391</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
@@ -34101,7 +34104,7 @@
         <v>6631</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>8392</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
@@ -34142,7 +34145,7 @@
         <v>6501</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>8256</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
@@ -34183,7 +34186,7 @@
         <v>6632</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>8393</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
@@ -34224,7 +34227,7 @@
         <v>6633</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>8394</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
@@ -34265,7 +34268,7 @@
         <v>6634</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>8395</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
@@ -34306,7 +34309,7 @@
         <v>2161</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>8396</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
@@ -34347,7 +34350,7 @@
         <v>6635</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>8397</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
@@ -34388,7 +34391,7 @@
         <v>6636</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>8398</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
@@ -34429,7 +34432,7 @@
         <v>6637</v>
       </c>
       <c r="M175" s="5" t="s">
-        <v>8399</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
@@ -34470,7 +34473,7 @@
         <v>6638</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>8400</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
@@ -34511,7 +34514,7 @@
         <v>6639</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>8401</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
@@ -34552,7 +34555,7 @@
         <v>6640</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>8402</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
@@ -34593,7 +34596,7 @@
         <v>6641</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>8403</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
@@ -34634,7 +34637,7 @@
         <v>6642</v>
       </c>
       <c r="M180" s="5" t="s">
-        <v>8404</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
@@ -34675,7 +34678,7 @@
         <v>6643</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>8405</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
@@ -34716,7 +34719,7 @@
         <v>5409</v>
       </c>
       <c r="M182" s="5" t="s">
-        <v>8406</v>
+        <v>8849</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
@@ -34757,7 +34760,7 @@
         <v>6644</v>
       </c>
       <c r="M183" s="5" t="s">
-        <v>8407</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
@@ -34798,7 +34801,7 @@
         <v>6645</v>
       </c>
       <c r="M184" s="5" t="s">
-        <v>8408</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
@@ -34839,7 +34842,7 @@
         <v>6646</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>8409</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
@@ -34880,7 +34883,7 @@
         <v>6647</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>8908</v>
+        <v>8851</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
@@ -34921,7 +34924,7 @@
         <v>6648</v>
       </c>
       <c r="M187" s="5" t="s">
-        <v>8410</v>
+        <v>8852</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
@@ -34962,7 +34965,7 @@
         <v>6649</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>8411</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
@@ -35003,7 +35006,7 @@
         <v>6650</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>8412</v>
+        <v>8393</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
@@ -35044,7 +35047,7 @@
         <v>6651</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>8413</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
@@ -35085,7 +35088,7 @@
         <v>6652</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>8414</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
@@ -35126,7 +35129,7 @@
         <v>6653</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>8415</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
@@ -35167,7 +35170,7 @@
         <v>6654</v>
       </c>
       <c r="M193" s="5" t="s">
-        <v>8416</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
@@ -35208,7 +35211,7 @@
         <v>6655</v>
       </c>
       <c r="M194" s="5" t="s">
-        <v>8417</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
@@ -35249,7 +35252,7 @@
         <v>6656</v>
       </c>
       <c r="M195" s="5" t="s">
-        <v>8418</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
@@ -35290,7 +35293,7 @@
         <v>6657</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>8419</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
@@ -35331,7 +35334,7 @@
         <v>6658</v>
       </c>
       <c r="M197" s="5" t="s">
-        <v>8420</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
@@ -35372,7 +35375,7 @@
         <v>6659</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>8421</v>
+        <v>8858</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
@@ -35413,7 +35416,7 @@
         <v>6660</v>
       </c>
       <c r="M199" s="5" t="s">
-        <v>8422</v>
+        <v>8859</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
@@ -35454,7 +35457,7 @@
         <v>6661</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>8423</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
@@ -35495,7 +35498,7 @@
         <v>6662</v>
       </c>
       <c r="M201" s="5" t="s">
-        <v>8424</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
@@ -35536,7 +35539,7 @@
         <v>6663</v>
       </c>
       <c r="M202" s="5" t="s">
-        <v>8425</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
@@ -35577,7 +35580,7 @@
         <v>6664</v>
       </c>
       <c r="M203" s="5" t="s">
-        <v>8426</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
@@ -35618,7 +35621,7 @@
         <v>6665</v>
       </c>
       <c r="M204" s="5" t="s">
-        <v>8427</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
@@ -35659,7 +35662,7 @@
         <v>8099</v>
       </c>
       <c r="M205" s="5" t="s">
-        <v>8428</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
@@ -35700,7 +35703,7 @@
         <v>6666</v>
       </c>
       <c r="M206" s="5" t="s">
-        <v>8429</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
@@ -35741,7 +35744,7 @@
         <v>6667</v>
       </c>
       <c r="M207" s="5" t="s">
-        <v>8430</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
@@ -35782,7 +35785,7 @@
         <v>6668</v>
       </c>
       <c r="M208" s="5" t="s">
-        <v>8431</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
@@ -35823,7 +35826,7 @@
         <v>6669</v>
       </c>
       <c r="M209" s="5" t="s">
-        <v>8432</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
@@ -35864,7 +35867,7 @@
         <v>6670</v>
       </c>
       <c r="M210" s="5" t="s">
-        <v>8433</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
@@ -35905,7 +35908,7 @@
         <v>6671</v>
       </c>
       <c r="M211" s="5" t="s">
-        <v>8434</v>
+        <v>8865</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
@@ -35946,7 +35949,7 @@
         <v>6672</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>8435</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
@@ -35987,7 +35990,7 @@
         <v>6673</v>
       </c>
       <c r="M213" s="5" t="s">
-        <v>8436</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
@@ -36028,7 +36031,7 @@
         <v>6674</v>
       </c>
       <c r="M214" s="5" t="s">
-        <v>8437</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
@@ -36069,7 +36072,7 @@
         <v>6675</v>
       </c>
       <c r="M215" s="5" t="s">
-        <v>8438</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
@@ -36110,7 +36113,7 @@
         <v>6676</v>
       </c>
       <c r="M216" s="5" t="s">
-        <v>8439</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
@@ -36151,7 +36154,7 @@
         <v>6677</v>
       </c>
       <c r="M217" s="5" t="s">
-        <v>8440</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
@@ -36192,7 +36195,7 @@
         <v>6678</v>
       </c>
       <c r="M218" s="5" t="s">
-        <v>8441</v>
+        <v>8867</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
@@ -36233,7 +36236,7 @@
         <v>6679</v>
       </c>
       <c r="M219" s="5" t="s">
-        <v>8442</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
@@ -36274,7 +36277,7 @@
         <v>6680</v>
       </c>
       <c r="M220" s="5" t="s">
-        <v>8443</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
@@ -36315,7 +36318,7 @@
         <v>6681</v>
       </c>
       <c r="M221" s="5" t="s">
-        <v>8444</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
@@ -36356,7 +36359,7 @@
         <v>6682</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>8445</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
@@ -36397,7 +36400,7 @@
         <v>6683</v>
       </c>
       <c r="M223" s="5" t="s">
-        <v>8445</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
@@ -36438,7 +36441,7 @@
         <v>6684</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>8446</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
@@ -36479,7 +36482,7 @@
         <v>6685</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>8447</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
@@ -36520,7 +36523,7 @@
         <v>6686</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>8448</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
@@ -36561,7 +36564,7 @@
         <v>6687</v>
       </c>
       <c r="M227" s="5" t="s">
-        <v>8449</v>
+        <v>8869</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
@@ -36602,7 +36605,7 @@
         <v>6688</v>
       </c>
       <c r="M228" s="5" t="s">
-        <v>8450</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
@@ -36643,7 +36646,7 @@
         <v>6689</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>8451</v>
+        <v>8871</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
@@ -36684,7 +36687,7 @@
         <v>6690</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>8452</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
@@ -36725,7 +36728,7 @@
         <v>6691</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>8453</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
@@ -36766,7 +36769,7 @@
         <v>5456</v>
       </c>
       <c r="M232" s="5" t="s">
-        <v>8454</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
@@ -36807,7 +36810,7 @@
         <v>6692</v>
       </c>
       <c r="M233" s="5" t="s">
-        <v>8455</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
@@ -36848,7 +36851,7 @@
         <v>6693</v>
       </c>
       <c r="M234" s="5" t="s">
-        <v>8456</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
@@ -36889,7 +36892,7 @@
         <v>6694</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>8457</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
@@ -36930,7 +36933,7 @@
         <v>6695</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>8458</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
@@ -36971,7 +36974,7 @@
         <v>6696</v>
       </c>
       <c r="M237" s="5" t="s">
-        <v>8459</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
@@ -37012,7 +37015,7 @@
         <v>6697</v>
       </c>
       <c r="M238" s="5" t="s">
-        <v>8460</v>
+        <v>8876</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
@@ -37053,7 +37056,7 @@
         <v>6698</v>
       </c>
       <c r="M239" s="5" t="s">
-        <v>8461</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
@@ -37094,7 +37097,7 @@
         <v>6699</v>
       </c>
       <c r="M240" s="5" t="s">
-        <v>8462</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
@@ -37135,7 +37138,7 @@
         <v>6700</v>
       </c>
       <c r="M241" s="5" t="s">
-        <v>8463</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
@@ -37176,7 +37179,7 @@
         <v>6701</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>8464</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
@@ -37217,7 +37220,7 @@
         <v>6702</v>
       </c>
       <c r="M243" s="5" t="s">
-        <v>8465</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
@@ -37258,7 +37261,7 @@
         <v>6703</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>8466</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
@@ -37299,7 +37302,7 @@
         <v>6704</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>8467</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
@@ -37340,7 +37343,7 @@
         <v>6705</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>8468</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
@@ -37381,7 +37384,7 @@
         <v>6706</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>8469</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
@@ -37422,7 +37425,7 @@
         <v>6707</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>8470</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
@@ -37463,7 +37466,7 @@
         <v>6708</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>8471</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
@@ -37504,7 +37507,7 @@
         <v>6709</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>8472</v>
+        <v>8880</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
@@ -37545,7 +37548,7 @@
         <v>6710</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>8473</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
@@ -37586,7 +37589,7 @@
         <v>6711</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>8474</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
@@ -37627,7 +37630,7 @@
         <v>6712</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>8929</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
@@ -37668,7 +37671,7 @@
         <v>6713</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>8909</v>
+        <v>8882</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
@@ -37709,7 +37712,7 @@
         <v>6714</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>8475</v>
+        <v>8429</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
@@ -37750,7 +37753,7 @@
         <v>6715</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>8930</v>
+        <v>8883</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
@@ -37791,7 +37794,7 @@
         <v>6716</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>8476</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
@@ -37832,7 +37835,7 @@
         <v>6717</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>8477</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
@@ -37873,7 +37876,7 @@
         <v>6718</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>8478</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
@@ -37914,7 +37917,7 @@
         <v>6719</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>8479</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
@@ -37955,7 +37958,7 @@
         <v>6720</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>8480</v>
+        <v>8886</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
@@ -37996,7 +37999,7 @@
         <v>6721</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>8481</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
@@ -38037,7 +38040,7 @@
         <v>6722</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>8482</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
@@ -38078,7 +38081,7 @@
         <v>6723</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>8483</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
@@ -38119,7 +38122,7 @@
         <v>6724</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>8484</v>
+        <v>8433</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.4">
@@ -38160,7 +38163,7 @@
         <v>6725</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>8485</v>
+        <v>8889</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.4">
@@ -38201,7 +38204,7 @@
         <v>6726</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>8486</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
@@ -38242,7 +38245,7 @@
         <v>6727</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>8487</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
@@ -38283,7 +38286,7 @@
         <v>6728</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>8488</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
@@ -38324,7 +38327,7 @@
         <v>6729</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>8489</v>
+        <v>8891</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
@@ -38365,7 +38368,7 @@
         <v>6730</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>8490</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
@@ -38406,7 +38409,7 @@
         <v>5496</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>8491</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
@@ -38447,7 +38450,7 @@
         <v>6731</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>8492</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
@@ -38488,7 +38491,7 @@
         <v>6732</v>
       </c>
       <c r="M274" s="5" t="s">
-        <v>8493</v>
+        <v>8438</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
@@ -38529,7 +38532,7 @@
         <v>6733</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>8494</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
@@ -38570,7 +38573,7 @@
         <v>6734</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>8495</v>
+        <v>8894</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
@@ -38611,7 +38614,7 @@
         <v>6735</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>8496</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
@@ -38652,7 +38655,7 @@
         <v>6736</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>8497</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
@@ -38693,7 +38696,7 @@
         <v>6737</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>8498</v>
+        <v>8439</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
@@ -38734,7 +38737,7 @@
         <v>6738</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>8499</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
@@ -38775,7 +38778,7 @@
         <v>6739</v>
       </c>
       <c r="M281" s="5" t="s">
-        <v>8500</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
@@ -38816,7 +38819,7 @@
         <v>6740</v>
       </c>
       <c r="M282" s="5" t="s">
-        <v>8501</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
@@ -38857,7 +38860,7 @@
         <v>5507</v>
       </c>
       <c r="M283" s="5" t="s">
-        <v>8502</v>
+        <v>8441</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
@@ -38898,7 +38901,7 @@
         <v>6741</v>
       </c>
       <c r="M284" s="5" t="s">
-        <v>8503</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
@@ -38939,7 +38942,7 @@
         <v>6742</v>
       </c>
       <c r="M285" s="5" t="s">
-        <v>8504</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
@@ -38980,7 +38983,7 @@
         <v>6743</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>8505</v>
+        <v>8444</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
@@ -39021,7 +39024,7 @@
         <v>6744</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>8506</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
@@ -39062,7 +39065,7 @@
         <v>6745</v>
       </c>
       <c r="M288" s="5" t="s">
-        <v>8507</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.4">
@@ -39103,7 +39106,7 @@
         <v>6746</v>
       </c>
       <c r="M289" s="5" t="s">
-        <v>8508</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
@@ -39144,7 +39147,7 @@
         <v>7164</v>
       </c>
       <c r="M290" s="5" t="s">
-        <v>8509</v>
+        <v>8448</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
@@ -39185,7 +39188,7 @@
         <v>5514</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>8510</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.4">
@@ -39226,7 +39229,7 @@
         <v>6747</v>
       </c>
       <c r="M292" s="5" t="s">
-        <v>8511</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.4">
@@ -39267,7 +39270,7 @@
         <v>6748</v>
       </c>
       <c r="M293" s="5" t="s">
-        <v>8512</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.4">
@@ -39308,7 +39311,7 @@
         <v>6749</v>
       </c>
       <c r="M294" s="5" t="s">
-        <v>8513</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.4">
@@ -39349,7 +39352,7 @@
         <v>6750</v>
       </c>
       <c r="M295" s="5" t="s">
-        <v>8514</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.4">
@@ -39390,7 +39393,7 @@
         <v>6751</v>
       </c>
       <c r="M296" s="5" t="s">
-        <v>8515</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.4">
@@ -39431,7 +39434,7 @@
         <v>6752</v>
       </c>
       <c r="M297" s="5" t="s">
-        <v>8516</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.4">
@@ -39472,7 +39475,7 @@
         <v>6753</v>
       </c>
       <c r="M298" s="5" t="s">
-        <v>8516</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.4">
@@ -39513,7 +39516,7 @@
         <v>6754</v>
       </c>
       <c r="M299" s="5" t="s">
-        <v>8517</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.4">
@@ -39554,7 +39557,7 @@
         <v>6755</v>
       </c>
       <c r="M300" s="5" t="s">
-        <v>8518</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.4">
@@ -39595,7 +39598,7 @@
         <v>6756</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>8519</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.4">
@@ -39636,7 +39639,7 @@
         <v>6757</v>
       </c>
       <c r="M302" s="5" t="s">
-        <v>8520</v>
+        <v>8458</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.4">
@@ -39677,7 +39680,7 @@
         <v>6758</v>
       </c>
       <c r="M303" s="5" t="s">
-        <v>8521</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.4">
@@ -39718,7 +39721,7 @@
         <v>6759</v>
       </c>
       <c r="M304" s="5" t="s">
-        <v>8522</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.4">
@@ -39759,7 +39762,7 @@
         <v>6760</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>8523</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.4">
@@ -39800,7 +39803,7 @@
         <v>6761</v>
       </c>
       <c r="M306" s="5" t="s">
-        <v>8524</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.4">
@@ -39841,7 +39844,7 @@
         <v>6762</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>8525</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.4">
@@ -39882,7 +39885,7 @@
         <v>6763</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>8526</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.4">
@@ -39923,7 +39926,7 @@
         <v>6764</v>
       </c>
       <c r="M309" s="5" t="s">
-        <v>8527</v>
+        <v>8464</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.4">
@@ -39964,7 +39967,7 @@
         <v>6765</v>
       </c>
       <c r="M310" s="5" t="s">
-        <v>8528</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.4">
@@ -40005,7 +40008,7 @@
         <v>6766</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>8529</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.4">
@@ -40046,7 +40049,7 @@
         <v>6767</v>
       </c>
       <c r="M312" s="5" t="s">
-        <v>8530</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.4">
@@ -40087,7 +40090,7 @@
         <v>6768</v>
       </c>
       <c r="M313" s="5" t="s">
-        <v>8531</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.4">
@@ -40128,7 +40131,7 @@
         <v>5537</v>
       </c>
       <c r="M314" s="5" t="s">
-        <v>8532</v>
+        <v>8469</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.4">
@@ -40169,7 +40172,7 @@
         <v>6769</v>
       </c>
       <c r="M315" s="5" t="s">
-        <v>8533</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.4">
@@ -40210,7 +40213,7 @@
         <v>6770</v>
       </c>
       <c r="M316" s="5" t="s">
-        <v>8534</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.4">
@@ -40251,7 +40254,7 @@
         <v>6771</v>
       </c>
       <c r="M317" s="5" t="s">
-        <v>8535</v>
+        <v>8471</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.4">
@@ -40292,7 +40295,7 @@
         <v>6642</v>
       </c>
       <c r="M318" s="5" t="s">
-        <v>8536</v>
+        <v>8472</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.4">
@@ -40333,7 +40336,7 @@
         <v>6772</v>
       </c>
       <c r="M319" s="5" t="s">
-        <v>8537</v>
+        <v>8473</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.4">
@@ -40374,7 +40377,7 @@
         <v>6773</v>
       </c>
       <c r="M320" s="5" t="s">
-        <v>8538</v>
+        <v>8474</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.4">
@@ -40415,7 +40418,7 @@
         <v>6774</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>8539</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.4">
@@ -40456,7 +40459,7 @@
         <v>6775</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>8540</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.4">
@@ -40497,7 +40500,7 @@
         <v>6776</v>
       </c>
       <c r="M323" s="5" t="s">
-        <v>8541</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.4">
@@ -40538,7 +40541,7 @@
         <v>6777</v>
       </c>
       <c r="M324" s="5" t="s">
-        <v>8542</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.4">
@@ -40579,7 +40582,7 @@
         <v>6778</v>
       </c>
       <c r="M325" s="5" t="s">
-        <v>8543</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.4">
@@ -40620,7 +40623,7 @@
         <v>6779</v>
       </c>
       <c r="M326" s="5" t="s">
-        <v>8544</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.4">
@@ -40661,7 +40664,7 @@
         <v>6780</v>
       </c>
       <c r="M327" s="5" t="s">
-        <v>8545</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.4">
@@ -40702,7 +40705,7 @@
         <v>6781</v>
       </c>
       <c r="M328" s="5" t="s">
-        <v>8546</v>
+        <v>8482</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.4">
@@ -40743,7 +40746,7 @@
         <v>6782</v>
       </c>
       <c r="M329" s="5" t="s">
-        <v>8547</v>
+        <v>8483</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.4">
@@ -40784,7 +40787,7 @@
         <v>6783</v>
       </c>
       <c r="M330" s="5" t="s">
-        <v>8931</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.4">
@@ -40825,7 +40828,7 @@
         <v>5553</v>
       </c>
       <c r="M331" s="5" t="s">
-        <v>8548</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.4">
@@ -40866,7 +40869,7 @@
         <v>6784</v>
       </c>
       <c r="M332" s="5" t="s">
-        <v>8549</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.4">
@@ -40907,7 +40910,7 @@
         <v>6785</v>
       </c>
       <c r="M333" s="5" t="s">
-        <v>8550</v>
+        <v>8486</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.4">
@@ -40948,7 +40951,7 @@
         <v>6786</v>
       </c>
       <c r="M334" s="5" t="s">
-        <v>8551</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.4">
@@ -40989,7 +40992,7 @@
         <v>6787</v>
       </c>
       <c r="M335" s="5" t="s">
-        <v>8552</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.4">
@@ -41030,7 +41033,7 @@
         <v>6788</v>
       </c>
       <c r="M336" s="5" t="s">
-        <v>8553</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.4">
@@ -41071,7 +41074,7 @@
         <v>6789</v>
       </c>
       <c r="M337" s="5" t="s">
-        <v>8554</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.4">
@@ -41112,7 +41115,7 @@
         <v>6790</v>
       </c>
       <c r="M338" s="5" t="s">
-        <v>8555</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.4">
@@ -41194,7 +41197,7 @@
         <v>6791</v>
       </c>
       <c r="M340" s="5" t="s">
-        <v>8556</v>
+        <v>8492</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.4">
@@ -41235,7 +41238,7 @@
         <v>6792</v>
       </c>
       <c r="M341" s="5" t="s">
-        <v>8557</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.4">
@@ -41276,7 +41279,7 @@
         <v>6793</v>
       </c>
       <c r="M342" s="5" t="s">
-        <v>8558</v>
+        <v>8494</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.4">
@@ -41317,7 +41320,7 @@
         <v>6794</v>
       </c>
       <c r="M343" s="5" t="s">
-        <v>8559</v>
+        <v>8495</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.4">
@@ -41358,7 +41361,7 @@
         <v>6795</v>
       </c>
       <c r="M344" s="5" t="s">
-        <v>8560</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.4">
@@ -41399,7 +41402,7 @@
         <v>6796</v>
       </c>
       <c r="M345" s="5" t="s">
-        <v>8561</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.4">
@@ -41440,7 +41443,7 @@
         <v>6797</v>
       </c>
       <c r="M346" s="5" t="s">
-        <v>8562</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.4">
@@ -41481,7 +41484,7 @@
         <v>6798</v>
       </c>
       <c r="M347" s="5" t="s">
-        <v>8563</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.4">
@@ -41522,7 +41525,7 @@
         <v>6799</v>
       </c>
       <c r="M348" s="5" t="s">
-        <v>8564</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.4">
@@ -41563,7 +41566,7 @@
         <v>6800</v>
       </c>
       <c r="M349" s="5" t="s">
-        <v>8565</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.4">
@@ -41604,7 +41607,7 @@
         <v>6801</v>
       </c>
       <c r="M350" s="5" t="s">
-        <v>8566</v>
+        <v>8502</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.4">
@@ -41645,7 +41648,7 @@
         <v>6802</v>
       </c>
       <c r="M351" s="5" t="s">
-        <v>8567</v>
+        <v>8902</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.4">
@@ -41686,7 +41689,7 @@
         <v>6803</v>
       </c>
       <c r="M352" s="5" t="s">
-        <v>8568</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.4">
@@ -41727,7 +41730,7 @@
         <v>6804</v>
       </c>
       <c r="M353" s="5" t="s">
-        <v>8569</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.4">
@@ -41768,7 +41771,7 @@
         <v>6805</v>
       </c>
       <c r="M354" s="5" t="s">
-        <v>8570</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.4">
@@ -41809,7 +41812,7 @@
         <v>6806</v>
       </c>
       <c r="M355" s="5" t="s">
-        <v>8571</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.4">
@@ -41850,7 +41853,7 @@
         <v>6807</v>
       </c>
       <c r="M356" s="5" t="s">
-        <v>8572</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.4">
@@ -41891,7 +41894,7 @@
         <v>6808</v>
       </c>
       <c r="M357" s="5" t="s">
-        <v>8573</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.4">
@@ -41932,7 +41935,7 @@
         <v>6809</v>
       </c>
       <c r="M358" s="5" t="s">
-        <v>8574</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.4">
@@ -41973,7 +41976,7 @@
         <v>6810</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>8575</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.4">
@@ -42014,7 +42017,7 @@
         <v>6811</v>
       </c>
       <c r="M360" s="5" t="s">
-        <v>8576</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.4">
@@ -42055,7 +42058,7 @@
         <v>6812</v>
       </c>
       <c r="M361" s="5" t="s">
-        <v>8577</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.4">
@@ -42096,7 +42099,7 @@
         <v>5584</v>
       </c>
       <c r="M362" s="5" t="s">
-        <v>8578</v>
+        <v>8513</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.4">
@@ -42137,7 +42140,7 @@
         <v>6813</v>
       </c>
       <c r="M363" s="5" t="s">
-        <v>8579</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.4">
@@ -42178,7 +42181,7 @@
         <v>6811</v>
       </c>
       <c r="M364" s="5" t="s">
-        <v>8576</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.4">
@@ -42219,7 +42222,7 @@
         <v>5586</v>
       </c>
       <c r="M365" s="5" t="s">
-        <v>8580</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.4">
@@ -42260,7 +42263,7 @@
         <v>6814</v>
       </c>
       <c r="M366" s="5" t="s">
-        <v>8581</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.4">
@@ -42301,7 +42304,7 @@
         <v>6815</v>
       </c>
       <c r="M367" s="5" t="s">
-        <v>8582</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.4">
@@ -42342,7 +42345,7 @@
         <v>6816</v>
       </c>
       <c r="M368" s="5" t="s">
-        <v>8583</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.4">
@@ -42383,7 +42386,7 @@
         <v>6817</v>
       </c>
       <c r="M369" s="5" t="s">
-        <v>8584</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.4">
@@ -42424,7 +42427,7 @@
         <v>6818</v>
       </c>
       <c r="M370" s="5" t="s">
-        <v>8585</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.4">
@@ -42465,7 +42468,7 @@
         <v>6819</v>
       </c>
       <c r="M371" s="5" t="s">
-        <v>8586</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.4">
@@ -42506,7 +42509,7 @@
         <v>6820</v>
       </c>
       <c r="M372" s="5" t="s">
-        <v>8587</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.4">
@@ -42547,7 +42550,7 @@
         <v>6821</v>
       </c>
       <c r="M373" s="5" t="s">
-        <v>8588</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.4">
@@ -42588,7 +42591,7 @@
         <v>6822</v>
       </c>
       <c r="M374" s="5" t="s">
-        <v>8589</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.4">
@@ -42629,7 +42632,7 @@
         <v>6823</v>
       </c>
       <c r="M375" s="5" t="s">
-        <v>8590</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.4">
@@ -42670,7 +42673,7 @@
         <v>6824</v>
       </c>
       <c r="M376" s="5" t="s">
-        <v>8591</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.4">
@@ -42711,7 +42714,7 @@
         <v>6825</v>
       </c>
       <c r="M377" s="5" t="s">
-        <v>8592</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.4">
@@ -42752,7 +42755,7 @@
         <v>6826</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>8593</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.4">
@@ -42793,7 +42796,7 @@
         <v>6827</v>
       </c>
       <c r="M379" s="5" t="s">
-        <v>8594</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.4">
@@ -42834,7 +42837,7 @@
         <v>6828</v>
       </c>
       <c r="M380" s="5" t="s">
-        <v>8595</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.4">
@@ -42875,7 +42878,7 @@
         <v>6829</v>
       </c>
       <c r="M381" s="5" t="s">
-        <v>8596</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.4">
@@ -42916,7 +42919,7 @@
         <v>6830</v>
       </c>
       <c r="M382" s="5" t="s">
-        <v>8597</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.4">
@@ -42957,7 +42960,7 @@
         <v>6831</v>
       </c>
       <c r="M383" s="5" t="s">
-        <v>8598</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.4">
@@ -42998,7 +43001,7 @@
         <v>6832</v>
       </c>
       <c r="M384" s="5" t="s">
-        <v>8599</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.4">
@@ -43039,7 +43042,7 @@
         <v>6833</v>
       </c>
       <c r="M385" s="5" t="s">
-        <v>8600</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.4">
@@ -43080,7 +43083,7 @@
         <v>6834</v>
       </c>
       <c r="M386" s="5" t="s">
-        <v>8601</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.4">
@@ -43121,7 +43124,7 @@
         <v>6835</v>
       </c>
       <c r="M387" s="5" t="s">
-        <v>8602</v>
+        <v>8903</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.4">
@@ -43162,7 +43165,7 @@
         <v>6836</v>
       </c>
       <c r="M388" s="5" t="s">
-        <v>8603</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.4">
@@ -43203,7 +43206,7 @@
         <v>6837</v>
       </c>
       <c r="M389" s="5" t="s">
-        <v>8910</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.4">
@@ -43244,7 +43247,7 @@
         <v>6838</v>
       </c>
       <c r="M390" s="5" t="s">
-        <v>8604</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.4">
@@ -43285,7 +43288,7 @@
         <v>6839</v>
       </c>
       <c r="M391" s="5" t="s">
-        <v>8605</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.4">
@@ -43326,7 +43329,7 @@
         <v>6840</v>
       </c>
       <c r="M392" s="5" t="s">
-        <v>8606</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.4">
@@ -43367,7 +43370,7 @@
         <v>6841</v>
       </c>
       <c r="M393" s="5" t="s">
-        <v>8607</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.4">
@@ -43408,7 +43411,7 @@
         <v>6842</v>
       </c>
       <c r="M394" s="5" t="s">
-        <v>8608</v>
+        <v>8539</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.4">
@@ -43449,7 +43452,7 @@
         <v>6843</v>
       </c>
       <c r="M395" s="5" t="s">
-        <v>8609</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.4">
@@ -43490,7 +43493,7 @@
         <v>6844</v>
       </c>
       <c r="M396" s="5" t="s">
-        <v>8610</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.4">
@@ -43531,7 +43534,7 @@
         <v>6845</v>
       </c>
       <c r="M397" s="5" t="s">
-        <v>8611</v>
+        <v>8542</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.4">
@@ -43572,7 +43575,7 @@
         <v>6846</v>
       </c>
       <c r="M398" s="5" t="s">
-        <v>8612</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.4">
@@ -43613,7 +43616,7 @@
         <v>6847</v>
       </c>
       <c r="M399" s="5" t="s">
-        <v>8613</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.4">
@@ -43654,7 +43657,7 @@
         <v>5620</v>
       </c>
       <c r="M400" s="5" t="s">
-        <v>8614</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.4">
@@ -43695,7 +43698,7 @@
         <v>6848</v>
       </c>
       <c r="M401" s="5" t="s">
-        <v>8615</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.4">
@@ -43736,7 +43739,7 @@
         <v>6849</v>
       </c>
       <c r="M402" s="5" t="s">
-        <v>8616</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.4">
@@ -43777,7 +43780,7 @@
         <v>6850</v>
       </c>
       <c r="M403" s="5" t="s">
-        <v>8617</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.4">
@@ -43818,7 +43821,7 @@
         <v>6851</v>
       </c>
       <c r="M404" s="5" t="s">
-        <v>8618</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.4">
@@ -43859,7 +43862,7 @@
         <v>6852</v>
       </c>
       <c r="M405" s="5" t="s">
-        <v>8619</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.4">
@@ -43900,7 +43903,7 @@
         <v>6853</v>
       </c>
       <c r="M406" s="5" t="s">
-        <v>8620</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.4">
@@ -43941,7 +43944,7 @@
         <v>6854</v>
       </c>
       <c r="M407" s="5" t="s">
-        <v>8621</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.4">
@@ -43982,7 +43985,7 @@
         <v>6855</v>
       </c>
       <c r="M408" s="5" t="s">
-        <v>8622</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.4">
@@ -44023,7 +44026,7 @@
         <v>6856</v>
       </c>
       <c r="M409" s="5" t="s">
-        <v>8623</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.4">
@@ -44064,7 +44067,7 @@
         <v>6857</v>
       </c>
       <c r="M410" s="5" t="s">
-        <v>8624</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.4">
@@ -44105,7 +44108,7 @@
         <v>6858</v>
       </c>
       <c r="M411" s="5" t="s">
-        <v>8625</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.4">
@@ -44146,7 +44149,7 @@
         <v>6859</v>
       </c>
       <c r="M412" s="5" t="s">
-        <v>8626</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.4">
@@ -44187,7 +44190,7 @@
         <v>6860</v>
       </c>
       <c r="M413" s="5" t="s">
-        <v>8627</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.4">
@@ -44228,7 +44231,7 @@
         <v>6861</v>
       </c>
       <c r="M414" s="5" t="s">
-        <v>8628</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.4">
@@ -44269,7 +44272,7 @@
         <v>6862</v>
       </c>
       <c r="M415" s="5" t="s">
-        <v>8629</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.4">
@@ -44310,7 +44313,7 @@
         <v>6863</v>
       </c>
       <c r="M416" s="5" t="s">
-        <v>8630</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.4">
@@ -44392,7 +44395,7 @@
         <v>6864</v>
       </c>
       <c r="M418" s="5" t="s">
-        <v>8631</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.4">
@@ -44433,7 +44436,7 @@
         <v>6865</v>
       </c>
       <c r="M419" s="5" t="s">
-        <v>8632</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.4">
@@ -44474,7 +44477,7 @@
         <v>6866</v>
       </c>
       <c r="M420" s="5" t="s">
-        <v>8633</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.4">
@@ -44515,7 +44518,7 @@
         <v>6867</v>
       </c>
       <c r="M421" s="5" t="s">
-        <v>8634</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.4">
@@ -44556,7 +44559,7 @@
         <v>6868</v>
       </c>
       <c r="M422" s="5" t="s">
-        <v>8635</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.4">
@@ -44597,7 +44600,7 @@
         <v>6869</v>
       </c>
       <c r="M423" s="5" t="s">
-        <v>8636</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.4">
@@ -44638,7 +44641,7 @@
         <v>6870</v>
       </c>
       <c r="M424" s="5" t="s">
-        <v>8637</v>
+        <v>8566</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.4">
@@ -44679,7 +44682,7 @@
         <v>6871</v>
       </c>
       <c r="M425" s="5" t="s">
-        <v>8638</v>
+        <v>8567</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.4">
@@ -44720,7 +44723,7 @@
         <v>6872</v>
       </c>
       <c r="M426" s="5" t="s">
-        <v>8639</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.4">
@@ -44761,7 +44764,7 @@
         <v>6873</v>
       </c>
       <c r="M427" s="5" t="s">
-        <v>8640</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.4">
@@ -44802,7 +44805,7 @@
         <v>6874</v>
       </c>
       <c r="M428" s="5" t="s">
-        <v>8641</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.4">
@@ -44843,7 +44846,7 @@
         <v>6875</v>
       </c>
       <c r="M429" s="5" t="s">
-        <v>8642</v>
+        <v>8571</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.4">
@@ -44884,7 +44887,7 @@
         <v>6876</v>
       </c>
       <c r="M430" s="5" t="s">
-        <v>8643</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.4">
@@ -44925,7 +44928,7 @@
         <v>6877</v>
       </c>
       <c r="M431" s="5" t="s">
-        <v>8644</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.4">
@@ -44966,7 +44969,7 @@
         <v>6878</v>
       </c>
       <c r="M432" s="5" t="s">
-        <v>8645</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.4">
@@ -45007,7 +45010,7 @@
         <v>6879</v>
       </c>
       <c r="M433" s="5" t="s">
-        <v>8932</v>
+        <v>8828</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.4">
@@ -45048,7 +45051,7 @@
         <v>6880</v>
       </c>
       <c r="M434" s="5" t="s">
-        <v>8646</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.4">
@@ -45089,7 +45092,7 @@
         <v>6881</v>
       </c>
       <c r="M435" s="5" t="s">
-        <v>8911</v>
+        <v>8813</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.4">
@@ -45130,7 +45133,7 @@
         <v>6882</v>
       </c>
       <c r="M436" s="5" t="s">
-        <v>8647</v>
+        <v>8576</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.4">
@@ -45171,7 +45174,7 @@
         <v>6883</v>
       </c>
       <c r="M437" s="5" t="s">
-        <v>8648</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.4">
@@ -45212,7 +45215,7 @@
         <v>6884</v>
       </c>
       <c r="M438" s="5" t="s">
-        <v>8649</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.4">
@@ -45253,7 +45256,7 @@
         <v>6885</v>
       </c>
       <c r="M439" s="5" t="s">
-        <v>8650</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.4">
@@ -45294,7 +45297,7 @@
         <v>6886</v>
       </c>
       <c r="M440" s="5" t="s">
-        <v>8651</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.4">
@@ -45335,7 +45338,7 @@
         <v>6887</v>
       </c>
       <c r="M441" s="5" t="s">
-        <v>8652</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.4">
@@ -45376,7 +45379,7 @@
         <v>6888</v>
       </c>
       <c r="M442" s="5" t="s">
-        <v>8653</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.4">
@@ -45417,7 +45420,7 @@
         <v>6889</v>
       </c>
       <c r="M443" s="5" t="s">
-        <v>8654</v>
+        <v>8583</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.4">
@@ -45458,7 +45461,7 @@
         <v>6890</v>
       </c>
       <c r="M444" s="5" t="s">
-        <v>8655</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.4">
@@ -45499,7 +45502,7 @@
         <v>6891</v>
       </c>
       <c r="M445" s="5" t="s">
-        <v>8656</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.4">
@@ -45540,7 +45543,7 @@
         <v>6892</v>
       </c>
       <c r="M446" s="5" t="s">
-        <v>8657</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.4">
@@ -45581,7 +45584,7 @@
         <v>6893</v>
       </c>
       <c r="M447" s="5" t="s">
-        <v>8912</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.4">
@@ -45622,7 +45625,7 @@
         <v>6894</v>
       </c>
       <c r="M448" s="5" t="s">
-        <v>8658</v>
+        <v>8587</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.4">
@@ -45663,7 +45666,7 @@
         <v>6895</v>
       </c>
       <c r="M449" s="5" t="s">
-        <v>8659</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.4">
@@ -45704,7 +45707,7 @@
         <v>6896</v>
       </c>
       <c r="M450" s="5" t="s">
-        <v>8913</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.4">
@@ -45745,7 +45748,7 @@
         <v>6897</v>
       </c>
       <c r="M451" s="5" t="s">
-        <v>8660</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.4">
@@ -45786,7 +45789,7 @@
         <v>6898</v>
       </c>
       <c r="M452" s="5" t="s">
-        <v>8661</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.4">
@@ -45827,7 +45830,7 @@
         <v>6899</v>
       </c>
       <c r="M453" s="5" t="s">
-        <v>8662</v>
+        <v>8591</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.4">
@@ -45868,7 +45871,7 @@
         <v>6900</v>
       </c>
       <c r="M454" s="5" t="s">
-        <v>8663</v>
+        <v>8592</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.4">
@@ -45909,7 +45912,7 @@
         <v>6814</v>
       </c>
       <c r="M455" s="5" t="s">
-        <v>8914</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.4">
@@ -45950,7 +45953,7 @@
         <v>6901</v>
       </c>
       <c r="M456" s="5" t="s">
-        <v>8664</v>
+        <v>8593</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.4">
@@ -45991,7 +45994,7 @@
         <v>6902</v>
       </c>
       <c r="M457" s="5" t="s">
-        <v>8915</v>
+        <v>8817</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.4">
@@ -46032,7 +46035,7 @@
         <v>6903</v>
       </c>
       <c r="M458" s="5" t="s">
-        <v>8916</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.4">
@@ -46073,7 +46076,7 @@
         <v>6904</v>
       </c>
       <c r="M459" s="5" t="s">
-        <v>8665</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.4">
@@ -46114,7 +46117,7 @@
         <v>6905</v>
       </c>
       <c r="M460" s="5" t="s">
-        <v>8666</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.4">
@@ -46155,7 +46158,7 @@
         <v>6906</v>
       </c>
       <c r="M461" s="5" t="s">
-        <v>8667</v>
+        <v>8596</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.4">
@@ -46196,7 +46199,7 @@
         <v>6907</v>
       </c>
       <c r="M462" s="5" t="s">
-        <v>8668</v>
+        <v>8597</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.4">
@@ -46237,7 +46240,7 @@
         <v>6908</v>
       </c>
       <c r="M463" s="5" t="s">
-        <v>8669</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.4">
@@ -46278,7 +46281,7 @@
         <v>6909</v>
       </c>
       <c r="M464" s="5" t="s">
-        <v>8670</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.4">
@@ -46319,7 +46322,7 @@
         <v>2436</v>
       </c>
       <c r="M465" s="5" t="s">
-        <v>8671</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.4">
@@ -46360,7 +46363,7 @@
         <v>6910</v>
       </c>
       <c r="M466" s="5" t="s">
-        <v>8672</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.4">
@@ -46401,7 +46404,7 @@
         <v>6911</v>
       </c>
       <c r="M467" s="5" t="s">
-        <v>8917</v>
+        <v>8819</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.4">
@@ -46442,7 +46445,7 @@
         <v>2439</v>
       </c>
       <c r="M468" s="5" t="s">
-        <v>8673</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.4">
@@ -46456,7 +46459,7 @@
         <v>1794</v>
       </c>
       <c r="D469" t="s">
-        <v>8904</v>
+        <v>8810</v>
       </c>
       <c r="E469" t="s">
         <v>3082</v>
@@ -46483,7 +46486,7 @@
         <v>6912</v>
       </c>
       <c r="M469" s="5" t="s">
-        <v>8674</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.4">
@@ -46524,7 +46527,7 @@
         <v>6913</v>
       </c>
       <c r="M470" s="5" t="s">
-        <v>8675</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.4">
@@ -46565,7 +46568,7 @@
         <v>6914</v>
       </c>
       <c r="M471" s="5" t="s">
-        <v>8676</v>
+        <v>8603</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.4">
@@ -46606,7 +46609,7 @@
         <v>6915</v>
       </c>
       <c r="M472" s="5" t="s">
-        <v>8677</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.4">
@@ -46647,7 +46650,7 @@
         <v>6916</v>
       </c>
       <c r="M473" s="5" t="s">
-        <v>8678</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.4">
@@ -46688,7 +46691,7 @@
         <v>6917</v>
       </c>
       <c r="M474" s="5" t="s">
-        <v>8679</v>
+        <v>8606</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.4">
@@ -46729,7 +46732,7 @@
         <v>6918</v>
       </c>
       <c r="M475" s="5" t="s">
-        <v>8680</v>
+        <v>8607</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.4">
@@ -46770,7 +46773,7 @@
         <v>8232</v>
       </c>
       <c r="M476" s="5" t="s">
-        <v>8681</v>
+        <v>8608</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.4">
@@ -46811,7 +46814,7 @@
         <v>6919</v>
       </c>
       <c r="M477" s="5" t="s">
-        <v>8682</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.4">
@@ -46852,7 +46855,7 @@
         <v>6920</v>
       </c>
       <c r="M478" s="5" t="s">
-        <v>8683</v>
+        <v>8610</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.4">
@@ -46893,7 +46896,7 @@
         <v>6921</v>
       </c>
       <c r="M479" s="5" t="s">
-        <v>8684</v>
+        <v>8611</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.4">
@@ -46934,7 +46937,7 @@
         <v>6922</v>
       </c>
       <c r="M480" s="5" t="s">
-        <v>8918</v>
+        <v>8911</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.4">
@@ -46975,7 +46978,7 @@
         <v>5698</v>
       </c>
       <c r="M481" s="5" t="s">
-        <v>8685</v>
+        <v>8612</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.4">
@@ -47016,7 +47019,7 @@
         <v>6923</v>
       </c>
       <c r="M482" s="5" t="s">
-        <v>8686</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.4">
@@ -47057,7 +47060,7 @@
         <v>6924</v>
       </c>
       <c r="M483" s="5" t="s">
-        <v>8687</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.4">
@@ -47098,7 +47101,7 @@
         <v>6925</v>
       </c>
       <c r="M484" s="5" t="s">
-        <v>8688</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.4">
@@ -47139,7 +47142,7 @@
         <v>6926</v>
       </c>
       <c r="M485" s="5" t="s">
-        <v>8689</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.4">
@@ -47180,7 +47183,7 @@
         <v>6927</v>
       </c>
       <c r="M486" s="5" t="s">
-        <v>8690</v>
+        <v>8617</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.4">
@@ -47221,7 +47224,7 @@
         <v>6928</v>
       </c>
       <c r="M487" s="5" t="s">
-        <v>8691</v>
+        <v>8618</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.4">
@@ -47262,7 +47265,7 @@
         <v>6929</v>
       </c>
       <c r="M488" s="5" t="s">
-        <v>8692</v>
+        <v>8473</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.4">
@@ -47303,7 +47306,7 @@
         <v>6930</v>
       </c>
       <c r="M489" s="5" t="s">
-        <v>8693</v>
+        <v>8619</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.4">
@@ -47344,7 +47347,7 @@
         <v>6931</v>
       </c>
       <c r="M490" s="5" t="s">
-        <v>8694</v>
+        <v>8620</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.4">
@@ -47385,7 +47388,7 @@
         <v>6932</v>
       </c>
       <c r="M491" s="5" t="s">
-        <v>8695</v>
+        <v>8621</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.4">
@@ -47426,7 +47429,7 @@
         <v>6933</v>
       </c>
       <c r="M492" s="5" t="s">
-        <v>8696</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.4">
@@ -47467,7 +47470,7 @@
         <v>6934</v>
       </c>
       <c r="M493" s="5" t="s">
-        <v>8697</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.4">
@@ -47508,7 +47511,7 @@
         <v>6935</v>
       </c>
       <c r="M494" s="5" t="s">
-        <v>8698</v>
+        <v>8624</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.4">
@@ -47549,7 +47552,7 @@
         <v>6936</v>
       </c>
       <c r="M495" s="5" t="s">
-        <v>8699</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.4">
@@ -47590,7 +47593,7 @@
         <v>6937</v>
       </c>
       <c r="M496" s="5" t="s">
-        <v>8700</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.4">
@@ -47631,7 +47634,7 @@
         <v>6938</v>
       </c>
       <c r="M497" s="5" t="s">
-        <v>8701</v>
+        <v>8627</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.4">
@@ -47672,7 +47675,7 @@
         <v>6939</v>
       </c>
       <c r="M498" s="5" t="s">
-        <v>8702</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.4">
@@ -47713,7 +47716,7 @@
         <v>6940</v>
       </c>
       <c r="M499" s="5" t="s">
-        <v>8703</v>
+        <v>8629</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.4">
@@ -47754,7 +47757,7 @@
         <v>6941</v>
       </c>
       <c r="M500" s="5" t="s">
-        <v>8704</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.4">
@@ -47795,7 +47798,7 @@
         <v>6942</v>
       </c>
       <c r="M501" s="5" t="s">
-        <v>8705</v>
+        <v>8630</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.4">
@@ -47836,7 +47839,7 @@
         <v>6943</v>
       </c>
       <c r="M502" s="5" t="s">
-        <v>8706</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.4">
@@ -47877,7 +47880,7 @@
         <v>6944</v>
       </c>
       <c r="M503" s="5" t="s">
-        <v>8707</v>
+        <v>8632</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.4">
@@ -47918,7 +47921,7 @@
         <v>6945</v>
       </c>
       <c r="M504" s="5" t="s">
-        <v>8708</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.4">
@@ -47959,7 +47962,7 @@
         <v>6946</v>
       </c>
       <c r="M505" s="5" t="s">
-        <v>8709</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.4">
@@ -48000,7 +48003,7 @@
         <v>6947</v>
       </c>
       <c r="M506" s="5" t="s">
-        <v>8710</v>
+        <v>8634</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.4">
@@ -48041,7 +48044,7 @@
         <v>6948</v>
       </c>
       <c r="M507" s="5" t="s">
-        <v>8711</v>
+        <v>8635</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.4">
@@ -48082,7 +48085,7 @@
         <v>5725</v>
       </c>
       <c r="M508" s="5" t="s">
-        <v>8712</v>
+        <v>8636</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.4">
@@ -48123,7 +48126,7 @@
         <v>6949</v>
       </c>
       <c r="M509" s="5" t="s">
-        <v>8713</v>
+        <v>8637</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.4">
@@ -48164,7 +48167,7 @@
         <v>6950</v>
       </c>
       <c r="M510" s="5" t="s">
-        <v>8714</v>
+        <v>8638</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.4">
@@ -48205,7 +48208,7 @@
         <v>6951</v>
       </c>
       <c r="M511" s="5" t="s">
-        <v>8715</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.4">
@@ -48246,7 +48249,7 @@
         <v>6952</v>
       </c>
       <c r="M512" s="5" t="s">
-        <v>8716</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.4">
@@ -48287,7 +48290,7 @@
         <v>6953</v>
       </c>
       <c r="M513" s="5" t="s">
-        <v>8717</v>
+        <v>8641</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.4">
@@ -48328,7 +48331,7 @@
         <v>6954</v>
       </c>
       <c r="M514" s="5" t="s">
-        <v>8718</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.4">
@@ -48369,7 +48372,7 @@
         <v>6955</v>
       </c>
       <c r="M515" s="5" t="s">
-        <v>8719</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.4">
@@ -48410,7 +48413,7 @@
         <v>6956</v>
       </c>
       <c r="M516" s="5" t="s">
-        <v>8720</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.4">
@@ -48451,7 +48454,7 @@
         <v>6957</v>
       </c>
       <c r="M517" s="5" t="s">
-        <v>8721</v>
+        <v>8644</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.4">
@@ -48492,7 +48495,7 @@
         <v>6958</v>
       </c>
       <c r="M518" s="5" t="s">
-        <v>8722</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.4">
@@ -48533,7 +48536,7 @@
         <v>6959</v>
       </c>
       <c r="M519" s="5" t="s">
-        <v>8723</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.4">
@@ -48574,7 +48577,7 @@
         <v>6960</v>
       </c>
       <c r="M520" s="5" t="s">
-        <v>8724</v>
+        <v>8647</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.4">
@@ -48615,7 +48618,7 @@
         <v>6961</v>
       </c>
       <c r="M521" s="5" t="s">
-        <v>8725</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.4">
@@ -48656,7 +48659,7 @@
         <v>6962</v>
       </c>
       <c r="M522" s="5" t="s">
-        <v>8726</v>
+        <v>8648</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.4">
@@ -48697,7 +48700,7 @@
         <v>6963</v>
       </c>
       <c r="M523" s="5" t="s">
-        <v>8727</v>
+        <v>8649</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.4">
@@ -48738,7 +48741,7 @@
         <v>6964</v>
       </c>
       <c r="M524" s="5" t="s">
-        <v>8728</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.4">
@@ -48779,7 +48782,7 @@
         <v>6965</v>
       </c>
       <c r="M525" s="5" t="s">
-        <v>8729</v>
+        <v>8651</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.4">
@@ -48820,7 +48823,7 @@
         <v>6966</v>
       </c>
       <c r="M526" s="5" t="s">
-        <v>8730</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.4">
@@ -48861,7 +48864,7 @@
         <v>6967</v>
       </c>
       <c r="M527" s="5" t="s">
-        <v>8731</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.4">
@@ -48902,7 +48905,7 @@
         <v>5745</v>
       </c>
       <c r="M528" s="5" t="s">
-        <v>8732</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.4">
@@ -48943,7 +48946,7 @@
         <v>6968</v>
       </c>
       <c r="M529" s="5" t="s">
-        <v>8733</v>
+        <v>8654</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.4">
@@ -48984,7 +48987,7 @@
         <v>6969</v>
       </c>
       <c r="M530" s="5" t="s">
-        <v>8734</v>
+        <v>8655</v>
       </c>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.4">
@@ -49025,7 +49028,7 @@
         <v>6970</v>
       </c>
       <c r="M531" s="5" t="s">
-        <v>8735</v>
+        <v>8656</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.4">
@@ -49066,7 +49069,7 @@
         <v>6971</v>
       </c>
       <c r="M532" s="5" t="s">
-        <v>8736</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.4">
@@ -49107,7 +49110,7 @@
         <v>6972</v>
       </c>
       <c r="M533" s="5" t="s">
-        <v>8737</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.4">
@@ -49148,7 +49151,7 @@
         <v>6973</v>
       </c>
       <c r="M534" s="5" t="s">
-        <v>8738</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.4">
@@ -49189,7 +49192,7 @@
         <v>6974</v>
       </c>
       <c r="M535" s="5" t="s">
-        <v>8739</v>
+        <v>8659</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.4">
@@ -49230,7 +49233,7 @@
         <v>6781</v>
       </c>
       <c r="M536" s="5" t="s">
-        <v>8740</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="537" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49271,7 +49274,7 @@
         <v>6975</v>
       </c>
       <c r="M537" s="5" t="s">
-        <v>8741</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="538" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49312,7 +49315,7 @@
         <v>6976</v>
       </c>
       <c r="M538" s="5" t="s">
-        <v>8742</v>
+        <v>8661</v>
       </c>
     </row>
     <row r="539" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49353,7 +49356,7 @@
         <v>6977</v>
       </c>
       <c r="M539" s="5" t="s">
-        <v>8743</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="540" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49394,7 +49397,7 @@
         <v>6978</v>
       </c>
       <c r="M540" s="5" t="s">
-        <v>8744</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="541" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49435,7 +49438,7 @@
         <v>6979</v>
       </c>
       <c r="M541" s="5" t="s">
-        <v>8745</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="542" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49476,7 +49479,7 @@
         <v>8003</v>
       </c>
       <c r="M542" s="5" t="s">
-        <v>8746</v>
+        <v>8918</v>
       </c>
     </row>
     <row r="543" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49517,7 +49520,7 @@
         <v>8004</v>
       </c>
       <c r="M543" s="5" t="s">
-        <v>8747</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="544" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49558,7 +49561,7 @@
         <v>8005</v>
       </c>
       <c r="M544" s="5" t="s">
-        <v>8748</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="545" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -49599,7 +49602,7 @@
         <v>8006</v>
       </c>
       <c r="M545" s="5" t="s">
-        <v>8749</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.4">
@@ -49640,7 +49643,7 @@
         <v>5758</v>
       </c>
       <c r="M546" s="5" t="s">
-        <v>8750</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.4">
@@ -49681,7 +49684,7 @@
         <v>6980</v>
       </c>
       <c r="M547" s="5" t="s">
-        <v>8933</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.4">
@@ -49722,7 +49725,7 @@
         <v>6981</v>
       </c>
       <c r="M548" s="5" t="s">
-        <v>8751</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.4">
@@ -49763,7 +49766,7 @@
         <v>6982</v>
       </c>
       <c r="M549" s="5" t="s">
-        <v>8752</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.4">
@@ -49804,7 +49807,7 @@
         <v>6983</v>
       </c>
       <c r="M550" s="5" t="s">
-        <v>8753</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.4">
@@ -49845,7 +49848,7 @@
         <v>6984</v>
       </c>
       <c r="M551" s="5" t="s">
-        <v>8754</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.4">
@@ -49886,7 +49889,7 @@
         <v>6985</v>
       </c>
       <c r="M552" s="5" t="s">
-        <v>8755</v>
+        <v>8669</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.4">
@@ -49927,7 +49930,7 @@
         <v>6986</v>
       </c>
       <c r="M553" s="5" t="s">
-        <v>8756</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.4">
@@ -49968,7 +49971,7 @@
         <v>6987</v>
       </c>
       <c r="M554" s="5" t="s">
-        <v>8757</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.4">
@@ -50009,7 +50012,7 @@
         <v>6988</v>
       </c>
       <c r="M555" s="5" t="s">
-        <v>8758</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.4">
@@ -50050,7 +50053,7 @@
         <v>6989</v>
       </c>
       <c r="M556" s="5" t="s">
-        <v>8759</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.4">
@@ -50091,7 +50094,7 @@
         <v>7913</v>
       </c>
       <c r="M557" s="5" t="s">
-        <v>8760</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.4">
@@ -50132,7 +50135,7 @@
         <v>7914</v>
       </c>
       <c r="M558" s="5" t="s">
-        <v>8761</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.4">
@@ -50173,7 +50176,7 @@
         <v>7915</v>
       </c>
       <c r="M559" s="5" t="s">
-        <v>8762</v>
+        <v>8676</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.4">
@@ -50214,7 +50217,7 @@
         <v>7916</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>8763</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.4">
@@ -50255,7 +50258,7 @@
         <v>6990</v>
       </c>
       <c r="M561" s="5" t="s">
-        <v>8764</v>
+        <v>8678</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.4">
@@ -50296,7 +50299,7 @@
         <v>6991</v>
       </c>
       <c r="M562" s="5" t="s">
-        <v>8765</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.4">
@@ -50337,7 +50340,7 @@
         <v>7857</v>
       </c>
       <c r="M563" s="5" t="s">
-        <v>8766</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.4">
@@ -50378,7 +50381,7 @@
         <v>7858</v>
       </c>
       <c r="M564" s="5" t="s">
-        <v>8767</v>
+        <v>8681</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.4">
@@ -50419,7 +50422,7 @@
         <v>6992</v>
       </c>
       <c r="M565" s="5" t="s">
-        <v>8768</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.4">
@@ -50460,7 +50463,7 @@
         <v>6993</v>
       </c>
       <c r="M566" s="5" t="s">
-        <v>8769</v>
+        <v>8683</v>
       </c>
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.4">
@@ -50501,7 +50504,7 @@
         <v>2519</v>
       </c>
       <c r="M567" s="5" t="s">
-        <v>8770</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.4">
@@ -50542,7 +50545,7 @@
         <v>6994</v>
       </c>
       <c r="M568" s="5" t="s">
-        <v>8771</v>
+        <v>8684</v>
       </c>
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.4">
@@ -50583,7 +50586,7 @@
         <v>6995</v>
       </c>
       <c r="M569" s="5" t="s">
-        <v>8772</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.4">
@@ -50624,7 +50627,7 @@
         <v>6996</v>
       </c>
       <c r="M570" s="5" t="s">
-        <v>8773</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.4">
@@ -50665,7 +50668,7 @@
         <v>6997</v>
       </c>
       <c r="M571" s="5" t="s">
-        <v>8774</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.4">
@@ -50706,7 +50709,7 @@
         <v>6998</v>
       </c>
       <c r="M572" s="5" t="s">
-        <v>8775</v>
+        <v>8688</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.4">
@@ -50747,7 +50750,7 @@
         <v>6999</v>
       </c>
       <c r="M573" s="5" t="s">
-        <v>8776</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.4">
@@ -50788,7 +50791,7 @@
         <v>7000</v>
       </c>
       <c r="M574" s="5" t="s">
-        <v>8777</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.4">
@@ -50829,7 +50832,7 @@
         <v>7001</v>
       </c>
       <c r="M575" s="5" t="s">
-        <v>8778</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.4">
@@ -50870,7 +50873,7 @@
         <v>5780</v>
       </c>
       <c r="M576" s="5" t="s">
-        <v>8779</v>
+        <v>8692</v>
       </c>
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.4">
@@ -50911,7 +50914,7 @@
         <v>7002</v>
       </c>
       <c r="M577" s="5" t="s">
-        <v>8934</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.4">
@@ -50952,7 +50955,7 @@
         <v>7003</v>
       </c>
       <c r="M578" s="5" t="s">
-        <v>8935</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.4">
@@ -50993,7 +50996,7 @@
         <v>7004</v>
       </c>
       <c r="M579" s="5" t="s">
-        <v>8936</v>
+        <v>8832</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.4">
@@ -51034,7 +51037,7 @@
         <v>7005</v>
       </c>
       <c r="M580" s="5" t="s">
-        <v>8780</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.4">
@@ -51075,7 +51078,7 @@
         <v>7006</v>
       </c>
       <c r="M581" s="5" t="s">
-        <v>8781</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.4">
@@ -51116,7 +51119,7 @@
         <v>7007</v>
       </c>
       <c r="M582" s="5" t="s">
-        <v>8782</v>
+        <v>8695</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.4">
@@ -51157,7 +51160,7 @@
         <v>7008</v>
       </c>
       <c r="M583" s="5" t="s">
-        <v>8783</v>
+        <v>8696</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.4">
@@ -51198,7 +51201,7 @@
         <v>7924</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>8784</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.4">
@@ -51239,7 +51242,7 @@
         <v>2536</v>
       </c>
       <c r="M585" s="5" t="s">
-        <v>8785</v>
+        <v>8698</v>
       </c>
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.4">
@@ -51280,7 +51283,7 @@
         <v>7009</v>
       </c>
       <c r="M586" s="5" t="s">
-        <v>8786</v>
+        <v>8699</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.4">
@@ -51321,7 +51324,7 @@
         <v>7010</v>
       </c>
       <c r="M587" s="5" t="s">
-        <v>8787</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.4">
@@ -51362,7 +51365,7 @@
         <v>7011</v>
       </c>
       <c r="M588" s="5" t="s">
-        <v>8788</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.4">
@@ -51403,7 +51406,7 @@
         <v>7012</v>
       </c>
       <c r="M589" s="5" t="s">
-        <v>8789</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.4">
@@ -51444,7 +51447,7 @@
         <v>7013</v>
       </c>
       <c r="M590" s="5" t="s">
-        <v>8790</v>
+        <v>8702</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.4">
@@ -51485,7 +51488,7 @@
         <v>7014</v>
       </c>
       <c r="M591" s="5" t="s">
-        <v>8791</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.4">
@@ -51526,7 +51529,7 @@
         <v>7015</v>
       </c>
       <c r="M592" s="5" t="s">
-        <v>8792</v>
+        <v>8703</v>
       </c>
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.4">
@@ -51567,7 +51570,7 @@
         <v>7016</v>
       </c>
       <c r="M593" s="5" t="s">
-        <v>8793</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.4">
@@ -51608,7 +51611,7 @@
         <v>7017</v>
       </c>
       <c r="M594" s="5" t="s">
-        <v>8794</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.4">
@@ -51649,7 +51652,7 @@
         <v>7018</v>
       </c>
       <c r="M595" s="5" t="s">
-        <v>8795</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.4">
@@ -51690,7 +51693,7 @@
         <v>7019</v>
       </c>
       <c r="M596" s="5" t="s">
-        <v>8796</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.4">
@@ -51731,7 +51734,7 @@
         <v>7020</v>
       </c>
       <c r="M597" s="5" t="s">
-        <v>8797</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.4">
@@ -51772,7 +51775,7 @@
         <v>7021</v>
       </c>
       <c r="M598" s="5" t="s">
-        <v>8798</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.4">
@@ -51813,7 +51816,7 @@
         <v>7022</v>
       </c>
       <c r="M599" s="5" t="s">
-        <v>8799</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.4">
@@ -51854,7 +51857,7 @@
         <v>5803</v>
       </c>
       <c r="M600" s="5" t="s">
-        <v>8800</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.4">
@@ -51895,7 +51898,7 @@
         <v>7023</v>
       </c>
       <c r="M601" s="5" t="s">
-        <v>8801</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.4">
@@ -51936,7 +51939,7 @@
         <v>7024</v>
       </c>
       <c r="M602" s="5" t="s">
-        <v>8802</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.4">
@@ -51977,7 +51980,7 @@
         <v>7025</v>
       </c>
       <c r="M603" s="5" t="s">
-        <v>8803</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.4">
@@ -52018,7 +52021,7 @@
         <v>7026</v>
       </c>
       <c r="M604" s="5" t="s">
-        <v>8804</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.4">
@@ -52059,7 +52062,7 @@
         <v>7027</v>
       </c>
       <c r="M605" s="5" t="s">
-        <v>8805</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.4">
@@ -52100,7 +52103,7 @@
         <v>7028</v>
       </c>
       <c r="M606" s="5" t="s">
-        <v>8806</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.4">
@@ -52141,7 +52144,7 @@
         <v>7029</v>
       </c>
       <c r="M607" s="5" t="s">
-        <v>8807</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.4">
@@ -52182,7 +52185,7 @@
         <v>7030</v>
       </c>
       <c r="M608" s="5" t="s">
-        <v>8808</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.4">
@@ -52223,7 +52226,7 @@
         <v>7031</v>
       </c>
       <c r="M609" s="5" t="s">
-        <v>8809</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.4">
@@ -52264,7 +52267,7 @@
         <v>7032</v>
       </c>
       <c r="M610" s="5" t="s">
-        <v>8810</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.4">
@@ -52305,7 +52308,7 @@
         <v>7033</v>
       </c>
       <c r="M611" s="5" t="s">
-        <v>8811</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.4">
@@ -52346,7 +52349,7 @@
         <v>7034</v>
       </c>
       <c r="M612" s="5" t="s">
-        <v>8812</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.4">
@@ -52387,7 +52390,7 @@
         <v>7035</v>
       </c>
       <c r="M613" s="5" t="s">
-        <v>8813</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.4">
@@ -52428,7 +52431,7 @@
         <v>7036</v>
       </c>
       <c r="M614" s="5" t="s">
-        <v>8814</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.4">
@@ -52469,7 +52472,7 @@
         <v>7037</v>
       </c>
       <c r="M615" s="5" t="s">
-        <v>8815</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.4">
@@ -52510,7 +52513,7 @@
         <v>7038</v>
       </c>
       <c r="M616" s="5" t="s">
-        <v>8816</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.4">
@@ -52551,7 +52554,7 @@
         <v>7039</v>
       </c>
       <c r="M617" s="5" t="s">
-        <v>8817</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.4">
@@ -52592,7 +52595,7 @@
         <v>7040</v>
       </c>
       <c r="M618" s="5" t="s">
-        <v>8818</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.4">
@@ -52633,7 +52636,7 @@
         <v>7041</v>
       </c>
       <c r="M619" s="5" t="s">
-        <v>8819</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.4">
@@ -52674,7 +52677,7 @@
         <v>7042</v>
       </c>
       <c r="M620" s="5" t="s">
-        <v>8820</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.4">
@@ -52715,7 +52718,7 @@
         <v>7043</v>
       </c>
       <c r="M621" s="5" t="s">
-        <v>8821</v>
+        <v>8729</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.4">
@@ -52756,7 +52759,7 @@
         <v>7044</v>
       </c>
       <c r="M622" s="5" t="s">
-        <v>8822</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.4">
@@ -52797,7 +52800,7 @@
         <v>7045</v>
       </c>
       <c r="M623" s="5" t="s">
-        <v>8823</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.4">
@@ -52838,7 +52841,7 @@
         <v>7046</v>
       </c>
       <c r="M624" s="5" t="s">
-        <v>8824</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.4">
@@ -52879,7 +52882,7 @@
         <v>7047</v>
       </c>
       <c r="M625" s="5" t="s">
-        <v>8825</v>
+        <v>8733</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.4">
@@ -52920,7 +52923,7 @@
         <v>7048</v>
       </c>
       <c r="M626" s="5" t="s">
-        <v>8826</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.4">
@@ -52961,7 +52964,7 @@
         <v>7049</v>
       </c>
       <c r="M627" s="5" t="s">
-        <v>8827</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.4">
@@ -53002,7 +53005,7 @@
         <v>7050</v>
       </c>
       <c r="M628" s="5" t="s">
-        <v>8828</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.4">
@@ -53043,7 +53046,7 @@
         <v>7051</v>
       </c>
       <c r="M629" s="5" t="s">
-        <v>8829</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.4">
@@ -53084,7 +53087,7 @@
         <v>7052</v>
       </c>
       <c r="M630" s="5" t="s">
-        <v>8830</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.4">
@@ -53125,7 +53128,7 @@
         <v>7053</v>
       </c>
       <c r="M631" s="5" t="s">
-        <v>8831</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.4">
@@ -53166,7 +53169,7 @@
         <v>7054</v>
       </c>
       <c r="M632" s="5" t="s">
-        <v>8832</v>
+        <v>8739</v>
       </c>
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.4">
@@ -53207,7 +53210,7 @@
         <v>7055</v>
       </c>
       <c r="M633" s="5" t="s">
-        <v>8833</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.4">
@@ -53248,7 +53251,7 @@
         <v>6723</v>
       </c>
       <c r="M634" s="5" t="s">
-        <v>8834</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.4">
@@ -53289,7 +53292,7 @@
         <v>7056</v>
       </c>
       <c r="M635" s="5" t="s">
-        <v>8835</v>
+        <v>8742</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.4">
@@ -53330,7 +53333,7 @@
         <v>7057</v>
       </c>
       <c r="M636" s="5" t="s">
-        <v>8836</v>
+        <v>8743</v>
       </c>
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.4">
@@ -53371,7 +53374,7 @@
         <v>7058</v>
       </c>
       <c r="M637" s="5" t="s">
-        <v>8837</v>
+        <v>8744</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.4">
@@ -53412,7 +53415,7 @@
         <v>7059</v>
       </c>
       <c r="M638" s="5" t="s">
-        <v>8838</v>
+        <v>8745</v>
       </c>
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.4">
@@ -53453,7 +53456,7 @@
         <v>7060</v>
       </c>
       <c r="M639" s="5" t="s">
-        <v>8839</v>
+        <v>8746</v>
       </c>
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.4">
@@ -53494,7 +53497,7 @@
         <v>7061</v>
       </c>
       <c r="M640" s="5" t="s">
-        <v>8840</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.4">
@@ -53535,7 +53538,7 @@
         <v>7062</v>
       </c>
       <c r="M641" s="5" t="s">
-        <v>8841</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.4">
@@ -53576,7 +53579,7 @@
         <v>7063</v>
       </c>
       <c r="M642" s="5" t="s">
-        <v>8842</v>
+        <v>8749</v>
       </c>
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.4">
@@ -53617,7 +53620,7 @@
         <v>7064</v>
       </c>
       <c r="M643" s="5" t="s">
-        <v>8843</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.4">
@@ -53658,7 +53661,7 @@
         <v>7065</v>
       </c>
       <c r="M644" s="5" t="s">
-        <v>8844</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.4">
@@ -53699,7 +53702,7 @@
         <v>7066</v>
       </c>
       <c r="M645" s="5" t="s">
-        <v>8845</v>
+        <v>8752</v>
       </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.4">
@@ -53740,7 +53743,7 @@
         <v>7067</v>
       </c>
       <c r="M646" s="5" t="s">
-        <v>8846</v>
+        <v>8753</v>
       </c>
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.4">
@@ -53781,7 +53784,7 @@
         <v>7068</v>
       </c>
       <c r="M647" s="5" t="s">
-        <v>8847</v>
+        <v>8754</v>
       </c>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.4">
@@ -53822,7 +53825,7 @@
         <v>7069</v>
       </c>
       <c r="M648" s="5" t="s">
-        <v>8848</v>
+        <v>8755</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.4">
@@ -53863,7 +53866,7 @@
         <v>7070</v>
       </c>
       <c r="M649" s="5" t="s">
-        <v>8849</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.4">
@@ -53904,7 +53907,7 @@
         <v>7071</v>
       </c>
       <c r="M650" s="5" t="s">
-        <v>8850</v>
+        <v>8757</v>
       </c>
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.4">
@@ -53945,7 +53948,7 @@
         <v>7072</v>
       </c>
       <c r="M651" s="5" t="s">
-        <v>8851</v>
+        <v>8758</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.4">
@@ -53986,7 +53989,7 @@
         <v>7073</v>
       </c>
       <c r="M652" s="5" t="s">
-        <v>8852</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.4">
@@ -54027,7 +54030,7 @@
         <v>7074</v>
       </c>
       <c r="M653" s="5" t="s">
-        <v>8853</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.4">
@@ -54068,7 +54071,7 @@
         <v>7075</v>
       </c>
       <c r="M654" s="5" t="s">
-        <v>8854</v>
+        <v>8761</v>
       </c>
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.4">
@@ -54109,7 +54112,7 @@
         <v>7076</v>
       </c>
       <c r="M655" s="5" t="s">
-        <v>8855</v>
+        <v>8762</v>
       </c>
     </row>
     <row r="656" spans="1:13" x14ac:dyDescent="0.4">
@@ -54150,7 +54153,7 @@
         <v>7077</v>
       </c>
       <c r="M656" s="5" t="s">
-        <v>8856</v>
+        <v>8763</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.4">
@@ -54191,7 +54194,7 @@
         <v>7078</v>
       </c>
       <c r="M657" s="5" t="s">
-        <v>8857</v>
+        <v>8764</v>
       </c>
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.4">
@@ -54232,7 +54235,7 @@
         <v>7079</v>
       </c>
       <c r="M658" s="5" t="s">
-        <v>8858</v>
+        <v>8765</v>
       </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.4">
@@ -54273,7 +54276,7 @@
         <v>6492</v>
       </c>
       <c r="M659" s="5" t="s">
-        <v>8857</v>
+        <v>8764</v>
       </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.4">
@@ -54314,7 +54317,7 @@
         <v>7080</v>
       </c>
       <c r="M660" s="5" t="s">
-        <v>8859</v>
+        <v>8766</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.4">
@@ -54355,7 +54358,7 @@
         <v>7081</v>
       </c>
       <c r="M661" s="5" t="s">
-        <v>8860</v>
+        <v>8767</v>
       </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.4">
@@ -54396,7 +54399,7 @@
         <v>7116</v>
       </c>
       <c r="M662" s="5" t="s">
-        <v>8861</v>
+        <v>8768</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.4">
@@ -54437,7 +54440,7 @@
         <v>7082</v>
       </c>
       <c r="M663" s="5" t="s">
-        <v>8862</v>
+        <v>8769</v>
       </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.4">
@@ -54478,7 +54481,7 @@
         <v>7083</v>
       </c>
       <c r="M664" s="5" t="s">
-        <v>8863</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.4">
@@ -54519,7 +54522,7 @@
         <v>7084</v>
       </c>
       <c r="M665" s="5" t="s">
-        <v>8864</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.4">
@@ -54560,7 +54563,7 @@
         <v>7085</v>
       </c>
       <c r="M666" s="5" t="s">
-        <v>8865</v>
+        <v>8771</v>
       </c>
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.4">
@@ -54601,7 +54604,7 @@
         <v>7086</v>
       </c>
       <c r="M667" s="5" t="s">
-        <v>8866</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.4">
@@ -54642,7 +54645,7 @@
         <v>7087</v>
       </c>
       <c r="M668" s="5" t="s">
-        <v>8867</v>
+        <v>8773</v>
       </c>
     </row>
     <row r="669" spans="1:13" x14ac:dyDescent="0.4">
@@ -54683,7 +54686,7 @@
         <v>7088</v>
       </c>
       <c r="M669" s="5" t="s">
-        <v>8868</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.4">
@@ -54724,7 +54727,7 @@
         <v>7089</v>
       </c>
       <c r="M670" s="5" t="s">
-        <v>8869</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="671" spans="1:13" x14ac:dyDescent="0.4">
@@ -54765,7 +54768,7 @@
         <v>7090</v>
       </c>
       <c r="M671" s="5" t="s">
-        <v>8870</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.4">
@@ -54806,7 +54809,7 @@
         <v>7091</v>
       </c>
       <c r="M672" s="5" t="s">
-        <v>8871</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="673" spans="1:13" x14ac:dyDescent="0.4">
@@ -54847,7 +54850,7 @@
         <v>7092</v>
       </c>
       <c r="M673" s="5" t="s">
-        <v>8872</v>
+        <v>8778</v>
       </c>
     </row>
     <row r="674" spans="1:13" x14ac:dyDescent="0.4">
@@ -54888,7 +54891,7 @@
         <v>5876</v>
       </c>
       <c r="M674" s="5" t="s">
-        <v>8873</v>
+        <v>8779</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.4">
@@ -54929,7 +54932,7 @@
         <v>7053</v>
       </c>
       <c r="M675" s="5" t="s">
-        <v>8831</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.4">
@@ -54970,7 +54973,7 @@
         <v>7093</v>
       </c>
       <c r="M676" s="5" t="s">
-        <v>8874</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.4">
@@ -55011,7 +55014,7 @@
         <v>7094</v>
       </c>
       <c r="M677" s="5" t="s">
-        <v>8875</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="678" spans="1:13" x14ac:dyDescent="0.4">
@@ -55052,7 +55055,7 @@
         <v>7095</v>
       </c>
       <c r="M678" s="5" t="s">
-        <v>8876</v>
+        <v>8782</v>
       </c>
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.4">
@@ -55093,7 +55096,7 @@
         <v>7096</v>
       </c>
       <c r="M679" s="5" t="s">
-        <v>8877</v>
+        <v>8783</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.4">
@@ -55134,7 +55137,7 @@
         <v>7097</v>
       </c>
       <c r="M680" s="5" t="s">
-        <v>8878</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.4">
@@ -55175,7 +55178,7 @@
         <v>7098</v>
       </c>
       <c r="M681" s="5" t="s">
-        <v>8879</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.4">
@@ -55216,7 +55219,7 @@
         <v>7099</v>
       </c>
       <c r="M682" s="5" t="s">
-        <v>8880</v>
+        <v>8786</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.4">
@@ -55257,7 +55260,7 @@
         <v>7100</v>
       </c>
       <c r="M683" s="5" t="s">
-        <v>8881</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.4">
@@ -55298,7 +55301,7 @@
         <v>7101</v>
       </c>
       <c r="M684" s="5" t="s">
-        <v>8882</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.4">
@@ -55339,7 +55342,7 @@
         <v>7102</v>
       </c>
       <c r="M685" s="5" t="s">
-        <v>8883</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.4">
@@ -55380,7 +55383,7 @@
         <v>7103</v>
       </c>
       <c r="M686" s="5" t="s">
-        <v>8884</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.4">
@@ -55421,7 +55424,7 @@
         <v>7104</v>
       </c>
       <c r="M687" s="5" t="s">
-        <v>8919</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.4">
@@ -55462,7 +55465,7 @@
         <v>7105</v>
       </c>
       <c r="M688" s="5" t="s">
-        <v>8885</v>
+        <v>8791</v>
       </c>
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.4">
@@ -55503,7 +55506,7 @@
         <v>7106</v>
       </c>
       <c r="M689" s="5" t="s">
-        <v>8886</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.4">
@@ -55544,7 +55547,7 @@
         <v>7107</v>
       </c>
       <c r="M690" s="5" t="s">
-        <v>8887</v>
+        <v>8793</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.4">
@@ -55585,7 +55588,7 @@
         <v>7108</v>
       </c>
       <c r="M691" s="5" t="s">
-        <v>8888</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.4">
@@ -55626,7 +55629,7 @@
         <v>7109</v>
       </c>
       <c r="M692" s="5" t="s">
-        <v>8889</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.4">
@@ -55667,7 +55670,7 @@
         <v>7133</v>
       </c>
       <c r="M693" s="5" t="s">
-        <v>8920</v>
+        <v>8931</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.4">
@@ -55708,7 +55711,7 @@
         <v>7136</v>
       </c>
       <c r="M694" s="5" t="s">
-        <v>8890</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.4">
@@ -55749,7 +55752,7 @@
         <v>7155</v>
       </c>
       <c r="M695" s="5" t="s">
-        <v>8921</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.4">
@@ -55790,7 +55793,7 @@
         <v>7849</v>
       </c>
       <c r="M696" s="5" t="s">
-        <v>8891</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.4">
@@ -55831,7 +55834,7 @@
         <v>7948</v>
       </c>
       <c r="M697" s="5" t="s">
-        <v>8892</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.4">
@@ -55872,7 +55875,7 @@
         <v>7949</v>
       </c>
       <c r="M698" s="5" t="s">
-        <v>8893</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.4">
@@ -55913,7 +55916,7 @@
         <v>8030</v>
       </c>
       <c r="M699" s="5" t="s">
-        <v>8894</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.4">
@@ -55954,7 +55957,7 @@
         <v>8052</v>
       </c>
       <c r="M700" s="5" t="s">
-        <v>8895</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.4">
@@ -55995,7 +55998,7 @@
         <v>8053</v>
       </c>
       <c r="M701" s="5" t="s">
-        <v>8896</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.4">
@@ -56036,7 +56039,7 @@
         <v>8063</v>
       </c>
       <c r="M702" s="5" t="s">
-        <v>8897</v>
+        <v>8803</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.4">
@@ -56077,7 +56080,7 @@
         <v>8064</v>
       </c>
       <c r="M703" s="5" t="s">
-        <v>8922</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.4">
@@ -56118,7 +56121,7 @@
         <v>8065</v>
       </c>
       <c r="M704" s="5" t="s">
-        <v>8898</v>
+        <v>8804</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.4">
@@ -56159,7 +56162,7 @@
         <v>8107</v>
       </c>
       <c r="M705" s="5" t="s">
-        <v>8923</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.4">
@@ -56200,7 +56203,7 @@
         <v>8123</v>
       </c>
       <c r="M706" s="5" t="s">
-        <v>8924</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.4">
@@ -56241,7 +56244,7 @@
         <v>8133</v>
       </c>
       <c r="M707" s="5" t="s">
-        <v>8925</v>
+        <v>8824</v>
       </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.4">
@@ -56282,7 +56285,7 @@
         <v>8146</v>
       </c>
       <c r="M708" s="5" t="s">
-        <v>8926</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.4">
@@ -56323,7 +56326,7 @@
         <v>8165</v>
       </c>
       <c r="M709" s="5" t="s">
-        <v>8927</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.4">
@@ -56364,7 +56367,7 @@
         <v>8145</v>
       </c>
       <c r="M710" s="5" t="s">
-        <v>8899</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.4">
@@ -56405,7 +56408,7 @@
         <v>8186</v>
       </c>
       <c r="M711" s="5" t="s">
-        <v>8900</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.4">
@@ -56446,7 +56449,7 @@
         <v>8187</v>
       </c>
       <c r="M712" s="5" t="s">
-        <v>8901</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.4">
@@ -56487,7 +56490,7 @@
         <v>8188</v>
       </c>
       <c r="M713" s="5" t="s">
-        <v>8902</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.4">
@@ -56528,11 +56531,11 @@
         <v>8189</v>
       </c>
       <c r="M714" s="5" t="s">
-        <v>8903</v>
+        <v>8809</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A000860-C751-47A4-A542-EF78A4D548C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375FF29-E890-43B8-8D87-F58E503DC7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="49274" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4149" yWindow="4149" windowWidth="20531" windowHeight="10793" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8568" uniqueCount="8241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8664" uniqueCount="8327">
   <si>
     <t>keys</t>
   </si>
@@ -24565,18 +24565,12 @@
     <t>Názov MQTT topicu</t>
   </si>
   <si>
-    <t>Automaticky zasielať informácie o zariadení a štatistiky cez MQTT každé dve minúty. &lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Ak nie je zadané, použije sa MAC adresa zariadenia (ak je dostupná)&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
   </si>
   <si>
     <t>Relatório de dados por meio do MQTT</t>
   </si>
   <si>
-    <t>Envie automaticamente informações e estatísticas do dispositivo por meio do MQTT a cada 2 minutos.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar essa alteração.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Nome do tópico MQTT</t>
   </si>
   <si>
@@ -24586,9 +24580,6 @@
     <t>Informar datos a través de MQTT</t>
   </si>
   <si>
-    <t>Envíe automáticamente información y estadísticas del dispositivo a través de MQTT cada 2 minutos.&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Nombre del tema MQTT</t>
   </si>
   <si>
@@ -24598,9 +24589,6 @@
     <t>Raportuj dane przez MQTT</t>
   </si>
   <si>
-    <t>Automatycznie wysyłaj informacje o urządzeniu i statystyki przez MQTT co 2 minuty.&lt;br&gt;&lt;i&gt;Do zastosowania tej zmiany wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Nazwa tematu MQTT</t>
   </si>
   <si>
@@ -24610,9 +24598,6 @@
     <t>Riportare i dati tramite MQTT</t>
   </si>
   <si>
-    <t>Invia automaticamente informazioni e statistiche sul dispositivo tramite MQTT ogni 2 minuti.&lt;br&gt;&lt;i&gt;Per applicare questa modifica è necessario ricaricare.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Nome argomento MQTT</t>
   </si>
   <si>
@@ -24622,9 +24607,6 @@
     <t>Rapporter les données via MQTT</t>
   </si>
   <si>
-    <t>Envoyez automatiquement les informations et les statistiques sur l'appareil via MQTT toutes les 2 minutes.&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Nom du sujet MQTT</t>
   </si>
   <si>
@@ -24634,9 +24616,6 @@
     <t>Melden Sie Daten über MQTT</t>
   </si>
   <si>
-    <t>Senden Sie automatisch alle 2 Minuten Geräteinformationen und Statistiken über MQTT.&lt;br&gt;&lt;i&gt;Neu laden ist erforderlich, um diese Änderung zu übernehmen.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Name des MQTT-Themas</t>
   </si>
   <si>
@@ -24646,9 +24625,6 @@
     <t>Prijavite podatke putem MQTT-a</t>
   </si>
   <si>
-    <t>Automatski šaljite podatke o uređaju i statistiku putem MQTT svake 2 minute.&lt;br&gt;&lt;i&gt;Za primjenu ove promjene potrebno je ponovno učitavanje.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Naziv teme MQTT</t>
   </si>
   <si>
@@ -24658,9 +24634,6 @@
     <t>Сообщать данные через MQTT</t>
   </si>
   <si>
-    <t>Автоматически отправлять информацию об устройстве и статистику через MQTT каждые 2 минуты.&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Название темы MQTT</t>
   </si>
   <si>
@@ -24670,9 +24643,6 @@
     <t>Zasílat report přes MQTT</t>
   </si>
   <si>
-    <t>Automaticky zasílat informace o zařízení a statistiky přes MQTT každé dvě minuty. &lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>Název MQTT topicu</t>
   </si>
   <si>
@@ -24685,9 +24655,6 @@
     <t>MQTT topic name</t>
   </si>
   <si>
-    <t>Automatically send device info and statistics through MQTT every 2 minutes.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>If not entered, MAC address of the device will be used (if available).&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
   </si>
   <si>
@@ -24743,6 +24710,297 @@
   </si>
   <si>
     <t>&lt;p&gt;Slideshow app has been successfully updated to a newer version. There are following new features:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;MQTT: added support for WebSockets, optional automatic statistics sending and custom topic setting&lt;/li&gt;&lt;li&gt;File Manager: added possibility to set particular file length or mute via Properties&lt;/li&gt;&lt;li&gt;Home page: added welcome message (only on first start after update)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>mqtt_report_statistics</t>
+  </si>
+  <si>
+    <t>mqtt_report_statistics_help</t>
+  </si>
+  <si>
+    <t>Report statistics through MQTT</t>
+  </si>
+  <si>
+    <t>Statistiques de rapport via MQTT</t>
+  </si>
+  <si>
+    <t>Signaler les statistiques d'affichage des fichiers via MQTT&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Melden Sie Statistiken über MQTT</t>
+  </si>
+  <si>
+    <t>Melden Sie Anzeigestatistiken von Dateien über MQTT&lt;br&gt;&lt;i&gt;Neues Laden ist erforderlich, um diese Änderung zu übernehmen.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Segnala le statistiche tramite MQTT</t>
+  </si>
+  <si>
+    <t>Segnala le statistiche di visualizzazione dei file tramite MQTT&lt;br&gt;&lt;i&gt;È necessario ricaricare per applicare questa modifica.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Relatório de estatísticas por meio do MQTT</t>
+  </si>
+  <si>
+    <t>Relatório de estatísticas de exibição de arquivos por meio do MQTT&lt;br&gt;&lt;i&gt;Recarregar é necessário para aplicar essa alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Raportuj statystyki przez MQTT</t>
+  </si>
+  <si>
+    <t>Raportuj statystyki wyświetlania plików przez MQTT&lt;br&gt;&lt;i&gt;Do zastosowania tej zmiany wymagane jest ponowne wczytanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Отчет о статистике через MQTT</t>
+  </si>
+  <si>
+    <t>Отчет о статистике отображения файлов через MQTT&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Informe de estadísticas a través de MQTT</t>
+  </si>
+  <si>
+    <t>Informe de estadísticas de visualización de archivos a través de MQTT&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Prijavite statistiku putem MQTT-a</t>
+  </si>
+  <si>
+    <t>Izvještaj o statistici prikaza datoteka putem MQTT-a&lt;br&gt;&lt;i&gt;Za primjenu ove promjene potrebno je ponovno učitavanje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Zasielať štatistiky cez MQTT</t>
+  </si>
+  <si>
+    <t>Automaticky zasielať štatistiky o zobrazených súboroch cez MQTT každé dve minúty.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Zasílat statistiky přes MQTT</t>
+  </si>
+  <si>
+    <t>Automaticky zasílat statistiky o zobrazených souborech přes MQTT každé dvě minuty.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Automatically send device info through MQTT every 2 minutes.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Automatically report display statistics of files through MQTT every two minutes.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Envoyez automatiquement les informations sur l'appareil via MQTT toutes les 2 minutes.&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Automatski šaljite podatke o uređaju putem MQTT svake 2 minute.&lt;br&gt;&lt;i&gt;Za primjenu ove promjene potrebno je ponovno učitavanje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Automaticky zasílat informace o zařízení přes MQTT každé dvě minuty. &lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Senden Sie automatisch alle 2 Minuten Geräteinformationen über MQTT.&lt;br&gt;&lt;i&gt;Neu laden ist erforderlich, um diese Änderung zu übernehmen.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Invia automaticamente informazioni sul dispositivo tramite MQTT ogni 2 minuti.&lt;br&gt;&lt;i&gt;Per applicare questa modifica è necessario ricaricare.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Automatycznie wysyłaj informacje o urządzeniu przez MQTT co 2 minuty.&lt;br&gt;&lt;i&gt;Do zastosowania tej zmiany wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Envie automaticamente informações do dispositivo por meio do MQTT a cada 2 minutos.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar essa alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Автоматически отправлять информацию об устройстве через MQTT каждые 2 минуты.&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Automaticky zasielať informácie o zariadení cez MQTT každé dve minúty. &lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Envíe automáticamente información del dispositivo a través de MQTT cada 2 minutos.&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>license_key_enter</t>
+  </si>
+  <si>
+    <t>free_trial</t>
+  </si>
+  <si>
+    <t>licence_key_how_to_get</t>
+  </si>
+  <si>
+    <t>license_key_device_id</t>
+  </si>
+  <si>
+    <t>license_key_valid</t>
+  </si>
+  <si>
+    <t>license_key_invalid</t>
+  </si>
+  <si>
+    <t>Free trial</t>
+  </si>
+  <si>
+    <t>Enter license key</t>
+  </si>
+  <si>
+    <t>License key is valid, application will be restarted</t>
+  </si>
+  <si>
+    <t>License key is invalid, please check if it was entered correctly</t>
+  </si>
+  <si>
+    <t>Please contact support to get the license key</t>
+  </si>
+  <si>
+    <t>Zadať licenčný kľúč</t>
+  </si>
+  <si>
+    <t>Licenčný kľúč je správny, aplikácia sa reštartuje</t>
+  </si>
+  <si>
+    <t>Licenčný kľúč nie je správny, prosím skontrolujte preklepy</t>
+  </si>
+  <si>
+    <t>Enter the license key below for the following device ID</t>
+  </si>
+  <si>
+    <t>Zadajte nižšie licenčný kľúč pre nasledujúce ID zariadenia</t>
+  </si>
+  <si>
+    <t>Prosím kontaktujte podporu pre získanie licenčného kľúča</t>
+  </si>
+  <si>
+    <t>Para licenciar favor entrar em contato com o suporte</t>
+  </si>
+  <si>
+    <t>Zadat licenční klíč</t>
+  </si>
+  <si>
+    <t>Prosím kontaktujte podporu pro získání licenčního klíče</t>
+  </si>
+  <si>
+    <t>Zadejte níže licenční klíč pro následující ID zařízení</t>
+  </si>
+  <si>
+    <t>Licenční klíč je správný, aplikace se restartuje</t>
+  </si>
+  <si>
+    <t>Licenční klíč není správný, prosím zkontrolujte překlepy</t>
+  </si>
+  <si>
+    <t>Insira chave da licença</t>
+  </si>
+  <si>
+    <t>Digite a chave de licença abaixo para o seguinte ID do dispositivo</t>
+  </si>
+  <si>
+    <t>A chave de licença é válida, o aplicativo será reiniciado</t>
+  </si>
+  <si>
+    <t>A chave de licença é inválida, verifique se foi digitada corretamente</t>
+  </si>
+  <si>
+    <t>Introduzca la clave de la licencia</t>
+  </si>
+  <si>
+    <t>Póngase en contacto con el soporte para obtener la clave de licencia</t>
+  </si>
+  <si>
+    <t>Ingrese la clave de licencia a continuación para el siguiente ID de dispositivo</t>
+  </si>
+  <si>
+    <t>La clave de licencia es válida, la aplicación se reiniciará</t>
+  </si>
+  <si>
+    <t>La clave de licencia no es válida, verifique si se ingresó correctamente</t>
+  </si>
+  <si>
+    <t>Unesite licencni ključ</t>
+  </si>
+  <si>
+    <t>Kontaktirajte podršku kako biste dobili licencni ključ</t>
+  </si>
+  <si>
+    <t>Unesite licencni ključ ispod za sljedeći ID uređaja</t>
+  </si>
+  <si>
+    <t>Ključ licence je važeći, aplikacija će se ponovno pokrenuti</t>
+  </si>
+  <si>
+    <t>Ključ licence je nevažeći, provjerite je li ispravno unesen</t>
+  </si>
+  <si>
+    <t>Entrez la clé de licence</t>
+  </si>
+  <si>
+    <t>Veuillez contacter le support pour obtenir la clé de licence</t>
+  </si>
+  <si>
+    <t>Entrez la clé de licence ci-dessous pour l'ID d'appareil suivant</t>
+  </si>
+  <si>
+    <t>La clé de licence est valide, l'application va être redémarrée</t>
+  </si>
+  <si>
+    <t>La clé de licence n'est pas valide, veuillez vérifier si elle a été saisie correctement</t>
+  </si>
+  <si>
+    <t>Gebe den Lizenzschlüssel ein</t>
+  </si>
+  <si>
+    <t>Bitte wenden Sie sich an den Support, um den Lizenzschlüssel zu erhalten</t>
+  </si>
+  <si>
+    <t>Geben Sie unten den Lizenzschlüssel für die folgende Geräte-ID ein</t>
+  </si>
+  <si>
+    <t>Der Lizenzschlüssel ist gültig, die Anwendung wird neu gestartet</t>
+  </si>
+  <si>
+    <t>Der Lizenzschlüssel ist ungültig, bitte überprüfen Sie, ob er korrekt eingegeben wurde</t>
+  </si>
+  <si>
+    <t>Inserisci la chiave di licenza</t>
+  </si>
+  <si>
+    <t>Si prega di contattare l'assistenza per ottenere la chiave di licenza</t>
+  </si>
+  <si>
+    <t>Immettere la chiave di licenza di seguito per il seguente ID dispositivo</t>
+  </si>
+  <si>
+    <t>La chiave di licenza è valida, l'applicazione verrà riavviata</t>
+  </si>
+  <si>
+    <t>La chiave di licenza non è valida, controlla se è stata inserita correttamente</t>
+  </si>
+  <si>
+    <t>Wprowadź klucz licencyjny</t>
+  </si>
+  <si>
+    <t>Skontaktuj się z pomocą techniczną, aby uzyskać klucz licencyjny</t>
+  </si>
+  <si>
+    <t>Wprowadź klucz licencyjny poniżej dla następującego identyfikatora urządzenia</t>
+  </si>
+  <si>
+    <t>Klucz licencyjny jest ważny, aplikacja zostanie ponownie uruchomiona</t>
+  </si>
+  <si>
+    <t>Klucz licencyjny jest nieprawidłowy, sprawdź, czy został wprowadzony poprawnie</t>
+  </si>
+  <si>
+    <t>Введите лицензионный ключ</t>
+  </si>
+  <si>
+    <t>Обратитесь в службу поддержки, чтобы получить лицензионный ключ</t>
+  </si>
+  <si>
+    <t>Введите лицензионный ключ ниже для следующего идентификатора устройства</t>
+  </si>
+  <si>
+    <t>Лицензионный ключ действителен, приложение будет перезапущено</t>
+  </si>
+  <si>
+    <t>Лицензионный ключ недействителен, проверьте правильность ввода</t>
   </si>
 </sst>
 </file>
@@ -25102,13 +25360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L714"/>
+  <dimension ref="A1:L722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D709" sqref="D709"/>
+      <selection pane="bottomRight" activeCell="K721" sqref="K721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -34936,7 +35194,7 @@
         <v>1587</v>
       </c>
       <c r="D259" t="s">
-        <v>8239</v>
+        <v>8228</v>
       </c>
       <c r="E259" t="s">
         <v>2882</v>
@@ -36114,7 +36372,7 @@
         <v>7159</v>
       </c>
       <c r="D290" t="s">
-        <v>8236</v>
+        <v>8225</v>
       </c>
       <c r="E290" t="s">
         <v>7160</v>
@@ -36135,7 +36393,7 @@
         <v>7793</v>
       </c>
       <c r="K290" t="s">
-        <v>8235</v>
+        <v>8224</v>
       </c>
       <c r="L290" t="s">
         <v>7165</v>
@@ -42574,7 +42832,7 @@
         <v>1785</v>
       </c>
       <c r="D460" t="s">
-        <v>8237</v>
+        <v>8226</v>
       </c>
       <c r="E460" t="s">
         <v>3074</v>
@@ -42650,7 +42908,7 @@
         <v>1787</v>
       </c>
       <c r="D462" t="s">
-        <v>8238</v>
+        <v>8227</v>
       </c>
       <c r="E462" t="s">
         <v>3076</v>
@@ -43176,37 +43434,37 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>8224</v>
+        <v>8213</v>
       </c>
       <c r="C476" t="s">
-        <v>8225</v>
+        <v>8214</v>
       </c>
       <c r="D476" t="s">
-        <v>8234</v>
+        <v>8223</v>
       </c>
       <c r="E476" t="s">
-        <v>8226</v>
+        <v>8215</v>
       </c>
       <c r="F476" t="s">
-        <v>8227</v>
+        <v>8216</v>
       </c>
       <c r="G476" t="s">
-        <v>8228</v>
+        <v>8217</v>
       </c>
       <c r="H476" t="s">
-        <v>8229</v>
+        <v>8218</v>
       </c>
       <c r="I476" t="s">
-        <v>8230</v>
+        <v>8219</v>
       </c>
       <c r="J476" t="s">
-        <v>8231</v>
+        <v>8220</v>
       </c>
       <c r="K476" t="s">
-        <v>8232</v>
+        <v>8221</v>
       </c>
       <c r="L476" t="s">
-        <v>8233</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
@@ -51314,7 +51572,7 @@
         <v>1998</v>
       </c>
       <c r="D690" t="s">
-        <v>8223</v>
+        <v>8212</v>
       </c>
       <c r="E690" t="s">
         <v>3286</v>
@@ -52036,7 +52294,7 @@
         <v>8174</v>
       </c>
       <c r="D709" t="s">
-        <v>8240</v>
+        <v>8229</v>
       </c>
       <c r="E709" t="s">
         <v>8162</v>
@@ -52106,37 +52364,37 @@
         <v>8175</v>
       </c>
       <c r="B711" t="s">
-        <v>8207</v>
+        <v>8200</v>
       </c>
       <c r="C711" t="s">
-        <v>8215</v>
+        <v>8206</v>
       </c>
       <c r="D711" t="s">
-        <v>8219</v>
+        <v>8209</v>
       </c>
       <c r="E711" t="s">
-        <v>8199</v>
+        <v>8194</v>
       </c>
       <c r="F711" t="s">
+        <v>8197</v>
+      </c>
+      <c r="G711" t="s">
+        <v>8191</v>
+      </c>
+      <c r="H711" t="s">
+        <v>8188</v>
+      </c>
+      <c r="I711" t="s">
+        <v>8182</v>
+      </c>
+      <c r="J711" t="s">
         <v>8203</v>
-      </c>
-      <c r="G711" t="s">
-        <v>8195</v>
-      </c>
-      <c r="H711" t="s">
-        <v>8191</v>
-      </c>
-      <c r="I711" t="s">
-        <v>8183</v>
-      </c>
-      <c r="J711" t="s">
-        <v>8211</v>
       </c>
       <c r="K711" t="s">
         <v>8179</v>
       </c>
       <c r="L711" t="s">
-        <v>8187</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.25">
@@ -52144,37 +52402,37 @@
         <v>8176</v>
       </c>
       <c r="B712" t="s">
-        <v>8208</v>
+        <v>8256</v>
       </c>
       <c r="C712" t="s">
-        <v>8216</v>
+        <v>8257</v>
       </c>
       <c r="D712" t="s">
-        <v>8221</v>
+        <v>8253</v>
       </c>
       <c r="E712" t="s">
-        <v>8200</v>
+        <v>8255</v>
       </c>
       <c r="F712" t="s">
-        <v>8204</v>
+        <v>8258</v>
       </c>
       <c r="G712" t="s">
-        <v>8196</v>
+        <v>8259</v>
       </c>
       <c r="H712" t="s">
-        <v>8192</v>
+        <v>8260</v>
       </c>
       <c r="I712" t="s">
-        <v>8184</v>
+        <v>8261</v>
       </c>
       <c r="J712" t="s">
-        <v>8212</v>
+        <v>8262</v>
       </c>
       <c r="K712" t="s">
-        <v>8181</v>
+        <v>8263</v>
       </c>
       <c r="L712" t="s">
-        <v>8188</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.25">
@@ -52182,37 +52440,37 @@
         <v>8177</v>
       </c>
       <c r="B713" t="s">
-        <v>8209</v>
+        <v>8201</v>
       </c>
       <c r="C713" t="s">
-        <v>8217</v>
+        <v>8207</v>
       </c>
       <c r="D713" t="s">
-        <v>8220</v>
+        <v>8210</v>
       </c>
       <c r="E713" t="s">
-        <v>8201</v>
+        <v>8195</v>
       </c>
       <c r="F713" t="s">
-        <v>8205</v>
+        <v>8198</v>
       </c>
       <c r="G713" t="s">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="H713" t="s">
-        <v>8193</v>
+        <v>8189</v>
       </c>
       <c r="I713" t="s">
-        <v>8185</v>
+        <v>8183</v>
       </c>
       <c r="J713" t="s">
-        <v>8213</v>
+        <v>8204</v>
       </c>
       <c r="K713" t="s">
         <v>8180</v>
       </c>
       <c r="L713" t="s">
-        <v>8189</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.25">
@@ -52220,37 +52478,341 @@
         <v>8178</v>
       </c>
       <c r="B714" t="s">
-        <v>8210</v>
+        <v>8202</v>
       </c>
       <c r="C714" t="s">
-        <v>8218</v>
+        <v>8208</v>
       </c>
       <c r="D714" t="s">
-        <v>8222</v>
+        <v>8211</v>
       </c>
       <c r="E714" t="s">
-        <v>8202</v>
+        <v>8196</v>
       </c>
       <c r="F714" t="s">
-        <v>8206</v>
+        <v>8199</v>
       </c>
       <c r="G714" t="s">
-        <v>8198</v>
+        <v>8193</v>
       </c>
       <c r="H714" t="s">
-        <v>8194</v>
+        <v>8190</v>
       </c>
       <c r="I714" t="s">
-        <v>8186</v>
+        <v>8184</v>
       </c>
       <c r="J714" t="s">
-        <v>8214</v>
+        <v>8205</v>
       </c>
       <c r="K714" t="s">
-        <v>8182</v>
+        <v>8181</v>
       </c>
       <c r="L714" t="s">
-        <v>8190</v>
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>8230</v>
+      </c>
+      <c r="B715" t="s">
+        <v>8247</v>
+      </c>
+      <c r="C715" t="s">
+        <v>8251</v>
+      </c>
+      <c r="D715" t="s">
+        <v>8232</v>
+      </c>
+      <c r="E715" t="s">
+        <v>8233</v>
+      </c>
+      <c r="F715" t="s">
+        <v>8235</v>
+      </c>
+      <c r="G715" t="s">
+        <v>8237</v>
+      </c>
+      <c r="H715" t="s">
+        <v>8241</v>
+      </c>
+      <c r="I715" t="s">
+        <v>8239</v>
+      </c>
+      <c r="J715" t="s">
+        <v>8243</v>
+      </c>
+      <c r="K715" t="s">
+        <v>8249</v>
+      </c>
+      <c r="L715" t="s">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>8231</v>
+      </c>
+      <c r="B716" t="s">
+        <v>8248</v>
+      </c>
+      <c r="C716" t="s">
+        <v>8252</v>
+      </c>
+      <c r="D716" t="s">
+        <v>8254</v>
+      </c>
+      <c r="E716" t="s">
+        <v>8234</v>
+      </c>
+      <c r="F716" t="s">
+        <v>8236</v>
+      </c>
+      <c r="G716" t="s">
+        <v>8238</v>
+      </c>
+      <c r="H716" t="s">
+        <v>8242</v>
+      </c>
+      <c r="I716" t="s">
+        <v>8240</v>
+      </c>
+      <c r="J716" t="s">
+        <v>8244</v>
+      </c>
+      <c r="K716" t="s">
+        <v>8250</v>
+      </c>
+      <c r="L716" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>8265</v>
+      </c>
+      <c r="B717" t="s">
+        <v>8297</v>
+      </c>
+      <c r="C717" t="s">
+        <v>8283</v>
+      </c>
+      <c r="D717" t="s">
+        <v>8272</v>
+      </c>
+      <c r="E717" t="s">
+        <v>8302</v>
+      </c>
+      <c r="F717" t="s">
+        <v>8307</v>
+      </c>
+      <c r="G717" t="s">
+        <v>8312</v>
+      </c>
+      <c r="H717" t="s">
+        <v>8317</v>
+      </c>
+      <c r="I717" t="s">
+        <v>8288</v>
+      </c>
+      <c r="J717" t="s">
+        <v>8322</v>
+      </c>
+      <c r="K717" t="s">
+        <v>8276</v>
+      </c>
+      <c r="L717" t="s">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>8266</v>
+      </c>
+      <c r="B718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="C718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="D718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="E718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="F718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="G718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="H718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="I718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="J718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="K718" t="s">
+        <v>8271</v>
+      </c>
+      <c r="L718" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>8267</v>
+      </c>
+      <c r="B719" t="s">
+        <v>8298</v>
+      </c>
+      <c r="C719" t="s">
+        <v>8284</v>
+      </c>
+      <c r="D719" t="s">
+        <v>8275</v>
+      </c>
+      <c r="E719" t="s">
+        <v>8303</v>
+      </c>
+      <c r="F719" t="s">
+        <v>8308</v>
+      </c>
+      <c r="G719" t="s">
+        <v>8313</v>
+      </c>
+      <c r="H719" t="s">
+        <v>8318</v>
+      </c>
+      <c r="I719" t="s">
+        <v>8282</v>
+      </c>
+      <c r="J719" t="s">
+        <v>8323</v>
+      </c>
+      <c r="K719" t="s">
+        <v>8281</v>
+      </c>
+      <c r="L719" t="s">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>8268</v>
+      </c>
+      <c r="B720" t="s">
+        <v>8299</v>
+      </c>
+      <c r="C720" t="s">
+        <v>8285</v>
+      </c>
+      <c r="D720" t="s">
+        <v>8279</v>
+      </c>
+      <c r="E720" t="s">
+        <v>8304</v>
+      </c>
+      <c r="F720" t="s">
+        <v>8309</v>
+      </c>
+      <c r="G720" t="s">
+        <v>8314</v>
+      </c>
+      <c r="H720" t="s">
+        <v>8319</v>
+      </c>
+      <c r="I720" t="s">
+        <v>8289</v>
+      </c>
+      <c r="J720" t="s">
+        <v>8324</v>
+      </c>
+      <c r="K720" t="s">
+        <v>8280</v>
+      </c>
+      <c r="L720" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>8269</v>
+      </c>
+      <c r="B721" t="s">
+        <v>8300</v>
+      </c>
+      <c r="C721" t="s">
+        <v>8286</v>
+      </c>
+      <c r="D721" t="s">
+        <v>8273</v>
+      </c>
+      <c r="E721" t="s">
+        <v>8305</v>
+      </c>
+      <c r="F721" t="s">
+        <v>8310</v>
+      </c>
+      <c r="G721" t="s">
+        <v>8315</v>
+      </c>
+      <c r="H721" t="s">
+        <v>8320</v>
+      </c>
+      <c r="I721" t="s">
+        <v>8290</v>
+      </c>
+      <c r="J721" t="s">
+        <v>8325</v>
+      </c>
+      <c r="K721" t="s">
+        <v>8277</v>
+      </c>
+      <c r="L721" t="s">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>8270</v>
+      </c>
+      <c r="B722" t="s">
+        <v>8301</v>
+      </c>
+      <c r="C722" t="s">
+        <v>8287</v>
+      </c>
+      <c r="D722" t="s">
+        <v>8274</v>
+      </c>
+      <c r="E722" t="s">
+        <v>8306</v>
+      </c>
+      <c r="F722" t="s">
+        <v>8311</v>
+      </c>
+      <c r="G722" t="s">
+        <v>8316</v>
+      </c>
+      <c r="H722" t="s">
+        <v>8321</v>
+      </c>
+      <c r="I722" t="s">
+        <v>8291</v>
+      </c>
+      <c r="J722" t="s">
+        <v>8326</v>
+      </c>
+      <c r="K722" t="s">
+        <v>8278</v>
+      </c>
+      <c r="L722" t="s">
+        <v>8296</v>
       </c>
     </row>
   </sheetData>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC102BB0-BE77-4C67-9AAC-811FB0F1D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5358BFD-B0C9-4657-9A59-5662FC04D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="428" yWindow="4976" windowWidth="24437" windowHeight="14642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1497" yWindow="1497" windowWidth="36784" windowHeight="17066" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11745" uniqueCount="11282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12060" uniqueCount="11580">
   <si>
     <t>keys</t>
   </si>
@@ -31516,9 +31516,6 @@
     <t>Ekranda görüntülenen web sayfalarında yerel JavaScript API kullanımına izin verir.&lt;br&gt;&lt;i&gt;Bu değişikliği uygulamak için yeniden başlatma gereklidir.&lt;/i&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Thank you for installing Slideshow - Digital Signage player, we hope you will like it.&lt;/p&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt; and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>Duração do conteúdo (segundos)</t>
   </si>
   <si>
@@ -33856,9 +33853,6 @@
     <t>On this page you can change the mapping of pressing various keyboard keys (on a keyboard or remote control connected to the Android device) to actions on the screen. It acts as keyboard shortcuts.</t>
   </si>
   <si>
-    <t>&lt;p&gt;Slideshow app has been successfully updated to newer version. There are following changes in this version:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Added Open-Meteo as a source of weather forecast&lt;/li&gt;&lt;li&gt;Added User-agent setting&lt;/li&gt;&lt;li&gt;Added API for triggering file synchronization&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>User agent for HTTP requests</t>
   </si>
   <si>
@@ -33866,6 +33860,906 @@
   </si>
   <si>
     <t>User agent pro HTTP požadavky</t>
+  </si>
+  <si>
+    <t>restart_connection</t>
+  </si>
+  <si>
+    <t>serial_state</t>
+  </si>
+  <si>
+    <t>Available serial ports</t>
+  </si>
+  <si>
+    <t>serial_ports_available</t>
+  </si>
+  <si>
+    <t>serial_port</t>
+  </si>
+  <si>
+    <t>serial_port_path</t>
+  </si>
+  <si>
+    <t>serial_port_path_help</t>
+  </si>
+  <si>
+    <t>serial_port_rate</t>
+  </si>
+  <si>
+    <t>serial_port_data_bits</t>
+  </si>
+  <si>
+    <t>serial_port_rate_help</t>
+  </si>
+  <si>
+    <t>serial_port_stop_bits</t>
+  </si>
+  <si>
+    <t>serial_port_parity</t>
+  </si>
+  <si>
+    <t>Serial port path</t>
+  </si>
+  <si>
+    <t>Serial port</t>
+  </si>
+  <si>
+    <t>Restart connection</t>
+  </si>
+  <si>
+    <t>Serial port baud rate</t>
+  </si>
+  <si>
+    <t>Serial port data bits</t>
+  </si>
+  <si>
+    <t>Serial port stop bits</t>
+  </si>
+  <si>
+    <t>Serial port parity</t>
+  </si>
+  <si>
+    <t>Serial port state</t>
+  </si>
+  <si>
+    <t>Baud rate of the serial port connection, usually 4800, 9600, 19200, 38400 or 57600.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Sériový port</t>
+  </si>
+  <si>
+    <t>Reštartovať pripojenie</t>
+  </si>
+  <si>
+    <t>Stav sériového portu</t>
+  </si>
+  <si>
+    <t>Dostupné sériové porty</t>
+  </si>
+  <si>
+    <t>Parita sériového portu</t>
+  </si>
+  <si>
+    <t>Cesta k sériovému portu</t>
+  </si>
+  <si>
+    <t>Prenosová rýchlosť sériového portu</t>
+  </si>
+  <si>
+    <t>Stop bity sériového portu</t>
+  </si>
+  <si>
+    <t>Dátové bity sériového portu</t>
+  </si>
+  <si>
+    <t>Prenosová rýchlosť pripojenia sériového portu, zvyčajne 4800, 9600, 19200, 38400 alebo 57600.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Enter 'USB' for serial over USB or '/dev/ttyXX' for direct serial. If empty, this app won't read data from serial port.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Zadajte 'USB' pre použitie USB sériového portu, alebo '/dev/ttyXX' pre priamy sériový port. Ak nie je vyplnené, táto aplikácia nebude čítať dáta zo sériového portu.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Zadejte 'USB' pro použití USB sériového portu, nebo '/dev/ttyXX' pro přímý sériový port. Pokud není vyplněno, tato aplikace nebude číst data ze sériového portu.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Přenosová rychlost sériového portu</t>
+  </si>
+  <si>
+    <t>Přenosová rychlost připojení sériového portu, obvykle 4800, 9600, 19200, 38400 nebo 57600.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Datové bity sériového portu</t>
+  </si>
+  <si>
+    <t>Restartovat připojení</t>
+  </si>
+  <si>
+    <t>Serijski priključak</t>
+  </si>
+  <si>
+    <t>Staza serijskog priključka</t>
+  </si>
+  <si>
+    <t>Unesite 'USB' za serijski preko USB-a ili '/dev/ttyXX' za izravni serijski. Ako je prazna, ova aplikacija neće čitati podatke sa serijskog priključka.&lt;br&gt;&lt;i&gt;Potrebno je ponovno učitavanje za primjenu ove promjene.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Brzina prijenosa podataka serijskog porta</t>
+  </si>
+  <si>
+    <t>Brzina prijenosa veze serijskog porta, obično 4800, 9600, 19200, 38400 ili 57600.&lt;br&gt;&lt;i&gt;Potrebno je ponovno učitavanje za primjenu ove promjene.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bitovi podataka serijskog porta</t>
+  </si>
+  <si>
+    <t>Stop bitovi serijskog porta</t>
+  </si>
+  <si>
+    <t>Paritet serijskog porta</t>
+  </si>
+  <si>
+    <t>Dostupni serijski priključci</t>
+  </si>
+  <si>
+    <t>Stanje serijskog priključka</t>
+  </si>
+  <si>
+    <t>Ponovno pokrenite vezu</t>
+  </si>
+  <si>
+    <t>Port série</t>
+  </si>
+  <si>
+    <t>Chemin du port série</t>
+  </si>
+  <si>
+    <t>Entrez 'USB' pour un port série sur USB ou '/dev/ttyXX' pour un port série direct. S'il est vide, cette application ne lira pas les données du port série.&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Débit en bauds du port série</t>
+  </si>
+  <si>
+    <t>Débit en bauds de la connexion du port série, généralement 4 800, 9 600, 19 200, 38 400 ou 57 600.&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bits de données du port série</t>
+  </si>
+  <si>
+    <t>Bits d'arrêt du port série</t>
+  </si>
+  <si>
+    <t>Parité du port série</t>
+  </si>
+  <si>
+    <t>Ports série disponibles</t>
+  </si>
+  <si>
+    <t>État du port série</t>
+  </si>
+  <si>
+    <t>Redémarrer la connexion</t>
+  </si>
+  <si>
+    <t>Serielle Schnittstelle</t>
+  </si>
+  <si>
+    <t>Pfad der seriellen Schnittstelle</t>
+  </si>
+  <si>
+    <t>Geben Sie „USB“ für seriell über USB oder „/dev/ttyXX“ für direkt seriell ein. Wenn leer, liest diese App keine Daten vom seriellen Anschluss.&lt;br&gt;&lt;i&gt;Neu laden ist erforderlich, um diese Änderung zu übernehmen.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Baudrate der seriellen Schnittstelle</t>
+  </si>
+  <si>
+    <t>Baudrate der seriellen Portverbindung, normalerweise 4800, 9600, 19200, 38400 oder 57600.&lt;br&gt;&lt;i&gt;Neu laden ist erforderlich, um diese Änderung zu übernehmen.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Datenbits der seriellen Schnittstelle</t>
+  </si>
+  <si>
+    <t>Stoppbits der seriellen Schnittstelle</t>
+  </si>
+  <si>
+    <t>Parität der seriellen Schnittstelle</t>
+  </si>
+  <si>
+    <t>Verfügbare serielle Schnittstellen</t>
+  </si>
+  <si>
+    <t>Zustand der seriellen Schnittstelle</t>
+  </si>
+  <si>
+    <t>Verbindung neu starten</t>
+  </si>
+  <si>
+    <t>Porta seriale</t>
+  </si>
+  <si>
+    <t>Percorso della porta seriale</t>
+  </si>
+  <si>
+    <t>Immettere 'USB' per seriale su USB o '/dev/ttyXX' per seriale diretta. Se vuoto, questa app non leggerà i dati dalla porta seriale.&lt;br&gt;&lt;i&gt;Per applicare questa modifica è necessario ricaricare.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Velocità di trasmissione della porta seriale</t>
+  </si>
+  <si>
+    <t>Baud rate della connessione alla porta seriale, in genere 4800, 9600, 19200, 38400 o 57600.&lt;br&gt;&lt;i&gt;Per applicare questa modifica è necessario ricaricare.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bit di dati della porta seriale</t>
+  </si>
+  <si>
+    <t>Bit di stop della porta seriale</t>
+  </si>
+  <si>
+    <t>Parità della porta seriale</t>
+  </si>
+  <si>
+    <t>Porte seriali disponibili</t>
+  </si>
+  <si>
+    <t>Stato della porta seriale</t>
+  </si>
+  <si>
+    <t>Riavvia la connessione</t>
+  </si>
+  <si>
+    <t>シリアルポート</t>
+  </si>
+  <si>
+    <t>シリアル ポート パス</t>
+  </si>
+  <si>
+    <t>Serial over USB の場合は「USB」、直接シリアルの場合は「/dev/ttyXX」と入力します。 空の場合、このアプリはシリアル ポートからデータを読み取りません。&lt;br&gt;&lt;i&gt;この変更を適用するにはリロードが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>シリアルポートのボーレート</t>
+  </si>
+  <si>
+    <t>シリアル ポート接続のボー レート。通常は 4800、9600、19200、38400、57600 です。&lt;br&gt;&lt;i&gt;この変更を適用するにはリロードが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>シリアル ポート データ ビット</t>
+  </si>
+  <si>
+    <t>シリアル ポート ストップ ビット</t>
+  </si>
+  <si>
+    <t>シリアル ポート パリティ</t>
+  </si>
+  <si>
+    <t>利用可能なシリアル ポート</t>
+  </si>
+  <si>
+    <t>シリアル ポートの状態</t>
+  </si>
+  <si>
+    <t>接続を再開する</t>
+  </si>
+  <si>
+    <t>Port szeregowy</t>
+  </si>
+  <si>
+    <t>Ścieżka portu szeregowego</t>
+  </si>
+  <si>
+    <t>Wprowadź „USB” dla portu szeregowego przez USB lub „/dev/ttyXX” dla bezpośredniego portu szeregowego. Jeśli jest pusta, ta aplikacja nie odczyta danych z portu szeregowego.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Szybkość transmisji portu szeregowego</t>
+  </si>
+  <si>
+    <t>Szybkość transmisji połączenia portu szeregowego, zwykle 4800, 9600, 19200, 38400 lub 57600.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bity danych portu szeregowego</t>
+  </si>
+  <si>
+    <t>Bity stopu portu szeregowego</t>
+  </si>
+  <si>
+    <t>Parzystość portu szeregowego</t>
+  </si>
+  <si>
+    <t>Dostępne porty szeregowe</t>
+  </si>
+  <si>
+    <t>Stan portu szeregowego</t>
+  </si>
+  <si>
+    <t>Uruchom ponownie połączenie</t>
+  </si>
+  <si>
+    <t>Porta serial</t>
+  </si>
+  <si>
+    <t>Caminho da porta serial</t>
+  </si>
+  <si>
+    <t>Digite 'USB' para serial sobre USB ou '/dev/ttyXX' para serial direto. Se estiver vazio, este aplicativo não lerá os dados da porta serial.&lt;br&gt;&lt;i&gt;Recarregar é necessário para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Taxa de transmissão da porta serial</t>
+  </si>
+  <si>
+    <t>Taxa de transmissão da conexão da porta serial, geralmente 4800, 9600, 19200, 38400 ou 57600.&lt;br&gt;&lt;i&gt;Recarregar é necessário para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bits de dados da porta serial</t>
+  </si>
+  <si>
+    <t>Bits de parada da porta serial</t>
+  </si>
+  <si>
+    <t>Paridade da porta serial</t>
+  </si>
+  <si>
+    <t>Portas seriais disponíveis</t>
+  </si>
+  <si>
+    <t>estado da porta serial</t>
+  </si>
+  <si>
+    <t>Reinicie a conexão</t>
+  </si>
+  <si>
+    <t>Серийный порт</t>
+  </si>
+  <si>
+    <t>Путь последовательного порта</t>
+  </si>
+  <si>
+    <t>Введите «USB» для последовательного порта через USB или «/dev/ttyXX» для прямого последовательного порта. Если пусто, это приложение не будет считывать данные из последовательного порта.&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Скорость передачи данных последовательного порта</t>
+  </si>
+  <si>
+    <t>Скорость соединения последовательного порта, обычно 4800, 9600, 19200, 38400 или 57600.&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Биты данных последовательного порта</t>
+  </si>
+  <si>
+    <t>Стоповые биты последовательного порта</t>
+  </si>
+  <si>
+    <t>Паритет последовательного порта</t>
+  </si>
+  <si>
+    <t>Доступные последовательные порты</t>
+  </si>
+  <si>
+    <t>Состояние последовательного порта</t>
+  </si>
+  <si>
+    <t>Перезапустить соединение</t>
+  </si>
+  <si>
+    <t>Serijska vrata</t>
+  </si>
+  <si>
+    <t>Pot serijskih vrat</t>
+  </si>
+  <si>
+    <t>Vnesite 'USB' za serijsko prek USB-ja ali '/dev/ttyXX' za neposredno serijsko povezavo. Če je prazno, ta aplikacija ne bo brala podatkov iz serijskih vrat.&lt;br&gt;&lt;i&gt;Za uveljavitev te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Hitrost prenosa serijskih vrat</t>
+  </si>
+  <si>
+    <t>Hitrost prenosa za povezavo serijskih vrat, običajno 4800, 9600, 19200, 38400 ali 57600.&lt;br&gt;&lt;i&gt;Za uveljavitev te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Podatkovni biti serijskih vrat</t>
+  </si>
+  <si>
+    <t>Stop bit serijskih vrat</t>
+  </si>
+  <si>
+    <t>Pariteta serijskih vrat</t>
+  </si>
+  <si>
+    <t>Razpoložljiva serijska vrata</t>
+  </si>
+  <si>
+    <t>Stanje serijskih vrat</t>
+  </si>
+  <si>
+    <t>Znova zaženite povezavo</t>
+  </si>
+  <si>
+    <t>Puerto serial</t>
+  </si>
+  <si>
+    <t>Ruta del puerto serie</t>
+  </si>
+  <si>
+    <t>Ingrese 'USB' para serie sobre USB o '/dev/ttyXX' para serie directa. Si está vacía, esta aplicación no leerá los datos del puerto serie.&lt;br&gt;&lt;i&gt;Se requiere recargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Tasa de baudios del puerto serie</t>
+  </si>
+  <si>
+    <t>Tasa de baudios de la conexión del puerto serie, generalmente 4800, 9600, 19200, 38400 o 57600.&lt;br&gt;&lt;i&gt;Se requiere recargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bits de datos del puerto serie</t>
+  </si>
+  <si>
+    <t>Bits de parada de puerto serie</t>
+  </si>
+  <si>
+    <t>Paridad de puerto serie</t>
+  </si>
+  <si>
+    <t>Puertos serie disponibles</t>
+  </si>
+  <si>
+    <t>Estado del puerto serie</t>
+  </si>
+  <si>
+    <t>Reiniciar conexión</t>
+  </si>
+  <si>
+    <t>Seri port</t>
+  </si>
+  <si>
+    <t>seri port yolu</t>
+  </si>
+  <si>
+    <t>USB üzerinden seri için 'USB' veya doğrudan seri için '/dev/ttyXX' girin. Boşsa bu uygulama seri bağlantı noktasından veri okumaz.&lt;br&gt;&lt;i&gt;Bu değişikliği uygulamak için yeniden yükleme gerekir.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Seri bağlantı noktası baud hızı</t>
+  </si>
+  <si>
+    <t>Seri bağlantı noktası bağlantısının baud hızı genellikle 4800, 9600, 19200, 38400 veya 57600'dür.&lt;br&gt;&lt;i&gt;Bu değişikliği uygulamak için yeniden yükleme gereklidir.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Seri port veri bitleri</t>
+  </si>
+  <si>
+    <t>Seri port durdurma bitleri</t>
+  </si>
+  <si>
+    <t>seri port paritesi</t>
+  </si>
+  <si>
+    <t>Kullanılabilir seri bağlantı noktaları</t>
+  </si>
+  <si>
+    <t>seri bağlantı noktası durumu</t>
+  </si>
+  <si>
+    <t>Bağlantıyı yeniden başlat</t>
+  </si>
+  <si>
+    <t>preferred_quality_help</t>
+  </si>
+  <si>
+    <t>Preferred quality</t>
+  </si>
+  <si>
+    <t>Preferred video quality. YouTube might not always honor this setting. Change only if "Automatic" doesn't produce the correct result.</t>
+  </si>
+  <si>
+    <t>preferred_quality</t>
+  </si>
+  <si>
+    <t>Preferovaná kvalita</t>
+  </si>
+  <si>
+    <t>Preferovaná kvalita videa. YouTube nemusí vždy použiť túto kvalitu. Zmeňte len v prípade, že "Automatic" nefunguje podľa očakávaní.</t>
+  </si>
+  <si>
+    <t>Tercih edilen kalite</t>
+  </si>
+  <si>
+    <t>Tercih edilen video kalitesi. YouTube bu ayara her zaman uymayabilir. Yalnızca "Automatic" doğru sonucu vermiyorsa değiştirin.</t>
+  </si>
+  <si>
+    <t>Calidad preferida</t>
+  </si>
+  <si>
+    <t>Calidad de video preferida. Es posible que YouTube no siempre respete esta configuración. Cambie solo si "Automatic" no produce el resultado correcto.</t>
+  </si>
+  <si>
+    <t>Prednostna kakovost</t>
+  </si>
+  <si>
+    <t>Prednostna kakovost videa. YouTube morda ne bo vedno upošteval te nastavitve. Spremenite samo, če "Automatic" ne daje pravilnega rezultata.</t>
+  </si>
+  <si>
+    <t>Предпочтительное качество</t>
+  </si>
+  <si>
+    <t>Предпочтительное качество видео. YouTube может не всегда соблюдать этот параметр. Изменяйте только в том случае, если «Automatic» не дает правильного результата.</t>
+  </si>
+  <si>
+    <t>Qualidade preferida</t>
+  </si>
+  <si>
+    <t>Qualidade de vídeo preferida. O YouTube pode nem sempre honrar essa configuração. Altere apenas se "Automatic" não produzir o resultado correto.</t>
+  </si>
+  <si>
+    <t>Preferowana jakość</t>
+  </si>
+  <si>
+    <t>Preferowana jakość wideo. YouTube może nie zawsze honorować to ustawienie. Zmień tylko wtedy, gdy „Automatic” nie daje prawidłowego wyniku.</t>
+  </si>
+  <si>
+    <t>好ましい品質</t>
+  </si>
+  <si>
+    <t>優先ビデオ品質。 YouTube がこの設定を常に尊重するとは限りません。 「Automatic」で正しい結果が得られない場合にのみ変更してください。</t>
+  </si>
+  <si>
+    <t>Qualità preferita</t>
+  </si>
+  <si>
+    <t>Qualità video preferita. YouTube potrebbe non rispettare sempre questa impostazione. Cambia solo se "Automatic" non produce il risultato corretto.</t>
+  </si>
+  <si>
+    <t>Bevorzugte Qualität</t>
+  </si>
+  <si>
+    <t>Bevorzugte Videoqualität. YouTube berücksichtigt diese Einstellung möglicherweise nicht immer. Nur ändern, wenn "Automatic" nicht das richtige Ergebnis liefert.</t>
+  </si>
+  <si>
+    <t>Qualité préférée</t>
+  </si>
+  <si>
+    <t>Qualité vidéo préférée. YouTube peut ne pas toujours respecter ce paramètre. Modifiez uniquement si "Automatic" ne produit pas le bon résultat.</t>
+  </si>
+  <si>
+    <t>Preferirana kvaliteta</t>
+  </si>
+  <si>
+    <t>Preferirana kvaliteta videa. YouTube možda neće uvijek poštovati ovu postavku. Promijenite samo ako "Automatic" ne daje točan rezultat.</t>
+  </si>
+  <si>
+    <t>Preferovaná kvalita videa. YouTube nemusí vždy použít tuto kvalitu. Změňte jen v případě, že "Automatic" nefunguje podle očekávání.</t>
+  </si>
+  <si>
+    <t>view_folder_in_file_manager</t>
+  </si>
+  <si>
+    <t>number_of_files</t>
+  </si>
+  <si>
+    <t>View folder in File manager</t>
+  </si>
+  <si>
+    <t>Number of files</t>
+  </si>
+  <si>
+    <t>Počet súborov</t>
+  </si>
+  <si>
+    <t>Zobraziť priečinok v Správcovi súborov</t>
+  </si>
+  <si>
+    <t>Zobrazit složku ve Správci souborů</t>
+  </si>
+  <si>
+    <t>Počet souborů</t>
+  </si>
+  <si>
+    <t>Pogledajte mapu u Upravitelju datotekama</t>
+  </si>
+  <si>
+    <t>Broj datoteka</t>
+  </si>
+  <si>
+    <t>Afficher le dossier dans le gestionnaire de fichiers</t>
+  </si>
+  <si>
+    <t>Nombre de fichiers</t>
+  </si>
+  <si>
+    <t>Ordner im Dateimanager anzeigen</t>
+  </si>
+  <si>
+    <t>Anzahl der Dateien</t>
+  </si>
+  <si>
+    <t>Visualizza la cartella in File manager</t>
+  </si>
+  <si>
+    <t>Numero di file</t>
+  </si>
+  <si>
+    <t>ファイルマネージャでフォルダを表示</t>
+  </si>
+  <si>
+    <t>ファイル数</t>
+  </si>
+  <si>
+    <t>Wyświetl folder w Menedżerze plików</t>
+  </si>
+  <si>
+    <t>Liczba plików</t>
+  </si>
+  <si>
+    <t>Exibir pasta no gerenciador de arquivos</t>
+  </si>
+  <si>
+    <t>Número de arquivos</t>
+  </si>
+  <si>
+    <t>Посмотреть папку в файловом менеджере</t>
+  </si>
+  <si>
+    <t>Количество файлов</t>
+  </si>
+  <si>
+    <t>Ogled mape v upravitelju datotek</t>
+  </si>
+  <si>
+    <t>Število datotek</t>
+  </si>
+  <si>
+    <t>Ver carpeta en Administrador de archivos</t>
+  </si>
+  <si>
+    <t>Número de archivos</t>
+  </si>
+  <si>
+    <t>Klasörü Dosya yöneticisinde görüntüle</t>
+  </si>
+  <si>
+    <t>Dosya sayısı</t>
+  </si>
+  <si>
+    <t>image_background_type</t>
+  </si>
+  <si>
+    <t>image_background_type_help</t>
+  </si>
+  <si>
+    <t>image_background_type_NONE</t>
+  </si>
+  <si>
+    <t>image_background_type_BLURRED</t>
+  </si>
+  <si>
+    <t>image_background_type_BLURRED_LIGHTER</t>
+  </si>
+  <si>
+    <t>image_background_type_BLURRED_DARKER</t>
+  </si>
+  <si>
+    <t>Image background type</t>
+  </si>
+  <si>
+    <t>Blurred</t>
+  </si>
+  <si>
+    <t>Whether to fill the background of the zone with a blurred copy of the image in case the image has a different aspect ratio than the zone. Applicable only for image files. Overrides image scaling type to "Fit center".</t>
+  </si>
+  <si>
+    <t>Typ pozadia obrázkov</t>
+  </si>
+  <si>
+    <t>Žiadne</t>
+  </si>
+  <si>
+    <t>Rozmazané</t>
+  </si>
+  <si>
+    <t>Rozmazané a zosvetlené</t>
+  </si>
+  <si>
+    <t>Rozmazané a stmavené</t>
+  </si>
+  <si>
+    <t>Blurred &amp; lightened</t>
+  </si>
+  <si>
+    <t>Blurred &amp; darkened</t>
+  </si>
+  <si>
+    <t>Či sa má vyplniť pozadie zóny rozmazanou kópiou obrázka v prípade, že má obrázok iný pomer strán ako zóna. Použiteľné len pre obrazové súbory. Prepíše typ škálovania obrázkov na "Fit center".</t>
+  </si>
+  <si>
+    <t>Typ pozadí obrázků</t>
+  </si>
+  <si>
+    <t>Zda se má vyplnit pozadí zóny rozmazanou kopií obrázku v případě, že má obrázek jiný poměr stran než zóna. Použitelné pouze pro obrazové soubory. Přepíše typ škálování obrázků na "Fit center".</t>
+  </si>
+  <si>
+    <t>Žádné</t>
+  </si>
+  <si>
+    <t>Rozmazané a zesvětlené</t>
+  </si>
+  <si>
+    <t>Rozmazané a ztmavené</t>
+  </si>
+  <si>
+    <t>Vrsta pozadine slike</t>
+  </si>
+  <si>
+    <t>Nijedan</t>
+  </si>
+  <si>
+    <t>Zamagljen</t>
+  </si>
+  <si>
+    <t>Zamućeno i posvijetljeno</t>
+  </si>
+  <si>
+    <t>Zamućeno i zatamnjeno</t>
+  </si>
+  <si>
+    <t>Treba li ispuniti pozadinu zone zamućenom kopijom slike u slučaju da slika ima drugačiji omjer širine i visine slike od zone. Primjenjivo samo za slikovne datoteke. Zamjenjuje vrstu skaliranja slike na "Fit center".</t>
+  </si>
+  <si>
+    <t>Type d'arrière-plan de l'image</t>
+  </si>
+  <si>
+    <t>S'il faut remplir l'arrière-plan de la zone avec une copie floue de l'image dans le cas où l'image a un rapport d'aspect différent de celui de la zone. Applicable uniquement pour les fichiers image. Remplace le type de mise à l'échelle de l'image par "Fit center".</t>
+  </si>
+  <si>
+    <t>Flou</t>
+  </si>
+  <si>
+    <t>Flou et éclairci</t>
+  </si>
+  <si>
+    <t>Flou et assombri</t>
+  </si>
+  <si>
+    <t>Bildhintergrundtyp</t>
+  </si>
+  <si>
+    <t>Ob der Hintergrund der Zone mit einer unscharfen Kopie des Bildes gefüllt werden soll, falls das Bild ein anderes Seitenverhältnis als die Zone hat. Gilt nur für Bilddateien. Überschreibt den Bildskalierungstyp auf "Fit center".</t>
+  </si>
+  <si>
+    <t>Verschwommen</t>
+  </si>
+  <si>
+    <t>Verschwommen &amp; aufgehellt</t>
+  </si>
+  <si>
+    <t>Verschwommen &amp; verdunkelt</t>
+  </si>
+  <si>
+    <t>Tipo di sfondo dell'immagine</t>
+  </si>
+  <si>
+    <t>Se riempire lo sfondo della zona con una copia sfocata dell'immagine nel caso in cui l'immagine abbia proporzioni diverse rispetto alla zona. Applicabile solo per i file immagine. Sostituisce il tipo di ridimensionamento dell'immagine su "Fit center".</t>
+  </si>
+  <si>
+    <t>Nessuno</t>
+  </si>
+  <si>
+    <t>Sfocato</t>
+  </si>
+  <si>
+    <t>Sfocato e alleggerito</t>
+  </si>
+  <si>
+    <t>Sfocato e oscurato</t>
+  </si>
+  <si>
+    <t>画像背景タイプ</t>
+  </si>
+  <si>
+    <t>画像の縦横比がゾーンと異なる場合に、ゾーンの背景をぼやけた画像のコピーで埋めるかどうか。 画像ファイルにのみ適用されます。 画像のスケーリング タイプを「Fit center」にオーバーライドします。</t>
+  </si>
+  <si>
+    <t>ぼやけた</t>
+  </si>
+  <si>
+    <t>ぼかし＆明るく</t>
+  </si>
+  <si>
+    <t>ぼやけて暗くなる</t>
+  </si>
+  <si>
+    <t>Typ tła obrazu</t>
+  </si>
+  <si>
+    <t>Czy wypełnić tło strefy rozmytą kopią obrazu w przypadku, gdy obraz ma inne proporcje niż strefa. Dotyczy tylko plików graficznych. Zastępuje typ skalowania obrazu na „Fit center”.</t>
+  </si>
+  <si>
+    <t>Zamazany</t>
+  </si>
+  <si>
+    <t>Rozmyte i rozjaśnione</t>
+  </si>
+  <si>
+    <t>Niewyraźne i zaciemnione</t>
+  </si>
+  <si>
+    <t>Tipo de plano de fundo da imagem</t>
+  </si>
+  <si>
+    <t>Se o plano de fundo da zona deve ser preenchido com uma cópia desfocada da imagem, caso a imagem tenha uma proporção diferente da zona. Aplicável apenas para arquivos de imagem. Substitui o tipo de dimensionamento da imagem para "Fit center".</t>
+  </si>
+  <si>
+    <t>Borrado</t>
+  </si>
+  <si>
+    <t>Desfocado e iluminado</t>
+  </si>
+  <si>
+    <t>Desfocado e escurecido</t>
+  </si>
+  <si>
+    <t>Тип фона изображения</t>
+  </si>
+  <si>
+    <t>Заполнять ли фон зоны размытой копией изображения в случае, если у изображения другое соотношение сторон, чем у зоны. Применимо только к файлам изображений. Переопределяет тип масштабирования изображения на «Fit center».</t>
+  </si>
+  <si>
+    <t>Размытый</t>
+  </si>
+  <si>
+    <t>Размытый и осветленный</t>
+  </si>
+  <si>
+    <t>Размытый и затемненный</t>
+  </si>
+  <si>
+    <t>Vrsta ozadja slike</t>
+  </si>
+  <si>
+    <t>Ali naj se ozadje območja zapolni z zamegljeno kopijo slike, če ima slika drugačno razmerje stranic kot območje. Velja samo za slikovne datoteke. Preglasi vrsto spreminjanja velikosti slike v »Fit center«.</t>
+  </si>
+  <si>
+    <t>Noben</t>
+  </si>
+  <si>
+    <t>Zamegljen</t>
+  </si>
+  <si>
+    <t>Zamegljeno in osvetljeno</t>
+  </si>
+  <si>
+    <t>Zamegljeno in zatemnjeno</t>
+  </si>
+  <si>
+    <t>Tipo de fondo de imagen</t>
+  </si>
+  <si>
+    <t>Si rellenar el fondo de la zona con una copia borrosa de la imagen en caso de que la imagen tenga una relación de aspecto diferente a la de la zona. Aplicable solo para archivos de imagen. Anula el tipo de escala de imagen a "Fit center".</t>
+  </si>
+  <si>
+    <t>Borroso</t>
+  </si>
+  <si>
+    <t>Borroso y aligerado</t>
+  </si>
+  <si>
+    <t>Borroso y oscurecido</t>
+  </si>
+  <si>
+    <t>Görüntü arka plan türü</t>
+  </si>
+  <si>
+    <t>Görüntünün bölgeden farklı bir en boy oranına sahip olması durumunda, bölgenin arka planının görüntünün bulanık bir kopyasıyla doldurulup doldurulmayacağı. Yalnızca görüntü dosyaları için geçerlidir. Görüntü ölçeklendirme türünü "Fit center" olarak geçersiz kılar.</t>
+  </si>
+  <si>
+    <t>Bulanık</t>
+  </si>
+  <si>
+    <t>Bulanık ve açık</t>
+  </si>
+  <si>
+    <t>Bulanık ve karartılmış</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Slideshow app has been successfully updated to newer version. There are following changes in this version:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Added support for communication over serial port&lt;/li&gt;&lt;li&gt;Added support for setting preferred quality of YouTube videos&lt;/li&gt;&lt;li&gt;Added support for blurry background for images&lt;/li&gt;&lt;li&gt;Added API call for displaying previous file&lt;/li&gt;&lt;li&gt;Enhanced displaying Excel files&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Thank you for installing Slideshow - Digital Signage player, we hope you will like it.&lt;/p&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt; and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -34264,13 +35158,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O783"/>
+  <dimension ref="A1:O804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B756" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B649" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C783" sqref="C783"/>
+      <selection pane="bottomRight" activeCell="D673" sqref="D673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
@@ -34324,7 +35218,7 @@
         <v>5379</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10500</v>
+        <v>10499</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5889</v>
@@ -34371,7 +35265,7 @@
         <v>6516</v>
       </c>
       <c r="M2" t="s">
-        <v>10501</v>
+        <v>10500</v>
       </c>
       <c r="N2" t="s">
         <v>5890</v>
@@ -34465,7 +35359,7 @@
         <v>5380</v>
       </c>
       <c r="M4" t="s">
-        <v>10502</v>
+        <v>10501</v>
       </c>
       <c r="N4" t="s">
         <v>5892</v>
@@ -34512,7 +35406,7 @@
         <v>5381</v>
       </c>
       <c r="M5" t="s">
-        <v>10503</v>
+        <v>10502</v>
       </c>
       <c r="N5" t="s">
         <v>5893</v>
@@ -34559,7 +35453,7 @@
         <v>1254</v>
       </c>
       <c r="M6" t="s">
-        <v>10504</v>
+        <v>10503</v>
       </c>
       <c r="N6" t="s">
         <v>1834</v>
@@ -34606,7 +35500,7 @@
         <v>5382</v>
       </c>
       <c r="M7" t="s">
-        <v>10505</v>
+        <v>10504</v>
       </c>
       <c r="N7" t="s">
         <v>5894</v>
@@ -34653,7 +35547,7 @@
         <v>5383</v>
       </c>
       <c r="M8" t="s">
-        <v>10506</v>
+        <v>10505</v>
       </c>
       <c r="N8" t="s">
         <v>5895</v>
@@ -34700,7 +35594,7 @@
         <v>5384</v>
       </c>
       <c r="M9" t="s">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="N9" t="s">
         <v>5896</v>
@@ -34747,7 +35641,7 @@
         <v>5385</v>
       </c>
       <c r="M10" t="s">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="N10" t="s">
         <v>5897</v>
@@ -34841,7 +35735,7 @@
         <v>637</v>
       </c>
       <c r="M12" t="s">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="N12" t="s">
         <v>5898</v>
@@ -34982,7 +35876,7 @@
         <v>5389</v>
       </c>
       <c r="M15" t="s">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="N15" t="s">
         <v>5899</v>
@@ -35029,7 +35923,7 @@
         <v>5390</v>
       </c>
       <c r="M16" t="s">
-        <v>10511</v>
+        <v>10510</v>
       </c>
       <c r="N16" t="s">
         <v>5900</v>
@@ -35076,7 +35970,7 @@
         <v>5391</v>
       </c>
       <c r="M17" t="s">
-        <v>10512</v>
+        <v>10511</v>
       </c>
       <c r="N17" t="s">
         <v>5901</v>
@@ -35123,7 +36017,7 @@
         <v>1265</v>
       </c>
       <c r="M18" t="s">
-        <v>10513</v>
+        <v>10512</v>
       </c>
       <c r="N18" t="s">
         <v>5902</v>
@@ -35170,7 +36064,7 @@
         <v>5392</v>
       </c>
       <c r="M19" t="s">
-        <v>10514</v>
+        <v>10513</v>
       </c>
       <c r="N19" t="s">
         <v>5903</v>
@@ -35217,7 +36111,7 @@
         <v>5393</v>
       </c>
       <c r="M20" t="s">
-        <v>10515</v>
+        <v>10514</v>
       </c>
       <c r="N20" t="s">
         <v>5904</v>
@@ -35264,7 +36158,7 @@
         <v>5394</v>
       </c>
       <c r="M21" t="s">
-        <v>10516</v>
+        <v>10515</v>
       </c>
       <c r="N21" t="s">
         <v>5905</v>
@@ -35311,7 +36205,7 @@
         <v>5395</v>
       </c>
       <c r="M22" t="s">
-        <v>10517</v>
+        <v>10516</v>
       </c>
       <c r="N22" t="s">
         <v>5906</v>
@@ -35358,7 +36252,7 @@
         <v>5396</v>
       </c>
       <c r="M23" t="s">
-        <v>10518</v>
+        <v>10517</v>
       </c>
       <c r="N23" t="s">
         <v>5907</v>
@@ -35405,7 +36299,7 @@
         <v>5397</v>
       </c>
       <c r="M24" t="s">
-        <v>10519</v>
+        <v>10518</v>
       </c>
       <c r="N24" t="s">
         <v>5908</v>
@@ -35452,7 +36346,7 @@
         <v>5398</v>
       </c>
       <c r="M25" t="s">
-        <v>10520</v>
+        <v>10519</v>
       </c>
       <c r="N25" t="s">
         <v>5909</v>
@@ -35499,7 +36393,7 @@
         <v>1273</v>
       </c>
       <c r="M26" t="s">
-        <v>10521</v>
+        <v>10520</v>
       </c>
       <c r="N26" t="s">
         <v>5910</v>
@@ -35546,7 +36440,7 @@
         <v>1274</v>
       </c>
       <c r="M27" t="s">
-        <v>10522</v>
+        <v>10521</v>
       </c>
       <c r="N27" t="s">
         <v>5911</v>
@@ -35593,7 +36487,7 @@
         <v>5399</v>
       </c>
       <c r="M28" t="s">
-        <v>10523</v>
+        <v>10522</v>
       </c>
       <c r="N28" t="s">
         <v>5912</v>
@@ -35640,7 +36534,7 @@
         <v>5400</v>
       </c>
       <c r="M29" t="s">
-        <v>11194</v>
+        <v>11193</v>
       </c>
       <c r="N29" t="s">
         <v>5913</v>
@@ -35687,7 +36581,7 @@
         <v>5401</v>
       </c>
       <c r="M30" t="s">
-        <v>10524</v>
+        <v>10523</v>
       </c>
       <c r="N30" t="s">
         <v>5914</v>
@@ -35734,7 +36628,7 @@
         <v>5402</v>
       </c>
       <c r="M31" t="s">
-        <v>10525</v>
+        <v>10524</v>
       </c>
       <c r="N31" t="s">
         <v>5915</v>
@@ -35781,7 +36675,7 @@
         <v>5403</v>
       </c>
       <c r="M32" t="s">
-        <v>10526</v>
+        <v>10525</v>
       </c>
       <c r="N32" t="s">
         <v>5916</v>
@@ -35828,7 +36722,7 @@
         <v>5404</v>
       </c>
       <c r="M33" t="s">
-        <v>10527</v>
+        <v>10526</v>
       </c>
       <c r="N33" t="s">
         <v>5917</v>
@@ -35875,7 +36769,7 @@
         <v>1281</v>
       </c>
       <c r="M34" t="s">
-        <v>10528</v>
+        <v>10527</v>
       </c>
       <c r="N34" t="s">
         <v>1281</v>
@@ -35922,7 +36816,7 @@
         <v>1282</v>
       </c>
       <c r="M35" t="s">
-        <v>10529</v>
+        <v>10528</v>
       </c>
       <c r="N35" t="s">
         <v>5918</v>
@@ -36016,7 +36910,7 @@
         <v>5405</v>
       </c>
       <c r="M37" t="s">
-        <v>10530</v>
+        <v>10529</v>
       </c>
       <c r="N37" t="s">
         <v>8546</v>
@@ -36063,7 +36957,7 @@
         <v>5406</v>
       </c>
       <c r="M38" t="s">
-        <v>10531</v>
+        <v>10530</v>
       </c>
       <c r="N38" t="s">
         <v>5919</v>
@@ -36110,7 +37004,7 @@
         <v>5407</v>
       </c>
       <c r="M39" t="s">
-        <v>10532</v>
+        <v>10531</v>
       </c>
       <c r="N39" t="s">
         <v>5920</v>
@@ -36157,7 +37051,7 @@
         <v>5408</v>
       </c>
       <c r="M40" t="s">
-        <v>10533</v>
+        <v>10532</v>
       </c>
       <c r="N40" t="s">
         <v>5921</v>
@@ -36204,7 +37098,7 @@
         <v>5409</v>
       </c>
       <c r="M41" t="s">
-        <v>10534</v>
+        <v>10533</v>
       </c>
       <c r="N41" t="s">
         <v>5922</v>
@@ -36251,7 +37145,7 @@
         <v>1289</v>
       </c>
       <c r="M42" t="s">
-        <v>10535</v>
+        <v>10534</v>
       </c>
       <c r="N42" t="s">
         <v>5923</v>
@@ -36298,7 +37192,7 @@
         <v>5410</v>
       </c>
       <c r="M43" t="s">
-        <v>10536</v>
+        <v>10535</v>
       </c>
       <c r="N43" t="s">
         <v>5924</v>
@@ -36345,7 +37239,7 @@
         <v>1291</v>
       </c>
       <c r="M44" t="s">
-        <v>10537</v>
+        <v>10536</v>
       </c>
       <c r="N44" t="s">
         <v>5925</v>
@@ -36392,7 +37286,7 @@
         <v>5411</v>
       </c>
       <c r="M45" t="s">
-        <v>10538</v>
+        <v>10537</v>
       </c>
       <c r="N45" t="s">
         <v>5926</v>
@@ -36439,7 +37333,7 @@
         <v>5412</v>
       </c>
       <c r="M46" t="s">
-        <v>10539</v>
+        <v>10538</v>
       </c>
       <c r="N46" t="s">
         <v>5927</v>
@@ -36486,7 +37380,7 @@
         <v>1294</v>
       </c>
       <c r="M47" t="s">
-        <v>10540</v>
+        <v>10539</v>
       </c>
       <c r="N47" t="s">
         <v>5928</v>
@@ -36533,7 +37427,7 @@
         <v>5413</v>
       </c>
       <c r="M48" t="s">
-        <v>10541</v>
+        <v>10540</v>
       </c>
       <c r="N48" t="s">
         <v>5929</v>
@@ -36580,7 +37474,7 @@
         <v>5414</v>
       </c>
       <c r="M49" t="s">
-        <v>10542</v>
+        <v>10541</v>
       </c>
       <c r="N49" t="s">
         <v>5930</v>
@@ -36627,7 +37521,7 @@
         <v>5415</v>
       </c>
       <c r="M50" t="s">
-        <v>10543</v>
+        <v>10542</v>
       </c>
       <c r="N50" t="s">
         <v>5931</v>
@@ -36674,7 +37568,7 @@
         <v>5416</v>
       </c>
       <c r="M51" t="s">
-        <v>10544</v>
+        <v>10543</v>
       </c>
       <c r="N51" t="s">
         <v>5932</v>
@@ -36721,7 +37615,7 @@
         <v>5417</v>
       </c>
       <c r="M52" t="s">
-        <v>10545</v>
+        <v>10544</v>
       </c>
       <c r="N52" t="s">
         <v>5933</v>
@@ -36768,7 +37662,7 @@
         <v>5418</v>
       </c>
       <c r="M53" t="s">
-        <v>10546</v>
+        <v>10545</v>
       </c>
       <c r="N53" t="s">
         <v>5934</v>
@@ -36815,7 +37709,7 @@
         <v>5419</v>
       </c>
       <c r="M54" t="s">
-        <v>10547</v>
+        <v>10546</v>
       </c>
       <c r="N54" t="s">
         <v>5935</v>
@@ -36862,7 +37756,7 @@
         <v>1302</v>
       </c>
       <c r="M55" t="s">
-        <v>10548</v>
+        <v>10547</v>
       </c>
       <c r="N55" t="s">
         <v>5936</v>
@@ -36909,7 +37803,7 @@
         <v>5420</v>
       </c>
       <c r="M56" t="s">
-        <v>10549</v>
+        <v>10548</v>
       </c>
       <c r="N56" t="s">
         <v>5937</v>
@@ -36956,7 +37850,7 @@
         <v>5421</v>
       </c>
       <c r="M57" t="s">
-        <v>10550</v>
+        <v>10549</v>
       </c>
       <c r="N57" t="s">
         <v>5938</v>
@@ -37003,7 +37897,7 @@
         <v>5422</v>
       </c>
       <c r="M58" t="s">
-        <v>10551</v>
+        <v>10550</v>
       </c>
       <c r="N58" t="s">
         <v>5939</v>
@@ -37050,7 +37944,7 @@
         <v>5423</v>
       </c>
       <c r="M59" t="s">
-        <v>10552</v>
+        <v>10551</v>
       </c>
       <c r="N59" t="s">
         <v>5940</v>
@@ -37097,7 +37991,7 @@
         <v>5424</v>
       </c>
       <c r="M60" t="s">
-        <v>10553</v>
+        <v>10552</v>
       </c>
       <c r="N60" t="s">
         <v>5941</v>
@@ -37144,7 +38038,7 @@
         <v>5425</v>
       </c>
       <c r="M61" t="s">
-        <v>10554</v>
+        <v>10553</v>
       </c>
       <c r="N61" t="s">
         <v>5942</v>
@@ -37191,7 +38085,7 @@
         <v>5426</v>
       </c>
       <c r="M62" t="s">
-        <v>10555</v>
+        <v>10554</v>
       </c>
       <c r="N62" t="s">
         <v>5943</v>
@@ -37238,7 +38132,7 @@
         <v>5427</v>
       </c>
       <c r="M63" t="s">
-        <v>10556</v>
+        <v>10555</v>
       </c>
       <c r="N63" t="s">
         <v>4833</v>
@@ -37285,7 +38179,7 @@
         <v>5428</v>
       </c>
       <c r="M64" t="s">
-        <v>10557</v>
+        <v>10556</v>
       </c>
       <c r="N64" t="s">
         <v>5944</v>
@@ -37332,7 +38226,7 @@
         <v>5429</v>
       </c>
       <c r="M65" t="s">
-        <v>10558</v>
+        <v>10557</v>
       </c>
       <c r="N65" t="s">
         <v>5945</v>
@@ -37379,7 +38273,7 @@
         <v>5430</v>
       </c>
       <c r="M66" t="s">
-        <v>10559</v>
+        <v>10558</v>
       </c>
       <c r="N66" t="s">
         <v>5946</v>
@@ -37426,7 +38320,7 @@
         <v>5431</v>
       </c>
       <c r="M67" t="s">
-        <v>10560</v>
+        <v>10559</v>
       </c>
       <c r="N67" t="s">
         <v>5947</v>
@@ -37473,7 +38367,7 @@
         <v>5432</v>
       </c>
       <c r="M68" t="s">
-        <v>10561</v>
+        <v>10560</v>
       </c>
       <c r="N68" t="s">
         <v>5948</v>
@@ -37520,7 +38414,7 @@
         <v>5433</v>
       </c>
       <c r="M69" t="s">
-        <v>10562</v>
+        <v>10561</v>
       </c>
       <c r="N69" t="s">
         <v>5949</v>
@@ -37567,7 +38461,7 @@
         <v>5434</v>
       </c>
       <c r="M70" t="s">
-        <v>10563</v>
+        <v>10562</v>
       </c>
       <c r="N70" t="s">
         <v>5950</v>
@@ -37614,7 +38508,7 @@
         <v>5435</v>
       </c>
       <c r="M71" t="s">
-        <v>10564</v>
+        <v>10563</v>
       </c>
       <c r="N71" t="s">
         <v>5951</v>
@@ -37661,7 +38555,7 @@
         <v>9794</v>
       </c>
       <c r="M72" t="s">
-        <v>10565</v>
+        <v>10564</v>
       </c>
       <c r="N72" t="s">
         <v>9804</v>
@@ -37708,7 +38602,7 @@
         <v>5436</v>
       </c>
       <c r="M73" t="s">
-        <v>10566</v>
+        <v>10565</v>
       </c>
       <c r="N73" t="s">
         <v>5952</v>
@@ -37802,7 +38696,7 @@
         <v>1321</v>
       </c>
       <c r="M75" t="s">
-        <v>10567</v>
+        <v>10566</v>
       </c>
       <c r="N75" t="s">
         <v>5954</v>
@@ -37849,7 +38743,7 @@
         <v>5437</v>
       </c>
       <c r="M76" t="s">
-        <v>10568</v>
+        <v>10567</v>
       </c>
       <c r="N76" t="s">
         <v>7156</v>
@@ -37896,7 +38790,7 @@
         <v>5438</v>
       </c>
       <c r="M77" t="s">
-        <v>10569</v>
+        <v>10568</v>
       </c>
       <c r="N77" t="s">
         <v>5955</v>
@@ -37943,7 +38837,7 @@
         <v>5439</v>
       </c>
       <c r="M78" t="s">
-        <v>10570</v>
+        <v>10569</v>
       </c>
       <c r="N78" t="s">
         <v>5956</v>
@@ -38037,7 +38931,7 @@
         <v>5441</v>
       </c>
       <c r="M80" t="s">
-        <v>10571</v>
+        <v>10570</v>
       </c>
       <c r="N80" t="s">
         <v>5958</v>
@@ -38084,7 +38978,7 @@
         <v>5442</v>
       </c>
       <c r="M81" t="s">
-        <v>10572</v>
+        <v>10571</v>
       </c>
       <c r="N81" t="s">
         <v>5959</v>
@@ -38131,7 +39025,7 @@
         <v>1328</v>
       </c>
       <c r="M82" t="s">
-        <v>10573</v>
+        <v>10572</v>
       </c>
       <c r="N82" t="s">
         <v>1328</v>
@@ -38178,7 +39072,7 @@
         <v>1329</v>
       </c>
       <c r="M83" t="s">
-        <v>11195</v>
+        <v>11194</v>
       </c>
       <c r="N83" t="s">
         <v>1329</v>
@@ -38225,7 +39119,7 @@
         <v>5443</v>
       </c>
       <c r="M84" t="s">
-        <v>10574</v>
+        <v>10573</v>
       </c>
       <c r="N84" t="s">
         <v>5960</v>
@@ -38272,7 +39166,7 @@
         <v>5444</v>
       </c>
       <c r="M85" t="s">
-        <v>10575</v>
+        <v>10574</v>
       </c>
       <c r="N85" t="s">
         <v>5961</v>
@@ -38366,7 +39260,7 @@
         <v>9728</v>
       </c>
       <c r="M87" t="s">
-        <v>10576</v>
+        <v>10575</v>
       </c>
       <c r="N87" t="s">
         <v>5963</v>
@@ -38413,7 +39307,7 @@
         <v>1494</v>
       </c>
       <c r="M88" t="s">
-        <v>10577</v>
+        <v>10576</v>
       </c>
       <c r="N88" t="s">
         <v>5964</v>
@@ -38460,7 +39354,7 @@
         <v>5445</v>
       </c>
       <c r="M89" t="s">
-        <v>10578</v>
+        <v>10577</v>
       </c>
       <c r="N89" t="s">
         <v>5965</v>
@@ -38507,7 +39401,7 @@
         <v>1333</v>
       </c>
       <c r="M90" t="s">
-        <v>10579</v>
+        <v>10578</v>
       </c>
       <c r="N90" t="s">
         <v>5966</v>
@@ -38554,7 +39448,7 @@
         <v>5446</v>
       </c>
       <c r="M91" t="s">
-        <v>10580</v>
+        <v>10579</v>
       </c>
       <c r="N91" t="s">
         <v>5967</v>
@@ -38601,7 +39495,7 @@
         <v>5447</v>
       </c>
       <c r="M92" t="s">
-        <v>10581</v>
+        <v>10580</v>
       </c>
       <c r="N92" t="s">
         <v>5968</v>
@@ -38648,7 +39542,7 @@
         <v>5448</v>
       </c>
       <c r="M93" t="s">
-        <v>10582</v>
+        <v>10581</v>
       </c>
       <c r="N93" t="s">
         <v>5969</v>
@@ -38695,7 +39589,7 @@
         <v>5449</v>
       </c>
       <c r="M94" t="s">
-        <v>10583</v>
+        <v>10582</v>
       </c>
       <c r="N94" t="s">
         <v>3648</v>
@@ -38742,7 +39636,7 @@
         <v>5450</v>
       </c>
       <c r="M95" t="s">
-        <v>10584</v>
+        <v>10583</v>
       </c>
       <c r="N95" t="s">
         <v>3649</v>
@@ -38789,7 +39683,7 @@
         <v>5451</v>
       </c>
       <c r="M96" t="s">
-        <v>10585</v>
+        <v>10584</v>
       </c>
       <c r="N96" t="s">
         <v>5970</v>
@@ -38836,7 +39730,7 @@
         <v>5452</v>
       </c>
       <c r="M97" t="s">
-        <v>10586</v>
+        <v>10585</v>
       </c>
       <c r="N97" t="s">
         <v>5971</v>
@@ -38883,7 +39777,7 @@
         <v>1341</v>
       </c>
       <c r="M98" t="s">
-        <v>10587</v>
+        <v>10586</v>
       </c>
       <c r="N98" t="s">
         <v>5972</v>
@@ -38930,7 +39824,7 @@
         <v>5453</v>
       </c>
       <c r="M99" t="s">
-        <v>10588</v>
+        <v>10587</v>
       </c>
       <c r="N99" t="s">
         <v>5973</v>
@@ -38977,7 +39871,7 @@
         <v>723</v>
       </c>
       <c r="M100" t="s">
-        <v>10589</v>
+        <v>10588</v>
       </c>
       <c r="N100" t="s">
         <v>723</v>
@@ -39071,7 +39965,7 @@
         <v>725</v>
       </c>
       <c r="M102" t="s">
-        <v>10590</v>
+        <v>10589</v>
       </c>
       <c r="N102" t="s">
         <v>5975</v>
@@ -39118,7 +40012,7 @@
         <v>1344</v>
       </c>
       <c r="M103" t="s">
-        <v>10591</v>
+        <v>10590</v>
       </c>
       <c r="N103" t="s">
         <v>5976</v>
@@ -39165,7 +40059,7 @@
         <v>5455</v>
       </c>
       <c r="M104" t="s">
-        <v>10592</v>
+        <v>10591</v>
       </c>
       <c r="N104" t="s">
         <v>5977</v>
@@ -39212,7 +40106,7 @@
         <v>5456</v>
       </c>
       <c r="M105" t="s">
-        <v>10593</v>
+        <v>10592</v>
       </c>
       <c r="N105" t="s">
         <v>5978</v>
@@ -39259,7 +40153,7 @@
         <v>1347</v>
       </c>
       <c r="M106" t="s">
-        <v>10594</v>
+        <v>10593</v>
       </c>
       <c r="N106" t="s">
         <v>4871</v>
@@ -39306,7 +40200,7 @@
         <v>1348</v>
       </c>
       <c r="M107" t="s">
-        <v>10595</v>
+        <v>10594</v>
       </c>
       <c r="N107" t="s">
         <v>5979</v>
@@ -39353,7 +40247,7 @@
         <v>5457</v>
       </c>
       <c r="M108" t="s">
-        <v>10596</v>
+        <v>10595</v>
       </c>
       <c r="N108" t="s">
         <v>5980</v>
@@ -39400,7 +40294,7 @@
         <v>5457</v>
       </c>
       <c r="M109" t="s">
-        <v>10596</v>
+        <v>10595</v>
       </c>
       <c r="N109" t="s">
         <v>5980</v>
@@ -39494,7 +40388,7 @@
         <v>5459</v>
       </c>
       <c r="M111" t="s">
-        <v>10597</v>
+        <v>10596</v>
       </c>
       <c r="N111" t="s">
         <v>5982</v>
@@ -39541,7 +40435,7 @@
         <v>5460</v>
       </c>
       <c r="M112" t="s">
-        <v>11196</v>
+        <v>11195</v>
       </c>
       <c r="N112" t="s">
         <v>5983</v>
@@ -39588,7 +40482,7 @@
         <v>5461</v>
       </c>
       <c r="M113" t="s">
-        <v>10598</v>
+        <v>10597</v>
       </c>
       <c r="N113" t="s">
         <v>5984</v>
@@ -39635,7 +40529,7 @@
         <v>5462</v>
       </c>
       <c r="M114" t="s">
-        <v>10599</v>
+        <v>10598</v>
       </c>
       <c r="N114" t="s">
         <v>5985</v>
@@ -39682,7 +40576,7 @@
         <v>1355</v>
       </c>
       <c r="M115" t="s">
-        <v>10600</v>
+        <v>10599</v>
       </c>
       <c r="N115" t="s">
         <v>4879</v>
@@ -39729,7 +40623,7 @@
         <v>5463</v>
       </c>
       <c r="M116" t="s">
-        <v>10601</v>
+        <v>10600</v>
       </c>
       <c r="N116" t="s">
         <v>5986</v>
@@ -39776,7 +40670,7 @@
         <v>5464</v>
       </c>
       <c r="M117" t="s">
-        <v>10602</v>
+        <v>10601</v>
       </c>
       <c r="N117" t="s">
         <v>5987</v>
@@ -39823,7 +40717,7 @@
         <v>5465</v>
       </c>
       <c r="M118" t="s">
-        <v>10541</v>
+        <v>10540</v>
       </c>
       <c r="N118" t="s">
         <v>5929</v>
@@ -39870,7 +40764,7 @@
         <v>5466</v>
       </c>
       <c r="M119" t="s">
-        <v>10603</v>
+        <v>10602</v>
       </c>
       <c r="N119" t="s">
         <v>5988</v>
@@ -39917,7 +40811,7 @@
         <v>5467</v>
       </c>
       <c r="M120" t="s">
-        <v>10604</v>
+        <v>10603</v>
       </c>
       <c r="N120" t="s">
         <v>5989</v>
@@ -39964,7 +40858,7 @@
         <v>1361</v>
       </c>
       <c r="M121" t="s">
-        <v>10605</v>
+        <v>10604</v>
       </c>
       <c r="N121" t="s">
         <v>5990</v>
@@ -40011,7 +40905,7 @@
         <v>9735</v>
       </c>
       <c r="M122" t="s">
-        <v>10606</v>
+        <v>10605</v>
       </c>
       <c r="N122" t="s">
         <v>5991</v>
@@ -40058,7 +40952,7 @@
         <v>5468</v>
       </c>
       <c r="M123" t="s">
-        <v>10607</v>
+        <v>10606</v>
       </c>
       <c r="N123" t="s">
         <v>5992</v>
@@ -40105,7 +40999,7 @@
         <v>5469</v>
       </c>
       <c r="M124" t="s">
-        <v>10608</v>
+        <v>10607</v>
       </c>
       <c r="N124" t="s">
         <v>5993</v>
@@ -40199,7 +41093,7 @@
         <v>5471</v>
       </c>
       <c r="M126" t="s">
-        <v>10609</v>
+        <v>10608</v>
       </c>
       <c r="N126" t="s">
         <v>5994</v>
@@ -40246,7 +41140,7 @@
         <v>5472</v>
       </c>
       <c r="M127" t="s">
-        <v>10610</v>
+        <v>10609</v>
       </c>
       <c r="N127" t="s">
         <v>5995</v>
@@ -40293,7 +41187,7 @@
         <v>5473</v>
       </c>
       <c r="M128" t="s">
-        <v>10611</v>
+        <v>10610</v>
       </c>
       <c r="N128" t="s">
         <v>5996</v>
@@ -40340,7 +41234,7 @@
         <v>5474</v>
       </c>
       <c r="M129" t="s">
-        <v>10612</v>
+        <v>10611</v>
       </c>
       <c r="N129" t="s">
         <v>5997</v>
@@ -40387,7 +41281,7 @@
         <v>5475</v>
       </c>
       <c r="M130" t="s">
-        <v>10613</v>
+        <v>10612</v>
       </c>
       <c r="N130" t="s">
         <v>5998</v>
@@ -40434,7 +41328,7 @@
         <v>5476</v>
       </c>
       <c r="M131" t="s">
-        <v>10614</v>
+        <v>10613</v>
       </c>
       <c r="N131" t="s">
         <v>4894</v>
@@ -40481,7 +41375,7 @@
         <v>5477</v>
       </c>
       <c r="M132" t="s">
-        <v>10615</v>
+        <v>10614</v>
       </c>
       <c r="N132" t="s">
         <v>5999</v>
@@ -40528,7 +41422,7 @@
         <v>5478</v>
       </c>
       <c r="M133" t="s">
-        <v>10616</v>
+        <v>10615</v>
       </c>
       <c r="N133" t="s">
         <v>6000</v>
@@ -40575,7 +41469,7 @@
         <v>5479</v>
       </c>
       <c r="M134" t="s">
-        <v>10617</v>
+        <v>10616</v>
       </c>
       <c r="N134" t="s">
         <v>6001</v>
@@ -40622,7 +41516,7 @@
         <v>5480</v>
       </c>
       <c r="M135" t="s">
-        <v>10618</v>
+        <v>10617</v>
       </c>
       <c r="N135" t="s">
         <v>6002</v>
@@ -40669,7 +41563,7 @@
         <v>5481</v>
       </c>
       <c r="M136" t="s">
-        <v>10619</v>
+        <v>10618</v>
       </c>
       <c r="N136" t="s">
         <v>6003</v>
@@ -40716,7 +41610,7 @@
         <v>5482</v>
       </c>
       <c r="M137" t="s">
-        <v>10620</v>
+        <v>10619</v>
       </c>
       <c r="N137" t="s">
         <v>6004</v>
@@ -40763,7 +41657,7 @@
         <v>5483</v>
       </c>
       <c r="M138" t="s">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="N138" t="s">
         <v>6005</v>
@@ -40810,7 +41704,7 @@
         <v>5484</v>
       </c>
       <c r="M139" t="s">
-        <v>10622</v>
+        <v>10621</v>
       </c>
       <c r="N139" t="s">
         <v>6006</v>
@@ -40857,7 +41751,7 @@
         <v>5485</v>
       </c>
       <c r="M140" t="s">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="N140" t="s">
         <v>6007</v>
@@ -40904,7 +41798,7 @@
         <v>5486</v>
       </c>
       <c r="M141" t="s">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="N141" t="s">
         <v>6008</v>
@@ -40951,7 +41845,7 @@
         <v>5487</v>
       </c>
       <c r="M142" t="s">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="N142" t="s">
         <v>6009</v>
@@ -40998,7 +41892,7 @@
         <v>5488</v>
       </c>
       <c r="M143" t="s">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="N143" t="s">
         <v>6010</v>
@@ -41045,7 +41939,7 @@
         <v>5489</v>
       </c>
       <c r="M144" t="s">
-        <v>10627</v>
+        <v>10626</v>
       </c>
       <c r="N144" t="s">
         <v>6011</v>
@@ -41092,7 +41986,7 @@
         <v>5490</v>
       </c>
       <c r="M145" t="s">
-        <v>10628</v>
+        <v>10627</v>
       </c>
       <c r="N145" t="s">
         <v>6012</v>
@@ -41139,7 +42033,7 @@
         <v>5491</v>
       </c>
       <c r="M146" t="s">
-        <v>10629</v>
+        <v>10628</v>
       </c>
       <c r="N146" t="s">
         <v>6013</v>
@@ -41186,7 +42080,7 @@
         <v>5492</v>
       </c>
       <c r="M147" t="s">
-        <v>10630</v>
+        <v>10629</v>
       </c>
       <c r="N147" t="s">
         <v>6014</v>
@@ -41233,7 +42127,7 @@
         <v>5493</v>
       </c>
       <c r="M148" t="s">
-        <v>10631</v>
+        <v>10630</v>
       </c>
       <c r="N148" t="s">
         <v>6015</v>
@@ -41280,7 +42174,7 @@
         <v>5494</v>
       </c>
       <c r="M149" t="s">
-        <v>10632</v>
+        <v>10631</v>
       </c>
       <c r="N149" t="s">
         <v>6016</v>
@@ -41327,7 +42221,7 @@
         <v>5495</v>
       </c>
       <c r="M150" t="s">
-        <v>10633</v>
+        <v>10632</v>
       </c>
       <c r="N150" t="s">
         <v>6017</v>
@@ -41374,7 +42268,7 @@
         <v>5496</v>
       </c>
       <c r="M151" t="s">
-        <v>11197</v>
+        <v>11196</v>
       </c>
       <c r="N151" t="s">
         <v>6018</v>
@@ -41421,7 +42315,7 @@
         <v>5497</v>
       </c>
       <c r="M152" t="s">
-        <v>10634</v>
+        <v>10633</v>
       </c>
       <c r="N152" t="s">
         <v>6019</v>
@@ -41468,7 +42362,7 @@
         <v>5498</v>
       </c>
       <c r="M153" t="s">
-        <v>10635</v>
+        <v>10634</v>
       </c>
       <c r="N153" t="s">
         <v>6020</v>
@@ -41562,7 +42456,7 @@
         <v>5500</v>
       </c>
       <c r="M155" t="s">
-        <v>10636</v>
+        <v>10635</v>
       </c>
       <c r="N155" t="s">
         <v>6022</v>
@@ -41609,7 +42503,7 @@
         <v>5501</v>
       </c>
       <c r="M156" t="s">
-        <v>10637</v>
+        <v>10636</v>
       </c>
       <c r="N156" t="s">
         <v>6023</v>
@@ -41656,7 +42550,7 @@
         <v>5502</v>
       </c>
       <c r="M157" t="s">
-        <v>10638</v>
+        <v>10637</v>
       </c>
       <c r="N157" t="s">
         <v>6024</v>
@@ -41703,7 +42597,7 @@
         <v>5503</v>
       </c>
       <c r="M158" t="s">
-        <v>10639</v>
+        <v>10638</v>
       </c>
       <c r="N158" t="s">
         <v>6025</v>
@@ -41750,7 +42644,7 @@
         <v>1398</v>
       </c>
       <c r="M159" t="s">
-        <v>10640</v>
+        <v>10639</v>
       </c>
       <c r="N159" t="s">
         <v>6026</v>
@@ -41797,7 +42691,7 @@
         <v>5504</v>
       </c>
       <c r="M160" t="s">
-        <v>10641</v>
+        <v>10640</v>
       </c>
       <c r="N160" t="s">
         <v>6027</v>
@@ -41844,7 +42738,7 @@
         <v>5395</v>
       </c>
       <c r="M161" t="s">
-        <v>10642</v>
+        <v>10641</v>
       </c>
       <c r="N161" t="s">
         <v>5906</v>
@@ -41891,7 +42785,7 @@
         <v>5505</v>
       </c>
       <c r="M162" t="s">
-        <v>10643</v>
+        <v>10642</v>
       </c>
       <c r="N162" t="s">
         <v>6028</v>
@@ -41938,7 +42832,7 @@
         <v>5506</v>
       </c>
       <c r="M163" t="s">
-        <v>10644</v>
+        <v>10643</v>
       </c>
       <c r="N163" t="s">
         <v>6029</v>
@@ -42079,7 +42973,7 @@
         <v>5508</v>
       </c>
       <c r="M166" t="s">
-        <v>10645</v>
+        <v>10644</v>
       </c>
       <c r="N166" t="s">
         <v>6031</v>
@@ -42126,7 +43020,7 @@
         <v>5509</v>
       </c>
       <c r="M167" t="s">
-        <v>10646</v>
+        <v>10645</v>
       </c>
       <c r="N167" t="s">
         <v>6032</v>
@@ -42173,7 +43067,7 @@
         <v>5510</v>
       </c>
       <c r="M168" t="s">
-        <v>10647</v>
+        <v>10646</v>
       </c>
       <c r="N168" t="s">
         <v>6033</v>
@@ -42220,7 +43114,7 @@
         <v>5511</v>
       </c>
       <c r="M169" t="s">
-        <v>10648</v>
+        <v>10647</v>
       </c>
       <c r="N169" t="s">
         <v>6034</v>
@@ -42267,7 +43161,7 @@
         <v>5512</v>
       </c>
       <c r="M170" t="s">
-        <v>10649</v>
+        <v>10648</v>
       </c>
       <c r="N170" t="s">
         <v>6035</v>
@@ -42314,7 +43208,7 @@
         <v>5513</v>
       </c>
       <c r="M171" t="s">
-        <v>10650</v>
+        <v>10649</v>
       </c>
       <c r="N171" t="s">
         <v>6036</v>
@@ -42408,7 +43302,7 @@
         <v>5515</v>
       </c>
       <c r="M173" t="s">
-        <v>10651</v>
+        <v>10650</v>
       </c>
       <c r="N173" t="s">
         <v>6038</v>
@@ -42455,7 +43349,7 @@
         <v>5516</v>
       </c>
       <c r="M174" t="s">
-        <v>10652</v>
+        <v>10651</v>
       </c>
       <c r="N174" t="s">
         <v>6039</v>
@@ -42502,7 +43396,7 @@
         <v>5517</v>
       </c>
       <c r="M175" t="s">
-        <v>10653</v>
+        <v>10652</v>
       </c>
       <c r="N175" t="s">
         <v>4936</v>
@@ -42549,7 +43443,7 @@
         <v>5518</v>
       </c>
       <c r="M176" t="s">
-        <v>10654</v>
+        <v>10653</v>
       </c>
       <c r="N176" t="s">
         <v>6040</v>
@@ -42596,7 +43490,7 @@
         <v>5519</v>
       </c>
       <c r="M177" t="s">
-        <v>10655</v>
+        <v>10654</v>
       </c>
       <c r="N177" t="s">
         <v>6041</v>
@@ -42643,7 +43537,7 @@
         <v>5520</v>
       </c>
       <c r="M178" t="s">
-        <v>10656</v>
+        <v>10655</v>
       </c>
       <c r="N178" t="s">
         <v>6042</v>
@@ -42690,7 +43584,7 @@
         <v>8392</v>
       </c>
       <c r="M179" t="s">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="N179" t="s">
         <v>8385</v>
@@ -42737,7 +43631,7 @@
         <v>5521</v>
       </c>
       <c r="M180" t="s">
-        <v>10657</v>
+        <v>10656</v>
       </c>
       <c r="N180" t="s">
         <v>6043</v>
@@ -42784,7 +43678,7 @@
         <v>5522</v>
       </c>
       <c r="M181" t="s">
-        <v>10658</v>
+        <v>10657</v>
       </c>
       <c r="N181" t="s">
         <v>6044</v>
@@ -42831,7 +43725,7 @@
         <v>5523</v>
       </c>
       <c r="M182" t="s">
-        <v>10659</v>
+        <v>10658</v>
       </c>
       <c r="N182" t="s">
         <v>6045</v>
@@ -42878,7 +43772,7 @@
         <v>5524</v>
       </c>
       <c r="M183" t="s">
-        <v>10660</v>
+        <v>10659</v>
       </c>
       <c r="N183" t="s">
         <v>6046</v>
@@ -42925,7 +43819,7 @@
         <v>5525</v>
       </c>
       <c r="M184" t="s">
-        <v>10661</v>
+        <v>10660</v>
       </c>
       <c r="N184" t="s">
         <v>6047</v>
@@ -42972,7 +43866,7 @@
         <v>5526</v>
       </c>
       <c r="M185" t="s">
-        <v>10662</v>
+        <v>10661</v>
       </c>
       <c r="N185" t="s">
         <v>6048</v>
@@ -43019,7 +43913,7 @@
         <v>5527</v>
       </c>
       <c r="M186" t="s">
-        <v>10663</v>
+        <v>10662</v>
       </c>
       <c r="N186" t="s">
         <v>6049</v>
@@ -43113,7 +44007,7 @@
         <v>5529</v>
       </c>
       <c r="M188" t="s">
-        <v>10664</v>
+        <v>10663</v>
       </c>
       <c r="N188" t="s">
         <v>6051</v>
@@ -43160,7 +44054,7 @@
         <v>5530</v>
       </c>
       <c r="M189" t="s">
-        <v>10665</v>
+        <v>10664</v>
       </c>
       <c r="N189" t="s">
         <v>6052</v>
@@ -43207,7 +44101,7 @@
         <v>5531</v>
       </c>
       <c r="M190" t="s">
-        <v>10666</v>
+        <v>10665</v>
       </c>
       <c r="N190" t="s">
         <v>6053</v>
@@ -43254,7 +44148,7 @@
         <v>5532</v>
       </c>
       <c r="M191" t="s">
-        <v>10667</v>
+        <v>10666</v>
       </c>
       <c r="N191" t="s">
         <v>6054</v>
@@ -43301,7 +44195,7 @@
         <v>5533</v>
       </c>
       <c r="M192" t="s">
-        <v>10668</v>
+        <v>10667</v>
       </c>
       <c r="N192" t="s">
         <v>6055</v>
@@ -43348,7 +44242,7 @@
         <v>5534</v>
       </c>
       <c r="M193" t="s">
-        <v>10669</v>
+        <v>10668</v>
       </c>
       <c r="N193" t="s">
         <v>6056</v>
@@ -43395,7 +44289,7 @@
         <v>5535</v>
       </c>
       <c r="M194" t="s">
-        <v>10670</v>
+        <v>10669</v>
       </c>
       <c r="N194" t="s">
         <v>6057</v>
@@ -43442,7 +44336,7 @@
         <v>5536</v>
       </c>
       <c r="M195" t="s">
-        <v>10671</v>
+        <v>10670</v>
       </c>
       <c r="N195" t="s">
         <v>6058</v>
@@ -43489,7 +44383,7 @@
         <v>9827</v>
       </c>
       <c r="M196" t="s">
-        <v>10672</v>
+        <v>10671</v>
       </c>
       <c r="N196" t="s">
         <v>6059</v>
@@ -43536,7 +44430,7 @@
         <v>9828</v>
       </c>
       <c r="M197" t="s">
-        <v>10673</v>
+        <v>10672</v>
       </c>
       <c r="N197" t="s">
         <v>6060</v>
@@ -43583,7 +44477,7 @@
         <v>7397</v>
       </c>
       <c r="M198" t="s">
-        <v>10674</v>
+        <v>10673</v>
       </c>
       <c r="N198" t="s">
         <v>7398</v>
@@ -43630,7 +44524,7 @@
         <v>5537</v>
       </c>
       <c r="M199" t="s">
-        <v>10675</v>
+        <v>10674</v>
       </c>
       <c r="N199" t="s">
         <v>6061</v>
@@ -43677,7 +44571,7 @@
         <v>5538</v>
       </c>
       <c r="M200" t="s">
-        <v>10676</v>
+        <v>10675</v>
       </c>
       <c r="N200" t="s">
         <v>6062</v>
@@ -43724,7 +44618,7 @@
         <v>5539</v>
       </c>
       <c r="M201" t="s">
-        <v>10677</v>
+        <v>10676</v>
       </c>
       <c r="N201" t="s">
         <v>6063</v>
@@ -43771,7 +44665,7 @@
         <v>5540</v>
       </c>
       <c r="M202" t="s">
-        <v>10678</v>
+        <v>10677</v>
       </c>
       <c r="N202" t="s">
         <v>6064</v>
@@ -43818,7 +44712,7 @@
         <v>5541</v>
       </c>
       <c r="M203" t="s">
-        <v>10679</v>
+        <v>10678</v>
       </c>
       <c r="N203" t="s">
         <v>6065</v>
@@ -43865,7 +44759,7 @@
         <v>5542</v>
       </c>
       <c r="M204" t="s">
-        <v>10680</v>
+        <v>10679</v>
       </c>
       <c r="N204" t="s">
         <v>6066</v>
@@ -43912,7 +44806,7 @@
         <v>5543</v>
       </c>
       <c r="M205" t="s">
-        <v>10681</v>
+        <v>10680</v>
       </c>
       <c r="N205" t="s">
         <v>6067</v>
@@ -43959,7 +44853,7 @@
         <v>1439</v>
       </c>
       <c r="M206" t="s">
-        <v>10682</v>
+        <v>10681</v>
       </c>
       <c r="N206" t="s">
         <v>6068</v>
@@ -44006,7 +44900,7 @@
         <v>5544</v>
       </c>
       <c r="M207" t="s">
-        <v>10683</v>
+        <v>10682</v>
       </c>
       <c r="N207" t="s">
         <v>6069</v>
@@ -44053,7 +44947,7 @@
         <v>1441</v>
       </c>
       <c r="M208" t="s">
-        <v>10684</v>
+        <v>10683</v>
       </c>
       <c r="N208" t="s">
         <v>6070</v>
@@ -44100,7 +44994,7 @@
         <v>5545</v>
       </c>
       <c r="M209" t="s">
-        <v>10685</v>
+        <v>10684</v>
       </c>
       <c r="N209" t="s">
         <v>6071</v>
@@ -44147,7 +45041,7 @@
         <v>5546</v>
       </c>
       <c r="M210" t="s">
-        <v>10686</v>
+        <v>10685</v>
       </c>
       <c r="N210" t="s">
         <v>6072</v>
@@ -44194,7 +45088,7 @@
         <v>5547</v>
       </c>
       <c r="M211" t="s">
-        <v>10687</v>
+        <v>10686</v>
       </c>
       <c r="N211" t="s">
         <v>6073</v>
@@ -44241,7 +45135,7 @@
         <v>5548</v>
       </c>
       <c r="M212" t="s">
-        <v>11198</v>
+        <v>11197</v>
       </c>
       <c r="N212" t="s">
         <v>6074</v>
@@ -44288,7 +45182,7 @@
         <v>5549</v>
       </c>
       <c r="M213" t="s">
-        <v>10688</v>
+        <v>10687</v>
       </c>
       <c r="N213" t="s">
         <v>6075</v>
@@ -44335,7 +45229,7 @@
         <v>5550</v>
       </c>
       <c r="M214" t="s">
-        <v>10688</v>
+        <v>10687</v>
       </c>
       <c r="N214" t="s">
         <v>6076</v>
@@ -44382,7 +45276,7 @@
         <v>5551</v>
       </c>
       <c r="M215" t="s">
-        <v>10689</v>
+        <v>10688</v>
       </c>
       <c r="N215" t="s">
         <v>6077</v>
@@ -44429,7 +45323,7 @@
         <v>5552</v>
       </c>
       <c r="M216" t="s">
-        <v>10690</v>
+        <v>10689</v>
       </c>
       <c r="N216" t="s">
         <v>6078</v>
@@ -44476,7 +45370,7 @@
         <v>5553</v>
       </c>
       <c r="M217" t="s">
-        <v>10691</v>
+        <v>10690</v>
       </c>
       <c r="N217" t="s">
         <v>6079</v>
@@ -44523,7 +45417,7 @@
         <v>5554</v>
       </c>
       <c r="M218" t="s">
-        <v>10692</v>
+        <v>10691</v>
       </c>
       <c r="N218" t="s">
         <v>6080</v>
@@ -44570,7 +45464,7 @@
         <v>5555</v>
       </c>
       <c r="M219" t="s">
-        <v>10693</v>
+        <v>10692</v>
       </c>
       <c r="N219" t="s">
         <v>6081</v>
@@ -44617,7 +45511,7 @@
         <v>5556</v>
       </c>
       <c r="M220" t="s">
-        <v>10694</v>
+        <v>10693</v>
       </c>
       <c r="N220" t="s">
         <v>6082</v>
@@ -44664,7 +45558,7 @@
         <v>5557</v>
       </c>
       <c r="M221" t="s">
-        <v>10695</v>
+        <v>10694</v>
       </c>
       <c r="N221" t="s">
         <v>6083</v>
@@ -44711,7 +45605,7 @@
         <v>5558</v>
       </c>
       <c r="M222" t="s">
-        <v>10696</v>
+        <v>10695</v>
       </c>
       <c r="N222" t="s">
         <v>6084</v>
@@ -44758,7 +45652,7 @@
         <v>5559</v>
       </c>
       <c r="M223" t="s">
-        <v>10570</v>
+        <v>10569</v>
       </c>
       <c r="N223" t="s">
         <v>4981</v>
@@ -44805,7 +45699,7 @@
         <v>5560</v>
       </c>
       <c r="M224" t="s">
-        <v>10697</v>
+        <v>10696</v>
       </c>
       <c r="N224" t="s">
         <v>6085</v>
@@ -44852,7 +45746,7 @@
         <v>5561</v>
       </c>
       <c r="M225" t="s">
-        <v>10698</v>
+        <v>10697</v>
       </c>
       <c r="N225" t="s">
         <v>6086</v>
@@ -44899,7 +45793,7 @@
         <v>5562</v>
       </c>
       <c r="M226" t="s">
-        <v>10699</v>
+        <v>10698</v>
       </c>
       <c r="N226" t="s">
         <v>6087</v>
@@ -44946,7 +45840,7 @@
         <v>5563</v>
       </c>
       <c r="M227" t="s">
-        <v>10700</v>
+        <v>10699</v>
       </c>
       <c r="N227" t="s">
         <v>6088</v>
@@ -44993,7 +45887,7 @@
         <v>5564</v>
       </c>
       <c r="M228" t="s">
-        <v>10701</v>
+        <v>10700</v>
       </c>
       <c r="N228" t="s">
         <v>6089</v>
@@ -45040,7 +45934,7 @@
         <v>5565</v>
       </c>
       <c r="M229" t="s">
-        <v>10702</v>
+        <v>10701</v>
       </c>
       <c r="N229" t="s">
         <v>6090</v>
@@ -45087,7 +45981,7 @@
         <v>5566</v>
       </c>
       <c r="M230" t="s">
-        <v>10703</v>
+        <v>10702</v>
       </c>
       <c r="N230" t="s">
         <v>6091</v>
@@ -45134,7 +46028,7 @@
         <v>5567</v>
       </c>
       <c r="M231" t="s">
-        <v>10704</v>
+        <v>10703</v>
       </c>
       <c r="N231" t="s">
         <v>6092</v>
@@ -45181,7 +46075,7 @@
         <v>5568</v>
       </c>
       <c r="M232" t="s">
-        <v>10705</v>
+        <v>10704</v>
       </c>
       <c r="N232" t="s">
         <v>6093</v>
@@ -45228,7 +46122,7 @@
         <v>5569</v>
       </c>
       <c r="M233" t="s">
-        <v>10706</v>
+        <v>10705</v>
       </c>
       <c r="N233" t="s">
         <v>6094</v>
@@ -45275,7 +46169,7 @@
         <v>5570</v>
       </c>
       <c r="M234" t="s">
-        <v>10707</v>
+        <v>10706</v>
       </c>
       <c r="N234" t="s">
         <v>6095</v>
@@ -45322,7 +46216,7 @@
         <v>5571</v>
       </c>
       <c r="M235" t="s">
-        <v>10708</v>
+        <v>10707</v>
       </c>
       <c r="N235" t="s">
         <v>6096</v>
@@ -45369,7 +46263,7 @@
         <v>1469</v>
       </c>
       <c r="M236" t="s">
-        <v>10709</v>
+        <v>10708</v>
       </c>
       <c r="N236" t="s">
         <v>6097</v>
@@ -45416,7 +46310,7 @@
         <v>5572</v>
       </c>
       <c r="M237" t="s">
-        <v>10710</v>
+        <v>10709</v>
       </c>
       <c r="N237" t="s">
         <v>6098</v>
@@ -45463,7 +46357,7 @@
         <v>5573</v>
       </c>
       <c r="M238" t="s">
-        <v>10711</v>
+        <v>10710</v>
       </c>
       <c r="N238" t="s">
         <v>6099</v>
@@ -45510,7 +46404,7 @@
         <v>5574</v>
       </c>
       <c r="M239" t="s">
-        <v>10712</v>
+        <v>10711</v>
       </c>
       <c r="N239" t="s">
         <v>6100</v>
@@ -45557,7 +46451,7 @@
         <v>5575</v>
       </c>
       <c r="M240" t="s">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="N240" t="s">
         <v>6101</v>
@@ -45604,7 +46498,7 @@
         <v>5576</v>
       </c>
       <c r="M241" t="s">
-        <v>10714</v>
+        <v>10713</v>
       </c>
       <c r="N241" t="s">
         <v>6102</v>
@@ -45651,7 +46545,7 @@
         <v>5577</v>
       </c>
       <c r="M242" t="s">
-        <v>10715</v>
+        <v>10714</v>
       </c>
       <c r="N242" t="s">
         <v>6103</v>
@@ -45698,7 +46592,7 @@
         <v>5578</v>
       </c>
       <c r="M243" t="s">
-        <v>10716</v>
+        <v>10715</v>
       </c>
       <c r="N243" t="s">
         <v>6104</v>
@@ -45745,7 +46639,7 @@
         <v>5579</v>
       </c>
       <c r="M244" t="s">
-        <v>10717</v>
+        <v>10716</v>
       </c>
       <c r="N244" t="s">
         <v>6105</v>
@@ -45792,7 +46686,7 @@
         <v>5580</v>
       </c>
       <c r="M245" t="s">
-        <v>10718</v>
+        <v>10717</v>
       </c>
       <c r="N245" t="s">
         <v>6106</v>
@@ -45839,7 +46733,7 @@
         <v>5581</v>
       </c>
       <c r="M246" t="s">
-        <v>10719</v>
+        <v>10718</v>
       </c>
       <c r="N246" t="s">
         <v>6107</v>
@@ -45886,7 +46780,7 @@
         <v>5582</v>
       </c>
       <c r="M247" t="s">
-        <v>10720</v>
+        <v>10719</v>
       </c>
       <c r="N247" t="s">
         <v>6108</v>
@@ -45933,7 +46827,7 @@
         <v>5583</v>
       </c>
       <c r="M248" t="s">
-        <v>10721</v>
+        <v>10720</v>
       </c>
       <c r="N248" t="s">
         <v>6109</v>
@@ -45980,7 +46874,7 @@
         <v>5584</v>
       </c>
       <c r="M249" t="s">
-        <v>10722</v>
+        <v>10721</v>
       </c>
       <c r="N249" t="s">
         <v>6110</v>
@@ -46027,7 +46921,7 @@
         <v>5585</v>
       </c>
       <c r="M250" t="s">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="N250" t="s">
         <v>6111</v>
@@ -46074,7 +46968,7 @@
         <v>5586</v>
       </c>
       <c r="M251" t="s">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="N251" t="s">
         <v>6112</v>
@@ -46121,7 +47015,7 @@
         <v>5587</v>
       </c>
       <c r="M252" t="s">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="N252" t="s">
         <v>6113</v>
@@ -46168,7 +47062,7 @@
         <v>5588</v>
       </c>
       <c r="M253" t="s">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="N253" t="s">
         <v>6114</v>
@@ -46215,7 +47109,7 @@
         <v>10198</v>
       </c>
       <c r="M254" t="s">
-        <v>10727</v>
+        <v>10726</v>
       </c>
       <c r="N254" t="s">
         <v>10207</v>
@@ -46309,7 +47203,7 @@
         <v>1488</v>
       </c>
       <c r="M256" t="s">
-        <v>10728</v>
+        <v>10727</v>
       </c>
       <c r="N256" t="s">
         <v>6116</v>
@@ -46356,7 +47250,7 @@
         <v>5590</v>
       </c>
       <c r="M257" t="s">
-        <v>10729</v>
+        <v>10728</v>
       </c>
       <c r="N257" t="s">
         <v>6117</v>
@@ -46403,7 +47297,7 @@
         <v>5591</v>
       </c>
       <c r="M258" t="s">
-        <v>10730</v>
+        <v>10729</v>
       </c>
       <c r="N258" t="s">
         <v>6118</v>
@@ -46450,7 +47344,7 @@
         <v>5592</v>
       </c>
       <c r="M259" t="s">
-        <v>10731</v>
+        <v>10730</v>
       </c>
       <c r="N259" t="s">
         <v>6119</v>
@@ -46497,7 +47391,7 @@
         <v>5593</v>
       </c>
       <c r="M260" t="s">
-        <v>10732</v>
+        <v>10731</v>
       </c>
       <c r="N260" t="s">
         <v>6120</v>
@@ -46544,7 +47438,7 @@
         <v>5594</v>
       </c>
       <c r="M261" t="s">
-        <v>10733</v>
+        <v>10732</v>
       </c>
       <c r="N261" t="s">
         <v>6121</v>
@@ -46591,7 +47485,7 @@
         <v>1494</v>
       </c>
       <c r="M262" t="s">
-        <v>10577</v>
+        <v>10576</v>
       </c>
       <c r="N262" t="s">
         <v>6122</v>
@@ -46685,7 +47579,7 @@
         <v>5596</v>
       </c>
       <c r="M264" t="s">
-        <v>10734</v>
+        <v>10733</v>
       </c>
       <c r="N264" t="s">
         <v>6123</v>
@@ -46732,7 +47626,7 @@
         <v>1497</v>
       </c>
       <c r="M265" t="s">
-        <v>10529</v>
+        <v>10528</v>
       </c>
       <c r="N265" t="s">
         <v>6124</v>
@@ -46779,7 +47673,7 @@
         <v>5597</v>
       </c>
       <c r="M266" t="s">
-        <v>10735</v>
+        <v>10734</v>
       </c>
       <c r="N266" t="s">
         <v>6125</v>
@@ -46826,7 +47720,7 @@
         <v>5598</v>
       </c>
       <c r="M267" t="s">
-        <v>10736</v>
+        <v>10735</v>
       </c>
       <c r="N267" t="s">
         <v>6126</v>
@@ -46873,7 +47767,7 @@
         <v>5599</v>
       </c>
       <c r="M268" t="s">
-        <v>10737</v>
+        <v>10736</v>
       </c>
       <c r="N268" t="s">
         <v>6127</v>
@@ -46920,7 +47814,7 @@
         <v>5600</v>
       </c>
       <c r="M269" t="s">
-        <v>10738</v>
+        <v>10737</v>
       </c>
       <c r="N269" t="s">
         <v>6128</v>
@@ -46967,7 +47861,7 @@
         <v>5601</v>
       </c>
       <c r="M270" t="s">
-        <v>10739</v>
+        <v>10738</v>
       </c>
       <c r="N270" t="s">
         <v>6129</v>
@@ -47014,7 +47908,7 @@
         <v>1503</v>
       </c>
       <c r="M271" t="s">
-        <v>10740</v>
+        <v>10739</v>
       </c>
       <c r="N271" t="s">
         <v>6130</v>
@@ -47061,7 +47955,7 @@
         <v>5602</v>
       </c>
       <c r="M272" t="s">
-        <v>10741</v>
+        <v>10740</v>
       </c>
       <c r="N272" t="s">
         <v>6131</v>
@@ -47108,7 +48002,7 @@
         <v>5603</v>
       </c>
       <c r="M273" t="s">
-        <v>10742</v>
+        <v>10741</v>
       </c>
       <c r="N273" t="s">
         <v>6132</v>
@@ -47155,7 +48049,7 @@
         <v>5604</v>
       </c>
       <c r="M274" t="s">
-        <v>10743</v>
+        <v>10742</v>
       </c>
       <c r="N274" t="s">
         <v>6133</v>
@@ -47202,7 +48096,7 @@
         <v>5605</v>
       </c>
       <c r="M275" t="s">
-        <v>10744</v>
+        <v>10743</v>
       </c>
       <c r="N275" t="s">
         <v>6134</v>
@@ -47249,7 +48143,7 @@
         <v>5606</v>
       </c>
       <c r="M276" t="s">
-        <v>10745</v>
+        <v>10744</v>
       </c>
       <c r="N276" t="s">
         <v>6135</v>
@@ -47296,7 +48190,7 @@
         <v>5607</v>
       </c>
       <c r="M277" t="s">
-        <v>10746</v>
+        <v>10745</v>
       </c>
       <c r="N277" t="s">
         <v>6136</v>
@@ -47343,7 +48237,7 @@
         <v>5608</v>
       </c>
       <c r="M278" t="s">
-        <v>10747</v>
+        <v>10746</v>
       </c>
       <c r="N278" t="s">
         <v>6137</v>
@@ -47390,7 +48284,7 @@
         <v>7518</v>
       </c>
       <c r="M279" t="s">
-        <v>10748</v>
+        <v>10747</v>
       </c>
       <c r="N279" t="s">
         <v>9697</v>
@@ -47484,7 +48378,7 @@
         <v>5609</v>
       </c>
       <c r="M281" t="s">
-        <v>10749</v>
+        <v>10748</v>
       </c>
       <c r="N281" t="s">
         <v>6138</v>
@@ -47531,7 +48425,7 @@
         <v>5610</v>
       </c>
       <c r="M282" t="s">
-        <v>10750</v>
+        <v>10749</v>
       </c>
       <c r="N282" t="s">
         <v>6139</v>
@@ -47569,7 +48463,7 @@
         <v>4433</v>
       </c>
       <c r="J283" t="s">
-        <v>11247</v>
+        <v>11246</v>
       </c>
       <c r="K283" t="s">
         <v>6782</v>
@@ -47578,7 +48472,7 @@
         <v>5611</v>
       </c>
       <c r="M283" t="s">
-        <v>10751</v>
+        <v>10750</v>
       </c>
       <c r="N283" t="s">
         <v>6140</v>
@@ -47616,7 +48510,7 @@
         <v>4434</v>
       </c>
       <c r="J284" t="s">
-        <v>11248</v>
+        <v>11247</v>
       </c>
       <c r="K284" t="s">
         <v>6783</v>
@@ -47625,7 +48519,7 @@
         <v>5612</v>
       </c>
       <c r="M284" t="s">
-        <v>10556</v>
+        <v>10555</v>
       </c>
       <c r="N284" t="s">
         <v>6141</v>
@@ -47639,46 +48533,46 @@
         <v>279</v>
       </c>
       <c r="B285" t="s">
+        <v>11236</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11234</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11235</v>
+      </c>
+      <c r="E285" t="s">
         <v>11237</v>
       </c>
-      <c r="C285" t="s">
-        <v>11235</v>
-      </c>
-      <c r="D285" t="s">
-        <v>11236</v>
-      </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
         <v>11238</v>
       </c>
-      <c r="F285" t="s">
+      <c r="G285" t="s">
         <v>11239</v>
       </c>
-      <c r="G285" t="s">
+      <c r="H285" s="4" t="s">
         <v>11240</v>
       </c>
-      <c r="H285" s="4" t="s">
+      <c r="I285" t="s">
         <v>11241</v>
       </c>
-      <c r="I285" t="s">
+      <c r="J285" t="s">
+        <v>11248</v>
+      </c>
+      <c r="K285" t="s">
         <v>11242</v>
       </c>
-      <c r="J285" t="s">
-        <v>11249</v>
-      </c>
-      <c r="K285" t="s">
+      <c r="L285" t="s">
+        <v>11233</v>
+      </c>
+      <c r="M285" t="s">
         <v>11243</v>
       </c>
-      <c r="L285" t="s">
-        <v>11234</v>
-      </c>
-      <c r="M285" t="s">
+      <c r="N285" t="s">
         <v>11244</v>
       </c>
-      <c r="N285" t="s">
+      <c r="O285" t="s">
         <v>11245</v>
-      </c>
-      <c r="O285" t="s">
-        <v>11246</v>
       </c>
     </row>
     <row r="286" spans="1:15">
@@ -47813,7 +48707,7 @@
         <v>903</v>
       </c>
       <c r="M288" t="s">
-        <v>10752</v>
+        <v>10751</v>
       </c>
       <c r="N288" t="s">
         <v>6144</v>
@@ -47860,7 +48754,7 @@
         <v>5613</v>
       </c>
       <c r="M289" t="s">
-        <v>10753</v>
+        <v>10752</v>
       </c>
       <c r="N289" t="s">
         <v>6145</v>
@@ -47907,7 +48801,7 @@
         <v>5614</v>
       </c>
       <c r="M290" t="s">
-        <v>10754</v>
+        <v>10753</v>
       </c>
       <c r="N290" t="s">
         <v>6146</v>
@@ -47954,7 +48848,7 @@
         <v>1520</v>
       </c>
       <c r="M291" t="s">
-        <v>10755</v>
+        <v>10754</v>
       </c>
       <c r="N291" t="s">
         <v>6147</v>
@@ -48001,7 +48895,7 @@
         <v>1521</v>
       </c>
       <c r="M292" t="s">
-        <v>10756</v>
+        <v>10755</v>
       </c>
       <c r="N292" t="s">
         <v>6148</v>
@@ -48048,7 +48942,7 @@
         <v>5615</v>
       </c>
       <c r="M293" t="s">
-        <v>10757</v>
+        <v>10756</v>
       </c>
       <c r="N293" t="s">
         <v>6149</v>
@@ -48095,7 +48989,7 @@
         <v>1523</v>
       </c>
       <c r="M294" t="s">
-        <v>10758</v>
+        <v>10757</v>
       </c>
       <c r="N294" t="s">
         <v>6150</v>
@@ -48142,7 +49036,7 @@
         <v>10137</v>
       </c>
       <c r="M295" t="s">
-        <v>11215</v>
+        <v>11214</v>
       </c>
       <c r="N295" t="s">
         <v>10138</v>
@@ -48189,7 +49083,7 @@
         <v>9737</v>
       </c>
       <c r="M296" t="s">
-        <v>10759</v>
+        <v>10758</v>
       </c>
       <c r="N296" t="s">
         <v>6151</v>
@@ -48236,7 +49130,7 @@
         <v>5616</v>
       </c>
       <c r="M297" t="s">
-        <v>10760</v>
+        <v>10759</v>
       </c>
       <c r="N297" t="s">
         <v>6152</v>
@@ -48283,7 +49177,7 @@
         <v>5617</v>
       </c>
       <c r="M298" t="s">
-        <v>10761</v>
+        <v>10760</v>
       </c>
       <c r="N298" t="s">
         <v>6153</v>
@@ -48330,7 +49224,7 @@
         <v>5618</v>
       </c>
       <c r="M299" t="s">
-        <v>10762</v>
+        <v>10761</v>
       </c>
       <c r="N299" t="s">
         <v>6154</v>
@@ -48377,7 +49271,7 @@
         <v>5619</v>
       </c>
       <c r="M300" t="s">
-        <v>10763</v>
+        <v>10762</v>
       </c>
       <c r="N300" t="s">
         <v>6155</v>
@@ -48424,7 +49318,7 @@
         <v>10337</v>
       </c>
       <c r="M301" t="s">
-        <v>10764</v>
+        <v>10763</v>
       </c>
       <c r="N301" t="s">
         <v>10340</v>
@@ -48518,7 +49412,7 @@
         <v>1529</v>
       </c>
       <c r="M303" t="s">
-        <v>10765</v>
+        <v>10764</v>
       </c>
       <c r="N303" t="s">
         <v>5052</v>
@@ -48565,7 +49459,7 @@
         <v>5621</v>
       </c>
       <c r="M304" t="s">
-        <v>10766</v>
+        <v>10765</v>
       </c>
       <c r="N304" t="s">
         <v>6157</v>
@@ -48612,7 +49506,7 @@
         <v>5622</v>
       </c>
       <c r="M305" t="s">
-        <v>10767</v>
+        <v>10766</v>
       </c>
       <c r="N305" t="s">
         <v>6158</v>
@@ -48659,7 +49553,7 @@
         <v>5623</v>
       </c>
       <c r="M306" t="s">
-        <v>10768</v>
+        <v>10767</v>
       </c>
       <c r="N306" t="s">
         <v>6159</v>
@@ -48706,7 +49600,7 @@
         <v>5624</v>
       </c>
       <c r="M307" t="s">
-        <v>10769</v>
+        <v>10768</v>
       </c>
       <c r="N307" t="s">
         <v>6038</v>
@@ -48753,7 +49647,7 @@
         <v>5625</v>
       </c>
       <c r="M308" t="s">
-        <v>10770</v>
+        <v>10769</v>
       </c>
       <c r="N308" t="s">
         <v>6160</v>
@@ -48800,7 +49694,7 @@
         <v>5626</v>
       </c>
       <c r="M309" t="s">
-        <v>10771</v>
+        <v>10770</v>
       </c>
       <c r="N309" t="s">
         <v>6161</v>
@@ -48847,7 +49741,7 @@
         <v>5627</v>
       </c>
       <c r="M310" t="s">
-        <v>10772</v>
+        <v>10771</v>
       </c>
       <c r="N310" t="s">
         <v>6162</v>
@@ -48894,7 +49788,7 @@
         <v>1537</v>
       </c>
       <c r="M311" t="s">
-        <v>10773</v>
+        <v>10772</v>
       </c>
       <c r="N311" t="s">
         <v>6163</v>
@@ -48941,7 +49835,7 @@
         <v>5628</v>
       </c>
       <c r="M312" t="s">
-        <v>10774</v>
+        <v>10773</v>
       </c>
       <c r="N312" t="s">
         <v>6164</v>
@@ -48988,7 +49882,7 @@
         <v>9705</v>
       </c>
       <c r="M313" t="s">
-        <v>10775</v>
+        <v>10774</v>
       </c>
       <c r="N313" t="s">
         <v>6165</v>
@@ -49035,7 +49929,7 @@
         <v>5629</v>
       </c>
       <c r="M314" t="s">
-        <v>10776</v>
+        <v>10775</v>
       </c>
       <c r="N314" t="s">
         <v>6166</v>
@@ -49129,7 +50023,7 @@
         <v>5631</v>
       </c>
       <c r="M316" t="s">
-        <v>10777</v>
+        <v>10776</v>
       </c>
       <c r="N316" t="s">
         <v>6168</v>
@@ -49176,7 +50070,7 @@
         <v>5632</v>
       </c>
       <c r="M317" t="s">
-        <v>11216</v>
+        <v>11215</v>
       </c>
       <c r="N317" t="s">
         <v>6169</v>
@@ -49223,7 +50117,7 @@
         <v>1543</v>
       </c>
       <c r="M318" t="s">
-        <v>10778</v>
+        <v>10777</v>
       </c>
       <c r="N318" t="s">
         <v>5065</v>
@@ -49270,7 +50164,7 @@
         <v>5633</v>
       </c>
       <c r="M319" t="s">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="N319" t="s">
         <v>6170</v>
@@ -49317,7 +50211,7 @@
         <v>5634</v>
       </c>
       <c r="M320" t="s">
-        <v>10779</v>
+        <v>10778</v>
       </c>
       <c r="N320" t="s">
         <v>6171</v>
@@ -49364,7 +50258,7 @@
         <v>5635</v>
       </c>
       <c r="M321" t="s">
-        <v>10780</v>
+        <v>10779</v>
       </c>
       <c r="N321" t="s">
         <v>6172</v>
@@ -49411,7 +50305,7 @@
         <v>5636</v>
       </c>
       <c r="M322" t="s">
-        <v>10781</v>
+        <v>10780</v>
       </c>
       <c r="N322" t="s">
         <v>6173</v>
@@ -49458,7 +50352,7 @@
         <v>5637</v>
       </c>
       <c r="M323" t="s">
-        <v>10782</v>
+        <v>10781</v>
       </c>
       <c r="N323" t="s">
         <v>6174</v>
@@ -49505,7 +50399,7 @@
         <v>5638</v>
       </c>
       <c r="M324" t="s">
-        <v>10783</v>
+        <v>10782</v>
       </c>
       <c r="N324" t="s">
         <v>6175</v>
@@ -49552,7 +50446,7 @@
         <v>5639</v>
       </c>
       <c r="M325" t="s">
-        <v>10784</v>
+        <v>10783</v>
       </c>
       <c r="N325" t="s">
         <v>6176</v>
@@ -49646,7 +50540,7 @@
         <v>5640</v>
       </c>
       <c r="M327" t="s">
-        <v>10785</v>
+        <v>10784</v>
       </c>
       <c r="N327" t="s">
         <v>6177</v>
@@ -49693,7 +50587,7 @@
         <v>5641</v>
       </c>
       <c r="M328" t="s">
-        <v>10786</v>
+        <v>10785</v>
       </c>
       <c r="N328" t="s">
         <v>6178</v>
@@ -49740,7 +50634,7 @@
         <v>5642</v>
       </c>
       <c r="M329" t="s">
-        <v>10787</v>
+        <v>10786</v>
       </c>
       <c r="N329" t="s">
         <v>6179</v>
@@ -49787,7 +50681,7 @@
         <v>5643</v>
       </c>
       <c r="M330" t="s">
-        <v>10788</v>
+        <v>10787</v>
       </c>
       <c r="N330" t="s">
         <v>6180</v>
@@ -49834,7 +50728,7 @@
         <v>5644</v>
       </c>
       <c r="M331" t="s">
-        <v>10789</v>
+        <v>10788</v>
       </c>
       <c r="N331" t="s">
         <v>6181</v>
@@ -49881,7 +50775,7 @@
         <v>5645</v>
       </c>
       <c r="M332" t="s">
-        <v>10790</v>
+        <v>10789</v>
       </c>
       <c r="N332" t="s">
         <v>6182</v>
@@ -49928,7 +50822,7 @@
         <v>5646</v>
       </c>
       <c r="M333" t="s">
-        <v>10791</v>
+        <v>10790</v>
       </c>
       <c r="N333" t="s">
         <v>6183</v>
@@ -49975,7 +50869,7 @@
         <v>9708</v>
       </c>
       <c r="M334" t="s">
-        <v>10792</v>
+        <v>10791</v>
       </c>
       <c r="N334" t="s">
         <v>6184</v>
@@ -50022,7 +50916,7 @@
         <v>9711</v>
       </c>
       <c r="M335" t="s">
-        <v>10793</v>
+        <v>10792</v>
       </c>
       <c r="N335" t="s">
         <v>6185</v>
@@ -50069,7 +50963,7 @@
         <v>9740</v>
       </c>
       <c r="M336" t="s">
-        <v>10794</v>
+        <v>10793</v>
       </c>
       <c r="N336" t="s">
         <v>6186</v>
@@ -50116,7 +51010,7 @@
         <v>9742</v>
       </c>
       <c r="M337" t="s">
-        <v>11199</v>
+        <v>11198</v>
       </c>
       <c r="N337" t="s">
         <v>6187</v>
@@ -50163,7 +51057,7 @@
         <v>9714</v>
       </c>
       <c r="M338" t="s">
-        <v>10795</v>
+        <v>10794</v>
       </c>
       <c r="N338" t="s">
         <v>6188</v>
@@ -50210,7 +51104,7 @@
         <v>5647</v>
       </c>
       <c r="M339" t="s">
-        <v>11200</v>
+        <v>11199</v>
       </c>
       <c r="N339" t="s">
         <v>6189</v>
@@ -50257,7 +51151,7 @@
         <v>5648</v>
       </c>
       <c r="M340" t="s">
-        <v>10796</v>
+        <v>10795</v>
       </c>
       <c r="N340" t="s">
         <v>6190</v>
@@ -50304,7 +51198,7 @@
         <v>5649</v>
       </c>
       <c r="M341" t="s">
-        <v>10797</v>
+        <v>10796</v>
       </c>
       <c r="N341" t="s">
         <v>6191</v>
@@ -50351,7 +51245,7 @@
         <v>5650</v>
       </c>
       <c r="M342" t="s">
-        <v>10798</v>
+        <v>10797</v>
       </c>
       <c r="N342" t="s">
         <v>6192</v>
@@ -50398,7 +51292,7 @@
         <v>5651</v>
       </c>
       <c r="M343" t="s">
-        <v>10799</v>
+        <v>10798</v>
       </c>
       <c r="N343" t="s">
         <v>5090</v>
@@ -50445,7 +51339,7 @@
         <v>5652</v>
       </c>
       <c r="M344" t="s">
-        <v>10800</v>
+        <v>10799</v>
       </c>
       <c r="N344" t="s">
         <v>6193</v>
@@ -50492,7 +51386,7 @@
         <v>5649</v>
       </c>
       <c r="M345" t="s">
-        <v>10797</v>
+        <v>10796</v>
       </c>
       <c r="N345" t="s">
         <v>6191</v>
@@ -50586,7 +51480,7 @@
         <v>1566</v>
       </c>
       <c r="M347" t="s">
-        <v>10801</v>
+        <v>10800</v>
       </c>
       <c r="N347" t="s">
         <v>6194</v>
@@ -50633,7 +51527,7 @@
         <v>1567</v>
       </c>
       <c r="M348" t="s">
-        <v>10802</v>
+        <v>10801</v>
       </c>
       <c r="N348" t="s">
         <v>6195</v>
@@ -50680,7 +51574,7 @@
         <v>5654</v>
       </c>
       <c r="M349" t="s">
-        <v>10803</v>
+        <v>10802</v>
       </c>
       <c r="N349" t="s">
         <v>6196</v>
@@ -50774,7 +51668,7 @@
         <v>5656</v>
       </c>
       <c r="M351" t="s">
-        <v>10804</v>
+        <v>10803</v>
       </c>
       <c r="N351" t="s">
         <v>6198</v>
@@ -50821,7 +51715,7 @@
         <v>5657</v>
       </c>
       <c r="M352" t="s">
-        <v>10805</v>
+        <v>10804</v>
       </c>
       <c r="N352" t="s">
         <v>6199</v>
@@ -50868,7 +51762,7 @@
         <v>9746</v>
       </c>
       <c r="M353" t="s">
-        <v>10806</v>
+        <v>10805</v>
       </c>
       <c r="N353" t="s">
         <v>6200</v>
@@ -50915,7 +51809,7 @@
         <v>5658</v>
       </c>
       <c r="M354" t="s">
-        <v>10807</v>
+        <v>10806</v>
       </c>
       <c r="N354" t="s">
         <v>6201</v>
@@ -50962,7 +51856,7 @@
         <v>10108</v>
       </c>
       <c r="M355" t="s">
-        <v>10808</v>
+        <v>10807</v>
       </c>
       <c r="N355" t="s">
         <v>6202</v>
@@ -51056,7 +51950,7 @@
         <v>5659</v>
       </c>
       <c r="M357" t="s">
-        <v>10809</v>
+        <v>10808</v>
       </c>
       <c r="N357" t="s">
         <v>6204</v>
@@ -51103,7 +51997,7 @@
         <v>5660</v>
       </c>
       <c r="M358" t="s">
-        <v>10810</v>
+        <v>10809</v>
       </c>
       <c r="N358" t="s">
         <v>6205</v>
@@ -51150,7 +52044,7 @@
         <v>5661</v>
       </c>
       <c r="M359" t="s">
-        <v>10811</v>
+        <v>10810</v>
       </c>
       <c r="N359" t="s">
         <v>6206</v>
@@ -51197,7 +52091,7 @@
         <v>1577</v>
       </c>
       <c r="M360" t="s">
-        <v>10812</v>
+        <v>10811</v>
       </c>
       <c r="N360" t="s">
         <v>6207</v>
@@ -51244,7 +52138,7 @@
         <v>5662</v>
       </c>
       <c r="M361" t="s">
-        <v>10813</v>
+        <v>10812</v>
       </c>
       <c r="N361" t="s">
         <v>6208</v>
@@ -51291,7 +52185,7 @@
         <v>5663</v>
       </c>
       <c r="M362" t="s">
-        <v>10814</v>
+        <v>10813</v>
       </c>
       <c r="N362" t="s">
         <v>6209</v>
@@ -51338,7 +52232,7 @@
         <v>5664</v>
       </c>
       <c r="M363" t="s">
-        <v>10815</v>
+        <v>10814</v>
       </c>
       <c r="N363" t="s">
         <v>6210</v>
@@ -51385,7 +52279,7 @@
         <v>5665</v>
       </c>
       <c r="M364" t="s">
-        <v>10816</v>
+        <v>10815</v>
       </c>
       <c r="N364" t="s">
         <v>6211</v>
@@ -51432,7 +52326,7 @@
         <v>5666</v>
       </c>
       <c r="M365" t="s">
-        <v>10817</v>
+        <v>10816</v>
       </c>
       <c r="N365" t="s">
         <v>6212</v>
@@ -51479,7 +52373,7 @@
         <v>5667</v>
       </c>
       <c r="M366" t="s">
-        <v>10818</v>
+        <v>10817</v>
       </c>
       <c r="N366" t="s">
         <v>6213</v>
@@ -51526,7 +52420,7 @@
         <v>5668</v>
       </c>
       <c r="M367" t="s">
-        <v>10819</v>
+        <v>10818</v>
       </c>
       <c r="N367" t="s">
         <v>6214</v>
@@ -51573,7 +52467,7 @@
         <v>5669</v>
       </c>
       <c r="M368" t="s">
-        <v>10820</v>
+        <v>10819</v>
       </c>
       <c r="N368" t="s">
         <v>6215</v>
@@ -51620,7 +52514,7 @@
         <v>1586</v>
       </c>
       <c r="M369" t="s">
-        <v>10821</v>
+        <v>10820</v>
       </c>
       <c r="N369" t="s">
         <v>6216</v>
@@ -51667,7 +52561,7 @@
         <v>5670</v>
       </c>
       <c r="M370" t="s">
-        <v>10822</v>
+        <v>10821</v>
       </c>
       <c r="N370" t="s">
         <v>6217</v>
@@ -51714,7 +52608,7 @@
         <v>1588</v>
       </c>
       <c r="M371" t="s">
-        <v>10823</v>
+        <v>10822</v>
       </c>
       <c r="N371" t="s">
         <v>6218</v>
@@ -51761,7 +52655,7 @@
         <v>5671</v>
       </c>
       <c r="M372" t="s">
-        <v>10824</v>
+        <v>10823</v>
       </c>
       <c r="N372" t="s">
         <v>6219</v>
@@ -51808,7 +52702,7 @@
         <v>5672</v>
       </c>
       <c r="M373" t="s">
-        <v>10825</v>
+        <v>10824</v>
       </c>
       <c r="N373" t="s">
         <v>6220</v>
@@ -51855,7 +52749,7 @@
         <v>5673</v>
       </c>
       <c r="M374" t="s">
-        <v>10826</v>
+        <v>10825</v>
       </c>
       <c r="N374" t="s">
         <v>5119</v>
@@ -51902,7 +52796,7 @@
         <v>5674</v>
       </c>
       <c r="M375" t="s">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="N375" t="s">
         <v>6221</v>
@@ -51949,7 +52843,7 @@
         <v>5675</v>
       </c>
       <c r="M376" t="s">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="N376" t="s">
         <v>6222</v>
@@ -51996,7 +52890,7 @@
         <v>5676</v>
       </c>
       <c r="M377" t="s">
-        <v>10829</v>
+        <v>10828</v>
       </c>
       <c r="N377" t="s">
         <v>6223</v>
@@ -52043,7 +52937,7 @@
         <v>5677</v>
       </c>
       <c r="M378" t="s">
-        <v>10830</v>
+        <v>10829</v>
       </c>
       <c r="N378" t="s">
         <v>6224</v>
@@ -52090,7 +52984,7 @@
         <v>5678</v>
       </c>
       <c r="M379" t="s">
-        <v>10831</v>
+        <v>10830</v>
       </c>
       <c r="N379" t="s">
         <v>6225</v>
@@ -52137,7 +53031,7 @@
         <v>5679</v>
       </c>
       <c r="M380" t="s">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="N380" t="s">
         <v>6226</v>
@@ -52184,7 +53078,7 @@
         <v>5680</v>
       </c>
       <c r="M381" t="s">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="N381" t="s">
         <v>6227</v>
@@ -52231,7 +53125,7 @@
         <v>5681</v>
       </c>
       <c r="M382" t="s">
-        <v>10834</v>
+        <v>10833</v>
       </c>
       <c r="N382" t="s">
         <v>6228</v>
@@ -52278,7 +53172,7 @@
         <v>5682</v>
       </c>
       <c r="M383" t="s">
-        <v>10835</v>
+        <v>10834</v>
       </c>
       <c r="N383" t="s">
         <v>6229</v>
@@ -52325,7 +53219,7 @@
         <v>5683</v>
       </c>
       <c r="M384" t="s">
-        <v>10836</v>
+        <v>10835</v>
       </c>
       <c r="N384" t="s">
         <v>6230</v>
@@ -52372,7 +53266,7 @@
         <v>5684</v>
       </c>
       <c r="M385" t="s">
-        <v>10837</v>
+        <v>10836</v>
       </c>
       <c r="N385" t="s">
         <v>6231</v>
@@ -52419,7 +53313,7 @@
         <v>5685</v>
       </c>
       <c r="M386" t="s">
-        <v>10838</v>
+        <v>10837</v>
       </c>
       <c r="N386" t="s">
         <v>6232</v>
@@ -52466,7 +53360,7 @@
         <v>5686</v>
       </c>
       <c r="M387" t="s">
-        <v>11201</v>
+        <v>11200</v>
       </c>
       <c r="N387" t="s">
         <v>6233</v>
@@ -52513,7 +53407,7 @@
         <v>5687</v>
       </c>
       <c r="M388" t="s">
-        <v>10839</v>
+        <v>10838</v>
       </c>
       <c r="N388" t="s">
         <v>6234</v>
@@ -52560,7 +53454,7 @@
         <v>5688</v>
       </c>
       <c r="M389" t="s">
-        <v>10840</v>
+        <v>10839</v>
       </c>
       <c r="N389" t="s">
         <v>6235</v>
@@ -52607,7 +53501,7 @@
         <v>5689</v>
       </c>
       <c r="M390" t="s">
-        <v>10841</v>
+        <v>10840</v>
       </c>
       <c r="N390" t="s">
         <v>6236</v>
@@ -52701,7 +53595,7 @@
         <v>5690</v>
       </c>
       <c r="M392" t="s">
-        <v>10842</v>
+        <v>10841</v>
       </c>
       <c r="N392" t="s">
         <v>6237</v>
@@ -52748,7 +53642,7 @@
         <v>10227</v>
       </c>
       <c r="M393" t="s">
-        <v>10843</v>
+        <v>10842</v>
       </c>
       <c r="N393" t="s">
         <v>6238</v>
@@ -52795,7 +53689,7 @@
         <v>10228</v>
       </c>
       <c r="M394" t="s">
-        <v>10844</v>
+        <v>10843</v>
       </c>
       <c r="N394" t="s">
         <v>6239</v>
@@ -52842,7 +53736,7 @@
         <v>5691</v>
       </c>
       <c r="M395" t="s">
-        <v>10845</v>
+        <v>10844</v>
       </c>
       <c r="N395" t="s">
         <v>6240</v>
@@ -52889,7 +53783,7 @@
         <v>10229</v>
       </c>
       <c r="M396" t="s">
-        <v>10846</v>
+        <v>10845</v>
       </c>
       <c r="N396" t="s">
         <v>6241</v>
@@ -52936,7 +53830,7 @@
         <v>10230</v>
       </c>
       <c r="M397" t="s">
-        <v>10847</v>
+        <v>10846</v>
       </c>
       <c r="N397" t="s">
         <v>6242</v>
@@ -52983,7 +53877,7 @@
         <v>10232</v>
       </c>
       <c r="M398" t="s">
-        <v>10848</v>
+        <v>10847</v>
       </c>
       <c r="N398" t="s">
         <v>6243</v>
@@ -53030,7 +53924,7 @@
         <v>5692</v>
       </c>
       <c r="M399" t="s">
-        <v>10849</v>
+        <v>10848</v>
       </c>
       <c r="N399" t="s">
         <v>6244</v>
@@ -53077,7 +53971,7 @@
         <v>5693</v>
       </c>
       <c r="M400" t="s">
-        <v>10850</v>
+        <v>10849</v>
       </c>
       <c r="N400" t="s">
         <v>6245</v>
@@ -53124,7 +54018,7 @@
         <v>9718</v>
       </c>
       <c r="M401" t="s">
-        <v>10851</v>
+        <v>10850</v>
       </c>
       <c r="N401" t="s">
         <v>6246</v>
@@ -53171,7 +54065,7 @@
         <v>5694</v>
       </c>
       <c r="M402" t="s">
-        <v>10852</v>
+        <v>10851</v>
       </c>
       <c r="N402" t="s">
         <v>6247</v>
@@ -53218,7 +54112,7 @@
         <v>5695</v>
       </c>
       <c r="M403" t="s">
-        <v>10853</v>
+        <v>10852</v>
       </c>
       <c r="N403" t="s">
         <v>6248</v>
@@ -53265,7 +54159,7 @@
         <v>5696</v>
       </c>
       <c r="M404" t="s">
-        <v>10854</v>
+        <v>10853</v>
       </c>
       <c r="N404" t="s">
         <v>6249</v>
@@ -53312,7 +54206,7 @@
         <v>1616</v>
       </c>
       <c r="M405" t="s">
-        <v>10855</v>
+        <v>10854</v>
       </c>
       <c r="N405" t="s">
         <v>6250</v>
@@ -53359,7 +54253,7 @@
         <v>5697</v>
       </c>
       <c r="M406" t="s">
-        <v>11202</v>
+        <v>11201</v>
       </c>
       <c r="N406" t="s">
         <v>6251</v>
@@ -53406,7 +54300,7 @@
         <v>1618</v>
       </c>
       <c r="M407" t="s">
-        <v>10856</v>
+        <v>10855</v>
       </c>
       <c r="N407" t="s">
         <v>6252</v>
@@ -53453,7 +54347,7 @@
         <v>5698</v>
       </c>
       <c r="M408" t="s">
-        <v>10857</v>
+        <v>10856</v>
       </c>
       <c r="N408" t="s">
         <v>6253</v>
@@ -53500,7 +54394,7 @@
         <v>10149</v>
       </c>
       <c r="M409" t="s">
-        <v>10858</v>
+        <v>10857</v>
       </c>
       <c r="N409" t="s">
         <v>10150</v>
@@ -53547,7 +54441,7 @@
         <v>5699</v>
       </c>
       <c r="M410" t="s">
-        <v>10859</v>
+        <v>10858</v>
       </c>
       <c r="N410" t="s">
         <v>6254</v>
@@ -53594,7 +54488,7 @@
         <v>5700</v>
       </c>
       <c r="M411" t="s">
-        <v>10860</v>
+        <v>10859</v>
       </c>
       <c r="N411" t="s">
         <v>6255</v>
@@ -53641,7 +54535,7 @@
         <v>9721</v>
       </c>
       <c r="M412" t="s">
-        <v>10861</v>
+        <v>10860</v>
       </c>
       <c r="N412" t="s">
         <v>6256</v>
@@ -53688,7 +54582,7 @@
         <v>5701</v>
       </c>
       <c r="M413" t="s">
-        <v>10862</v>
+        <v>10861</v>
       </c>
       <c r="N413" t="s">
         <v>6257</v>
@@ -53735,7 +54629,7 @@
         <v>10126</v>
       </c>
       <c r="M414" t="s">
-        <v>10863</v>
+        <v>10862</v>
       </c>
       <c r="N414" t="s">
         <v>6258</v>
@@ -53782,7 +54676,7 @@
         <v>5702</v>
       </c>
       <c r="M415" t="s">
-        <v>10864</v>
+        <v>10863</v>
       </c>
       <c r="N415" t="s">
         <v>6259</v>
@@ -53829,7 +54723,7 @@
         <v>5703</v>
       </c>
       <c r="M416" t="s">
-        <v>10865</v>
+        <v>10864</v>
       </c>
       <c r="N416" t="s">
         <v>6260</v>
@@ -53876,7 +54770,7 @@
         <v>5704</v>
       </c>
       <c r="M417" t="s">
-        <v>10866</v>
+        <v>10865</v>
       </c>
       <c r="N417" t="s">
         <v>6261</v>
@@ -53923,7 +54817,7 @@
         <v>5705</v>
       </c>
       <c r="M418" t="s">
-        <v>10867</v>
+        <v>10866</v>
       </c>
       <c r="N418" t="s">
         <v>6262</v>
@@ -53970,7 +54864,7 @@
         <v>5706</v>
       </c>
       <c r="M419" t="s">
-        <v>10868</v>
+        <v>10867</v>
       </c>
       <c r="N419" t="s">
         <v>6263</v>
@@ -54017,7 +54911,7 @@
         <v>5707</v>
       </c>
       <c r="M420" t="s">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="N420" t="s">
         <v>6264</v>
@@ -54064,7 +54958,7 @@
         <v>5708</v>
       </c>
       <c r="M421" t="s">
-        <v>10869</v>
+        <v>10868</v>
       </c>
       <c r="N421" t="s">
         <v>6265</v>
@@ -54111,7 +55005,7 @@
         <v>5709</v>
       </c>
       <c r="M422" t="s">
-        <v>10801</v>
+        <v>10800</v>
       </c>
       <c r="N422" t="s">
         <v>6194</v>
@@ -54158,7 +55052,7 @@
         <v>5710</v>
       </c>
       <c r="M423" t="s">
-        <v>10870</v>
+        <v>10869</v>
       </c>
       <c r="N423" t="s">
         <v>6266</v>
@@ -54205,7 +55099,7 @@
         <v>5711</v>
       </c>
       <c r="M424" t="s">
-        <v>10871</v>
+        <v>10870</v>
       </c>
       <c r="N424" t="s">
         <v>6267</v>
@@ -54252,7 +55146,7 @@
         <v>5712</v>
       </c>
       <c r="M425" t="s">
-        <v>10872</v>
+        <v>10871</v>
       </c>
       <c r="N425" t="s">
         <v>6268</v>
@@ -54299,7 +55193,7 @@
         <v>1634</v>
       </c>
       <c r="M426" t="s">
-        <v>10873</v>
+        <v>10872</v>
       </c>
       <c r="N426" t="s">
         <v>6269</v>
@@ -54346,7 +55240,7 @@
         <v>5713</v>
       </c>
       <c r="M427" t="s">
-        <v>10874</v>
+        <v>10873</v>
       </c>
       <c r="N427" t="s">
         <v>6270</v>
@@ -54393,7 +55287,7 @@
         <v>1636</v>
       </c>
       <c r="M428" t="s">
-        <v>10875</v>
+        <v>10874</v>
       </c>
       <c r="N428" t="s">
         <v>6271</v>
@@ -54440,7 +55334,7 @@
         <v>5714</v>
       </c>
       <c r="M429" t="s">
-        <v>10876</v>
+        <v>10875</v>
       </c>
       <c r="N429" t="s">
         <v>6272</v>
@@ -54487,7 +55381,7 @@
         <v>1638</v>
       </c>
       <c r="M430" t="s">
-        <v>10877</v>
+        <v>10876</v>
       </c>
       <c r="N430" t="s">
         <v>6273</v>
@@ -54534,7 +55428,7 @@
         <v>5715</v>
       </c>
       <c r="M431" t="s">
-        <v>10878</v>
+        <v>10877</v>
       </c>
       <c r="N431" t="s">
         <v>6274</v>
@@ -54581,7 +55475,7 @@
         <v>5716</v>
       </c>
       <c r="M432" t="s">
-        <v>10879</v>
+        <v>10878</v>
       </c>
       <c r="N432" t="s">
         <v>2183</v>
@@ -54628,7 +55522,7 @@
         <v>5717</v>
       </c>
       <c r="M433" t="s">
-        <v>10880</v>
+        <v>10879</v>
       </c>
       <c r="N433" t="s">
         <v>6275</v>
@@ -54675,7 +55569,7 @@
         <v>5718</v>
       </c>
       <c r="M434" t="s">
-        <v>10881</v>
+        <v>10880</v>
       </c>
       <c r="N434" t="s">
         <v>6276</v>
@@ -54722,7 +55616,7 @@
         <v>5719</v>
       </c>
       <c r="M435" t="s">
-        <v>10882</v>
+        <v>10881</v>
       </c>
       <c r="N435" t="s">
         <v>2186</v>
@@ -54769,7 +55663,7 @@
         <v>5720</v>
       </c>
       <c r="M436" t="s">
-        <v>10883</v>
+        <v>10882</v>
       </c>
       <c r="N436" t="s">
         <v>6277</v>
@@ -54816,7 +55710,7 @@
         <v>5721</v>
       </c>
       <c r="M437" t="s">
-        <v>10884</v>
+        <v>10883</v>
       </c>
       <c r="N437" t="s">
         <v>6278</v>
@@ -54863,7 +55757,7 @@
         <v>5722</v>
       </c>
       <c r="M438" t="s">
-        <v>10885</v>
+        <v>10884</v>
       </c>
       <c r="N438" t="s">
         <v>6279</v>
@@ -54910,7 +55804,7 @@
         <v>5723</v>
       </c>
       <c r="M439" t="s">
-        <v>10886</v>
+        <v>10885</v>
       </c>
       <c r="N439" t="s">
         <v>6280</v>
@@ -54957,7 +55851,7 @@
         <v>9749</v>
       </c>
       <c r="M440" t="s">
-        <v>10887</v>
+        <v>10886</v>
       </c>
       <c r="N440" t="s">
         <v>6281</v>
@@ -55004,7 +55898,7 @@
         <v>5724</v>
       </c>
       <c r="M441" t="s">
-        <v>10888</v>
+        <v>10887</v>
       </c>
       <c r="N441" t="s">
         <v>6282</v>
@@ -55051,7 +55945,7 @@
         <v>5725</v>
       </c>
       <c r="M442" t="s">
-        <v>10889</v>
+        <v>10888</v>
       </c>
       <c r="N442" t="s">
         <v>6283</v>
@@ -55098,7 +55992,7 @@
         <v>7515</v>
       </c>
       <c r="M443" t="s">
-        <v>10890</v>
+        <v>10889</v>
       </c>
       <c r="N443" t="s">
         <v>7516</v>
@@ -55192,7 +56086,7 @@
         <v>1651</v>
       </c>
       <c r="M445" t="s">
-        <v>10891</v>
+        <v>10890</v>
       </c>
       <c r="N445" t="s">
         <v>6285</v>
@@ -55239,7 +56133,7 @@
         <v>5726</v>
       </c>
       <c r="M446" t="s">
-        <v>10892</v>
+        <v>10891</v>
       </c>
       <c r="N446" t="s">
         <v>6286</v>
@@ -55380,7 +56274,7 @@
         <v>5729</v>
       </c>
       <c r="M449" t="s">
-        <v>10893</v>
+        <v>10892</v>
       </c>
       <c r="N449" t="s">
         <v>6288</v>
@@ -55427,7 +56321,7 @@
         <v>5730</v>
       </c>
       <c r="M450" t="s">
-        <v>10894</v>
+        <v>10893</v>
       </c>
       <c r="N450" t="s">
         <v>6289</v>
@@ -55474,7 +56368,7 @@
         <v>10240</v>
       </c>
       <c r="M451" t="s">
-        <v>10895</v>
+        <v>10894</v>
       </c>
       <c r="N451" t="s">
         <v>6290</v>
@@ -55521,7 +56415,7 @@
         <v>9260</v>
       </c>
       <c r="M452" t="s">
-        <v>10896</v>
+        <v>10895</v>
       </c>
       <c r="N452" t="s">
         <v>9251</v>
@@ -55568,7 +56462,7 @@
         <v>5731</v>
       </c>
       <c r="M453" t="s">
-        <v>10897</v>
+        <v>10896</v>
       </c>
       <c r="N453" t="s">
         <v>6291</v>
@@ -55662,7 +56556,7 @@
         <v>5733</v>
       </c>
       <c r="M455" t="s">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="N455" t="s">
         <v>6293</v>
@@ -55709,7 +56603,7 @@
         <v>5734</v>
       </c>
       <c r="M456" t="s">
-        <v>10898</v>
+        <v>10897</v>
       </c>
       <c r="N456" t="s">
         <v>6294</v>
@@ -55756,7 +56650,7 @@
         <v>5735</v>
       </c>
       <c r="M457" t="s">
-        <v>10899</v>
+        <v>10898</v>
       </c>
       <c r="N457" t="s">
         <v>6295</v>
@@ -55803,7 +56697,7 @@
         <v>5736</v>
       </c>
       <c r="M458" t="s">
-        <v>11218</v>
+        <v>11217</v>
       </c>
       <c r="N458" t="s">
         <v>6296</v>
@@ -55850,7 +56744,7 @@
         <v>5737</v>
       </c>
       <c r="M459" t="s">
-        <v>10900</v>
+        <v>10899</v>
       </c>
       <c r="N459" t="s">
         <v>6297</v>
@@ -55897,7 +56791,7 @@
         <v>5738</v>
       </c>
       <c r="M460" t="s">
-        <v>10901</v>
+        <v>10900</v>
       </c>
       <c r="N460" t="s">
         <v>6298</v>
@@ -55944,7 +56838,7 @@
         <v>5739</v>
       </c>
       <c r="M461" t="s">
-        <v>10902</v>
+        <v>10901</v>
       </c>
       <c r="N461" t="s">
         <v>6299</v>
@@ -55991,7 +56885,7 @@
         <v>5740</v>
       </c>
       <c r="M462" t="s">
-        <v>10903</v>
+        <v>10902</v>
       </c>
       <c r="N462" t="s">
         <v>6300</v>
@@ -56038,7 +56932,7 @@
         <v>5741</v>
       </c>
       <c r="M463" t="s">
-        <v>10904</v>
+        <v>10903</v>
       </c>
       <c r="N463" t="s">
         <v>6301</v>
@@ -56085,7 +56979,7 @@
         <v>5742</v>
       </c>
       <c r="M464" t="s">
-        <v>10905</v>
+        <v>10904</v>
       </c>
       <c r="N464" t="s">
         <v>6302</v>
@@ -56132,7 +57026,7 @@
         <v>5743</v>
       </c>
       <c r="M465" t="s">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="N465" t="s">
         <v>6303</v>
@@ -56179,7 +57073,7 @@
         <v>10360</v>
       </c>
       <c r="M466" t="s">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="N466" t="s">
         <v>6304</v>
@@ -56226,7 +57120,7 @@
         <v>5744</v>
       </c>
       <c r="M467" t="s">
-        <v>10907</v>
+        <v>10906</v>
       </c>
       <c r="N467" t="s">
         <v>6305</v>
@@ -56273,7 +57167,7 @@
         <v>5745</v>
       </c>
       <c r="M468" t="s">
-        <v>10908</v>
+        <v>10907</v>
       </c>
       <c r="N468" t="s">
         <v>6306</v>
@@ -56320,7 +57214,7 @@
         <v>5746</v>
       </c>
       <c r="M469" t="s">
-        <v>10909</v>
+        <v>10908</v>
       </c>
       <c r="N469" t="s">
         <v>6307</v>
@@ -56367,7 +57261,7 @@
         <v>10351</v>
       </c>
       <c r="M470" t="s">
-        <v>10910</v>
+        <v>10909</v>
       </c>
       <c r="N470" t="s">
         <v>6308</v>
@@ -56414,7 +57308,7 @@
         <v>10245</v>
       </c>
       <c r="M471" t="s">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="N471" t="s">
         <v>6309</v>
@@ -56461,7 +57355,7 @@
         <v>10246</v>
       </c>
       <c r="M472" t="s">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="N472" t="s">
         <v>6310</v>
@@ -56508,7 +57402,7 @@
         <v>10247</v>
       </c>
       <c r="M473" t="s">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="N473" t="s">
         <v>6311</v>
@@ -56555,7 +57449,7 @@
         <v>5747</v>
       </c>
       <c r="M474" t="s">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="N474" t="s">
         <v>5213</v>
@@ -56602,7 +57496,7 @@
         <v>5748</v>
       </c>
       <c r="M475" t="s">
-        <v>10915</v>
+        <v>10914</v>
       </c>
       <c r="N475" t="s">
         <v>6312</v>
@@ -56649,7 +57543,7 @@
         <v>10248</v>
       </c>
       <c r="M476" t="s">
-        <v>10916</v>
+        <v>10915</v>
       </c>
       <c r="N476" t="s">
         <v>6313</v>
@@ -56696,7 +57590,7 @@
         <v>5749</v>
       </c>
       <c r="M477" t="s">
-        <v>10917</v>
+        <v>10916</v>
       </c>
       <c r="N477" t="s">
         <v>6314</v>
@@ -56743,7 +57637,7 @@
         <v>5750</v>
       </c>
       <c r="M478" t="s">
-        <v>10918</v>
+        <v>10917</v>
       </c>
       <c r="N478" t="s">
         <v>6315</v>
@@ -56790,7 +57684,7 @@
         <v>5751</v>
       </c>
       <c r="M479" t="s">
-        <v>10919</v>
+        <v>10918</v>
       </c>
       <c r="N479" t="s">
         <v>6316</v>
@@ -56837,7 +57731,7 @@
         <v>5752</v>
       </c>
       <c r="M480" t="s">
-        <v>10920</v>
+        <v>10919</v>
       </c>
       <c r="N480" t="s">
         <v>6317</v>
@@ -56884,7 +57778,7 @@
         <v>5753</v>
       </c>
       <c r="M481" t="s">
-        <v>10921</v>
+        <v>10920</v>
       </c>
       <c r="N481" t="s">
         <v>6318</v>
@@ -56931,7 +57825,7 @@
         <v>5754</v>
       </c>
       <c r="M482" t="s">
-        <v>10922</v>
+        <v>10921</v>
       </c>
       <c r="N482" t="s">
         <v>6319</v>
@@ -56978,7 +57872,7 @@
         <v>5755</v>
       </c>
       <c r="M483" t="s">
-        <v>10923</v>
+        <v>10922</v>
       </c>
       <c r="N483" t="s">
         <v>6320</v>
@@ -57025,7 +57919,7 @@
         <v>1682</v>
       </c>
       <c r="M484" t="s">
-        <v>10924</v>
+        <v>10923</v>
       </c>
       <c r="N484" t="s">
         <v>6321</v>
@@ -57072,7 +57966,7 @@
         <v>5756</v>
       </c>
       <c r="M485" t="s">
-        <v>10925</v>
+        <v>10924</v>
       </c>
       <c r="N485" t="s">
         <v>6322</v>
@@ -57119,7 +58013,7 @@
         <v>5757</v>
       </c>
       <c r="M486" t="s">
-        <v>10926</v>
+        <v>10925</v>
       </c>
       <c r="N486" t="s">
         <v>6323</v>
@@ -57166,7 +58060,7 @@
         <v>5758</v>
       </c>
       <c r="M487" t="s">
-        <v>10927</v>
+        <v>10926</v>
       </c>
       <c r="N487" t="s">
         <v>6324</v>
@@ -57213,7 +58107,7 @@
         <v>5759</v>
       </c>
       <c r="M488" t="s">
-        <v>10928</v>
+        <v>10927</v>
       </c>
       <c r="N488" t="s">
         <v>6325</v>
@@ -57260,7 +58154,7 @@
         <v>5760</v>
       </c>
       <c r="M489" t="s">
-        <v>10929</v>
+        <v>10928</v>
       </c>
       <c r="N489" t="s">
         <v>6326</v>
@@ -57307,7 +58201,7 @@
         <v>5761</v>
       </c>
       <c r="M490" t="s">
-        <v>10930</v>
+        <v>10929</v>
       </c>
       <c r="N490" t="s">
         <v>6327</v>
@@ -57354,7 +58248,7 @@
         <v>5762</v>
       </c>
       <c r="M491" t="s">
-        <v>10931</v>
+        <v>10930</v>
       </c>
       <c r="N491" t="s">
         <v>6328</v>
@@ -57401,7 +58295,7 @@
         <v>5763</v>
       </c>
       <c r="M492" t="s">
-        <v>10932</v>
+        <v>10931</v>
       </c>
       <c r="N492" t="s">
         <v>6329</v>
@@ -57448,7 +58342,7 @@
         <v>1691</v>
       </c>
       <c r="M493" t="s">
-        <v>10933</v>
+        <v>10932</v>
       </c>
       <c r="N493" t="s">
         <v>6330</v>
@@ -57495,7 +58389,7 @@
         <v>5470</v>
       </c>
       <c r="M494" t="s">
-        <v>10934</v>
+        <v>10933</v>
       </c>
       <c r="N494" t="s">
         <v>5233</v>
@@ -57542,7 +58436,7 @@
         <v>5764</v>
       </c>
       <c r="M495" t="s">
-        <v>10935</v>
+        <v>10934</v>
       </c>
       <c r="N495" t="s">
         <v>6331</v>
@@ -57589,7 +58483,7 @@
         <v>5765</v>
       </c>
       <c r="M496" t="s">
-        <v>10936</v>
+        <v>10935</v>
       </c>
       <c r="N496" t="s">
         <v>6332</v>
@@ -57636,7 +58530,7 @@
         <v>5766</v>
       </c>
       <c r="M497" t="s">
-        <v>10937</v>
+        <v>10936</v>
       </c>
       <c r="N497" t="s">
         <v>6333</v>
@@ -57683,7 +58577,7 @@
         <v>5767</v>
       </c>
       <c r="M498" t="s">
-        <v>10938</v>
+        <v>10937</v>
       </c>
       <c r="N498" t="s">
         <v>6334</v>
@@ -57730,7 +58624,7 @@
         <v>5768</v>
       </c>
       <c r="M499" t="s">
-        <v>10939</v>
+        <v>10938</v>
       </c>
       <c r="N499" t="s">
         <v>6335</v>
@@ -57777,7 +58671,7 @@
         <v>5769</v>
       </c>
       <c r="M500" t="s">
-        <v>10940</v>
+        <v>10939</v>
       </c>
       <c r="N500" t="s">
         <v>6336</v>
@@ -57824,7 +58718,7 @@
         <v>5770</v>
       </c>
       <c r="M501" t="s">
-        <v>10941</v>
+        <v>10940</v>
       </c>
       <c r="N501" t="s">
         <v>6337</v>
@@ -57871,7 +58765,7 @@
         <v>5771</v>
       </c>
       <c r="M502" t="s">
-        <v>10942</v>
+        <v>10941</v>
       </c>
       <c r="N502" t="s">
         <v>6167</v>
@@ -57918,7 +58812,7 @@
         <v>5772</v>
       </c>
       <c r="M503" t="s">
-        <v>10943</v>
+        <v>10942</v>
       </c>
       <c r="N503" t="s">
         <v>6338</v>
@@ -57965,7 +58859,7 @@
         <v>5773</v>
       </c>
       <c r="M504" t="s">
-        <v>10944</v>
+        <v>10943</v>
       </c>
       <c r="N504" t="s">
         <v>6339</v>
@@ -58012,7 +58906,7 @@
         <v>5774</v>
       </c>
       <c r="M505" t="s">
-        <v>10945</v>
+        <v>10944</v>
       </c>
       <c r="N505" t="s">
         <v>6340</v>
@@ -58059,7 +58953,7 @@
         <v>5775</v>
       </c>
       <c r="M506" t="s">
-        <v>10946</v>
+        <v>10945</v>
       </c>
       <c r="N506" t="s">
         <v>6341</v>
@@ -58106,7 +59000,7 @@
         <v>1704</v>
       </c>
       <c r="M507" t="s">
-        <v>10947</v>
+        <v>10946</v>
       </c>
       <c r="N507" t="s">
         <v>6342</v>
@@ -58153,7 +59047,7 @@
         <v>7279</v>
       </c>
       <c r="M508" t="s">
-        <v>10948</v>
+        <v>10947</v>
       </c>
       <c r="N508" t="s">
         <v>7303</v>
@@ -58200,7 +59094,7 @@
         <v>7280</v>
       </c>
       <c r="M509" t="s">
-        <v>10949</v>
+        <v>10948</v>
       </c>
       <c r="N509" t="s">
         <v>7304</v>
@@ -58247,7 +59141,7 @@
         <v>7281</v>
       </c>
       <c r="M510" t="s">
-        <v>10950</v>
+        <v>10949</v>
       </c>
       <c r="N510" t="s">
         <v>7305</v>
@@ -58294,7 +59188,7 @@
         <v>7282</v>
       </c>
       <c r="M511" t="s">
-        <v>10951</v>
+        <v>10950</v>
       </c>
       <c r="N511" t="s">
         <v>7306</v>
@@ -58341,7 +59235,7 @@
         <v>5776</v>
       </c>
       <c r="M512" t="s">
-        <v>10952</v>
+        <v>10951</v>
       </c>
       <c r="N512" t="s">
         <v>5246</v>
@@ -58388,7 +59282,7 @@
         <v>5777</v>
       </c>
       <c r="M513" t="s">
-        <v>10953</v>
+        <v>10952</v>
       </c>
       <c r="N513" t="s">
         <v>6343</v>
@@ -58435,7 +59329,7 @@
         <v>1707</v>
       </c>
       <c r="M514" t="s">
-        <v>10954</v>
+        <v>10953</v>
       </c>
       <c r="N514" t="s">
         <v>6344</v>
@@ -58482,7 +59376,7 @@
         <v>5778</v>
       </c>
       <c r="M515" t="s">
-        <v>10955</v>
+        <v>10954</v>
       </c>
       <c r="N515" t="s">
         <v>6345</v>
@@ -58529,7 +59423,7 @@
         <v>5779</v>
       </c>
       <c r="M516" t="s">
-        <v>10956</v>
+        <v>10955</v>
       </c>
       <c r="N516" t="s">
         <v>6346</v>
@@ -58576,7 +59470,7 @@
         <v>5780</v>
       </c>
       <c r="M517" t="s">
-        <v>10957</v>
+        <v>10956</v>
       </c>
       <c r="N517" t="s">
         <v>6347</v>
@@ -58623,7 +59517,7 @@
         <v>5781</v>
       </c>
       <c r="M518" t="s">
-        <v>10958</v>
+        <v>10957</v>
       </c>
       <c r="N518" t="s">
         <v>6348</v>
@@ -58670,7 +59564,7 @@
         <v>5782</v>
       </c>
       <c r="M519" t="s">
-        <v>10959</v>
+        <v>10958</v>
       </c>
       <c r="N519" t="s">
         <v>6349</v>
@@ -58717,7 +59611,7 @@
         <v>5783</v>
       </c>
       <c r="M520" t="s">
-        <v>10960</v>
+        <v>10959</v>
       </c>
       <c r="N520" t="s">
         <v>6350</v>
@@ -58764,7 +59658,7 @@
         <v>5784</v>
       </c>
       <c r="M521" t="s">
-        <v>10961</v>
+        <v>10960</v>
       </c>
       <c r="N521" t="s">
         <v>6351</v>
@@ -58811,7 +59705,7 @@
         <v>1715</v>
       </c>
       <c r="M522" t="s">
-        <v>10962</v>
+        <v>10961</v>
       </c>
       <c r="N522" t="s">
         <v>6352</v>
@@ -58858,7 +59752,7 @@
         <v>7187</v>
       </c>
       <c r="M523" t="s">
-        <v>10963</v>
+        <v>10962</v>
       </c>
       <c r="N523" t="s">
         <v>7219</v>
@@ -58905,7 +59799,7 @@
         <v>7188</v>
       </c>
       <c r="M524" t="s">
-        <v>10964</v>
+        <v>10963</v>
       </c>
       <c r="N524" t="s">
         <v>7220</v>
@@ -58952,7 +59846,7 @@
         <v>7189</v>
       </c>
       <c r="M525" t="s">
-        <v>10965</v>
+        <v>10964</v>
       </c>
       <c r="N525" t="s">
         <v>7221</v>
@@ -58999,7 +59893,7 @@
         <v>7190</v>
       </c>
       <c r="M526" t="s">
-        <v>10966</v>
+        <v>10965</v>
       </c>
       <c r="N526" t="s">
         <v>7222</v>
@@ -59046,7 +59940,7 @@
         <v>5785</v>
       </c>
       <c r="M527" t="s">
-        <v>10967</v>
+        <v>10966</v>
       </c>
       <c r="N527" t="s">
         <v>6353</v>
@@ -59093,7 +59987,7 @@
         <v>5786</v>
       </c>
       <c r="M528" t="s">
-        <v>10968</v>
+        <v>10967</v>
       </c>
       <c r="N528" t="s">
         <v>6354</v>
@@ -59140,7 +60034,7 @@
         <v>7159</v>
       </c>
       <c r="M529" t="s">
-        <v>10969</v>
+        <v>10968</v>
       </c>
       <c r="N529" t="s">
         <v>7163</v>
@@ -59187,7 +60081,7 @@
         <v>7160</v>
       </c>
       <c r="M530" t="s">
-        <v>10970</v>
+        <v>10969</v>
       </c>
       <c r="N530" t="s">
         <v>7164</v>
@@ -59234,7 +60128,7 @@
         <v>5436</v>
       </c>
       <c r="M531" t="s">
-        <v>10971</v>
+        <v>10970</v>
       </c>
       <c r="N531" t="s">
         <v>6355</v>
@@ -59328,7 +60222,7 @@
         <v>5788</v>
       </c>
       <c r="M533" t="s">
-        <v>10972</v>
+        <v>10971</v>
       </c>
       <c r="N533" t="s">
         <v>2254</v>
@@ -59375,7 +60269,7 @@
         <v>5789</v>
       </c>
       <c r="M534" t="s">
-        <v>10973</v>
+        <v>10972</v>
       </c>
       <c r="N534" t="s">
         <v>6357</v>
@@ -59422,7 +60316,7 @@
         <v>5790</v>
       </c>
       <c r="M535" t="s">
-        <v>10974</v>
+        <v>10973</v>
       </c>
       <c r="N535" t="s">
         <v>6358</v>
@@ -59469,7 +60363,7 @@
         <v>5791</v>
       </c>
       <c r="M536" t="s">
-        <v>10975</v>
+        <v>10974</v>
       </c>
       <c r="N536" t="s">
         <v>6359</v>
@@ -59516,7 +60410,7 @@
         <v>5792</v>
       </c>
       <c r="M537" t="s">
-        <v>10976</v>
+        <v>10975</v>
       </c>
       <c r="N537" t="s">
         <v>6360</v>
@@ -59563,7 +60457,7 @@
         <v>5793</v>
       </c>
       <c r="M538" t="s">
-        <v>10977</v>
+        <v>10976</v>
       </c>
       <c r="N538" t="s">
         <v>6361</v>
@@ -59610,7 +60504,7 @@
         <v>5794</v>
       </c>
       <c r="M539" t="s">
-        <v>10978</v>
+        <v>10977</v>
       </c>
       <c r="N539" t="s">
         <v>6362</v>
@@ -59657,7 +60551,7 @@
         <v>5795</v>
       </c>
       <c r="M540" t="s">
-        <v>10979</v>
+        <v>10978</v>
       </c>
       <c r="N540" t="s">
         <v>6363</v>
@@ -59704,7 +60598,7 @@
         <v>5796</v>
       </c>
       <c r="M541" t="s">
-        <v>10980</v>
+        <v>10979</v>
       </c>
       <c r="N541" t="s">
         <v>6364</v>
@@ -59751,7 +60645,7 @@
         <v>5797</v>
       </c>
       <c r="M542" t="s">
-        <v>10981</v>
+        <v>10980</v>
       </c>
       <c r="N542" t="s">
         <v>5268</v>
@@ -59798,7 +60692,7 @@
         <v>5798</v>
       </c>
       <c r="M543" t="s">
-        <v>10982</v>
+        <v>10981</v>
       </c>
       <c r="N543" t="s">
         <v>6365</v>
@@ -59845,7 +60739,7 @@
         <v>5799</v>
       </c>
       <c r="M544" t="s">
-        <v>10983</v>
+        <v>10982</v>
       </c>
       <c r="N544" t="s">
         <v>6366</v>
@@ -59892,7 +60786,7 @@
         <v>5800</v>
       </c>
       <c r="M545" t="s">
-        <v>10984</v>
+        <v>10983</v>
       </c>
       <c r="N545" t="s">
         <v>6367</v>
@@ -59939,7 +60833,7 @@
         <v>5801</v>
       </c>
       <c r="M546" t="s">
-        <v>10985</v>
+        <v>10984</v>
       </c>
       <c r="N546" t="s">
         <v>6368</v>
@@ -59986,7 +60880,7 @@
         <v>1733</v>
       </c>
       <c r="M547" t="s">
-        <v>11206</v>
+        <v>11205</v>
       </c>
       <c r="N547" t="s">
         <v>6369</v>
@@ -60033,7 +60927,7 @@
         <v>5802</v>
       </c>
       <c r="M548" t="s">
-        <v>10986</v>
+        <v>10985</v>
       </c>
       <c r="N548" t="s">
         <v>6370</v>
@@ -60080,7 +60974,7 @@
         <v>5803</v>
       </c>
       <c r="M549" t="s">
-        <v>10987</v>
+        <v>10986</v>
       </c>
       <c r="N549" t="s">
         <v>6371</v>
@@ -60127,7 +61021,7 @@
         <v>7228</v>
       </c>
       <c r="M550" t="s">
-        <v>10988</v>
+        <v>10987</v>
       </c>
       <c r="N550" t="s">
         <v>7230</v>
@@ -60221,7 +61115,7 @@
         <v>5805</v>
       </c>
       <c r="M552" t="s">
-        <v>10989</v>
+        <v>10988</v>
       </c>
       <c r="N552" t="s">
         <v>6372</v>
@@ -60268,7 +61162,7 @@
         <v>5806</v>
       </c>
       <c r="M553" t="s">
-        <v>10990</v>
+        <v>10989</v>
       </c>
       <c r="N553" t="s">
         <v>6373</v>
@@ -60315,7 +61209,7 @@
         <v>5807</v>
       </c>
       <c r="M554" t="s">
-        <v>10991</v>
+        <v>10990</v>
       </c>
       <c r="N554" t="s">
         <v>6374</v>
@@ -60362,7 +61256,7 @@
         <v>5808</v>
       </c>
       <c r="M555" t="s">
-        <v>10992</v>
+        <v>10991</v>
       </c>
       <c r="N555" t="s">
         <v>6375</v>
@@ -60409,7 +61303,7 @@
         <v>5809</v>
       </c>
       <c r="M556" t="s">
-        <v>11219</v>
+        <v>11218</v>
       </c>
       <c r="N556" t="s">
         <v>6376</v>
@@ -60456,7 +61350,7 @@
         <v>10373</v>
       </c>
       <c r="M557" t="s">
-        <v>10993</v>
+        <v>10992</v>
       </c>
       <c r="N557" t="s">
         <v>6377</v>
@@ -60503,7 +61397,7 @@
         <v>5810</v>
       </c>
       <c r="M558" t="s">
-        <v>10994</v>
+        <v>10993</v>
       </c>
       <c r="N558" t="s">
         <v>6378</v>
@@ -60550,7 +61444,7 @@
         <v>5811</v>
       </c>
       <c r="M559" t="s">
-        <v>10995</v>
+        <v>10994</v>
       </c>
       <c r="N559" t="s">
         <v>6379</v>
@@ -60597,7 +61491,7 @@
         <v>10363</v>
       </c>
       <c r="M560" t="s">
-        <v>10996</v>
+        <v>10995</v>
       </c>
       <c r="N560" t="s">
         <v>6380</v>
@@ -60644,7 +61538,7 @@
         <v>10375</v>
       </c>
       <c r="M561" t="s">
-        <v>10997</v>
+        <v>10996</v>
       </c>
       <c r="N561" t="s">
         <v>6381</v>
@@ -60691,7 +61585,7 @@
         <v>5812</v>
       </c>
       <c r="M562" t="s">
-        <v>10998</v>
+        <v>10997</v>
       </c>
       <c r="N562" t="s">
         <v>6382</v>
@@ -60738,7 +61632,7 @@
         <v>5813</v>
       </c>
       <c r="M563" t="s">
-        <v>10999</v>
+        <v>10998</v>
       </c>
       <c r="N563" t="s">
         <v>6383</v>
@@ -60785,7 +61679,7 @@
         <v>5814</v>
       </c>
       <c r="M564" t="s">
-        <v>11000</v>
+        <v>10999</v>
       </c>
       <c r="N564" t="s">
         <v>6384</v>
@@ -60832,7 +61726,7 @@
         <v>5815</v>
       </c>
       <c r="M565" t="s">
-        <v>11001</v>
+        <v>11000</v>
       </c>
       <c r="N565" t="s">
         <v>6385</v>
@@ -60926,7 +61820,7 @@
         <v>5816</v>
       </c>
       <c r="M567" t="s">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="N567" t="s">
         <v>6386</v>
@@ -60973,7 +61867,7 @@
         <v>5817</v>
       </c>
       <c r="M568" t="s">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="N568" t="s">
         <v>6387</v>
@@ -61020,7 +61914,7 @@
         <v>5818</v>
       </c>
       <c r="M569" t="s">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="N569" t="s">
         <v>6388</v>
@@ -61067,7 +61961,7 @@
         <v>5819</v>
       </c>
       <c r="M570" t="s">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="N570" t="s">
         <v>6389</v>
@@ -61114,7 +62008,7 @@
         <v>5820</v>
       </c>
       <c r="M571" t="s">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="N571" t="s">
         <v>6390</v>
@@ -61161,7 +62055,7 @@
         <v>5821</v>
       </c>
       <c r="M572" t="s">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="N572" t="s">
         <v>6391</v>
@@ -61208,7 +62102,7 @@
         <v>5822</v>
       </c>
       <c r="M573" t="s">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="N573" t="s">
         <v>6392</v>
@@ -61255,7 +62149,7 @@
         <v>5823</v>
       </c>
       <c r="M574" t="s">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="N574" t="s">
         <v>6393</v>
@@ -61272,10 +62166,10 @@
         <v>1169</v>
       </c>
       <c r="C575" t="s">
-        <v>11231</v>
+        <v>11230</v>
       </c>
       <c r="D575" t="s">
-        <v>11229</v>
+        <v>11228</v>
       </c>
       <c r="E575" t="s">
         <v>2880</v>
@@ -61299,10 +62193,10 @@
         <v>7028</v>
       </c>
       <c r="L575" t="s">
-        <v>11227</v>
+        <v>11226</v>
       </c>
       <c r="M575" t="s">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="N575" t="s">
         <v>6394</v>
@@ -61319,10 +62213,10 @@
         <v>1170</v>
       </c>
       <c r="C576" t="s">
-        <v>11232</v>
+        <v>11231</v>
       </c>
       <c r="D576" t="s">
-        <v>11230</v>
+        <v>11229</v>
       </c>
       <c r="E576" t="s">
         <v>2881</v>
@@ -61346,10 +62240,10 @@
         <v>7029</v>
       </c>
       <c r="L576" t="s">
-        <v>11228</v>
+        <v>11227</v>
       </c>
       <c r="M576" t="s">
-        <v>11011</v>
+        <v>11010</v>
       </c>
       <c r="N576" t="s">
         <v>6395</v>
@@ -61396,7 +62290,7 @@
         <v>5824</v>
       </c>
       <c r="M577" t="s">
-        <v>11012</v>
+        <v>11011</v>
       </c>
       <c r="N577" t="s">
         <v>6396</v>
@@ -61443,7 +62337,7 @@
         <v>5825</v>
       </c>
       <c r="M578" t="s">
-        <v>11013</v>
+        <v>11012</v>
       </c>
       <c r="N578" t="s">
         <v>6397</v>
@@ -61490,7 +62384,7 @@
         <v>5826</v>
       </c>
       <c r="M579" t="s">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="N579" t="s">
         <v>6398</v>
@@ -61537,7 +62431,7 @@
         <v>5827</v>
       </c>
       <c r="M580" t="s">
-        <v>11015</v>
+        <v>11014</v>
       </c>
       <c r="N580" t="s">
         <v>6399</v>
@@ -61584,7 +62478,7 @@
         <v>5828</v>
       </c>
       <c r="M581" t="s">
-        <v>11016</v>
+        <v>11015</v>
       </c>
       <c r="N581" t="s">
         <v>6400</v>
@@ -61631,7 +62525,7 @@
         <v>5829</v>
       </c>
       <c r="M582" t="s">
-        <v>11017</v>
+        <v>11016</v>
       </c>
       <c r="N582" t="s">
         <v>6401</v>
@@ -61678,7 +62572,7 @@
         <v>5830</v>
       </c>
       <c r="M583" t="s">
-        <v>11018</v>
+        <v>11017</v>
       </c>
       <c r="N583" t="s">
         <v>6402</v>
@@ -61725,7 +62619,7 @@
         <v>5831</v>
       </c>
       <c r="M584" t="s">
-        <v>11019</v>
+        <v>11018</v>
       </c>
       <c r="N584" t="s">
         <v>6403</v>
@@ -61772,7 +62666,7 @@
         <v>5832</v>
       </c>
       <c r="M585" t="s">
-        <v>11020</v>
+        <v>11019</v>
       </c>
       <c r="N585" t="s">
         <v>6404</v>
@@ -61819,7 +62713,7 @@
         <v>5833</v>
       </c>
       <c r="M586" t="s">
-        <v>11021</v>
+        <v>11020</v>
       </c>
       <c r="N586" t="s">
         <v>6405</v>
@@ -61866,7 +62760,7 @@
         <v>5834</v>
       </c>
       <c r="M587" t="s">
-        <v>11022</v>
+        <v>11021</v>
       </c>
       <c r="N587" t="s">
         <v>6406</v>
@@ -61913,7 +62807,7 @@
         <v>5835</v>
       </c>
       <c r="M588" t="s">
-        <v>11023</v>
+        <v>11022</v>
       </c>
       <c r="N588" t="s">
         <v>6407</v>
@@ -61960,7 +62854,7 @@
         <v>1768</v>
       </c>
       <c r="M589" t="s">
-        <v>11024</v>
+        <v>11023</v>
       </c>
       <c r="N589" t="s">
         <v>6408</v>
@@ -62007,7 +62901,7 @@
         <v>5836</v>
       </c>
       <c r="M590" t="s">
-        <v>11025</v>
+        <v>11024</v>
       </c>
       <c r="N590" t="s">
         <v>6409</v>
@@ -62054,7 +62948,7 @@
         <v>5837</v>
       </c>
       <c r="M591" t="s">
-        <v>11026</v>
+        <v>11025</v>
       </c>
       <c r="N591" t="s">
         <v>6410</v>
@@ -62101,7 +62995,7 @@
         <v>9752</v>
       </c>
       <c r="M592" t="s">
-        <v>11027</v>
+        <v>11026</v>
       </c>
       <c r="N592" t="s">
         <v>6411</v>
@@ -62148,7 +63042,7 @@
         <v>5838</v>
       </c>
       <c r="M593" t="s">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="N593" t="s">
         <v>6412</v>
@@ -62195,7 +63089,7 @@
         <v>5839</v>
       </c>
       <c r="M594" t="s">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="N594" t="s">
         <v>6413</v>
@@ -62242,7 +63136,7 @@
         <v>5840</v>
       </c>
       <c r="M595" t="s">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="N595" t="s">
         <v>6414</v>
@@ -62289,7 +63183,7 @@
         <v>5841</v>
       </c>
       <c r="M596" t="s">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="N596" t="s">
         <v>6415</v>
@@ -62336,7 +63230,7 @@
         <v>5842</v>
       </c>
       <c r="M597" t="s">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="N597" t="s">
         <v>6416</v>
@@ -62383,7 +63277,7 @@
         <v>5843</v>
       </c>
       <c r="M598" t="s">
-        <v>11033</v>
+        <v>11032</v>
       </c>
       <c r="N598" t="s">
         <v>6417</v>
@@ -62430,7 +63324,7 @@
         <v>5844</v>
       </c>
       <c r="M599" t="s">
-        <v>11034</v>
+        <v>11033</v>
       </c>
       <c r="N599" t="s">
         <v>6418</v>
@@ -62477,7 +63371,7 @@
         <v>5845</v>
       </c>
       <c r="M600" t="s">
-        <v>11035</v>
+        <v>11034</v>
       </c>
       <c r="N600" t="s">
         <v>6115</v>
@@ -62524,7 +63418,7 @@
         <v>1779</v>
       </c>
       <c r="M601" t="s">
-        <v>11036</v>
+        <v>11035</v>
       </c>
       <c r="N601" t="s">
         <v>6419</v>
@@ -62571,7 +63465,7 @@
         <v>5846</v>
       </c>
       <c r="M602" t="s">
-        <v>11037</v>
+        <v>11036</v>
       </c>
       <c r="N602" t="s">
         <v>6420</v>
@@ -62618,7 +63512,7 @@
         <v>5847</v>
       </c>
       <c r="M603" t="s">
-        <v>11038</v>
+        <v>11037</v>
       </c>
       <c r="N603" t="s">
         <v>6421</v>
@@ -62665,7 +63559,7 @@
         <v>5848</v>
       </c>
       <c r="M604" t="s">
-        <v>11039</v>
+        <v>11038</v>
       </c>
       <c r="N604" t="s">
         <v>6422</v>
@@ -62712,7 +63606,7 @@
         <v>8421</v>
       </c>
       <c r="M605" t="s">
-        <v>11040</v>
+        <v>11039</v>
       </c>
       <c r="N605" t="s">
         <v>6423</v>
@@ -62759,7 +63653,7 @@
         <v>5849</v>
       </c>
       <c r="M606" t="s">
-        <v>11041</v>
+        <v>11040</v>
       </c>
       <c r="N606" t="s">
         <v>6424</v>
@@ -62779,7 +63673,7 @@
         <v>8403</v>
       </c>
       <c r="D607" t="s">
-        <v>11233</v>
+        <v>11232</v>
       </c>
       <c r="E607" t="s">
         <v>8405</v>
@@ -62806,7 +63700,7 @@
         <v>8402</v>
       </c>
       <c r="M607" t="s">
-        <v>11207</v>
+        <v>11206</v>
       </c>
       <c r="N607" t="s">
         <v>8411</v>
@@ -62853,7 +63747,7 @@
         <v>1784</v>
       </c>
       <c r="M608" t="s">
-        <v>11042</v>
+        <v>11041</v>
       </c>
       <c r="N608" t="s">
         <v>6425</v>
@@ -62900,7 +63794,7 @@
         <v>5850</v>
       </c>
       <c r="M609" t="s">
-        <v>11043</v>
+        <v>11042</v>
       </c>
       <c r="N609" t="s">
         <v>6426</v>
@@ -62994,7 +63888,7 @@
         <v>5852</v>
       </c>
       <c r="M611" t="s">
-        <v>11044</v>
+        <v>11043</v>
       </c>
       <c r="N611" t="s">
         <v>6428</v>
@@ -63041,7 +63935,7 @@
         <v>5853</v>
       </c>
       <c r="M612" t="s">
-        <v>11045</v>
+        <v>11044</v>
       </c>
       <c r="N612" t="s">
         <v>6429</v>
@@ -63088,7 +63982,7 @@
         <v>5854</v>
       </c>
       <c r="M613" t="s">
-        <v>11046</v>
+        <v>11045</v>
       </c>
       <c r="N613" t="s">
         <v>6430</v>
@@ -63135,7 +64029,7 @@
         <v>5855</v>
       </c>
       <c r="M614" t="s">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="N614" t="s">
         <v>6431</v>
@@ -63182,7 +64076,7 @@
         <v>1791</v>
       </c>
       <c r="M615" t="s">
-        <v>11047</v>
+        <v>11046</v>
       </c>
       <c r="N615" t="s">
         <v>6432</v>
@@ -63229,7 +64123,7 @@
         <v>9755</v>
       </c>
       <c r="M616" t="s">
-        <v>11048</v>
+        <v>11047</v>
       </c>
       <c r="N616" t="s">
         <v>6433</v>
@@ -63276,7 +64170,7 @@
         <v>5856</v>
       </c>
       <c r="M617" t="s">
-        <v>11049</v>
+        <v>11048</v>
       </c>
       <c r="N617" t="s">
         <v>6434</v>
@@ -63323,7 +64217,7 @@
         <v>10489</v>
       </c>
       <c r="M618" t="s">
-        <v>11050</v>
+        <v>11049</v>
       </c>
       <c r="N618" t="s">
         <v>10496</v>
@@ -63370,7 +64264,7 @@
         <v>5857</v>
       </c>
       <c r="M619" t="s">
-        <v>11051</v>
+        <v>11050</v>
       </c>
       <c r="N619" t="s">
         <v>6435</v>
@@ -63417,7 +64311,7 @@
         <v>5858</v>
       </c>
       <c r="M620" t="s">
-        <v>11052</v>
+        <v>11051</v>
       </c>
       <c r="N620" t="s">
         <v>6436</v>
@@ -63464,7 +64358,7 @@
         <v>5859</v>
       </c>
       <c r="M621" t="s">
-        <v>11053</v>
+        <v>11052</v>
       </c>
       <c r="N621" t="s">
         <v>6437</v>
@@ -63511,7 +64405,7 @@
         <v>5860</v>
       </c>
       <c r="M622" t="s">
-        <v>11054</v>
+        <v>11053</v>
       </c>
       <c r="N622" t="s">
         <v>6438</v>
@@ -63558,7 +64452,7 @@
         <v>1797</v>
       </c>
       <c r="M623" t="s">
-        <v>11055</v>
+        <v>11054</v>
       </c>
       <c r="N623" t="s">
         <v>6439</v>
@@ -63605,7 +64499,7 @@
         <v>1798</v>
       </c>
       <c r="M624" t="s">
-        <v>11056</v>
+        <v>11055</v>
       </c>
       <c r="N624" t="s">
         <v>6440</v>
@@ -63652,7 +64546,7 @@
         <v>5861</v>
       </c>
       <c r="M625" t="s">
-        <v>11057</v>
+        <v>11056</v>
       </c>
       <c r="N625" t="s">
         <v>5897</v>
@@ -63699,7 +64593,7 @@
         <v>5862</v>
       </c>
       <c r="M626" t="s">
-        <v>11058</v>
+        <v>11057</v>
       </c>
       <c r="N626" t="s">
         <v>6441</v>
@@ -63746,7 +64640,7 @@
         <v>5863</v>
       </c>
       <c r="M627" t="s">
-        <v>11059</v>
+        <v>11058</v>
       </c>
       <c r="N627" t="s">
         <v>6442</v>
@@ -63793,7 +64687,7 @@
         <v>6478</v>
       </c>
       <c r="M628" t="s">
-        <v>11208</v>
+        <v>11207</v>
       </c>
       <c r="N628" t="s">
         <v>6477</v>
@@ -63840,7 +64734,7 @@
         <v>5864</v>
       </c>
       <c r="M629" t="s">
-        <v>11060</v>
+        <v>11059</v>
       </c>
       <c r="N629" t="s">
         <v>6443</v>
@@ -63887,7 +64781,7 @@
         <v>5865</v>
       </c>
       <c r="M630" t="s">
-        <v>11061</v>
+        <v>11060</v>
       </c>
       <c r="N630" t="s">
         <v>6444</v>
@@ -63934,7 +64828,7 @@
         <v>5866</v>
       </c>
       <c r="M631" t="s">
-        <v>11062</v>
+        <v>11061</v>
       </c>
       <c r="N631" t="s">
         <v>6445</v>
@@ -63981,7 +64875,7 @@
         <v>5867</v>
       </c>
       <c r="M632" t="s">
-        <v>11063</v>
+        <v>11062</v>
       </c>
       <c r="N632" t="s">
         <v>6446</v>
@@ -64028,7 +64922,7 @@
         <v>5868</v>
       </c>
       <c r="M633" t="s">
-        <v>11064</v>
+        <v>11063</v>
       </c>
       <c r="N633" t="s">
         <v>6447</v>
@@ -64075,7 +64969,7 @@
         <v>5869</v>
       </c>
       <c r="M634" t="s">
-        <v>11065</v>
+        <v>11064</v>
       </c>
       <c r="N634" t="s">
         <v>6448</v>
@@ -64122,7 +65016,7 @@
         <v>5870</v>
       </c>
       <c r="M635" t="s">
-        <v>11066</v>
+        <v>11065</v>
       </c>
       <c r="N635" t="s">
         <v>6449</v>
@@ -64169,7 +65063,7 @@
         <v>5871</v>
       </c>
       <c r="M636" t="s">
-        <v>11067</v>
+        <v>11066</v>
       </c>
       <c r="N636" t="s">
         <v>6450</v>
@@ -64216,7 +65110,7 @@
         <v>1810</v>
       </c>
       <c r="M637" t="s">
-        <v>11068</v>
+        <v>11067</v>
       </c>
       <c r="N637" t="s">
         <v>6451</v>
@@ -64263,7 +65157,7 @@
         <v>1811</v>
       </c>
       <c r="M638" t="s">
-        <v>11069</v>
+        <v>11068</v>
       </c>
       <c r="N638" t="s">
         <v>6452</v>
@@ -64310,7 +65204,7 @@
         <v>5872</v>
       </c>
       <c r="M639" t="s">
-        <v>11070</v>
+        <v>11069</v>
       </c>
       <c r="N639" t="s">
         <v>6453</v>
@@ -64357,7 +65251,7 @@
         <v>5873</v>
       </c>
       <c r="M640" t="s">
-        <v>11071</v>
+        <v>11070</v>
       </c>
       <c r="N640" t="s">
         <v>5362</v>
@@ -64404,7 +65298,7 @@
         <v>5842</v>
       </c>
       <c r="M641" t="s">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="N641" t="s">
         <v>6416</v>
@@ -64451,7 +65345,7 @@
         <v>5874</v>
       </c>
       <c r="M642" t="s">
-        <v>11072</v>
+        <v>11071</v>
       </c>
       <c r="N642" t="s">
         <v>6454</v>
@@ -64498,7 +65392,7 @@
         <v>5875</v>
       </c>
       <c r="M643" t="s">
-        <v>11073</v>
+        <v>11072</v>
       </c>
       <c r="N643" t="s">
         <v>6455</v>
@@ -64545,7 +65439,7 @@
         <v>5876</v>
       </c>
       <c r="M644" t="s">
-        <v>11074</v>
+        <v>11073</v>
       </c>
       <c r="N644" t="s">
         <v>6456</v>
@@ -64592,7 +65486,7 @@
         <v>5877</v>
       </c>
       <c r="M645" t="s">
-        <v>11075</v>
+        <v>11074</v>
       </c>
       <c r="N645" t="s">
         <v>6457</v>
@@ -64639,7 +65533,7 @@
         <v>5878</v>
       </c>
       <c r="M646" t="s">
-        <v>11076</v>
+        <v>11075</v>
       </c>
       <c r="N646" t="s">
         <v>6458</v>
@@ -64686,7 +65580,7 @@
         <v>9757</v>
       </c>
       <c r="M647" t="s">
-        <v>11209</v>
+        <v>11208</v>
       </c>
       <c r="N647" t="s">
         <v>6459</v>
@@ -64733,7 +65627,7 @@
         <v>5879</v>
       </c>
       <c r="M648" t="s">
-        <v>11077</v>
+        <v>11076</v>
       </c>
       <c r="N648" t="s">
         <v>6460</v>
@@ -64780,7 +65674,7 @@
         <v>5880</v>
       </c>
       <c r="M649" t="s">
-        <v>11078</v>
+        <v>11077</v>
       </c>
       <c r="N649" t="s">
         <v>6461</v>
@@ -64827,7 +65721,7 @@
         <v>5881</v>
       </c>
       <c r="M650" t="s">
-        <v>11079</v>
+        <v>11078</v>
       </c>
       <c r="N650" t="s">
         <v>6462</v>
@@ -64874,7 +65768,7 @@
         <v>5882</v>
       </c>
       <c r="M651" t="s">
-        <v>11080</v>
+        <v>11079</v>
       </c>
       <c r="N651" t="s">
         <v>6463</v>
@@ -64921,7 +65815,7 @@
         <v>5883</v>
       </c>
       <c r="M652" t="s">
-        <v>11081</v>
+        <v>11080</v>
       </c>
       <c r="N652" t="s">
         <v>6464</v>
@@ -64968,7 +65862,7 @@
         <v>5884</v>
       </c>
       <c r="M653" t="s">
-        <v>11082</v>
+        <v>11081</v>
       </c>
       <c r="N653" t="s">
         <v>6465</v>
@@ -65015,7 +65909,7 @@
         <v>5885</v>
       </c>
       <c r="M654" t="s">
-        <v>11083</v>
+        <v>11082</v>
       </c>
       <c r="N654" t="s">
         <v>6466</v>
@@ -65062,7 +65956,7 @@
         <v>5886</v>
       </c>
       <c r="M655" t="s">
-        <v>11084</v>
+        <v>11083</v>
       </c>
       <c r="N655" t="s">
         <v>6467</v>
@@ -65109,7 +66003,7 @@
         <v>5887</v>
       </c>
       <c r="M656" t="s">
-        <v>11085</v>
+        <v>11084</v>
       </c>
       <c r="N656" t="s">
         <v>6468</v>
@@ -65156,7 +66050,7 @@
         <v>5888</v>
       </c>
       <c r="M657" t="s">
-        <v>11086</v>
+        <v>11085</v>
       </c>
       <c r="N657" t="s">
         <v>6469</v>
@@ -65203,7 +66097,7 @@
         <v>9760</v>
       </c>
       <c r="M658" t="s">
-        <v>11087</v>
+        <v>11086</v>
       </c>
       <c r="N658" t="s">
         <v>6470</v>
@@ -65250,7 +66144,7 @@
         <v>6486</v>
       </c>
       <c r="M659" t="s">
-        <v>11088</v>
+        <v>11087</v>
       </c>
       <c r="N659" t="s">
         <v>6494</v>
@@ -65297,7 +66191,7 @@
         <v>6495</v>
       </c>
       <c r="M660" t="s">
-        <v>11089</v>
+        <v>11088</v>
       </c>
       <c r="N660" t="s">
         <v>6496</v>
@@ -65344,7 +66238,7 @@
         <v>6507</v>
       </c>
       <c r="M661" t="s">
-        <v>11090</v>
+        <v>11089</v>
       </c>
       <c r="N661" t="s">
         <v>6515</v>
@@ -65391,7 +66285,7 @@
         <v>7148</v>
       </c>
       <c r="M662" t="s">
-        <v>11091</v>
+        <v>11090</v>
       </c>
       <c r="N662" t="s">
         <v>7155</v>
@@ -65438,7 +66332,7 @@
         <v>9762</v>
       </c>
       <c r="M663" t="s">
-        <v>11210</v>
+        <v>11209</v>
       </c>
       <c r="N663" t="s">
         <v>7252</v>
@@ -65485,7 +66379,7 @@
         <v>9724</v>
       </c>
       <c r="M664" t="s">
-        <v>11092</v>
+        <v>11091</v>
       </c>
       <c r="N664" t="s">
         <v>7253</v>
@@ -65532,7 +66426,7 @@
         <v>7321</v>
       </c>
       <c r="M665" t="s">
-        <v>11093</v>
+        <v>11092</v>
       </c>
       <c r="N665" t="s">
         <v>7330</v>
@@ -65579,7 +66473,7 @@
         <v>7334</v>
       </c>
       <c r="M666" t="s">
-        <v>11094</v>
+        <v>11093</v>
       </c>
       <c r="N666" t="s">
         <v>7351</v>
@@ -65626,7 +66520,7 @@
         <v>7335</v>
       </c>
       <c r="M667" t="s">
-        <v>11095</v>
+        <v>11094</v>
       </c>
       <c r="N667" t="s">
         <v>7352</v>
@@ -65673,7 +66567,7 @@
         <v>7355</v>
       </c>
       <c r="M668" t="s">
-        <v>11096</v>
+        <v>11095</v>
       </c>
       <c r="N668" t="s">
         <v>7362</v>
@@ -65720,7 +66614,7 @@
         <v>7358</v>
       </c>
       <c r="M669" t="s">
-        <v>11097</v>
+        <v>11096</v>
       </c>
       <c r="N669" t="s">
         <v>7363</v>
@@ -65767,7 +66661,7 @@
         <v>7361</v>
       </c>
       <c r="M670" t="s">
-        <v>11098</v>
+        <v>11097</v>
       </c>
       <c r="N670" t="s">
         <v>7364</v>
@@ -65814,7 +66708,7 @@
         <v>7402</v>
       </c>
       <c r="M671" t="s">
-        <v>11099</v>
+        <v>11098</v>
       </c>
       <c r="N671" t="s">
         <v>7406</v>
@@ -65861,7 +66755,7 @@
         <v>7420</v>
       </c>
       <c r="M672" t="s">
-        <v>11220</v>
+        <v>11219</v>
       </c>
       <c r="N672" t="s">
         <v>7421</v>
@@ -65908,7 +66802,7 @@
         <v>7424</v>
       </c>
       <c r="M673" t="s">
-        <v>11100</v>
+        <v>11099</v>
       </c>
       <c r="N673" t="s">
         <v>7431</v>
@@ -65928,7 +66822,7 @@
         <v>7468</v>
       </c>
       <c r="D674" t="s">
-        <v>10498</v>
+        <v>11579</v>
       </c>
       <c r="E674" t="s">
         <v>7456</v>
@@ -65955,7 +66849,7 @@
         <v>7466</v>
       </c>
       <c r="M674" t="s">
-        <v>11221</v>
+        <v>11220</v>
       </c>
       <c r="N674" t="s">
         <v>7442</v>
@@ -65975,7 +66869,7 @@
         <v>7469</v>
       </c>
       <c r="D675" t="s">
-        <v>11278</v>
+        <v>11578</v>
       </c>
       <c r="E675" t="s">
         <v>7457</v>
@@ -66002,7 +66896,7 @@
         <v>7465</v>
       </c>
       <c r="M675" t="s">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="N675" t="s">
         <v>7461</v>
@@ -66096,7 +66990,7 @@
         <v>7474</v>
       </c>
       <c r="M677" t="s">
-        <v>11101</v>
+        <v>11100</v>
       </c>
       <c r="N677" t="s">
         <v>7480</v>
@@ -66143,7 +67037,7 @@
         <v>9238</v>
       </c>
       <c r="M678" t="s">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="N678" t="s">
         <v>7555</v>
@@ -66190,7 +67084,7 @@
         <v>7475</v>
       </c>
       <c r="M679" t="s">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="N679" t="s">
         <v>7481</v>
@@ -66237,7 +67131,7 @@
         <v>7476</v>
       </c>
       <c r="M680" t="s">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="N680" t="s">
         <v>7482</v>
@@ -66284,7 +67178,7 @@
         <v>7542</v>
       </c>
       <c r="M681" t="s">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="N681" t="s">
         <v>7538</v>
@@ -66331,7 +67225,7 @@
         <v>7543</v>
       </c>
       <c r="M682" t="s">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="N682" t="s">
         <v>7539</v>
@@ -66378,7 +67272,7 @@
         <v>7567</v>
       </c>
       <c r="M683" t="s">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="N683" t="s">
         <v>7583</v>
@@ -66425,7 +67319,7 @@
         <v>7562</v>
       </c>
       <c r="M684" t="s">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="N684" t="s">
         <v>7562</v>
@@ -66472,7 +67366,7 @@
         <v>7572</v>
       </c>
       <c r="M685" t="s">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="N685" t="s">
         <v>7584</v>
@@ -66519,7 +67413,7 @@
         <v>7571</v>
       </c>
       <c r="M686" t="s">
-        <v>11211</v>
+        <v>11210</v>
       </c>
       <c r="N686" t="s">
         <v>7585</v>
@@ -66566,7 +67460,7 @@
         <v>7568</v>
       </c>
       <c r="M687" t="s">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="N687" t="s">
         <v>7586</v>
@@ -66613,7 +67507,7 @@
         <v>7569</v>
       </c>
       <c r="M688" t="s">
-        <v>11111</v>
+        <v>11110</v>
       </c>
       <c r="N688" t="s">
         <v>7587</v>
@@ -66707,7 +67601,7 @@
         <v>8290</v>
       </c>
       <c r="M690" t="s">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="N690" t="s">
         <v>8376</v>
@@ -66754,7 +67648,7 @@
         <v>8291</v>
       </c>
       <c r="M691" t="s">
-        <v>11113</v>
+        <v>11112</v>
       </c>
       <c r="N691" t="s">
         <v>8377</v>
@@ -66801,7 +67695,7 @@
         <v>8292</v>
       </c>
       <c r="M692" t="s">
-        <v>11114</v>
+        <v>11113</v>
       </c>
       <c r="N692" t="s">
         <v>8378</v>
@@ -66848,7 +67742,7 @@
         <v>8293</v>
       </c>
       <c r="M693" t="s">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="N693" t="s">
         <v>8379</v>
@@ -66895,7 +67789,7 @@
         <v>8423</v>
       </c>
       <c r="M694" t="s">
-        <v>11116</v>
+        <v>11115</v>
       </c>
       <c r="N694" t="s">
         <v>8413</v>
@@ -66942,7 +67836,7 @@
         <v>8301</v>
       </c>
       <c r="M695" t="s">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="N695" t="s">
         <v>8380</v>
@@ -66989,7 +67883,7 @@
         <v>8300</v>
       </c>
       <c r="M696" t="s">
-        <v>11118</v>
+        <v>11117</v>
       </c>
       <c r="N696" t="s">
         <v>8381</v>
@@ -67036,7 +67930,7 @@
         <v>8297</v>
       </c>
       <c r="M697" t="s">
-        <v>11119</v>
+        <v>11118</v>
       </c>
       <c r="N697" t="s">
         <v>8382</v>
@@ -67083,7 +67977,7 @@
         <v>10155</v>
       </c>
       <c r="M698" t="s">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="N698" t="s">
         <v>10165</v>
@@ -67130,7 +68024,7 @@
         <v>8295</v>
       </c>
       <c r="M699" t="s">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="N699" t="s">
         <v>8383</v>
@@ -67177,7 +68071,7 @@
         <v>8429</v>
       </c>
       <c r="M700" t="s">
-        <v>11122</v>
+        <v>11121</v>
       </c>
       <c r="N700" t="s">
         <v>8521</v>
@@ -67224,7 +68118,7 @@
         <v>8430</v>
       </c>
       <c r="M701" t="s">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="N701" t="s">
         <v>8522</v>
@@ -67271,7 +68165,7 @@
         <v>8435</v>
       </c>
       <c r="M702" t="s">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="N702" t="s">
         <v>8523</v>
@@ -67318,7 +68212,7 @@
         <v>8436</v>
       </c>
       <c r="M703" t="s">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="N703" t="s">
         <v>8524</v>
@@ -67365,7 +68259,7 @@
         <v>8445</v>
       </c>
       <c r="M704" t="s">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="N704" t="s">
         <v>8525</v>
@@ -67412,7 +68306,7 @@
         <v>8448</v>
       </c>
       <c r="M705" t="s">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="N705" t="s">
         <v>8526</v>
@@ -67459,7 +68353,7 @@
         <v>8446</v>
       </c>
       <c r="M706" t="s">
-        <v>11128</v>
+        <v>11127</v>
       </c>
       <c r="N706" t="s">
         <v>8527</v>
@@ -67506,7 +68400,7 @@
         <v>8447</v>
       </c>
       <c r="M707" t="s">
-        <v>11129</v>
+        <v>11128</v>
       </c>
       <c r="N707" t="s">
         <v>8528</v>
@@ -67553,7 +68447,7 @@
         <v>8531</v>
       </c>
       <c r="M708" t="s">
-        <v>11130</v>
+        <v>11129</v>
       </c>
       <c r="N708" t="s">
         <v>8533</v>
@@ -67600,7 +68494,7 @@
         <v>9283</v>
       </c>
       <c r="M709" t="s">
-        <v>11131</v>
+        <v>11130</v>
       </c>
       <c r="N709" t="s">
         <v>9390</v>
@@ -67647,7 +68541,7 @@
         <v>9291</v>
       </c>
       <c r="M710" t="s">
-        <v>11132</v>
+        <v>11131</v>
       </c>
       <c r="N710" t="s">
         <v>9391</v>
@@ -67694,7 +68588,7 @@
         <v>9284</v>
       </c>
       <c r="M711" t="s">
-        <v>11133</v>
+        <v>11132</v>
       </c>
       <c r="N711" t="s">
         <v>9307</v>
@@ -67741,7 +68635,7 @@
         <v>9285</v>
       </c>
       <c r="M712" t="s">
-        <v>11134</v>
+        <v>11133</v>
       </c>
       <c r="N712" t="s">
         <v>9392</v>
@@ -67788,7 +68682,7 @@
         <v>9286</v>
       </c>
       <c r="M713" t="s">
-        <v>11135</v>
+        <v>11134</v>
       </c>
       <c r="N713" t="s">
         <v>9372</v>
@@ -67835,7 +68729,7 @@
         <v>9287</v>
       </c>
       <c r="M714" t="s">
-        <v>11136</v>
+        <v>11135</v>
       </c>
       <c r="N714" t="s">
         <v>9393</v>
@@ -67882,7 +68776,7 @@
         <v>9288</v>
       </c>
       <c r="M715" t="s">
-        <v>11137</v>
+        <v>11136</v>
       </c>
       <c r="N715" t="s">
         <v>9394</v>
@@ -67929,7 +68823,7 @@
         <v>9292</v>
       </c>
       <c r="M716" t="s">
-        <v>11138</v>
+        <v>11137</v>
       </c>
       <c r="N716" t="s">
         <v>9395</v>
@@ -67976,7 +68870,7 @@
         <v>9289</v>
       </c>
       <c r="M717" t="s">
-        <v>11139</v>
+        <v>11138</v>
       </c>
       <c r="N717" t="s">
         <v>9396</v>
@@ -68023,7 +68917,7 @@
         <v>9293</v>
       </c>
       <c r="M718" t="s">
-        <v>11140</v>
+        <v>11139</v>
       </c>
       <c r="N718" t="s">
         <v>9397</v>
@@ -68070,7 +68964,7 @@
         <v>9290</v>
       </c>
       <c r="M719" t="s">
-        <v>11141</v>
+        <v>11140</v>
       </c>
       <c r="N719" t="s">
         <v>9398</v>
@@ -68117,7 +69011,7 @@
         <v>9439</v>
       </c>
       <c r="M720" t="s">
-        <v>11142</v>
+        <v>11141</v>
       </c>
       <c r="N720" t="s">
         <v>9439</v>
@@ -68164,7 +69058,7 @@
         <v>9415</v>
       </c>
       <c r="M721" t="s">
-        <v>11143</v>
+        <v>11142</v>
       </c>
       <c r="N721" t="s">
         <v>9430</v>
@@ -68211,7 +69105,7 @@
         <v>9416</v>
       </c>
       <c r="M722" t="s">
-        <v>11144</v>
+        <v>11143</v>
       </c>
       <c r="N722" t="s">
         <v>9427</v>
@@ -68258,7 +69152,7 @@
         <v>9476</v>
       </c>
       <c r="M723" t="s">
-        <v>11145</v>
+        <v>11144</v>
       </c>
       <c r="N723" t="s">
         <v>9470</v>
@@ -68305,7 +69199,7 @@
         <v>9477</v>
       </c>
       <c r="M724" t="s">
-        <v>11146</v>
+        <v>11145</v>
       </c>
       <c r="N724" t="s">
         <v>9471</v>
@@ -68352,7 +69246,7 @@
         <v>9478</v>
       </c>
       <c r="M725" t="s">
-        <v>11147</v>
+        <v>11146</v>
       </c>
       <c r="N725" t="s">
         <v>9472</v>
@@ -68399,7 +69293,7 @@
         <v>9487</v>
       </c>
       <c r="M726" t="s">
-        <v>11148</v>
+        <v>11147</v>
       </c>
       <c r="N726" t="s">
         <v>9505</v>
@@ -68446,7 +69340,7 @@
         <v>9485</v>
       </c>
       <c r="M727" t="s">
-        <v>11149</v>
+        <v>11148</v>
       </c>
       <c r="N727" t="s">
         <v>9506</v>
@@ -68493,7 +69387,7 @@
         <v>9553</v>
       </c>
       <c r="M728" t="s">
-        <v>11150</v>
+        <v>11149</v>
       </c>
       <c r="N728" t="s">
         <v>9563</v>
@@ -68540,7 +69434,7 @@
         <v>9514</v>
       </c>
       <c r="M729" t="s">
-        <v>11151</v>
+        <v>11150</v>
       </c>
       <c r="N729" t="s">
         <v>9522</v>
@@ -68587,7 +69481,7 @@
         <v>9516</v>
       </c>
       <c r="M730" t="s">
-        <v>11152</v>
+        <v>11151</v>
       </c>
       <c r="N730" t="s">
         <v>9523</v>
@@ -68634,7 +69528,7 @@
         <v>9515</v>
       </c>
       <c r="M731" t="s">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="N731" t="s">
         <v>9524</v>
@@ -68681,7 +69575,7 @@
         <v>9612</v>
       </c>
       <c r="M732" t="s">
-        <v>11154</v>
+        <v>11153</v>
       </c>
       <c r="N732" t="s">
         <v>9604</v>
@@ -68728,7 +69622,7 @@
         <v>9613</v>
       </c>
       <c r="M733" t="s">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="N733" t="s">
         <v>9605</v>
@@ -68775,7 +69669,7 @@
         <v>9615</v>
       </c>
       <c r="M734" t="s">
-        <v>11155</v>
+        <v>11154</v>
       </c>
       <c r="N734" t="s">
         <v>9606</v>
@@ -68869,7 +69763,7 @@
         <v>9679</v>
       </c>
       <c r="M736" t="s">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="N736" t="s">
         <v>9669</v>
@@ -68916,7 +69810,7 @@
         <v>9680</v>
       </c>
       <c r="M737" t="s">
-        <v>11157</v>
+        <v>11156</v>
       </c>
       <c r="N737" t="s">
         <v>9670</v>
@@ -68963,7 +69857,7 @@
         <v>9681</v>
       </c>
       <c r="M738" t="s">
-        <v>11158</v>
+        <v>11157</v>
       </c>
       <c r="N738" t="s">
         <v>9671</v>
@@ -69010,7 +69904,7 @@
         <v>9682</v>
       </c>
       <c r="M739" t="s">
-        <v>11159</v>
+        <v>11158</v>
       </c>
       <c r="N739" t="s">
         <v>9672</v>
@@ -69057,7 +69951,7 @@
         <v>9683</v>
       </c>
       <c r="M740" t="s">
-        <v>11160</v>
+        <v>11159</v>
       </c>
       <c r="N740" t="s">
         <v>9673</v>
@@ -69104,7 +69998,7 @@
         <v>9693</v>
       </c>
       <c r="M741" t="s">
-        <v>11161</v>
+        <v>11160</v>
       </c>
       <c r="N741" t="s">
         <v>9784</v>
@@ -69151,7 +70045,7 @@
         <v>9765</v>
       </c>
       <c r="M742" t="s">
-        <v>11162</v>
+        <v>11161</v>
       </c>
       <c r="N742" t="s">
         <v>9785</v>
@@ -69198,7 +70092,7 @@
         <v>9859</v>
       </c>
       <c r="M743" t="s">
-        <v>11163</v>
+        <v>11162</v>
       </c>
       <c r="N743" t="s">
         <v>9950</v>
@@ -69433,7 +70327,7 @@
         <v>9867</v>
       </c>
       <c r="M748" t="s">
-        <v>11164</v>
+        <v>11163</v>
       </c>
       <c r="N748" t="s">
         <v>9954</v>
@@ -69480,7 +70374,7 @@
         <v>9868</v>
       </c>
       <c r="M749" t="s">
-        <v>11165</v>
+        <v>11164</v>
       </c>
       <c r="N749" t="s">
         <v>9955</v>
@@ -69527,7 +70421,7 @@
         <v>9860</v>
       </c>
       <c r="M750" t="s">
-        <v>11166</v>
+        <v>11165</v>
       </c>
       <c r="N750" t="s">
         <v>9956</v>
@@ -69574,7 +70468,7 @@
         <v>9861</v>
       </c>
       <c r="M751" t="s">
-        <v>11167</v>
+        <v>11166</v>
       </c>
       <c r="N751" t="s">
         <v>9910</v>
@@ -69668,7 +70562,7 @@
         <v>9984</v>
       </c>
       <c r="M753" t="s">
-        <v>11168</v>
+        <v>11167</v>
       </c>
       <c r="N753" t="s">
         <v>10076</v>
@@ -69715,7 +70609,7 @@
         <v>9981</v>
       </c>
       <c r="M754" t="s">
-        <v>11169</v>
+        <v>11168</v>
       </c>
       <c r="N754" t="s">
         <v>10077</v>
@@ -69762,7 +70656,7 @@
         <v>9982</v>
       </c>
       <c r="M755" t="s">
-        <v>11170</v>
+        <v>11169</v>
       </c>
       <c r="N755" t="s">
         <v>10078</v>
@@ -69809,7 +70703,7 @@
         <v>9983</v>
       </c>
       <c r="M756" t="s">
-        <v>11171</v>
+        <v>11170</v>
       </c>
       <c r="N756" t="s">
         <v>10079</v>
@@ -69856,7 +70750,7 @@
         <v>9985</v>
       </c>
       <c r="M757" t="s">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="N757" t="s">
         <v>10080</v>
@@ -69903,7 +70797,7 @@
         <v>9980</v>
       </c>
       <c r="M758" t="s">
-        <v>11172</v>
+        <v>11171</v>
       </c>
       <c r="N758" t="s">
         <v>10081</v>
@@ -69950,7 +70844,7 @@
         <v>9974</v>
       </c>
       <c r="M759" t="s">
-        <v>11173</v>
+        <v>11172</v>
       </c>
       <c r="N759" t="s">
         <v>10082</v>
@@ -69997,7 +70891,7 @@
         <v>9977</v>
       </c>
       <c r="M760" t="s">
-        <v>11174</v>
+        <v>11173</v>
       </c>
       <c r="N760" t="s">
         <v>10083</v>
@@ -70044,7 +70938,7 @@
         <v>9979</v>
       </c>
       <c r="M761" t="s">
-        <v>11175</v>
+        <v>11174</v>
       </c>
       <c r="N761" t="s">
         <v>10084</v>
@@ -70091,7 +70985,7 @@
         <v>9978</v>
       </c>
       <c r="M762" t="s">
-        <v>11176</v>
+        <v>11175</v>
       </c>
       <c r="N762" t="s">
         <v>10085</v>
@@ -70138,7 +71032,7 @@
         <v>10152</v>
       </c>
       <c r="M763" t="s">
-        <v>11177</v>
+        <v>11176</v>
       </c>
       <c r="N763" t="s">
         <v>10098</v>
@@ -70185,7 +71079,7 @@
         <v>10171</v>
       </c>
       <c r="M764" t="s">
-        <v>11178</v>
+        <v>11177</v>
       </c>
       <c r="N764" t="s">
         <v>10174</v>
@@ -70232,7 +71126,7 @@
         <v>10170</v>
       </c>
       <c r="M765" t="s">
-        <v>11179</v>
+        <v>11178</v>
       </c>
       <c r="N765" t="s">
         <v>10175</v>
@@ -70279,7 +71173,7 @@
         <v>10211</v>
       </c>
       <c r="M766" t="s">
-        <v>11180</v>
+        <v>11179</v>
       </c>
       <c r="N766" t="s">
         <v>10221</v>
@@ -70326,7 +71220,7 @@
         <v>10264</v>
       </c>
       <c r="M767" t="s">
-        <v>11181</v>
+        <v>11180</v>
       </c>
       <c r="N767" t="s">
         <v>10265</v>
@@ -70373,7 +71267,7 @@
         <v>10270</v>
       </c>
       <c r="M768" t="s">
-        <v>11182</v>
+        <v>11181</v>
       </c>
       <c r="N768" t="s">
         <v>10288</v>
@@ -70420,7 +71314,7 @@
         <v>10273</v>
       </c>
       <c r="M769" t="s">
-        <v>11183</v>
+        <v>11182</v>
       </c>
       <c r="N769" t="s">
         <v>10289</v>
@@ -70467,7 +71361,7 @@
         <v>10294</v>
       </c>
       <c r="M770" t="s">
-        <v>11184</v>
+        <v>11183</v>
       </c>
       <c r="N770" t="s">
         <v>10300</v>
@@ -70514,7 +71408,7 @@
         <v>5419</v>
       </c>
       <c r="M771" t="s">
-        <v>10547</v>
+        <v>10546</v>
       </c>
       <c r="N771" t="s">
         <v>10301</v>
@@ -70552,7 +71446,7 @@
         <v>10322</v>
       </c>
       <c r="J772" t="s">
-        <v>10499</v>
+        <v>10498</v>
       </c>
       <c r="K772" t="s">
         <v>10328</v>
@@ -70561,7 +71455,7 @@
         <v>10321</v>
       </c>
       <c r="M772" t="s">
-        <v>11185</v>
+        <v>11184</v>
       </c>
       <c r="N772" t="s">
         <v>10327</v>
@@ -70608,7 +71502,7 @@
         <v>10390</v>
       </c>
       <c r="M773" t="s">
-        <v>11186</v>
+        <v>11185</v>
       </c>
       <c r="N773" t="s">
         <v>10461</v>
@@ -70628,7 +71522,7 @@
         <v>10401</v>
       </c>
       <c r="D774" t="s">
-        <v>11277</v>
+        <v>11276</v>
       </c>
       <c r="E774" t="s">
         <v>10416</v>
@@ -70655,7 +71549,7 @@
         <v>10399</v>
       </c>
       <c r="M774" t="s">
-        <v>11187</v>
+        <v>11186</v>
       </c>
       <c r="N774" t="s">
         <v>10462</v>
@@ -70702,7 +71596,7 @@
         <v>10392</v>
       </c>
       <c r="M775" t="s">
-        <v>11188</v>
+        <v>11187</v>
       </c>
       <c r="N775" t="s">
         <v>10463</v>
@@ -70749,7 +71643,7 @@
         <v>10393</v>
       </c>
       <c r="M776" t="s">
-        <v>11189</v>
+        <v>11188</v>
       </c>
       <c r="N776" t="s">
         <v>10464</v>
@@ -70796,7 +71690,7 @@
         <v>10394</v>
       </c>
       <c r="M777" t="s">
-        <v>11190</v>
+        <v>11189</v>
       </c>
       <c r="N777" t="s">
         <v>10465</v>
@@ -70843,7 +71737,7 @@
         <v>10396</v>
       </c>
       <c r="M778" t="s">
-        <v>11191</v>
+        <v>11190</v>
       </c>
       <c r="N778" t="s">
         <v>10466</v>
@@ -70890,7 +71784,7 @@
         <v>10397</v>
       </c>
       <c r="M779" t="s">
-        <v>11192</v>
+        <v>11191</v>
       </c>
       <c r="N779" t="s">
         <v>10467</v>
@@ -70937,7 +71831,7 @@
         <v>10398</v>
       </c>
       <c r="M780" t="s">
-        <v>11193</v>
+        <v>11192</v>
       </c>
       <c r="N780" t="s">
         <v>10468</v>
@@ -70948,143 +71842,1130 @@
     </row>
     <row r="781" spans="1:15">
       <c r="A781" t="s">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="C781" t="s">
         <v>11224</v>
       </c>
-      <c r="C781" t="s">
-        <v>11225</v>
-      </c>
       <c r="D781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="E781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="F781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="G781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="H781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="I781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="J781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="K781" t="s">
+        <v>11223</v>
+      </c>
+      <c r="L781" t="s">
         <v>11224</v>
       </c>
-      <c r="E781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="F781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="G781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="H781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="I781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="J781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="K781" t="s">
-        <v>11224</v>
-      </c>
-      <c r="L781" t="s">
-        <v>11225</v>
-      </c>
       <c r="M781" t="s">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="N781" t="s">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="O781" t="s">
-        <v>11224</v>
+        <v>11223</v>
       </c>
     </row>
     <row r="782" spans="1:15">
       <c r="A782" t="s">
-        <v>11250</v>
+        <v>11249</v>
       </c>
       <c r="B782" t="s">
-        <v>11259</v>
+        <v>11258</v>
       </c>
       <c r="C782" t="s">
-        <v>11281</v>
+        <v>11279</v>
       </c>
       <c r="D782" t="s">
-        <v>11279</v>
+        <v>11277</v>
       </c>
       <c r="E782" t="s">
-        <v>11261</v>
+        <v>11260</v>
       </c>
       <c r="F782" t="s">
-        <v>11263</v>
+        <v>11262</v>
       </c>
       <c r="G782" t="s">
-        <v>11265</v>
+        <v>11264</v>
       </c>
       <c r="H782" t="s">
-        <v>11275</v>
+        <v>11274</v>
       </c>
       <c r="I782" t="s">
-        <v>11267</v>
+        <v>11266</v>
       </c>
       <c r="J782" t="s">
-        <v>11256</v>
+        <v>11255</v>
       </c>
       <c r="K782" t="s">
-        <v>11254</v>
+        <v>11253</v>
       </c>
       <c r="L782" t="s">
-        <v>11280</v>
+        <v>11278</v>
       </c>
       <c r="M782" t="s">
-        <v>11269</v>
+        <v>11268</v>
       </c>
       <c r="N782" t="s">
-        <v>11271</v>
+        <v>11270</v>
       </c>
       <c r="O782" t="s">
-        <v>11273</v>
+        <v>11272</v>
       </c>
     </row>
     <row r="783" spans="1:15">
       <c r="A783" t="s">
+        <v>11250</v>
+      </c>
+      <c r="B783" t="s">
+        <v>11259</v>
+      </c>
+      <c r="C783" t="s">
+        <v>11257</v>
+      </c>
+      <c r="D783" t="s">
         <v>11251</v>
       </c>
-      <c r="B783" t="s">
-        <v>11260</v>
-      </c>
-      <c r="C783" t="s">
-        <v>11258</v>
-      </c>
-      <c r="D783" t="s">
+      <c r="E783" t="s">
+        <v>11261</v>
+      </c>
+      <c r="F783" t="s">
+        <v>11263</v>
+      </c>
+      <c r="G783" t="s">
+        <v>11265</v>
+      </c>
+      <c r="H783" t="s">
+        <v>11275</v>
+      </c>
+      <c r="I783" t="s">
+        <v>11267</v>
+      </c>
+      <c r="J783" t="s">
+        <v>11254</v>
+      </c>
+      <c r="K783" t="s">
         <v>11252</v>
       </c>
-      <c r="E783" t="s">
-        <v>11262</v>
-      </c>
-      <c r="F783" t="s">
-        <v>11264</v>
-      </c>
-      <c r="G783" t="s">
-        <v>11266</v>
-      </c>
-      <c r="H783" t="s">
-        <v>11276</v>
-      </c>
-      <c r="I783" t="s">
-        <v>11268</v>
-      </c>
-      <c r="J783" t="s">
-        <v>11255</v>
-      </c>
-      <c r="K783" t="s">
-        <v>11253</v>
-      </c>
       <c r="L783" t="s">
-        <v>11257</v>
+        <v>11256</v>
       </c>
       <c r="M783" t="s">
-        <v>11270</v>
+        <v>11269</v>
       </c>
       <c r="N783" t="s">
-        <v>11272</v>
+        <v>11271</v>
       </c>
       <c r="O783" t="s">
-        <v>11274</v>
+        <v>11273</v>
+      </c>
+    </row>
+    <row r="784" spans="1:15">
+      <c r="A784" t="s">
+        <v>11284</v>
+      </c>
+      <c r="B784" t="s">
+        <v>11318</v>
+      </c>
+      <c r="C784" t="s">
+        <v>11301</v>
+      </c>
+      <c r="D784" t="s">
+        <v>11293</v>
+      </c>
+      <c r="E784" t="s">
+        <v>11329</v>
+      </c>
+      <c r="F784" t="s">
+        <v>11340</v>
+      </c>
+      <c r="G784" t="s">
+        <v>11351</v>
+      </c>
+      <c r="H784" t="s">
+        <v>11362</v>
+      </c>
+      <c r="I784" t="s">
+        <v>11373</v>
+      </c>
+      <c r="J784" t="s">
+        <v>11384</v>
+      </c>
+      <c r="K784" t="s">
+        <v>11395</v>
+      </c>
+      <c r="L784" t="s">
+        <v>11301</v>
+      </c>
+      <c r="M784" t="s">
+        <v>11406</v>
+      </c>
+      <c r="N784" t="s">
+        <v>11417</v>
+      </c>
+      <c r="O784" t="s">
+        <v>11428</v>
+      </c>
+    </row>
+    <row r="785" spans="1:15">
+      <c r="A785" t="s">
+        <v>11285</v>
+      </c>
+      <c r="B785" t="s">
+        <v>11319</v>
+      </c>
+      <c r="C785" t="s">
+        <v>11306</v>
+      </c>
+      <c r="D785" t="s">
+        <v>11292</v>
+      </c>
+      <c r="E785" t="s">
+        <v>11330</v>
+      </c>
+      <c r="F785" t="s">
+        <v>11341</v>
+      </c>
+      <c r="G785" t="s">
+        <v>11352</v>
+      </c>
+      <c r="H785" t="s">
+        <v>11363</v>
+      </c>
+      <c r="I785" t="s">
+        <v>11374</v>
+      </c>
+      <c r="J785" t="s">
+        <v>11385</v>
+      </c>
+      <c r="K785" t="s">
+        <v>11396</v>
+      </c>
+      <c r="L785" t="s">
+        <v>11306</v>
+      </c>
+      <c r="M785" t="s">
+        <v>11407</v>
+      </c>
+      <c r="N785" t="s">
+        <v>11418</v>
+      </c>
+      <c r="O785" t="s">
+        <v>11429</v>
+      </c>
+    </row>
+    <row r="786" spans="1:15">
+      <c r="A786" t="s">
+        <v>11286</v>
+      </c>
+      <c r="B786" t="s">
+        <v>11320</v>
+      </c>
+      <c r="C786" t="s">
+        <v>11313</v>
+      </c>
+      <c r="D786" t="s">
+        <v>11311</v>
+      </c>
+      <c r="E786" t="s">
+        <v>11331</v>
+      </c>
+      <c r="F786" t="s">
+        <v>11342</v>
+      </c>
+      <c r="G786" t="s">
+        <v>11353</v>
+      </c>
+      <c r="H786" t="s">
+        <v>11364</v>
+      </c>
+      <c r="I786" t="s">
+        <v>11375</v>
+      </c>
+      <c r="J786" t="s">
+        <v>11386</v>
+      </c>
+      <c r="K786" t="s">
+        <v>11397</v>
+      </c>
+      <c r="L786" t="s">
+        <v>11312</v>
+      </c>
+      <c r="M786" t="s">
+        <v>11408</v>
+      </c>
+      <c r="N786" t="s">
+        <v>11419</v>
+      </c>
+      <c r="O786" t="s">
+        <v>11430</v>
+      </c>
+    </row>
+    <row r="787" spans="1:15">
+      <c r="A787" t="s">
+        <v>11287</v>
+      </c>
+      <c r="B787" t="s">
+        <v>11321</v>
+      </c>
+      <c r="C787" t="s">
+        <v>11314</v>
+      </c>
+      <c r="D787" t="s">
+        <v>11295</v>
+      </c>
+      <c r="E787" t="s">
+        <v>11332</v>
+      </c>
+      <c r="F787" t="s">
+        <v>11343</v>
+      </c>
+      <c r="G787" t="s">
+        <v>11354</v>
+      </c>
+      <c r="H787" t="s">
+        <v>11365</v>
+      </c>
+      <c r="I787" t="s">
+        <v>11376</v>
+      </c>
+      <c r="J787" t="s">
+        <v>11387</v>
+      </c>
+      <c r="K787" t="s">
+        <v>11398</v>
+      </c>
+      <c r="L787" t="s">
+        <v>11307</v>
+      </c>
+      <c r="M787" t="s">
+        <v>11409</v>
+      </c>
+      <c r="N787" t="s">
+        <v>11420</v>
+      </c>
+      <c r="O787" t="s">
+        <v>11431</v>
+      </c>
+    </row>
+    <row r="788" spans="1:15">
+      <c r="A788" t="s">
+        <v>11289</v>
+      </c>
+      <c r="B788" t="s">
+        <v>11322</v>
+      </c>
+      <c r="C788" t="s">
+        <v>11315</v>
+      </c>
+      <c r="D788" t="s">
+        <v>11300</v>
+      </c>
+      <c r="E788" t="s">
+        <v>11333</v>
+      </c>
+      <c r="F788" t="s">
+        <v>11344</v>
+      </c>
+      <c r="G788" t="s">
+        <v>11355</v>
+      </c>
+      <c r="H788" t="s">
+        <v>11366</v>
+      </c>
+      <c r="I788" t="s">
+        <v>11377</v>
+      </c>
+      <c r="J788" t="s">
+        <v>11388</v>
+      </c>
+      <c r="K788" t="s">
+        <v>11399</v>
+      </c>
+      <c r="L788" t="s">
+        <v>11310</v>
+      </c>
+      <c r="M788" t="s">
+        <v>11410</v>
+      </c>
+      <c r="N788" t="s">
+        <v>11421</v>
+      </c>
+      <c r="O788" t="s">
+        <v>11432</v>
+      </c>
+    </row>
+    <row r="789" spans="1:15">
+      <c r="A789" t="s">
+        <v>11288</v>
+      </c>
+      <c r="B789" t="s">
+        <v>11323</v>
+      </c>
+      <c r="C789" t="s">
+        <v>11316</v>
+      </c>
+      <c r="D789" t="s">
+        <v>11296</v>
+      </c>
+      <c r="E789" t="s">
+        <v>11334</v>
+      </c>
+      <c r="F789" t="s">
+        <v>11345</v>
+      </c>
+      <c r="G789" t="s">
+        <v>11356</v>
+      </c>
+      <c r="H789" t="s">
+        <v>11367</v>
+      </c>
+      <c r="I789" t="s">
+        <v>11378</v>
+      </c>
+      <c r="J789" t="s">
+        <v>11389</v>
+      </c>
+      <c r="K789" t="s">
+        <v>11400</v>
+      </c>
+      <c r="L789" t="s">
+        <v>11309</v>
+      </c>
+      <c r="M789" t="s">
+        <v>11411</v>
+      </c>
+      <c r="N789" t="s">
+        <v>11422</v>
+      </c>
+      <c r="O789" t="s">
+        <v>11433</v>
+      </c>
+    </row>
+    <row r="790" spans="1:15">
+      <c r="A790" t="s">
+        <v>11290</v>
+      </c>
+      <c r="B790" t="s">
+        <v>11324</v>
+      </c>
+      <c r="C790" t="s">
+        <v>11308</v>
+      </c>
+      <c r="D790" t="s">
+        <v>11297</v>
+      </c>
+      <c r="E790" t="s">
+        <v>11335</v>
+      </c>
+      <c r="F790" t="s">
+        <v>11346</v>
+      </c>
+      <c r="G790" t="s">
+        <v>11357</v>
+      </c>
+      <c r="H790" t="s">
+        <v>11368</v>
+      </c>
+      <c r="I790" t="s">
+        <v>11379</v>
+      </c>
+      <c r="J790" t="s">
+        <v>11390</v>
+      </c>
+      <c r="K790" t="s">
+        <v>11401</v>
+      </c>
+      <c r="L790" t="s">
+        <v>11308</v>
+      </c>
+      <c r="M790" t="s">
+        <v>11412</v>
+      </c>
+      <c r="N790" t="s">
+        <v>11423</v>
+      </c>
+      <c r="O790" t="s">
+        <v>11434</v>
+      </c>
+    </row>
+    <row r="791" spans="1:15">
+      <c r="A791" t="s">
+        <v>11291</v>
+      </c>
+      <c r="B791" t="s">
+        <v>11325</v>
+      </c>
+      <c r="C791" t="s">
+        <v>11305</v>
+      </c>
+      <c r="D791" t="s">
+        <v>11298</v>
+      </c>
+      <c r="E791" t="s">
+        <v>11336</v>
+      </c>
+      <c r="F791" t="s">
+        <v>11347</v>
+      </c>
+      <c r="G791" t="s">
+        <v>11358</v>
+      </c>
+      <c r="H791" t="s">
+        <v>11369</v>
+      </c>
+      <c r="I791" t="s">
+        <v>11380</v>
+      </c>
+      <c r="J791" t="s">
+        <v>11391</v>
+      </c>
+      <c r="K791" t="s">
+        <v>11402</v>
+      </c>
+      <c r="L791" t="s">
+        <v>11305</v>
+      </c>
+      <c r="M791" t="s">
+        <v>11413</v>
+      </c>
+      <c r="N791" t="s">
+        <v>11424</v>
+      </c>
+      <c r="O791" t="s">
+        <v>11435</v>
+      </c>
+    </row>
+    <row r="792" spans="1:15">
+      <c r="A792" t="s">
+        <v>11283</v>
+      </c>
+      <c r="B792" t="s">
+        <v>11326</v>
+      </c>
+      <c r="C792" t="s">
+        <v>11304</v>
+      </c>
+      <c r="D792" t="s">
+        <v>11282</v>
+      </c>
+      <c r="E792" t="s">
+        <v>11337</v>
+      </c>
+      <c r="F792" t="s">
+        <v>11348</v>
+      </c>
+      <c r="G792" t="s">
+        <v>11359</v>
+      </c>
+      <c r="H792" t="s">
+        <v>11370</v>
+      </c>
+      <c r="I792" t="s">
+        <v>11381</v>
+      </c>
+      <c r="J792" t="s">
+        <v>11392</v>
+      </c>
+      <c r="K792" t="s">
+        <v>11403</v>
+      </c>
+      <c r="L792" t="s">
+        <v>11304</v>
+      </c>
+      <c r="M792" t="s">
+        <v>11414</v>
+      </c>
+      <c r="N792" t="s">
+        <v>11425</v>
+      </c>
+      <c r="O792" t="s">
+        <v>11436</v>
+      </c>
+    </row>
+    <row r="793" spans="1:15">
+      <c r="A793" t="s">
+        <v>11281</v>
+      </c>
+      <c r="B793" t="s">
+        <v>11327</v>
+      </c>
+      <c r="C793" t="s">
+        <v>11303</v>
+      </c>
+      <c r="D793" t="s">
+        <v>11299</v>
+      </c>
+      <c r="E793" t="s">
+        <v>11338</v>
+      </c>
+      <c r="F793" t="s">
+        <v>11349</v>
+      </c>
+      <c r="G793" t="s">
+        <v>11360</v>
+      </c>
+      <c r="H793" t="s">
+        <v>11371</v>
+      </c>
+      <c r="I793" t="s">
+        <v>11382</v>
+      </c>
+      <c r="J793" t="s">
+        <v>11393</v>
+      </c>
+      <c r="K793" t="s">
+        <v>11404</v>
+      </c>
+      <c r="L793" t="s">
+        <v>11303</v>
+      </c>
+      <c r="M793" t="s">
+        <v>11415</v>
+      </c>
+      <c r="N793" t="s">
+        <v>11426</v>
+      </c>
+      <c r="O793" t="s">
+        <v>11437</v>
+      </c>
+    </row>
+    <row r="794" spans="1:15">
+      <c r="A794" t="s">
+        <v>11280</v>
+      </c>
+      <c r="B794" t="s">
+        <v>11328</v>
+      </c>
+      <c r="C794" t="s">
+        <v>11317</v>
+      </c>
+      <c r="D794" t="s">
+        <v>11294</v>
+      </c>
+      <c r="E794" t="s">
+        <v>11339</v>
+      </c>
+      <c r="F794" t="s">
+        <v>11350</v>
+      </c>
+      <c r="G794" t="s">
+        <v>11361</v>
+      </c>
+      <c r="H794" t="s">
+        <v>11372</v>
+      </c>
+      <c r="I794" t="s">
+        <v>11383</v>
+      </c>
+      <c r="J794" t="s">
+        <v>11394</v>
+      </c>
+      <c r="K794" t="s">
+        <v>11405</v>
+      </c>
+      <c r="L794" t="s">
+        <v>11302</v>
+      </c>
+      <c r="M794" t="s">
+        <v>11416</v>
+      </c>
+      <c r="N794" t="s">
+        <v>11427</v>
+      </c>
+      <c r="O794" t="s">
+        <v>11438</v>
+      </c>
+    </row>
+    <row r="795" spans="1:15">
+      <c r="A795" t="s">
+        <v>11442</v>
+      </c>
+      <c r="B795" t="s">
+        <v>11465</v>
+      </c>
+      <c r="C795" t="s">
+        <v>11443</v>
+      </c>
+      <c r="D795" t="s">
+        <v>11440</v>
+      </c>
+      <c r="E795" t="s">
+        <v>11463</v>
+      </c>
+      <c r="F795" t="s">
+        <v>11461</v>
+      </c>
+      <c r="G795" t="s">
+        <v>11459</v>
+      </c>
+      <c r="H795" t="s">
+        <v>11457</v>
+      </c>
+      <c r="I795" t="s">
+        <v>11455</v>
+      </c>
+      <c r="J795" t="s">
+        <v>11453</v>
+      </c>
+      <c r="K795" t="s">
+        <v>11451</v>
+      </c>
+      <c r="L795" t="s">
+        <v>11443</v>
+      </c>
+      <c r="M795" t="s">
+        <v>11449</v>
+      </c>
+      <c r="N795" t="s">
+        <v>11447</v>
+      </c>
+      <c r="O795" t="s">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="796" spans="1:15">
+      <c r="A796" t="s">
+        <v>11439</v>
+      </c>
+      <c r="B796" t="s">
+        <v>11466</v>
+      </c>
+      <c r="C796" t="s">
+        <v>11467</v>
+      </c>
+      <c r="D796" t="s">
+        <v>11441</v>
+      </c>
+      <c r="E796" t="s">
+        <v>11464</v>
+      </c>
+      <c r="F796" t="s">
+        <v>11462</v>
+      </c>
+      <c r="G796" t="s">
+        <v>11460</v>
+      </c>
+      <c r="H796" t="s">
+        <v>11458</v>
+      </c>
+      <c r="I796" t="s">
+        <v>11456</v>
+      </c>
+      <c r="J796" t="s">
+        <v>11454</v>
+      </c>
+      <c r="K796" t="s">
+        <v>11452</v>
+      </c>
+      <c r="L796" t="s">
+        <v>11444</v>
+      </c>
+      <c r="M796" t="s">
+        <v>11450</v>
+      </c>
+      <c r="N796" t="s">
+        <v>11448</v>
+      </c>
+      <c r="O796" t="s">
+        <v>11446</v>
+      </c>
+    </row>
+    <row r="797" spans="1:15">
+      <c r="A797" t="s">
+        <v>11468</v>
+      </c>
+      <c r="B797" t="s">
+        <v>11476</v>
+      </c>
+      <c r="C797" t="s">
+        <v>11474</v>
+      </c>
+      <c r="D797" t="s">
+        <v>11470</v>
+      </c>
+      <c r="E797" t="s">
+        <v>11478</v>
+      </c>
+      <c r="F797" t="s">
+        <v>11480</v>
+      </c>
+      <c r="G797" t="s">
+        <v>11482</v>
+      </c>
+      <c r="H797" t="s">
+        <v>11484</v>
+      </c>
+      <c r="I797" t="s">
+        <v>11486</v>
+      </c>
+      <c r="J797" t="s">
+        <v>11488</v>
+      </c>
+      <c r="K797" t="s">
+        <v>11490</v>
+      </c>
+      <c r="L797" t="s">
+        <v>11473</v>
+      </c>
+      <c r="M797" t="s">
+        <v>11492</v>
+      </c>
+      <c r="N797" t="s">
+        <v>11494</v>
+      </c>
+      <c r="O797" t="s">
+        <v>11496</v>
+      </c>
+    </row>
+    <row r="798" spans="1:15">
+      <c r="A798" t="s">
+        <v>11469</v>
+      </c>
+      <c r="B798" t="s">
+        <v>11477</v>
+      </c>
+      <c r="C798" t="s">
+        <v>11475</v>
+      </c>
+      <c r="D798" t="s">
+        <v>11471</v>
+      </c>
+      <c r="E798" t="s">
+        <v>11479</v>
+      </c>
+      <c r="F798" t="s">
+        <v>11481</v>
+      </c>
+      <c r="G798" t="s">
+        <v>11483</v>
+      </c>
+      <c r="H798" t="s">
+        <v>11485</v>
+      </c>
+      <c r="I798" t="s">
+        <v>11487</v>
+      </c>
+      <c r="J798" t="s">
+        <v>11489</v>
+      </c>
+      <c r="K798" t="s">
+        <v>11491</v>
+      </c>
+      <c r="L798" t="s">
+        <v>11472</v>
+      </c>
+      <c r="M798" t="s">
+        <v>11493</v>
+      </c>
+      <c r="N798" t="s">
+        <v>11495</v>
+      </c>
+      <c r="O798" t="s">
+        <v>11497</v>
+      </c>
+    </row>
+    <row r="799" spans="1:15">
+      <c r="A799" t="s">
+        <v>11498</v>
+      </c>
+      <c r="B799" t="s">
+        <v>11520</v>
+      </c>
+      <c r="C799" t="s">
+        <v>11515</v>
+      </c>
+      <c r="D799" t="s">
+        <v>11504</v>
+      </c>
+      <c r="E799" t="s">
+        <v>11526</v>
+      </c>
+      <c r="F799" t="s">
+        <v>11531</v>
+      </c>
+      <c r="G799" t="s">
+        <v>11536</v>
+      </c>
+      <c r="H799" t="s">
+        <v>11542</v>
+      </c>
+      <c r="I799" t="s">
+        <v>11547</v>
+      </c>
+      <c r="J799" t="s">
+        <v>11552</v>
+      </c>
+      <c r="K799" t="s">
+        <v>11557</v>
+      </c>
+      <c r="L799" t="s">
+        <v>11507</v>
+      </c>
+      <c r="M799" t="s">
+        <v>11562</v>
+      </c>
+      <c r="N799" t="s">
+        <v>11568</v>
+      </c>
+      <c r="O799" t="s">
+        <v>11573</v>
+      </c>
+    </row>
+    <row r="800" spans="1:15">
+      <c r="A800" t="s">
+        <v>11499</v>
+      </c>
+      <c r="B800" t="s">
+        <v>11525</v>
+      </c>
+      <c r="C800" t="s">
+        <v>11516</v>
+      </c>
+      <c r="D800" t="s">
+        <v>11506</v>
+      </c>
+      <c r="E800" t="s">
+        <v>11527</v>
+      </c>
+      <c r="F800" t="s">
+        <v>11532</v>
+      </c>
+      <c r="G800" t="s">
+        <v>11537</v>
+      </c>
+      <c r="H800" t="s">
+        <v>11543</v>
+      </c>
+      <c r="I800" t="s">
+        <v>11548</v>
+      </c>
+      <c r="J800" t="s">
+        <v>11553</v>
+      </c>
+      <c r="K800" t="s">
+        <v>11558</v>
+      </c>
+      <c r="L800" t="s">
+        <v>11514</v>
+      </c>
+      <c r="M800" t="s">
+        <v>11563</v>
+      </c>
+      <c r="N800" t="s">
+        <v>11569</v>
+      </c>
+      <c r="O800" t="s">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="801" spans="1:15">
+      <c r="A801" t="s">
+        <v>11500</v>
+      </c>
+      <c r="B801" t="s">
+        <v>11521</v>
+      </c>
+      <c r="C801" t="s">
+        <v>11517</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F801" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G801" t="s">
+        <v>11538</v>
+      </c>
+      <c r="H801" t="s">
+        <v>8095</v>
+      </c>
+      <c r="I801" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J801" t="s">
+        <v>5259</v>
+      </c>
+      <c r="K801" t="s">
+        <v>6987</v>
+      </c>
+      <c r="L801" t="s">
+        <v>11508</v>
+      </c>
+      <c r="M801" t="s">
+        <v>11564</v>
+      </c>
+      <c r="N801" t="s">
+        <v>6355</v>
+      </c>
+      <c r="O801" t="s">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="802" spans="1:15">
+      <c r="A802" t="s">
+        <v>11501</v>
+      </c>
+      <c r="B802" t="s">
+        <v>11522</v>
+      </c>
+      <c r="C802" t="s">
+        <v>11509</v>
+      </c>
+      <c r="D802" t="s">
+        <v>11505</v>
+      </c>
+      <c r="E802" t="s">
+        <v>11528</v>
+      </c>
+      <c r="F802" t="s">
+        <v>11533</v>
+      </c>
+      <c r="G802" t="s">
+        <v>11539</v>
+      </c>
+      <c r="H802" t="s">
+        <v>11544</v>
+      </c>
+      <c r="I802" t="s">
+        <v>11549</v>
+      </c>
+      <c r="J802" t="s">
+        <v>11554</v>
+      </c>
+      <c r="K802" t="s">
+        <v>11559</v>
+      </c>
+      <c r="L802" t="s">
+        <v>11509</v>
+      </c>
+      <c r="M802" t="s">
+        <v>11565</v>
+      </c>
+      <c r="N802" t="s">
+        <v>11570</v>
+      </c>
+      <c r="O802" t="s">
+        <v>11575</v>
+      </c>
+    </row>
+    <row r="803" spans="1:15">
+      <c r="A803" t="s">
+        <v>11502</v>
+      </c>
+      <c r="B803" t="s">
+        <v>11523</v>
+      </c>
+      <c r="C803" t="s">
+        <v>11518</v>
+      </c>
+      <c r="D803" t="s">
+        <v>11512</v>
+      </c>
+      <c r="E803" t="s">
+        <v>11529</v>
+      </c>
+      <c r="F803" t="s">
+        <v>11534</v>
+      </c>
+      <c r="G803" t="s">
+        <v>11540</v>
+      </c>
+      <c r="H803" t="s">
+        <v>11545</v>
+      </c>
+      <c r="I803" t="s">
+        <v>11550</v>
+      </c>
+      <c r="J803" t="s">
+        <v>11555</v>
+      </c>
+      <c r="K803" t="s">
+        <v>11560</v>
+      </c>
+      <c r="L803" t="s">
+        <v>11510</v>
+      </c>
+      <c r="M803" t="s">
+        <v>11566</v>
+      </c>
+      <c r="N803" t="s">
+        <v>11571</v>
+      </c>
+      <c r="O803" t="s">
+        <v>11576</v>
+      </c>
+    </row>
+    <row r="804" spans="1:15">
+      <c r="A804" t="s">
+        <v>11503</v>
+      </c>
+      <c r="B804" t="s">
+        <v>11524</v>
+      </c>
+      <c r="C804" t="s">
+        <v>11519</v>
+      </c>
+      <c r="D804" t="s">
+        <v>11513</v>
+      </c>
+      <c r="E804" t="s">
+        <v>11530</v>
+      </c>
+      <c r="F804" t="s">
+        <v>11535</v>
+      </c>
+      <c r="G804" t="s">
+        <v>11541</v>
+      </c>
+      <c r="H804" t="s">
+        <v>11546</v>
+      </c>
+      <c r="I804" t="s">
+        <v>11551</v>
+      </c>
+      <c r="J804" t="s">
+        <v>11556</v>
+      </c>
+      <c r="K804" t="s">
+        <v>11561</v>
+      </c>
+      <c r="L804" t="s">
+        <v>11511</v>
+      </c>
+      <c r="M804" t="s">
+        <v>11567</v>
+      </c>
+      <c r="N804" t="s">
+        <v>11572</v>
+      </c>
+      <c r="O804" t="s">
+        <v>11577</v>
       </c>
     </row>
   </sheetData>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1E1B0-F89F-47B5-9015-455500D12A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B41DCCB-2D59-4D50-A106-B6B04CECBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="49274" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38539,7 +38539,7 @@
     <t>&lt;p&gt;슬라이드쇼 앱이 최신 버전으로 성공적으로 업데이트되었습니다.&lt;/p&gt;&lt;p&gt;기능에 대한 설명서는 다음 주소에서 찾을 수 있습니다. &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;. 튜터리얼은 다음 주소에서 찾을 수 있습니다.&lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;슬라이드쇼 앱이 마음에 들면 다음에서 앱을 평가하여 개발을 지원할 수 있습니다. &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt;. 구매를 원하시면 다음 주소로 연락주세요.&lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- 개발팀 --&lt;/span&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Slideshow app has been successfully updated to a newer version. There are following changes in this version:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Added Korean localization&lt;/li&gt;&lt;li&gt;Added support for file synchronization from SFTP server (see menu Tools - File synchronization)&lt;/li&gt;&lt;li&gt;Enhanced support for synchronized playback across multiple zones or multiple devices&lt;/li&gt;&lt;li&gt;Added trigger in case there is no user activity (see menu Settings - Triggers - Conditions - Seconds since last user activity)&lt;/li&gt;&lt;li&gt;Added possibility to restrict access to other websites when displaying a URL file&lt;/li&gt;&lt;li&gt;Added possibility to select particular external storage for saving media (see menu Settings - Device settings - Storage for media) &lt;/li&gt;&lt;li&gt;Enhanced visibility of on-screen controls (swipe from the right on the screen)&lt;/li&gt;&lt;li&gt;Removed support for importing time slots from XML configuration created on Slideshow 3.x (use new format introduced in Slideshow 4.0)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
+    <t>&lt;p&gt;Slideshow app has been successfully updated to a newer version. There are following changes in this version:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Added new synchronization commands to other devices (see menu Settings - Other devices)&lt;/li&gt;&lt;li&gt;Fixed displaying PDF if the preloading is turned off&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -38944,10 +38944,10 @@
   <dimension ref="A1:P834"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B649" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B652" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I657" sqref="I657"/>
+      <selection pane="bottomRight" activeCell="D675" sqref="D675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>

--- a/backend/localization.xlsx
+++ b/backend/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimac\Documents\NetBeansProjects\slideshow-localization\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0136146-5EE9-4928-AF3A-C7304162460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69FEF8D-4B6B-4FC4-971B-88611E669C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24523" windowHeight="19932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="49274" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="13605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14480" uniqueCount="13926">
   <si>
     <t>keys</t>
   </si>
@@ -40831,10 +40831,973 @@
     <t>Flash sürücüdeki dosyalar bu uygulamadaki hangi klasöre kopyalanır. Eğik çizgi kök klasör anlamına gelir. Bu yalnızca Flash sürücüden kopyalamaya izin veriliyorsa kullanılır (bkz. Flash sürücü takılırken Eylem ayarı).</t>
   </si>
   <si>
-    <t>&lt;p&gt;Slideshow app has been successfully updated to a newer version. There are following changes in this version:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Added settings internal screensaver layout (see menu Screen layout - Screensaver)&lt;/li&gt;&lt;li&gt;Added Click areas for images (see menu File manager - right click an image - Click areas)&lt;/li&gt;&lt;li&gt;Added new setting Grant web pages permissions (see menu Settings - Device settings)&lt;/li&gt;&lt;li&gt;Added new setting Target folder from Flash drive (see menu Settings - Device settings)&lt;/li&gt;&lt;li&gt;Fixed app update on Android 7&lt;/li&gt;&lt;li&gt;Small fixes &amp; enhancements&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>Clear folder (delete old files)</t>
+  </si>
+  <si>
+    <t>face_detection_preferred_image_width</t>
+  </si>
+  <si>
+    <t>face_detection_preferred_image_width_help</t>
+  </si>
+  <si>
+    <t>face_detection_min_face_size</t>
+  </si>
+  <si>
+    <t>face_detection_min_face_size_help</t>
+  </si>
+  <si>
+    <t>face_detection_min_eyes_opened</t>
+  </si>
+  <si>
+    <t>face_detection_min_eyes_opened_help</t>
+  </si>
+  <si>
+    <t>Preferred camera image width</t>
+  </si>
+  <si>
+    <t>Minimal width of a face (in %)</t>
+  </si>
+  <si>
+    <t>Minimal width of a face in percentage of the total image width, in order for the face to be counted.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimal number of opened eyes</t>
+  </si>
+  <si>
+    <t>Minimálna šírka tváre v percentách z celkovej šírky snímky, aby bola tvár započítaná.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Preferovaná šírka snímky z kamery. Ak kamera nepodporuje danú šírku, použije sa najbližšia väčšia šírka.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimálna šírka tváre (v %)</t>
+  </si>
+  <si>
+    <t>Minimálna pravdepodobnosť otvorených očí, aby bola tvár započítaná. Zadajte desatinné číslo medzi 0 a 2.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimal probability of opened eyes, in order for the face to be counted. Enter a decimal number between 0 and 2.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Bevorzugte Bildbreite der Kamera</t>
+  </si>
+  <si>
+    <t>Bevorzugte Breite des von der Kamera aufgenommenen Bildes. Wenn die Kamera diese bestimmte Breite nicht unterstützt, wird die nächstgrößere Breite verwendet.&lt;br&gt;&lt;i&gt;Um diese Änderung anzuwenden, ist ein Neuladen erforderlich.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimale Breite einer Fläche (in %)</t>
+  </si>
+  <si>
+    <t>Minimale Breite eines Gesichts in Prozent der gesamten Bildbreite, damit das Gesicht gezählt werden kann.&lt;br&gt;&lt;i&gt;Zum Anwenden dieser Änderung ist ein Neuladen erforderlich.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimale Anzahl geöffneter Augen</t>
+  </si>
+  <si>
+    <t>Minimale Wahrscheinlichkeit geöffneter Augen, damit das Gesicht gezählt werden kann. Geben Sie eine Dezimalzahl zwischen 0 und 2 ein.&lt;br&gt;&lt;i&gt;Zum Anwenden dieser Änderung ist ein Neuladen erforderlich.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Largeur d'image de caméra préférée</t>
+  </si>
+  <si>
+    <t>Largeur préférée de l’image prise par la caméra. Si la caméra ne prend pas en charge cette largeur particulière, la largeur la plus grande la plus proche sera utilisée.&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Largeur minimale d'un visage (en %)</t>
+  </si>
+  <si>
+    <t>Largeur minimale d'un visage en pourcentage de la largeur totale de l'image, pour que le visage soit compté.&lt;br&gt;&lt;i&gt;Un rechargement est nécessaire pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Nombre minimal d'yeux ouverts</t>
+  </si>
+  <si>
+    <t>Probabilité minimale d'ouvrir les yeux pour que le visage soit compté. Saisissez un nombre décimal compris entre 0 et 2.&lt;br&gt;&lt;i&gt;Un rechargement est requis pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Željena širina slike kamere</t>
+  </si>
+  <si>
+    <t>Preferirana širina slike snimljene kamerom. Ako kamera ne podržava ovu konkretnu širinu, koristit će se najbliža veća širina.&lt;br&gt;&lt;i&gt;Potrebno je ponovno učitavanje za primjenu ove promjene.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimalna širina lica (u %)</t>
+  </si>
+  <si>
+    <t>Minimalna širina lica u postotku ukupne širine slike, kako bi se lice moglo računati.&lt;br&gt;&lt;i&gt;Potrebno je ponovno učitavanje za primjenu ove promjene.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimalan broj otvorenih očiju</t>
+  </si>
+  <si>
+    <t>Minimalna vjerojatnost otvorenih očiju, kako bi se lice moglo prebrojati. Unesite decimalni broj između 0 i 2.&lt;br&gt;&lt;i&gt;Potrebno je ponovno učitavanje za primjenu ove promjene.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Larghezza preferita dell'immagine della telecamera</t>
+  </si>
+  <si>
+    <t>Larghezza preferita dell'immagine scattata dalla fotocamera. Se la fotocamera non supporta questa larghezza particolare, verrà utilizzata la larghezza maggiore più vicina.&lt;br&gt;&lt;i&gt;È necessario ricaricare per applicare questa modifica.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Larghezza minima di una faccia (in %)</t>
+  </si>
+  <si>
+    <t>Larghezza minima di un volto in percentuale della larghezza totale dell'immagine, affinché il volto possa essere conteggiato.&lt;br&gt;&lt;i&gt;È necessario ricaricare per applicare questa modifica.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Numero minimo di occhi aperti</t>
+  </si>
+  <si>
+    <t>Probabilità minima di occhi aperti per poter contare il volto. Inserisci un numero decimale compreso tra 0 e 2.&lt;br&gt;&lt;i&gt;Per applicare questa modifica è necessario ricaricare.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>推奨されるカメラ画像の幅</t>
+  </si>
+  <si>
+    <t>カメラで撮影した画像の推奨幅。 カメラがこの特定の幅をサポートしていない場合は、最も近い大きい幅が使用されます。&lt;br&gt;&lt;i&gt;この変更を適用するには再読み込みが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>顔の最小幅 (%)</t>
+  </si>
+  <si>
+    <t>顔がカウントされるために、画像全体の幅に対するパーセンテージで表した顔の最小幅。&lt;br&gt;&lt;i&gt;この変更を適用するには再読み込みが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>開いた目の最小数</t>
+  </si>
+  <si>
+    <t>顔がカウントされるために、目が開いている可能性は最小限です。 0 ～ 2 の 10 進数を入力してください。&lt;br&gt;&lt;i&gt;この変更を適用するには再読み込みが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>기본 카메라 이미지 너비</t>
+  </si>
+  <si>
+    <t>카메라로 촬영한 이미지의 기본 너비입니다. 카메라가 이 특정 너비를 지원하지 않는 경우 가장 가까운 더 큰 너비가 사용됩니다.&lt;br&gt;&lt;i&gt;이 변경 사항을 적용하려면 새로고침이 필요합니다.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>면의 최소 너비(%)</t>
+  </si>
+  <si>
+    <t>얼굴을 계산하기 위한 얼굴의 최소 너비(전체 이미지 너비에 대한 백분율).&lt;br&gt;&lt;i&gt;이 변경 사항을 적용하려면 새로고침이 필요합니다.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>최소한의 눈을 뜨고</t>
+  </si>
+  <si>
+    <t>얼굴이 계산되기 위해서는 눈을 뜰 확률이 최소화됩니다. 0에서 2 사이의 10진수를 입력하세요.&lt;br&gt;&lt;i&gt;이 변경사항을 적용하려면 새로고침이 필요합니다.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Preferowana szerokość obrazu z kamery</t>
+  </si>
+  <si>
+    <t>Preferowana szerokość obrazu rejestrowanego przez kamerę. Jeśli kamera nie obsługuje tej konkretnej szerokości, zostanie użyta najbliższa większa szerokość.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimalna szerokość twarzy (w %)</t>
+  </si>
+  <si>
+    <t>Minimalna szerokość twarzy jako procent całkowitej szerokości obrazu, aby twarz została policzona.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimalna liczba otwartych oczu</t>
+  </si>
+  <si>
+    <t>Minimalne prawdopodobieństwo otwarcia oczu, aby można było policzyć twarz. Wprowadź liczbę dziesiętną z zakresu od 0 do 2.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Largura preferida da imagem da câmera</t>
+  </si>
+  <si>
+    <t>Largura preferida da imagem tirada pela câmera. Se a câmera não suportar essa largura específica, a largura maior mais próxima será usada.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Largura mínima de uma face (em%)</t>
+  </si>
+  <si>
+    <t>Largura mínima de um rosto em porcentagem da largura total da imagem, para que o rosto seja contado.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Número mínimo de olhos abertos</t>
+  </si>
+  <si>
+    <t>Probabilidade mínima de olhos abertos, para que o rosto seja contado. Insira um número decimal entre 0 e 2.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Предпочтительная ширина изображения камеры</t>
+  </si>
+  <si>
+    <t>Предпочтительная ширина изображения, снятого камерой. Если камера не поддерживает эту конкретную ширину, будет использоваться ближайшая к ней большая ширина.&lt;br&gt;&lt;i&gt;Для применения этого изменения потребуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Минимальная ширина грани (в %)</t>
+  </si>
+  <si>
+    <t>Минимальная ширина лица в процентах от общей ширины изображения, необходимая для подсчета лица.&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Минимальное количество открытых глаз</t>
+  </si>
+  <si>
+    <t>Минимальная вероятность открытия глаз, чтобы лицо можно было засчитать. Введите десятичное число от 0 до 2.&lt;br&gt;&lt;i&gt;Для применения этого изменения потребуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Želena širina slike kamere</t>
+  </si>
+  <si>
+    <t>Želena širina slike, posnete s kamero. Če kamera ne podpira te določene širine, bo uporabljena najbližja večja širina.&lt;br&gt;&lt;i&gt;Za uveljavitev te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Najmanjša širina obraza (v %)</t>
+  </si>
+  <si>
+    <t>Najmanjša širina obraza v odstotkih skupne širine slike, da se lahko obraz šteje.&lt;br&gt;&lt;i&gt;Za uveljavitev te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Najmanjše število odprtih oči</t>
+  </si>
+  <si>
+    <t>Minimalna verjetnost odprtih oči, da bi lahko prešteli obraz. Vnesite decimalno število med 0 in 2.&lt;br&gt;&lt;i&gt;Za uveljavitev te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ancho de imagen de cámara preferido</t>
+  </si>
+  <si>
+    <t>Ancho preferido de la imagen tomada por la cámara. Si la cámara no admite este ancho en particular, se utilizará el ancho mayor más cercano.&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ancho mínimo de una cara (en %)</t>
+  </si>
+  <si>
+    <t>Ancho mínimo de una cara en porcentaje del ancho total de la imagen, para que la cara se cuente.&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Número mínimo de ojos abiertos.</t>
+  </si>
+  <si>
+    <t>Probabilidad mínima de ojos abiertos, para que se cuente la cara. Introduce un número decimal entre 0 y 2.&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Tercih edilen kamera görüntü genişliği</t>
+  </si>
+  <si>
+    <t>Kamera tarafından çekilen görüntünün tercih edilen genişliği. Kamera bu belirli genişliği desteklemiyorsa en yakın geniş genişlik kullanılacaktır.&lt;br&gt;&lt;i&gt;Bu değişikliğin uygulanması için yeniden yükleme gerekiyor.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Yüzün minimum genişliği (% olarak)</t>
+  </si>
+  <si>
+    <t>Yüzün sayılabilmesi için toplam resim genişliğinin yüzdesi olarak minimum yüz genişliği.&lt;br&gt;&lt;i&gt;Bu değişikliğin uygulanması için yeniden yükleme gerekir.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimum sayıda açık göz</t>
+  </si>
+  <si>
+    <t>Yüzün sayılabilmesi için minimum açık göz olasılığı. 0 ile 2 arasında bir ondalık sayı girin.&lt;br&gt;&lt;i&gt;Bu değişikliğin uygulanması için yeniden yükleme gerekiyor.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimálny počet otvorených očí</t>
+  </si>
+  <si>
+    <t>Preferovaná šírka snímky z kamery</t>
+  </si>
+  <si>
+    <t>Preferovaná šířka snímku z kamery</t>
+  </si>
+  <si>
+    <t>Preferovaná šířka snímku z kamery. Pokud kamera nepodporuje danou šířku, použije se nejbližší větší šířka.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimální šířka obličeje (v %)</t>
+  </si>
+  <si>
+    <t>Minimální šířka obličeje v procentech z celkové šířky snímku, aby byla tvář započtena.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Minimální počet otevřených očí</t>
+  </si>
+  <si>
+    <t>Minimální pravděpodobnost otevřených očí, aby byla tvář započtena. Zadejte desetinné číslo mezi 0 a 2.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Preferred width of the image taken by camera. If the camera doesn't support this particular width, the closest larger width will be used. If no value is entered, the maximum available picture size will be chosen.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>watchdog_ping_address</t>
+  </si>
+  <si>
+    <t>watchdog_ping_address_help</t>
+  </si>
+  <si>
+    <t>watchdog_ping_delay_help</t>
+  </si>
+  <si>
+    <t>watchdog_ping_delay</t>
+  </si>
+  <si>
+    <t>watchdog_ping_times</t>
+  </si>
+  <si>
+    <t>watchdog_ping_times_help</t>
+  </si>
+  <si>
+    <t>IP address or hostname of a network device that should be pinged for watchdog. If no address is entered, the network watchdog is turned off.</t>
+  </si>
+  <si>
+    <t>Delay in seconds between consecutive pings.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Number of consecutive failed pings, after which this  device is rebooted. Works only on rooted devices.</t>
+  </si>
+  <si>
+    <t>Delay between pings (in s)</t>
+  </si>
+  <si>
+    <t>No. of failes pings for reboot</t>
+  </si>
+  <si>
+    <t>IP address for pings</t>
+  </si>
+  <si>
+    <t>IP adresa na ping</t>
+  </si>
+  <si>
+    <t>Počet neúspešných pingov na reštart</t>
+  </si>
+  <si>
+    <t>Počet za sebou idúcich neúspešných pingov, po ktorých sa toto zariadenie reštartuje. Funguje len na rootnutých zariadeniach.</t>
+  </si>
+  <si>
+    <t>IP adresa alebo doménové meno sieťového zariadenia, ktoré bude ping-ované pre watchdog. Ak nie je zadaná žiadna adresa, sieťový watchdog je vypnutý.</t>
+  </si>
+  <si>
+    <t>Oneskorenie medzi pingami (v s)</t>
+  </si>
+  <si>
+    <t>Oneskorenie v sekundách medzi jednotlivými pingami.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>핑을 위한 IP 주소</t>
+  </si>
+  <si>
+    <t>감시를 위해 핑을 보내야 하는 네트워크 장치의 IP 주소 또는 호스트 이름입니다. 주소를 입력하지 않으면 네트워크 감시가 꺼집니다.</t>
+  </si>
+  <si>
+    <t>핑 간 지연(초)</t>
+  </si>
+  <si>
+    <t>연속 핑 사이의 지연 시간(초)입니다.&lt;br&gt;&lt;i&gt;이 변경 사항을 적용하려면 새로고침이 필요합니다.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>재부팅에 대한 핑 실패 횟수</t>
+  </si>
+  <si>
+    <t>이 장치가 재부팅된 후 연속적으로 실패한 ping 횟수입니다. 루팅된 장치에서만 작동합니다.</t>
+  </si>
+  <si>
+    <t>ping 用の IP アドレス</t>
+  </si>
+  <si>
+    <t>ウォッチドッグのために ping を送信する必要があるネットワーク デバイスの IP アドレスまたはホスト名。 アドレスが入力されない場合、ネットワーク ウォッチドッグはオフになります。</t>
+  </si>
+  <si>
+    <t>ping 間の遅延 (秒単位)</t>
+  </si>
+  <si>
+    <t>連続する ping 間の遅延 (秒単位)。&lt;br&gt;&lt;i&gt;この変更を適用するにはリロードが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>再起動の失敗した ping の数</t>
+  </si>
+  <si>
+    <t>このデバイスが再起動されるまでに連続して失敗した ping の数。 root化されたデバイスでのみ動作します。</t>
+  </si>
+  <si>
+    <t>Indirizzo IP per i ping</t>
+  </si>
+  <si>
+    <t>Indirizzo IP o nome host di un dispositivo di rete di cui eseguire il ping per il watchdog. Se non viene inserito alcun indirizzo, il watchdog di rete viene disattivato.</t>
+  </si>
+  <si>
+    <t>Ritardo tra i ping (in s)</t>
+  </si>
+  <si>
+    <t>Ritardo in secondi tra ping consecutivi.&lt;br&gt;&lt;i&gt;Per applicare questa modifica è necessario ricaricare.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>N. di ping non riusciti per il riavvio</t>
+  </si>
+  <si>
+    <t>Numero di ping consecutivi non riusciti, dopo i quali il dispositivo viene riavviato. Funziona solo su dispositivi rooted.</t>
+  </si>
+  <si>
+    <t>IP-Adresse für Pings</t>
+  </si>
+  <si>
+    <t>IP-Adresse oder Hostname eines Netzwerkgeräts, das als Watchdog angepingt werden soll. Wenn keine Adresse eingegeben wird, ist der Netzwerk-Watchdog ausgeschaltet.</t>
+  </si>
+  <si>
+    <t>Verzögerung zwischen Pings (in s)</t>
+  </si>
+  <si>
+    <t>Verzögerung in Sekunden zwischen aufeinanderfolgenden Pings.&lt;br&gt;&lt;i&gt;Zum Anwenden dieser Änderung ist ein Neuladen erforderlich.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Anzahl der fehlgeschlagenen Pings für den Neustart</t>
+  </si>
+  <si>
+    <t>Anzahl aufeinanderfolgender fehlgeschlagener Pings, nach denen dieses Gerät neu gestartet wird. Funktioniert nur auf gerooteten Geräten.</t>
+  </si>
+  <si>
+    <t>Adresse IP pour les pings</t>
+  </si>
+  <si>
+    <t>Adresse IP ou nom d'hôte d'un périphérique réseau qui doit faire l'objet d'une requête ping pour le chien de garde. Si aucune adresse n'est saisie, le chien de garde du réseau est désactivé.</t>
+  </si>
+  <si>
+    <t>Délai entre les pings (en s)</t>
+  </si>
+  <si>
+    <t>Délai en secondes entre les pings consécutifs.&lt;br&gt;&lt;i&gt;Un rechargement est requis pour appliquer cette modification.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Nombre d'échecs de ping pour le redémarrage</t>
+  </si>
+  <si>
+    <t>Nombre d'échecs ping consécutifs, après quoi cet appareil est redémarré. Fonctionne uniquement sur les appareils rootés.</t>
+  </si>
+  <si>
+    <t>Adres IP dla pingów</t>
+  </si>
+  <si>
+    <t>Adres IP lub nazwa hosta urządzenia sieciowego, które powinno zostać pingowane dla watchdoga. Jeśli nie zostanie wprowadzony żaden adres, funkcja nadzoru sieci zostanie wyłączona.</t>
+  </si>
+  <si>
+    <t>Opóźnienie między pingami (w s)</t>
+  </si>
+  <si>
+    <t>Opóźnienie w sekundach pomiędzy kolejnymi sygnałami.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Liczba nieudanych pingów potrzebnych do ponownego uruchomienia</t>
+  </si>
+  <si>
+    <t>Liczba kolejnych nieudanych pingów, po których urządzenie zostanie ponownie uruchomione. Działa tylko na urządzeniach zrootowanych.</t>
+  </si>
+  <si>
+    <t>Endereço IP para pings</t>
+  </si>
+  <si>
+    <t>Endereço IP ou nome de host de um dispositivo de rede que deve receber ping para watchdog. Se nenhum endereço for inserido, o watchdog da rede será desativado.</t>
+  </si>
+  <si>
+    <t>Atraso entre pings (em s)</t>
+  </si>
+  <si>
+    <t>Atraso em segundos entre pings consecutivos.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Nº de falhas em pings para reinicialização</t>
+  </si>
+  <si>
+    <t>Número de pings consecutivos com falha, após os quais este dispositivo é reinicializado. Funciona apenas em dispositivos com acesso root.</t>
+  </si>
+  <si>
+    <t>IP-адрес для пингов</t>
+  </si>
+  <si>
+    <t>IP-адрес или имя хоста сетевого устройства, которое необходимо проверить на наличие сторожевого таймера. Если адрес не введен, сторожевой таймер сети отключается.</t>
+  </si>
+  <si>
+    <t>Задержка между пингами (в с)</t>
+  </si>
+  <si>
+    <t>Задержка в секундах между последовательными пингами.&lt;br&gt;&lt;i&gt;Для применения этого изменения требуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Количество неудачных пингов для перезагрузки</t>
+  </si>
+  <si>
+    <t>Количество последовательных неудачных попыток проверки связи, после которых устройство перезагружается. Работает только на рутованных устройствах.</t>
+  </si>
+  <si>
+    <t>IP naslov za pinge</t>
+  </si>
+  <si>
+    <t>Naslov IP ali ime gostitelja omrežne naprave, ki jo je treba pingati za čuvaja. Če naslov ni vnesen, je nadzornik omrežja izklopljen.</t>
+  </si>
+  <si>
+    <t>Zakasnitev med pingi (v s)</t>
+  </si>
+  <si>
+    <t>Zakasnitev v sekundah med zaporednimi pingi.&lt;br&gt;&lt;i&gt;Za uveljavitev te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Število neuspešnih pingov za ponovni zagon</t>
+  </si>
+  <si>
+    <t>Število zaporednih neuspelih pingov, po katerih se ta naprava znova zažene. Deluje samo na zakoreninjenih napravah.</t>
+  </si>
+  <si>
+    <t>Dirección IP para pings</t>
+  </si>
+  <si>
+    <t>Dirección IP o nombre de host de un dispositivo de red al que se debe hacer ping para el mecanismo de vigilancia. Si no se ingresa ninguna dirección, el mecanismo de vigilancia de la red se desactiva.</t>
+  </si>
+  <si>
+    <t>Retraso entre pings (en s)</t>
+  </si>
+  <si>
+    <t>Retraso en segundos entre pings consecutivos.&lt;br&gt;&lt;i&gt;Es necesario recargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>No. de pings fallidos para reiniciar</t>
+  </si>
+  <si>
+    <t>Número de pings fallidos consecutivos, después de los cuales se reinicia este dispositivo. Funciona sólo en dispositivos rooteados.</t>
+  </si>
+  <si>
+    <t>Pingler için IP adresi</t>
+  </si>
+  <si>
+    <t>İzleyici için ping atılması gereken bir ağ cihazının IP adresi veya ana bilgisayar adı. Hiçbir adres girilmezse ağ gözlemcisi kapatılır.</t>
+  </si>
+  <si>
+    <t>Pingler arasındaki gecikme (sn)</t>
+  </si>
+  <si>
+    <t>Ardışık ping'ler arasında saniye cinsinden gecikme.&lt;br&gt;&lt;i&gt;Bu değişikliğin uygulanması için yeniden yükleme gerekiyor.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Yeniden başlatma için başarısız ping sayısı</t>
+  </si>
+  <si>
+    <t>Bu cihazın yeniden başlatılmasından sonra gerçekleşen ardışık başarısız ping sayısı. Yalnızca root erişimli cihazlarda çalışır.</t>
+  </si>
+  <si>
+    <t>No. of failed pings for reboot</t>
+  </si>
+  <si>
+    <t>face_detection_control_awb_mode</t>
+  </si>
+  <si>
+    <t>face_detection_control_awb_mode_help</t>
+  </si>
+  <si>
+    <t>face_detection_exposure_compensation</t>
+  </si>
+  <si>
+    <t>face_detection_exposure_compensation_help</t>
+  </si>
+  <si>
+    <t>face_detection_detect_eyes</t>
+  </si>
+  <si>
+    <t>face_detection_detect_eyes_help</t>
+  </si>
+  <si>
+    <t>Detect eyes</t>
+  </si>
+  <si>
+    <t>Exposure compensation</t>
+  </si>
+  <si>
+    <t>White balance mode</t>
+  </si>
+  <si>
+    <t>Whether to detect eyes, in addition to faces. If enabled, the face detection process might take longer.</t>
+  </si>
+  <si>
+    <t>White balance mode of camera for taking pictures for face detection.</t>
+  </si>
+  <si>
+    <t>Adjustment to auto-exposure brightness of image for face detection.</t>
+  </si>
+  <si>
+    <t>Režim vyváženia bielej</t>
+  </si>
+  <si>
+    <t>Režim vyváženia bielej fotoaparátu na snímku na detekciu tváre.</t>
+  </si>
+  <si>
+    <t>Kompenzácia expozície</t>
+  </si>
+  <si>
+    <t>Úprava jasu automatickej expozície snímku na detekciu tváre.</t>
+  </si>
+  <si>
+    <t>Detekovať oči</t>
+  </si>
+  <si>
+    <t>Či okrem tvárí detekovať aj oči. Ak je táto možnosť povolená, proces rozpoznávania tváre môže trvať dlhšie.</t>
+  </si>
+  <si>
+    <t>Režim vyvážení bílé</t>
+  </si>
+  <si>
+    <t>Režim vyvážení bílé fotoaparátu na snímek pro detekci obličeje.</t>
+  </si>
+  <si>
+    <t>Kompenzace expozice</t>
+  </si>
+  <si>
+    <t>Úprava jasu automatické expozice snímek pro detekci obličeje.</t>
+  </si>
+  <si>
+    <t>Detekovat oči</t>
+  </si>
+  <si>
+    <t>Zda kromě tváří detekovat i oči. Pokud je tato možnost povolena, proces rozpoznávání obličeje může trvat déle.</t>
+  </si>
+  <si>
+    <t>Način balansa bijele boje</t>
+  </si>
+  <si>
+    <t>Bílá bilance režim fotoaparata za fotografování za detekci tváří.</t>
+  </si>
+  <si>
+    <t>Kompenzacija ekspozicije</t>
+  </si>
+  <si>
+    <t>Adjustment to auto-exposition jasný obraz pro detekci obrazu.</t>
+  </si>
+  <si>
+    <t>Otkrij oči</t>
+  </si>
+  <si>
+    <t>Treba li detektirati oči, osim lica. Pokud je omogućen, proces prepoznavanja lica može trajati duže.</t>
+  </si>
+  <si>
+    <t>Mode balance des blancs</t>
+  </si>
+  <si>
+    <t>La compensation d'exposition</t>
+  </si>
+  <si>
+    <t>Détecter les yeux</t>
+  </si>
+  <si>
+    <t>Weißabgleichmodus</t>
+  </si>
+  <si>
+    <t>Belichtungsausgleich</t>
+  </si>
+  <si>
+    <t>Augen erkennen</t>
+  </si>
+  <si>
+    <t>Modalità bilanciamento del bianco</t>
+  </si>
+  <si>
+    <t>Compensazione dell'esposizione</t>
+  </si>
+  <si>
+    <t>Rileva gli occhi</t>
+  </si>
+  <si>
+    <t>ホワイトバランスモード</t>
+  </si>
+  <si>
+    <t>顔検出用に撮影するカメラのホワイトバランスモード。</t>
+  </si>
+  <si>
+    <t>露出補正</t>
+  </si>
+  <si>
+    <t>顔検出用の画像の自動露出の明るさを調整します。</t>
+  </si>
+  <si>
+    <t>目を検出する</t>
+  </si>
+  <si>
+    <t>顔に加えて目を検出するかどうか。 有効にすると、顔検出プロセスに時間がかかる可能性があります。</t>
+  </si>
+  <si>
+    <t>Modalità di bilanciamento del bianco della fotocamera per scattare foto per il rilevamento dei volti.</t>
+  </si>
+  <si>
+    <t>Regolazione della luminosità dell'esposizione automatica dell'immagine per il rilevamento dei volti.</t>
+  </si>
+  <si>
+    <t>Se rilevare gli occhi, oltre ai volti. Se abilitato, il processo di rilevamento dei volti potrebbe richiedere più tempo.</t>
+  </si>
+  <si>
+    <t>Weißabgleichmodus der Kamera zum Aufnehmen von Bildern zur Gesichtserkennung.</t>
+  </si>
+  <si>
+    <t>Anpassung der automatischen Belichtungshelligkeit des Bildes zur Gesichtserkennung.</t>
+  </si>
+  <si>
+    <t>Ob zusätzlich zu Gesichtern auch Augen erkannt werden sollen. Wenn diese Option aktiviert ist, kann der Gesichtserkennungsprozess länger dauern.</t>
+  </si>
+  <si>
+    <t>Mode balance des blancs de l'appareil photo pour prendre des photos pour la détection des visages.</t>
+  </si>
+  <si>
+    <t>Ajustement de la luminosité de l'exposition automatique de l'image pour la détection des visages.</t>
+  </si>
+  <si>
+    <t>Que ce soit pour détecter les yeux, en plus des visages. S'il est activé, le processus de détection des visages peut prendre plus de temps.</t>
+  </si>
+  <si>
+    <t>Tryb balansu bieli</t>
+  </si>
+  <si>
+    <t>Tryb balansu bieli aparatu do robienia zdjęć w celu wykrywania twarzy.</t>
+  </si>
+  <si>
+    <t>Kompensacja ekspozycji</t>
+  </si>
+  <si>
+    <t>Regulacja jasności obrazu z automatyczną ekspozycją w celu wykrywania twarzy.</t>
+  </si>
+  <si>
+    <t>Wykryj oczy</t>
+  </si>
+  <si>
+    <t>Czy oprócz twarzy wykrywać oczy. Jeśli ta opcja jest włączona, proces wykrywania twarzy może trwać dłużej.</t>
+  </si>
+  <si>
+    <t>화이트 밸런스 모드</t>
+  </si>
+  <si>
+    <t>얼굴 인식을 위한 사진 촬영을 위한 카메라의 화이트 밸런스 모드입니다.</t>
+  </si>
+  <si>
+    <t>노출 보정</t>
+  </si>
+  <si>
+    <t>얼굴 감지를 위한 이미지 자동 노출 밝기 조정.</t>
+  </si>
+  <si>
+    <t>눈 감지</t>
+  </si>
+  <si>
+    <t>얼굴 외에 눈도 감지할지 여부입니다. 활성화하면 얼굴 인식 프로세스가 더 오래 걸릴 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Modo de equilíbrio de branco</t>
+  </si>
+  <si>
+    <t>Modo de equilíbrio de branco da câmera para tirar fotos para detecção de rosto.</t>
+  </si>
+  <si>
+    <t>Compensação de exposição</t>
+  </si>
+  <si>
+    <t>Ajuste do brilho de exposição automática da imagem para detecção de rosto.</t>
+  </si>
+  <si>
+    <t>Detectar olhos</t>
+  </si>
+  <si>
+    <t>Seja para detectar olhos, além de rostos. Se ativado, o processo de detecção de rosto poderá demorar mais.</t>
+  </si>
+  <si>
+    <t>Режим баланса белого</t>
+  </si>
+  <si>
+    <t>Режим баланса белого камеры для съемки с распознаванием лиц.</t>
+  </si>
+  <si>
+    <t>Компенсация экспозиции</t>
+  </si>
+  <si>
+    <t>Регулировка автоэкспозиции яркости изображения для распознавания лиц.</t>
+  </si>
+  <si>
+    <t>Обнаружить глаза</t>
+  </si>
+  <si>
+    <t>Обнаруживать ли глаза помимо лиц. Если этот параметр включен, процесс обнаружения лиц может занять больше времени.</t>
+  </si>
+  <si>
+    <t>Način ravnovesja beline</t>
+  </si>
+  <si>
+    <t>Način ravnovesja beline kamere za fotografiranje za zaznavanje obrazov.</t>
+  </si>
+  <si>
+    <t>Kompenzacija osvetlitve</t>
+  </si>
+  <si>
+    <t>Prilagoditev svetlosti samodejne osvetlitve slike za zaznavanje obraza.</t>
+  </si>
+  <si>
+    <t>Zaznavanje oči</t>
+  </si>
+  <si>
+    <t>Ali naj poleg obrazov zazna tudi oči. Če je omogočeno, lahko postopek zaznavanja obrazov traja dlje.</t>
+  </si>
+  <si>
+    <t>Modo de equilibrio de blancos</t>
+  </si>
+  <si>
+    <t>Modo de balance de blancos de la cámara para tomar fotografías y detectar rostros.</t>
+  </si>
+  <si>
+    <t>Compensación de exposición</t>
+  </si>
+  <si>
+    <t>Ajuste del brillo de exposición automática de la imagen para la detección de rostros.</t>
+  </si>
+  <si>
+    <t>detectar ojos</t>
+  </si>
+  <si>
+    <t>Ya sea para detectar ojos, además de rostros. Si está habilitado, el proceso de detección de rostros puede tardar más.</t>
+  </si>
+  <si>
+    <t>Beyaz dengesi modu</t>
+  </si>
+  <si>
+    <t>Yüz algılama amacıyla fotoğraf çekmek için kameranın beyaz dengesi modu.</t>
+  </si>
+  <si>
+    <t>Pozlama telafisi</t>
+  </si>
+  <si>
+    <t>Yüz algılama için görüntünün otomatik pozlama parlaklığının ayarlanması.</t>
+  </si>
+  <si>
+    <t>Gözleri tespit et</t>
+  </si>
+  <si>
+    <t>Yüzlerin yanı sıra gözlerin de tespit edilip edilmeyeceği. Etkinleştirilirse yüz algılama işlemi daha uzun sürebilir.</t>
+  </si>
+  <si>
+    <t>mirror_image</t>
+  </si>
+  <si>
+    <t>Mirror image</t>
+  </si>
+  <si>
+    <t>Zrkadliť obraz</t>
+  </si>
+  <si>
+    <t>Aynadaki görüntü</t>
+  </si>
+  <si>
+    <t>Imagen de espejo</t>
+  </si>
+  <si>
+    <t>Zrcalna slika</t>
+  </si>
+  <si>
+    <t>Зеркальное изображение</t>
+  </si>
+  <si>
+    <t>Imagem espelhada</t>
+  </si>
+  <si>
+    <t>Odbicie lustrzane</t>
+  </si>
+  <si>
+    <t>미러 이미지</t>
+  </si>
+  <si>
+    <t>鏡像</t>
+  </si>
+  <si>
+    <t>Immagine riflessa</t>
+  </si>
+  <si>
+    <t>Spiegelbild</t>
+  </si>
+  <si>
+    <t>Image miroir</t>
+  </si>
+  <si>
+    <t>watchdog_ping_default_gateway</t>
+  </si>
+  <si>
+    <t>watchdog_ping_default_gateway_help</t>
+  </si>
+  <si>
+    <t>IP address or hostname of a network device that should be pinged for watchdog. If no address is entered, the network watchdog is turned off.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>IP adresa alebo doménové meno sieťového zariadenia, ktoré bude ping-ované pre watchdog. Ak nie je zadaná žiadna adresa, sieťový watchdog je vypnutý.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ping default gateway</t>
+  </si>
+  <si>
+    <t>Use default gateway for watchdog pings. May be used instead of IP address for pings. Watchdog will be active only if the default gateway is known during the app's startup.&lt;br&gt;&lt;i&gt;Reload is required for applying this change.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Pingovať default gateway</t>
+  </si>
+  <si>
+    <t>Použiť default geteway na pingovanie pre watchdog, namiesto IP adresy na ping. Watchdog bude aktívny len ak je default gateway známy počas štartu tejto aplikácie.&lt;br&gt;&lt;i&gt;Reštart aplikácie je vyžadovaný pre aplikovanie tohto nastavenia.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Pingovat default gateway</t>
+  </si>
+  <si>
+    <t>Použít default geteway k pingování pro watchdog, místo IP adresy na ping. Watchdog bude aktivní pouze pokud je default gateway znám během startu této aplikace.&lt;br&gt;&lt;i&gt;Restart aplikace je vyžadován pro aplikování tohoto nastavení.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ping-Standard-Gateway</t>
+  </si>
+  <si>
+    <t>Verwenden Sie das Standard-Gateway für Watchdog-Pings. Kann anstelle der IP-Adresse für Pings verwendet werden. Watchdog ist nur aktiv, wenn das Standard-Gateway beim Start der App bekannt ist.&lt;br&gt;&lt;i&gt;Um diese Änderung anzuwenden, ist ein Neuladen erforderlich.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Effettua il ping del gateway predefinito</t>
+  </si>
+  <si>
+    <t>Utilizza il gateway predefinito per i ping del watchdog. Può essere utilizzato al posto dell'indirizzo IP per i ping. Il watchdog sarà attivo solo se il gateway predefinito è noto durante l'avvio dell'app.&lt;br&gt;&lt;i&gt;È necessario ricaricare per applicare questa modifica.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイにpingを送信する</t>
+  </si>
+  <si>
+    <t>ウォッチドッグ ping にはデフォルト ゲートウェイを使用します。 ping の IP アドレスの代わりに使用できます。 ウォッチドッグは、アプリの起動時にデフォルト ゲートウェイがわかっている場合にのみアクティブになります。&lt;br&gt;&lt;i&gt;この変更を適用するにはリロードが必要です。&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ping 기본 게이트웨이</t>
+  </si>
+  <si>
+    <t>감시 핑에 기본 게이트웨이를 사용합니다. 핑을 위해 IP 주소 대신 사용될 수 있습니다. Watchdog은 앱 시작 중에 기본 게이트웨이가 알려진 경우에만 활성화됩니다.&lt;br&gt;&lt;i&gt;이 변경 사항을 적용하려면 새로고침이 필요합니다.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Pinguj bramę domyślną</t>
+  </si>
+  <si>
+    <t>Użyj domyślnej bramy dla pingów watchdoga. Może być używany zamiast adresu IP dla poleceń ping. Watchdog będzie aktywny tylko wtedy, gdy podczas uruchamiania aplikacji znana będzie brama domyślna.&lt;br&gt;&lt;i&gt;Aby zastosować tę zmianę, wymagane jest ponowne załadowanie.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Gateway padrão de ping</t>
+  </si>
+  <si>
+    <t>Use o gateway padrão para pings de watchdog. Pode ser usado em vez do endereço IP para pings. O Watchdog estará ativo somente se o gateway padrão for conhecido durante a inicialização do aplicativo.&lt;br&gt;&lt;i&gt;É necessário recarregar para aplicar esta alteração.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ping шлюз по умолчанию</t>
+  </si>
+  <si>
+    <t>Используйте шлюз по умолчанию для проверки связи со сторожевым таймером. Может использоваться вместо IP-адреса для проверки связи. Сторожевой таймер будет активен, только если шлюз по умолчанию известен во время запуска приложения.&lt;br&gt;&lt;i&gt;Для применения этого изменения потребуется перезагрузка.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Ping privzeti prehod</t>
+  </si>
+  <si>
+    <t>Uporabi privzeti prehod za nadzorne pinge. Lahko se uporablja namesto naslova IP za pinge. Watchdog bo aktiven samo, če je med zagonom aplikacije znan privzeti prehod.&lt;br&gt;&lt;i&gt;Za uporabo te spremembe je potrebno ponovno nalaganje.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Hacer ping a la puerta de enlace predeterminada</t>
+  </si>
+  <si>
+    <t>Utilice la puerta de enlace predeterminada para los pings de vigilancia. Puede usarse en lugar de la dirección IP para pings. El mecanismo de vigilancia estará activo solo si se conoce la puerta de enlace predeterminada durante el inicio de la aplicación.&lt;br&gt;&lt;i&gt;Es necesario volver a cargar para aplicar este cambio.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Varsayılan ağ geçidine ping at</t>
+  </si>
+  <si>
+    <t>Watchdog ping'leri için varsayılan ağ geçidini kullanın. Ping'ler için IP adresi yerine kullanılabilir. Watchdog yalnızca uygulamanın başlatılması sırasında varsayılan ağ geçidi biliniyorsa etkin olacaktır.&lt;br&gt;&lt;i&gt;Bu değişikliğin uygulanması için yeniden yükleme gereklidir.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Slideshow app has been successfully updated to a newer version. There are following changes in this version:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Added possibility to mirror camera image (see Edit content for type Video input)&lt;/li&gt;&lt;li&gt;Added network ping watchdog (see Device settings)&lt;/li&gt;&lt;li&gt;Added new setting Target folder from Flash drive (see menu Settings - Device settings)&lt;/li&gt;&lt;li&gt;Changed screen layout intervals check from every minute to every 10 seconds (screen layout interval can now be decimal number)&lt;/li&gt;&lt;li&gt;Enhanced Face detection with additional settings, status page and MQTT reporting&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You can find documentation for features on &lt;a href="https://slideshow.digital/documentation/" target="_blank"&gt;https://slideshow.digital/documentation/&lt;/a&gt;  and watch tutorials on  &lt;a href="https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ" target="_blank"&gt;https://www.youtube.com/channel/UCJFSXCItojY4PS76JNr_pdQ&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If you like Slideshow app, you can support the development by rating the app on &lt;a href="https://play.google.com/store/apps/details?id=sk.mimac.slideshow" target="_blank"&gt;Google Play&lt;/a&gt; or buy us a &lt;a href="https://ko-fi.com/slideshow" target="_blank"&gt;coffee&lt;/a&gt;.&lt;/p&gt;&lt;span style='float:right'&gt;-- The Development team --&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -41237,18 +42200,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P884"/>
+  <dimension ref="A1:P905"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B450" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B650" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D479" sqref="D479"/>
+      <selection pane="bottomRight" activeCell="D676" sqref="D676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
@@ -64970,7 +65933,7 @@
         <v>1644</v>
       </c>
       <c r="D475" t="s">
-        <v>13604</v>
+        <v>13603</v>
       </c>
       <c r="E475" t="s">
         <v>2735</v>
@@ -75020,7 +75983,7 @@
         <v>13003</v>
       </c>
       <c r="D676" t="s">
-        <v>13603</v>
+        <v>13925</v>
       </c>
       <c r="E676" t="s">
         <v>12993</v>
@@ -85457,6 +86420,1056 @@
       </c>
       <c r="P884" t="s">
         <v>13602</v>
+      </c>
+    </row>
+    <row r="885" spans="1:16">
+      <c r="A885" t="s">
+        <v>13604</v>
+      </c>
+      <c r="B885" t="s">
+        <v>13631</v>
+      </c>
+      <c r="C885" t="s">
+        <v>13693</v>
+      </c>
+      <c r="D885" t="s">
+        <v>13610</v>
+      </c>
+      <c r="E885" t="s">
+        <v>13625</v>
+      </c>
+      <c r="F885" t="s">
+        <v>13619</v>
+      </c>
+      <c r="G885" t="s">
+        <v>13637</v>
+      </c>
+      <c r="H885" t="s">
+        <v>13643</v>
+      </c>
+      <c r="I885" t="s">
+        <v>13649</v>
+      </c>
+      <c r="J885" t="s">
+        <v>13655</v>
+      </c>
+      <c r="K885" t="s">
+        <v>13661</v>
+      </c>
+      <c r="L885" t="s">
+        <v>13667</v>
+      </c>
+      <c r="M885" t="s">
+        <v>13692</v>
+      </c>
+      <c r="N885" t="s">
+        <v>13673</v>
+      </c>
+      <c r="O885" t="s">
+        <v>13679</v>
+      </c>
+      <c r="P885" t="s">
+        <v>13685</v>
+      </c>
+    </row>
+    <row r="886" spans="1:16">
+      <c r="A886" t="s">
+        <v>13605</v>
+      </c>
+      <c r="B886" t="s">
+        <v>13632</v>
+      </c>
+      <c r="C886" t="s">
+        <v>13694</v>
+      </c>
+      <c r="D886" t="s">
+        <v>13699</v>
+      </c>
+      <c r="E886" t="s">
+        <v>13626</v>
+      </c>
+      <c r="F886" t="s">
+        <v>13620</v>
+      </c>
+      <c r="G886" t="s">
+        <v>13638</v>
+      </c>
+      <c r="H886" t="s">
+        <v>13644</v>
+      </c>
+      <c r="I886" t="s">
+        <v>13650</v>
+      </c>
+      <c r="J886" t="s">
+        <v>13656</v>
+      </c>
+      <c r="K886" t="s">
+        <v>13662</v>
+      </c>
+      <c r="L886" t="s">
+        <v>13668</v>
+      </c>
+      <c r="M886" t="s">
+        <v>13615</v>
+      </c>
+      <c r="N886" t="s">
+        <v>13674</v>
+      </c>
+      <c r="O886" t="s">
+        <v>13680</v>
+      </c>
+      <c r="P886" t="s">
+        <v>13686</v>
+      </c>
+    </row>
+    <row r="887" spans="1:16">
+      <c r="A887" t="s">
+        <v>13606</v>
+      </c>
+      <c r="B887" t="s">
+        <v>13633</v>
+      </c>
+      <c r="C887" t="s">
+        <v>13695</v>
+      </c>
+      <c r="D887" t="s">
+        <v>13611</v>
+      </c>
+      <c r="E887" t="s">
+        <v>13627</v>
+      </c>
+      <c r="F887" t="s">
+        <v>13621</v>
+      </c>
+      <c r="G887" t="s">
+        <v>13639</v>
+      </c>
+      <c r="H887" t="s">
+        <v>13645</v>
+      </c>
+      <c r="I887" t="s">
+        <v>13651</v>
+      </c>
+      <c r="J887" t="s">
+        <v>13657</v>
+      </c>
+      <c r="K887" t="s">
+        <v>13663</v>
+      </c>
+      <c r="L887" t="s">
+        <v>13669</v>
+      </c>
+      <c r="M887" t="s">
+        <v>13616</v>
+      </c>
+      <c r="N887" t="s">
+        <v>13675</v>
+      </c>
+      <c r="O887" t="s">
+        <v>13681</v>
+      </c>
+      <c r="P887" t="s">
+        <v>13687</v>
+      </c>
+    </row>
+    <row r="888" spans="1:16">
+      <c r="A888" t="s">
+        <v>13607</v>
+      </c>
+      <c r="B888" t="s">
+        <v>13634</v>
+      </c>
+      <c r="C888" t="s">
+        <v>13696</v>
+      </c>
+      <c r="D888" t="s">
+        <v>13612</v>
+      </c>
+      <c r="E888" t="s">
+        <v>13628</v>
+      </c>
+      <c r="F888" t="s">
+        <v>13622</v>
+      </c>
+      <c r="G888" t="s">
+        <v>13640</v>
+      </c>
+      <c r="H888" t="s">
+        <v>13646</v>
+      </c>
+      <c r="I888" t="s">
+        <v>13652</v>
+      </c>
+      <c r="J888" t="s">
+        <v>13658</v>
+      </c>
+      <c r="K888" t="s">
+        <v>13664</v>
+      </c>
+      <c r="L888" t="s">
+        <v>13670</v>
+      </c>
+      <c r="M888" t="s">
+        <v>13614</v>
+      </c>
+      <c r="N888" t="s">
+        <v>13676</v>
+      </c>
+      <c r="O888" t="s">
+        <v>13682</v>
+      </c>
+      <c r="P888" t="s">
+        <v>13688</v>
+      </c>
+    </row>
+    <row r="889" spans="1:16">
+      <c r="A889" t="s">
+        <v>13608</v>
+      </c>
+      <c r="B889" t="s">
+        <v>13635</v>
+      </c>
+      <c r="C889" t="s">
+        <v>13697</v>
+      </c>
+      <c r="D889" t="s">
+        <v>13613</v>
+      </c>
+      <c r="E889" t="s">
+        <v>13629</v>
+      </c>
+      <c r="F889" t="s">
+        <v>13623</v>
+      </c>
+      <c r="G889" t="s">
+        <v>13641</v>
+      </c>
+      <c r="H889" t="s">
+        <v>13647</v>
+      </c>
+      <c r="I889" t="s">
+        <v>13653</v>
+      </c>
+      <c r="J889" t="s">
+        <v>13659</v>
+      </c>
+      <c r="K889" t="s">
+        <v>13665</v>
+      </c>
+      <c r="L889" t="s">
+        <v>13671</v>
+      </c>
+      <c r="M889" t="s">
+        <v>13691</v>
+      </c>
+      <c r="N889" t="s">
+        <v>13677</v>
+      </c>
+      <c r="O889" t="s">
+        <v>13683</v>
+      </c>
+      <c r="P889" t="s">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="890" spans="1:16">
+      <c r="A890" t="s">
+        <v>13609</v>
+      </c>
+      <c r="B890" t="s">
+        <v>13636</v>
+      </c>
+      <c r="C890" t="s">
+        <v>13698</v>
+      </c>
+      <c r="D890" t="s">
+        <v>13618</v>
+      </c>
+      <c r="E890" t="s">
+        <v>13630</v>
+      </c>
+      <c r="F890" t="s">
+        <v>13624</v>
+      </c>
+      <c r="G890" t="s">
+        <v>13642</v>
+      </c>
+      <c r="H890" t="s">
+        <v>13648</v>
+      </c>
+      <c r="I890" t="s">
+        <v>13654</v>
+      </c>
+      <c r="J890" t="s">
+        <v>13660</v>
+      </c>
+      <c r="K890" t="s">
+        <v>13666</v>
+      </c>
+      <c r="L890" t="s">
+        <v>13672</v>
+      </c>
+      <c r="M890" t="s">
+        <v>13617</v>
+      </c>
+      <c r="N890" t="s">
+        <v>13678</v>
+      </c>
+      <c r="O890" t="s">
+        <v>13684</v>
+      </c>
+      <c r="P890" t="s">
+        <v>13690</v>
+      </c>
+    </row>
+    <row r="891" spans="1:16">
+      <c r="A891" t="s">
+        <v>13700</v>
+      </c>
+      <c r="B891" t="s">
+        <v>13711</v>
+      </c>
+      <c r="C891" t="s">
+        <v>13712</v>
+      </c>
+      <c r="D891" t="s">
+        <v>13711</v>
+      </c>
+      <c r="E891" t="s">
+        <v>13742</v>
+      </c>
+      <c r="F891" t="s">
+        <v>13736</v>
+      </c>
+      <c r="G891" t="s">
+        <v>13730</v>
+      </c>
+      <c r="H891" t="s">
+        <v>13724</v>
+      </c>
+      <c r="I891" t="s">
+        <v>13718</v>
+      </c>
+      <c r="J891" t="s">
+        <v>13748</v>
+      </c>
+      <c r="K891" t="s">
+        <v>13754</v>
+      </c>
+      <c r="L891" t="s">
+        <v>13760</v>
+      </c>
+      <c r="M891" t="s">
+        <v>13712</v>
+      </c>
+      <c r="N891" t="s">
+        <v>13766</v>
+      </c>
+      <c r="O891" t="s">
+        <v>13772</v>
+      </c>
+      <c r="P891" t="s">
+        <v>13778</v>
+      </c>
+    </row>
+    <row r="892" spans="1:16">
+      <c r="A892" t="s">
+        <v>13701</v>
+      </c>
+      <c r="B892" t="s">
+        <v>13706</v>
+      </c>
+      <c r="C892" t="s">
+        <v>13715</v>
+      </c>
+      <c r="D892" t="s">
+        <v>13897</v>
+      </c>
+      <c r="E892" t="s">
+        <v>13743</v>
+      </c>
+      <c r="F892" t="s">
+        <v>13737</v>
+      </c>
+      <c r="G892" t="s">
+        <v>13731</v>
+      </c>
+      <c r="H892" t="s">
+        <v>13725</v>
+      </c>
+      <c r="I892" t="s">
+        <v>13719</v>
+      </c>
+      <c r="J892" t="s">
+        <v>13749</v>
+      </c>
+      <c r="K892" t="s">
+        <v>13755</v>
+      </c>
+      <c r="L892" t="s">
+        <v>13761</v>
+      </c>
+      <c r="M892" t="s">
+        <v>13898</v>
+      </c>
+      <c r="N892" t="s">
+        <v>13767</v>
+      </c>
+      <c r="O892" t="s">
+        <v>13773</v>
+      </c>
+      <c r="P892" t="s">
+        <v>13779</v>
+      </c>
+    </row>
+    <row r="893" spans="1:16">
+      <c r="A893" t="s">
+        <v>13703</v>
+      </c>
+      <c r="B893" t="s">
+        <v>13709</v>
+      </c>
+      <c r="C893" t="s">
+        <v>13716</v>
+      </c>
+      <c r="D893" t="s">
+        <v>13709</v>
+      </c>
+      <c r="E893" t="s">
+        <v>13744</v>
+      </c>
+      <c r="F893" t="s">
+        <v>13738</v>
+      </c>
+      <c r="G893" t="s">
+        <v>13732</v>
+      </c>
+      <c r="H893" t="s">
+        <v>13726</v>
+      </c>
+      <c r="I893" t="s">
+        <v>13720</v>
+      </c>
+      <c r="J893" t="s">
+        <v>13750</v>
+      </c>
+      <c r="K893" t="s">
+        <v>13756</v>
+      </c>
+      <c r="L893" t="s">
+        <v>13762</v>
+      </c>
+      <c r="M893" t="s">
+        <v>13716</v>
+      </c>
+      <c r="N893" t="s">
+        <v>13768</v>
+      </c>
+      <c r="O893" t="s">
+        <v>13774</v>
+      </c>
+      <c r="P893" t="s">
+        <v>13780</v>
+      </c>
+    </row>
+    <row r="894" spans="1:16">
+      <c r="A894" t="s">
+        <v>13702</v>
+      </c>
+      <c r="B894" t="s">
+        <v>13707</v>
+      </c>
+      <c r="C894" t="s">
+        <v>13717</v>
+      </c>
+      <c r="D894" t="s">
+        <v>13707</v>
+      </c>
+      <c r="E894" t="s">
+        <v>13745</v>
+      </c>
+      <c r="F894" t="s">
+        <v>13739</v>
+      </c>
+      <c r="G894" t="s">
+        <v>13733</v>
+      </c>
+      <c r="H894" t="s">
+        <v>13727</v>
+      </c>
+      <c r="I894" t="s">
+        <v>13721</v>
+      </c>
+      <c r="J894" t="s">
+        <v>13751</v>
+      </c>
+      <c r="K894" t="s">
+        <v>13757</v>
+      </c>
+      <c r="L894" t="s">
+        <v>13763</v>
+      </c>
+      <c r="M894" t="s">
+        <v>13717</v>
+      </c>
+      <c r="N894" t="s">
+        <v>13769</v>
+      </c>
+      <c r="O894" t="s">
+        <v>13775</v>
+      </c>
+      <c r="P894" t="s">
+        <v>13781</v>
+      </c>
+    </row>
+    <row r="895" spans="1:16">
+      <c r="A895" t="s">
+        <v>13704</v>
+      </c>
+      <c r="B895" t="s">
+        <v>13710</v>
+      </c>
+      <c r="C895" t="s">
+        <v>13713</v>
+      </c>
+      <c r="D895" t="s">
+        <v>13784</v>
+      </c>
+      <c r="E895" t="s">
+        <v>13746</v>
+      </c>
+      <c r="F895" t="s">
+        <v>13740</v>
+      </c>
+      <c r="G895" t="s">
+        <v>13734</v>
+      </c>
+      <c r="H895" t="s">
+        <v>13728</v>
+      </c>
+      <c r="I895" t="s">
+        <v>13722</v>
+      </c>
+      <c r="J895" t="s">
+        <v>13752</v>
+      </c>
+      <c r="K895" t="s">
+        <v>13758</v>
+      </c>
+      <c r="L895" t="s">
+        <v>13764</v>
+      </c>
+      <c r="M895" t="s">
+        <v>13713</v>
+      </c>
+      <c r="N895" t="s">
+        <v>13770</v>
+      </c>
+      <c r="O895" t="s">
+        <v>13776</v>
+      </c>
+      <c r="P895" t="s">
+        <v>13782</v>
+      </c>
+    </row>
+    <row r="896" spans="1:16">
+      <c r="A896" t="s">
+        <v>13705</v>
+      </c>
+      <c r="B896" t="s">
+        <v>13708</v>
+      </c>
+      <c r="C896" t="s">
+        <v>13714</v>
+      </c>
+      <c r="D896" t="s">
+        <v>13708</v>
+      </c>
+      <c r="E896" t="s">
+        <v>13747</v>
+      </c>
+      <c r="F896" t="s">
+        <v>13741</v>
+      </c>
+      <c r="G896" t="s">
+        <v>13735</v>
+      </c>
+      <c r="H896" t="s">
+        <v>13729</v>
+      </c>
+      <c r="I896" t="s">
+        <v>13723</v>
+      </c>
+      <c r="J896" t="s">
+        <v>13753</v>
+      </c>
+      <c r="K896" t="s">
+        <v>13759</v>
+      </c>
+      <c r="L896" t="s">
+        <v>13765</v>
+      </c>
+      <c r="M896" t="s">
+        <v>13714</v>
+      </c>
+      <c r="N896" t="s">
+        <v>13771</v>
+      </c>
+      <c r="O896" t="s">
+        <v>13777</v>
+      </c>
+      <c r="P896" t="s">
+        <v>13783</v>
+      </c>
+    </row>
+    <row r="897" spans="1:16">
+      <c r="A897" t="s">
+        <v>13785</v>
+      </c>
+      <c r="B897" t="s">
+        <v>13809</v>
+      </c>
+      <c r="C897" t="s">
+        <v>13803</v>
+      </c>
+      <c r="D897" t="s">
+        <v>13793</v>
+      </c>
+      <c r="E897" t="s">
+        <v>13815</v>
+      </c>
+      <c r="F897" t="s">
+        <v>13818</v>
+      </c>
+      <c r="G897" t="s">
+        <v>13821</v>
+      </c>
+      <c r="H897" t="s">
+        <v>13824</v>
+      </c>
+      <c r="I897" t="s">
+        <v>13845</v>
+      </c>
+      <c r="J897" t="s">
+        <v>13839</v>
+      </c>
+      <c r="K897" t="s">
+        <v>13851</v>
+      </c>
+      <c r="L897" t="s">
+        <v>13857</v>
+      </c>
+      <c r="M897" t="s">
+        <v>13797</v>
+      </c>
+      <c r="N897" t="s">
+        <v>13863</v>
+      </c>
+      <c r="O897" t="s">
+        <v>13869</v>
+      </c>
+      <c r="P897" t="s">
+        <v>13875</v>
+      </c>
+    </row>
+    <row r="898" spans="1:16">
+      <c r="A898" t="s">
+        <v>13786</v>
+      </c>
+      <c r="B898" t="s">
+        <v>13810</v>
+      </c>
+      <c r="C898" t="s">
+        <v>13804</v>
+      </c>
+      <c r="D898" t="s">
+        <v>13795</v>
+      </c>
+      <c r="E898" t="s">
+        <v>13836</v>
+      </c>
+      <c r="F898" t="s">
+        <v>13833</v>
+      </c>
+      <c r="G898" t="s">
+        <v>13830</v>
+      </c>
+      <c r="H898" t="s">
+        <v>13825</v>
+      </c>
+      <c r="I898" t="s">
+        <v>13846</v>
+      </c>
+      <c r="J898" t="s">
+        <v>13840</v>
+      </c>
+      <c r="K898" t="s">
+        <v>13852</v>
+      </c>
+      <c r="L898" t="s">
+        <v>13858</v>
+      </c>
+      <c r="M898" t="s">
+        <v>13798</v>
+      </c>
+      <c r="N898" t="s">
+        <v>13864</v>
+      </c>
+      <c r="O898" t="s">
+        <v>13870</v>
+      </c>
+      <c r="P898" t="s">
+        <v>13876</v>
+      </c>
+    </row>
+    <row r="899" spans="1:16">
+      <c r="A899" t="s">
+        <v>13787</v>
+      </c>
+      <c r="B899" t="s">
+        <v>13811</v>
+      </c>
+      <c r="C899" t="s">
+        <v>13805</v>
+      </c>
+      <c r="D899" t="s">
+        <v>13792</v>
+      </c>
+      <c r="E899" t="s">
+        <v>13816</v>
+      </c>
+      <c r="F899" t="s">
+        <v>13819</v>
+      </c>
+      <c r="G899" t="s">
+        <v>13822</v>
+      </c>
+      <c r="H899" t="s">
+        <v>13826</v>
+      </c>
+      <c r="I899" t="s">
+        <v>13847</v>
+      </c>
+      <c r="J899" t="s">
+        <v>13841</v>
+      </c>
+      <c r="K899" t="s">
+        <v>13853</v>
+      </c>
+      <c r="L899" t="s">
+        <v>13859</v>
+      </c>
+      <c r="M899" t="s">
+        <v>13799</v>
+      </c>
+      <c r="N899" t="s">
+        <v>13865</v>
+      </c>
+      <c r="O899" t="s">
+        <v>13871</v>
+      </c>
+      <c r="P899" t="s">
+        <v>13877</v>
+      </c>
+    </row>
+    <row r="900" spans="1:16">
+      <c r="A900" t="s">
+        <v>13788</v>
+      </c>
+      <c r="B900" t="s">
+        <v>13812</v>
+      </c>
+      <c r="C900" t="s">
+        <v>13806</v>
+      </c>
+      <c r="D900" t="s">
+        <v>13796</v>
+      </c>
+      <c r="E900" t="s">
+        <v>13837</v>
+      </c>
+      <c r="F900" t="s">
+        <v>13834</v>
+      </c>
+      <c r="G900" t="s">
+        <v>13831</v>
+      </c>
+      <c r="H900" t="s">
+        <v>13827</v>
+      </c>
+      <c r="I900" t="s">
+        <v>13848</v>
+      </c>
+      <c r="J900" t="s">
+        <v>13842</v>
+      </c>
+      <c r="K900" t="s">
+        <v>13854</v>
+      </c>
+      <c r="L900" t="s">
+        <v>13860</v>
+      </c>
+      <c r="M900" t="s">
+        <v>13800</v>
+      </c>
+      <c r="N900" t="s">
+        <v>13866</v>
+      </c>
+      <c r="O900" t="s">
+        <v>13872</v>
+      </c>
+      <c r="P900" t="s">
+        <v>13878</v>
+      </c>
+    </row>
+    <row r="901" spans="1:16">
+      <c r="A901" t="s">
+        <v>13789</v>
+      </c>
+      <c r="B901" t="s">
+        <v>13813</v>
+      </c>
+      <c r="C901" t="s">
+        <v>13807</v>
+      </c>
+      <c r="D901" t="s">
+        <v>13791</v>
+      </c>
+      <c r="E901" t="s">
+        <v>13817</v>
+      </c>
+      <c r="F901" t="s">
+        <v>13820</v>
+      </c>
+      <c r="G901" t="s">
+        <v>13823</v>
+      </c>
+      <c r="H901" t="s">
+        <v>13828</v>
+      </c>
+      <c r="I901" t="s">
+        <v>13849</v>
+      </c>
+      <c r="J901" t="s">
+        <v>13843</v>
+      </c>
+      <c r="K901" t="s">
+        <v>13855</v>
+      </c>
+      <c r="L901" t="s">
+        <v>13861</v>
+      </c>
+      <c r="M901" t="s">
+        <v>13801</v>
+      </c>
+      <c r="N901" t="s">
+        <v>13867</v>
+      </c>
+      <c r="O901" t="s">
+        <v>13873</v>
+      </c>
+      <c r="P901" t="s">
+        <v>13879</v>
+      </c>
+    </row>
+    <row r="902" spans="1:16">
+      <c r="A902" t="s">
+        <v>13790</v>
+      </c>
+      <c r="B902" t="s">
+        <v>13814</v>
+      </c>
+      <c r="C902" t="s">
+        <v>13808</v>
+      </c>
+      <c r="D902" t="s">
+        <v>13794</v>
+      </c>
+      <c r="E902" t="s">
+        <v>13838</v>
+      </c>
+      <c r="F902" t="s">
+        <v>13835</v>
+      </c>
+      <c r="G902" t="s">
+        <v>13832</v>
+      </c>
+      <c r="H902" t="s">
+        <v>13829</v>
+      </c>
+      <c r="I902" t="s">
+        <v>13850</v>
+      </c>
+      <c r="J902" t="s">
+        <v>13844</v>
+      </c>
+      <c r="K902" t="s">
+        <v>13856</v>
+      </c>
+      <c r="L902" t="s">
+        <v>13862</v>
+      </c>
+      <c r="M902" t="s">
+        <v>13802</v>
+      </c>
+      <c r="N902" t="s">
+        <v>13868</v>
+      </c>
+      <c r="O902" t="s">
+        <v>13874</v>
+      </c>
+      <c r="P902" t="s">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="903" spans="1:16">
+      <c r="A903" t="s">
+        <v>13881</v>
+      </c>
+      <c r="B903" t="s">
+        <v>13886</v>
+      </c>
+      <c r="C903" t="s">
+        <v>13883</v>
+      </c>
+      <c r="D903" t="s">
+        <v>13882</v>
+      </c>
+      <c r="E903" t="s">
+        <v>13894</v>
+      </c>
+      <c r="F903" t="s">
+        <v>13893</v>
+      </c>
+      <c r="G903" t="s">
+        <v>13892</v>
+      </c>
+      <c r="H903" t="s">
+        <v>13891</v>
+      </c>
+      <c r="I903" t="s">
+        <v>13890</v>
+      </c>
+      <c r="J903" t="s">
+        <v>13889</v>
+      </c>
+      <c r="K903" t="s">
+        <v>13888</v>
+      </c>
+      <c r="L903" t="s">
+        <v>13887</v>
+      </c>
+      <c r="M903" t="s">
+        <v>13883</v>
+      </c>
+      <c r="N903" t="s">
+        <v>13886</v>
+      </c>
+      <c r="O903" t="s">
+        <v>13885</v>
+      </c>
+      <c r="P903" t="s">
+        <v>13884</v>
+      </c>
+    </row>
+    <row r="904" spans="1:16">
+      <c r="A904" t="s">
+        <v>13895</v>
+      </c>
+      <c r="B904" t="s">
+        <v>13899</v>
+      </c>
+      <c r="C904" t="s">
+        <v>13903</v>
+      </c>
+      <c r="D904" t="s">
+        <v>13899</v>
+      </c>
+      <c r="E904" t="s">
+        <v>13899</v>
+      </c>
+      <c r="F904" t="s">
+        <v>13905</v>
+      </c>
+      <c r="G904" t="s">
+        <v>13907</v>
+      </c>
+      <c r="H904" t="s">
+        <v>13909</v>
+      </c>
+      <c r="I904" t="s">
+        <v>13911</v>
+      </c>
+      <c r="J904" t="s">
+        <v>13913</v>
+      </c>
+      <c r="K904" t="s">
+        <v>13915</v>
+      </c>
+      <c r="L904" t="s">
+        <v>13917</v>
+      </c>
+      <c r="M904" t="s">
+        <v>13901</v>
+      </c>
+      <c r="N904" t="s">
+        <v>13919</v>
+      </c>
+      <c r="O904" t="s">
+        <v>13921</v>
+      </c>
+      <c r="P904" t="s">
+        <v>13923</v>
+      </c>
+    </row>
+    <row r="905" spans="1:16">
+      <c r="A905" t="s">
+        <v>13896</v>
+      </c>
+      <c r="B905" t="s">
+        <v>13900</v>
+      </c>
+      <c r="C905" t="s">
+        <v>13904</v>
+      </c>
+      <c r="D905" t="s">
+        <v>13900</v>
+      </c>
+      <c r="E905" t="s">
+        <v>13900</v>
+      </c>
+      <c r="F905" t="s">
+        <v>13906</v>
+      </c>
+      <c r="G905" t="s">
+        <v>13908</v>
+      </c>
+      <c r="H905" t="s">
+        <v>13910</v>
+      </c>
+      <c r="I905" t="s">
+        <v>13912</v>
+      </c>
+      <c r="J905" t="s">
+        <v>13914</v>
+      </c>
+      <c r="K905" t="s">
+        <v>13916</v>
+      </c>
+      <c r="L905" t="s">
+        <v>13918</v>
+      </c>
+      <c r="M905" t="s">
+        <v>13902</v>
+      </c>
+      <c r="N905" t="s">
+        <v>13920</v>
+      </c>
+      <c r="O905" t="s">
+        <v>13922</v>
+      </c>
+      <c r="P905" t="s">
+        <v>13924</v>
       </c>
     </row>
   </sheetData>
